--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12851" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13083" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>
@@ -691,31 +691,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.24631082802915116</v>
+        <v>0.24269474368342936</v>
       </c>
       <c r="C3">
-        <v>0.23452908839312725</v>
+        <v>0.23314648852488723</v>
       </c>
       <c r="D3">
-        <v>0.51916008357772159</v>
+        <v>0.52415876779168336</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.72381780804104678</v>
+        <v>0.72557515189327548</v>
       </c>
       <c r="J3">
-        <v>0.27618219195895316</v>
+        <v>0.27442484810672463</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.70381157584432918</v>
+        <v>0.71825774417938748</v>
       </c>
       <c r="O3">
-        <v>0.29618842415567082</v>
+        <v>0.28174225582061246</v>
       </c>
     </row>
     <row r="4">
@@ -723,31 +723,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.27267768234564682</v>
+        <v>0.26430826685448561</v>
       </c>
       <c r="C4">
-        <v>0.22218260701228612</v>
+        <v>0.22641637195051045</v>
       </c>
       <c r="D4">
-        <v>0.50513971064206709</v>
+        <v>0.50927536119500394</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.71889963793374356</v>
+        <v>0.73473168410714906</v>
       </c>
       <c r="J4">
-        <v>0.28110036206625633</v>
+        <v>0.26526831589285094</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.69910039577396021</v>
+        <v>0.69490270116261332</v>
       </c>
       <c r="O4">
-        <v>0.3008996042260399</v>
+        <v>0.30509729883738673</v>
       </c>
     </row>
     <row r="5">
@@ -755,31 +755,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.2683847088772407</v>
+        <v>0.26784572758314257</v>
       </c>
       <c r="C5">
-        <v>0.21910966131743703</v>
+        <v>0.21486741399573511</v>
       </c>
       <c r="D5">
-        <v>0.51250562980532233</v>
+        <v>0.51728685842112232</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.68395214632152546</v>
+        <v>0.67098327628772025</v>
       </c>
       <c r="J5">
-        <v>0.31604785367847449</v>
+        <v>0.32901672371227969</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.70812503899155588</v>
+        <v>0.71459118085802631</v>
       </c>
       <c r="O5">
-        <v>0.29187496100844418</v>
+        <v>0.28540881914197358</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.23928067613479131</v>
+        <v>0.24179644948679094</v>
       </c>
       <c r="C6">
-        <v>0.22264145382215328</v>
+        <v>0.21499663094075647</v>
       </c>
       <c r="D6">
-        <v>0.53807787004305541</v>
+        <v>0.5432069195724526</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.71447653292381286</v>
+        <v>0.72274773025172034</v>
       </c>
       <c r="J6">
-        <v>0.28552346707618714</v>
+        <v>0.2772522697482796</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.68175607546746209</v>
+        <v>0.69124182106791898</v>
       </c>
       <c r="O6">
-        <v>0.31824392453253791</v>
+        <v>0.30875817893208091</v>
       </c>
     </row>
     <row r="7">
@@ -819,31 +819,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.25764246602962543</v>
+        <v>0.24501291485857443</v>
       </c>
       <c r="C7">
-        <v>0.23050215712961306</v>
+        <v>0.23777113533742142</v>
       </c>
       <c r="D7">
-        <v>0.51185537684076154</v>
+        <v>0.51721594980400409</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.69324236139891637</v>
+        <v>0.68694317441213015</v>
       </c>
       <c r="J7">
-        <v>0.30675763860108352</v>
+        <v>0.3130568255878699</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.71392807815736059</v>
+        <v>0.72773443890931055</v>
       </c>
       <c r="O7">
-        <v>0.28607192184263935</v>
+        <v>0.2722655610906895</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.25619624220567694</v>
+        <v>0.24924611215261486</v>
       </c>
       <c r="C8">
-        <v>0.21392171738454752</v>
+        <v>0.21186981771544305</v>
       </c>
       <c r="D8">
-        <v>0.52988204040977549</v>
+        <v>0.53888407013194206</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.71566089555099111</v>
+        <v>0.71197351544551213</v>
       </c>
       <c r="J8">
-        <v>0.28433910444900884</v>
+        <v>0.28802648455448787</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.70177583278051592</v>
+        <v>0.71038093266817826</v>
       </c>
       <c r="O8">
-        <v>0.29822416721948397</v>
+        <v>0.28961906733182174</v>
       </c>
     </row>
     <row r="9">
@@ -883,31 +883,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.2634134064807116</v>
+        <v>0.25552522365846758</v>
       </c>
       <c r="C9">
-        <v>0.20894206998026696</v>
+        <v>0.20725473378519388</v>
       </c>
       <c r="D9">
-        <v>0.52764452353902158</v>
+        <v>0.53722004255633848</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.68804876381783819</v>
+        <v>0.69391701014905116</v>
       </c>
       <c r="J9">
-        <v>0.31195123618216181</v>
+        <v>0.30608298985094884</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.69603043310509749</v>
+        <v>0.68238481788609517</v>
       </c>
       <c r="O9">
-        <v>0.30396956689490251</v>
+        <v>0.31761518211390477</v>
       </c>
     </row>
     <row r="10">
@@ -915,31 +915,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.2344884379000107</v>
+        <v>0.23040886538774838</v>
       </c>
       <c r="C10">
-        <v>0.24360758895050602</v>
+        <v>0.24548370653193999</v>
       </c>
       <c r="D10">
-        <v>0.52190397314948334</v>
+        <v>0.52410742808031163</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.72961186256353761</v>
+        <v>0.72770735513776641</v>
       </c>
       <c r="J10">
-        <v>0.27038813743646234</v>
+        <v>0.27229264486223365</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.70663744200345036</v>
+        <v>0.69348086894280025</v>
       </c>
       <c r="O10">
-        <v>0.29336255799654959</v>
+        <v>0.30651913105719975</v>
       </c>
     </row>
     <row r="11">
@@ -947,31 +947,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.2332284705281627</v>
+        <v>0.24029312526165028</v>
       </c>
       <c r="C11">
-        <v>0.24041119260066451</v>
+        <v>0.2408452403579224</v>
       </c>
       <c r="D11">
-        <v>0.52636033687117278</v>
+        <v>0.51886163438042743</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.67338468224459869</v>
+        <v>0.6685394226980188</v>
       </c>
       <c r="J11">
-        <v>0.32661531775540115</v>
+        <v>0.3314605773019812</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.72028014164368281</v>
+        <v>0.73893267192772638</v>
       </c>
       <c r="O11">
-        <v>0.27971985835631724</v>
+        <v>0.26106732807227367</v>
       </c>
     </row>
     <row r="12">
@@ -979,31 +979,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.21959992680001583</v>
+        <v>0.21830625414449562</v>
       </c>
       <c r="C12">
-        <v>0.22863893301486851</v>
+        <v>0.22830436353012731</v>
       </c>
       <c r="D12">
-        <v>0.55176114018511568</v>
+        <v>0.55338938232537715</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.71498901660881775</v>
+        <v>0.71692823995235311</v>
       </c>
       <c r="J12">
-        <v>0.28501098339118225</v>
+        <v>0.28307176004764689</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.73217911051207218</v>
+        <v>0.7327119283144149</v>
       </c>
       <c r="O12">
-        <v>0.2678208894879277</v>
+        <v>0.2672880716855851</v>
       </c>
     </row>
     <row r="13">
@@ -1011,31 +1011,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.22451626147902973</v>
+        <v>0.2234895927537604</v>
       </c>
       <c r="C13">
-        <v>0.23797401882481006</v>
+        <v>0.23284450953547806</v>
       </c>
       <c r="D13">
-        <v>0.53750971969616013</v>
+        <v>0.54366589771076157</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.70574966338983725</v>
+        <v>0.71276868274212779</v>
       </c>
       <c r="J13">
-        <v>0.29425033661016281</v>
+        <v>0.28723131725787221</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.73231398973659245</v>
+        <v>0.73378294134295674</v>
       </c>
       <c r="O13">
-        <v>0.2676860102634076</v>
+        <v>0.26621705865704326</v>
       </c>
     </row>
     <row r="14">
@@ -1043,31 +1043,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.21370209775610458</v>
+        <v>0.21187659229930889</v>
       </c>
       <c r="C14">
-        <v>0.23144128405755279</v>
+        <v>0.2304888062141556</v>
       </c>
       <c r="D14">
-        <v>0.55485661818634258</v>
+        <v>0.55763460148653554</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.71096284220083361</v>
+        <v>0.70874049954517249</v>
       </c>
       <c r="J14">
-        <v>0.28903715779916633</v>
+        <v>0.29125950045482751</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.72692904943371983</v>
+        <v>0.72035510884831311</v>
       </c>
       <c r="O14">
-        <v>0.27307095056628011</v>
+        <v>0.279644891151687</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.23241879330990164</v>
+        <v>0.22893365351051881</v>
       </c>
       <c r="C15">
-        <v>0.22468011802191021</v>
+        <v>0.22841740260553492</v>
       </c>
       <c r="D15">
-        <v>0.54290108866818809</v>
+        <v>0.54264894388394624</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.71203336239081483</v>
+        <v>0.70515485124549016</v>
       </c>
       <c r="J15">
-        <v>0.28796663760918517</v>
+        <v>0.29484514875450979</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.72497831522907041</v>
+        <v>0.73004882578128127</v>
       </c>
       <c r="O15">
-        <v>0.27502168477092948</v>
+        <v>0.26995117421871884</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.22018830544120746</v>
+        <v>0.21901261804282865</v>
       </c>
       <c r="C16">
-        <v>0.24220484999890715</v>
+        <v>0.24084806838810247</v>
       </c>
       <c r="D16">
-        <v>0.53760684455988539</v>
+        <v>0.54013931356906897</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.70021258213902615</v>
+        <v>0.69694254734866057</v>
       </c>
       <c r="J16">
-        <v>0.29978741786097396</v>
+        <v>0.30305745265133938</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.73157908557286211</v>
+        <v>0.73240757196652728</v>
       </c>
       <c r="O16">
-        <v>0.26842091442713789</v>
+        <v>0.26759242803347266</v>
       </c>
     </row>
     <row r="17">
@@ -1139,31 +1139,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.23110975155600313</v>
+        <v>0.22996071990290057</v>
       </c>
       <c r="C17">
-        <v>0.22610023182396849</v>
+        <v>0.22186691190548233</v>
       </c>
       <c r="D17">
-        <v>0.54279001662002835</v>
+        <v>0.54817236819161708</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.70063744132127548</v>
+        <v>0.70638736257185619</v>
       </c>
       <c r="J17">
-        <v>0.29936255867872447</v>
+        <v>0.29361263742814381</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.74443112369979048</v>
+        <v>0.74163631302195965</v>
       </c>
       <c r="O17">
-        <v>0.25556887630020947</v>
+        <v>0.25836368697804024</v>
       </c>
     </row>
     <row r="18">
@@ -1171,31 +1171,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.22441955553069529</v>
+        <v>0.22617582613381307</v>
       </c>
       <c r="C18">
-        <v>0.22306094663496268</v>
+        <v>0.22133196891966458</v>
       </c>
       <c r="D18">
-        <v>0.55251949783434207</v>
+        <v>0.5524922049465224</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.71429835188813973</v>
+        <v>0.70366157615873204</v>
       </c>
       <c r="J18">
-        <v>0.28570164811186022</v>
+        <v>0.29633842384126802</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.76246831591381381</v>
+        <v>0.7555966592345158</v>
       </c>
       <c r="O18">
-        <v>0.23753168408618625</v>
+        <v>0.2444033407654842</v>
       </c>
     </row>
     <row r="19">
@@ -1203,31 +1203,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.20854739254878302</v>
+        <v>0.2115439735649573</v>
       </c>
       <c r="C19">
-        <v>0.22564582841795053</v>
+        <v>0.22372996388055916</v>
       </c>
       <c r="D19">
-        <v>0.56580677903326648</v>
+        <v>0.56472606255448354</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.71209819321568979</v>
+        <v>0.71888714363206274</v>
       </c>
       <c r="J19">
-        <v>0.28790180678431021</v>
+        <v>0.28111285636793726</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.76378473406042846</v>
+        <v>0.75837480392936196</v>
       </c>
       <c r="O19">
-        <v>0.23621526593957157</v>
+        <v>0.24162519607063801</v>
       </c>
     </row>
     <row r="20">
@@ -1235,31 +1235,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.21513010354547893</v>
+        <v>0.21620621045938551</v>
       </c>
       <c r="C20">
-        <v>0.21176648307795393</v>
+        <v>0.21336419260582562</v>
       </c>
       <c r="D20">
-        <v>0.57310341337656712</v>
+        <v>0.57042959693478879</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.69849428325105256</v>
+        <v>0.69115386423275171</v>
       </c>
       <c r="J20">
-        <v>0.30150571674894749</v>
+        <v>0.30884613576724829</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.75728246163795565</v>
+        <v>0.7562024687373734</v>
       </c>
       <c r="O20">
-        <v>0.24271753836204435</v>
+        <v>0.24379753126262649</v>
       </c>
     </row>
     <row r="21">
@@ -1267,31 +1267,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.21234099164231185</v>
+        <v>0.2144125438627347</v>
       </c>
       <c r="C21">
-        <v>0.21452742869320901</v>
+        <v>0.21343228511279011</v>
       </c>
       <c r="D21">
-        <v>0.57313157966447925</v>
+        <v>0.57215517102447522</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.67225946535868175</v>
+        <v>0.6800478565536392</v>
       </c>
       <c r="J21">
-        <v>0.32774053464131819</v>
+        <v>0.31995214344636086</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.76000165762583172</v>
+        <v>0.7699276984434904</v>
       </c>
       <c r="O21">
-        <v>0.23999834237416823</v>
+        <v>0.23007230155650965</v>
       </c>
     </row>
     <row r="22">
@@ -1299,31 +1299,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.21131767993827452</v>
+        <v>0.20766084658620776</v>
       </c>
       <c r="C22">
-        <v>0.20778117817634872</v>
+        <v>0.20784212299156782</v>
       </c>
       <c r="D22">
-        <v>0.58090114188537678</v>
+        <v>0.58449703042222456</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.6867970347578608</v>
+        <v>0.68944871798667684</v>
       </c>
       <c r="J22">
-        <v>0.31320296524213925</v>
+        <v>0.31055128201332327</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.76753866244627089</v>
+        <v>0.76642380714720959</v>
       </c>
       <c r="O22">
-        <v>0.23246133755372919</v>
+        <v>0.23357619285279049</v>
       </c>
     </row>
     <row r="23">
@@ -1331,31 +1331,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.20870613646628025</v>
+        <v>0.21051629247076456</v>
       </c>
       <c r="C23">
-        <v>0.21090652461028103</v>
+        <v>0.2077993912578035</v>
       </c>
       <c r="D23">
-        <v>0.58038733892343863</v>
+        <v>0.58168431627143202</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.69551978050338836</v>
+        <v>0.69704653983633635</v>
       </c>
       <c r="J23">
-        <v>0.30448021949661164</v>
+        <v>0.30295346016366365</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75400455321565285</v>
+        <v>0.75746955584202502</v>
       </c>
       <c r="O23">
-        <v>0.24599544678434712</v>
+        <v>0.24253044415797501</v>
       </c>
     </row>
     <row r="24">
@@ -1363,31 +1363,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.20536591822763584</v>
+        <v>0.20940108558878534</v>
       </c>
       <c r="C24">
-        <v>0.21834822648345278</v>
+        <v>0.2182497663344041</v>
       </c>
       <c r="D24">
-        <v>0.5762858552889113</v>
+        <v>0.57234914807681048</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.68985031624961091</v>
+        <v>0.69527534961676107</v>
       </c>
       <c r="J24">
-        <v>0.31014968375038915</v>
+        <v>0.30472465038323904</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.75823782286628849</v>
+        <v>0.76149034475077981</v>
       </c>
       <c r="O24">
-        <v>0.24176217713371151</v>
+        <v>0.23850965524922016</v>
       </c>
     </row>
     <row r="25">
@@ -1395,31 +1395,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.20723301430050392</v>
+        <v>0.20847413354273375</v>
       </c>
       <c r="C25">
-        <v>0.21461781099342811</v>
+        <v>0.21392767062282947</v>
       </c>
       <c r="D25">
-        <v>0.57814917470606808</v>
+        <v>0.57759819583443672</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.6354881434363413</v>
+        <v>0.63575915320485776</v>
       </c>
       <c r="J25">
-        <v>0.36451185656365864</v>
+        <v>0.36424084679514235</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.76152869309888316</v>
+        <v>0.75131727237507506</v>
       </c>
       <c r="O25">
-        <v>0.23847130690111687</v>
+        <v>0.24868272762492497</v>
       </c>
     </row>
     <row r="26">
@@ -1427,31 +1427,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.20713168556836148</v>
+        <v>0.21180285103518134</v>
       </c>
       <c r="C26">
-        <v>0.20160986659913466</v>
+        <v>0.20000594146840825</v>
       </c>
       <c r="D26">
-        <v>0.59125844783250381</v>
+        <v>0.5881912074964103</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.67648058276586875</v>
+        <v>0.66838196246625969</v>
       </c>
       <c r="J26">
-        <v>0.32351941723413119</v>
+        <v>0.33161803753374042</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.76107697081877146</v>
+        <v>0.75460036641464001</v>
       </c>
       <c r="O26">
-        <v>0.23892302918122851</v>
+        <v>0.2453996335853601</v>
       </c>
     </row>
     <row r="27">
@@ -1459,31 +1459,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.21633710218214336</v>
+        <v>0.21380212024579795</v>
       </c>
       <c r="C27">
-        <v>0.20318021823227858</v>
+        <v>0.20651185916443132</v>
       </c>
       <c r="D27">
-        <v>0.58048267958557809</v>
+        <v>0.57968602058977081</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.66917537690357276</v>
+        <v>0.66467867403782543</v>
       </c>
       <c r="J27">
-        <v>0.33082462309642713</v>
+        <v>0.33532132596217468</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.77601085914554446</v>
+        <v>0.78285876122612774</v>
       </c>
       <c r="O27">
-        <v>0.22398914085445557</v>
+        <v>0.21714123877387231</v>
       </c>
     </row>
     <row r="28">
@@ -1491,31 +1491,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.20403243350901226</v>
+        <v>0.20393364794747271</v>
       </c>
       <c r="C28">
-        <v>0.20507416492981342</v>
+        <v>0.20568150741134603</v>
       </c>
       <c r="D28">
-        <v>0.59089340156117431</v>
+        <v>0.59038484464118113</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.68652159039502925</v>
+        <v>0.68558915591084557</v>
       </c>
       <c r="J28">
-        <v>0.31347840960497075</v>
+        <v>0.31441084408915437</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.75939765167118334</v>
+        <v>0.76543849597362168</v>
       </c>
       <c r="O28">
-        <v>0.24060234832881669</v>
+        <v>0.23456150402637826</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20723211543788986</v>
+        <v>0.20970603027568271</v>
       </c>
       <c r="C29">
-        <v>0.20531858121240212</v>
+        <v>0.20248823356401807</v>
       </c>
       <c r="D29">
-        <v>0.58744930334970813</v>
+        <v>0.58780573616029919</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.68923215762796941</v>
+        <v>0.70192436076888043</v>
       </c>
       <c r="J29">
-        <v>0.31076784237203053</v>
+        <v>0.29807563923111968</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.78543526049780366</v>
+        <v>0.78778172234557398</v>
       </c>
       <c r="O29">
-        <v>0.21456473950219637</v>
+        <v>0.21221827765442605</v>
       </c>
     </row>
     <row r="30">
@@ -1555,31 +1555,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.2117544526953668</v>
+        <v>0.21525262097949058</v>
       </c>
       <c r="C30">
-        <v>0.20194656228886645</v>
+        <v>0.19821155495828452</v>
       </c>
       <c r="D30">
-        <v>0.58629898501576683</v>
+        <v>0.58653582406222482</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.67447059887556471</v>
+        <v>0.66349504619858302</v>
       </c>
       <c r="J30">
-        <v>0.3255294011244354</v>
+        <v>0.33650495380141687</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.77698191713446751</v>
+        <v>0.77507042778571111</v>
       </c>
       <c r="O30">
-        <v>0.22301808286553251</v>
+        <v>0.22492957221428894</v>
       </c>
     </row>
     <row r="31">
@@ -1587,31 +1587,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.21757423617069382</v>
+        <v>0.21713455046378211</v>
       </c>
       <c r="C31">
-        <v>0.18580654366314692</v>
+        <v>0.18546831446679748</v>
       </c>
       <c r="D31">
-        <v>0.59661922016615931</v>
+        <v>0.59739713506942049</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.70149715932679513</v>
+        <v>0.697680184390012</v>
       </c>
       <c r="J31">
-        <v>0.29850284067320493</v>
+        <v>0.302319815609988</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78900937828021245</v>
+        <v>0.78486738425904157</v>
       </c>
       <c r="O31">
-        <v>0.21099062171978747</v>
+        <v>0.21513261574095849</v>
       </c>
     </row>
     <row r="32">
@@ -1619,31 +1619,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21107410333277063</v>
+        <v>0.21334954854952309</v>
       </c>
       <c r="C32">
-        <v>0.18970847751406941</v>
+        <v>0.1894422019248026</v>
       </c>
       <c r="D32">
-        <v>0.59921741915315996</v>
+        <v>0.59720824952567431</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.71528627304693804</v>
+        <v>0.71811606320209964</v>
       </c>
       <c r="J32">
-        <v>0.28471372695306191</v>
+        <v>0.28188393679790047</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.77872591315640649</v>
+        <v>0.76842967149791475</v>
       </c>
       <c r="O32">
-        <v>0.22127408684359348</v>
+        <v>0.23157032850208517</v>
       </c>
     </row>
     <row r="33">
@@ -1651,31 +1651,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.21001794357275841</v>
+        <v>0.21214476260589893</v>
       </c>
       <c r="C33">
-        <v>0.20361163633181487</v>
+        <v>0.20516986508623736</v>
       </c>
       <c r="D33">
-        <v>0.58637042009542673</v>
+        <v>0.58268537230786366</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.68952223577698379</v>
+        <v>0.69327660286972248</v>
       </c>
       <c r="J33">
-        <v>0.31047776422301637</v>
+        <v>0.30672339713027752</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78929426830936289</v>
+        <v>0.78545364953788721</v>
       </c>
       <c r="O33">
-        <v>0.21070573169063705</v>
+        <v>0.21454635046211271</v>
       </c>
     </row>
     <row r="34">
@@ -1683,31 +1683,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.20010008471126611</v>
+        <v>0.20587950715088651</v>
       </c>
       <c r="C34">
-        <v>0.20255131417498221</v>
+        <v>0.19948130931390029</v>
       </c>
       <c r="D34">
-        <v>0.59734860111375176</v>
+        <v>0.59463918353521317</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.68904184519035527</v>
+        <v>0.69042981529903691</v>
       </c>
       <c r="J34">
-        <v>0.31095815480964478</v>
+        <v>0.30957018470096315</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78860108627358783</v>
+        <v>0.78093549199947687</v>
       </c>
       <c r="O34">
-        <v>0.2113989137264122</v>
+        <v>0.21906450800052304</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.21046520053095996</v>
+        <v>0.21400505316826982</v>
       </c>
       <c r="C35">
-        <v>0.19564602902706693</v>
+        <v>0.19564908782793383</v>
       </c>
       <c r="D35">
-        <v>0.59388877044197308</v>
+        <v>0.59034585900379644</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.69091099380689436</v>
+        <v>0.68667619991110418</v>
       </c>
       <c r="J35">
-        <v>0.3090890061931057</v>
+        <v>0.31332380008889582</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.81058768628189048</v>
+        <v>0.80995161078325861</v>
       </c>
       <c r="O35">
-        <v>0.18941231371810952</v>
+        <v>0.19004838921674133</v>
       </c>
     </row>
     <row r="36">
@@ -1747,31 +1747,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.20279270258046195</v>
+        <v>0.20638637266679222</v>
       </c>
       <c r="C36">
-        <v>0.18417950248705436</v>
+        <v>0.1824460703866565</v>
       </c>
       <c r="D36">
-        <v>0.61302779493248372</v>
+        <v>0.61116755694655123</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.66364022431313008</v>
+        <v>0.66916974409354246</v>
       </c>
       <c r="J36">
-        <v>0.33635977568686992</v>
+        <v>0.33083025590645754</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.81147942594580935</v>
+        <v>0.80471931900713223</v>
       </c>
       <c r="O36">
-        <v>0.18852057405419073</v>
+        <v>0.19528068099286772</v>
       </c>
     </row>
     <row r="37">
@@ -1779,31 +1779,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.19008212972684338</v>
+        <v>0.1964253968464498</v>
       </c>
       <c r="C37">
-        <v>0.18483676984661124</v>
+        <v>0.18327586984353261</v>
       </c>
       <c r="D37">
-        <v>0.62508110042654541</v>
+        <v>0.62029873331001761</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.68010929874539705</v>
+        <v>0.69691284210336824</v>
       </c>
       <c r="J37">
-        <v>0.31989070125460289</v>
+        <v>0.30308715789663176</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.79901591177078235</v>
+        <v>0.8005215753900603</v>
       </c>
       <c r="O37">
-        <v>0.20098408822921771</v>
+        <v>0.19947842460993959</v>
       </c>
     </row>
     <row r="38">
@@ -1811,31 +1811,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.18955529153812734</v>
+        <v>0.19265728713879784</v>
       </c>
       <c r="C38">
-        <v>0.18348712930101449</v>
+        <v>0.18451146709080388</v>
       </c>
       <c r="D38">
-        <v>0.62695757916085815</v>
+        <v>0.62283124577039839</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.66993059522593057</v>
+        <v>0.66278436023672793</v>
       </c>
       <c r="J38">
-        <v>0.33006940477406937</v>
+        <v>0.33721563976327207</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.82474018931854354</v>
+        <v>0.82826791508428921</v>
       </c>
       <c r="O38">
-        <v>0.17525981068145638</v>
+        <v>0.17173208491571076</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1843,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.18129895593472317</v>
+        <v>0.18511152675271658</v>
       </c>
       <c r="C39">
-        <v>0.169024128096076</v>
+        <v>0.1604400586059046</v>
       </c>
       <c r="D39">
-        <v>0.64967691596920074</v>
+        <v>0.65444841464137893</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.66849203118047917</v>
+        <v>0.65870886335078549</v>
       </c>
       <c r="J39">
-        <v>0.33150796881952083</v>
+        <v>0.3412911366492144</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.82301617961449802</v>
+        <v>0.81699649065839908</v>
       </c>
       <c r="O39">
-        <v>0.17698382038550198</v>
+        <v>0.18300350934160081</v>
       </c>
     </row>
     <row r="40">
@@ -1875,31 +1875,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.16146430926510835</v>
+        <v>0.16125716779933166</v>
       </c>
       <c r="C40">
-        <v>0.17038207729009605</v>
+        <v>0.16824139376886488</v>
       </c>
       <c r="D40">
-        <v>0.66815361344479562</v>
+        <v>0.67050143843180343</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.66245782085387395</v>
+        <v>0.66164030527840112</v>
       </c>
       <c r="J40">
-        <v>0.33754217914612605</v>
+        <v>0.33835969472159888</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.83143935203830155</v>
+        <v>0.83627059392997072</v>
       </c>
       <c r="O40">
-        <v>0.16856064796169851</v>
+        <v>0.16372940607002923</v>
       </c>
     </row>
     <row r="41">
@@ -1907,31 +1907,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.15710975240726946</v>
+        <v>0.15686330959939865</v>
       </c>
       <c r="C41">
-        <v>0.16752522619863869</v>
+        <v>0.16617864851188607</v>
       </c>
       <c r="D41">
-        <v>0.67536502139409194</v>
+        <v>0.67695804188871522</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.66434615318120793</v>
+        <v>0.66679260315612043</v>
       </c>
       <c r="J41">
-        <v>0.33565384681879212</v>
+        <v>0.33320739684387951</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.83318592085729293</v>
+        <v>0.8377722134539447</v>
       </c>
       <c r="O41">
-        <v>0.1668140791427071</v>
+        <v>0.16222778654605532</v>
       </c>
     </row>
     <row r="42">
@@ -1939,31 +1939,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.14760493022355337</v>
+        <v>0.14453172397278771</v>
       </c>
       <c r="C42">
-        <v>0.16496124873942578</v>
+        <v>0.16401695511505704</v>
       </c>
       <c r="D42">
-        <v>0.687433821037021</v>
+        <v>0.69145132091215533</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.62242674680735255</v>
+        <v>0.61678347159586011</v>
       </c>
       <c r="J42">
-        <v>0.3775732531926474</v>
+        <v>0.38321652840413994</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.85367792626055528</v>
+        <v>0.85511308815741327</v>
       </c>
       <c r="O42">
-        <v>0.1463220737394447</v>
+        <v>0.1448869118425867</v>
       </c>
     </row>
     <row r="43">
@@ -1971,31 +1971,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.1313110392518014</v>
+        <v>0.12943816192529628</v>
       </c>
       <c r="C43">
-        <v>0.15904768147974965</v>
+        <v>0.15495649574914239</v>
       </c>
       <c r="D43">
-        <v>0.709641279268449</v>
+        <v>0.71560534232556139</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.6020356755471381</v>
+        <v>0.5994285206279939</v>
       </c>
       <c r="J43">
-        <v>0.39796432445286195</v>
+        <v>0.40057147937200599</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.84626489546027162</v>
+        <v>0.84305860106969688</v>
       </c>
       <c r="O43">
-        <v>0.15373510453972833</v>
+        <v>0.15694139893030321</v>
       </c>
     </row>
     <row r="44">
@@ -2003,31 +2003,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.12398432561524819</v>
+        <v>0.12534500418769096</v>
       </c>
       <c r="C44">
-        <v>0.1550853948216786</v>
+        <v>0.1542631852418116</v>
       </c>
       <c r="D44">
-        <v>0.72093027956307321</v>
+        <v>0.72039181057049739</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.64660621110698979</v>
+        <v>0.64252519292218246</v>
       </c>
       <c r="J44">
-        <v>0.3533937888930101</v>
+        <v>0.35747480707781748</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.85135594318630914</v>
+        <v>0.85399493152306571</v>
       </c>
       <c r="O44">
-        <v>0.14864405681369092</v>
+        <v>0.14600506847693431</v>
       </c>
     </row>
     <row r="45">
@@ -2035,31 +2035,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.12468555219302731</v>
+        <v>0.12178896319592639</v>
       </c>
       <c r="C45">
-        <v>0.15709658808361093</v>
+        <v>0.15806324668805133</v>
       </c>
       <c r="D45">
-        <v>0.71821785972336183</v>
+        <v>0.72014779011602226</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.61506380556607587</v>
+        <v>0.60949425966486481</v>
       </c>
       <c r="J45">
-        <v>0.38493619443392413</v>
+        <v>0.39050574033513519</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.8545439446681895</v>
+        <v>0.85252403352439587</v>
       </c>
       <c r="O45">
-        <v>0.14545605533181058</v>
+        <v>0.14747596647560415</v>
       </c>
     </row>
     <row r="46">
@@ -2067,31 +2067,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.11997498877424219</v>
+        <v>0.11941469393591807</v>
       </c>
       <c r="C46">
-        <v>0.15265424759409965</v>
+        <v>0.15284567288219331</v>
       </c>
       <c r="D46">
-        <v>0.72737076363165809</v>
+        <v>0.72773963318188872</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.57776475713344422</v>
+        <v>0.565192767995918</v>
       </c>
       <c r="J46">
-        <v>0.42223524286655567</v>
+        <v>0.434807232004082</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.85375152737073068</v>
+        <v>0.85398177515224227</v>
       </c>
       <c r="O46">
-        <v>0.14624847262926932</v>
+        <v>0.14601822484775775</v>
       </c>
     </row>
     <row r="47">
@@ -2099,31 +2099,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.11600684689266171</v>
+        <v>0.11084278234437057</v>
       </c>
       <c r="C47">
-        <v>0.15011826854963159</v>
+        <v>0.15124985741692903</v>
       </c>
       <c r="D47">
-        <v>0.73387488455770677</v>
+        <v>0.7379073602387004</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.62010445328530051</v>
+        <v>0.60720432599611607</v>
       </c>
       <c r="J47">
-        <v>0.37989554671469944</v>
+        <v>0.39279567400388393</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.82570965209442815</v>
+        <v>0.82436508643663997</v>
       </c>
       <c r="O47">
-        <v>0.17429034790557191</v>
+        <v>0.17563491356336</v>
       </c>
     </row>
     <row r="48">
@@ -2131,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.12848825395619637</v>
+        <v>0.12910456596838538</v>
       </c>
       <c r="C48">
-        <v>0.15561682957626055</v>
+        <v>0.15820597246595403</v>
       </c>
       <c r="D48">
-        <v>0.715894916467543</v>
+        <v>0.7126894615656606</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.57503058015902098</v>
+        <v>0.57574610084071687</v>
       </c>
       <c r="J48">
-        <v>0.42496941984097902</v>
+        <v>0.42425389915928308</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.84145305075685928</v>
+        <v>0.84320567453737871</v>
       </c>
       <c r="O48">
-        <v>0.15854694924314078</v>
+        <v>0.15679432546262129</v>
       </c>
     </row>
     <row r="49">
@@ -2163,31 +2163,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.11413366562786927</v>
+        <v>0.11262311781642277</v>
       </c>
       <c r="C49">
-        <v>0.16739242446380093</v>
+        <v>0.16747298019341014</v>
       </c>
       <c r="D49">
-        <v>0.71847390990832982</v>
+        <v>0.71990390199016707</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.59630637233728334</v>
+        <v>0.59645437551702529</v>
       </c>
       <c r="J49">
-        <v>0.40369362766271671</v>
+        <v>0.40354562448297476</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.83980317541866156</v>
+        <v>0.83348976328300495</v>
       </c>
       <c r="O49">
-        <v>0.16019682458133841</v>
+        <v>0.16651023671699497</v>
       </c>
     </row>
     <row r="50">
@@ -2195,31 +2195,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.11681929988086993</v>
+        <v>0.11994786047731422</v>
       </c>
       <c r="C50">
-        <v>0.16477479708657783</v>
+        <v>0.16883217407826126</v>
       </c>
       <c r="D50">
-        <v>0.71840590303255225</v>
+        <v>0.71121996544442445</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.56411254233100816</v>
+        <v>0.56502027877104344</v>
       </c>
       <c r="J50">
-        <v>0.43588745766899184</v>
+        <v>0.43497972122895656</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.81848973935232328</v>
+        <v>0.82349492451897577</v>
       </c>
       <c r="O50">
-        <v>0.18151026064767681</v>
+        <v>0.17650507548102429</v>
       </c>
     </row>
     <row r="51">
@@ -2227,31 +2227,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.12860825639678142</v>
+        <v>0.12541374331521027</v>
       </c>
       <c r="C51">
-        <v>0.15980326739241835</v>
+        <v>0.16084533201297047</v>
       </c>
       <c r="D51">
-        <v>0.71158847621080024</v>
+        <v>0.71374092467181927</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.57599075834069002</v>
+        <v>0.57793395559518734</v>
       </c>
       <c r="J51">
-        <v>0.42400924165931003</v>
+        <v>0.42206604440481255</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.81929626000204137</v>
+        <v>0.82049774805968712</v>
       </c>
       <c r="O51">
-        <v>0.18070373999795858</v>
+        <v>0.17950225194031291</v>
       </c>
     </row>
     <row r="52">
@@ -2259,31 +2259,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.12294148963844813</v>
+        <v>0.12256298697474527</v>
       </c>
       <c r="C52">
-        <v>0.16088541846009222</v>
+        <v>0.16066401326442123</v>
       </c>
       <c r="D52">
-        <v>0.71617309190145972</v>
+        <v>0.71677299976083353</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.56989734321030072</v>
+        <v>0.56360620612786339</v>
       </c>
       <c r="J52">
-        <v>0.43010265678969928</v>
+        <v>0.4363937938721365</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.84578521256008765</v>
+        <v>0.84501979459206777</v>
       </c>
       <c r="O52">
-        <v>0.15421478743991243</v>
+        <v>0.15498020540793214</v>
       </c>
     </row>
     <row r="53">
@@ -2291,31 +2291,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.11435733005412586</v>
+        <v>0.11737090028564068</v>
       </c>
       <c r="C53">
-        <v>0.16874404775903867</v>
+        <v>0.16966338120756158</v>
       </c>
       <c r="D53">
-        <v>0.71689862218683542</v>
+        <v>0.7129657185067978</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.60017484708366509</v>
+        <v>0.60318403138243548</v>
       </c>
       <c r="J53">
-        <v>0.39982515291633497</v>
+        <v>0.39681596861756452</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.81887425331729125</v>
+        <v>0.81816077856670377</v>
       </c>
       <c r="O53">
-        <v>0.18112574668270878</v>
+        <v>0.1818392214332962</v>
       </c>
     </row>
     <row r="54">
@@ -2323,13 +2323,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.11240479249152677</v>
+        <v>0.11515800290879383</v>
       </c>
       <c r="C54">
-        <v>0.17811495655304951</v>
+        <v>0.17587026019453467</v>
       </c>
       <c r="D54">
-        <v>0.70948025095542366</v>
+        <v>0.70897173689667148</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -2344,10 +2344,10 @@
         <v>76</v>
       </c>
       <c r="N54">
-        <v>0.89006346817579907</v>
+        <v>0.8862961590151589</v>
       </c>
       <c r="O54">
-        <v>0.10993653182420095</v>
+        <v>0.11370384098484115</v>
       </c>
     </row>
     <row r="55">
@@ -5305,19 +5305,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.80243007734603822</v>
+        <v>0.82985673282230299</v>
       </c>
       <c r="J3">
-        <v>0.1975699226539617</v>
+        <v>0.17014326717769696</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.6100231446432447</v>
+        <v>0.60242033358682212</v>
       </c>
       <c r="O3">
-        <v>0.38997685535675525</v>
+        <v>0.39757966641317788</v>
       </c>
     </row>
     <row r="4">
@@ -5325,19 +5325,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.82974819609465</v>
+        <v>0.82897436830007787</v>
       </c>
       <c r="J4">
-        <v>0.17025180390535</v>
+        <v>0.17102563169992213</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.64619022442210428</v>
+        <v>0.67423886099997865</v>
       </c>
       <c r="O4">
-        <v>0.35380977557789572</v>
+        <v>0.3257611390000214</v>
       </c>
     </row>
     <row r="5">
@@ -5345,19 +5345,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.76713742216718739</v>
+        <v>0.76045854912345368</v>
       </c>
       <c r="J5">
-        <v>0.23286257783281261</v>
+        <v>0.23954145087654641</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.67429037233668709</v>
+        <v>0.6888597857009453</v>
       </c>
       <c r="O5">
-        <v>0.32570962766331291</v>
+        <v>0.31114021429905481</v>
       </c>
     </row>
     <row r="6">
@@ -5365,19 +5365,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.83275105466190491</v>
+        <v>0.82048904567115266</v>
       </c>
       <c r="J6">
-        <v>0.16724894533809517</v>
+        <v>0.17951095432884731</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.54615919728929996</v>
+        <v>0.57300789850885048</v>
       </c>
       <c r="O6">
-        <v>0.45384080271070015</v>
+        <v>0.42699210149114941</v>
       </c>
     </row>
     <row r="7">
@@ -5385,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.7615932526749748</v>
+        <v>0.79238310677005375</v>
       </c>
       <c r="J7">
-        <v>0.23840674732502512</v>
+        <v>0.20761689322994628</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.65279184503306642</v>
+        <v>0.67945236460617353</v>
       </c>
       <c r="O7">
-        <v>0.34720815496693358</v>
+        <v>0.32054763539382652</v>
       </c>
     </row>
     <row r="8">
@@ -5405,19 +5405,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.81172457411590182</v>
+        <v>0.80248326718986784</v>
       </c>
       <c r="J8">
-        <v>0.18827542588409812</v>
+        <v>0.19751673281013216</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.56471776582512734</v>
+        <v>0.576575200317482</v>
       </c>
       <c r="O8">
-        <v>0.43528223417487266</v>
+        <v>0.42342479968251806</v>
       </c>
     </row>
     <row r="9">
@@ -5425,19 +5425,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.72818957228622894</v>
+        <v>0.72336725972014393</v>
       </c>
       <c r="J9">
-        <v>0.27181042771377117</v>
+        <v>0.27663274027985618</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.59047096928275911</v>
+        <v>0.56519691118104631</v>
       </c>
       <c r="O9">
-        <v>0.40952903071724095</v>
+        <v>0.43480308881895369</v>
       </c>
     </row>
     <row r="10">
@@ -5445,19 +5445,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.73856601115383202</v>
+        <v>0.75807180747142511</v>
       </c>
       <c r="J10">
-        <v>0.26143398884616809</v>
+        <v>0.24192819252857495</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.57240070682846755</v>
+        <v>0.56608700734498263</v>
       </c>
       <c r="O10">
-        <v>0.4275992931715325</v>
+        <v>0.43391299265501743</v>
       </c>
     </row>
     <row r="11">
@@ -5465,19 +5465,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.72802460934428814</v>
+        <v>0.71805851170916091</v>
       </c>
       <c r="J11">
-        <v>0.27197539065571191</v>
+        <v>0.28194148829083915</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.64542543952899412</v>
+        <v>0.65514534086985232</v>
       </c>
       <c r="O11">
-        <v>0.35457456047100588</v>
+        <v>0.34485465913014757</v>
       </c>
     </row>
     <row r="12">
@@ -5485,19 +5485,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.77343862951884446</v>
+        <v>0.78911716215031624</v>
       </c>
       <c r="J12">
-        <v>0.22656137048115546</v>
+        <v>0.21088283784968365</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.68037548500172129</v>
+        <v>0.70219720173344635</v>
       </c>
       <c r="O12">
-        <v>0.31962451499827865</v>
+        <v>0.29780279826655376</v>
       </c>
     </row>
     <row r="13">
@@ -5505,19 +5505,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.77482735883764009</v>
+        <v>0.75484730254261079</v>
       </c>
       <c r="J13">
-        <v>0.22517264116235994</v>
+        <v>0.24515269745738916</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.66090661715488885</v>
+        <v>0.69435773633136477</v>
       </c>
       <c r="O13">
-        <v>0.33909338284511115</v>
+        <v>0.30564226366863523</v>
       </c>
     </row>
     <row r="14">
@@ -5525,19 +5525,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.76856132199558014</v>
+        <v>0.73626935580371222</v>
       </c>
       <c r="J14">
-        <v>0.23143867800441986</v>
+        <v>0.26373064419628778</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.63164644922088098</v>
+        <v>0.63942507854464681</v>
       </c>
       <c r="O14">
-        <v>0.36835355077911902</v>
+        <v>0.36057492145535319</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.77395623122403867</v>
+        <v>0.78038994046849497</v>
       </c>
       <c r="J15">
-        <v>0.22604376877596125</v>
+        <v>0.21961005953150503</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.61600838265421098</v>
+        <v>0.61804773235833677</v>
       </c>
       <c r="O15">
-        <v>0.3839916173457889</v>
+        <v>0.38195226764166323</v>
       </c>
     </row>
     <row r="16">
@@ -5565,19 +5565,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.79286058610378685</v>
+        <v>0.78821328227194065</v>
       </c>
       <c r="J16">
-        <v>0.20713941389621307</v>
+        <v>0.21178671772805932</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.62313079067531141</v>
+        <v>0.6188294834629533</v>
       </c>
       <c r="O16">
-        <v>0.37686920932468854</v>
+        <v>0.38117051653704659</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.76983033128061484</v>
+        <v>0.76466780969711445</v>
       </c>
       <c r="J17">
-        <v>0.23016966871938513</v>
+        <v>0.23533219030288557</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.6820515662250205</v>
+        <v>0.66959990770987865</v>
       </c>
       <c r="O17">
-        <v>0.3179484337749795</v>
+        <v>0.33040009229012135</v>
       </c>
     </row>
     <row r="18">
@@ -5605,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.78175761301934832</v>
+        <v>0.76774426194313539</v>
       </c>
       <c r="J18">
-        <v>0.2182423869806516</v>
+        <v>0.23225573805686464</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.70510165102840949</v>
+        <v>0.67329482574810395</v>
       </c>
       <c r="O18">
-        <v>0.29489834897159051</v>
+        <v>0.32670517425189605</v>
       </c>
     </row>
     <row r="19">
@@ -5625,19 +5625,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.77445919688075826</v>
+        <v>0.77291866116595931</v>
       </c>
       <c r="J19">
-        <v>0.22554080311924177</v>
+        <v>0.22708133883404064</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.70388904016341791</v>
+        <v>0.70040929522528184</v>
       </c>
       <c r="O19">
-        <v>0.2961109598365822</v>
+        <v>0.29959070477471827</v>
       </c>
     </row>
     <row r="20">
@@ -5645,19 +5645,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.78413255295521411</v>
+        <v>0.77534774598911771</v>
       </c>
       <c r="J20">
-        <v>0.21586744704478583</v>
+        <v>0.22465225401088237</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.67347135385868173</v>
+        <v>0.65130721081933296</v>
       </c>
       <c r="O20">
-        <v>0.32652864614131832</v>
+        <v>0.3486927891806671</v>
       </c>
     </row>
     <row r="21">
@@ -5665,19 +5665,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.75894276617685863</v>
+        <v>0.76407373104964327</v>
       </c>
       <c r="J21">
-        <v>0.24105723382314143</v>
+        <v>0.23592626895035679</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.70394215438853835</v>
+        <v>0.71187120567682649</v>
       </c>
       <c r="O21">
-        <v>0.29605784561146165</v>
+        <v>0.28812879432317345</v>
       </c>
     </row>
     <row r="22">
@@ -5685,19 +5685,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.74099550385319002</v>
+        <v>0.74994626159518507</v>
       </c>
       <c r="J22">
-        <v>0.25900449614681015</v>
+        <v>0.25005373840481482</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.69278152450234498</v>
+        <v>0.69140567931054664</v>
       </c>
       <c r="O22">
-        <v>0.30721847549765496</v>
+        <v>0.30859432068945336</v>
       </c>
     </row>
     <row r="23">
@@ -5705,19 +5705,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.76022658891548534</v>
+        <v>0.75842914559323704</v>
       </c>
       <c r="J23">
-        <v>0.23977341108451466</v>
+        <v>0.24157085440676301</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.66278959384334768</v>
+        <v>0.66015317790950789</v>
       </c>
       <c r="O23">
-        <v>0.33721040615665238</v>
+        <v>0.33984682209049216</v>
       </c>
     </row>
     <row r="24">
@@ -5725,19 +5725,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.77758850130578716</v>
+        <v>0.78637236197104132</v>
       </c>
       <c r="J24">
-        <v>0.22241149869421284</v>
+        <v>0.21362763802895862</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.69775359200996123</v>
+        <v>0.7170959741889753</v>
       </c>
       <c r="O24">
-        <v>0.30224640799003882</v>
+        <v>0.28290402581102458</v>
       </c>
     </row>
     <row r="25">
@@ -5745,19 +5745,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.73971844316483215</v>
+        <v>0.73381327427950671</v>
       </c>
       <c r="J25">
-        <v>0.26028155683516796</v>
+        <v>0.26618672572049329</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.68352559378916233</v>
+        <v>0.69693418109873173</v>
       </c>
       <c r="O25">
-        <v>0.31647440621083756</v>
+        <v>0.30306581890126816</v>
       </c>
     </row>
     <row r="26">
@@ -5765,19 +5765,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.75030892660134008</v>
+        <v>0.75216698406070637</v>
       </c>
       <c r="J26">
-        <v>0.24969107339865987</v>
+        <v>0.24783301593929366</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.67799484283830458</v>
+        <v>0.68079698090839669</v>
       </c>
       <c r="O26">
-        <v>0.32200515716169553</v>
+        <v>0.31920301909160331</v>
       </c>
     </row>
     <row r="27">
@@ -5785,19 +5785,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.76121476214888562</v>
+        <v>0.75500633268595141</v>
       </c>
       <c r="J27">
-        <v>0.2387852378511143</v>
+        <v>0.24499366731404859</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.70766241028331756</v>
+        <v>0.72373244264097203</v>
       </c>
       <c r="O27">
-        <v>0.29233758971668239</v>
+        <v>0.27626755735902808</v>
       </c>
     </row>
     <row r="28">
@@ -5805,19 +5805,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.74661491537878699</v>
+        <v>0.75461432190813227</v>
       </c>
       <c r="J28">
-        <v>0.25338508462121301</v>
+        <v>0.24538567809186776</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.68869928981661954</v>
+        <v>0.69183444293445895</v>
       </c>
       <c r="O28">
-        <v>0.31130071018338046</v>
+        <v>0.308165557065541</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.7829176787398674</v>
+        <v>0.79262931731531439</v>
       </c>
       <c r="J29">
-        <v>0.21708232126013255</v>
+        <v>0.20737068268468564</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.69082236617587178</v>
+        <v>0.70052364724033656</v>
       </c>
       <c r="O29">
-        <v>0.30917763382412827</v>
+        <v>0.29947635275966356</v>
       </c>
     </row>
     <row r="30">
@@ -5845,19 +5845,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.76510811402662093</v>
+        <v>0.75885031218983368</v>
       </c>
       <c r="J30">
-        <v>0.23489188597337907</v>
+        <v>0.24114968781016627</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.71208937316730403</v>
+        <v>0.70920655209392391</v>
       </c>
       <c r="O30">
-        <v>0.28791062683269592</v>
+        <v>0.2907934479060762</v>
       </c>
     </row>
     <row r="31">
@@ -5865,19 +5865,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.79850026498895355</v>
+        <v>0.79758187834644878</v>
       </c>
       <c r="J31">
-        <v>0.20149973501104634</v>
+        <v>0.20241812165355125</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.701954440320402</v>
+        <v>0.69549619690005737</v>
       </c>
       <c r="O31">
-        <v>0.298045559679598</v>
+        <v>0.30450380309994268</v>
       </c>
     </row>
     <row r="32">
@@ -5885,19 +5885,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.78474427858178186</v>
+        <v>0.78345750851138785</v>
       </c>
       <c r="J32">
-        <v>0.21525572141821819</v>
+        <v>0.21654249148861215</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.72081443238051013</v>
+        <v>0.71111793786297572</v>
       </c>
       <c r="O32">
-        <v>0.27918556761948998</v>
+        <v>0.28888206213702428</v>
       </c>
     </row>
     <row r="33">
@@ -5905,19 +5905,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.76967723587711423</v>
+        <v>0.76935172038458688</v>
       </c>
       <c r="J33">
-        <v>0.23032276412288585</v>
+        <v>0.23064827961541309</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.71705024005134144</v>
+        <v>0.70472540586880206</v>
       </c>
       <c r="O33">
-        <v>0.28294975994865856</v>
+        <v>0.29527459413119794</v>
       </c>
     </row>
     <row r="34">
@@ -5925,19 +5925,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.76362779672225811</v>
+        <v>0.76760521129196735</v>
       </c>
       <c r="J34">
-        <v>0.23637220327774194</v>
+        <v>0.2323947887080326</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.72560088998160932</v>
+        <v>0.71593121503939738</v>
       </c>
       <c r="O34">
-        <v>0.27439911001839074</v>
+        <v>0.28406878496060267</v>
       </c>
     </row>
     <row r="35">
@@ -5945,19 +5945,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.76162260374220958</v>
+        <v>0.75169272387789765</v>
       </c>
       <c r="J35">
-        <v>0.23837739625779047</v>
+        <v>0.2483072761221024</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.73954484614262905</v>
+        <v>0.73851982347961487</v>
       </c>
       <c r="O35">
-        <v>0.26045515385737089</v>
+        <v>0.26148017652038508</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.7028751673307474</v>
+        <v>0.70834370055476514</v>
       </c>
       <c r="J36">
-        <v>0.29712483266925255</v>
+        <v>0.29165629944523491</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.74874818020034906</v>
+        <v>0.74136037822940493</v>
       </c>
       <c r="O36">
-        <v>0.25125181979965083</v>
+        <v>0.25863962177059507</v>
       </c>
     </row>
     <row r="37">
@@ -5985,19 +5985,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.76001777971083007</v>
+        <v>0.78271827027397778</v>
       </c>
       <c r="J37">
-        <v>0.23998222028917002</v>
+        <v>0.21728172972602222</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.73621075778177092</v>
+        <v>0.73606244633691653</v>
       </c>
       <c r="O37">
-        <v>0.26378924221822914</v>
+        <v>0.26393755366308336</v>
       </c>
     </row>
     <row r="38">
@@ -6005,19 +6005,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.74197886106748034</v>
+        <v>0.72883615220003894</v>
       </c>
       <c r="J38">
-        <v>0.25802113893251954</v>
+        <v>0.27116384779996111</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.78601378257219656</v>
+        <v>0.78410882913503355</v>
       </c>
       <c r="O38">
-        <v>0.21398621742780341</v>
+        <v>0.21589117086496634</v>
       </c>
     </row>
     <row r="39">
@@ -6025,19 +6025,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.72450847845543587</v>
+        <v>0.73007712854266416</v>
       </c>
       <c r="J39">
-        <v>0.27549152154456413</v>
+        <v>0.26992287145733579</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.81133215257133073</v>
+        <v>0.80327344639356613</v>
       </c>
       <c r="O39">
-        <v>0.18866784742866927</v>
+        <v>0.19672655360643396</v>
       </c>
     </row>
     <row r="40">
@@ -6045,19 +6045,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.71992778833752979</v>
+        <v>0.71261083154304794</v>
       </c>
       <c r="J40">
-        <v>0.28007221166247021</v>
+        <v>0.287389168456952</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.78011985914028414</v>
+        <v>0.78267479716930921</v>
       </c>
       <c r="O40">
-        <v>0.21988014085971594</v>
+        <v>0.2173252028306909</v>
       </c>
     </row>
     <row r="41">
@@ -6065,19 +6065,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.71177696817235514</v>
+        <v>0.72317795655638561</v>
       </c>
       <c r="J41">
-        <v>0.28822303182764486</v>
+        <v>0.27682204344361433</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.77700378548570836</v>
+        <v>0.77924046736968444</v>
       </c>
       <c r="O41">
-        <v>0.22299621451429161</v>
+        <v>0.22075953263031547</v>
       </c>
     </row>
     <row r="42">
@@ -6085,19 +6085,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.67725785371076241</v>
+        <v>0.67433181499214456</v>
       </c>
       <c r="J42">
-        <v>0.32274214628923759</v>
+        <v>0.32566818500785549</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.82527436821661204</v>
+        <v>0.82795583097330705</v>
       </c>
       <c r="O42">
-        <v>0.17472563178338799</v>
+        <v>0.17204416902669289</v>
       </c>
     </row>
     <row r="43">
@@ -6105,19 +6105,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.67759320938951628</v>
+        <v>0.67078273544020039</v>
       </c>
       <c r="J43">
-        <v>0.32240679061048377</v>
+        <v>0.32921726455979966</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.80244178644250919</v>
+        <v>0.79750562485398813</v>
       </c>
       <c r="O43">
-        <v>0.1975582135574909</v>
+        <v>0.20249437514601185</v>
       </c>
     </row>
     <row r="44">
@@ -6125,19 +6125,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.70330110062436513</v>
+        <v>0.7036663196059989</v>
       </c>
       <c r="J44">
-        <v>0.29669889937563493</v>
+        <v>0.29633368039400104</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.79981267047844029</v>
+        <v>0.80360845482423515</v>
       </c>
       <c r="O44">
-        <v>0.20018732952155974</v>
+        <v>0.19639154517576488</v>
       </c>
     </row>
     <row r="45">
@@ -6145,19 +6145,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.66968482646416638</v>
+        <v>0.66957754451574281</v>
       </c>
       <c r="J45">
-        <v>0.33031517353583356</v>
+        <v>0.33042245548425719</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.81731629895000735</v>
+        <v>0.81513028288066403</v>
       </c>
       <c r="O45">
-        <v>0.18268370104999265</v>
+        <v>0.18486971711933597</v>
       </c>
     </row>
     <row r="46">
@@ -6165,19 +6165,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.66011632487079897</v>
+        <v>0.64361193654219651</v>
       </c>
       <c r="J46">
-        <v>0.33988367512920109</v>
+        <v>0.35638806345780344</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.82389977387820745</v>
+        <v>0.82573180737445995</v>
       </c>
       <c r="O46">
-        <v>0.17610022612179249</v>
+        <v>0.17426819262553994</v>
       </c>
     </row>
     <row r="47">
@@ -6185,19 +6185,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.6766704167238925</v>
+        <v>0.66376659540898642</v>
       </c>
       <c r="J47">
-        <v>0.32332958327610756</v>
+        <v>0.33623340459101358</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.78048995171492108</v>
+        <v>0.77774052283479023</v>
       </c>
       <c r="O47">
-        <v>0.219510048285079</v>
+        <v>0.2222594771652098</v>
       </c>
     </row>
     <row r="48">
@@ -6205,19 +6205,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.63674810526097991</v>
+        <v>0.64411591490980935</v>
       </c>
       <c r="J48">
-        <v>0.36325189473901998</v>
+        <v>0.3558840850901907</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.80339144883849478</v>
+        <v>0.80204343228226849</v>
       </c>
       <c r="O48">
-        <v>0.19660855116150525</v>
+        <v>0.19795656771773157</v>
       </c>
     </row>
     <row r="49">
@@ -6225,19 +6225,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.62548321233104265</v>
+        <v>0.62708673593906927</v>
       </c>
       <c r="J49">
-        <v>0.37451678766895741</v>
+        <v>0.37291326406093078</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.79101706767852398</v>
+        <v>0.7833010215943117</v>
       </c>
       <c r="O49">
-        <v>0.20898293232147602</v>
+        <v>0.2166989784056883</v>
       </c>
     </row>
     <row r="50">
@@ -6245,19 +6245,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.60087680042163949</v>
+        <v>0.59996102805768015</v>
       </c>
       <c r="J50">
-        <v>0.39912319957836045</v>
+        <v>0.4000389719423198</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.77730350927622527</v>
+        <v>0.77534449783511417</v>
       </c>
       <c r="O50">
-        <v>0.22269649072377473</v>
+        <v>0.22465550216488583</v>
       </c>
     </row>
     <row r="51">
@@ -6265,19 +6265,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.60236608715745377</v>
+        <v>0.60817848869165347</v>
       </c>
       <c r="J51">
-        <v>0.39763391284254618</v>
+        <v>0.39182151130834658</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.79087260182414598</v>
+        <v>0.79342572431755709</v>
       </c>
       <c r="O51">
-        <v>0.20912739817585405</v>
+        <v>0.20657427568244288</v>
       </c>
     </row>
     <row r="52">
@@ -6285,19 +6285,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.61474515798960505</v>
+        <v>0.60305957537645194</v>
       </c>
       <c r="J52">
-        <v>0.38525484201039495</v>
+        <v>0.39694042462354812</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.81702912184967935</v>
+        <v>0.81379328210121593</v>
       </c>
       <c r="O52">
-        <v>0.1829708781503207</v>
+        <v>0.18620671789878401</v>
       </c>
     </row>
     <row r="53">
@@ -6305,19 +6305,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.62586573370216858</v>
+        <v>0.62945566823989241</v>
       </c>
       <c r="J53">
-        <v>0.37413426629783153</v>
+        <v>0.37054433176010759</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.78337827251126757</v>
+        <v>0.78115907098146942</v>
       </c>
       <c r="O53">
-        <v>0.21662172748873243</v>
+        <v>0.21884092901853067</v>
       </c>
     </row>
     <row r="54">
@@ -6328,13 +6328,13 @@
         <v>0.68075944639454689</v>
       </c>
       <c r="J54">
-        <v>0.31924055360545311</v>
+        <v>0.31924055360545317</v>
       </c>
       <c r="M54">
         <v>76</v>
       </c>
       <c r="N54">
-        <v>0.83570938743220224</v>
+        <v>0.83570938743220236</v>
       </c>
       <c r="O54">
         <v>0.16429061256779767</v>
@@ -7007,19 +7007,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.70012456743865215</v>
+        <v>0.6946432464437815</v>
       </c>
       <c r="J3">
-        <v>0.2998754325613478</v>
+        <v>0.30535675355621855</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.72687922617219736</v>
+        <v>0.74697773072441287</v>
       </c>
       <c r="O3">
-        <v>0.27312077382780264</v>
+        <v>0.25302226927558713</v>
       </c>
     </row>
     <row r="4">
@@ -7027,19 +7027,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.68296690721432074</v>
+        <v>0.7034356021902799</v>
       </c>
       <c r="J4">
-        <v>0.31703309278567926</v>
+        <v>0.29656439780972005</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.71209879771226769</v>
+        <v>0.69965159523449505</v>
       </c>
       <c r="O4">
-        <v>0.28790120228773231</v>
+        <v>0.30034840476550501</v>
       </c>
     </row>
     <row r="5">
@@ -7047,19 +7047,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.65617375019382918</v>
+        <v>0.64038002637173719</v>
       </c>
       <c r="J5">
-        <v>0.34382624980617077</v>
+        <v>0.35961997362826281</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.71872432024655764</v>
+        <v>0.72259082365690297</v>
       </c>
       <c r="O5">
-        <v>0.28127567975344236</v>
+        <v>0.27740917634309703</v>
       </c>
     </row>
     <row r="6">
@@ -7067,19 +7067,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.67468727958933339</v>
+        <v>0.68714936986318864</v>
       </c>
       <c r="J6">
-        <v>0.3253127204106665</v>
+        <v>0.3128506301368113</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.71845171375993866</v>
+        <v>0.72369424301706786</v>
       </c>
       <c r="O6">
-        <v>0.28154828624006151</v>
+        <v>0.27630575698293214</v>
       </c>
     </row>
     <row r="7">
@@ -7087,19 +7087,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.67178982834728806</v>
+        <v>0.65447003995206254</v>
       </c>
       <c r="J7">
-        <v>0.32821017165271199</v>
+        <v>0.34552996004793751</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.73044271197508015</v>
+        <v>0.74105345165223291</v>
       </c>
       <c r="O7">
-        <v>0.26955728802491991</v>
+        <v>0.25894654834776709</v>
       </c>
     </row>
     <row r="8">
@@ -7107,19 +7107,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.67980480164327561</v>
+        <v>0.67737356902388923</v>
       </c>
       <c r="J8">
-        <v>0.32019519835672433</v>
+        <v>0.32262643097611082</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.73892693464360226</v>
+        <v>0.74661210462460881</v>
       </c>
       <c r="O8">
-        <v>0.26107306535639768</v>
+        <v>0.25338789537539125</v>
       </c>
     </row>
     <row r="9">
@@ -7127,19 +7127,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.6698212570458737</v>
+        <v>0.68058200380375311</v>
       </c>
       <c r="J9">
-        <v>0.3301787429541263</v>
+        <v>0.31941799619624694</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.72708060687331899</v>
+        <v>0.71702832295105667</v>
       </c>
       <c r="O9">
-        <v>0.27291939312668084</v>
+        <v>0.28297167704894338</v>
       </c>
     </row>
     <row r="10">
@@ -7147,19 +7147,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.72621150110645927</v>
+        <v>0.71592259751616805</v>
       </c>
       <c r="J10">
-        <v>0.27378849889354073</v>
+        <v>0.28407740248383195</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.73993778978565206</v>
+        <v>0.72508641821824871</v>
       </c>
       <c r="O10">
-        <v>0.26006221021434794</v>
+        <v>0.27491358178175118</v>
       </c>
     </row>
     <row r="11">
@@ -7167,19 +7167,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.65246593917236384</v>
+        <v>0.65016880874624217</v>
       </c>
       <c r="J11">
-        <v>0.3475340608276361</v>
+        <v>0.34983119125375783</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.74131341036161014</v>
+        <v>0.76288095130956668</v>
       </c>
       <c r="O11">
-        <v>0.25868658963838981</v>
+        <v>0.23711904869043338</v>
       </c>
     </row>
     <row r="12">
@@ -7187,19 +7187,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.69252563194694616</v>
+        <v>0.69013282835978351</v>
       </c>
       <c r="J12">
-        <v>0.30747436805305389</v>
+        <v>0.30986717164021654</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.74813887260683198</v>
+        <v>0.74185379362247905</v>
       </c>
       <c r="O12">
-        <v>0.25186112739316796</v>
+        <v>0.258146206377521</v>
       </c>
     </row>
     <row r="13">
@@ -7207,19 +7207,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.67782387529187837</v>
+        <v>0.69683995676716248</v>
       </c>
       <c r="J13">
-        <v>0.32217612470812163</v>
+        <v>0.30316004323283746</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.75325995642128951</v>
+        <v>0.74554999820362045</v>
       </c>
       <c r="O13">
-        <v>0.24674004357871041</v>
+        <v>0.25445000179637955</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.6854670829648325</v>
+        <v>0.69732591005823275</v>
       </c>
       <c r="J14">
-        <v>0.31453291703516756</v>
+        <v>0.30267408994176731</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.7585631011034506</v>
+        <v>0.74672170496659274</v>
       </c>
       <c r="O14">
-        <v>0.24143689889654948</v>
+        <v>0.25327829503340721</v>
       </c>
     </row>
     <row r="15">
@@ -7247,19 +7247,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.68435624797102912</v>
+        <v>0.67092623908183957</v>
       </c>
       <c r="J15">
-        <v>0.31564375202897077</v>
+        <v>0.32907376091816049</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.76166626451247321</v>
+        <v>0.76879160067525532</v>
       </c>
       <c r="O15">
-        <v>0.23833373548752673</v>
+        <v>0.23120839932474471</v>
       </c>
     </row>
     <row r="16">
@@ -7267,19 +7267,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.65916096717317019</v>
+        <v>0.6577555866251501</v>
       </c>
       <c r="J16">
-        <v>0.3408390328268297</v>
+        <v>0.3422444133748499</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.77227674027460125</v>
+        <v>0.77792619518495931</v>
       </c>
       <c r="O16">
-        <v>0.22772325972539875</v>
+        <v>0.22207380481504063</v>
       </c>
     </row>
     <row r="17">
@@ -7287,19 +7287,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.66726048797881787</v>
+        <v>0.67771806576438576</v>
       </c>
       <c r="J17">
-        <v>0.33273951202118213</v>
+        <v>0.32228193423561419</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.76574553871569617</v>
+        <v>0.76607289366365316</v>
       </c>
       <c r="O17">
-        <v>0.23425446128430374</v>
+        <v>0.23392710633634692</v>
       </c>
     </row>
     <row r="18">
@@ -7307,19 +7307,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.67940007360614074</v>
+        <v>0.66994738860172176</v>
       </c>
       <c r="J18">
-        <v>0.32059992639385931</v>
+        <v>0.33005261139827818</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.78217292967126217</v>
+        <v>0.78370691693808137</v>
       </c>
       <c r="O18">
-        <v>0.21782707032873783</v>
+        <v>0.21629308306191866</v>
       </c>
     </row>
     <row r="19">
@@ -7327,19 +7327,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.67856512349149722</v>
+        <v>0.6889847926744348</v>
       </c>
       <c r="J19">
-        <v>0.32143487650850272</v>
+        <v>0.31101520732556531</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.78634242920842601</v>
+        <v>0.78088172545714629</v>
       </c>
       <c r="O19">
-        <v>0.21365757079157399</v>
+        <v>0.21911827454285368</v>
       </c>
     </row>
     <row r="20">
@@ -7347,19 +7347,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.65446204109958472</v>
+        <v>0.64975078925761098</v>
       </c>
       <c r="J20">
-        <v>0.34553795890041522</v>
+        <v>0.35024921074238896</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.79122622492998196</v>
+        <v>0.79936692593314607</v>
       </c>
       <c r="O20">
-        <v>0.20877377507001804</v>
+        <v>0.20063307406685396</v>
       </c>
     </row>
     <row r="21">
@@ -7367,19 +7367,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.62459970042297797</v>
+        <v>0.63182618323051032</v>
       </c>
       <c r="J21">
-        <v>0.37540029957702209</v>
+        <v>0.36817381676948985</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.7822041299879402</v>
+        <v>0.79315085262389839</v>
       </c>
       <c r="O21">
-        <v>0.21779587001205972</v>
+        <v>0.20684914737610163</v>
       </c>
     </row>
     <row r="22">
@@ -7387,19 +7387,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.65220203043903002</v>
+        <v>0.64983819899428896</v>
       </c>
       <c r="J22">
-        <v>0.34779796956096998</v>
+        <v>0.35016180100571109</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80008682108437534</v>
+        <v>0.79803173351004963</v>
       </c>
       <c r="O22">
-        <v>0.19991317891562477</v>
+        <v>0.20196826648995034</v>
       </c>
     </row>
     <row r="23">
@@ -7407,19 +7407,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.65416860576904956</v>
+        <v>0.65684957678677303</v>
       </c>
       <c r="J23">
-        <v>0.34583139423095038</v>
+        <v>0.34315042321322703</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.79367367555421531</v>
+        <v>0.79911945535987094</v>
       </c>
       <c r="O23">
-        <v>0.20632632444578464</v>
+        <v>0.20088054464012897</v>
       </c>
     </row>
     <row r="24">
@@ -7427,19 +7427,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.6333428508237261</v>
+        <v>0.63773871930189729</v>
       </c>
       <c r="J24">
-        <v>0.3666571491762739</v>
+        <v>0.36226128069810259</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.78352849370830924</v>
+        <v>0.77948188279488928</v>
       </c>
       <c r="O24">
-        <v>0.21647150629169074</v>
+        <v>0.22051811720511072</v>
       </c>
     </row>
     <row r="25">
@@ -7447,19 +7447,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.57078541992296394</v>
+        <v>0.57622240275872338</v>
       </c>
       <c r="J25">
-        <v>0.42921458007703606</v>
+        <v>0.42377759724127662</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.79672962122904989</v>
+        <v>0.77702861488490826</v>
       </c>
       <c r="O25">
-        <v>0.20327037877095025</v>
+        <v>0.22297138511509185</v>
       </c>
     </row>
     <row r="26">
@@ -7467,19 +7467,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.62085547461390334</v>
+        <v>0.61041131999665155</v>
       </c>
       <c r="J26">
-        <v>0.37914452538609661</v>
+        <v>0.38958868000334834</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80179009239120769</v>
+        <v>0.79159212546299296</v>
       </c>
       <c r="O26">
-        <v>0.19820990760879226</v>
+        <v>0.20840787453700704</v>
       </c>
     </row>
     <row r="27">
@@ -7487,19 +7487,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.59538445602619927</v>
+        <v>0.59246038016628266</v>
       </c>
       <c r="J27">
-        <v>0.40461554397380062</v>
+        <v>0.40753961983371734</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.80894274680938327</v>
+        <v>0.81160866997808323</v>
       </c>
       <c r="O27">
-        <v>0.19105725319061684</v>
+        <v>0.18839133002191683</v>
       </c>
     </row>
     <row r="28">
@@ -7507,19 +7507,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.6417046532792553</v>
+        <v>0.63375397721723847</v>
       </c>
       <c r="J28">
-        <v>0.35829534672074476</v>
+        <v>0.36624602278276164</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.79797961944594487</v>
+        <v>0.80548790253242486</v>
       </c>
       <c r="O28">
-        <v>0.20202038055405511</v>
+        <v>0.19451209746757514</v>
       </c>
     </row>
     <row r="29">
@@ -7527,19 +7527,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.61388780131600451</v>
+        <v>0.62932807958674164</v>
       </c>
       <c r="J29">
-        <v>0.38611219868399549</v>
+        <v>0.37067192041325836</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.83796945945768919</v>
+        <v>0.83297182355917099</v>
       </c>
       <c r="O29">
-        <v>0.16203054054231084</v>
+        <v>0.16702817644082901</v>
       </c>
     </row>
     <row r="30">
@@ -7547,19 +7547,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.58975402886249229</v>
+        <v>0.57702876050919838</v>
       </c>
       <c r="J30">
-        <v>0.41024597113750771</v>
+        <v>0.42297123949080168</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.81308215502913228</v>
+        <v>0.81039364553130333</v>
       </c>
       <c r="O30">
-        <v>0.18691784497086758</v>
+        <v>0.1896063544686967</v>
       </c>
     </row>
     <row r="31">
@@ -7567,19 +7567,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.60791669855256003</v>
+        <v>0.60812422431766566</v>
       </c>
       <c r="J31">
-        <v>0.39208330144744002</v>
+        <v>0.39187577568233439</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.84397281240915267</v>
+        <v>0.84068676601200676</v>
       </c>
       <c r="O31">
-        <v>0.15602718759084733</v>
+        <v>0.15931323398799324</v>
       </c>
     </row>
     <row r="32">
@@ -7587,19 +7587,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.64280161601838504</v>
+        <v>0.64913448386129668</v>
       </c>
       <c r="J32">
-        <v>0.35719838398161491</v>
+        <v>0.35086551613870326</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.81124684935132529</v>
+        <v>0.80039508319149122</v>
       </c>
       <c r="O32">
-        <v>0.18875315064867465</v>
+        <v>0.19960491680850875</v>
       </c>
     </row>
     <row r="33">
@@ -7607,19 +7607,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.6091451233201125</v>
+        <v>0.61622236543440934</v>
       </c>
       <c r="J33">
-        <v>0.39085487667988755</v>
+        <v>0.38377763456559066</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.83599426850125447</v>
+        <v>0.83658653172718489</v>
       </c>
       <c r="O33">
-        <v>0.16400573149874556</v>
+        <v>0.16341346827281508</v>
       </c>
     </row>
     <row r="34">
@@ -7627,19 +7627,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.59691815968393003</v>
+        <v>0.59248424750710882</v>
       </c>
       <c r="J34">
-        <v>0.40308184031607003</v>
+        <v>0.40751575249289118</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.8251548432114143</v>
+        <v>0.8182763288108198</v>
       </c>
       <c r="O34">
-        <v>0.17484515678858575</v>
+        <v>0.18172367118918012</v>
       </c>
     </row>
     <row r="35">
@@ -7647,19 +7647,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.60105257211476615</v>
+        <v>0.60319316049889804</v>
       </c>
       <c r="J35">
-        <v>0.39894742788523385</v>
+        <v>0.39680683950110196</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.86291258052418907</v>
+        <v>0.86008500884116323</v>
       </c>
       <c r="O35">
-        <v>0.13708741947581099</v>
+        <v>0.13991499115883671</v>
       </c>
     </row>
     <row r="36">
@@ -7667,19 +7667,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.61053701707045815</v>
+        <v>0.61417365461861251</v>
       </c>
       <c r="J36">
-        <v>0.38946298292954173</v>
+        <v>0.38582634538138749</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.8580854452047938</v>
+        <v>0.85002600448929344</v>
       </c>
       <c r="O36">
-        <v>0.14191455479520629</v>
+        <v>0.14997399551070656</v>
       </c>
     </row>
     <row r="37">
@@ -7687,19 +7687,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.56947960990959934</v>
+        <v>0.57704643825379742</v>
       </c>
       <c r="J37">
-        <v>0.43052039009040066</v>
+        <v>0.42295356174620252</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.84766268655974197</v>
+        <v>0.84850059378155418</v>
       </c>
       <c r="O37">
-        <v>0.152337313440258</v>
+        <v>0.15149940621844579</v>
       </c>
     </row>
     <row r="38">
@@ -7707,19 +7707,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.55617135143478813</v>
+        <v>0.55895462347987468</v>
       </c>
       <c r="J38">
-        <v>0.44382864856521176</v>
+        <v>0.44104537652012532</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.85574869240743578</v>
+        <v>0.86403756381857677</v>
       </c>
       <c r="O38">
-        <v>0.1442513075925643</v>
+        <v>0.13596243618142329</v>
       </c>
     </row>
     <row r="39">
@@ -7727,19 +7727,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.58586784361704469</v>
+        <v>0.55033188042058412</v>
       </c>
       <c r="J39">
-        <v>0.41413215638295525</v>
+        <v>0.44966811957941577</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.83326547746618396</v>
+        <v>0.82921754088476241</v>
       </c>
       <c r="O39">
-        <v>0.16673452253381602</v>
+        <v>0.17078245911523757</v>
       </c>
     </row>
     <row r="40">
@@ -7747,19 +7747,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.56075108983092137</v>
+        <v>0.56334365836914457</v>
       </c>
       <c r="J40">
-        <v>0.43924891016907863</v>
+        <v>0.43665634163085543</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.8805548442010882</v>
+        <v>0.88745174233980817</v>
       </c>
       <c r="O40">
-        <v>0.11944515579891182</v>
+        <v>0.11254825766019189</v>
       </c>
     </row>
     <row r="41">
@@ -7767,19 +7767,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.58332340991445997</v>
+        <v>0.56557866324521611</v>
       </c>
       <c r="J41">
-        <v>0.41667659008554009</v>
+        <v>0.43442133675478389</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.88721906338091527</v>
+        <v>0.89316005870379733</v>
       </c>
       <c r="O41">
-        <v>0.11278093661908477</v>
+        <v>0.10683994129620267</v>
       </c>
     </row>
     <row r="42">
@@ -7787,19 +7787,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.50871322253210549</v>
+        <v>0.50340590406655583</v>
       </c>
       <c r="J42">
-        <v>0.49128677746789456</v>
+        <v>0.49659409593344411</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.88143891642482608</v>
+        <v>0.88127492120048567</v>
       </c>
       <c r="O42">
-        <v>0.11856108357517384</v>
+        <v>0.11872507879951436</v>
       </c>
     </row>
     <row r="43">
@@ -7807,19 +7807,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.46418514294418323</v>
+        <v>0.47249142106200859</v>
       </c>
       <c r="J43">
-        <v>0.53581485705581677</v>
+        <v>0.52750857893799141</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.89214723475763957</v>
+        <v>0.89139124086587973</v>
       </c>
       <c r="O43">
-        <v>0.10785276524236043</v>
+        <v>0.10860875913412017</v>
       </c>
     </row>
     <row r="44">
@@ -7827,19 +7827,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.53576534766913109</v>
+        <v>0.52381394353749089</v>
       </c>
       <c r="J44">
-        <v>0.46423465233086886</v>
+        <v>0.47618605646250906</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.90461241183661112</v>
+        <v>0.90612329698204719</v>
       </c>
       <c r="O44">
-        <v>0.095387588163388895</v>
+        <v>0.093876703017952742</v>
       </c>
     </row>
     <row r="45">
@@ -7847,19 +7847,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.49084011202018712</v>
+        <v>0.47006707892763872</v>
       </c>
       <c r="J45">
-        <v>0.50915988797981282</v>
+        <v>0.52993292107236134</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.89495512460681215</v>
+        <v>0.89330306189879038</v>
       </c>
       <c r="O45">
-        <v>0.10504487539318784</v>
+        <v>0.10669693810120953</v>
       </c>
     </row>
     <row r="46">
@@ -7867,19 +7867,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.40255570770086468</v>
+        <v>0.40185024441041034</v>
       </c>
       <c r="J46">
-        <v>0.59744429229913532</v>
+        <v>0.5981497555895896</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.88646763069481427</v>
+        <v>0.88511215696299028</v>
       </c>
       <c r="O46">
-        <v>0.11353236930518565</v>
+        <v>0.11488784303700966</v>
       </c>
     </row>
     <row r="47">
@@ -7887,19 +7887,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.50028668408041466</v>
+        <v>0.48857158964046776</v>
       </c>
       <c r="J47">
-        <v>0.4997133159195854</v>
+        <v>0.51142841035953213</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.87761285147490409</v>
+        <v>0.87683351204546967</v>
       </c>
       <c r="O47">
-        <v>0.12238714852509587</v>
+        <v>0.12316648795453035</v>
       </c>
     </row>
     <row r="48">
@@ -7907,19 +7907,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.42433982817545562</v>
+        <v>0.41198623951370761</v>
       </c>
       <c r="J48">
-        <v>0.57566017182454443</v>
+        <v>0.58801376048629239</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.89113991326401953</v>
+        <v>0.89591939920459407</v>
       </c>
       <c r="O48">
-        <v>0.10886008673598051</v>
+        <v>0.10408060079540583</v>
       </c>
     </row>
     <row r="49">
@@ -7927,19 +7927,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.5170722209822487</v>
+        <v>0.51722079976700219</v>
       </c>
       <c r="J49">
-        <v>0.48292777901775136</v>
+        <v>0.48277920023299781</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.90221586039816659</v>
+        <v>0.89722229867507508</v>
       </c>
       <c r="O49">
-        <v>0.097784139601833381</v>
+        <v>0.10277770132492499</v>
       </c>
     </row>
     <row r="50">
@@ -7947,19 +7947,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.47566413676355085</v>
+        <v>0.48057303070813723</v>
       </c>
       <c r="J50">
-        <v>0.52433586323644921</v>
+        <v>0.51942696929186283</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.87653972440394601</v>
+        <v>0.89041099725776163</v>
       </c>
       <c r="O50">
-        <v>0.12346027559605394</v>
+        <v>0.10958900274223841</v>
       </c>
     </row>
     <row r="51">
@@ -7967,19 +7967,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.49978380382604548</v>
+        <v>0.49302015975831842</v>
       </c>
       <c r="J51">
-        <v>0.50021619617395452</v>
+        <v>0.50697984024168152</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.86160264795776431</v>
+        <v>0.86089585770312715</v>
       </c>
       <c r="O51">
-        <v>0.13839735204223566</v>
+        <v>0.13910414229687285</v>
       </c>
     </row>
     <row r="52">
@@ -7987,19 +7987,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.45060743875193937</v>
+        <v>0.45677388990574119</v>
       </c>
       <c r="J52">
-        <v>0.54939256124806057</v>
+        <v>0.5432261100942587</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.89460306749621865</v>
+        <v>0.899345719910562</v>
       </c>
       <c r="O52">
-        <v>0.10539693250378136</v>
+        <v>0.10065428008943811</v>
       </c>
     </row>
     <row r="53">
@@ -8007,19 +8007,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.51053100599350687</v>
+        <v>0.50837530104800754</v>
       </c>
       <c r="J53">
-        <v>0.48946899400649313</v>
+        <v>0.49162469895199246</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.88538378008146312</v>
+        <v>0.88950483852399465</v>
       </c>
       <c r="O53">
-        <v>0.11461621991853682</v>
+        <v>0.11049516147600533</v>
       </c>
     </row>
     <row r="54">
@@ -8036,10 +8036,10 @@
         <v>76</v>
       </c>
       <c r="N54">
-        <v>0.96028168392653546</v>
+        <v>0.95701780506989564</v>
       </c>
       <c r="O54">
-        <v>0.039718316073464578</v>
+        <v>0.042982194930104405</v>
       </c>
     </row>
     <row r="55">
@@ -8539,31 +8539,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.067868559230887818</v>
+        <v>0.067035373056328604</v>
       </c>
       <c r="C3">
-        <v>0.15942819556289048</v>
+        <v>0.15838176686908306</v>
       </c>
       <c r="D3">
-        <v>0.77270324520622169</v>
+        <v>0.77458286007458832</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.51502363110054639</v>
+        <v>0.49739702162112315</v>
       </c>
       <c r="J3">
-        <v>0.48497636889945356</v>
+        <v>0.5026029783788768</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.85316820018830364</v>
+        <v>0.85269133892908755</v>
       </c>
       <c r="O3">
-        <v>0.14683179981169639</v>
+        <v>0.14730866107091245</v>
       </c>
     </row>
     <row r="4">
@@ -8571,31 +8571,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.068169674898200208</v>
+        <v>0.070017314284562163</v>
       </c>
       <c r="C4">
-        <v>0.15800081156404994</v>
+        <v>0.15504720627086596</v>
       </c>
       <c r="D4">
-        <v>0.77382951353774976</v>
+        <v>0.77493547944457186</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.52402209506190489</v>
+        <v>0.5471118803417262</v>
       </c>
       <c r="J4">
-        <v>0.47597790493809511</v>
+        <v>0.45288811965827386</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.84729823901190415</v>
+        <v>0.84242218372320732</v>
       </c>
       <c r="O4">
-        <v>0.15270176098809585</v>
+        <v>0.15757781627679268</v>
       </c>
     </row>
     <row r="5">
@@ -8603,31 +8603,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.078380839534044483</v>
+        <v>0.079771008219014561</v>
       </c>
       <c r="C5">
-        <v>0.16176171923273588</v>
+        <v>0.16262013176877183</v>
       </c>
       <c r="D5">
-        <v>0.75985744123321974</v>
+        <v>0.75760886001221361</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.53232781076726732</v>
+        <v>0.51983077872271122</v>
       </c>
       <c r="J5">
-        <v>0.46767218923273268</v>
+        <v>0.48016922127728884</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.85475416970823903</v>
+        <v>0.85229020391457999</v>
       </c>
       <c r="O5">
-        <v>0.14524583029176108</v>
+        <v>0.14770979608541993</v>
       </c>
     </row>
     <row r="6">
@@ -8635,31 +8635,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.072956483130324309</v>
+        <v>0.071498641111265276</v>
       </c>
       <c r="C6">
-        <v>0.16784023118282609</v>
+        <v>0.17363067491854234</v>
       </c>
       <c r="D6">
-        <v>0.75920328568684969</v>
+        <v>0.75487068397019252</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.52018789068194093</v>
+        <v>0.50846976211093942</v>
       </c>
       <c r="J6">
-        <v>0.47981210931805895</v>
+        <v>0.49153023788906053</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86203644610434893</v>
+        <v>0.85783275338491372</v>
       </c>
       <c r="O6">
-        <v>0.13796355389565107</v>
+        <v>0.1421672466150862</v>
       </c>
     </row>
     <row r="7">
@@ -8667,31 +8667,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.089469261009520365</v>
+        <v>0.084904757002155759</v>
       </c>
       <c r="C7">
-        <v>0.14532767418268019</v>
+        <v>0.1496827720124187</v>
       </c>
       <c r="D7">
-        <v>0.76520306480779943</v>
+        <v>0.76541247098542553</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.56627541572907814</v>
+        <v>0.56709159664036879</v>
       </c>
       <c r="J7">
-        <v>0.43372458427092192</v>
+        <v>0.43290840335963127</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.85766302099254932</v>
+        <v>0.85583973559522764</v>
       </c>
       <c r="O7">
-        <v>0.14233697900745074</v>
+        <v>0.14416026440477239</v>
       </c>
     </row>
     <row r="8">
@@ -8699,31 +8699,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.081628875016775043</v>
+        <v>0.081017788976591051</v>
       </c>
       <c r="C8">
-        <v>0.15814172915137359</v>
+        <v>0.1604922263001044</v>
       </c>
       <c r="D8">
-        <v>0.76022939583185134</v>
+        <v>0.75848998472330453</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.5812415674127499</v>
+        <v>0.57148110204579572</v>
       </c>
       <c r="J8">
-        <v>0.4187584325872501</v>
+        <v>0.42851889795420417</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83302973277670223</v>
+        <v>0.830104017184221</v>
       </c>
       <c r="O8">
-        <v>0.16697026722329772</v>
+        <v>0.16989598281577897</v>
       </c>
     </row>
     <row r="9">
@@ -8731,31 +8731,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.082756532054831064</v>
+        <v>0.076683350278948417</v>
       </c>
       <c r="C9">
-        <v>0.18217842194730124</v>
+        <v>0.18933024009013991</v>
       </c>
       <c r="D9">
-        <v>0.73506504599786782</v>
+        <v>0.73398640963091166</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.51315298268453069</v>
+        <v>0.49038829338243678</v>
       </c>
       <c r="J9">
-        <v>0.4868470173154692</v>
+        <v>0.50961170661756316</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.8552161249108986</v>
+        <v>0.85109217258914338</v>
       </c>
       <c r="O9">
-        <v>0.1447838750891014</v>
+        <v>0.14890782741085656</v>
       </c>
     </row>
     <row r="10">
@@ -8763,31 +8763,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.090658334752524342</v>
+        <v>0.087909405970208826</v>
       </c>
       <c r="C10">
-        <v>0.15711859584711249</v>
+        <v>0.15689546302474613</v>
       </c>
       <c r="D10">
-        <v>0.75222306940036321</v>
+        <v>0.75519513100504509</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.5854733526819863</v>
+        <v>0.57948873656515265</v>
       </c>
       <c r="J10">
-        <v>0.41452664731801364</v>
+        <v>0.42051126343484729</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.84821670685715356</v>
+        <v>0.84359246513085184</v>
       </c>
       <c r="O10">
-        <v>0.15178329314284653</v>
+        <v>0.15640753486914821</v>
       </c>
     </row>
     <row r="11">
@@ -8795,31 +8795,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.08880525285771905</v>
+        <v>0.088778211841845964</v>
       </c>
       <c r="C11">
-        <v>0.16408897941758316</v>
+        <v>0.16387324780282217</v>
       </c>
       <c r="D11">
-        <v>0.74710576772469783</v>
+        <v>0.74734854035533183</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.54913100294796935</v>
+        <v>0.56219576027071283</v>
       </c>
       <c r="J11">
-        <v>0.4508689970520306</v>
+        <v>0.43780423972928711</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.85795661540749324</v>
+        <v>0.85428375347805674</v>
       </c>
       <c r="O11">
-        <v>0.14204338459250671</v>
+        <v>0.14571624652194323</v>
       </c>
     </row>
     <row r="12">
@@ -8827,31 +8827,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.088625711672568608</v>
+        <v>0.085291655884307274</v>
       </c>
       <c r="C12">
-        <v>0.16281120229023774</v>
+        <v>0.17181252103410918</v>
       </c>
       <c r="D12">
-        <v>0.74856308603719368</v>
+        <v>0.74289582308158364</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.58313650433689312</v>
+        <v>0.58268986409875601</v>
       </c>
       <c r="J12">
-        <v>0.41686349566310688</v>
+        <v>0.41731013590124394</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.84644297407557723</v>
+        <v>0.8468919436649669</v>
       </c>
       <c r="O12">
-        <v>0.15355702592442286</v>
+        <v>0.1531080563350331</v>
       </c>
     </row>
     <row r="13">
@@ -8859,31 +8859,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.10132244156778476</v>
+        <v>0.10217230312886777</v>
       </c>
       <c r="C13">
-        <v>0.16579338424495285</v>
+        <v>0.16169714289006512</v>
       </c>
       <c r="D13">
-        <v>0.73288417418726237</v>
+        <v>0.73613055398106708</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.59375581936394206</v>
+        <v>0.60212348629515255</v>
       </c>
       <c r="J13">
-        <v>0.40624418063605799</v>
+        <v>0.39787651370484756</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.83121882601856256</v>
+        <v>0.82079010833746979</v>
       </c>
       <c r="O13">
-        <v>0.16878117398143749</v>
+        <v>0.17920989166253021</v>
       </c>
     </row>
     <row r="14">
@@ -8891,31 +8891,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.10223172260959322</v>
+        <v>0.10450556684570118</v>
       </c>
       <c r="C14">
-        <v>0.17696855759562172</v>
+        <v>0.17485217335057929</v>
       </c>
       <c r="D14">
-        <v>0.72079971979478508</v>
+        <v>0.72064225980371954</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.57532059016187209</v>
+        <v>0.58935285579843566</v>
       </c>
       <c r="J14">
-        <v>0.4246794098381278</v>
+        <v>0.4106471442015644</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.82980999787652965</v>
+        <v>0.83271448127205949</v>
       </c>
       <c r="O14">
-        <v>0.1701900021234703</v>
+        <v>0.16728551872794051</v>
       </c>
     </row>
     <row r="15">
@@ -8923,31 +8923,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.115306931639168</v>
+        <v>0.11783968027006128</v>
       </c>
       <c r="C15">
-        <v>0.16306130327142326</v>
+        <v>0.16349081018030051</v>
       </c>
       <c r="D15">
-        <v>0.72163176508940874</v>
+        <v>0.71866950954963826</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.60412488649277107</v>
+        <v>0.60242918449725635</v>
       </c>
       <c r="J15">
-        <v>0.39587511350722904</v>
+        <v>0.39757081550274359</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.82519242362012879</v>
+        <v>0.82085481177478359</v>
       </c>
       <c r="O15">
-        <v>0.17480757637987121</v>
+        <v>0.17914518822521644</v>
       </c>
     </row>
     <row r="16">
@@ -8955,31 +8955,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.12053784227248299</v>
+        <v>0.11822067657385603</v>
       </c>
       <c r="C16">
-        <v>0.17466527505847426</v>
+        <v>0.17892244472529739</v>
       </c>
       <c r="D16">
-        <v>0.70479688266904272</v>
+        <v>0.70285687870084668</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.58913686849822933</v>
+        <v>0.58808569190166171</v>
       </c>
       <c r="J16">
-        <v>0.41086313150177062</v>
+        <v>0.41191430809833818</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.84205573116417642</v>
+        <v>0.83691085598774528</v>
       </c>
       <c r="O16">
-        <v>0.15794426883582355</v>
+        <v>0.16308914401225469</v>
       </c>
     </row>
     <row r="17">
@@ -8987,31 +8987,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.11640629695876809</v>
+        <v>0.11912339668743646</v>
       </c>
       <c r="C17">
-        <v>0.1690481133598353</v>
+        <v>0.16758864506170409</v>
       </c>
       <c r="D17">
-        <v>0.71454558968139659</v>
+        <v>0.71328795825085944</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.60520515741219738</v>
+        <v>0.60530213039618419</v>
       </c>
       <c r="J17">
-        <v>0.39479484258780273</v>
+        <v>0.39469786960381581</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.83447834949847688</v>
+        <v>0.8337111580512041</v>
       </c>
       <c r="O17">
-        <v>0.16552165050152307</v>
+        <v>0.16628884194879601</v>
       </c>
     </row>
     <row r="18">
@@ -9019,31 +9019,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.12327060339004872</v>
+        <v>0.12503488411074068</v>
       </c>
       <c r="C18">
-        <v>0.17675930727825026</v>
+        <v>0.17526565885227707</v>
       </c>
       <c r="D18">
-        <v>0.69997008933170102</v>
+        <v>0.69969945703698222</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.65309631501615384</v>
+        <v>0.66158527383147214</v>
       </c>
       <c r="J18">
-        <v>0.34690368498384622</v>
+        <v>0.33841472616852786</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.82110593257576037</v>
+        <v>0.81903085465267456</v>
       </c>
       <c r="O18">
-        <v>0.17889406742423958</v>
+        <v>0.18096914534732547</v>
       </c>
     </row>
     <row r="19">
@@ -9051,31 +9051,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.1371272418747515</v>
+        <v>0.13949476205989628</v>
       </c>
       <c r="C19">
-        <v>0.17692819350879546</v>
+        <v>0.18023543349884294</v>
       </c>
       <c r="D19">
-        <v>0.68594456461645303</v>
+        <v>0.68026980444126073</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.66016476013059588</v>
+        <v>0.66412489679891729</v>
       </c>
       <c r="J19">
-        <v>0.33983523986940412</v>
+        <v>0.33587510320108277</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.83259201560874707</v>
+        <v>0.83771234942578743</v>
       </c>
       <c r="O19">
-        <v>0.16740798439125298</v>
+        <v>0.16228765057421257</v>
       </c>
     </row>
     <row r="20">
@@ -9083,31 +9083,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.1313778842218537</v>
+        <v>0.13337120539550856</v>
       </c>
       <c r="C20">
-        <v>0.18552256993852953</v>
+        <v>0.18373666851667581</v>
       </c>
       <c r="D20">
-        <v>0.68309954583961674</v>
+        <v>0.68289212608781569</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64222716313759665</v>
+        <v>0.64224859007843338</v>
       </c>
       <c r="J20">
-        <v>0.35777283686240341</v>
+        <v>0.35775140992156673</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.82838748253131145</v>
+        <v>0.82588014034382262</v>
       </c>
       <c r="O20">
-        <v>0.17161251746868852</v>
+        <v>0.17411985965617738</v>
       </c>
     </row>
     <row r="21">
@@ -9115,31 +9115,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.14473024726717373</v>
+        <v>0.14528275234179833</v>
       </c>
       <c r="C21">
-        <v>0.17937982671788558</v>
+        <v>0.1811813979220884</v>
       </c>
       <c r="D21">
-        <v>0.67588992601494069</v>
+        <v>0.67353584973611336</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.64815421380623839</v>
+        <v>0.6630237829850929</v>
       </c>
       <c r="J21">
-        <v>0.35184578619376167</v>
+        <v>0.33697621701490704</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.80740996281098454</v>
+        <v>0.81238195769169641</v>
       </c>
       <c r="O21">
-        <v>0.19259003718901546</v>
+        <v>0.18761804230830362</v>
       </c>
     </row>
     <row r="22">
@@ -9147,31 +9147,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.15496177201244957</v>
+        <v>0.15827573319938143</v>
       </c>
       <c r="C22">
-        <v>0.18886481469947491</v>
+        <v>0.18536902812886991</v>
       </c>
       <c r="D22">
-        <v>0.65617341328807544</v>
+        <v>0.65635523867174861</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.68667704235820903</v>
+        <v>0.67548951362572451</v>
       </c>
       <c r="J22">
-        <v>0.31332295764179091</v>
+        <v>0.3245104863742756</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.82904251992735134</v>
+        <v>0.82923291150592116</v>
       </c>
       <c r="O22">
-        <v>0.17095748007264863</v>
+        <v>0.17076708849407882</v>
       </c>
     </row>
     <row r="23">
@@ -9179,31 +9179,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.15299688393132807</v>
+        <v>0.15165318510907591</v>
       </c>
       <c r="C23">
-        <v>0.19085942149706639</v>
+        <v>0.19037802515652377</v>
       </c>
       <c r="D23">
-        <v>0.6561436945716056</v>
+        <v>0.65796878973440032</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.63471928041799641</v>
+        <v>0.63910805816764493</v>
       </c>
       <c r="J23">
-        <v>0.36528071958200364</v>
+        <v>0.36089194183235507</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.80707607500382139</v>
+        <v>0.80357599451597239</v>
       </c>
       <c r="O23">
-        <v>0.19292392499617858</v>
+        <v>0.19642400548402758</v>
       </c>
     </row>
     <row r="24">
@@ -9211,31 +9211,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.15258043246865963</v>
+        <v>0.15583976775064218</v>
       </c>
       <c r="C24">
-        <v>0.19118432467653582</v>
+        <v>0.18918891991035999</v>
       </c>
       <c r="D24">
-        <v>0.6562352428548045</v>
+        <v>0.65497131233899775</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.67270157383114537</v>
+        <v>0.66630725168622107</v>
       </c>
       <c r="J24">
-        <v>0.32729842616885452</v>
+        <v>0.33369274831377893</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.81095287855596609</v>
+        <v>0.81066045352278193</v>
       </c>
       <c r="O24">
-        <v>0.18904712144403399</v>
+        <v>0.18933954647721815</v>
       </c>
     </row>
     <row r="25">
@@ -9243,31 +9243,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.16765399328788591</v>
+        <v>0.16785514140503399</v>
       </c>
       <c r="C25">
-        <v>0.18263387137932727</v>
+        <v>0.18230894548519738</v>
       </c>
       <c r="D25">
-        <v>0.64971213533278682</v>
+        <v>0.64983591310976863</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.71187860902534583</v>
+        <v>0.71111862155658523</v>
       </c>
       <c r="J25">
-        <v>0.28812139097465422</v>
+        <v>0.28888137844341488</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.80176174242267984</v>
+        <v>0.80038905337641797</v>
       </c>
       <c r="O25">
-        <v>0.19823825757732025</v>
+        <v>0.19961094662358206</v>
       </c>
     </row>
     <row r="26">
@@ -9275,31 +9275,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.16687074262114984</v>
+        <v>0.17067669832162802</v>
       </c>
       <c r="C26">
-        <v>0.21028794547097521</v>
+        <v>0.2034569779233287</v>
       </c>
       <c r="D26">
-        <v>0.62284131190787495</v>
+        <v>0.62586632375504325</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.69567559449765226</v>
+        <v>0.68957235994922073</v>
       </c>
       <c r="J26">
-        <v>0.30432440550234763</v>
+        <v>0.31042764005077922</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80176181783314993</v>
+        <v>0.79911850751273505</v>
       </c>
       <c r="O26">
-        <v>0.1982381821668501</v>
+        <v>0.20088149248726483</v>
       </c>
     </row>
     <row r="27">
@@ -9307,31 +9307,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.18166189236966632</v>
+        <v>0.18039180335749325</v>
       </c>
       <c r="C27">
-        <v>0.20457339123157187</v>
+        <v>0.20621413785914791</v>
       </c>
       <c r="D27">
-        <v>0.61376471639876184</v>
+        <v>0.61339405878335895</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.68532983751031784</v>
+        <v>0.69246508101443138</v>
       </c>
       <c r="J27">
-        <v>0.3146701624896821</v>
+        <v>0.30753491898556856</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.79735607087094795</v>
+        <v>0.7987445973106071</v>
       </c>
       <c r="O27">
-        <v>0.20264392912905207</v>
+        <v>0.20125540268939296</v>
       </c>
     </row>
     <row r="28">
@@ -9339,31 +9339,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.1758087213193929</v>
+        <v>0.17594301526668552</v>
       </c>
       <c r="C28">
-        <v>0.21458467140036086</v>
+        <v>0.21617836947592245</v>
       </c>
       <c r="D28">
-        <v>0.60960660728024629</v>
+        <v>0.60787861525739195</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.71404239989031626</v>
+        <v>0.70720437264454883</v>
       </c>
       <c r="J28">
-        <v>0.28595760010968374</v>
+        <v>0.29279562735545112</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.78776173095682611</v>
+        <v>0.78590231094322838</v>
       </c>
       <c r="O28">
-        <v>0.21223826904317392</v>
+        <v>0.2140976890567716</v>
       </c>
     </row>
     <row r="29">
@@ -9371,31 +9371,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20243341596441242</v>
+        <v>0.20032861382603945</v>
       </c>
       <c r="C29">
-        <v>0.20321366649697803</v>
+        <v>0.20317473667174912</v>
       </c>
       <c r="D29">
-        <v>0.59435291753860964</v>
+        <v>0.59649664950221137</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.71991146816769436</v>
+        <v>0.71309970485737662</v>
       </c>
       <c r="J29">
-        <v>0.28008853183230575</v>
+        <v>0.28690029514262344</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.78579260884370583</v>
+        <v>0.79242348120776662</v>
       </c>
       <c r="O29">
-        <v>0.21420739115629411</v>
+        <v>0.20757651879223341</v>
       </c>
     </row>
     <row r="30">
@@ -9403,31 +9403,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.20062260554000147</v>
+        <v>0.20758753699436164</v>
       </c>
       <c r="C30">
-        <v>0.21230296333011725</v>
+        <v>0.20114536594979696</v>
       </c>
       <c r="D30">
-        <v>0.58707443112988122</v>
+        <v>0.59126709705584146</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.7328525905519605</v>
+        <v>0.73550870445037431</v>
       </c>
       <c r="J30">
-        <v>0.26714740944803944</v>
+        <v>0.26449129554962569</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.78835228404727808</v>
+        <v>0.78245186786858911</v>
       </c>
       <c r="O30">
-        <v>0.211647715952722</v>
+        <v>0.21754813213141083</v>
       </c>
     </row>
     <row r="31">
@@ -9435,31 +9435,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22835474022284186</v>
+        <v>0.22545641469313565</v>
       </c>
       <c r="C31">
-        <v>0.20945708318267639</v>
+        <v>0.20345816525301644</v>
       </c>
       <c r="D31">
-        <v>0.56218817659448173</v>
+        <v>0.57108542005384799</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.75093547864691979</v>
+        <v>0.73350247787789002</v>
       </c>
       <c r="J31">
-        <v>0.24906452135308024</v>
+        <v>0.26649752212211014</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.7990274647882355</v>
+        <v>0.79840515219602159</v>
       </c>
       <c r="O31">
-        <v>0.20097253521176445</v>
+        <v>0.20159484780397843</v>
       </c>
     </row>
     <row r="32">
@@ -9467,31 +9467,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21506646697423065</v>
+        <v>0.21084338759932347</v>
       </c>
       <c r="C32">
-        <v>0.21308567859651581</v>
+        <v>0.21622266081949662</v>
       </c>
       <c r="D32">
-        <v>0.57184785442925357</v>
+        <v>0.57293395158117977</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.75581624194980335</v>
+        <v>0.75870891247524719</v>
       </c>
       <c r="J32">
-        <v>0.24418375805019665</v>
+        <v>0.24129108752475276</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.79946399734648266</v>
+        <v>0.79820255432538634</v>
       </c>
       <c r="O32">
-        <v>0.20053600265351729</v>
+        <v>0.20179744567461369</v>
       </c>
     </row>
     <row r="33">
@@ -9499,31 +9499,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.23492679016405901</v>
+        <v>0.23371665113616771</v>
       </c>
       <c r="C33">
-        <v>0.2131018324066066</v>
+        <v>0.21138927603371935</v>
       </c>
       <c r="D33">
-        <v>0.55197137742933433</v>
+        <v>0.55489407283011283</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.74290269885280502</v>
+        <v>0.74230215644676789</v>
       </c>
       <c r="J33">
-        <v>0.25709730114719487</v>
+        <v>0.25769784355323211</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.77549247113135333</v>
+        <v>0.78395834763105887</v>
       </c>
       <c r="O33">
-        <v>0.22450752886864667</v>
+        <v>0.21604165236894124</v>
       </c>
     </row>
     <row r="34">
@@ -9531,31 +9531,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.23507523664606803</v>
+        <v>0.23141792912000797</v>
       </c>
       <c r="C34">
-        <v>0.21070644089951818</v>
+        <v>0.2129160928194038</v>
       </c>
       <c r="D34">
-        <v>0.55421832245441383</v>
+        <v>0.55566597806058826</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.77302582749997784</v>
+        <v>0.7784179393662316</v>
       </c>
       <c r="J34">
-        <v>0.22697417250002216</v>
+        <v>0.22158206063376837</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.76321537964807462</v>
+        <v>0.77533821134183201</v>
       </c>
       <c r="O34">
-        <v>0.23678462035192538</v>
+        <v>0.2246617886581681</v>
       </c>
     </row>
     <row r="35">
@@ -9563,31 +9563,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.27575314834571901</v>
+        <v>0.27710625310048376</v>
       </c>
       <c r="C35">
-        <v>0.20540559920838924</v>
+        <v>0.19832984449191626</v>
       </c>
       <c r="D35">
-        <v>0.51884125244589174</v>
+        <v>0.52456390240760009</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.77851741738369085</v>
+        <v>0.78697141844880847</v>
       </c>
       <c r="J35">
-        <v>0.2214825826163091</v>
+        <v>0.2130285815511915</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.78157390534576365</v>
+        <v>0.78262265855032376</v>
       </c>
       <c r="O35">
-        <v>0.21842609465423635</v>
+        <v>0.21737734144967624</v>
       </c>
     </row>
     <row r="36">
@@ -9595,31 +9595,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.26872397297196837</v>
+        <v>0.26865356603953344</v>
       </c>
       <c r="C36">
-        <v>0.22568641925659788</v>
+        <v>0.22106601765438788</v>
       </c>
       <c r="D36">
-        <v>0.5055896077714338</v>
+        <v>0.51028041630607879</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.75664066362050841</v>
+        <v>0.76468341221806668</v>
       </c>
       <c r="J36">
-        <v>0.24335933637949159</v>
+        <v>0.23531658778193337</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.75963670179867016</v>
+        <v>0.76783248445288965</v>
       </c>
       <c r="O36">
-        <v>0.24036329820132996</v>
+        <v>0.23216751554711038</v>
       </c>
     </row>
     <row r="37">
@@ -9627,31 +9627,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.2747091635892297</v>
+        <v>0.27281845687790174</v>
       </c>
       <c r="C37">
-        <v>0.22380356810230884</v>
+        <v>0.22231764653060243</v>
       </c>
       <c r="D37">
-        <v>0.50148726830846158</v>
+        <v>0.50486389659149589</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.78754759729083101</v>
+        <v>0.79606634394003239</v>
       </c>
       <c r="J37">
-        <v>0.21245240270916899</v>
+        <v>0.20393365605996755</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.76325919737381454</v>
+        <v>0.75464682003645445</v>
       </c>
       <c r="O37">
-        <v>0.23674080262618541</v>
+        <v>0.24535317996354561</v>
       </c>
     </row>
     <row r="38">
@@ -9659,31 +9659,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.28740816148925158</v>
+        <v>0.28866775459080574</v>
       </c>
       <c r="C38">
-        <v>0.22735667966732556</v>
+        <v>0.22985457452242791</v>
       </c>
       <c r="D38">
-        <v>0.48523515884342289</v>
+        <v>0.48147767088676635</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.78284042558800027</v>
+        <v>0.78430436939002401</v>
       </c>
       <c r="J38">
-        <v>0.21715957441199973</v>
+        <v>0.21569563060997587</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76902656879551334</v>
+        <v>0.76248072216336249</v>
       </c>
       <c r="O38">
-        <v>0.23097343120448657</v>
+        <v>0.23751927783663748</v>
       </c>
     </row>
     <row r="39">
@@ -9691,31 +9691,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.30176998687794809</v>
+        <v>0.30833855647250197</v>
       </c>
       <c r="C39">
-        <v>0.21951289838336394</v>
+        <v>0.21541881010553235</v>
       </c>
       <c r="D39">
-        <v>0.47871711473868789</v>
+        <v>0.47624263342196577</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.81018135629495958</v>
+        <v>0.80794204521136037</v>
       </c>
       <c r="J39">
-        <v>0.18981864370504048</v>
+        <v>0.19205795478863968</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.73271146128070674</v>
+        <v>0.72639937917191244</v>
       </c>
       <c r="O39">
-        <v>0.26728853871929326</v>
+        <v>0.27360062082808756</v>
       </c>
     </row>
     <row r="40">
@@ -9723,31 +9723,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.30479871579645396</v>
+        <v>0.29931829334911636</v>
       </c>
       <c r="C40">
-        <v>0.23846944873949996</v>
+        <v>0.24452388701766176</v>
       </c>
       <c r="D40">
-        <v>0.45673183546404622</v>
+        <v>0.45615781963322199</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.81234662697935311</v>
+        <v>0.80812768146875702</v>
       </c>
       <c r="J40">
-        <v>0.18765337302064689</v>
+        <v>0.19187231853124295</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.7531154784707399</v>
+        <v>0.74748490276135859</v>
       </c>
       <c r="O40">
-        <v>0.24688452152926013</v>
+        <v>0.25251509723864135</v>
       </c>
     </row>
     <row r="41">
@@ -9755,31 +9755,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.30946724910939283</v>
+        <v>0.3167205420213568</v>
       </c>
       <c r="C41">
-        <v>0.24009563826993968</v>
+        <v>0.23777310622604533</v>
       </c>
       <c r="D41">
-        <v>0.45043711262066755</v>
+        <v>0.4455063517525979</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.79729076558961143</v>
+        <v>0.7989097436483712</v>
       </c>
       <c r="J41">
-        <v>0.20270923441038863</v>
+        <v>0.20109025635162869</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.751372189489528</v>
+        <v>0.74631473898962675</v>
       </c>
       <c r="O41">
-        <v>0.24862781051047203</v>
+        <v>0.2536852610103732</v>
       </c>
     </row>
     <row r="42">
@@ -9787,31 +9787,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.3291079179417909</v>
+        <v>0.33035013044396433</v>
       </c>
       <c r="C42">
-        <v>0.22553678180795764</v>
+        <v>0.22115169604144788</v>
       </c>
       <c r="D42">
-        <v>0.44535530025025155</v>
+        <v>0.44849817351458765</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.82730969879009253</v>
+        <v>0.82202635935238</v>
       </c>
       <c r="J42">
-        <v>0.17269030120990747</v>
+        <v>0.17797364064761997</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.76127022519168874</v>
+        <v>0.74870153465200395</v>
       </c>
       <c r="O42">
-        <v>0.2387297748083112</v>
+        <v>0.25129846534799599</v>
       </c>
     </row>
     <row r="43">
@@ -9819,31 +9819,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.31515313309042442</v>
+        <v>0.31592539540740749</v>
       </c>
       <c r="C43">
-        <v>0.24530238427304357</v>
+        <v>0.24447757178353388</v>
       </c>
       <c r="D43">
-        <v>0.43954448263653201</v>
+        <v>0.43959703280905865</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.80270451012110433</v>
+        <v>0.81105202222633044</v>
       </c>
       <c r="J43">
-        <v>0.19729548987889556</v>
+        <v>0.18894797777366962</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.75329804019150204</v>
+        <v>0.74984388187206252</v>
       </c>
       <c r="O43">
-        <v>0.24670195980849791</v>
+        <v>0.25015611812793759</v>
       </c>
     </row>
     <row r="44">
@@ -9851,31 +9851,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.32136282791473325</v>
+        <v>0.32488921125686637</v>
       </c>
       <c r="C44">
-        <v>0.2400879881993575</v>
+        <v>0.23849726631166737</v>
       </c>
       <c r="D44">
-        <v>0.4385491838859093</v>
+        <v>0.43661352243146628</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.83457937904917545</v>
+        <v>0.83866093867910285</v>
       </c>
       <c r="J44">
-        <v>0.16542062095082447</v>
+        <v>0.16133906132089712</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.73678613054627806</v>
+        <v>0.74552149495951925</v>
       </c>
       <c r="O44">
-        <v>0.26321386945372188</v>
+        <v>0.25447850504048081</v>
       </c>
     </row>
     <row r="45">
@@ -9883,31 +9883,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.33084620361631489</v>
+        <v>0.33118583550790159</v>
       </c>
       <c r="C45">
-        <v>0.24912498395424587</v>
+        <v>0.25219716761294003</v>
       </c>
       <c r="D45">
-        <v>0.4200288124294394</v>
+        <v>0.41661699687915832</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.81102200662248813</v>
+        <v>0.8066469838081417</v>
       </c>
       <c r="J45">
-        <v>0.18897799337751187</v>
+        <v>0.19335301619185821</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.74152228525867403</v>
+        <v>0.74202319648461323</v>
       </c>
       <c r="O45">
-        <v>0.25847771474132597</v>
+        <v>0.25797680351538671</v>
       </c>
     </row>
     <row r="46">
@@ -9915,31 +9915,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.32191942024089548</v>
+        <v>0.31702685016806353</v>
       </c>
       <c r="C46">
-        <v>0.25319913969596608</v>
+        <v>0.25560438680671355</v>
       </c>
       <c r="D46">
-        <v>0.42488144006313844</v>
+        <v>0.42736876302522298</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.8004140159451133</v>
+        <v>0.79609979596796032</v>
       </c>
       <c r="J46">
-        <v>0.19958598405488673</v>
+        <v>0.20390020403203962</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.7316037776010389</v>
+        <v>0.72954896635770095</v>
       </c>
       <c r="O46">
-        <v>0.26839622239896122</v>
+        <v>0.27045103364229911</v>
       </c>
     </row>
     <row r="47">
@@ -9947,31 +9947,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.34045113871882199</v>
+        <v>0.33886592480969391</v>
       </c>
       <c r="C47">
-        <v>0.24003509439679038</v>
+        <v>0.23972713754497579</v>
       </c>
       <c r="D47">
-        <v>0.41951376688438768</v>
+        <v>0.42140693764533038</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.82427058033466749</v>
+        <v>0.82509328565057016</v>
       </c>
       <c r="J47">
-        <v>0.17572941966533248</v>
+        <v>0.17490671434942975</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.69995001553220437</v>
+        <v>0.71299481507035589</v>
       </c>
       <c r="O47">
-        <v>0.30004998446779552</v>
+        <v>0.28700518492964411</v>
       </c>
     </row>
     <row r="48">
@@ -9979,31 +9979,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.35048024884333234</v>
+        <v>0.34854845931339856</v>
       </c>
       <c r="C48">
-        <v>0.2591722719982244</v>
+        <v>0.25763215516877791</v>
       </c>
       <c r="D48">
-        <v>0.3903474791584432</v>
+        <v>0.39381938551782347</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.82988014282066269</v>
+        <v>0.83139910683992357</v>
       </c>
       <c r="J48">
-        <v>0.17011985717933739</v>
+        <v>0.16860089316007651</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.71285584321083761</v>
+        <v>0.71857616992653373</v>
       </c>
       <c r="O48">
-        <v>0.28714415678916244</v>
+        <v>0.28142383007346633</v>
       </c>
     </row>
     <row r="49">
@@ -10011,31 +10011,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.37435175380507929</v>
+        <v>0.37519184282568341</v>
       </c>
       <c r="C49">
-        <v>0.24837039024040078</v>
+        <v>0.24660408467134337</v>
       </c>
       <c r="D49">
-        <v>0.37727785595451996</v>
+        <v>0.37820407250297322</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.81955677220708334</v>
+        <v>0.81408226363135394</v>
       </c>
       <c r="J49">
-        <v>0.18044322779291655</v>
+        <v>0.18591773636864609</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.70964528405931904</v>
+        <v>0.70797452670331207</v>
       </c>
       <c r="O49">
-        <v>0.29035471594068102</v>
+        <v>0.29202547329668788</v>
       </c>
     </row>
     <row r="50">
@@ -10043,31 +10043,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.38398192776429191</v>
+        <v>0.38151208275750453</v>
       </c>
       <c r="C50">
-        <v>0.24618617734781259</v>
+        <v>0.24839255753646627</v>
       </c>
       <c r="D50">
-        <v>0.36983189488789531</v>
+        <v>0.37009535970602914</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.83314750216946321</v>
+        <v>0.83713505577855862</v>
       </c>
       <c r="J50">
-        <v>0.16685249783053685</v>
+        <v>0.16286494422144138</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.69025544472259837</v>
+        <v>0.69632889695526823</v>
       </c>
       <c r="O50">
-        <v>0.30974455527740163</v>
+        <v>0.30367110304473188</v>
       </c>
     </row>
     <row r="51">
@@ -10075,31 +10075,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.4151350668072511</v>
+        <v>0.41194478905788073</v>
       </c>
       <c r="C51">
-        <v>0.24204056626978881</v>
+        <v>0.24028996600767349</v>
       </c>
       <c r="D51">
-        <v>0.3428243669229602</v>
+        <v>0.34776524493444577</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.85929909638219792</v>
+        <v>0.86043242801969999</v>
       </c>
       <c r="J51">
-        <v>0.14070090361780205</v>
+        <v>0.13956757198030001</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.71643655751711466</v>
+        <v>0.72572210498395862</v>
       </c>
       <c r="O51">
-        <v>0.28356344248288529</v>
+        <v>0.27427789501604144</v>
       </c>
     </row>
     <row r="52">
@@ -10107,31 +10107,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.41859487660483513</v>
+        <v>0.42148640286431516</v>
       </c>
       <c r="C52">
-        <v>0.2486214108823139</v>
+        <v>0.24745342720533739</v>
       </c>
       <c r="D52">
-        <v>0.33278371251285105</v>
+        <v>0.33106016993034743</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.85324575484943699</v>
+        <v>0.85875935527659841</v>
       </c>
       <c r="J52">
-        <v>0.14675424515056301</v>
+        <v>0.14124064472340167</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.64847255141062243</v>
+        <v>0.65023805105154331</v>
       </c>
       <c r="O52">
-        <v>0.35152744858937757</v>
+        <v>0.34976194894845664</v>
       </c>
     </row>
     <row r="53">
@@ -10139,31 +10139,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.45172584454965986</v>
+        <v>0.45478942976864323</v>
       </c>
       <c r="C53">
-        <v>0.24100952979305701</v>
+        <v>0.24496222670332249</v>
       </c>
       <c r="D53">
-        <v>0.30726462565728319</v>
+        <v>0.30024834352803426</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.86721724124767074</v>
+        <v>0.86760438099564274</v>
       </c>
       <c r="J53">
-        <v>0.13278275875232917</v>
+        <v>0.13239561900435734</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.67263577436344868</v>
+        <v>0.66897793484568102</v>
       </c>
       <c r="O53">
-        <v>0.32736422563655138</v>
+        <v>0.33102206515431909</v>
       </c>
     </row>
     <row r="54">
@@ -10171,31 +10171,31 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.45511574436666685</v>
+        <v>0.45903209376173876</v>
       </c>
       <c r="C54">
-        <v>0.25805936216266046</v>
+        <v>0.25720782632794381</v>
       </c>
       <c r="D54">
-        <v>0.28682489347067264</v>
+        <v>0.28376007991031749</v>
       </c>
       <c r="H54">
         <v>76</v>
       </c>
       <c r="I54">
-        <v>0.88221524779718608</v>
+        <v>0.88221524779718619</v>
       </c>
       <c r="J54">
-        <v>0.11778475220281391</v>
+        <v>0.11778475220281392</v>
       </c>
       <c r="M54">
         <v>76</v>
       </c>
       <c r="N54">
-        <v>0.46037009253859384</v>
+        <v>0.49568018443884959</v>
       </c>
       <c r="O54">
-        <v>0.53962990746140616</v>
+        <v>0.50431981556115035</v>
       </c>
     </row>
     <row r="55">
@@ -11028,19 +11028,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.54110663502900824</v>
+        <v>0.52294437336958755</v>
       </c>
       <c r="J3">
-        <v>0.4588933649709917</v>
+        <v>0.47705562663041245</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.8331012514341497</v>
+        <v>0.83639318810223828</v>
       </c>
       <c r="O3">
-        <v>0.1668987485658503</v>
+        <v>0.16360681189776177</v>
       </c>
     </row>
     <row r="4">
@@ -11048,19 +11048,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.59553870236702511</v>
+        <v>0.58726230212675679</v>
       </c>
       <c r="J4">
-        <v>0.40446129763297489</v>
+        <v>0.41273769787324316</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.81078135978461885</v>
+        <v>0.80030791430261883</v>
       </c>
       <c r="O4">
-        <v>0.18921864021538104</v>
+        <v>0.19969208569738109</v>
       </c>
     </row>
     <row r="5">
@@ -11068,19 +11068,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.62581718731063862</v>
+        <v>0.62246576888387328</v>
       </c>
       <c r="J5">
-        <v>0.37418281268936138</v>
+        <v>0.37753423111612677</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.82707011328039381</v>
+        <v>0.81874709272669599</v>
       </c>
       <c r="O5">
-        <v>0.17292988671960616</v>
+        <v>0.18125290727330395</v>
       </c>
     </row>
     <row r="6">
@@ -11088,19 +11088,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.56646228331736204</v>
+        <v>0.53306380230666306</v>
       </c>
       <c r="J6">
-        <v>0.43353771668263791</v>
+        <v>0.46693619769333683</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.83693420270388263</v>
+        <v>0.83775836445274243</v>
       </c>
       <c r="O6">
-        <v>0.16306579729611731</v>
+        <v>0.16224163554725754</v>
       </c>
     </row>
     <row r="7">
@@ -11108,19 +11108,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.68703280485622409</v>
+        <v>0.69174983411382041</v>
       </c>
       <c r="J7">
-        <v>0.31296719514377586</v>
+        <v>0.30825016588617971</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.82401492483090033</v>
+        <v>0.82450779862104617</v>
       </c>
       <c r="O7">
-        <v>0.17598507516909961</v>
+        <v>0.1754922013789538</v>
       </c>
     </row>
     <row r="8">
@@ -11128,19 +11128,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.65598656260913535</v>
+        <v>0.66941788995506868</v>
       </c>
       <c r="J8">
-        <v>0.3440134373908646</v>
+        <v>0.33058211004493132</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.81998064927136827</v>
+        <v>0.83371451091876581</v>
       </c>
       <c r="O8">
-        <v>0.18001935072863182</v>
+        <v>0.16628548908123414</v>
       </c>
     </row>
     <row r="9">
@@ -11148,19 +11148,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.60457834906625429</v>
+        <v>0.59189781409954068</v>
       </c>
       <c r="J9">
-        <v>0.39542165093374571</v>
+        <v>0.40810218590045944</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.80304055782807149</v>
+        <v>0.80169272307708617</v>
       </c>
       <c r="O9">
-        <v>0.19695944217192854</v>
+        <v>0.19830727692291383</v>
       </c>
     </row>
     <row r="10">
@@ -11168,19 +11168,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.67149900259493522</v>
+        <v>0.67749664981414393</v>
       </c>
       <c r="J10">
-        <v>0.32850099740506478</v>
+        <v>0.32250335018585619</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.79600479306905614</v>
+        <v>0.78492725551493137</v>
       </c>
       <c r="O10">
-        <v>0.20399520693094389</v>
+        <v>0.21507274448506863</v>
       </c>
     </row>
     <row r="11">
@@ -11188,19 +11188,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.63943729478469491</v>
+        <v>0.65829182743848902</v>
       </c>
       <c r="J11">
-        <v>0.3605627052153052</v>
+        <v>0.34170817256151093</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.81715275366396678</v>
+        <v>0.81099748139780992</v>
       </c>
       <c r="O11">
-        <v>0.18284724633603316</v>
+        <v>0.18900251860219</v>
       </c>
     </row>
     <row r="12">
@@ -11208,19 +11208,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.66024986078661363</v>
+        <v>0.62957272191438152</v>
       </c>
       <c r="J12">
-        <v>0.33975013921338632</v>
+        <v>0.37042727808561837</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.80128337580212572</v>
+        <v>0.80762111611046117</v>
       </c>
       <c r="O12">
-        <v>0.19871662419787425</v>
+        <v>0.19237888388953875</v>
       </c>
     </row>
     <row r="13">
@@ -11228,19 +11228,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.68348456275552694</v>
+        <v>0.68371050975312286</v>
       </c>
       <c r="J13">
-        <v>0.31651543724447301</v>
+        <v>0.31628949024687708</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.78523139499011496</v>
+        <v>0.77986164660320934</v>
       </c>
       <c r="O13">
-        <v>0.21476860500988504</v>
+        <v>0.22013835339679064</v>
       </c>
     </row>
     <row r="14">
@@ -11248,19 +11248,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.63715420844883819</v>
+        <v>0.63872783385219922</v>
       </c>
       <c r="J14">
-        <v>0.3628457915511617</v>
+        <v>0.36127216614780072</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.82009470651962146</v>
+        <v>0.81868439212022093</v>
       </c>
       <c r="O14">
-        <v>0.17990529348037859</v>
+        <v>0.1813156078797791</v>
       </c>
     </row>
     <row r="15">
@@ -11268,19 +11268,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.68330720844983694</v>
+        <v>0.67578521618949539</v>
       </c>
       <c r="J15">
-        <v>0.31669279155016306</v>
+        <v>0.32421478381050467</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.81016712064648366</v>
+        <v>0.81010544189152678</v>
       </c>
       <c r="O15">
-        <v>0.18983287935351648</v>
+        <v>0.18989455810847311</v>
       </c>
     </row>
     <row r="16">
@@ -11288,19 +11288,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.6921260446992149</v>
+        <v>0.68132640531797262</v>
       </c>
       <c r="J16">
-        <v>0.30787395530078504</v>
+        <v>0.31867359468202744</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.80347990594816532</v>
+        <v>0.79523012107994961</v>
       </c>
       <c r="O16">
-        <v>0.19652009405183476</v>
+        <v>0.20476987892005033</v>
       </c>
     </row>
     <row r="17">
@@ -11308,19 +11308,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.70721841374333316</v>
+        <v>0.70421277718683739</v>
       </c>
       <c r="J17">
-        <v>0.29278158625666673</v>
+        <v>0.29578722281316266</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.79587822921605578</v>
+        <v>0.78842763422901729</v>
       </c>
       <c r="O17">
-        <v>0.2041217707839442</v>
+        <v>0.21157236577098271</v>
       </c>
     </row>
     <row r="18">
@@ -11328,19 +11328,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.72742462960127552</v>
+        <v>0.73761512508698401</v>
       </c>
       <c r="J18">
-        <v>0.27257537039872443</v>
+        <v>0.26238487491301588</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.78132366485720517</v>
+        <v>0.7840211666999275</v>
       </c>
       <c r="O18">
-        <v>0.21867633514279475</v>
+        <v>0.21597883330007253</v>
       </c>
     </row>
     <row r="19">
@@ -11348,19 +11348,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.73662554571632843</v>
+        <v>0.75339823150771923</v>
       </c>
       <c r="J19">
-        <v>0.26337445428367157</v>
+        <v>0.2466017684922808</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.80226321120243516</v>
+        <v>0.80751801848990079</v>
       </c>
       <c r="O19">
-        <v>0.19773678879756476</v>
+        <v>0.19248198151009924</v>
       </c>
     </row>
     <row r="20">
@@ -11368,19 +11368,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.71443956421114641</v>
+        <v>0.70747492176437121</v>
       </c>
       <c r="J20">
-        <v>0.28556043578885359</v>
+        <v>0.29252507823562884</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.79939283150207463</v>
+        <v>0.79437555860986453</v>
       </c>
       <c r="O20">
-        <v>0.20060716849792534</v>
+        <v>0.20562444139013544</v>
       </c>
     </row>
     <row r="21">
@@ -11388,19 +11388,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.72368010065118948</v>
+        <v>0.73376720343939184</v>
       </c>
       <c r="J21">
-        <v>0.27631989934881052</v>
+        <v>0.26623279656060816</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.76278141513684949</v>
+        <v>0.77007021689807031</v>
       </c>
       <c r="O21">
-        <v>0.23721858486315053</v>
+        <v>0.22992978310192971</v>
       </c>
     </row>
     <row r="22">
@@ -11408,19 +11408,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.75389493495950266</v>
+        <v>0.75973177302758566</v>
       </c>
       <c r="J22">
-        <v>0.24610506504049734</v>
+        <v>0.24026822697241434</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.79073317839994894</v>
+        <v>0.7977561396099615</v>
       </c>
       <c r="O22">
-        <v>0.20926682160005111</v>
+        <v>0.20224386039003858</v>
       </c>
     </row>
     <row r="23">
@@ -11428,19 +11428,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.73934050934412021</v>
+        <v>0.74966878570940432</v>
       </c>
       <c r="J23">
-        <v>0.26065949065587984</v>
+        <v>0.25033121429059563</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75758899634858601</v>
+        <v>0.75660231651982124</v>
       </c>
       <c r="O23">
-        <v>0.24241100365141391</v>
+        <v>0.24339768348017868</v>
       </c>
     </row>
     <row r="24">
@@ -11448,19 +11448,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.76145788969500361</v>
+        <v>0.75489525654828815</v>
       </c>
       <c r="J24">
-        <v>0.23854211030499642</v>
+        <v>0.24510474345171185</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.78556832834383727</v>
+        <v>0.78588524735259524</v>
       </c>
       <c r="O24">
-        <v>0.21443167165616281</v>
+        <v>0.21411475264740473</v>
       </c>
     </row>
     <row r="25">
@@ -11468,19 +11468,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.80105510780417011</v>
+        <v>0.80453091657396747</v>
       </c>
       <c r="J25">
-        <v>0.19894489219582989</v>
+        <v>0.19546908342603253</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.75705291204217717</v>
+        <v>0.76631821938863498</v>
       </c>
       <c r="O25">
-        <v>0.24294708795782272</v>
+        <v>0.23368178061136496</v>
       </c>
     </row>
     <row r="26">
@@ -11488,19 +11488,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.80007768832294435</v>
+        <v>0.79926240361880607</v>
       </c>
       <c r="J26">
-        <v>0.19992231167705565</v>
+        <v>0.20073759638119398</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.73205821304171326</v>
+        <v>0.73049357526476877</v>
       </c>
       <c r="O26">
-        <v>0.26794178695828669</v>
+        <v>0.26950642473523112</v>
       </c>
     </row>
     <row r="27">
@@ -11508,19 +11508,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.75990409807333958</v>
+        <v>0.76412009126350233</v>
       </c>
       <c r="J27">
-        <v>0.2400959019266605</v>
+        <v>0.23587990873649764</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.74865155936589256</v>
+        <v>0.7517276396084358</v>
       </c>
       <c r="O27">
-        <v>0.2513484406341075</v>
+        <v>0.2482723603915642</v>
       </c>
     </row>
     <row r="28">
@@ -11528,19 +11528,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.80246950812117601</v>
+        <v>0.80169378253511914</v>
       </c>
       <c r="J28">
-        <v>0.19753049187882404</v>
+        <v>0.19830621746488086</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.72364767646308337</v>
+        <v>0.73002824957233703</v>
       </c>
       <c r="O28">
-        <v>0.27635232353691658</v>
+        <v>0.26997175042766297</v>
       </c>
     </row>
     <row r="29">
@@ -11548,19 +11548,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.81819654742929915</v>
+        <v>0.80850126188884675</v>
       </c>
       <c r="J29">
-        <v>0.18180345257070082</v>
+        <v>0.1914987381111532</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.71279204886088487</v>
+        <v>0.7277749890686549</v>
       </c>
       <c r="O29">
-        <v>0.28720795113911507</v>
+        <v>0.2722250109313451</v>
       </c>
     </row>
     <row r="30">
@@ -11568,19 +11568,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.8363874756784444</v>
+        <v>0.83712666084491028</v>
       </c>
       <c r="J30">
-        <v>0.16361252432155568</v>
+        <v>0.16287333915508967</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70981554073067255</v>
+        <v>0.70574656526161872</v>
       </c>
       <c r="O30">
-        <v>0.29018445926932734</v>
+        <v>0.29425343473838134</v>
       </c>
     </row>
     <row r="31">
@@ -11588,19 +11588,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.8426704948629965</v>
+        <v>0.8266734840928498</v>
       </c>
       <c r="J31">
-        <v>0.1573295051370035</v>
+        <v>0.17332651590715017</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.7431651267838546</v>
+        <v>0.74405913712054905</v>
       </c>
       <c r="O31">
-        <v>0.25683487321614545</v>
+        <v>0.25594086287945106</v>
       </c>
     </row>
     <row r="32">
@@ -11608,19 +11608,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.84638608677823968</v>
+        <v>0.84937723232176854</v>
       </c>
       <c r="J32">
-        <v>0.15361391322176027</v>
+        <v>0.15062276767823141</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.74802219611256082</v>
+        <v>0.74794634693153961</v>
       </c>
       <c r="O32">
-        <v>0.25197780388743912</v>
+        <v>0.25205365306846045</v>
       </c>
     </row>
     <row r="33">
@@ -11628,19 +11628,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.8564829035025755</v>
+        <v>0.8551693440915541</v>
       </c>
       <c r="J33">
-        <v>0.14351709649742458</v>
+        <v>0.14483065590844593</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.72151258284685504</v>
+        <v>0.74091255551320334</v>
       </c>
       <c r="O33">
-        <v>0.27848741715314485</v>
+        <v>0.25908744448679671</v>
       </c>
     </row>
     <row r="34">
@@ -11648,19 +11648,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.85091264848419135</v>
+        <v>0.86007865699780073</v>
       </c>
       <c r="J34">
-        <v>0.14908735151580865</v>
+        <v>0.13992134300219922</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71509051768033782</v>
+        <v>0.71912231779186753</v>
       </c>
       <c r="O34">
-        <v>0.28490948231966223</v>
+        <v>0.28087768220813247</v>
       </c>
     </row>
     <row r="35">
@@ -11668,19 +11668,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.88150530120393822</v>
+        <v>0.87787812578700464</v>
       </c>
       <c r="J35">
-        <v>0.11849469879606174</v>
+        <v>0.12212187421299547</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.7074552268388854</v>
+        <v>0.70602104076332883</v>
       </c>
       <c r="O35">
-        <v>0.29254477316111455</v>
+        <v>0.29397895923667106</v>
       </c>
     </row>
     <row r="36">
@@ -11688,19 +11688,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.85129251326602884</v>
+        <v>0.86179865463905858</v>
       </c>
       <c r="J36">
-        <v>0.14870748673397127</v>
+        <v>0.13820134536094147</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.72498927147731584</v>
+        <v>0.74293090533171557</v>
       </c>
       <c r="O36">
-        <v>0.27501072852268416</v>
+        <v>0.25706909466828443</v>
       </c>
     </row>
     <row r="37">
@@ -11708,19 +11708,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.87826174479654773</v>
+        <v>0.87619365564090435</v>
       </c>
       <c r="J37">
-        <v>0.12173825520345215</v>
+        <v>0.1238063443590956</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.71769656854617103</v>
+        <v>0.72251684128698568</v>
       </c>
       <c r="O37">
-        <v>0.28230343145382891</v>
+        <v>0.27748315871301427</v>
       </c>
     </row>
     <row r="38">
@@ -11728,19 +11728,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.87294643686676632</v>
+        <v>0.88252479067314815</v>
       </c>
       <c r="J38">
-        <v>0.12705356313323363</v>
+        <v>0.11747520932685186</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.71205789709527234</v>
+        <v>0.71640520689865739</v>
       </c>
       <c r="O38">
-        <v>0.2879421029047276</v>
+        <v>0.28359479310134256</v>
       </c>
     </row>
     <row r="39">
@@ -11748,19 +11748,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.91925358404774205</v>
+        <v>0.9258470105089065</v>
       </c>
       <c r="J39">
-        <v>0.080746415952257872</v>
+        <v>0.074152989491093474</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.67407561222848222</v>
+        <v>0.67062257431775996</v>
       </c>
       <c r="O39">
-        <v>0.32592438777151772</v>
+        <v>0.32937742568223999</v>
       </c>
     </row>
     <row r="40">
@@ -11768,19 +11768,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.88242146258341514</v>
+        <v>0.88787308928709052</v>
       </c>
       <c r="J40">
-        <v>0.11757853741658486</v>
+        <v>0.11212691071290951</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.68465906358075568</v>
+        <v>0.67221001749972786</v>
       </c>
       <c r="O40">
-        <v>0.31534093641924443</v>
+        <v>0.32778998250027219</v>
       </c>
     </row>
     <row r="41">
@@ -11788,19 +11788,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.90115973129949989</v>
+        <v>0.90256680276582102</v>
       </c>
       <c r="J41">
-        <v>0.098840268700500084</v>
+        <v>0.097433197234179036</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.6780631132309064</v>
+        <v>0.66771890828951541</v>
       </c>
       <c r="O41">
-        <v>0.3219368867690936</v>
+        <v>0.33228109171048453</v>
       </c>
     </row>
     <row r="42">
@@ -11808,19 +11808,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.91124631787548083</v>
+        <v>0.91279916457634158</v>
       </c>
       <c r="J42">
-        <v>0.088753682124519145</v>
+        <v>0.087200835423658377</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.68098155314965148</v>
+        <v>0.66963308761872165</v>
       </c>
       <c r="O42">
-        <v>0.31901844685034858</v>
+        <v>0.3303669123812783</v>
       </c>
     </row>
     <row r="43">
@@ -11828,19 +11828,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.90397481648730948</v>
+        <v>0.92187367242229212</v>
       </c>
       <c r="J43">
-        <v>0.096025183512690432</v>
+        <v>0.078126327577707863</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.66072050826690099</v>
+        <v>0.66585297230323082</v>
       </c>
       <c r="O43">
-        <v>0.33927949173309901</v>
+        <v>0.33414702769676929</v>
       </c>
     </row>
     <row r="44">
@@ -11848,19 +11848,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.92553876993043838</v>
+        <v>0.93167848469696746</v>
       </c>
       <c r="J44">
-        <v>0.074461230069561554</v>
+        <v>0.068321515303032515</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.66002922169452316</v>
+        <v>0.68696705416018378</v>
       </c>
       <c r="O44">
-        <v>0.3399707783054769</v>
+        <v>0.31303294583981617</v>
       </c>
     </row>
     <row r="45">
@@ -11868,19 +11868,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.91962601041379965</v>
+        <v>0.91689102007438605</v>
       </c>
       <c r="J45">
-        <v>0.080373989586200331</v>
+        <v>0.083108979925614029</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.65668950810532389</v>
+        <v>0.6678717174200508</v>
       </c>
       <c r="O45">
-        <v>0.34331049189467605</v>
+        <v>0.33212828257994909</v>
       </c>
     </row>
     <row r="46">
@@ -11888,19 +11888,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.88984021165866911</v>
+        <v>0.88521247341825138</v>
       </c>
       <c r="J46">
-        <v>0.11015978834133092</v>
+        <v>0.1147875265817485</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.57798540844541924</v>
+        <v>0.5689339846304825</v>
       </c>
       <c r="O46">
-        <v>0.42201459155458071</v>
+        <v>0.43106601536951744</v>
       </c>
     </row>
     <row r="47">
@@ -11908,19 +11908,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.88923810176430718</v>
+        <v>0.88992571602722725</v>
       </c>
       <c r="J47">
-        <v>0.11076189823569278</v>
+        <v>0.1100742839727727</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.53089524973967994</v>
+        <v>0.56451857016765961</v>
       </c>
       <c r="O47">
-        <v>0.46910475026032011</v>
+        <v>0.43548142983234028</v>
       </c>
     </row>
     <row r="48">
@@ -11928,19 +11928,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.91504114956317961</v>
+        <v>0.92131001721046368</v>
       </c>
       <c r="J48">
-        <v>0.084958850436820402</v>
+        <v>0.078689982789536289</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.61839335855066735</v>
+        <v>0.60991805968928148</v>
       </c>
       <c r="O48">
-        <v>0.38160664144933276</v>
+        <v>0.39008194031071841</v>
       </c>
     </row>
     <row r="49">
@@ -11948,19 +11948,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.88075296241678369</v>
+        <v>0.88448068062557439</v>
       </c>
       <c r="J49">
-        <v>0.11924703758321631</v>
+        <v>0.11551931937442569</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.60901400971016773</v>
+        <v>0.60462143393474832</v>
       </c>
       <c r="O49">
-        <v>0.39098599028983227</v>
+        <v>0.39537856606525168</v>
       </c>
     </row>
     <row r="50">
@@ -11968,19 +11968,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.86724234795481014</v>
+        <v>0.87534295508285664</v>
       </c>
       <c r="J50">
-        <v>0.13275765204518983</v>
+        <v>0.1246570449171434</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.59798151529273302</v>
+        <v>0.59411640366194174</v>
       </c>
       <c r="O50">
-        <v>0.40201848470726703</v>
+        <v>0.40588359633805832</v>
       </c>
     </row>
     <row r="51">
@@ -11988,19 +11988,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.91824620016177527</v>
+        <v>0.91454574217444939</v>
       </c>
       <c r="J51">
-        <v>0.081753799838224728</v>
+        <v>0.085454257825550509</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.62444161476294757</v>
+        <v>0.61735007143058529</v>
       </c>
       <c r="O51">
-        <v>0.37555838523705248</v>
+        <v>0.38264992856941471</v>
       </c>
     </row>
     <row r="52">
@@ -12008,19 +12008,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.91360420000372766</v>
+        <v>0.91768390182095361</v>
       </c>
       <c r="J52">
-        <v>0.086395799996272338</v>
+        <v>0.082316098179046365</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.59741669863062086</v>
+        <v>0.60283386482445489</v>
       </c>
       <c r="O52">
-        <v>0.40258330136937903</v>
+        <v>0.39716613517554511</v>
       </c>
     </row>
     <row r="53">
@@ -12028,19 +12028,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.92655888979788548</v>
+        <v>0.92817360949842875</v>
       </c>
       <c r="J53">
-        <v>0.073441110202114634</v>
+        <v>0.07182639050157133</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.6429200736182703</v>
+        <v>0.62917889330530752</v>
       </c>
       <c r="O53">
-        <v>0.3570799263817297</v>
+        <v>0.37082110669469254</v>
       </c>
     </row>
     <row r="54">
@@ -12545,19 +12545,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.48635660932329317</v>
+        <v>0.47057684547959366</v>
       </c>
       <c r="J3">
-        <v>0.51364339067670683</v>
+        <v>0.52942315452040634</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.87116628391397455</v>
+        <v>0.86699312885396462</v>
       </c>
       <c r="O3">
-        <v>0.1288337160860254</v>
+        <v>0.13300687114603538</v>
       </c>
     </row>
     <row r="4">
@@ -12565,19 +12565,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.44231736864936844</v>
+        <v>0.49851152365956619</v>
       </c>
       <c r="J4">
-        <v>0.55768263135063145</v>
+        <v>0.5014884763404337</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.87891552236752446</v>
+        <v>0.87770130355567344</v>
       </c>
       <c r="O4">
-        <v>0.12108447763247553</v>
+        <v>0.12229869644432659</v>
       </c>
     </row>
     <row r="5">
@@ -12585,19 +12585,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.4441490086227789</v>
+        <v>0.42390245987279934</v>
       </c>
       <c r="J5">
-        <v>0.55585099137722105</v>
+        <v>0.57609754012720071</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.87924962216520242</v>
+        <v>0.88078709441835412</v>
       </c>
       <c r="O5">
-        <v>0.12075037783479764</v>
+        <v>0.11921290558164582</v>
       </c>
     </row>
     <row r="6">
@@ -12605,19 +12605,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.47388804407825241</v>
+        <v>0.48276429590120518</v>
       </c>
       <c r="J6">
-        <v>0.52611195592174753</v>
+        <v>0.51723570409879482</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.88224064000217572</v>
+        <v>0.87364491121587251</v>
       </c>
       <c r="O6">
-        <v>0.11775935999782425</v>
+        <v>0.12635508878412757</v>
       </c>
     </row>
     <row r="7">
@@ -12625,19 +12625,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.4422749254238163</v>
+        <v>0.44265212296184242</v>
       </c>
       <c r="J7">
-        <v>0.5577250745761837</v>
+        <v>0.55734787703815758</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.88740063078881215</v>
+        <v>0.88385478868943168</v>
       </c>
       <c r="O7">
-        <v>0.11259936921118789</v>
+        <v>0.11614521131056832</v>
       </c>
     </row>
     <row r="8">
@@ -12645,19 +12645,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.49938158131668403</v>
+        <v>0.46820460210734327</v>
       </c>
       <c r="J8">
-        <v>0.50061841868331591</v>
+        <v>0.53179539789265673</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.84340819219996122</v>
+        <v>0.82740721022013153</v>
       </c>
       <c r="O8">
-        <v>0.15659180780003873</v>
+        <v>0.17259278977986853</v>
       </c>
     </row>
     <row r="9">
@@ -12665,19 +12665,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.40663946845983001</v>
+        <v>0.37844647434065681</v>
       </c>
       <c r="J9">
-        <v>0.59336053154016999</v>
+        <v>0.62155352565934308</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.89459206074869657</v>
+        <v>0.88665878265423004</v>
       </c>
       <c r="O9">
-        <v>0.10540793925130354</v>
+        <v>0.11334121734577005</v>
       </c>
     </row>
     <row r="10">
@@ -12685,19 +12685,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.48542616840474073</v>
+        <v>0.46334887946260395</v>
       </c>
       <c r="J10">
-        <v>0.51457383159525927</v>
+        <v>0.53665112053739616</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.88788313733585356</v>
+        <v>0.88803106932769416</v>
       </c>
       <c r="O10">
-        <v>0.11211686266414649</v>
+        <v>0.11196893067230589</v>
       </c>
     </row>
     <row r="11">
@@ -12705,19 +12705,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.45427169607277357</v>
+        <v>0.4620004049086866</v>
       </c>
       <c r="J11">
-        <v>0.54572830392722638</v>
+        <v>0.53799959509131345</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.88941420296291751</v>
+        <v>0.88905634795120148</v>
       </c>
       <c r="O11">
-        <v>0.1105857970370825</v>
+        <v>0.11094365204879859</v>
       </c>
     </row>
     <row r="12">
@@ -12725,19 +12725,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.50941309251863209</v>
+        <v>0.53813464390418497</v>
       </c>
       <c r="J12">
-        <v>0.49058690748136791</v>
+        <v>0.46186535609581508</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.88105273442752263</v>
+        <v>0.87701437557388595</v>
       </c>
       <c r="O12">
-        <v>0.11894726557247742</v>
+        <v>0.12298562442611398</v>
       </c>
     </row>
     <row r="13">
@@ -12745,19 +12745,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.49501854989677446</v>
+        <v>0.52061869365595426</v>
       </c>
       <c r="J13">
-        <v>0.50498145010322548</v>
+        <v>0.47938130634404569</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.86793677664550384</v>
+        <v>0.85302764262532416</v>
       </c>
       <c r="O13">
-        <v>0.13206322335449627</v>
+        <v>0.14697235737467587</v>
       </c>
     </row>
     <row r="14">
@@ -12765,19 +12765,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.51629114425017542</v>
+        <v>0.54559372916466442</v>
       </c>
       <c r="J14">
-        <v>0.48370885574982453</v>
+        <v>0.45440627083533564</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.83676639179353018</v>
+        <v>0.84248447748378941</v>
       </c>
       <c r="O14">
-        <v>0.16323360820646993</v>
+        <v>0.15751552251621062</v>
       </c>
     </row>
     <row r="15">
@@ -12785,19 +12785,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.52423398065956606</v>
+        <v>0.52882282588108886</v>
       </c>
       <c r="J15">
-        <v>0.47576601934043394</v>
+        <v>0.47117717411891114</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.83661172052135435</v>
+        <v>0.82905572320150422</v>
       </c>
       <c r="O15">
-        <v>0.16338827947864568</v>
+        <v>0.1709442767984958</v>
       </c>
     </row>
     <row r="16">
@@ -12805,19 +12805,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.49339598894739684</v>
+        <v>0.50754217318099637</v>
       </c>
       <c r="J16">
-        <v>0.50660401105260322</v>
+        <v>0.49245782681900357</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.87242774078859053</v>
+        <v>0.87051902921605306</v>
       </c>
       <c r="O16">
-        <v>0.12757225921140952</v>
+        <v>0.12948097078394699</v>
       </c>
     </row>
     <row r="17">
@@ -12825,19 +12825,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.49564587185656578</v>
+        <v>0.49972395816540888</v>
       </c>
       <c r="J17">
-        <v>0.50435412814343417</v>
+        <v>0.50027604183459107</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.86384315613211837</v>
+        <v>0.86704347858738129</v>
       </c>
       <c r="O17">
-        <v>0.13615684386788166</v>
+        <v>0.13295652141261877</v>
       </c>
     </row>
     <row r="18">
@@ -12845,19 +12845,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.57782029735825147</v>
+        <v>0.58242729216737577</v>
       </c>
       <c r="J18">
-        <v>0.42217970264174859</v>
+        <v>0.41757270783262418</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.84785679506871137</v>
+        <v>0.84269452652768562</v>
       </c>
       <c r="O18">
-        <v>0.15214320493128852</v>
+        <v>0.15730547347231438</v>
       </c>
     </row>
     <row r="19">
@@ -12865,19 +12865,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.5892019333002142</v>
+        <v>0.58007635610550889</v>
       </c>
       <c r="J19">
-        <v>0.4107980666997858</v>
+        <v>0.41992364389449116</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.85230654202278722</v>
+        <v>0.85765680135448163</v>
       </c>
       <c r="O19">
-        <v>0.14769345797721287</v>
+        <v>0.14234319864551845</v>
       </c>
     </row>
     <row r="20">
@@ -12885,19 +12885,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.58224091046583926</v>
+        <v>0.58913066155608118</v>
       </c>
       <c r="J20">
-        <v>0.4177590895341608</v>
+        <v>0.41086933844391887</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.84735949168448976</v>
+        <v>0.84734906335509386</v>
       </c>
       <c r="O20">
-        <v>0.15264050831551026</v>
+        <v>0.15265093664490614</v>
       </c>
     </row>
     <row r="21">
@@ -12905,19 +12905,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.58083334944994613</v>
+        <v>0.59835192990862129</v>
       </c>
       <c r="J21">
-        <v>0.41916665055005387</v>
+        <v>0.40164807009137876</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.83606508346589115</v>
+        <v>0.83934266727027596</v>
       </c>
       <c r="O21">
-        <v>0.16393491653410872</v>
+        <v>0.16065733272972413</v>
       </c>
     </row>
     <row r="22">
@@ -12925,19 +12925,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.62537334105214626</v>
+        <v>0.59791753782508217</v>
       </c>
       <c r="J22">
-        <v>0.37462665894785374</v>
+        <v>0.40208246217491783</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.85287415716903603</v>
+        <v>0.84788476629734366</v>
       </c>
       <c r="O22">
-        <v>0.147125842830964</v>
+        <v>0.15211523370265634</v>
       </c>
     </row>
     <row r="23">
@@ -12945,19 +12945,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.53773432304719604</v>
+        <v>0.53444682750689865</v>
       </c>
       <c r="J23">
-        <v>0.46226567695280385</v>
+        <v>0.46555317249310141</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.83829550932634089</v>
+        <v>0.83263760083598093</v>
       </c>
       <c r="O23">
-        <v>0.16170449067365905</v>
+        <v>0.16736239916401902</v>
       </c>
     </row>
     <row r="24">
@@ -12965,19 +12965,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.59057823765464967</v>
+        <v>0.58313467960531118</v>
       </c>
       <c r="J24">
-        <v>0.40942176234535033</v>
+        <v>0.41686532039468871</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.82620175321532274</v>
+        <v>0.82558573697312343</v>
       </c>
       <c r="O24">
-        <v>0.17379824678467731</v>
+        <v>0.17441426302687649</v>
       </c>
     </row>
     <row r="25">
@@ -12985,19 +12985,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.63655996422396699</v>
+        <v>0.6355663313830564</v>
       </c>
       <c r="J25">
-        <v>0.36344003577603301</v>
+        <v>0.36443366861694348</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.82921279926426139</v>
+        <v>0.82184600110449013</v>
       </c>
       <c r="O25">
-        <v>0.17078720073573869</v>
+        <v>0.17815399889550973</v>
       </c>
     </row>
     <row r="26">
@@ -13005,19 +13005,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.60057938676700273</v>
+        <v>0.59591771930964899</v>
       </c>
       <c r="J26">
-        <v>0.39942061323299738</v>
+        <v>0.40408228069035107</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.84305594364091974</v>
+        <v>0.84156394290679548</v>
       </c>
       <c r="O26">
-        <v>0.15694405635908026</v>
+        <v>0.15843605709320463</v>
       </c>
     </row>
     <row r="27">
@@ -13025,19 +13025,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.61422552919908369</v>
+        <v>0.62214587902509377</v>
       </c>
       <c r="J27">
-        <v>0.38577447080091631</v>
+        <v>0.37785412097490623</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.8252644679524912</v>
+        <v>0.8268061085261762</v>
       </c>
       <c r="O27">
-        <v>0.17473553204750891</v>
+        <v>0.17319389147382391</v>
       </c>
     </row>
     <row r="28">
@@ -13045,19 +13045,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.64254381322949317</v>
+        <v>0.62999769805519157</v>
       </c>
       <c r="J28">
-        <v>0.35745618677050689</v>
+        <v>0.37000230194480832</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.82569535721311282</v>
+        <v>0.8189818284361835</v>
       </c>
       <c r="O28">
-        <v>0.17430464278688707</v>
+        <v>0.18101817156381653</v>
       </c>
     </row>
     <row r="29">
@@ -13065,19 +13065,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.63675250902607428</v>
+        <v>0.62776995149706438</v>
       </c>
       <c r="J29">
-        <v>0.36324749097392567</v>
+        <v>0.37223004850293567</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.82843692754232812</v>
+        <v>0.82983951581733884</v>
       </c>
       <c r="O29">
-        <v>0.17156307245767194</v>
+        <v>0.17016048418266111</v>
       </c>
     </row>
     <row r="30">
@@ -13085,19 +13085,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.63717067651132109</v>
+        <v>0.64229825942935503</v>
       </c>
       <c r="J30">
-        <v>0.36282932348867891</v>
+        <v>0.35770174057064502</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.83155100891680578</v>
+        <v>0.82406499627205332</v>
       </c>
       <c r="O30">
-        <v>0.1684489910831943</v>
+        <v>0.17593500372794668</v>
       </c>
     </row>
     <row r="31">
@@ -13105,19 +13105,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.67468301144576914</v>
+        <v>0.65886832481508728</v>
       </c>
       <c r="J31">
-        <v>0.3253169885542308</v>
+        <v>0.34113167518491272</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.82941663036088764</v>
+        <v>0.82873640720740605</v>
       </c>
       <c r="O31">
-        <v>0.17058336963911241</v>
+        <v>0.17126359279259404</v>
       </c>
     </row>
     <row r="32">
@@ -13125,19 +13125,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.66949842441553864</v>
+        <v>0.6700284691923013</v>
       </c>
       <c r="J32">
-        <v>0.33050157558446142</v>
+        <v>0.32997153080769875</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.82584598933420317</v>
+        <v>0.82417150241877157</v>
       </c>
       <c r="O32">
-        <v>0.17415401066579678</v>
+        <v>0.1758284975812284</v>
       </c>
     </row>
     <row r="33">
@@ -13145,19 +13145,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.64409796941688535</v>
+        <v>0.64138953777105778</v>
       </c>
       <c r="J33">
-        <v>0.35590203058311465</v>
+        <v>0.35861046222894211</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.80576301438761411</v>
+        <v>0.80802575731372217</v>
       </c>
       <c r="O33">
-        <v>0.19423698561238589</v>
+        <v>0.1919742426862778</v>
       </c>
     </row>
     <row r="34">
@@ -13165,19 +13165,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69482450193622858</v>
+        <v>0.69440105847622691</v>
       </c>
       <c r="J34">
-        <v>0.30517549806377137</v>
+        <v>0.30559894152377309</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78591379198620315</v>
+        <v>0.80151694731543066</v>
       </c>
       <c r="O34">
-        <v>0.21408620801379694</v>
+        <v>0.19848305268456945</v>
       </c>
     </row>
     <row r="35">
@@ -13185,19 +13185,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.68832457806072811</v>
+        <v>0.70336919319525315</v>
       </c>
       <c r="J35">
-        <v>0.31167542193927189</v>
+        <v>0.29663080680474685</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.81919518598862207</v>
+        <v>0.82112799931526192</v>
       </c>
       <c r="O35">
-        <v>0.18080481401137802</v>
+        <v>0.17887200068473808</v>
       </c>
     </row>
     <row r="36">
@@ -13205,19 +13205,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.6784012482180698</v>
+        <v>0.68031256526564643</v>
       </c>
       <c r="J36">
-        <v>0.32159875178193015</v>
+        <v>0.31968743473435351</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.77535761950824367</v>
+        <v>0.77885173121020035</v>
       </c>
       <c r="O36">
-        <v>0.22464238049175625</v>
+        <v>0.22114826878979973</v>
       </c>
     </row>
     <row r="37">
@@ -13225,19 +13225,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.71778472881470567</v>
+        <v>0.73141356557743264</v>
       </c>
       <c r="J37">
-        <v>0.28221527118529433</v>
+        <v>0.2685864344225673</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.78286289662482389</v>
+        <v>0.76846024175274075</v>
       </c>
       <c r="O37">
-        <v>0.21713710337517611</v>
+        <v>0.23153975824725925</v>
       </c>
     </row>
     <row r="38">
@@ -13245,19 +13245,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.71499893970200379</v>
+        <v>0.70971633066272688</v>
       </c>
       <c r="J38">
-        <v>0.28500106029799616</v>
+        <v>0.29028366933727318</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.79077801383242396</v>
+        <v>0.78051069395061001</v>
       </c>
       <c r="O38">
-        <v>0.20922198616757598</v>
+        <v>0.21948930604938996</v>
       </c>
     </row>
     <row r="39">
@@ -13265,19 +13265,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.73786332550182698</v>
+        <v>0.7317034987112141</v>
       </c>
       <c r="J39">
-        <v>0.26213667449817291</v>
+        <v>0.26829650128878585</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.75583240445174149</v>
+        <v>0.74754995977010885</v>
       </c>
       <c r="O39">
-        <v>0.24416759554825854</v>
+        <v>0.25245004022989104</v>
       </c>
     </row>
     <row r="40">
@@ -13285,19 +13285,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.76959475068064243</v>
+        <v>0.75764217470933437</v>
       </c>
       <c r="J40">
-        <v>0.23040524931935755</v>
+        <v>0.24235782529066566</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.77570123503623989</v>
+        <v>0.77108266645552404</v>
       </c>
       <c r="O40">
-        <v>0.22429876496376011</v>
+        <v>0.22891733354447591</v>
       </c>
     </row>
     <row r="41">
@@ -13305,19 +13305,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.73656371476514848</v>
+        <v>0.73721165157368784</v>
       </c>
       <c r="J41">
-        <v>0.26343628523485157</v>
+        <v>0.2627883484263121</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.77550288050523375</v>
+        <v>0.7709763433268948</v>
       </c>
       <c r="O41">
-        <v>0.22449711949476622</v>
+        <v>0.22902365667310517</v>
       </c>
     </row>
     <row r="42">
@@ -13325,19 +13325,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.78000186095129143</v>
+        <v>0.77315794558418238</v>
       </c>
       <c r="J42">
-        <v>0.21999813904870855</v>
+        <v>0.22684205441581762</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.78259640181076118</v>
+        <v>0.76951592285993353</v>
       </c>
       <c r="O42">
-        <v>0.21740359818923874</v>
+        <v>0.2304840771400665</v>
       </c>
     </row>
     <row r="43">
@@ -13345,19 +13345,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.75414159807860803</v>
+        <v>0.759791288370537</v>
       </c>
       <c r="J43">
-        <v>0.24585840192139202</v>
+        <v>0.24020871162946297</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.77877454751697572</v>
+        <v>0.77301501703213671</v>
       </c>
       <c r="O43">
-        <v>0.22122545248302428</v>
+        <v>0.22698498296786329</v>
       </c>
     </row>
     <row r="44">
@@ -13365,19 +13365,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.79172072035384899</v>
+        <v>0.79560585797785011</v>
       </c>
       <c r="J44">
-        <v>0.20827927964615095</v>
+        <v>0.20439414202214995</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.75590018842818152</v>
+        <v>0.75996328562199056</v>
       </c>
       <c r="O44">
-        <v>0.24409981157181848</v>
+        <v>0.2400367143780095</v>
       </c>
     </row>
     <row r="45">
@@ -13385,19 +13385,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.75792813146777804</v>
+        <v>0.75158018572737972</v>
       </c>
       <c r="J45">
-        <v>0.24207186853222193</v>
+        <v>0.24841981427262025</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.76131719869250103</v>
+        <v>0.75942918152801475</v>
       </c>
       <c r="O45">
-        <v>0.23868280130749897</v>
+        <v>0.24057081847198519</v>
       </c>
     </row>
     <row r="46">
@@ -13405,19 +13405,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.76024088561486014</v>
+        <v>0.75591855000401675</v>
       </c>
       <c r="J46">
-        <v>0.23975911438513994</v>
+        <v>0.24408144999598314</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.76715226535877168</v>
+        <v>0.76786313640230308</v>
       </c>
       <c r="O46">
-        <v>0.23284773464122838</v>
+        <v>0.23213686359769692</v>
       </c>
     </row>
     <row r="47">
@@ -13425,19 +13425,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.79660342061728917</v>
+        <v>0.79837884224998612</v>
       </c>
       <c r="J47">
-        <v>0.2033965793827108</v>
+        <v>0.20162115775001391</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.73896182593702542</v>
+        <v>0.74582069178516774</v>
       </c>
       <c r="O47">
-        <v>0.26103817406297458</v>
+        <v>0.25417930821483231</v>
       </c>
     </row>
     <row r="48">
@@ -13445,19 +13445,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.79160165887782663</v>
+        <v>0.79000550373861722</v>
       </c>
       <c r="J48">
-        <v>0.20839834112217334</v>
+        <v>0.2099944962613827</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.7355570905269494</v>
+        <v>0.74532252465430626</v>
       </c>
       <c r="O48">
-        <v>0.2644429094730506</v>
+        <v>0.25467747534569363</v>
       </c>
     </row>
     <row r="49">
@@ -13465,19 +13465,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.79038677295959014</v>
+        <v>0.78139122102167802</v>
       </c>
       <c r="J49">
-        <v>0.20961322704040988</v>
+        <v>0.21860877897832193</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.73224211535133477</v>
+        <v>0.73153670571948992</v>
       </c>
       <c r="O49">
-        <v>0.26775788464866507</v>
+        <v>0.26846329428051019</v>
       </c>
     </row>
     <row r="50">
@@ -13485,19 +13485,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.81850820767141674</v>
+        <v>0.82011639966226602</v>
       </c>
       <c r="J50">
-        <v>0.18149179232858328</v>
+        <v>0.17988360033773401</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.71346657564068972</v>
+        <v>0.72250789988380959</v>
       </c>
       <c r="O50">
-        <v>0.2865334243593104</v>
+        <v>0.27749210011619041</v>
       </c>
     </row>
     <row r="51">
@@ -13505,19 +13505,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.83184552346385665</v>
+        <v>0.83560685587526584</v>
       </c>
       <c r="J51">
-        <v>0.1681544765361434</v>
+        <v>0.16439314412473416</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.73850794357661409</v>
+        <v>0.75214748896028449</v>
       </c>
       <c r="O51">
-        <v>0.26149205642338585</v>
+        <v>0.24785251103971559</v>
       </c>
     </row>
     <row r="52">
@@ -13525,19 +13525,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.82726555347213548</v>
+        <v>0.83380997032133475</v>
       </c>
       <c r="J52">
-        <v>0.17273444652786452</v>
+        <v>0.16619002967866531</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.6624986357996161</v>
+        <v>0.66313376503872057</v>
       </c>
       <c r="O52">
-        <v>0.3375013642003839</v>
+        <v>0.33686623496127943</v>
       </c>
     </row>
     <row r="53">
@@ -13545,19 +13545,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.84194394630213976</v>
+        <v>0.84142826699080697</v>
       </c>
       <c r="J53">
-        <v>0.15805605369786027</v>
+        <v>0.15857173300919303</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.6794317458321727</v>
+        <v>0.67816761931415048</v>
       </c>
       <c r="O53">
-        <v>0.32056825416782736</v>
+        <v>0.32183238068584968</v>
       </c>
     </row>
     <row r="54">
@@ -13565,7 +13565,7 @@
         <v>76</v>
       </c>
       <c r="I54">
-        <v>0.86542102307679902</v>
+        <v>0.86542102307679925</v>
       </c>
       <c r="J54">
         <v>0.13457897692320087</v>
@@ -13574,10 +13574,10 @@
         <v>76</v>
       </c>
       <c r="N54">
-        <v>0.49074428840295137</v>
+        <v>0.5310715244310984</v>
       </c>
       <c r="O54">
-        <v>0.50925571159704863</v>
+        <v>0.46892847556890155</v>
       </c>
     </row>
     <row r="55">

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13083" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13199" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13199" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13257" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>
@@ -691,31 +691,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.24269474368342936</v>
+        <v>0.24576268061850029</v>
       </c>
       <c r="C3">
-        <v>0.23314648852488723</v>
+        <v>0.22831477230128516</v>
       </c>
       <c r="D3">
-        <v>0.52415876779168336</v>
+        <v>0.52592254708021446</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.72557515189327548</v>
+        <v>0.72442741702794999</v>
       </c>
       <c r="J3">
-        <v>0.27442484810672463</v>
+        <v>0.27557258297204984</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.71825774417938748</v>
+        <v>0.7151852146134251</v>
       </c>
       <c r="O3">
-        <v>0.28174225582061246</v>
+        <v>0.28481478538657495</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.26430826685448561</v>
+        <v>0.26585293317405329</v>
       </c>
       <c r="C4">
-        <v>0.22641637195051045</v>
+        <v>0.22742026474424892</v>
       </c>
       <c r="D4">
-        <v>0.50927536119500394</v>
+        <v>0.50672680208169774</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -744,10 +744,10 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.69490270116261332</v>
+        <v>0.69925849207584601</v>
       </c>
       <c r="O4">
-        <v>0.30509729883738673</v>
+        <v>0.30074150792415399</v>
       </c>
     </row>
     <row r="5">
@@ -755,31 +755,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.26784572758314257</v>
+        <v>0.26707982379964162</v>
       </c>
       <c r="C5">
-        <v>0.21486741399573511</v>
+        <v>0.2155480485957697</v>
       </c>
       <c r="D5">
-        <v>0.51728685842112232</v>
+        <v>0.51737212760458873</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.67098327628772025</v>
+        <v>0.67337965410482448</v>
       </c>
       <c r="J5">
-        <v>0.32901672371227969</v>
+        <v>0.32662034589517552</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.71459118085802631</v>
+        <v>0.71539237017711899</v>
       </c>
       <c r="O5">
-        <v>0.28540881914197358</v>
+        <v>0.28460762982288096</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.24179644948679094</v>
+        <v>0.24134054564334587</v>
       </c>
       <c r="C6">
-        <v>0.21499663094075647</v>
+        <v>0.21548633903851722</v>
       </c>
       <c r="D6">
-        <v>0.5432069195724526</v>
+        <v>0.54317311531813683</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.72274773025172034</v>
+        <v>0.72544249704662966</v>
       </c>
       <c r="J6">
-        <v>0.2772522697482796</v>
+        <v>0.27455750295337039</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.69124182106791898</v>
+        <v>0.69023705577485295</v>
       </c>
       <c r="O6">
-        <v>0.30875817893208091</v>
+        <v>0.30976294422514694</v>
       </c>
     </row>
     <row r="7">
@@ -819,31 +819,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.24501291485857443</v>
+        <v>0.24468426435551824</v>
       </c>
       <c r="C7">
-        <v>0.23777113533742142</v>
+        <v>0.23953448969290733</v>
       </c>
       <c r="D7">
-        <v>0.51721594980400409</v>
+        <v>0.51578124595157437</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.68694317441213015</v>
+        <v>0.68892769065403292</v>
       </c>
       <c r="J7">
-        <v>0.3130568255878699</v>
+        <v>0.31107230934596708</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.72773443890931055</v>
+        <v>0.72524521553722732</v>
       </c>
       <c r="O7">
-        <v>0.2722655610906895</v>
+        <v>0.27475478446277257</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.24924611215261486</v>
+        <v>0.25114896154916699</v>
       </c>
       <c r="C8">
-        <v>0.21186981771544305</v>
+        <v>0.21121400723687372</v>
       </c>
       <c r="D8">
-        <v>0.53888407013194206</v>
+        <v>0.53763703121395934</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.71197351544551213</v>
+        <v>0.71273602425899274</v>
       </c>
       <c r="J8">
-        <v>0.28802648455448787</v>
+        <v>0.2872639757410072</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.71038093266817826</v>
+        <v>0.7114085688324896</v>
       </c>
       <c r="O8">
-        <v>0.28961906733182174</v>
+        <v>0.2885914311675104</v>
       </c>
     </row>
     <row r="9">
@@ -883,22 +883,22 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.25552522365846758</v>
+        <v>0.25392098437551863</v>
       </c>
       <c r="C9">
-        <v>0.20725473378519388</v>
+        <v>0.21046669053249384</v>
       </c>
       <c r="D9">
-        <v>0.53722004255633848</v>
+        <v>0.53561232509198753</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.69391701014905116</v>
+        <v>0.69614154762060287</v>
       </c>
       <c r="J9">
-        <v>0.30608298985094884</v>
+        <v>0.30385845237939718</v>
       </c>
       <c r="M9">
         <v>31</v>
@@ -915,31 +915,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.23040886538774838</v>
+        <v>0.23134328513144298</v>
       </c>
       <c r="C10">
-        <v>0.24548370653193999</v>
+        <v>0.24539353890189425</v>
       </c>
       <c r="D10">
-        <v>0.52410742808031163</v>
+        <v>0.52326317596666272</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.72770735513776641</v>
+        <v>0.72700682906954439</v>
       </c>
       <c r="J10">
-        <v>0.27229264486223365</v>
+        <v>0.27299317093045566</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.69348086894280025</v>
+        <v>0.69948756819097757</v>
       </c>
       <c r="O10">
-        <v>0.30651913105719975</v>
+        <v>0.30051243180902243</v>
       </c>
     </row>
     <row r="11">
@@ -947,31 +947,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.24029312526165028</v>
+        <v>0.23957721021200248</v>
       </c>
       <c r="C11">
-        <v>0.2408452403579224</v>
+        <v>0.23942604643278537</v>
       </c>
       <c r="D11">
-        <v>0.51886163438042743</v>
+        <v>0.52099674335521229</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.6685394226980188</v>
+        <v>0.67096573463806797</v>
       </c>
       <c r="J11">
-        <v>0.3314605773019812</v>
+        <v>0.32903426536193203</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.73893267192772638</v>
+        <v>0.73755598821166179</v>
       </c>
       <c r="O11">
-        <v>0.26106732807227367</v>
+        <v>0.26244401178833832</v>
       </c>
     </row>
     <row r="12">
@@ -979,31 +979,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.21830625414449562</v>
+        <v>0.21730397912879348</v>
       </c>
       <c r="C12">
-        <v>0.22830436353012731</v>
+        <v>0.22961532653283584</v>
       </c>
       <c r="D12">
-        <v>0.55338938232537715</v>
+        <v>0.5530806943383707</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.71692823995235311</v>
+        <v>0.71876482670339437</v>
       </c>
       <c r="J12">
-        <v>0.28307176004764689</v>
+        <v>0.28123517329660558</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.7327119283144149</v>
+        <v>0.73376174050304532</v>
       </c>
       <c r="O12">
-        <v>0.2672880716855851</v>
+        <v>0.26623825949695462</v>
       </c>
     </row>
     <row r="13">
@@ -1011,31 +1011,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.2234895927537604</v>
+        <v>0.22321734360257342</v>
       </c>
       <c r="C13">
-        <v>0.23284450953547806</v>
+        <v>0.23372082739423658</v>
       </c>
       <c r="D13">
-        <v>0.54366589771076157</v>
+        <v>0.54306182900319</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.71276868274212779</v>
+        <v>0.71304678457308912</v>
       </c>
       <c r="J13">
-        <v>0.28723131725787221</v>
+        <v>0.28695321542691077</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.73378294134295674</v>
+        <v>0.73496825807196342</v>
       </c>
       <c r="O13">
-        <v>0.26621705865704326</v>
+        <v>0.26503174192803658</v>
       </c>
     </row>
     <row r="14">
@@ -1043,31 +1043,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.21187659229930889</v>
+        <v>0.21056151946029059</v>
       </c>
       <c r="C14">
-        <v>0.2304888062141556</v>
+        <v>0.22862557734601113</v>
       </c>
       <c r="D14">
-        <v>0.55763460148653554</v>
+        <v>0.56081290319369825</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.70874049954517249</v>
+        <v>0.70975810526048855</v>
       </c>
       <c r="J14">
-        <v>0.29125950045482751</v>
+        <v>0.29024189473951134</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.72035510884831311</v>
+        <v>0.72560248338622613</v>
       </c>
       <c r="O14">
-        <v>0.279644891151687</v>
+        <v>0.27439751661377398</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.22893365351051881</v>
+        <v>0.22886091783368373</v>
       </c>
       <c r="C15">
-        <v>0.22841740260553492</v>
+        <v>0.22692589233933685</v>
       </c>
       <c r="D15">
-        <v>0.54264894388394624</v>
+        <v>0.54421318982697953</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.70515485124549016</v>
+        <v>0.70495129750941588</v>
       </c>
       <c r="J15">
-        <v>0.29484514875450979</v>
+        <v>0.29504870249058407</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.73004882578128127</v>
+        <v>0.73206559227409929</v>
       </c>
       <c r="O15">
-        <v>0.26995117421871884</v>
+        <v>0.26793440772590071</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.21901261804282865</v>
+        <v>0.21988636141192694</v>
       </c>
       <c r="C16">
-        <v>0.24084806838810247</v>
+        <v>0.24094026491500975</v>
       </c>
       <c r="D16">
-        <v>0.54013931356906897</v>
+        <v>0.53917337367306328</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.69694254734866057</v>
+        <v>0.69894968473378949</v>
       </c>
       <c r="J16">
-        <v>0.30305745265133938</v>
+        <v>0.30105031526621062</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.73240757196652728</v>
+        <v>0.73235568346728852</v>
       </c>
       <c r="O16">
-        <v>0.26759242803347266</v>
+        <v>0.26764431653271148</v>
       </c>
     </row>
     <row r="17">
@@ -1139,31 +1139,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.22996071990290057</v>
+        <v>0.23259572118822841</v>
       </c>
       <c r="C17">
-        <v>0.22186691190548233</v>
+        <v>0.22238802332105784</v>
       </c>
       <c r="D17">
-        <v>0.54817236819161708</v>
+        <v>0.54501625549071375</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.70638736257185619</v>
+        <v>0.70483751410358297</v>
       </c>
       <c r="J17">
-        <v>0.29361263742814381</v>
+        <v>0.29516248589641708</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.74163631302195965</v>
+        <v>0.7415035338092234</v>
       </c>
       <c r="O17">
-        <v>0.25836368697804024</v>
+        <v>0.25849646619077665</v>
       </c>
     </row>
     <row r="18">
@@ -1171,31 +1171,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.22617582613381307</v>
+        <v>0.22688445835926965</v>
       </c>
       <c r="C18">
-        <v>0.22133196891966458</v>
+        <v>0.22108739637199984</v>
       </c>
       <c r="D18">
-        <v>0.5524922049465224</v>
+        <v>0.55202814526873045</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.70366157615873204</v>
+        <v>0.70746278589619183</v>
       </c>
       <c r="J18">
-        <v>0.29633842384126802</v>
+        <v>0.29253721410380817</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.7555966592345158</v>
+        <v>0.75631086472446463</v>
       </c>
       <c r="O18">
-        <v>0.2444033407654842</v>
+        <v>0.24368913527553543</v>
       </c>
     </row>
     <row r="19">
@@ -1203,31 +1203,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.2115439735649573</v>
+        <v>0.20951349971789374</v>
       </c>
       <c r="C19">
-        <v>0.22372996388055916</v>
+        <v>0.22638776029511962</v>
       </c>
       <c r="D19">
-        <v>0.56472606255448354</v>
+        <v>0.56409873998698656</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.71888714363206274</v>
+        <v>0.71949893389021857</v>
       </c>
       <c r="J19">
-        <v>0.28111285636793726</v>
+        <v>0.28050106610978143</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.75837480392936196</v>
+        <v>0.75726620027317748</v>
       </c>
       <c r="O19">
-        <v>0.24162519607063801</v>
+        <v>0.24273379972682252</v>
       </c>
     </row>
     <row r="20">
@@ -1235,31 +1235,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.21620621045938551</v>
+        <v>0.21557083396891893</v>
       </c>
       <c r="C20">
-        <v>0.21336419260582562</v>
+        <v>0.21459229418267617</v>
       </c>
       <c r="D20">
-        <v>0.57042959693478879</v>
+        <v>0.56983687184840481</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.69115386423275171</v>
+        <v>0.690142950261595</v>
       </c>
       <c r="J20">
-        <v>0.30884613576724829</v>
+        <v>0.30985704973840494</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.7562024687373734</v>
+        <v>0.75343295113682496</v>
       </c>
       <c r="O20">
-        <v>0.24379753126262649</v>
+        <v>0.24656704886317499</v>
       </c>
     </row>
     <row r="21">
@@ -1267,31 +1267,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.2144125438627347</v>
+        <v>0.21375930867258466</v>
       </c>
       <c r="C21">
-        <v>0.21343228511279011</v>
+        <v>0.21401266522542692</v>
       </c>
       <c r="D21">
-        <v>0.57215517102447522</v>
+        <v>0.57222802610198842</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.6800478565536392</v>
+        <v>0.68164531884236657</v>
       </c>
       <c r="J21">
-        <v>0.31995214344636086</v>
+        <v>0.31835468115763338</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.7699276984434904</v>
+        <v>0.77028935715331925</v>
       </c>
       <c r="O21">
-        <v>0.23007230155650965</v>
+        <v>0.22971064284668072</v>
       </c>
     </row>
     <row r="22">
@@ -1299,31 +1299,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.20766084658620776</v>
+        <v>0.20684056153463001</v>
       </c>
       <c r="C22">
-        <v>0.20784212299156782</v>
+        <v>0.20930449154605826</v>
       </c>
       <c r="D22">
-        <v>0.58449703042222456</v>
+        <v>0.58385494691931172</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.68944871798667684</v>
+        <v>0.68934115412562014</v>
       </c>
       <c r="J22">
-        <v>0.31055128201332327</v>
+        <v>0.31065884587437986</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.76642380714720959</v>
+        <v>0.76567485786534706</v>
       </c>
       <c r="O22">
-        <v>0.23357619285279049</v>
+        <v>0.23432514213465294</v>
       </c>
     </row>
     <row r="23">
@@ -1331,31 +1331,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.21051629247076456</v>
+        <v>0.20946181696843447</v>
       </c>
       <c r="C23">
-        <v>0.2077993912578035</v>
+        <v>0.21073679211821086</v>
       </c>
       <c r="D23">
-        <v>0.58168431627143202</v>
+        <v>0.5798013909133547</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.69704653983633635</v>
+        <v>0.70086995383167061</v>
       </c>
       <c r="J23">
-        <v>0.30295346016366365</v>
+        <v>0.29913004616832933</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75746955584202502</v>
+        <v>0.75880868154322167</v>
       </c>
       <c r="O23">
-        <v>0.24253044415797501</v>
+        <v>0.24119131845677835</v>
       </c>
     </row>
     <row r="24">
@@ -1363,31 +1363,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.20940108558878534</v>
+        <v>0.20921569613980961</v>
       </c>
       <c r="C24">
-        <v>0.2182497663344041</v>
+        <v>0.21912378894803897</v>
       </c>
       <c r="D24">
-        <v>0.57234914807681048</v>
+        <v>0.57166051491215153</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.69527534961676107</v>
+        <v>0.69616500012925042</v>
       </c>
       <c r="J24">
-        <v>0.30472465038323904</v>
+        <v>0.30383499987074969</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.76149034475077981</v>
+        <v>0.75956200110022909</v>
       </c>
       <c r="O24">
-        <v>0.23850965524922016</v>
+        <v>0.24043799889977097</v>
       </c>
     </row>
     <row r="25">
@@ -1395,31 +1395,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.20847413354273375</v>
+        <v>0.20754363981965235</v>
       </c>
       <c r="C25">
-        <v>0.21392767062282947</v>
+        <v>0.21507055405660636</v>
       </c>
       <c r="D25">
-        <v>0.57759819583443672</v>
+        <v>0.57738580612374124</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.63575915320485776</v>
+        <v>0.6357631829864534</v>
       </c>
       <c r="J25">
-        <v>0.36424084679514235</v>
+        <v>0.36423681701354654</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.75131727237507506</v>
+        <v>0.75157988842150825</v>
       </c>
       <c r="O25">
-        <v>0.24868272762492497</v>
+        <v>0.2484201115784917</v>
       </c>
     </row>
     <row r="26">
@@ -1427,31 +1427,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.21180285103518134</v>
+        <v>0.21137304301262602</v>
       </c>
       <c r="C26">
-        <v>0.20000594146840825</v>
+        <v>0.20015753441683731</v>
       </c>
       <c r="D26">
-        <v>0.5881912074964103</v>
+        <v>0.58846942257053669</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.66838196246625969</v>
+        <v>0.6706435937764722</v>
       </c>
       <c r="J26">
-        <v>0.33161803753374042</v>
+        <v>0.32935640622352774</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.75460036641464001</v>
+        <v>0.75583792419749873</v>
       </c>
       <c r="O26">
-        <v>0.2453996335853601</v>
+        <v>0.24416207580250127</v>
       </c>
     </row>
     <row r="27">
@@ -1459,31 +1459,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.21380212024579795</v>
+        <v>0.21525125121276956</v>
       </c>
       <c r="C27">
-        <v>0.20651185916443132</v>
+        <v>0.20559726169900416</v>
       </c>
       <c r="D27">
-        <v>0.57968602058977081</v>
+        <v>0.57915148708822628</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.66467867403782543</v>
+        <v>0.66622047689916297</v>
       </c>
       <c r="J27">
-        <v>0.33532132596217468</v>
+        <v>0.33377952310083708</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.78285876122612774</v>
+        <v>0.78414440619455272</v>
       </c>
       <c r="O27">
-        <v>0.21714123877387231</v>
+        <v>0.2158555938054473</v>
       </c>
     </row>
     <row r="28">
@@ -1491,31 +1491,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.20393364794747271</v>
+        <v>0.20438978635910382</v>
       </c>
       <c r="C28">
-        <v>0.20568150741134603</v>
+        <v>0.20446591270756273</v>
       </c>
       <c r="D28">
-        <v>0.59038484464118113</v>
+        <v>0.59114430093333337</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.68558915591084557</v>
+        <v>0.68687264714813201</v>
       </c>
       <c r="J28">
-        <v>0.31441084408915437</v>
+        <v>0.31312735285186799</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.76543849597362168</v>
+        <v>0.76517177425771687</v>
       </c>
       <c r="O28">
-        <v>0.23456150402637826</v>
+        <v>0.2348282257422831</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20970603027568271</v>
+        <v>0.20994674570370286</v>
       </c>
       <c r="C29">
-        <v>0.20248823356401807</v>
+        <v>0.20511875865753137</v>
       </c>
       <c r="D29">
-        <v>0.58780573616029919</v>
+        <v>0.58493449563876576</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.70192436076888043</v>
+        <v>0.70000333915401514</v>
       </c>
       <c r="J29">
-        <v>0.29807563923111968</v>
+        <v>0.29999666084598486</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.78778172234557398</v>
+        <v>0.78885270098848448</v>
       </c>
       <c r="O29">
-        <v>0.21221827765442605</v>
+        <v>0.21114729901151549</v>
       </c>
     </row>
     <row r="30">
@@ -1555,13 +1555,13 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.21525262097949058</v>
+        <v>0.21474326298556196</v>
       </c>
       <c r="C30">
-        <v>0.19821155495828452</v>
+        <v>0.19787586128357759</v>
       </c>
       <c r="D30">
-        <v>0.58653582406222482</v>
+        <v>0.5873808757308604</v>
       </c>
       <c r="H30">
         <v>52</v>
@@ -1576,10 +1576,10 @@
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.77507042778571111</v>
+        <v>0.77527885086098092</v>
       </c>
       <c r="O30">
-        <v>0.22492957221428894</v>
+        <v>0.22472114913901914</v>
       </c>
     </row>
     <row r="31">
@@ -1587,31 +1587,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.21713455046378211</v>
+        <v>0.21833200831616212</v>
       </c>
       <c r="C31">
-        <v>0.18546831446679748</v>
+        <v>0.1842901584159049</v>
       </c>
       <c r="D31">
-        <v>0.59739713506942049</v>
+        <v>0.59737783326793292</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.697680184390012</v>
+        <v>0.69726140587947927</v>
       </c>
       <c r="J31">
-        <v>0.302319815609988</v>
+        <v>0.30273859412052073</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78486738425904157</v>
+        <v>0.78464796730334019</v>
       </c>
       <c r="O31">
-        <v>0.21513261574095849</v>
+        <v>0.21535203269665976</v>
       </c>
     </row>
     <row r="32">
@@ -1619,31 +1619,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21334954854952309</v>
+        <v>0.21290779445192912</v>
       </c>
       <c r="C32">
-        <v>0.1894422019248026</v>
+        <v>0.18997505187940256</v>
       </c>
       <c r="D32">
-        <v>0.59720824952567431</v>
+        <v>0.59711715366866847</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.71811606320209964</v>
+        <v>0.71718889416075504</v>
       </c>
       <c r="J32">
-        <v>0.28188393679790047</v>
+        <v>0.28281110583924496</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.76842967149791475</v>
+        <v>0.76778031031445582</v>
       </c>
       <c r="O32">
-        <v>0.23157032850208517</v>
+        <v>0.23221968968554405</v>
       </c>
     </row>
     <row r="33">
@@ -1651,13 +1651,13 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.21214476260589893</v>
+        <v>0.21216431517238768</v>
       </c>
       <c r="C33">
-        <v>0.20516986508623736</v>
+        <v>0.20495732516009649</v>
       </c>
       <c r="D33">
-        <v>0.58268537230786366</v>
+        <v>0.58287835966751578</v>
       </c>
       <c r="H33">
         <v>55</v>
@@ -1672,10 +1672,10 @@
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78545364953788721</v>
+        <v>0.7853620631910756</v>
       </c>
       <c r="O33">
-        <v>0.21454635046211271</v>
+        <v>0.21463793680892446</v>
       </c>
     </row>
     <row r="34">
@@ -1683,31 +1683,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.20587950715088651</v>
+        <v>0.20584328942312294</v>
       </c>
       <c r="C34">
-        <v>0.19948130931390029</v>
+        <v>0.19905793376739722</v>
       </c>
       <c r="D34">
-        <v>0.59463918353521317</v>
+        <v>0.59509877680947987</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69042981529903691</v>
+        <v>0.69220904539908334</v>
       </c>
       <c r="J34">
-        <v>0.30957018470096315</v>
+        <v>0.30779095460091666</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78093549199947687</v>
+        <v>0.78011286938523228</v>
       </c>
       <c r="O34">
-        <v>0.21906450800052304</v>
+        <v>0.21988713061476767</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.21400505316826982</v>
+        <v>0.21356646995747433</v>
       </c>
       <c r="C35">
-        <v>0.19564908782793383</v>
+        <v>0.19633244179878495</v>
       </c>
       <c r="D35">
-        <v>0.59034585900379644</v>
+        <v>0.59010108824374063</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.68667619991110418</v>
+        <v>0.6828452809644755</v>
       </c>
       <c r="J35">
-        <v>0.31332380008889582</v>
+        <v>0.31715471903552445</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80995161078325861</v>
+        <v>0.81007160308825188</v>
       </c>
       <c r="O35">
-        <v>0.19004838921674133</v>
+        <v>0.18992839691174812</v>
       </c>
     </row>
     <row r="36">
@@ -1747,31 +1747,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.20638637266679222</v>
+        <v>0.20733920376665202</v>
       </c>
       <c r="C36">
-        <v>0.1824460703866565</v>
+        <v>0.17993952348055764</v>
       </c>
       <c r="D36">
-        <v>0.61116755694655123</v>
+        <v>0.61272127275279042</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.66916974409354246</v>
+        <v>0.6712123130139509</v>
       </c>
       <c r="J36">
-        <v>0.33083025590645754</v>
+        <v>0.3287876869860491</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.80471931900713223</v>
+        <v>0.80427156548170797</v>
       </c>
       <c r="O36">
-        <v>0.19528068099286772</v>
+        <v>0.19572843451829208</v>
       </c>
     </row>
     <row r="37">
@@ -1779,31 +1779,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.1964253968464498</v>
+        <v>0.19610879040178333</v>
       </c>
       <c r="C37">
-        <v>0.18327586984353261</v>
+        <v>0.18471374980056302</v>
       </c>
       <c r="D37">
-        <v>0.62029873331001761</v>
+        <v>0.61917745979765371</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.69691284210336824</v>
+        <v>0.69813864102959378</v>
       </c>
       <c r="J37">
-        <v>0.30308715789663176</v>
+        <v>0.30186135897040622</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.8005215753900603</v>
+        <v>0.80081090749045802</v>
       </c>
       <c r="O37">
-        <v>0.19947842460993959</v>
+        <v>0.19918909250954195</v>
       </c>
     </row>
     <row r="38">
@@ -1811,13 +1811,13 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.19265728713879784</v>
+        <v>0.19196058102374031</v>
       </c>
       <c r="C38">
-        <v>0.18451146709080388</v>
+        <v>0.18528968625809691</v>
       </c>
       <c r="D38">
-        <v>0.62283124577039839</v>
+        <v>0.62274973271816281</v>
       </c>
       <c r="H38">
         <v>60</v>
@@ -1832,10 +1832,10 @@
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.82826791508428921</v>
+        <v>0.82961502295501421</v>
       </c>
       <c r="O38">
-        <v>0.17173208491571076</v>
+        <v>0.17038497704498576</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1843,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.18511152675271658</v>
+        <v>0.18401259535226308</v>
       </c>
       <c r="C39">
-        <v>0.1604400586059046</v>
+        <v>0.16040279825795559</v>
       </c>
       <c r="D39">
-        <v>0.65444841464137893</v>
+        <v>0.65558460638978122</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.65870886335078549</v>
+        <v>0.65657294457882653</v>
       </c>
       <c r="J39">
-        <v>0.3412911366492144</v>
+        <v>0.34342705542117341</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.81699649065839908</v>
+        <v>0.81552066742538243</v>
       </c>
       <c r="O39">
-        <v>0.18300350934160081</v>
+        <v>0.18447933257461749</v>
       </c>
     </row>
     <row r="40">
@@ -1875,13 +1875,13 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.16125716779933166</v>
+        <v>0.16109766408906329</v>
       </c>
       <c r="C40">
-        <v>0.16824139376886488</v>
+        <v>0.16949567574457255</v>
       </c>
       <c r="D40">
-        <v>0.67050143843180343</v>
+        <v>0.66940666016636419</v>
       </c>
       <c r="H40">
         <v>62</v>
@@ -1896,10 +1896,10 @@
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.83627059392997072</v>
+        <v>0.83540905251537345</v>
       </c>
       <c r="O40">
-        <v>0.16372940607002923</v>
+        <v>0.16459094748462652</v>
       </c>
     </row>
     <row r="41">
@@ -1907,31 +1907,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.15686330959939865</v>
+        <v>0.15660985067552435</v>
       </c>
       <c r="C41">
-        <v>0.16617864851188607</v>
+        <v>0.16745861706983306</v>
       </c>
       <c r="D41">
-        <v>0.67695804188871522</v>
+        <v>0.67593153225464253</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.66679260315612043</v>
+        <v>0.66833142865616979</v>
       </c>
       <c r="J41">
-        <v>0.33320739684387951</v>
+        <v>0.33166857134383015</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.8377722134539447</v>
+        <v>0.83879417540277823</v>
       </c>
       <c r="O41">
-        <v>0.16222778654605532</v>
+        <v>0.16120582459722169</v>
       </c>
     </row>
     <row r="42">
@@ -1939,31 +1939,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.14453172397278771</v>
+        <v>0.14470312950813149</v>
       </c>
       <c r="C42">
-        <v>0.16401695511505704</v>
+        <v>0.16469224803288049</v>
       </c>
       <c r="D42">
-        <v>0.69145132091215533</v>
+        <v>0.69060462245898802</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.61678347159586011</v>
+        <v>0.61563329568591341</v>
       </c>
       <c r="J42">
-        <v>0.38321652840413994</v>
+        <v>0.38436670431408665</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.85511308815741327</v>
+        <v>0.85475883761848781</v>
       </c>
       <c r="O42">
-        <v>0.1448869118425867</v>
+        <v>0.14524116238151222</v>
       </c>
     </row>
     <row r="43">
@@ -1971,31 +1971,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.12943816192529628</v>
+        <v>0.12945943896870837</v>
       </c>
       <c r="C43">
-        <v>0.15495649574914239</v>
+        <v>0.15417808124874305</v>
       </c>
       <c r="D43">
-        <v>0.71560534232556139</v>
+        <v>0.71636247978254863</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.5994285206279939</v>
+        <v>0.60350670690704156</v>
       </c>
       <c r="J43">
-        <v>0.40057147937200599</v>
+        <v>0.39649329309295839</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.84305860106969688</v>
+        <v>0.8424037753543705</v>
       </c>
       <c r="O43">
-        <v>0.15694139893030321</v>
+        <v>0.15759622464562947</v>
       </c>
     </row>
     <row r="44">
@@ -2003,22 +2003,22 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.12534500418769096</v>
+        <v>0.12609122893656907</v>
       </c>
       <c r="C44">
-        <v>0.1542631852418116</v>
+        <v>0.15481450617907444</v>
       </c>
       <c r="D44">
-        <v>0.72039181057049739</v>
+        <v>0.71909426488435646</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.64252519292218246</v>
+        <v>0.64120232264179189</v>
       </c>
       <c r="J44">
-        <v>0.35747480707781748</v>
+        <v>0.35879767735820811</v>
       </c>
       <c r="M44">
         <v>66</v>
@@ -2035,22 +2035,22 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.12178896319592639</v>
+        <v>0.12196634955447096</v>
       </c>
       <c r="C45">
-        <v>0.15806324668805133</v>
+        <v>0.15798271256583724</v>
       </c>
       <c r="D45">
-        <v>0.72014779011602226</v>
+        <v>0.72005093787969188</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.60949425966486481</v>
+        <v>0.60796955655729401</v>
       </c>
       <c r="J45">
-        <v>0.39050574033513519</v>
+        <v>0.39203044344270593</v>
       </c>
       <c r="M45">
         <v>67</v>
@@ -2067,31 +2067,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.11941469393591807</v>
+        <v>0.11967733025391281</v>
       </c>
       <c r="C46">
-        <v>0.15284567288219331</v>
+        <v>0.15286574848268153</v>
       </c>
       <c r="D46">
-        <v>0.72773963318188872</v>
+        <v>0.72745692126340566</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.565192767995918</v>
+        <v>0.56597793933265461</v>
       </c>
       <c r="J46">
-        <v>0.434807232004082</v>
+        <v>0.43402206066734539</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.85398177515224227</v>
+        <v>0.85415508615500291</v>
       </c>
       <c r="O46">
-        <v>0.14601822484775775</v>
+        <v>0.14584491384499715</v>
       </c>
     </row>
     <row r="47">
@@ -2099,31 +2099,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.11084278234437057</v>
+        <v>0.11020178361795131</v>
       </c>
       <c r="C47">
-        <v>0.15124985741692903</v>
+        <v>0.15131625039476024</v>
       </c>
       <c r="D47">
-        <v>0.7379073602387004</v>
+        <v>0.73848196598728844</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.60720432599611607</v>
+        <v>0.60647350668697819</v>
       </c>
       <c r="J47">
-        <v>0.39279567400388393</v>
+        <v>0.39352649331302175</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.82436508643663997</v>
+        <v>0.82514960217304645</v>
       </c>
       <c r="O47">
-        <v>0.17563491356336</v>
+        <v>0.17485039782695355</v>
       </c>
     </row>
     <row r="48">
@@ -2131,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.12910456596838538</v>
+        <v>0.12941958630562339</v>
       </c>
       <c r="C48">
-        <v>0.15820597246595403</v>
+        <v>0.15722639245133693</v>
       </c>
       <c r="D48">
-        <v>0.7126894615656606</v>
+        <v>0.71335402124303959</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.57574610084071687</v>
+        <v>0.57709872560529218</v>
       </c>
       <c r="J48">
-        <v>0.42425389915928308</v>
+        <v>0.42290127439470782</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.84320567453737871</v>
+        <v>0.84370679624589473</v>
       </c>
       <c r="O48">
-        <v>0.15679432546262129</v>
+        <v>0.15629320375410538</v>
       </c>
     </row>
     <row r="49">
@@ -2163,31 +2163,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.11262311781642277</v>
+        <v>0.11187282767238914</v>
       </c>
       <c r="C49">
-        <v>0.16747298019341014</v>
+        <v>0.16816681156850116</v>
       </c>
       <c r="D49">
-        <v>0.71990390199016707</v>
+        <v>0.71996036075910963</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.59645437551702529</v>
+        <v>0.59962001177131585</v>
       </c>
       <c r="J49">
-        <v>0.40354562448297476</v>
+        <v>0.40037998822868415</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.83348976328300495</v>
+        <v>0.83257412541981368</v>
       </c>
       <c r="O49">
-        <v>0.16651023671699497</v>
+        <v>0.16742587458018626</v>
       </c>
     </row>
     <row r="50">
@@ -2195,13 +2195,13 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.11994786047731422</v>
+        <v>0.12004005006332943</v>
       </c>
       <c r="C50">
-        <v>0.16883217407826126</v>
+        <v>0.16973082558884484</v>
       </c>
       <c r="D50">
-        <v>0.71121996544442445</v>
+        <v>0.7102291243478257</v>
       </c>
       <c r="H50">
         <v>72</v>
@@ -2216,10 +2216,10 @@
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.82349492451897577</v>
+        <v>0.82266737644945254</v>
       </c>
       <c r="O50">
-        <v>0.17650507548102429</v>
+        <v>0.17733262355054757</v>
       </c>
     </row>
     <row r="51">
@@ -2227,13 +2227,13 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.12541374331521027</v>
+        <v>0.12657891563539922</v>
       </c>
       <c r="C51">
-        <v>0.16084533201297047</v>
+        <v>0.15985498751358268</v>
       </c>
       <c r="D51">
-        <v>0.71374092467181927</v>
+        <v>0.71356609685101813</v>
       </c>
       <c r="H51">
         <v>73</v>
@@ -2248,10 +2248,10 @@
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.82049774805968712</v>
+        <v>0.82221118259149073</v>
       </c>
       <c r="O51">
-        <v>0.17950225194031291</v>
+        <v>0.17778881740850935</v>
       </c>
     </row>
     <row r="52">
@@ -2259,13 +2259,13 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.12256298697474527</v>
+        <v>0.12336041707456813</v>
       </c>
       <c r="C52">
-        <v>0.16066401326442123</v>
+        <v>0.15920708948221857</v>
       </c>
       <c r="D52">
-        <v>0.71677299976083353</v>
+        <v>0.71743249344321336</v>
       </c>
       <c r="H52">
         <v>74</v>
@@ -2280,10 +2280,10 @@
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.84501979459206777</v>
+        <v>0.84412431758661743</v>
       </c>
       <c r="O52">
-        <v>0.15498020540793214</v>
+        <v>0.15587568241338254</v>
       </c>
     </row>
     <row r="53">
@@ -2291,22 +2291,22 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.11737090028564068</v>
+        <v>0.11834421285562992</v>
       </c>
       <c r="C53">
-        <v>0.16966338120756158</v>
+        <v>0.16821256302405194</v>
       </c>
       <c r="D53">
-        <v>0.7129657185067978</v>
+        <v>0.71344322412031813</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.60318403138243548</v>
+        <v>0.60478971250796987</v>
       </c>
       <c r="J53">
-        <v>0.39681596861756452</v>
+        <v>0.39521028749203019</v>
       </c>
       <c r="M53">
         <v>75</v>
@@ -2323,13 +2323,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.11515800290879383</v>
+        <v>0.11553902879533187</v>
       </c>
       <c r="C54">
-        <v>0.17587026019453467</v>
+        <v>0.17656766275199148</v>
       </c>
       <c r="D54">
-        <v>0.70897173689667148</v>
+        <v>0.70789330845267662</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -5345,19 +5345,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.76045854912345368</v>
+        <v>0.75519633515575413</v>
       </c>
       <c r="J5">
-        <v>0.23954145087654641</v>
+        <v>0.24480366484424584</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.6888597857009453</v>
+        <v>0.69223805495766977</v>
       </c>
       <c r="O5">
-        <v>0.31114021429905481</v>
+        <v>0.30776194504233023</v>
       </c>
     </row>
     <row r="6">
@@ -5454,10 +5454,10 @@
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.56608700734498263</v>
+        <v>0.58214453401928823</v>
       </c>
       <c r="O10">
-        <v>0.43391299265501743</v>
+        <v>0.41785546598071172</v>
       </c>
     </row>
     <row r="11">
@@ -5465,10 +5465,10 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.71805851170916091</v>
+        <v>0.71866718374242344</v>
       </c>
       <c r="J11">
-        <v>0.28194148829083915</v>
+        <v>0.28133281625757661</v>
       </c>
       <c r="M11">
         <v>33</v>
@@ -5514,10 +5514,10 @@
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.69435773633136477</v>
+        <v>0.69951442462746027</v>
       </c>
       <c r="O13">
-        <v>0.30564226366863523</v>
+        <v>0.30048557537253978</v>
       </c>
     </row>
     <row r="14">
@@ -5534,10 +5534,10 @@
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.63942507854464681</v>
+        <v>0.64551791410674819</v>
       </c>
       <c r="O14">
-        <v>0.36057492145535319</v>
+        <v>0.35448208589325181</v>
       </c>
     </row>
     <row r="15">
@@ -5545,10 +5545,10 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.78038994046849497</v>
+        <v>0.77973897205425624</v>
       </c>
       <c r="J15">
-        <v>0.21961005953150503</v>
+        <v>0.22026102794574381</v>
       </c>
       <c r="M15">
         <v>37</v>
@@ -5565,19 +5565,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.78821328227194065</v>
+        <v>0.79301535200442919</v>
       </c>
       <c r="J16">
-        <v>0.21178671772805932</v>
+        <v>0.20698464799557093</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.6188294834629533</v>
+        <v>0.6157748992674803</v>
       </c>
       <c r="O16">
-        <v>0.38117051653704659</v>
+        <v>0.38422510073251964</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.76466780969711445</v>
+        <v>0.76521322082045951</v>
       </c>
       <c r="J17">
-        <v>0.23533219030288557</v>
+        <v>0.23478677917954055</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.66959990770987865</v>
+        <v>0.66907570969244357</v>
       </c>
       <c r="O17">
-        <v>0.33040009229012135</v>
+        <v>0.33092429030755643</v>
       </c>
     </row>
     <row r="18">
@@ -5614,10 +5614,10 @@
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.67329482574810395</v>
+        <v>0.67610009784899272</v>
       </c>
       <c r="O18">
-        <v>0.32670517425189605</v>
+        <v>0.32389990215100722</v>
       </c>
     </row>
     <row r="19">
@@ -5625,10 +5625,10 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.77291866116595931</v>
+        <v>0.77463591487437888</v>
       </c>
       <c r="J19">
-        <v>0.22708133883404064</v>
+        <v>0.22536408512562106</v>
       </c>
       <c r="M19">
         <v>41</v>
@@ -5645,19 +5645,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.77534774598911771</v>
+        <v>0.77228112066307897</v>
       </c>
       <c r="J20">
-        <v>0.22465225401088237</v>
+        <v>0.22771887933692103</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.65130721081933296</v>
+        <v>0.64660338716753352</v>
       </c>
       <c r="O20">
-        <v>0.3486927891806671</v>
+        <v>0.35339661283246648</v>
       </c>
     </row>
     <row r="21">
@@ -5665,19 +5665,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.76407373104964327</v>
+        <v>0.76845475841470601</v>
       </c>
       <c r="J21">
-        <v>0.23592626895035679</v>
+        <v>0.23154524158529396</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.71187120567682649</v>
+        <v>0.71448980707253462</v>
       </c>
       <c r="O21">
-        <v>0.28812879432317345</v>
+        <v>0.28551019292746538</v>
       </c>
     </row>
     <row r="22">
@@ -5685,10 +5685,10 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.74994626159518507</v>
+        <v>0.74705101712450994</v>
       </c>
       <c r="J22">
-        <v>0.25005373840481482</v>
+        <v>0.25294898287549</v>
       </c>
       <c r="M22">
         <v>44</v>
@@ -5705,19 +5705,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.75842914559323704</v>
+        <v>0.76515377553298269</v>
       </c>
       <c r="J23">
-        <v>0.24157085440676301</v>
+        <v>0.23484622446701728</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.66015317790950789</v>
+        <v>0.66543647471879408</v>
       </c>
       <c r="O23">
-        <v>0.33984682209049216</v>
+        <v>0.33456352528120598</v>
       </c>
     </row>
     <row r="24">
@@ -5725,19 +5725,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.78637236197104132</v>
+        <v>0.78808560672664185</v>
       </c>
       <c r="J24">
-        <v>0.21362763802895862</v>
+        <v>0.2119143932733582</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.7170959741889753</v>
+        <v>0.71476620545082303</v>
       </c>
       <c r="O24">
-        <v>0.28290402581102458</v>
+        <v>0.28523379454917691</v>
       </c>
     </row>
     <row r="25">
@@ -5745,19 +5745,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.73381327427950671</v>
+        <v>0.73098885206617681</v>
       </c>
       <c r="J25">
-        <v>0.26618672572049329</v>
+        <v>0.26901114793382319</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.69693418109873173</v>
+        <v>0.69978600357032006</v>
       </c>
       <c r="O25">
-        <v>0.30306581890126816</v>
+        <v>0.30021399642967994</v>
       </c>
     </row>
     <row r="26">
@@ -5765,10 +5765,10 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.75216698406070637</v>
+        <v>0.75456898916415394</v>
       </c>
       <c r="J26">
-        <v>0.24783301593929366</v>
+        <v>0.24543101083584604</v>
       </c>
       <c r="M26">
         <v>48</v>
@@ -5794,10 +5794,10 @@
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.72373244264097203</v>
+        <v>0.72723523158547276</v>
       </c>
       <c r="O27">
-        <v>0.27626755735902808</v>
+        <v>0.27276476841452735</v>
       </c>
     </row>
     <row r="28">
@@ -5814,10 +5814,10 @@
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.69183444293445895</v>
+        <v>0.69243101801674756</v>
       </c>
       <c r="O28">
-        <v>0.308165557065541</v>
+        <v>0.30756898198325244</v>
       </c>
     </row>
     <row r="29">
@@ -5825,10 +5825,10 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.79262931731531439</v>
+        <v>0.79306543424064724</v>
       </c>
       <c r="J29">
-        <v>0.20737068268468564</v>
+        <v>0.20693456575935271</v>
       </c>
       <c r="M29">
         <v>51</v>
@@ -5854,10 +5854,10 @@
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70920655209392391</v>
+        <v>0.71004559019645475</v>
       </c>
       <c r="O30">
-        <v>0.2907934479060762</v>
+        <v>0.28995440980354531</v>
       </c>
     </row>
     <row r="31">
@@ -5865,19 +5865,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.79758187834644878</v>
+        <v>0.79669594295924395</v>
       </c>
       <c r="J31">
-        <v>0.20241812165355125</v>
+        <v>0.20330405704075613</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.69549619690005737</v>
+        <v>0.69492547627093848</v>
       </c>
       <c r="O31">
-        <v>0.30450380309994268</v>
+        <v>0.30507452372906152</v>
       </c>
     </row>
     <row r="32">
@@ -5894,10 +5894,10 @@
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.71111793786297572</v>
+        <v>0.71082467740656741</v>
       </c>
       <c r="O32">
-        <v>0.28888206213702428</v>
+        <v>0.28917532259343259</v>
       </c>
     </row>
     <row r="33">
@@ -5914,10 +5914,10 @@
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.70472540586880206</v>
+        <v>0.70535670250049998</v>
       </c>
       <c r="O33">
-        <v>0.29527459413119794</v>
+        <v>0.29464329749949986</v>
       </c>
     </row>
     <row r="34">
@@ -5925,19 +5925,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.76760521129196735</v>
+        <v>0.7692854949466803</v>
       </c>
       <c r="J34">
-        <v>0.2323947887080326</v>
+        <v>0.23071450505331961</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71593121503939738</v>
+        <v>0.71367654127642943</v>
       </c>
       <c r="O34">
-        <v>0.28406878496060267</v>
+        <v>0.28632345872357068</v>
       </c>
     </row>
     <row r="35">
@@ -5945,19 +5945,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.75169272387789765</v>
+        <v>0.74613244827175529</v>
       </c>
       <c r="J35">
-        <v>0.2483072761221024</v>
+        <v>0.25386755172824477</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.73851982347961487</v>
+        <v>0.73570314760441458</v>
       </c>
       <c r="O35">
-        <v>0.26148017652038508</v>
+        <v>0.26429685239558537</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.70834370055476514</v>
+        <v>0.71021671762288396</v>
       </c>
       <c r="J36">
-        <v>0.29165629944523491</v>
+        <v>0.28978328237711604</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.74136037822940493</v>
+        <v>0.74028646569900214</v>
       </c>
       <c r="O36">
-        <v>0.25863962177059507</v>
+        <v>0.25971353430099797</v>
       </c>
     </row>
     <row r="37">
@@ -5994,10 +5994,10 @@
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.73606244633691653</v>
+        <v>0.73865992283717263</v>
       </c>
       <c r="O37">
-        <v>0.26393755366308336</v>
+        <v>0.26134007716282731</v>
       </c>
     </row>
     <row r="38">
@@ -6014,10 +6014,10 @@
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.78410882913503355</v>
+        <v>0.787118996452838</v>
       </c>
       <c r="O38">
-        <v>0.21589117086496634</v>
+        <v>0.21288100354716213</v>
       </c>
     </row>
     <row r="39">
@@ -6025,19 +6025,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.73007712854266416</v>
+        <v>0.72465971100416005</v>
       </c>
       <c r="J39">
-        <v>0.26992287145733579</v>
+        <v>0.27534028899583995</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.80327344639356613</v>
+        <v>0.79962905178260923</v>
       </c>
       <c r="O39">
-        <v>0.19672655360643396</v>
+        <v>0.20037094821739074</v>
       </c>
     </row>
     <row r="40">
@@ -6074,10 +6074,10 @@
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.77924046736968444</v>
+        <v>0.78244737013730459</v>
       </c>
       <c r="O41">
-        <v>0.22075953263031547</v>
+        <v>0.21755262986269538</v>
       </c>
     </row>
     <row r="42">
@@ -6085,10 +6085,10 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.67433181499214456</v>
+        <v>0.67259783119432237</v>
       </c>
       <c r="J42">
-        <v>0.32566818500785549</v>
+        <v>0.32740216880567774</v>
       </c>
       <c r="M42">
         <v>64</v>
@@ -6105,19 +6105,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.67078273544020039</v>
+        <v>0.67715336246977964</v>
       </c>
       <c r="J43">
-        <v>0.32921726455979966</v>
+        <v>0.32284663753022036</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.79750562485398813</v>
+        <v>0.79623363317459528</v>
       </c>
       <c r="O43">
-        <v>0.20249437514601185</v>
+        <v>0.20376636682540464</v>
       </c>
     </row>
     <row r="44">
@@ -6145,10 +6145,10 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.66957754451574281</v>
+        <v>0.66739580186508729</v>
       </c>
       <c r="J45">
-        <v>0.33042245548425719</v>
+        <v>0.33260419813491282</v>
       </c>
       <c r="M45">
         <v>67</v>
@@ -6165,19 +6165,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.64361193654219651</v>
+        <v>0.64477406105708701</v>
       </c>
       <c r="J46">
-        <v>0.35638806345780344</v>
+        <v>0.35522593894291288</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.82573180737445995</v>
+        <v>0.82781298346893517</v>
       </c>
       <c r="O46">
-        <v>0.17426819262553994</v>
+        <v>0.17218701653106475</v>
       </c>
     </row>
     <row r="47">
@@ -6185,10 +6185,10 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.66376659540898642</v>
+        <v>0.6656036640776869</v>
       </c>
       <c r="J47">
-        <v>0.33623340459101358</v>
+        <v>0.33439633592231316</v>
       </c>
       <c r="M47">
         <v>69</v>
@@ -6205,19 +6205,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.64411591490980935</v>
+        <v>0.64603326110801229</v>
       </c>
       <c r="J48">
-        <v>0.3558840850901907</v>
+        <v>0.35396673889198776</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.80204343228226849</v>
+        <v>0.80302168620671355</v>
       </c>
       <c r="O48">
-        <v>0.19795656771773157</v>
+        <v>0.19697831379328642</v>
       </c>
     </row>
     <row r="49">
@@ -6225,19 +6225,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.62708673593906927</v>
+        <v>0.63147623353987348</v>
       </c>
       <c r="J49">
-        <v>0.37291326406093078</v>
+        <v>0.36852376646012652</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.7833010215943117</v>
+        <v>0.78166432796402441</v>
       </c>
       <c r="O49">
-        <v>0.2166989784056883</v>
+        <v>0.21833567203597554</v>
       </c>
     </row>
     <row r="50">
@@ -6274,10 +6274,10 @@
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.79342572431755709</v>
+        <v>0.79628738436622226</v>
       </c>
       <c r="O51">
-        <v>0.20657427568244288</v>
+        <v>0.20371261563377768</v>
       </c>
     </row>
     <row r="52">
@@ -6294,10 +6294,10 @@
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.81379328210121593</v>
+        <v>0.81136774047386317</v>
       </c>
       <c r="O52">
-        <v>0.18620671789878401</v>
+        <v>0.18863225952613694</v>
       </c>
     </row>
     <row r="53">
@@ -6305,10 +6305,10 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.62945566823989241</v>
+        <v>0.63150628593709179</v>
       </c>
       <c r="J53">
-        <v>0.37054433176010759</v>
+        <v>0.36849371406290826</v>
       </c>
       <c r="M53">
         <v>75</v>
@@ -7007,19 +7007,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.6946432464437815</v>
+        <v>0.69315507153123934</v>
       </c>
       <c r="J3">
-        <v>0.30535675355621855</v>
+        <v>0.30684492846876071</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.74697773072441287</v>
+        <v>0.74314341783351057</v>
       </c>
       <c r="O3">
-        <v>0.25302226927558713</v>
+        <v>0.25685658216648954</v>
       </c>
     </row>
     <row r="4">
@@ -7036,10 +7036,10 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.69965159523449505</v>
+        <v>0.70500841932855973</v>
       </c>
       <c r="O4">
-        <v>0.30034840476550501</v>
+        <v>0.29499158067144027</v>
       </c>
     </row>
     <row r="5">
@@ -7047,10 +7047,10 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.64038002637173719</v>
+        <v>0.64539587424986178</v>
       </c>
       <c r="J5">
-        <v>0.35961997362826281</v>
+        <v>0.35460412575013822</v>
       </c>
       <c r="M5">
         <v>27</v>
@@ -7067,19 +7067,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.68714936986318864</v>
+        <v>0.69082559755942274</v>
       </c>
       <c r="J6">
-        <v>0.3128506301368113</v>
+        <v>0.30917440244057726</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.72369424301706786</v>
+        <v>0.72241369335903549</v>
       </c>
       <c r="O6">
-        <v>0.27630575698293214</v>
+        <v>0.27758630664096456</v>
       </c>
     </row>
     <row r="7">
@@ -7087,19 +7087,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.65447003995206254</v>
+        <v>0.65706574268963513</v>
       </c>
       <c r="J7">
-        <v>0.34552996004793751</v>
+        <v>0.34293425731036487</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.74105345165223291</v>
+        <v>0.73787755525933885</v>
       </c>
       <c r="O7">
-        <v>0.25894654834776709</v>
+        <v>0.26212244474066121</v>
       </c>
     </row>
     <row r="8">
@@ -7107,19 +7107,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.67737356902388923</v>
+        <v>0.67842756868320664</v>
       </c>
       <c r="J8">
-        <v>0.32262643097611082</v>
+        <v>0.32157243131679331</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.74661210462460881</v>
+        <v>0.74791799839361095</v>
       </c>
       <c r="O8">
-        <v>0.25338789537539125</v>
+        <v>0.25208200160638905</v>
       </c>
     </row>
     <row r="9">
@@ -7127,10 +7127,10 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.68058200380375311</v>
+        <v>0.68381380680719395</v>
       </c>
       <c r="J9">
-        <v>0.31941799619624694</v>
+        <v>0.31618619319280611</v>
       </c>
       <c r="M9">
         <v>31</v>
@@ -7147,19 +7147,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.71592259751616805</v>
+        <v>0.71495019004429372</v>
       </c>
       <c r="J10">
-        <v>0.28407740248383195</v>
+        <v>0.28504980995570628</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.72508641821824871</v>
+        <v>0.728599575646661</v>
       </c>
       <c r="O10">
-        <v>0.27491358178175118</v>
+        <v>0.27140042435333905</v>
       </c>
     </row>
     <row r="11">
@@ -7167,19 +7167,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.65016880874624217</v>
+        <v>0.65326942955783396</v>
       </c>
       <c r="J11">
-        <v>0.34983119125375783</v>
+        <v>0.3467305704421661</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.76288095130956668</v>
+        <v>0.7611107808236468</v>
       </c>
       <c r="O11">
-        <v>0.23711904869043338</v>
+        <v>0.23888921917635317</v>
       </c>
     </row>
     <row r="12">
@@ -7187,19 +7187,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.69013282835978351</v>
+        <v>0.69265112771188919</v>
       </c>
       <c r="J12">
-        <v>0.30986717164021654</v>
+        <v>0.30734887228811086</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.74185379362247905</v>
+        <v>0.74321811761254264</v>
       </c>
       <c r="O12">
-        <v>0.258146206377521</v>
+        <v>0.25678188238745731</v>
       </c>
     </row>
     <row r="13">
@@ -7207,10 +7207,10 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.69683995676716248</v>
+        <v>0.69722333315036744</v>
       </c>
       <c r="J13">
-        <v>0.30316004323283746</v>
+        <v>0.30277666684963256</v>
       </c>
       <c r="M13">
         <v>35</v>
@@ -7227,19 +7227,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.69732591005823275</v>
+        <v>0.69876545671402279</v>
       </c>
       <c r="J14">
-        <v>0.30267408994176731</v>
+        <v>0.30123454328597721</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.74672170496659274</v>
+        <v>0.7516936325625625</v>
       </c>
       <c r="O14">
-        <v>0.25327829503340721</v>
+        <v>0.24830636743743745</v>
       </c>
     </row>
     <row r="15">
@@ -7256,10 +7256,10 @@
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.76879160067525532</v>
+        <v>0.77150599544880727</v>
       </c>
       <c r="O15">
-        <v>0.23120839932474471</v>
+        <v>0.22849400455119276</v>
       </c>
     </row>
     <row r="16">
@@ -7267,19 +7267,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.6577555866251501</v>
+        <v>0.65856272376690506</v>
       </c>
       <c r="J16">
-        <v>0.3422444133748499</v>
+        <v>0.34143727623309494</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.77792619518495931</v>
+        <v>0.77907769526037673</v>
       </c>
       <c r="O16">
-        <v>0.22207380481504063</v>
+        <v>0.22092230473962324</v>
       </c>
     </row>
     <row r="17">
@@ -7287,10 +7287,10 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.67771806576438576</v>
+        <v>0.67513751794352017</v>
       </c>
       <c r="J17">
-        <v>0.32228193423561419</v>
+        <v>0.32486248205647983</v>
       </c>
       <c r="M17">
         <v>39</v>
@@ -7307,10 +7307,10 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.66994738860172176</v>
+        <v>0.67574843178036137</v>
       </c>
       <c r="J18">
-        <v>0.33005261139827818</v>
+        <v>0.32425156821963874</v>
       </c>
       <c r="M18">
         <v>40</v>
@@ -7336,10 +7336,10 @@
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.78088172545714629</v>
+        <v>0.77934267176174044</v>
       </c>
       <c r="O19">
-        <v>0.21911827454285368</v>
+        <v>0.22065732823825954</v>
       </c>
     </row>
     <row r="20">
@@ -7356,10 +7356,10 @@
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.79936692593314607</v>
+        <v>0.79739337635260066</v>
       </c>
       <c r="O20">
-        <v>0.20063307406685396</v>
+        <v>0.20260662364739931</v>
       </c>
     </row>
     <row r="21">
@@ -7376,10 +7376,10 @@
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.79315085262389839</v>
+        <v>0.79260971260316726</v>
       </c>
       <c r="O21">
-        <v>0.20684914737610163</v>
+        <v>0.20739028739683282</v>
       </c>
     </row>
     <row r="22">
@@ -7387,19 +7387,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.64983819899428896</v>
+        <v>0.6515558575992314</v>
       </c>
       <c r="J22">
-        <v>0.35016180100571109</v>
+        <v>0.34844414240076871</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.79803173351004963</v>
+        <v>0.79696722405049059</v>
       </c>
       <c r="O22">
-        <v>0.20196826648995034</v>
+        <v>0.20303277594950947</v>
       </c>
     </row>
     <row r="23">
@@ -7407,19 +7407,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.65684957678677303</v>
+        <v>0.6587731028793653</v>
       </c>
       <c r="J23">
-        <v>0.34315042321322703</v>
+        <v>0.3412268971206347</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.79911945535987094</v>
+        <v>0.79877053703576462</v>
       </c>
       <c r="O23">
-        <v>0.20088054464012897</v>
+        <v>0.20122946296423536</v>
       </c>
     </row>
     <row r="24">
@@ -7427,19 +7427,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.63773871930189729</v>
+        <v>0.63810818988454387</v>
       </c>
       <c r="J24">
-        <v>0.36226128069810259</v>
+        <v>0.36189181011545607</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.77948188279488928</v>
+        <v>0.77771622316584932</v>
       </c>
       <c r="O24">
-        <v>0.22051811720511072</v>
+        <v>0.22228377683415057</v>
       </c>
     </row>
     <row r="25">
@@ -7447,19 +7447,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.57622240275872338</v>
+        <v>0.57794381921132465</v>
       </c>
       <c r="J25">
-        <v>0.42377759724127662</v>
+        <v>0.42205618078867541</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.77702861488490826</v>
+        <v>0.77606710093682629</v>
       </c>
       <c r="O25">
-        <v>0.22297138511509185</v>
+        <v>0.22393289906317362</v>
       </c>
     </row>
     <row r="26">
@@ -7467,19 +7467,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.61041131999665155</v>
+        <v>0.61257582703781377</v>
       </c>
       <c r="J26">
-        <v>0.38958868000334834</v>
+        <v>0.38742417296218612</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.79159212546299296</v>
+        <v>0.7934499723965176</v>
       </c>
       <c r="O26">
-        <v>0.20840787453700704</v>
+        <v>0.20655002760348234</v>
       </c>
     </row>
     <row r="27">
@@ -7487,19 +7487,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.59246038016628266</v>
+        <v>0.59523487713038459</v>
       </c>
       <c r="J27">
-        <v>0.40753961983371734</v>
+        <v>0.4047651228696153</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.81160866997808323</v>
+        <v>0.81181623857497975</v>
       </c>
       <c r="O27">
-        <v>0.18839133002191683</v>
+        <v>0.18818376142502036</v>
       </c>
     </row>
     <row r="28">
@@ -7507,19 +7507,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.63375397721723847</v>
+        <v>0.63600131977853369</v>
       </c>
       <c r="J28">
-        <v>0.36624602278276164</v>
+        <v>0.36399868022146631</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.80548790253242486</v>
+        <v>0.80475144412371369</v>
       </c>
       <c r="O28">
-        <v>0.19451209746757514</v>
+        <v>0.19524855587628631</v>
       </c>
     </row>
     <row r="29">
@@ -7527,19 +7527,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.62932807958674164</v>
+        <v>0.62552050734923348</v>
       </c>
       <c r="J29">
-        <v>0.37067192041325836</v>
+        <v>0.37447949265076663</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.83297182355917099</v>
+        <v>0.83459745153639653</v>
       </c>
       <c r="O29">
-        <v>0.16702817644082901</v>
+        <v>0.16540254846360342</v>
       </c>
     </row>
     <row r="30">
@@ -7556,10 +7556,10 @@
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.81039364553130333</v>
+        <v>0.81026386573454934</v>
       </c>
       <c r="O30">
-        <v>0.1896063544686967</v>
+        <v>0.18973613426545075</v>
       </c>
     </row>
     <row r="31">
@@ -7587,19 +7587,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.64913448386129668</v>
+        <v>0.64722849372891111</v>
       </c>
       <c r="J32">
-        <v>0.35086551613870326</v>
+        <v>0.35277150627108883</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.80039508319149122</v>
+        <v>0.79954710811829965</v>
       </c>
       <c r="O32">
-        <v>0.19960491680850875</v>
+        <v>0.20045289188170029</v>
       </c>
     </row>
     <row r="33">
@@ -7616,10 +7616,10 @@
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.83658653172718489</v>
+        <v>0.83603707477032618</v>
       </c>
       <c r="O33">
-        <v>0.16341346827281508</v>
+        <v>0.16396292522967373</v>
       </c>
     </row>
     <row r="34">
@@ -7627,10 +7627,10 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.59248424750710882</v>
+        <v>0.59438905345480075</v>
       </c>
       <c r="J34">
-        <v>0.40751575249289118</v>
+        <v>0.40561094654519925</v>
       </c>
       <c r="M34">
         <v>56</v>
@@ -7647,19 +7647,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.60319316049889804</v>
+        <v>0.60158278398295473</v>
       </c>
       <c r="J35">
-        <v>0.39680683950110196</v>
+        <v>0.39841721601704527</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.86008500884116323</v>
+        <v>0.86226606052040666</v>
       </c>
       <c r="O35">
-        <v>0.13991499115883671</v>
+        <v>0.13773393947959323</v>
       </c>
     </row>
     <row r="36">
@@ -7667,10 +7667,10 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.61417365461861251</v>
+        <v>0.61645425639762119</v>
       </c>
       <c r="J36">
-        <v>0.38582634538138749</v>
+        <v>0.38354574360237875</v>
       </c>
       <c r="M36">
         <v>58</v>
@@ -7687,19 +7687,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.57704643825379742</v>
+        <v>0.57998462428957953</v>
       </c>
       <c r="J37">
-        <v>0.42295356174620252</v>
+        <v>0.42001537571042047</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.84850059378155418</v>
+        <v>0.84707189921547721</v>
       </c>
       <c r="O37">
-        <v>0.15149940621844579</v>
+        <v>0.15292810078452276</v>
       </c>
     </row>
     <row r="38">
@@ -7727,19 +7727,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.55033188042058412</v>
+        <v>0.55317911396220842</v>
       </c>
       <c r="J39">
-        <v>0.44966811957941577</v>
+        <v>0.44682088603779152</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.82921754088476241</v>
+        <v>0.82967293781090368</v>
       </c>
       <c r="O39">
-        <v>0.17078245911523757</v>
+        <v>0.17032706218909643</v>
       </c>
     </row>
     <row r="40">
@@ -7756,10 +7756,10 @@
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.88745174233980817</v>
+        <v>0.88576747448644477</v>
       </c>
       <c r="O40">
-        <v>0.11254825766019189</v>
+        <v>0.11423252551355519</v>
       </c>
     </row>
     <row r="41">
@@ -7767,19 +7767,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.56557866324521611</v>
+        <v>0.56987974139250408</v>
       </c>
       <c r="J41">
-        <v>0.43442133675478389</v>
+        <v>0.43012025860749592</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.89316005870379733</v>
+        <v>0.89211443900596654</v>
       </c>
       <c r="O41">
-        <v>0.10683994129620267</v>
+        <v>0.10788556099403337</v>
       </c>
     </row>
     <row r="42">
@@ -7796,10 +7796,10 @@
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.88127492120048567</v>
+        <v>0.88057940484844954</v>
       </c>
       <c r="O42">
-        <v>0.11872507879951436</v>
+        <v>0.11942059515155046</v>
       </c>
     </row>
     <row r="43">
@@ -7827,10 +7827,10 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.52381394353749089</v>
+        <v>0.51992259615704361</v>
       </c>
       <c r="J44">
-        <v>0.47618605646250906</v>
+        <v>0.48007740384295639</v>
       </c>
       <c r="M44">
         <v>66</v>
@@ -7876,10 +7876,10 @@
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.88511215696299028</v>
+        <v>0.88318307375363503</v>
       </c>
       <c r="O46">
-        <v>0.11488784303700966</v>
+        <v>0.11681692624636507</v>
       </c>
     </row>
     <row r="47">
@@ -7887,19 +7887,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.48857158964046776</v>
+        <v>0.4824549260109392</v>
       </c>
       <c r="J47">
-        <v>0.51142841035953213</v>
+        <v>0.51754507398906069</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.87683351204546967</v>
+        <v>0.87850087369773489</v>
       </c>
       <c r="O47">
-        <v>0.12316648795453035</v>
+        <v>0.12149912630226498</v>
       </c>
     </row>
     <row r="48">
@@ -7916,10 +7916,10 @@
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.89591939920459407</v>
+        <v>0.89580948966499518</v>
       </c>
       <c r="O48">
-        <v>0.10408060079540583</v>
+        <v>0.1041905103350049</v>
       </c>
     </row>
     <row r="49">
@@ -7956,10 +7956,10 @@
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.89041099725776163</v>
+        <v>0.88843338114878667</v>
       </c>
       <c r="O50">
-        <v>0.10958900274223841</v>
+        <v>0.11156661885121323</v>
       </c>
     </row>
     <row r="51">
@@ -7996,10 +7996,10 @@
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.899345719910562</v>
+        <v>0.90111215324192195</v>
       </c>
       <c r="O52">
-        <v>0.10065428008943811</v>
+        <v>0.098887846758077935</v>
       </c>
     </row>
     <row r="53">
@@ -8539,13 +8539,13 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.067035373056328604</v>
+        <v>0.067568172968283671</v>
       </c>
       <c r="C3">
-        <v>0.15838176686908306</v>
+        <v>0.15496207181280025</v>
       </c>
       <c r="D3">
-        <v>0.77458286007458832</v>
+        <v>0.77746975521891615</v>
       </c>
       <c r="H3">
         <v>25</v>
@@ -8560,10 +8560,10 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.85269133892908755</v>
+        <v>0.8514443603082773</v>
       </c>
       <c r="O3">
-        <v>0.14730866107091245</v>
+        <v>0.14855563969172264</v>
       </c>
     </row>
     <row r="4">
@@ -8571,13 +8571,13 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.070017314284562163</v>
+        <v>0.070432322716242932</v>
       </c>
       <c r="C4">
-        <v>0.15504720627086596</v>
+        <v>0.15523322314415705</v>
       </c>
       <c r="D4">
-        <v>0.77493547944457186</v>
+        <v>0.7743344541396</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -8603,13 +8603,13 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.079771008219014561</v>
+        <v>0.080551059491021856</v>
       </c>
       <c r="C5">
-        <v>0.16262013176877183</v>
+        <v>0.16158270600504043</v>
       </c>
       <c r="D5">
-        <v>0.75760886001221361</v>
+        <v>0.75786623450393786</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -8635,13 +8635,13 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.071498641111265276</v>
+        <v>0.071687594584677924</v>
       </c>
       <c r="C6">
-        <v>0.17363067491854234</v>
+        <v>0.17409181470226756</v>
       </c>
       <c r="D6">
-        <v>0.75487068397019252</v>
+        <v>0.75422059071305458</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -8656,10 +8656,10 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.85783275338491372</v>
+        <v>0.85514551572714359</v>
       </c>
       <c r="O6">
-        <v>0.1421672466150862</v>
+        <v>0.14485448427285633</v>
       </c>
     </row>
     <row r="7">
@@ -8667,31 +8667,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.084904757002155759</v>
+        <v>0.084050490970282568</v>
       </c>
       <c r="C7">
-        <v>0.1496827720124187</v>
+        <v>0.15247541598733871</v>
       </c>
       <c r="D7">
-        <v>0.76541247098542553</v>
+        <v>0.76347409304237879</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.56709159664036879</v>
+        <v>0.56833921276355914</v>
       </c>
       <c r="J7">
-        <v>0.43290840335963127</v>
+        <v>0.43166078723644091</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.85583973559522764</v>
+        <v>0.85684124853465327</v>
       </c>
       <c r="O7">
-        <v>0.14416026440477239</v>
+        <v>0.14315875146534662</v>
       </c>
     </row>
     <row r="8">
@@ -8699,13 +8699,13 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.081017788976591051</v>
+        <v>0.081529862583498189</v>
       </c>
       <c r="C8">
-        <v>0.1604922263001044</v>
+        <v>0.15977222338500438</v>
       </c>
       <c r="D8">
-        <v>0.75848998472330453</v>
+        <v>0.75869791403149744</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -8720,10 +8720,10 @@
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.830104017184221</v>
+        <v>0.83059953500767092</v>
       </c>
       <c r="O8">
-        <v>0.16989598281577897</v>
+        <v>0.16940046499232911</v>
       </c>
     </row>
     <row r="9">
@@ -8731,13 +8731,13 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.076683350278948417</v>
+        <v>0.076500885057093349</v>
       </c>
       <c r="C9">
-        <v>0.18933024009013991</v>
+        <v>0.18911335515694611</v>
       </c>
       <c r="D9">
-        <v>0.73398640963091166</v>
+        <v>0.73438575978596055</v>
       </c>
       <c r="H9">
         <v>31</v>
@@ -8752,10 +8752,10 @@
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.85109217258914338</v>
+        <v>0.85046152384739848</v>
       </c>
       <c r="O9">
-        <v>0.14890782741085656</v>
+        <v>0.1495384761526016</v>
       </c>
     </row>
     <row r="10">
@@ -8763,13 +8763,13 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.087909405970208826</v>
+        <v>0.087631813918060353</v>
       </c>
       <c r="C10">
-        <v>0.15689546302474613</v>
+        <v>0.15591525148871055</v>
       </c>
       <c r="D10">
-        <v>0.75519513100504509</v>
+        <v>0.75645293459322904</v>
       </c>
       <c r="H10">
         <v>32</v>
@@ -8784,10 +8784,10 @@
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.84359246513085184</v>
+        <v>0.84168353485445313</v>
       </c>
       <c r="O10">
-        <v>0.15640753486914821</v>
+        <v>0.15831646514554684</v>
       </c>
     </row>
     <row r="11">
@@ -8795,22 +8795,22 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.088778211841845964</v>
+        <v>0.088192028394477928</v>
       </c>
       <c r="C11">
-        <v>0.16387324780282217</v>
+        <v>0.16451313931716835</v>
       </c>
       <c r="D11">
-        <v>0.74734854035533183</v>
+        <v>0.74729483228835381</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.56219576027071283</v>
+        <v>0.55945088890709871</v>
       </c>
       <c r="J11">
-        <v>0.43780423972928711</v>
+        <v>0.44054911109290129</v>
       </c>
       <c r="M11">
         <v>33</v>
@@ -8827,13 +8827,13 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.085291655884307274</v>
+        <v>0.085984424702875706</v>
       </c>
       <c r="C12">
-        <v>0.17181252103410918</v>
+        <v>0.17111819967954858</v>
       </c>
       <c r="D12">
-        <v>0.74289582308158364</v>
+        <v>0.74289737561757574</v>
       </c>
       <c r="H12">
         <v>34</v>
@@ -8848,10 +8848,10 @@
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.8468919436649669</v>
+        <v>0.84808891255312369</v>
       </c>
       <c r="O12">
-        <v>0.1531080563350331</v>
+        <v>0.15191108744687631</v>
       </c>
     </row>
     <row r="13">
@@ -8859,31 +8859,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.10217230312886777</v>
+        <v>0.10205086736872369</v>
       </c>
       <c r="C13">
-        <v>0.16169714289006512</v>
+        <v>0.16068417478102351</v>
       </c>
       <c r="D13">
-        <v>0.73613055398106708</v>
+        <v>0.7372649578502527</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.60212348629515255</v>
+        <v>0.59954384214716949</v>
       </c>
       <c r="J13">
-        <v>0.39787651370484756</v>
+        <v>0.40045615785283056</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.82079010833746979</v>
+        <v>0.82274984466329182</v>
       </c>
       <c r="O13">
-        <v>0.17920989166253021</v>
+        <v>0.17725015533670826</v>
       </c>
     </row>
     <row r="14">
@@ -8891,31 +8891,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.10450556684570118</v>
+        <v>0.10491416746409066</v>
       </c>
       <c r="C14">
-        <v>0.17485217335057929</v>
+        <v>0.17443076724391052</v>
       </c>
       <c r="D14">
-        <v>0.72064225980371954</v>
+        <v>0.72065506529199874</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.58935285579843566</v>
+        <v>0.59451087286359994</v>
       </c>
       <c r="J14">
-        <v>0.4106471442015644</v>
+        <v>0.40548912713640017</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.83271448127205949</v>
+        <v>0.83334948564273226</v>
       </c>
       <c r="O14">
-        <v>0.16728551872794051</v>
+        <v>0.16665051435726772</v>
       </c>
     </row>
     <row r="15">
@@ -8923,31 +8923,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.11783968027006128</v>
+        <v>0.11921790443045094</v>
       </c>
       <c r="C15">
-        <v>0.16349081018030051</v>
+        <v>0.16349246693732744</v>
       </c>
       <c r="D15">
-        <v>0.71866950954963826</v>
+        <v>0.71728962863222157</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.60242918449725635</v>
+        <v>0.60275522311465846</v>
       </c>
       <c r="J15">
-        <v>0.39757081550274359</v>
+        <v>0.39724477688534143</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.82085481177478359</v>
+        <v>0.818894899139883</v>
       </c>
       <c r="O15">
-        <v>0.17914518822521644</v>
+        <v>0.181105100860117</v>
       </c>
     </row>
     <row r="16">
@@ -8955,31 +8955,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.11822067657385603</v>
+        <v>0.11712620200790935</v>
       </c>
       <c r="C16">
-        <v>0.17892244472529739</v>
+        <v>0.18052731333033004</v>
       </c>
       <c r="D16">
-        <v>0.70285687870084668</v>
+        <v>0.70234648466176064</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.58808569190166171</v>
+        <v>0.59031129999418286</v>
       </c>
       <c r="J16">
-        <v>0.41191430809833818</v>
+        <v>0.40968870000581709</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.83691085598774528</v>
+        <v>0.8351876934372704</v>
       </c>
       <c r="O16">
-        <v>0.16308914401225469</v>
+        <v>0.16481230656272966</v>
       </c>
     </row>
     <row r="17">
@@ -8987,13 +8987,13 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.11912339668743646</v>
+        <v>0.11890082078787001</v>
       </c>
       <c r="C17">
-        <v>0.16758864506170409</v>
+        <v>0.17043678481126404</v>
       </c>
       <c r="D17">
-        <v>0.71328795825085944</v>
+        <v>0.71066239440086609</v>
       </c>
       <c r="H17">
         <v>39</v>
@@ -9008,10 +9008,10 @@
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.8337111580512041</v>
+        <v>0.83315649415735993</v>
       </c>
       <c r="O17">
-        <v>0.16628884194879601</v>
+        <v>0.1668435058426401</v>
       </c>
     </row>
     <row r="18">
@@ -9019,31 +9019,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.12503488411074068</v>
+        <v>0.1251546105735741</v>
       </c>
       <c r="C18">
-        <v>0.17526565885227707</v>
+        <v>0.17554419726396647</v>
       </c>
       <c r="D18">
-        <v>0.69969945703698222</v>
+        <v>0.69930119216245934</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.66158527383147214</v>
+        <v>0.66169059094074156</v>
       </c>
       <c r="J18">
-        <v>0.33841472616852786</v>
+        <v>0.33830940905925838</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.81903085465267456</v>
+        <v>0.81884236156555656</v>
       </c>
       <c r="O18">
-        <v>0.18096914534732547</v>
+        <v>0.18115763843444335</v>
       </c>
     </row>
     <row r="19">
@@ -9051,31 +9051,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.13949476205989628</v>
+        <v>0.14072613611442267</v>
       </c>
       <c r="C19">
-        <v>0.18023543349884294</v>
+        <v>0.18001885589696406</v>
       </c>
       <c r="D19">
-        <v>0.68026980444126073</v>
+        <v>0.67925500798861316</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.66412489679891729</v>
+        <v>0.66300191051528612</v>
       </c>
       <c r="J19">
-        <v>0.33587510320108277</v>
+        <v>0.33699808948471399</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.83771234942578743</v>
+        <v>0.83703543404426717</v>
       </c>
       <c r="O19">
-        <v>0.16228765057421257</v>
+        <v>0.16296456595573275</v>
       </c>
     </row>
     <row r="20">
@@ -9083,31 +9083,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.13337120539550856</v>
+        <v>0.1337442625692547</v>
       </c>
       <c r="C20">
-        <v>0.18373666851667581</v>
+        <v>0.18346419397008243</v>
       </c>
       <c r="D20">
-        <v>0.68289212608781569</v>
+        <v>0.68279154346066295</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64224859007843338</v>
+        <v>0.64248497751706057</v>
       </c>
       <c r="J20">
-        <v>0.35775140992156673</v>
+        <v>0.35751502248293937</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.82588014034382262</v>
+        <v>0.8263582912941031</v>
       </c>
       <c r="O20">
-        <v>0.17411985965617738</v>
+        <v>0.17364170870589699</v>
       </c>
     </row>
     <row r="21">
@@ -9115,13 +9115,13 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.14528275234179833</v>
+        <v>0.14450223049654523</v>
       </c>
       <c r="C21">
-        <v>0.1811813979220884</v>
+        <v>0.18196065480721463</v>
       </c>
       <c r="D21">
-        <v>0.67353584973611336</v>
+        <v>0.67353711469624</v>
       </c>
       <c r="H21">
         <v>43</v>
@@ -9136,10 +9136,10 @@
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.81238195769169641</v>
+        <v>0.81052958219848303</v>
       </c>
       <c r="O21">
-        <v>0.18761804230830362</v>
+        <v>0.18947041780151697</v>
       </c>
     </row>
     <row r="22">
@@ -9147,31 +9147,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.15827573319938143</v>
+        <v>0.15756970241087556</v>
       </c>
       <c r="C22">
-        <v>0.18536902812886991</v>
+        <v>0.18665866409570553</v>
       </c>
       <c r="D22">
-        <v>0.65635523867174861</v>
+        <v>0.65577163349341883</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.67548951362572451</v>
+        <v>0.67410156507017804</v>
       </c>
       <c r="J22">
-        <v>0.3245104863742756</v>
+        <v>0.32589843492982196</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.82923291150592116</v>
+        <v>0.82855163849689339</v>
       </c>
       <c r="O22">
-        <v>0.17076708849407882</v>
+        <v>0.17144836150310661</v>
       </c>
     </row>
     <row r="23">
@@ -9179,31 +9179,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.15165318510907591</v>
+        <v>0.1517587205839844</v>
       </c>
       <c r="C23">
-        <v>0.19037802515652377</v>
+        <v>0.1895520508200641</v>
       </c>
       <c r="D23">
-        <v>0.65796878973440032</v>
+        <v>0.65868922859595147</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.63910805816764493</v>
+        <v>0.63901424103531657</v>
       </c>
       <c r="J23">
-        <v>0.36089194183235507</v>
+        <v>0.36098575896468343</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.80357599451597239</v>
+        <v>0.80245861981063693</v>
       </c>
       <c r="O23">
-        <v>0.19642400548402758</v>
+        <v>0.19754138018936315</v>
       </c>
     </row>
     <row r="24">
@@ -9211,31 +9211,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.15583976775064218</v>
+        <v>0.15455721001563166</v>
       </c>
       <c r="C24">
-        <v>0.18918891991035999</v>
+        <v>0.19073677073922529</v>
       </c>
       <c r="D24">
-        <v>0.65497131233899775</v>
+        <v>0.65470601924514304</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.66630725168622107</v>
+        <v>0.66528167322008658</v>
       </c>
       <c r="J24">
-        <v>0.33369274831377893</v>
+        <v>0.33471832677991331</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.81066045352278193</v>
+        <v>0.81060066788566287</v>
       </c>
       <c r="O24">
-        <v>0.18933954647721815</v>
+        <v>0.18939933211433718</v>
       </c>
     </row>
     <row r="25">
@@ -9243,31 +9243,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.16785514140503399</v>
+        <v>0.16800752334307922</v>
       </c>
       <c r="C25">
-        <v>0.18230894548519738</v>
+        <v>0.18104531894513751</v>
       </c>
       <c r="D25">
-        <v>0.64983591310976863</v>
+        <v>0.65094715771178324</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.71111862155658523</v>
+        <v>0.70923493728817244</v>
       </c>
       <c r="J25">
-        <v>0.28888137844341488</v>
+        <v>0.29076506271182762</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.80038905337641797</v>
+        <v>0.79999217247101284</v>
       </c>
       <c r="O25">
-        <v>0.19961094662358206</v>
+        <v>0.20000782752898724</v>
       </c>
     </row>
     <row r="26">
@@ -9275,31 +9275,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.17067669832162802</v>
+        <v>0.1693788587730963</v>
       </c>
       <c r="C26">
-        <v>0.2034569779233287</v>
+        <v>0.20470509445555463</v>
       </c>
       <c r="D26">
-        <v>0.62586632375504325</v>
+        <v>0.62591604677134904</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.68957235994922073</v>
+        <v>0.68940706509094429</v>
       </c>
       <c r="J26">
-        <v>0.31042764005077922</v>
+        <v>0.31059293490905571</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.79911850751273505</v>
+        <v>0.80030732838821295</v>
       </c>
       <c r="O26">
-        <v>0.20088149248726483</v>
+        <v>0.19969267161178703</v>
       </c>
     </row>
     <row r="27">
@@ -9307,31 +9307,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.18039180335749325</v>
+        <v>0.1801103602874306</v>
       </c>
       <c r="C27">
-        <v>0.20621413785914791</v>
+        <v>0.20543861813348643</v>
       </c>
       <c r="D27">
-        <v>0.61339405878335895</v>
+        <v>0.61445102157908305</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.69246508101443138</v>
+        <v>0.69184400216850062</v>
       </c>
       <c r="J27">
-        <v>0.30753491898556856</v>
+        <v>0.30815599783149938</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.7987445973106071</v>
+        <v>0.79710661794078819</v>
       </c>
       <c r="O27">
-        <v>0.20125540268939296</v>
+        <v>0.20289338205921192</v>
       </c>
     </row>
     <row r="28">
@@ -9339,31 +9339,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.17594301526668552</v>
+        <v>0.17576623286471577</v>
       </c>
       <c r="C28">
-        <v>0.21617836947592245</v>
+        <v>0.21653372082460801</v>
       </c>
       <c r="D28">
-        <v>0.60787861525739195</v>
+        <v>0.6077000463106762</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.70720437264454883</v>
+        <v>0.70813286377658324</v>
       </c>
       <c r="J28">
-        <v>0.29279562735545112</v>
+        <v>0.2918671362234167</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.78590231094322838</v>
+        <v>0.78647505230279324</v>
       </c>
       <c r="O28">
-        <v>0.2140976890567716</v>
+        <v>0.21352494769720673</v>
       </c>
     </row>
     <row r="29">
@@ -9371,13 +9371,13 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20032861382603945</v>
+        <v>0.20036333094676484</v>
       </c>
       <c r="C29">
-        <v>0.20317473667174912</v>
+        <v>0.20159817254671777</v>
       </c>
       <c r="D29">
-        <v>0.59649664950221137</v>
+        <v>0.59803849650651741</v>
       </c>
       <c r="H29">
         <v>51</v>
@@ -9392,10 +9392,10 @@
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79242348120776662</v>
+        <v>0.79221549336326336</v>
       </c>
       <c r="O29">
-        <v>0.20757651879223341</v>
+        <v>0.20778450663673662</v>
       </c>
     </row>
     <row r="30">
@@ -9403,13 +9403,13 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.20758753699436164</v>
+        <v>0.2070964088418431</v>
       </c>
       <c r="C30">
-        <v>0.20114536594979696</v>
+        <v>0.20232730202134835</v>
       </c>
       <c r="D30">
-        <v>0.59126709705584146</v>
+        <v>0.59057628913680849</v>
       </c>
       <c r="H30">
         <v>52</v>
@@ -9424,10 +9424,10 @@
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.78245186786858911</v>
+        <v>0.78310235226296099</v>
       </c>
       <c r="O30">
-        <v>0.21754813213141083</v>
+        <v>0.21689764773703907</v>
       </c>
     </row>
     <row r="31">
@@ -9435,31 +9435,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22545641469313565</v>
+        <v>0.22321503277297605</v>
       </c>
       <c r="C31">
-        <v>0.20345816525301644</v>
+        <v>0.20577145617164261</v>
       </c>
       <c r="D31">
-        <v>0.57108542005384799</v>
+        <v>0.57101351105538134</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.73350247787789002</v>
+        <v>0.73389651246882259</v>
       </c>
       <c r="J31">
-        <v>0.26649752212211014</v>
+        <v>0.26610348753117741</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.79840515219602159</v>
+        <v>0.79813588318057627</v>
       </c>
       <c r="O31">
-        <v>0.20159484780397843</v>
+        <v>0.20186411681942376</v>
       </c>
     </row>
     <row r="32">
@@ -9467,31 +9467,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21084338759932347</v>
+        <v>0.2114652629439436</v>
       </c>
       <c r="C32">
-        <v>0.21622266081949662</v>
+        <v>0.21532138107406595</v>
       </c>
       <c r="D32">
-        <v>0.57293395158117977</v>
+        <v>0.57321335598199052</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.75870891247524719</v>
+        <v>0.75748996056461948</v>
       </c>
       <c r="J32">
-        <v>0.24129108752475276</v>
+        <v>0.24251003943538058</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.79820255432538634</v>
+        <v>0.79754399239608242</v>
       </c>
       <c r="O32">
-        <v>0.20179744567461369</v>
+        <v>0.2024560076039176</v>
       </c>
     </row>
     <row r="33">
@@ -9499,31 +9499,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.23371665113616771</v>
+        <v>0.23377653090515257</v>
       </c>
       <c r="C33">
-        <v>0.21138927603371935</v>
+        <v>0.21061333218861877</v>
       </c>
       <c r="D33">
-        <v>0.55489407283011283</v>
+        <v>0.55561013690622862</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.74230215644676789</v>
+        <v>0.74265506912726797</v>
       </c>
       <c r="J33">
-        <v>0.25769784355323211</v>
+        <v>0.25734493087273208</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78395834763105887</v>
+        <v>0.77978053390873769</v>
       </c>
       <c r="O33">
-        <v>0.21604165236894124</v>
+        <v>0.22021946609126236</v>
       </c>
     </row>
     <row r="34">
@@ -9531,31 +9531,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.23141792912000797</v>
+        <v>0.23114947621430856</v>
       </c>
       <c r="C34">
-        <v>0.2129160928194038</v>
+        <v>0.21523526070982343</v>
       </c>
       <c r="D34">
-        <v>0.55566597806058826</v>
+        <v>0.55361526307586795</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.7784179393662316</v>
+        <v>0.77923933338760876</v>
       </c>
       <c r="J34">
-        <v>0.22158206063376837</v>
+        <v>0.22076066661239116</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.77533821134183201</v>
+        <v>0.77361039644485385</v>
       </c>
       <c r="O34">
-        <v>0.2246617886581681</v>
+        <v>0.22638960355514609</v>
       </c>
     </row>
     <row r="35">
@@ -9563,31 +9563,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.27710625310048376</v>
+        <v>0.27800600149783072</v>
       </c>
       <c r="C35">
-        <v>0.19832984449191626</v>
+        <v>0.1991689280108784</v>
       </c>
       <c r="D35">
-        <v>0.52456390240760009</v>
+        <v>0.52282507049129079</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.78697141844880847</v>
+        <v>0.78617421150001454</v>
       </c>
       <c r="J35">
-        <v>0.2130285815511915</v>
+        <v>0.21382578849998543</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.78262265855032376</v>
+        <v>0.78056414380173222</v>
       </c>
       <c r="O35">
-        <v>0.21737734144967624</v>
+        <v>0.21943585619826775</v>
       </c>
     </row>
     <row r="36">
@@ -9595,31 +9595,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.26865356603953344</v>
+        <v>0.27046853142170635</v>
       </c>
       <c r="C36">
-        <v>0.22106601765438788</v>
+        <v>0.22036279134433351</v>
       </c>
       <c r="D36">
-        <v>0.51028041630607879</v>
+        <v>0.5091686772339602</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.76468341221806668</v>
+        <v>0.76449946206840769</v>
       </c>
       <c r="J36">
-        <v>0.23531658778193337</v>
+        <v>0.23550053793159237</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.76783248445288965</v>
+        <v>0.76703954466554181</v>
       </c>
       <c r="O36">
-        <v>0.23216751554711038</v>
+        <v>0.23296045533445831</v>
       </c>
     </row>
     <row r="37">
@@ -9627,31 +9627,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.27281845687790174</v>
+        <v>0.27301594493960191</v>
       </c>
       <c r="C37">
-        <v>0.22231764653060243</v>
+        <v>0.22141444315411971</v>
       </c>
       <c r="D37">
-        <v>0.50486389659149589</v>
+        <v>0.50556961190627836</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.79606634394003239</v>
+        <v>0.79521544324018412</v>
       </c>
       <c r="J37">
-        <v>0.20393365605996755</v>
+        <v>0.20478455675981588</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.75464682003645445</v>
+        <v>0.75371163019411913</v>
       </c>
       <c r="O37">
-        <v>0.24535317996354561</v>
+        <v>0.24628836980588087</v>
       </c>
     </row>
     <row r="38">
@@ -9659,13 +9659,13 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.28866775459080574</v>
+        <v>0.28818629701856752</v>
       </c>
       <c r="C38">
-        <v>0.22985457452242791</v>
+        <v>0.22978025598109467</v>
       </c>
       <c r="D38">
-        <v>0.48147767088676635</v>
+        <v>0.48203344700033784</v>
       </c>
       <c r="H38">
         <v>60</v>
@@ -9680,10 +9680,10 @@
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76248072216336249</v>
+        <v>0.76239778675758996</v>
       </c>
       <c r="O38">
-        <v>0.23751927783663748</v>
+        <v>0.23760221324241015</v>
       </c>
     </row>
     <row r="39">
@@ -9691,22 +9691,22 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.30833855647250197</v>
+        <v>0.30807037735584436</v>
       </c>
       <c r="C39">
-        <v>0.21541881010553235</v>
+        <v>0.21511424504303722</v>
       </c>
       <c r="D39">
-        <v>0.47624263342196577</v>
+        <v>0.47681537760111831</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.80794204521136037</v>
+        <v>0.80899972659693042</v>
       </c>
       <c r="J39">
-        <v>0.19205795478863968</v>
+        <v>0.19100027340306944</v>
       </c>
       <c r="M39">
         <v>61</v>
@@ -9723,13 +9723,13 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.29931829334911636</v>
+        <v>0.29968552246601254</v>
       </c>
       <c r="C40">
-        <v>0.24452388701766176</v>
+        <v>0.24479648018864836</v>
       </c>
       <c r="D40">
-        <v>0.45615781963322199</v>
+        <v>0.45551799734533915</v>
       </c>
       <c r="H40">
         <v>62</v>
@@ -9744,10 +9744,10 @@
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.74748490276135859</v>
+        <v>0.74768578422322296</v>
       </c>
       <c r="O40">
-        <v>0.25251509723864135</v>
+        <v>0.25231421577677704</v>
       </c>
     </row>
     <row r="41">
@@ -9755,13 +9755,13 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.3167205420213568</v>
+        <v>0.31645426678945809</v>
       </c>
       <c r="C41">
-        <v>0.23777310622604533</v>
+        <v>0.23752708311940487</v>
       </c>
       <c r="D41">
-        <v>0.4455063517525979</v>
+        <v>0.44601865009113695</v>
       </c>
       <c r="H41">
         <v>63</v>
@@ -9776,10 +9776,10 @@
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.74631473898962675</v>
+        <v>0.74493509752737319</v>
       </c>
       <c r="O41">
-        <v>0.2536852610103732</v>
+        <v>0.25506490247262681</v>
       </c>
     </row>
     <row r="42">
@@ -9787,22 +9787,22 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.33035013044396433</v>
+        <v>0.33087041357652086</v>
       </c>
       <c r="C42">
-        <v>0.22115169604144788</v>
+        <v>0.22057625177981754</v>
       </c>
       <c r="D42">
-        <v>0.44849817351458765</v>
+        <v>0.44855333464366143</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.82202635935238</v>
+        <v>0.82263317901716748</v>
       </c>
       <c r="J42">
-        <v>0.17797364064761997</v>
+        <v>0.17736682098283257</v>
       </c>
       <c r="M42">
         <v>64</v>
@@ -9819,31 +9819,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.31592539540740749</v>
+        <v>0.31655211295216651</v>
       </c>
       <c r="C43">
-        <v>0.24447757178353388</v>
+        <v>0.24449579228326654</v>
       </c>
       <c r="D43">
-        <v>0.43959703280905865</v>
+        <v>0.43895209476456704</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.81105202222633044</v>
+        <v>0.80896936327844815</v>
       </c>
       <c r="J43">
-        <v>0.18894797777366962</v>
+        <v>0.19103063672155174</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.74984388187206252</v>
+        <v>0.74775625137383051</v>
       </c>
       <c r="O43">
-        <v>0.25015611812793759</v>
+        <v>0.25224374862616944</v>
       </c>
     </row>
     <row r="44">
@@ -9851,31 +9851,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.32488921125686637</v>
+        <v>0.32512885005871778</v>
       </c>
       <c r="C44">
-        <v>0.23849726631166737</v>
+        <v>0.23885453494994108</v>
       </c>
       <c r="D44">
-        <v>0.43661352243146628</v>
+        <v>0.43601661499134109</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.83866093867910285</v>
+        <v>0.83930054624990746</v>
       </c>
       <c r="J44">
-        <v>0.16133906132089712</v>
+        <v>0.16069945375009248</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.74552149495951925</v>
+        <v>0.74555866993478259</v>
       </c>
       <c r="O44">
-        <v>0.25447850504048081</v>
+        <v>0.25444133006521746</v>
       </c>
     </row>
     <row r="45">
@@ -9883,13 +9883,13 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.33118583550790159</v>
+        <v>0.33324907066288278</v>
       </c>
       <c r="C45">
-        <v>0.25219716761294003</v>
+        <v>0.2498601520655771</v>
       </c>
       <c r="D45">
-        <v>0.41661699687915832</v>
+        <v>0.41689077727154017</v>
       </c>
       <c r="H45">
         <v>67</v>
@@ -9915,31 +9915,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.31702685016806353</v>
+        <v>0.31747893481383505</v>
       </c>
       <c r="C46">
-        <v>0.25560438680671355</v>
+        <v>0.25573000696519238</v>
       </c>
       <c r="D46">
-        <v>0.42736876302522298</v>
+        <v>0.42679105822097257</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.79609979596796032</v>
+        <v>0.79406163774615124</v>
       </c>
       <c r="J46">
-        <v>0.20390020403203962</v>
+        <v>0.20593836225384887</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.72954896635770095</v>
+        <v>0.73007731963424738</v>
       </c>
       <c r="O46">
-        <v>0.27045103364229911</v>
+        <v>0.26992268036575251</v>
       </c>
     </row>
     <row r="47">
@@ -9947,31 +9947,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.33886592480969391</v>
+        <v>0.33926186440422523</v>
       </c>
       <c r="C47">
-        <v>0.23972713754497579</v>
+        <v>0.23851807768381708</v>
       </c>
       <c r="D47">
-        <v>0.42140693764533038</v>
+        <v>0.42222005791195766</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.82509328565057016</v>
+        <v>0.82395466199657752</v>
       </c>
       <c r="J47">
-        <v>0.17490671434942975</v>
+        <v>0.17604533800342248</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.71299481507035589</v>
+        <v>0.71373497082818727</v>
       </c>
       <c r="O47">
-        <v>0.28700518492964411</v>
+        <v>0.28626502917181273</v>
       </c>
     </row>
     <row r="48">
@@ -9979,31 +9979,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.34854845931339856</v>
+        <v>0.34835728595586551</v>
       </c>
       <c r="C48">
-        <v>0.25763215516877791</v>
+        <v>0.25669896539119197</v>
       </c>
       <c r="D48">
-        <v>0.39381938551782347</v>
+        <v>0.39494374865294246</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.83139910683992357</v>
+        <v>0.83141582416339421</v>
       </c>
       <c r="J48">
-        <v>0.16860089316007651</v>
+        <v>0.16858417583660584</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.71857616992653373</v>
+        <v>0.71862789831281637</v>
       </c>
       <c r="O48">
-        <v>0.28142383007346633</v>
+        <v>0.28137210168718368</v>
       </c>
     </row>
     <row r="49">
@@ -10011,31 +10011,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.37519184282568341</v>
+        <v>0.37505779626564667</v>
       </c>
       <c r="C49">
-        <v>0.24660408467134337</v>
+        <v>0.2469979042097013</v>
       </c>
       <c r="D49">
-        <v>0.37820407250297322</v>
+        <v>0.37794429952465197</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.81408226363135394</v>
+        <v>0.81772353946389809</v>
       </c>
       <c r="J49">
-        <v>0.18591773636864609</v>
+        <v>0.18227646053610189</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.70797452670331207</v>
+        <v>0.70992873434449966</v>
       </c>
       <c r="O49">
-        <v>0.29202547329668788</v>
+        <v>0.29007126565550029</v>
       </c>
     </row>
     <row r="50">
@@ -10043,13 +10043,13 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.38151208275750453</v>
+        <v>0.3825350531351458</v>
       </c>
       <c r="C50">
-        <v>0.24839255753646627</v>
+        <v>0.24719621363510877</v>
       </c>
       <c r="D50">
-        <v>0.37009535970602914</v>
+        <v>0.37026873322974541</v>
       </c>
       <c r="H50">
         <v>72</v>
@@ -10064,10 +10064,10 @@
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.69632889695526823</v>
+        <v>0.69495618957329219</v>
       </c>
       <c r="O50">
-        <v>0.30367110304473188</v>
+        <v>0.30504381042670792</v>
       </c>
     </row>
     <row r="51">
@@ -10075,13 +10075,13 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.41194478905788073</v>
+        <v>0.41185977099671739</v>
       </c>
       <c r="C51">
-        <v>0.24028996600767349</v>
+        <v>0.24228484020622604</v>
       </c>
       <c r="D51">
-        <v>0.34776524493444577</v>
+        <v>0.34585538879705657</v>
       </c>
       <c r="H51">
         <v>73</v>
@@ -10096,10 +10096,10 @@
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.72572210498395862</v>
+        <v>0.72732421724003438</v>
       </c>
       <c r="O51">
-        <v>0.27427789501604144</v>
+        <v>0.27267578275996562</v>
       </c>
     </row>
     <row r="52">
@@ -10107,31 +10107,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.42148640286431516</v>
+        <v>0.42119427299079343</v>
       </c>
       <c r="C52">
-        <v>0.24745342720533739</v>
+        <v>0.24546263505634078</v>
       </c>
       <c r="D52">
-        <v>0.33106016993034743</v>
+        <v>0.33334309195286577</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.85875935527659841</v>
+        <v>0.85942281349316574</v>
       </c>
       <c r="J52">
-        <v>0.14124064472340167</v>
+        <v>0.14057718650683418</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.65023805105154331</v>
+        <v>0.64962530037199484</v>
       </c>
       <c r="O52">
-        <v>0.34976194894845664</v>
+        <v>0.35037469962800516</v>
       </c>
     </row>
     <row r="53">
@@ -10139,31 +10139,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.45478942976864323</v>
+        <v>0.45386448872657004</v>
       </c>
       <c r="C53">
-        <v>0.24496222670332249</v>
+        <v>0.24564532400425954</v>
       </c>
       <c r="D53">
-        <v>0.30024834352803426</v>
+        <v>0.30049018726917054</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.86760438099564274</v>
+        <v>0.86699565684637514</v>
       </c>
       <c r="J53">
-        <v>0.13239561900435734</v>
+        <v>0.13300434315362486</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.66897793484568102</v>
+        <v>0.66673026660515855</v>
       </c>
       <c r="O53">
-        <v>0.33102206515431909</v>
+        <v>0.33326973339484156</v>
       </c>
     </row>
     <row r="54">
@@ -10171,13 +10171,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.45903209376173876</v>
+        <v>0.45863525884102002</v>
       </c>
       <c r="C54">
-        <v>0.25720782632794381</v>
+        <v>0.25773770410045332</v>
       </c>
       <c r="D54">
-        <v>0.28376007991031749</v>
+        <v>0.28362703705852654</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -11097,10 +11097,10 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.83775836445274243</v>
+        <v>0.83378319552784086</v>
       </c>
       <c r="O6">
-        <v>0.16224163554725754</v>
+        <v>0.16621680447215911</v>
       </c>
     </row>
     <row r="7">
@@ -11117,10 +11117,10 @@
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.82450779862104617</v>
+        <v>0.8251799329434002</v>
       </c>
       <c r="O7">
-        <v>0.1754922013789538</v>
+        <v>0.17482006705659975</v>
       </c>
     </row>
     <row r="8">
@@ -11137,10 +11137,10 @@
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83371451091876581</v>
+        <v>0.8348734295791107</v>
       </c>
       <c r="O8">
-        <v>0.16628548908123414</v>
+        <v>0.16512657042088924</v>
       </c>
     </row>
     <row r="9">
@@ -11157,10 +11157,10 @@
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.80169272307708617</v>
+        <v>0.80033606010330516</v>
       </c>
       <c r="O9">
-        <v>0.19830727692291383</v>
+        <v>0.1996639398966949</v>
       </c>
     </row>
     <row r="10">
@@ -11177,10 +11177,10 @@
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.78492725551493137</v>
+        <v>0.78395484804305704</v>
       </c>
       <c r="O10">
-        <v>0.21507274448506863</v>
+        <v>0.21604515195694296</v>
       </c>
     </row>
     <row r="11">
@@ -11188,10 +11188,10 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.65829182743848902</v>
+        <v>0.65291438551337821</v>
       </c>
       <c r="J11">
-        <v>0.34170817256151093</v>
+        <v>0.34708561448662184</v>
       </c>
       <c r="M11">
         <v>33</v>
@@ -11217,10 +11217,10 @@
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.80762111611046117</v>
+        <v>0.81101624190422283</v>
       </c>
       <c r="O12">
-        <v>0.19237888388953875</v>
+        <v>0.18898375809577708</v>
       </c>
     </row>
     <row r="13">
@@ -11237,10 +11237,10 @@
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.77986164660320934</v>
+        <v>0.78178148717651907</v>
       </c>
       <c r="O13">
-        <v>0.22013835339679064</v>
+        <v>0.2182185128234809</v>
       </c>
     </row>
     <row r="14">
@@ -11248,10 +11248,10 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.63872783385219922</v>
+        <v>0.63802479710785021</v>
       </c>
       <c r="J14">
-        <v>0.36127216614780072</v>
+        <v>0.36197520289214985</v>
       </c>
       <c r="M14">
         <v>36</v>
@@ -11268,10 +11268,10 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.67578521618949539</v>
+        <v>0.67643618460373411</v>
       </c>
       <c r="J15">
-        <v>0.32421478381050467</v>
+        <v>0.32356381539626583</v>
       </c>
       <c r="M15">
         <v>37</v>
@@ -11288,10 +11288,10 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.68132640531797262</v>
+        <v>0.68612847505046104</v>
       </c>
       <c r="J16">
-        <v>0.31867359468202744</v>
+        <v>0.31387152494953902</v>
       </c>
       <c r="M16">
         <v>38</v>
@@ -11317,10 +11317,10 @@
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78842763422901729</v>
+        <v>0.78711943337026447</v>
       </c>
       <c r="O17">
-        <v>0.21157236577098271</v>
+        <v>0.21288056662973551</v>
       </c>
     </row>
     <row r="18">
@@ -11328,19 +11328,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.73761512508698401</v>
+        <v>0.7331892577463679</v>
       </c>
       <c r="J18">
-        <v>0.26238487491301588</v>
+        <v>0.26681074225363205</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.7840211666999275</v>
+        <v>0.7835538037824592</v>
       </c>
       <c r="O18">
-        <v>0.21597883330007253</v>
+        <v>0.21644619621754072</v>
       </c>
     </row>
     <row r="19">
@@ -11348,10 +11348,10 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.75339823150771923</v>
+        <v>0.75108244961401649</v>
       </c>
       <c r="J19">
-        <v>0.2466017684922808</v>
+        <v>0.24891755038598348</v>
       </c>
       <c r="M19">
         <v>41</v>
@@ -11368,19 +11368,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.70747492176437121</v>
+        <v>0.71097616765175409</v>
       </c>
       <c r="J20">
-        <v>0.29252507823562884</v>
+        <v>0.28902383234824591</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.79437555860986453</v>
+        <v>0.79677875081895921</v>
       </c>
       <c r="O20">
-        <v>0.20562444139013544</v>
+        <v>0.20322124918104073</v>
       </c>
     </row>
     <row r="21">
@@ -11397,10 +11397,10 @@
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.77007021689807031</v>
+        <v>0.7686450269866183</v>
       </c>
       <c r="O21">
-        <v>0.22992978310192971</v>
+        <v>0.2313549730133817</v>
       </c>
     </row>
     <row r="22">
@@ -11408,10 +11408,10 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.75973177302758566</v>
+        <v>0.75683652855691053</v>
       </c>
       <c r="J22">
-        <v>0.24026822697241434</v>
+        <v>0.24316347144308953</v>
       </c>
       <c r="M22">
         <v>44</v>
@@ -11428,19 +11428,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.74966878570940432</v>
+        <v>0.7475554350414837</v>
       </c>
       <c r="J23">
-        <v>0.25033121429059563</v>
+        <v>0.2524445649585163</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75660231651982124</v>
+        <v>0.75782969198940309</v>
       </c>
       <c r="O23">
-        <v>0.24339768348017868</v>
+        <v>0.24217030801059691</v>
       </c>
     </row>
     <row r="24">
@@ -11457,10 +11457,10 @@
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.78588524735259524</v>
+        <v>0.78572622061961572</v>
       </c>
       <c r="O24">
-        <v>0.21411475264740473</v>
+        <v>0.21427377938038422</v>
       </c>
     </row>
     <row r="25">
@@ -11477,10 +11477,10 @@
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.76631821938863498</v>
+        <v>0.76405112512164375</v>
       </c>
       <c r="O25">
-        <v>0.23368178061136496</v>
+        <v>0.23594887487835622</v>
       </c>
     </row>
     <row r="26">
@@ -11488,19 +11488,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.79926240361880607</v>
+        <v>0.79686039851535839</v>
       </c>
       <c r="J26">
-        <v>0.20073759638119398</v>
+        <v>0.20313960148464161</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.73049357526476877</v>
+        <v>0.73147608162999611</v>
       </c>
       <c r="O26">
-        <v>0.26950642473523112</v>
+        <v>0.26852391837000383</v>
       </c>
     </row>
     <row r="27">
@@ -11517,10 +11517,10 @@
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.7517276396084358</v>
+        <v>0.75121383369712058</v>
       </c>
       <c r="O27">
-        <v>0.2482723603915642</v>
+        <v>0.24878616630287947</v>
       </c>
     </row>
     <row r="28">
@@ -11537,10 +11537,10 @@
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.73002824957233703</v>
+        <v>0.7297259433491563</v>
       </c>
       <c r="O28">
-        <v>0.26997175042766297</v>
+        <v>0.27027405665084381</v>
       </c>
     </row>
     <row r="29">
@@ -11577,10 +11577,10 @@
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70574656526161872</v>
+        <v>0.70642539324864839</v>
       </c>
       <c r="O30">
-        <v>0.29425343473838134</v>
+        <v>0.29357460675135166</v>
       </c>
     </row>
     <row r="31">
@@ -11588,19 +11588,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.8266734840928498</v>
+        <v>0.82755941948005474</v>
       </c>
       <c r="J31">
-        <v>0.17332651590715017</v>
+        <v>0.17244058051994526</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.74405913712054905</v>
+        <v>0.74475933164369801</v>
       </c>
       <c r="O31">
-        <v>0.25594086287945106</v>
+        <v>0.25524066835630199</v>
       </c>
     </row>
     <row r="32">
@@ -11617,10 +11617,10 @@
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.74794634693153961</v>
+        <v>0.74604035679915393</v>
       </c>
       <c r="O32">
-        <v>0.25205365306846045</v>
+        <v>0.25395964320084602</v>
       </c>
     </row>
     <row r="33">
@@ -11628,19 +11628,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.8551693440915541</v>
+        <v>0.8574976221885795</v>
       </c>
       <c r="J33">
-        <v>0.14483065590844593</v>
+        <v>0.1425023778114205</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.74091255551320334</v>
+        <v>0.73585378461220519</v>
       </c>
       <c r="O33">
-        <v>0.25908744448679671</v>
+        <v>0.26414621538779487</v>
       </c>
     </row>
     <row r="34">
@@ -11648,19 +11648,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.86007865699780073</v>
+        <v>0.86203874778133116</v>
       </c>
       <c r="J34">
-        <v>0.13992134300219922</v>
+        <v>0.13796125221866887</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71912231779186753</v>
+        <v>0.71689073305964901</v>
       </c>
       <c r="O34">
-        <v>0.28087768220813247</v>
+        <v>0.28310926694035088</v>
       </c>
     </row>
     <row r="35">
@@ -11677,10 +11677,10 @@
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.70602104076332883</v>
+        <v>0.70763141727927226</v>
       </c>
       <c r="O35">
-        <v>0.29397895923667106</v>
+        <v>0.29236858272072774</v>
       </c>
     </row>
     <row r="36">
@@ -11688,19 +11688,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.86179865463905858</v>
+        <v>0.85848343178831144</v>
       </c>
       <c r="J36">
-        <v>0.13820134536094147</v>
+        <v>0.14151656821168856</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.74293090533171557</v>
+        <v>0.74521150711072426</v>
       </c>
       <c r="O36">
-        <v>0.25706909466828443</v>
+        <v>0.25478849288927569</v>
       </c>
     </row>
     <row r="37">
@@ -11737,10 +11737,10 @@
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.71640520689865739</v>
+        <v>0.71970526613377162</v>
       </c>
       <c r="O38">
-        <v>0.28359479310134256</v>
+        <v>0.2802947338662285</v>
       </c>
     </row>
     <row r="39">
@@ -11777,10 +11777,10 @@
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.67221001749972786</v>
+        <v>0.66828496676637428</v>
       </c>
       <c r="O40">
-        <v>0.32778998250027219</v>
+        <v>0.33171503323362572</v>
       </c>
     </row>
     <row r="41">
@@ -11797,10 +11797,10 @@
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.66771890828951541</v>
+        <v>0.66495877571014395</v>
       </c>
       <c r="O41">
-        <v>0.33228109171048453</v>
+        <v>0.335041224289856</v>
       </c>
     </row>
     <row r="42">
@@ -11808,10 +11808,10 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.91279916457634158</v>
+        <v>0.91453314837416388</v>
       </c>
       <c r="J42">
-        <v>0.087200835423658377</v>
+        <v>0.085466851625836129</v>
       </c>
       <c r="M42">
         <v>64</v>
@@ -11828,10 +11828,10 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.92187367242229212</v>
+        <v>0.92001803836047746</v>
       </c>
       <c r="J43">
-        <v>0.078126327577707863</v>
+        <v>0.079981961639522592</v>
       </c>
       <c r="M43">
         <v>65</v>
@@ -11857,10 +11857,10 @@
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.68696705416018378</v>
+        <v>0.68307570677973639</v>
       </c>
       <c r="O44">
-        <v>0.31303294583981617</v>
+        <v>0.31692429322026344</v>
       </c>
     </row>
     <row r="45">
@@ -11888,10 +11888,10 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.88521247341825138</v>
+        <v>0.88368411813748116</v>
       </c>
       <c r="J46">
-        <v>0.1147875265817485</v>
+        <v>0.11631588186251882</v>
       </c>
       <c r="M46">
         <v>68</v>
@@ -11917,10 +11917,10 @@
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.56451857016765961</v>
+        <v>0.55840190653813104</v>
       </c>
       <c r="O47">
-        <v>0.43548142983234028</v>
+        <v>0.4415980934618689</v>
       </c>
     </row>
     <row r="48">
@@ -11948,10 +11948,10 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.88448068062557439</v>
+        <v>0.8903332479047541</v>
       </c>
       <c r="J49">
-        <v>0.11551931937442569</v>
+        <v>0.10966675209524578</v>
       </c>
       <c r="M49">
         <v>71</v>
@@ -11977,10 +11977,10 @@
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.59411640366194174</v>
+        <v>0.58738413982715065</v>
       </c>
       <c r="O50">
-        <v>0.40588359633805832</v>
+        <v>0.41261586017284935</v>
       </c>
     </row>
     <row r="51">
@@ -12008,10 +12008,10 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.91768390182095361</v>
+        <v>0.91991429143212122</v>
       </c>
       <c r="J52">
-        <v>0.082316098179046365</v>
+        <v>0.080085708567878916</v>
       </c>
       <c r="M52">
         <v>74</v>
@@ -12554,10 +12554,10 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.86699312885396462</v>
+        <v>0.86465191405476183</v>
       </c>
       <c r="O3">
-        <v>0.13300687114603538</v>
+        <v>0.13534808594523828</v>
       </c>
     </row>
     <row r="4">
@@ -12614,10 +12614,10 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.87364491121587251</v>
+        <v>0.87197214889481722</v>
       </c>
       <c r="O6">
-        <v>0.12635508878412757</v>
+        <v>0.12802785110518283</v>
       </c>
     </row>
     <row r="7">
@@ -12625,19 +12625,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.44265212296184242</v>
+        <v>0.44514516575613994</v>
       </c>
       <c r="J7">
-        <v>0.55734787703815758</v>
+        <v>0.55485483424386006</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.88385478868943168</v>
+        <v>0.88515081133162377</v>
       </c>
       <c r="O7">
-        <v>0.11614521131056832</v>
+        <v>0.11484918866837628</v>
       </c>
     </row>
     <row r="8">
@@ -12674,10 +12674,10 @@
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.88665878265423004</v>
+        <v>0.88655084955704333</v>
       </c>
       <c r="O9">
-        <v>0.11334121734577005</v>
+        <v>0.11344915044295659</v>
       </c>
     </row>
     <row r="10">
@@ -12694,10 +12694,10 @@
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.88803106932769416</v>
+        <v>0.8854127276897058</v>
       </c>
       <c r="O10">
-        <v>0.11196893067230589</v>
+        <v>0.11458727231029414</v>
       </c>
     </row>
     <row r="11">
@@ -12734,10 +12734,10 @@
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.87701437557388595</v>
+        <v>0.87652526255754759</v>
       </c>
       <c r="O12">
-        <v>0.12298562442611398</v>
+        <v>0.12347473744245238</v>
       </c>
     </row>
     <row r="13">
@@ -12745,19 +12745,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.52061869365595426</v>
+        <v>0.51546200535985875</v>
       </c>
       <c r="J13">
-        <v>0.47938130634404569</v>
+        <v>0.48453799464014119</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.85302764262532416</v>
+        <v>0.85501880306617639</v>
       </c>
       <c r="O13">
-        <v>0.14697235737467587</v>
+        <v>0.14498119693382355</v>
       </c>
     </row>
     <row r="14">
@@ -12765,19 +12765,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.54559372916466442</v>
+        <v>0.55594617073323938</v>
       </c>
       <c r="J14">
-        <v>0.45440627083533564</v>
+        <v>0.44405382926676057</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84248447748378941</v>
+        <v>0.84356167364873824</v>
       </c>
       <c r="O14">
-        <v>0.15751552251621062</v>
+        <v>0.15643832635126173</v>
       </c>
     </row>
     <row r="15">
@@ -12794,10 +12794,10 @@
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.82905572320150422</v>
+        <v>0.82560055362619766</v>
       </c>
       <c r="O15">
-        <v>0.1709442767984958</v>
+        <v>0.17439944637380228</v>
       </c>
     </row>
     <row r="16">
@@ -12814,10 +12814,10 @@
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.87051902921605306</v>
+        <v>0.86740643949676721</v>
       </c>
       <c r="O16">
-        <v>0.12948097078394699</v>
+        <v>0.13259356050323276</v>
       </c>
     </row>
     <row r="17">
@@ -12845,10 +12845,10 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.58242729216737577</v>
+        <v>0.58725022228887214</v>
       </c>
       <c r="J18">
-        <v>0.41757270783262418</v>
+        <v>0.41274977771112786</v>
       </c>
       <c r="M18">
         <v>40</v>
@@ -12874,10 +12874,10 @@
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.85765680135448163</v>
+        <v>0.85653275878490776</v>
       </c>
       <c r="O19">
-        <v>0.14234319864551845</v>
+        <v>0.14346724121509222</v>
       </c>
     </row>
     <row r="20">
@@ -12885,19 +12885,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.58913066155608118</v>
+        <v>0.58670826820428135</v>
       </c>
       <c r="J20">
-        <v>0.41086933844391887</v>
+        <v>0.41329173179571871</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.84734906335509386</v>
+        <v>0.84651538725342335</v>
       </c>
       <c r="O20">
-        <v>0.15265093664490614</v>
+        <v>0.15348461274657668</v>
       </c>
     </row>
     <row r="21">
@@ -12914,10 +12914,10 @@
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.83934266727027596</v>
+        <v>0.83721809247280332</v>
       </c>
       <c r="O21">
-        <v>0.16065733272972413</v>
+        <v>0.16278190752719671</v>
       </c>
     </row>
     <row r="22">
@@ -12934,10 +12934,10 @@
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.84788476629734366</v>
+        <v>0.84679979861213694</v>
       </c>
       <c r="O22">
-        <v>0.15211523370265634</v>
+        <v>0.15320020138786314</v>
       </c>
     </row>
     <row r="23">
@@ -12945,19 +12945,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.53444682750689865</v>
+        <v>0.53626478203070282</v>
       </c>
       <c r="J23">
-        <v>0.46555317249310141</v>
+        <v>0.46373521796929712</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.83263760083598093</v>
+        <v>0.83006957952579996</v>
       </c>
       <c r="O23">
-        <v>0.16736239916401902</v>
+        <v>0.16993042047420001</v>
       </c>
     </row>
     <row r="24">
@@ -12965,10 +12965,10 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.58313467960531118</v>
+        <v>0.5811462168408793</v>
       </c>
       <c r="J24">
-        <v>0.41686532039468871</v>
+        <v>0.41885378315912075</v>
       </c>
       <c r="M24">
         <v>46</v>
@@ -12985,19 +12985,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.6355663313830564</v>
+        <v>0.63215911468868258</v>
       </c>
       <c r="J25">
-        <v>0.36443366861694348</v>
+        <v>0.36784088531131737</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.82184600110449013</v>
+        <v>0.82262693317408542</v>
       </c>
       <c r="O25">
-        <v>0.17815399889550973</v>
+        <v>0.1773730668259145</v>
       </c>
     </row>
     <row r="26">
@@ -13005,19 +13005,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.59591771930964899</v>
+        <v>0.59766215378703913</v>
       </c>
       <c r="J26">
-        <v>0.40408228069035107</v>
+        <v>0.40233784621296098</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.84156394290679548</v>
+        <v>0.84288037205712074</v>
       </c>
       <c r="O26">
-        <v>0.15843605709320463</v>
+        <v>0.15711962794287923</v>
       </c>
     </row>
     <row r="27">
@@ -13025,19 +13025,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.62214587902509377</v>
+        <v>0.62091529961993486</v>
       </c>
       <c r="J27">
-        <v>0.37785412097490623</v>
+        <v>0.3790847003800652</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.8268061085261762</v>
+        <v>0.82449717961696178</v>
       </c>
       <c r="O27">
-        <v>0.17319389147382391</v>
+        <v>0.17550282038303824</v>
       </c>
     </row>
     <row r="28">
@@ -13045,19 +13045,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.62999769805519157</v>
+        <v>0.63168485317690592</v>
       </c>
       <c r="J28">
-        <v>0.37000230194480832</v>
+        <v>0.36831514682309396</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.8189818284361835</v>
+        <v>0.82007263043265921</v>
       </c>
       <c r="O28">
-        <v>0.18101817156381653</v>
+        <v>0.17992736956734082</v>
       </c>
     </row>
     <row r="29">
@@ -13074,10 +13074,10 @@
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.82983951581733884</v>
+        <v>0.82951115269213227</v>
       </c>
       <c r="O29">
-        <v>0.17016048418266111</v>
+        <v>0.17048884730786776</v>
       </c>
     </row>
     <row r="30">
@@ -13094,10 +13094,10 @@
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.82406499627205332</v>
+        <v>0.82470010408200911</v>
       </c>
       <c r="O30">
-        <v>0.17593500372794668</v>
+        <v>0.17529989591799083</v>
       </c>
     </row>
     <row r="31">
@@ -13114,10 +13114,10 @@
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.82873640720740605</v>
+        <v>0.82792606731910068</v>
       </c>
       <c r="O31">
-        <v>0.17126359279259404</v>
+        <v>0.17207393268089929</v>
       </c>
     </row>
     <row r="32">
@@ -13125,19 +13125,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.6700284691923013</v>
+        <v>0.66761729053744734</v>
       </c>
       <c r="J32">
-        <v>0.32997153080769875</v>
+        <v>0.33238270946255272</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.82417150241877157</v>
+        <v>0.82415752550564669</v>
       </c>
       <c r="O32">
-        <v>0.1758284975812284</v>
+        <v>0.17584247449435336</v>
       </c>
     </row>
     <row r="33">
@@ -13145,19 +13145,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.64138953777105778</v>
+        <v>0.63997631007734768</v>
       </c>
       <c r="J33">
-        <v>0.35861046222894211</v>
+        <v>0.36002368992265221</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.80802575731372217</v>
+        <v>0.80434049713238487</v>
       </c>
       <c r="O33">
-        <v>0.1919742426862778</v>
+        <v>0.19565950286761505</v>
       </c>
     </row>
     <row r="34">
@@ -13165,19 +13165,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69440105847622691</v>
+        <v>0.69405090082612242</v>
       </c>
       <c r="J34">
-        <v>0.30559894152377309</v>
+        <v>0.30594909917387758</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.80151694731543066</v>
+        <v>0.8000237290187272</v>
       </c>
       <c r="O34">
-        <v>0.19848305268456945</v>
+        <v>0.19997627098127282</v>
       </c>
     </row>
     <row r="35">
@@ -13185,19 +13185,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70336919319525315</v>
+        <v>0.70183883599981323</v>
       </c>
       <c r="J35">
-        <v>0.29663080680474685</v>
+        <v>0.29816116400018672</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.82112799931526192</v>
+        <v>0.81722524272881192</v>
       </c>
       <c r="O35">
-        <v>0.17887200068473808</v>
+        <v>0.18277475727118803</v>
       </c>
     </row>
     <row r="36">
@@ -13205,19 +13205,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.68031256526564643</v>
+        <v>0.68284897211910911</v>
       </c>
       <c r="J36">
-        <v>0.31968743473435351</v>
+        <v>0.31715102788089089</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.77885173121020035</v>
+        <v>0.77669871249879174</v>
       </c>
       <c r="O36">
-        <v>0.22114826878979973</v>
+        <v>0.22330128750120817</v>
       </c>
     </row>
     <row r="37">
@@ -13225,19 +13225,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.73141356557743264</v>
+        <v>0.72987609380477392</v>
       </c>
       <c r="J37">
-        <v>0.2685864344225673</v>
+        <v>0.27012390619522597</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.76846024175274075</v>
+        <v>0.76712299214629243</v>
       </c>
       <c r="O37">
-        <v>0.23153975824725925</v>
+        <v>0.23287700785370746</v>
       </c>
     </row>
     <row r="38">
@@ -13254,10 +13254,10 @@
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.78051069395061001</v>
+        <v>0.77910394702409402</v>
       </c>
       <c r="O38">
-        <v>0.21948930604938996</v>
+        <v>0.22089605297590589</v>
       </c>
     </row>
     <row r="39">
@@ -13265,10 +13265,10 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.7317034987112141</v>
+        <v>0.73344508760901372</v>
       </c>
       <c r="J39">
-        <v>0.26829650128878585</v>
+        <v>0.26655491239098628</v>
       </c>
       <c r="M39">
         <v>61</v>
@@ -13294,10 +13294,10 @@
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.77108266645552404</v>
+        <v>0.77257697762667987</v>
       </c>
       <c r="O40">
-        <v>0.22891733354447591</v>
+        <v>0.22742302237332013</v>
       </c>
     </row>
     <row r="41">
@@ -13314,10 +13314,10 @@
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.7709763433268948</v>
+        <v>0.77002986893493242</v>
       </c>
       <c r="O41">
-        <v>0.22902365667310517</v>
+        <v>0.22997013106506756</v>
       </c>
     </row>
     <row r="42">
@@ -13345,19 +13345,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.759791288370537</v>
+        <v>0.75760361869376958</v>
       </c>
       <c r="J43">
-        <v>0.24020871162946297</v>
+        <v>0.24239638130623034</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.77301501703213671</v>
+        <v>0.77035145791630621</v>
       </c>
       <c r="O43">
-        <v>0.22698498296786329</v>
+        <v>0.22964854208369379</v>
       </c>
     </row>
     <row r="44">
@@ -13365,19 +13365,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.79560585797785011</v>
+        <v>0.79654152104309695</v>
       </c>
       <c r="J44">
-        <v>0.20439414202214995</v>
+        <v>0.20345847895690303</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.75996328562199056</v>
+        <v>0.76096938621074306</v>
       </c>
       <c r="O44">
-        <v>0.2400367143780095</v>
+        <v>0.23903061378925694</v>
       </c>
     </row>
     <row r="45">
@@ -13405,19 +13405,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.75591855000401675</v>
+        <v>0.75365051969270103</v>
       </c>
       <c r="J46">
-        <v>0.24408144999598314</v>
+        <v>0.24634948030729897</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.76786313640230308</v>
+        <v>0.76851752659684769</v>
       </c>
       <c r="O46">
-        <v>0.23213686359769692</v>
+        <v>0.23148247340315231</v>
       </c>
     </row>
     <row r="47">
@@ -13425,19 +13425,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.79837884224998612</v>
+        <v>0.79677104449620351</v>
       </c>
       <c r="J47">
-        <v>0.20162115775001391</v>
+        <v>0.20322895550379649</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.74582069178516774</v>
+        <v>0.74807678773944408</v>
       </c>
       <c r="O47">
-        <v>0.25417930821483231</v>
+        <v>0.25192321226055592</v>
       </c>
     </row>
     <row r="48">
@@ -13445,19 +13445,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.79000550373861722</v>
+        <v>0.79002991746122142</v>
       </c>
       <c r="J48">
-        <v>0.2099944962613827</v>
+        <v>0.20997008253877855</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.74532252465430626</v>
+        <v>0.74538698605946796</v>
       </c>
       <c r="O48">
-        <v>0.25467747534569363</v>
+        <v>0.25461301394053198</v>
       </c>
     </row>
     <row r="49">
@@ -13465,19 +13465,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.78139122102167802</v>
+        <v>0.78400563537081258</v>
       </c>
       <c r="J49">
-        <v>0.21860877897832193</v>
+        <v>0.21599436462918739</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.73153670571948992</v>
+        <v>0.73393642872014087</v>
       </c>
       <c r="O49">
-        <v>0.26846329428051019</v>
+        <v>0.26606357127985919</v>
       </c>
     </row>
     <row r="50">
@@ -13514,10 +13514,10 @@
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.75214748896028449</v>
+        <v>0.75414025949001096</v>
       </c>
       <c r="O51">
-        <v>0.24785251103971559</v>
+        <v>0.24585974050998904</v>
       </c>
     </row>
     <row r="52">
@@ -13534,10 +13534,10 @@
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.66313376503872057</v>
+        <v>0.66235432322621912</v>
       </c>
       <c r="O52">
-        <v>0.33686623496127943</v>
+        <v>0.33764567677378088</v>
       </c>
     </row>
     <row r="53">
@@ -13545,19 +13545,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.84142826699080697</v>
+        <v>0.84055647142520151</v>
       </c>
       <c r="J53">
-        <v>0.15857173300919303</v>
+        <v>0.15944352857479849</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.67816761931415048</v>
+        <v>0.67540095963260927</v>
       </c>
       <c r="O53">
-        <v>0.32183238068584968</v>
+        <v>0.32459904036739085</v>
       </c>
     </row>
     <row r="54">

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13257" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13373" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13373" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13431" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>
@@ -691,31 +691,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.24576268061850029</v>
+        <v>0.24913470030625082</v>
       </c>
       <c r="C3">
-        <v>0.22831477230128516</v>
+        <v>0.22625953111749514</v>
       </c>
       <c r="D3">
-        <v>0.52592254708021446</v>
+        <v>0.52460576857625407</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.72442741702794999</v>
+        <v>0.73737911409071089</v>
       </c>
       <c r="J3">
-        <v>0.27557258297204984</v>
+        <v>0.26262088590928917</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.7151852146134251</v>
+        <v>0.73567057662705648</v>
       </c>
       <c r="O3">
-        <v>0.28481478538657495</v>
+        <v>0.26432942337294352</v>
       </c>
     </row>
     <row r="4">
@@ -723,31 +723,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.26585293317405329</v>
+        <v>0.2633412993263764</v>
       </c>
       <c r="C4">
-        <v>0.22742026474424892</v>
+        <v>0.22580879040011648</v>
       </c>
       <c r="D4">
-        <v>0.50672680208169774</v>
+        <v>0.51084991027350712</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.73473168410714906</v>
+        <v>0.72784155745545109</v>
       </c>
       <c r="J4">
-        <v>0.26526831589285094</v>
+        <v>0.27215844254454891</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.69925849207584601</v>
+        <v>0.71251150230038229</v>
       </c>
       <c r="O4">
-        <v>0.30074150792415399</v>
+        <v>0.28748849769961765</v>
       </c>
     </row>
     <row r="5">
@@ -755,31 +755,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.26707982379964162</v>
+        <v>0.25723706372217453</v>
       </c>
       <c r="C5">
-        <v>0.2155480485957697</v>
+        <v>0.22015235616121434</v>
       </c>
       <c r="D5">
-        <v>0.51737212760458873</v>
+        <v>0.5226105801166111</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.67337965410482448</v>
+        <v>0.66354432473053626</v>
       </c>
       <c r="J5">
-        <v>0.32662034589517552</v>
+        <v>0.33645567526946363</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.71539237017711899</v>
+        <v>0.72299722502602781</v>
       </c>
       <c r="O5">
-        <v>0.28460762982288096</v>
+        <v>0.27700277497397219</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.24134054564334587</v>
+        <v>0.23797225062750113</v>
       </c>
       <c r="C6">
-        <v>0.21548633903851722</v>
+        <v>0.21303652250255353</v>
       </c>
       <c r="D6">
-        <v>0.54317311531813683</v>
+        <v>0.54899122686994528</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.72544249704662966</v>
+        <v>0.7143013756483394</v>
       </c>
       <c r="J6">
-        <v>0.27455750295337039</v>
+        <v>0.28569862435166066</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.69023705577485295</v>
+        <v>0.69934603481944679</v>
       </c>
       <c r="O6">
-        <v>0.30976294422514694</v>
+        <v>0.3006539651805531</v>
       </c>
     </row>
     <row r="7">
@@ -819,31 +819,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.24468426435551824</v>
+        <v>0.24032841579863615</v>
       </c>
       <c r="C7">
-        <v>0.23953448969290733</v>
+        <v>0.23078250204832118</v>
       </c>
       <c r="D7">
-        <v>0.51578124595157437</v>
+        <v>0.52888908215304276</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.68892769065403292</v>
+        <v>0.6940657342833545</v>
       </c>
       <c r="J7">
-        <v>0.31107230934596708</v>
+        <v>0.30593426571664539</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.72524521553722732</v>
+        <v>0.7411909144363884</v>
       </c>
       <c r="O7">
-        <v>0.27475478446277257</v>
+        <v>0.2588090855636116</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.25114896154916699</v>
+        <v>0.23483640816488086</v>
       </c>
       <c r="C8">
-        <v>0.21121400723687372</v>
+        <v>0.21719716022045465</v>
       </c>
       <c r="D8">
-        <v>0.53763703121395934</v>
+        <v>0.54796643161466463</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.71273602425899274</v>
+        <v>0.71941379440690301</v>
       </c>
       <c r="J8">
-        <v>0.2872639757410072</v>
+        <v>0.2805862055930971</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.7114085688324896</v>
+        <v>0.73783317589799868</v>
       </c>
       <c r="O8">
-        <v>0.2885914311675104</v>
+        <v>0.26216682410200126</v>
       </c>
     </row>
     <row r="9">
@@ -883,31 +883,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.25392098437551863</v>
+        <v>0.25176790999694421</v>
       </c>
       <c r="C9">
-        <v>0.21046669053249384</v>
+        <v>0.19760728148341791</v>
       </c>
       <c r="D9">
-        <v>0.53561232509198753</v>
+        <v>0.5506248085196378</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.69614154762060287</v>
+        <v>0.6799930689731345</v>
       </c>
       <c r="J9">
-        <v>0.30385845237939718</v>
+        <v>0.32000693102686545</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.68238481788609517</v>
+        <v>0.70044615127591159</v>
       </c>
       <c r="O9">
-        <v>0.31761518211390477</v>
+        <v>0.29955384872408836</v>
       </c>
     </row>
     <row r="10">
@@ -915,31 +915,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.23134328513144298</v>
+        <v>0.22148521269369803</v>
       </c>
       <c r="C10">
-        <v>0.24539353890189425</v>
+        <v>0.23736044069161477</v>
       </c>
       <c r="D10">
-        <v>0.52326317596666272</v>
+        <v>0.5411543466146872</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.72700682906954439</v>
+        <v>0.7235453439208489</v>
       </c>
       <c r="J10">
-        <v>0.27299317093045566</v>
+        <v>0.27645465607915104</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.69948756819097757</v>
+        <v>0.70219410447366593</v>
       </c>
       <c r="O10">
-        <v>0.30051243180902243</v>
+        <v>0.29780589552633413</v>
       </c>
     </row>
     <row r="11">
@@ -947,31 +947,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.23957721021200248</v>
+        <v>0.23827956458983979</v>
       </c>
       <c r="C11">
-        <v>0.23942604643278537</v>
+        <v>0.23095445486431104</v>
       </c>
       <c r="D11">
-        <v>0.52099674335521229</v>
+        <v>0.53076598054584911</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.67096573463806797</v>
+        <v>0.68076015170623827</v>
       </c>
       <c r="J11">
-        <v>0.32903426536193203</v>
+        <v>0.31923984829376179</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.73755598821166179</v>
+        <v>0.74901885154364944</v>
       </c>
       <c r="O11">
-        <v>0.26244401178833832</v>
+        <v>0.25098114845635067</v>
       </c>
     </row>
     <row r="12">
@@ -979,31 +979,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.21730397912879348</v>
+        <v>0.21527211968866419</v>
       </c>
       <c r="C12">
-        <v>0.22961532653283584</v>
+        <v>0.22720192409811121</v>
       </c>
       <c r="D12">
-        <v>0.5530806943383707</v>
+        <v>0.55752595621322465</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.71876482670339437</v>
+        <v>0.71456745727976978</v>
       </c>
       <c r="J12">
-        <v>0.28123517329660558</v>
+        <v>0.28543254272023022</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.73376174050304532</v>
+        <v>0.7280881991768412</v>
       </c>
       <c r="O12">
-        <v>0.26623825949695462</v>
+        <v>0.27191180082315891</v>
       </c>
     </row>
     <row r="13">
@@ -1011,31 +1011,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.22321734360257342</v>
+        <v>0.22052638902332569</v>
       </c>
       <c r="C13">
-        <v>0.23372082739423658</v>
+        <v>0.23916233936819481</v>
       </c>
       <c r="D13">
-        <v>0.54306182900319</v>
+        <v>0.54031127160847958</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.71304678457308912</v>
+        <v>0.70447161662636826</v>
       </c>
       <c r="J13">
-        <v>0.28695321542691077</v>
+        <v>0.29552838337363174</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.73496825807196342</v>
+        <v>0.75142002912034622</v>
       </c>
       <c r="O13">
-        <v>0.26503174192803658</v>
+        <v>0.24857997087965375</v>
       </c>
     </row>
     <row r="14">
@@ -1043,31 +1043,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.21056151946029059</v>
+        <v>0.2109032810944392</v>
       </c>
       <c r="C14">
-        <v>0.22862557734601113</v>
+        <v>0.21860210587288834</v>
       </c>
       <c r="D14">
-        <v>0.56081290319369825</v>
+        <v>0.57049461303267246</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.70975810526048855</v>
+        <v>0.70560380322261029</v>
       </c>
       <c r="J14">
-        <v>0.29024189473951134</v>
+        <v>0.2943961967773896</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.72560248338622613</v>
+        <v>0.72611902193167177</v>
       </c>
       <c r="O14">
-        <v>0.27439751661377398</v>
+        <v>0.27388097806832817</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.22886091783368373</v>
+        <v>0.22898051900861724</v>
       </c>
       <c r="C15">
-        <v>0.22692589233933685</v>
+        <v>0.22412539254154962</v>
       </c>
       <c r="D15">
-        <v>0.54421318982697953</v>
+        <v>0.54689408844983323</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.70495129750941588</v>
+        <v>0.71665678788324538</v>
       </c>
       <c r="J15">
-        <v>0.29504870249058407</v>
+        <v>0.28334321211675456</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.73206559227409929</v>
+        <v>0.73376936967221817</v>
       </c>
       <c r="O15">
-        <v>0.26793440772590071</v>
+        <v>0.26623063032778183</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.21988636141192694</v>
+        <v>0.22637137691684567</v>
       </c>
       <c r="C16">
-        <v>0.24094026491500975</v>
+        <v>0.22914218905190659</v>
       </c>
       <c r="D16">
-        <v>0.53917337367306328</v>
+        <v>0.54448643403124786</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.69894968473378949</v>
+        <v>0.71280133927079214</v>
       </c>
       <c r="J16">
-        <v>0.30105031526621062</v>
+        <v>0.28719866072920786</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.73235568346728852</v>
+        <v>0.73636641093245492</v>
       </c>
       <c r="O16">
-        <v>0.26764431653271148</v>
+        <v>0.26363358906754519</v>
       </c>
     </row>
     <row r="17">
@@ -1139,31 +1139,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.23259572118822841</v>
+        <v>0.23636829524099687</v>
       </c>
       <c r="C17">
-        <v>0.22238802332105784</v>
+        <v>0.21545428155815088</v>
       </c>
       <c r="D17">
-        <v>0.54501625549071375</v>
+        <v>0.54817742320085228</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.70483751410358297</v>
+        <v>0.71912458064572049</v>
       </c>
       <c r="J17">
-        <v>0.29516248589641708</v>
+        <v>0.28087541935427962</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.7415035338092234</v>
+        <v>0.75745211219174213</v>
       </c>
       <c r="O17">
-        <v>0.25849646619077665</v>
+        <v>0.24254788780825795</v>
       </c>
     </row>
     <row r="18">
@@ -1171,31 +1171,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.22688445835926965</v>
+        <v>0.22383618304968489</v>
       </c>
       <c r="C18">
-        <v>0.22108739637199984</v>
+        <v>0.22233054360599872</v>
       </c>
       <c r="D18">
-        <v>0.55202814526873045</v>
+        <v>0.55383327334431642</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.70746278589619183</v>
+        <v>0.70760023896483359</v>
       </c>
       <c r="J18">
-        <v>0.29253721410380817</v>
+        <v>0.29239976103516641</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.75631086472446463</v>
+        <v>0.76618262710075302</v>
       </c>
       <c r="O18">
-        <v>0.24368913527553543</v>
+        <v>0.23381737289924695</v>
       </c>
     </row>
     <row r="19">
@@ -1203,31 +1203,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.20951349971789374</v>
+        <v>0.21463828302567162</v>
       </c>
       <c r="C19">
-        <v>0.22638776029511962</v>
+        <v>0.21727088095950645</v>
       </c>
       <c r="D19">
-        <v>0.56409873998698656</v>
+        <v>0.56809083601482191</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.71949893389021857</v>
+        <v>0.71798867210931394</v>
       </c>
       <c r="J19">
-        <v>0.28050106610978143</v>
+        <v>0.28201132789068611</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.75726620027317748</v>
+        <v>0.76506444231759807</v>
       </c>
       <c r="O19">
-        <v>0.24273379972682252</v>
+        <v>0.23493555768240187</v>
       </c>
     </row>
     <row r="20">
@@ -1235,31 +1235,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.21557083396891893</v>
+        <v>0.21047713323542333</v>
       </c>
       <c r="C20">
-        <v>0.21459229418267617</v>
+        <v>0.21208259917533756</v>
       </c>
       <c r="D20">
-        <v>0.56983687184840481</v>
+        <v>0.57744026758923905</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.690142950261595</v>
+        <v>0.68117594743787635</v>
       </c>
       <c r="J20">
-        <v>0.30985704973840494</v>
+        <v>0.31882405256212365</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.75343295113682496</v>
+        <v>0.76506017685100192</v>
       </c>
       <c r="O20">
-        <v>0.24656704886317499</v>
+        <v>0.23493982314899811</v>
       </c>
     </row>
     <row r="21">
@@ -1267,31 +1267,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.21375930867258466</v>
+        <v>0.21187409038847024</v>
       </c>
       <c r="C21">
-        <v>0.21401266522542692</v>
+        <v>0.20482282622774611</v>
       </c>
       <c r="D21">
-        <v>0.57222802610198842</v>
+        <v>0.58330308338378378</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.68164531884236657</v>
+        <v>0.68530509239152348</v>
       </c>
       <c r="J21">
-        <v>0.31835468115763338</v>
+        <v>0.31469490760847657</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.77028935715331925</v>
+        <v>0.78530736767620712</v>
       </c>
       <c r="O21">
-        <v>0.22971064284668072</v>
+        <v>0.21469263232379296</v>
       </c>
     </row>
     <row r="22">
@@ -1299,31 +1299,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.20684056153463001</v>
+        <v>0.20330909880438083</v>
       </c>
       <c r="C22">
-        <v>0.20930449154605826</v>
+        <v>0.20676830205957375</v>
       </c>
       <c r="D22">
-        <v>0.58385494691931172</v>
+        <v>0.58992259913604539</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.68934115412562014</v>
+        <v>0.70079355631028906</v>
       </c>
       <c r="J22">
-        <v>0.31065884587437986</v>
+        <v>0.29920644368971094</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.76567485786534706</v>
+        <v>0.76914542518957252</v>
       </c>
       <c r="O22">
-        <v>0.23432514213465294</v>
+        <v>0.23085457481042754</v>
       </c>
     </row>
     <row r="23">
@@ -1331,31 +1331,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.20946181696843447</v>
+        <v>0.21914978502488822</v>
       </c>
       <c r="C23">
-        <v>0.21073679211821086</v>
+        <v>0.2035685108237254</v>
       </c>
       <c r="D23">
-        <v>0.5798013909133547</v>
+        <v>0.57728170415138647</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.70086995383167061</v>
+        <v>0.70600754484996608</v>
       </c>
       <c r="J23">
-        <v>0.29913004616832933</v>
+        <v>0.29399245515003392</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75880868154322167</v>
+        <v>0.7517803624502859</v>
       </c>
       <c r="O23">
-        <v>0.24119131845677835</v>
+        <v>0.24821963754971413</v>
       </c>
     </row>
     <row r="24">
@@ -1363,31 +1363,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.20921569613980961</v>
+        <v>0.2097989164632828</v>
       </c>
       <c r="C24">
-        <v>0.21912378894803897</v>
+        <v>0.22472029826468159</v>
       </c>
       <c r="D24">
-        <v>0.57166051491215153</v>
+        <v>0.5654807852720356</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.69616500012925042</v>
+        <v>0.70487351146960164</v>
       </c>
       <c r="J24">
-        <v>0.30383499987074969</v>
+        <v>0.29512648853039836</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.75956200110022909</v>
+        <v>0.7735594920877279</v>
       </c>
       <c r="O24">
-        <v>0.24043799889977097</v>
+        <v>0.22644050791227222</v>
       </c>
     </row>
     <row r="25">
@@ -1395,31 +1395,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.20754363981965235</v>
+        <v>0.20967361522941619</v>
       </c>
       <c r="C25">
-        <v>0.21507055405660636</v>
+        <v>0.21569792201547547</v>
       </c>
       <c r="D25">
-        <v>0.57738580612374124</v>
+        <v>0.57462846275510826</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.6357631829864534</v>
+        <v>0.64631596768137511</v>
       </c>
       <c r="J25">
-        <v>0.36423681701354654</v>
+        <v>0.35368403231862483</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.75157988842150825</v>
+        <v>0.7453615281436774</v>
       </c>
       <c r="O25">
-        <v>0.2484201115784917</v>
+        <v>0.2546384718563226</v>
       </c>
     </row>
     <row r="26">
@@ -1427,31 +1427,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.21137304301262602</v>
+        <v>0.21410222604702669</v>
       </c>
       <c r="C26">
-        <v>0.20015753441683731</v>
+        <v>0.20078020775954769</v>
       </c>
       <c r="D26">
-        <v>0.58846942257053669</v>
+        <v>0.58511756619342559</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.6706435937764722</v>
+        <v>0.6907984171611915</v>
       </c>
       <c r="J26">
-        <v>0.32935640622352774</v>
+        <v>0.30920158283880855</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.75583792419749873</v>
+        <v>0.75559801840854446</v>
       </c>
       <c r="O26">
-        <v>0.24416207580250127</v>
+        <v>0.24440198159145565</v>
       </c>
     </row>
     <row r="27">
@@ -1459,31 +1459,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.21525125121276956</v>
+        <v>0.21508840215155348</v>
       </c>
       <c r="C27">
-        <v>0.20559726169900416</v>
+        <v>0.21207514474140687</v>
       </c>
       <c r="D27">
-        <v>0.57915148708822628</v>
+        <v>0.57283645310703957</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.66622047689916297</v>
+        <v>0.68743065281935645</v>
       </c>
       <c r="J27">
-        <v>0.33377952310083708</v>
+        <v>0.3125693471806435</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.78414440619455272</v>
+        <v>0.78718105183971321</v>
       </c>
       <c r="O27">
-        <v>0.2158555938054473</v>
+        <v>0.21281894816028674</v>
       </c>
     </row>
     <row r="28">
@@ -1491,31 +1491,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.20438978635910382</v>
+        <v>0.20647504534282132</v>
       </c>
       <c r="C28">
-        <v>0.20446591270756273</v>
+        <v>0.213586936440436</v>
       </c>
       <c r="D28">
-        <v>0.59114430093333337</v>
+        <v>0.57993801821674262</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.68687264714813201</v>
+        <v>0.70050982510135551</v>
       </c>
       <c r="J28">
-        <v>0.31312735285186799</v>
+        <v>0.29949017489864443</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.76517177425771687</v>
+        <v>0.77018302534257788</v>
       </c>
       <c r="O28">
-        <v>0.2348282257422831</v>
+        <v>0.2298169746574221</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20994674570370286</v>
+        <v>0.21074012724404934</v>
       </c>
       <c r="C29">
-        <v>0.20511875865753137</v>
+        <v>0.20942084935530028</v>
       </c>
       <c r="D29">
-        <v>0.58493449563876576</v>
+        <v>0.57983902340065041</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.70000333915401514</v>
+        <v>0.7159367198132135</v>
       </c>
       <c r="J29">
-        <v>0.29999666084598486</v>
+        <v>0.2840632801867865</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.78885270098848448</v>
+        <v>0.78973288432713273</v>
       </c>
       <c r="O29">
-        <v>0.21114729901151549</v>
+        <v>0.21026711567286732</v>
       </c>
     </row>
     <row r="30">
@@ -1555,31 +1555,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.21474326298556196</v>
+        <v>0.22611263838799253</v>
       </c>
       <c r="C30">
-        <v>0.19787586128357759</v>
+        <v>0.20026060020929218</v>
       </c>
       <c r="D30">
-        <v>0.5873808757308604</v>
+        <v>0.57362676140271529</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.66349504619858302</v>
+        <v>0.69225623706577588</v>
       </c>
       <c r="J30">
-        <v>0.33650495380141687</v>
+        <v>0.30774376293422417</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.77527885086098092</v>
+        <v>0.76421247122100622</v>
       </c>
       <c r="O30">
-        <v>0.22472114913901914</v>
+        <v>0.23578752877899378</v>
       </c>
     </row>
     <row r="31">
@@ -1587,31 +1587,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.21833200831616212</v>
+        <v>0.22669706962370509</v>
       </c>
       <c r="C31">
-        <v>0.1842901584159049</v>
+        <v>0.19678805561106091</v>
       </c>
       <c r="D31">
-        <v>0.59737783326793292</v>
+        <v>0.57651487476523389</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.69726140587947927</v>
+        <v>0.70987833680103496</v>
       </c>
       <c r="J31">
-        <v>0.30273859412052073</v>
+        <v>0.29012166319896504</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78464796730334019</v>
+        <v>0.78040072924601966</v>
       </c>
       <c r="O31">
-        <v>0.21535203269665976</v>
+        <v>0.21959927075398031</v>
       </c>
     </row>
     <row r="32">
@@ -1619,31 +1619,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21290779445192912</v>
+        <v>0.22442753738590945</v>
       </c>
       <c r="C32">
-        <v>0.18997505187940256</v>
+        <v>0.19341278829822051</v>
       </c>
       <c r="D32">
-        <v>0.59711715366866847</v>
+        <v>0.58215967431587012</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.71718889416075504</v>
+        <v>0.72395526953490741</v>
       </c>
       <c r="J32">
-        <v>0.28281110583924496</v>
+        <v>0.27604473046509254</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.76778031031445582</v>
+        <v>0.76743124560639664</v>
       </c>
       <c r="O32">
-        <v>0.23221968968554405</v>
+        <v>0.23256875439360339</v>
       </c>
     </row>
     <row r="33">
@@ -1651,31 +1651,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.21216431517238768</v>
+        <v>0.21885180865523809</v>
       </c>
       <c r="C33">
-        <v>0.20495732516009649</v>
+        <v>0.20698195401865163</v>
       </c>
       <c r="D33">
-        <v>0.58287835966751578</v>
+        <v>0.57416623732611027</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.69327660286972248</v>
+        <v>0.72300665193208091</v>
       </c>
       <c r="J33">
-        <v>0.30672339713027752</v>
+        <v>0.27699334806791909</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.7853620631910756</v>
+        <v>0.77880567457260974</v>
       </c>
       <c r="O33">
-        <v>0.21463793680892446</v>
+        <v>0.22119432542739023</v>
       </c>
     </row>
     <row r="34">
@@ -1683,31 +1683,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.20584328942312294</v>
+        <v>0.21415239073329473</v>
       </c>
       <c r="C34">
-        <v>0.19905793376739722</v>
+        <v>0.20840512532842531</v>
       </c>
       <c r="D34">
-        <v>0.59509877680947987</v>
+        <v>0.57744248393828002</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69220904539908334</v>
+        <v>0.69532984751636051</v>
       </c>
       <c r="J34">
-        <v>0.30779095460091666</v>
+        <v>0.30467015248363938</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78011286938523228</v>
+        <v>0.77731448266765102</v>
       </c>
       <c r="O34">
-        <v>0.21988713061476767</v>
+        <v>0.22268551733234893</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.21356646995747433</v>
+        <v>0.22322172904709234</v>
       </c>
       <c r="C35">
-        <v>0.19633244179878495</v>
+        <v>0.19960407778879974</v>
       </c>
       <c r="D35">
-        <v>0.59010108824374063</v>
+        <v>0.5771741931641079</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.6828452809644755</v>
+        <v>0.70974928998068221</v>
       </c>
       <c r="J35">
-        <v>0.31715471903552445</v>
+        <v>0.29025071001931779</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.81007160308825188</v>
+        <v>0.80160931930451884</v>
       </c>
       <c r="O35">
-        <v>0.18992839691174812</v>
+        <v>0.19839068069548127</v>
       </c>
     </row>
     <row r="36">
@@ -1747,31 +1747,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.20733920376665202</v>
+        <v>0.21709354934219863</v>
       </c>
       <c r="C36">
-        <v>0.17993952348055764</v>
+        <v>0.19167398250809259</v>
       </c>
       <c r="D36">
-        <v>0.61272127275279042</v>
+        <v>0.59123246814970865</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.6712123130139509</v>
+        <v>0.67861457875723608</v>
       </c>
       <c r="J36">
-        <v>0.3287876869860491</v>
+        <v>0.32138542124276387</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.80427156548170797</v>
+        <v>0.80954002864805974</v>
       </c>
       <c r="O36">
-        <v>0.19572843451829208</v>
+        <v>0.19045997135194026</v>
       </c>
     </row>
     <row r="37">
@@ -1779,31 +1779,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.19610879040178333</v>
+        <v>0.20885157473181473</v>
       </c>
       <c r="C37">
-        <v>0.18471374980056302</v>
+        <v>0.18279657538599575</v>
       </c>
       <c r="D37">
-        <v>0.61917745979765371</v>
+        <v>0.60835184988218949</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.69813864102959378</v>
+        <v>0.70828509441130372</v>
       </c>
       <c r="J37">
-        <v>0.30186135897040622</v>
+        <v>0.29171490558869628</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.80081090749045802</v>
+        <v>0.79988650224370816</v>
       </c>
       <c r="O37">
-        <v>0.19918909250954195</v>
+        <v>0.20011349775629175</v>
       </c>
     </row>
     <row r="38">
@@ -1811,31 +1811,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.19196058102374031</v>
+        <v>0.19765423695987466</v>
       </c>
       <c r="C38">
-        <v>0.18528968625809691</v>
+        <v>0.1840250106418499</v>
       </c>
       <c r="D38">
-        <v>0.62274973271816281</v>
+        <v>0.61832075239827555</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.66278436023672793</v>
+        <v>0.67463607044714147</v>
       </c>
       <c r="J38">
-        <v>0.33721563976327207</v>
+        <v>0.32536392955285853</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.82961502295501421</v>
+        <v>0.82880930328061386</v>
       </c>
       <c r="O38">
-        <v>0.17038497704498576</v>
+        <v>0.17119069671938619</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1843,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.18401259535226308</v>
+        <v>0.19237883400207589</v>
       </c>
       <c r="C39">
-        <v>0.16040279825795559</v>
+        <v>0.16392891338949978</v>
       </c>
       <c r="D39">
-        <v>0.65558460638978122</v>
+        <v>0.64369225260842444</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.65657294457882653</v>
+        <v>0.67627905289364509</v>
       </c>
       <c r="J39">
-        <v>0.34342705542117341</v>
+        <v>0.32372094710635496</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.81552066742538243</v>
+        <v>0.82476868056443997</v>
       </c>
       <c r="O39">
-        <v>0.18447933257461749</v>
+        <v>0.17523131943556</v>
       </c>
     </row>
     <row r="40">
@@ -1875,31 +1875,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.16109766408906329</v>
+        <v>0.1677174608168473</v>
       </c>
       <c r="C40">
-        <v>0.16949567574457255</v>
+        <v>0.16943037417361992</v>
       </c>
       <c r="D40">
-        <v>0.66940666016636419</v>
+        <v>0.66285216500953292</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.66164030527840112</v>
+        <v>0.66320970410110225</v>
       </c>
       <c r="J40">
-        <v>0.33835969472159888</v>
+        <v>0.33679029589889764</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.83540905251537345</v>
+        <v>0.84128215486550351</v>
       </c>
       <c r="O40">
-        <v>0.16459094748462652</v>
+        <v>0.15871784513449649</v>
       </c>
     </row>
     <row r="41">
@@ -1907,31 +1907,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.15660985067552435</v>
+        <v>0.15848294796085036</v>
       </c>
       <c r="C41">
-        <v>0.16745861706983306</v>
+        <v>0.16553448277715616</v>
       </c>
       <c r="D41">
-        <v>0.67593153225464253</v>
+        <v>0.6759825692619934</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.66833142865616979</v>
+        <v>0.66911557787808917</v>
       </c>
       <c r="J41">
-        <v>0.33166857134383015</v>
+        <v>0.33088442212191077</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.83879417540277823</v>
+        <v>0.83984245841708793</v>
       </c>
       <c r="O41">
-        <v>0.16120582459722169</v>
+        <v>0.16015754158291207</v>
       </c>
     </row>
     <row r="42">
@@ -1939,31 +1939,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.14470312950813149</v>
+        <v>0.1439968991453984</v>
       </c>
       <c r="C42">
-        <v>0.16469224803288049</v>
+        <v>0.16719793370557676</v>
       </c>
       <c r="D42">
-        <v>0.69060462245898802</v>
+        <v>0.68880516714902484</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.61563329568591341</v>
+        <v>0.63286932050041711</v>
       </c>
       <c r="J42">
-        <v>0.38436670431408665</v>
+        <v>0.36713067949958278</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.85475883761848781</v>
+        <v>0.85212871386015543</v>
       </c>
       <c r="O42">
-        <v>0.14524116238151222</v>
+        <v>0.14787128613984465</v>
       </c>
     </row>
     <row r="43">
@@ -1971,31 +1971,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.12945943896870837</v>
+        <v>0.13267675441427806</v>
       </c>
       <c r="C43">
-        <v>0.15417808124874305</v>
+        <v>0.16084632197173956</v>
       </c>
       <c r="D43">
-        <v>0.71636247978254863</v>
+        <v>0.70647692361398229</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.60350670690704156</v>
+        <v>0.60941951980318232</v>
       </c>
       <c r="J43">
-        <v>0.39649329309295839</v>
+        <v>0.39058048019681757</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.8424037753543705</v>
+        <v>0.84985379577104103</v>
       </c>
       <c r="O43">
-        <v>0.15759622464562947</v>
+        <v>0.15014620422895886</v>
       </c>
     </row>
     <row r="44">
@@ -2003,31 +2003,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.12609122893656907</v>
+        <v>0.12588400898553501</v>
       </c>
       <c r="C44">
-        <v>0.15481450617907444</v>
+        <v>0.15504183112810699</v>
       </c>
       <c r="D44">
-        <v>0.71909426488435646</v>
+        <v>0.71907415988635803</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.64120232264179189</v>
+        <v>0.65471310126461235</v>
       </c>
       <c r="J44">
-        <v>0.35879767735820811</v>
+        <v>0.34528689873538754</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.85399493152306571</v>
+        <v>0.84843174517906317</v>
       </c>
       <c r="O44">
-        <v>0.14600506847693431</v>
+        <v>0.1515682548209368</v>
       </c>
     </row>
     <row r="45">
@@ -2035,31 +2035,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.12196634955447096</v>
+        <v>0.12510662643677653</v>
       </c>
       <c r="C45">
-        <v>0.15798271256583724</v>
+        <v>0.15809466375911316</v>
       </c>
       <c r="D45">
-        <v>0.72005093787969188</v>
+        <v>0.7167987098041102</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.60796955655729401</v>
+        <v>0.6034423311886381</v>
       </c>
       <c r="J45">
-        <v>0.39203044344270593</v>
+        <v>0.3965576688113619</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.85252403352439587</v>
+        <v>0.85473505933327609</v>
       </c>
       <c r="O45">
-        <v>0.14747596647560415</v>
+        <v>0.14526494066672399</v>
       </c>
     </row>
     <row r="46">
@@ -2067,31 +2067,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.11967733025391281</v>
+        <v>0.12184982303936301</v>
       </c>
       <c r="C46">
-        <v>0.15286574848268153</v>
+        <v>0.1525114133509341</v>
       </c>
       <c r="D46">
-        <v>0.72745692126340566</v>
+        <v>0.72563876360970292</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.56597793933265461</v>
+        <v>0.56101139226763508</v>
       </c>
       <c r="J46">
-        <v>0.43402206066734539</v>
+        <v>0.43898860773236492</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.85415508615500291</v>
+        <v>0.85177652953625693</v>
       </c>
       <c r="O46">
-        <v>0.14584491384499715</v>
+        <v>0.14822347046374315</v>
       </c>
     </row>
     <row r="47">
@@ -2099,31 +2099,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.11020178361795131</v>
+        <v>0.11068562395981653</v>
       </c>
       <c r="C47">
-        <v>0.15131625039476024</v>
+        <v>0.15168138577680879</v>
       </c>
       <c r="D47">
-        <v>0.73848196598728844</v>
+        <v>0.73763299026337481</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.60647350668697819</v>
+        <v>0.61488791360986028</v>
       </c>
       <c r="J47">
-        <v>0.39352649331302175</v>
+        <v>0.38511208639013966</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.82514960217304645</v>
+        <v>0.82522223225973301</v>
       </c>
       <c r="O47">
-        <v>0.17485039782695355</v>
+        <v>0.17477776774026701</v>
       </c>
     </row>
     <row r="48">
@@ -2131,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.12941958630562339</v>
+        <v>0.12734517957057231</v>
       </c>
       <c r="C48">
-        <v>0.15722639245133693</v>
+        <v>0.15878044271144676</v>
       </c>
       <c r="D48">
-        <v>0.71335402124303959</v>
+        <v>0.71387437771798101</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.57709872560529218</v>
+        <v>0.5918420245501228</v>
       </c>
       <c r="J48">
-        <v>0.42290127439470782</v>
+        <v>0.4081579754498772</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.84370679624589473</v>
+        <v>0.84522376392020415</v>
       </c>
       <c r="O48">
-        <v>0.15629320375410538</v>
+        <v>0.1547762360797959</v>
       </c>
     </row>
     <row r="49">
@@ -2163,31 +2163,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.11187282767238914</v>
+        <v>0.11161579913825422</v>
       </c>
       <c r="C49">
-        <v>0.16816681156850116</v>
+        <v>0.17074755667941904</v>
       </c>
       <c r="D49">
-        <v>0.71996036075910963</v>
+        <v>0.71763664418232676</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.59962001177131585</v>
+        <v>0.60862509671822163</v>
       </c>
       <c r="J49">
-        <v>0.40037998822868415</v>
+        <v>0.39137490328177849</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.83257412541981368</v>
+        <v>0.83469700717959394</v>
       </c>
       <c r="O49">
-        <v>0.16742587458018626</v>
+        <v>0.16530299282040603</v>
       </c>
     </row>
     <row r="50">
@@ -2195,31 +2195,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.12004005006332943</v>
+        <v>0.11963968908779522</v>
       </c>
       <c r="C50">
-        <v>0.16973082558884484</v>
+        <v>0.17007287931642578</v>
       </c>
       <c r="D50">
-        <v>0.7102291243478257</v>
+        <v>0.71028743159577901</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.56502027877104344</v>
+        <v>0.56848859168038524</v>
       </c>
       <c r="J50">
-        <v>0.43497972122895656</v>
+        <v>0.43151140831961471</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.82266737644945254</v>
+        <v>0.82278696659633721</v>
       </c>
       <c r="O50">
-        <v>0.17733262355054757</v>
+        <v>0.17721303340366268</v>
       </c>
     </row>
     <row r="51">
@@ -2227,31 +2227,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.12657891563539922</v>
+        <v>0.12603634786681783</v>
       </c>
       <c r="C51">
-        <v>0.15985498751358268</v>
+        <v>0.16107183353091037</v>
       </c>
       <c r="D51">
-        <v>0.71356609685101813</v>
+        <v>0.71289181860227169</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.57793395559518734</v>
+        <v>0.57072016552372584</v>
       </c>
       <c r="J51">
-        <v>0.42206604440481255</v>
+        <v>0.42927983447627421</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.82221118259149073</v>
+        <v>0.82248758561613067</v>
       </c>
       <c r="O51">
-        <v>0.17778881740850935</v>
+        <v>0.17751241438386942</v>
       </c>
     </row>
     <row r="52">
@@ -2259,31 +2259,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.12336041707456813</v>
+        <v>0.12159481460154613</v>
       </c>
       <c r="C52">
-        <v>0.15920708948221857</v>
+        <v>0.15991487553050376</v>
       </c>
       <c r="D52">
-        <v>0.71743249344321336</v>
+        <v>0.71849030986795004</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.56360620612786339</v>
+        <v>0.55617528203021505</v>
       </c>
       <c r="J52">
-        <v>0.4363937938721365</v>
+        <v>0.44382471796978501</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.84412431758661743</v>
+        <v>0.84318493279065498</v>
       </c>
       <c r="O52">
-        <v>0.15587568241338254</v>
+        <v>0.15681506720934504</v>
       </c>
     </row>
     <row r="53">
@@ -2291,31 +2291,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.11834421285562992</v>
+        <v>0.11685145909115899</v>
       </c>
       <c r="C53">
-        <v>0.16821256302405194</v>
+        <v>0.16934333395169465</v>
       </c>
       <c r="D53">
-        <v>0.71344322412031813</v>
+        <v>0.71380520695714633</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.60478971250796987</v>
+        <v>0.59913034565592638</v>
       </c>
       <c r="J53">
-        <v>0.39521028749203019</v>
+        <v>0.40086965434407362</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.81816077856670377</v>
+        <v>0.82188673924551214</v>
       </c>
       <c r="O53">
-        <v>0.1818392214332962</v>
+        <v>0.17811326075448791</v>
       </c>
     </row>
     <row r="54">
@@ -2323,13 +2323,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.11553902879533187</v>
+        <v>0.11060040138881272</v>
       </c>
       <c r="C54">
-        <v>0.17656766275199148</v>
+        <v>0.1777943705617932</v>
       </c>
       <c r="D54">
-        <v>0.70789330845267662</v>
+        <v>0.71160522804939419</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -5305,19 +5305,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.82985673282230299</v>
+        <v>0.80827848390929102</v>
       </c>
       <c r="J3">
-        <v>0.17014326717769696</v>
+        <v>0.191721516090709</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.60242033358682212</v>
+        <v>0.64205243551221014</v>
       </c>
       <c r="O3">
-        <v>0.39757966641317788</v>
+        <v>0.35794756448778986</v>
       </c>
     </row>
     <row r="4">
@@ -5325,19 +5325,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.82897436830007787</v>
+        <v>0.81655451332016549</v>
       </c>
       <c r="J4">
-        <v>0.17102563169992213</v>
+        <v>0.18344548667983451</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.67423886099997865</v>
+        <v>0.68828909438426467</v>
       </c>
       <c r="O4">
-        <v>0.3257611390000214</v>
+        <v>0.31171090561573533</v>
       </c>
     </row>
     <row r="5">
@@ -5345,19 +5345,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.75519633515575413</v>
+        <v>0.76350979294445598</v>
       </c>
       <c r="J5">
-        <v>0.24480366484424584</v>
+        <v>0.23649020705554405</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.69223805495766977</v>
+        <v>0.71561672511195018</v>
       </c>
       <c r="O5">
-        <v>0.30776194504233023</v>
+        <v>0.28438327488804988</v>
       </c>
     </row>
     <row r="6">
@@ -5365,19 +5365,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.82048904567115266</v>
+        <v>0.81563003613373586</v>
       </c>
       <c r="J6">
-        <v>0.17951095432884731</v>
+        <v>0.18436996386626414</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.57300789850885048</v>
+        <v>0.55022495312961817</v>
       </c>
       <c r="O6">
-        <v>0.42699210149114941</v>
+        <v>0.44977504687038178</v>
       </c>
     </row>
     <row r="7">
@@ -5385,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.79238310677005375</v>
+        <v>0.77760547678839564</v>
       </c>
       <c r="J7">
-        <v>0.20761689322994628</v>
+        <v>0.22239452321160427</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.67945236460617353</v>
+        <v>0.67920565748520134</v>
       </c>
       <c r="O7">
-        <v>0.32054763539382652</v>
+        <v>0.3207943425147986</v>
       </c>
     </row>
     <row r="8">
@@ -5405,19 +5405,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.80248326718986784</v>
+        <v>0.79683573996351886</v>
       </c>
       <c r="J8">
-        <v>0.19751673281013216</v>
+        <v>0.20316426003648116</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.576575200317482</v>
+        <v>0.63113026148994134</v>
       </c>
       <c r="O8">
-        <v>0.42342479968251806</v>
+        <v>0.36886973851005878</v>
       </c>
     </row>
     <row r="9">
@@ -5425,19 +5425,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.72336725972014393</v>
+        <v>0.71968367987578896</v>
       </c>
       <c r="J9">
-        <v>0.27663274027985618</v>
+        <v>0.28031632012421093</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.56519691118104631</v>
+        <v>0.58949481362880951</v>
       </c>
       <c r="O9">
-        <v>0.43480308881895369</v>
+        <v>0.41050518637119054</v>
       </c>
     </row>
     <row r="10">
@@ -5445,19 +5445,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.75807180747142511</v>
+        <v>0.78436833535772565</v>
       </c>
       <c r="J10">
-        <v>0.24192819252857495</v>
+        <v>0.21563166464227432</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.58214453401928823</v>
+        <v>0.53710389910731304</v>
       </c>
       <c r="O10">
-        <v>0.41785546598071172</v>
+        <v>0.4628961008926869</v>
       </c>
     </row>
     <row r="11">
@@ -5465,19 +5465,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.71866718374242344</v>
+        <v>0.71595519184901746</v>
       </c>
       <c r="J11">
-        <v>0.28133281625757661</v>
+        <v>0.28404480815098249</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.65514534086985232</v>
+        <v>0.64175720928418045</v>
       </c>
       <c r="O11">
-        <v>0.34485465913014757</v>
+        <v>0.35824279071581966</v>
       </c>
     </row>
     <row r="12">
@@ -5485,19 +5485,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.78911716215031624</v>
+        <v>0.78332781834933596</v>
       </c>
       <c r="J12">
-        <v>0.21088283784968365</v>
+        <v>0.21667218165066399</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.70219720173344635</v>
+        <v>0.69505096520091159</v>
       </c>
       <c r="O12">
-        <v>0.29780279826655376</v>
+        <v>0.30494903479908847</v>
       </c>
     </row>
     <row r="13">
@@ -5505,19 +5505,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.75484730254261079</v>
+        <v>0.73576863360264033</v>
       </c>
       <c r="J13">
-        <v>0.24515269745738916</v>
+        <v>0.26423136639735961</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.69951442462746027</v>
+        <v>0.72783995444164129</v>
       </c>
       <c r="O13">
-        <v>0.30048557537253978</v>
+        <v>0.27216004555835871</v>
       </c>
     </row>
     <row r="14">
@@ -5525,19 +5525,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.73626935580371222</v>
+        <v>0.75749598032805165</v>
       </c>
       <c r="J14">
-        <v>0.26373064419628778</v>
+        <v>0.24250401967194837</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.64551791410674819</v>
+        <v>0.65643716926532092</v>
       </c>
       <c r="O14">
-        <v>0.35448208589325181</v>
+        <v>0.34356283073467914</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.77973897205425624</v>
+        <v>0.78664539209989748</v>
       </c>
       <c r="J15">
-        <v>0.22026102794574381</v>
+        <v>0.21335460790010252</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.61804773235833677</v>
+        <v>0.64231055761718259</v>
       </c>
       <c r="O15">
-        <v>0.38195226764166323</v>
+        <v>0.35768944238281741</v>
       </c>
     </row>
     <row r="16">
@@ -5565,19 +5565,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.79301535200442919</v>
+        <v>0.80645336514846744</v>
       </c>
       <c r="J16">
-        <v>0.20698464799557093</v>
+        <v>0.19354663485153253</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.6157748992674803</v>
+        <v>0.62565437941848978</v>
       </c>
       <c r="O16">
-        <v>0.38422510073251964</v>
+        <v>0.37434562058151027</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.76521322082045951</v>
+        <v>0.7966458657184845</v>
       </c>
       <c r="J17">
-        <v>0.23478677917954055</v>
+        <v>0.20335413428151553</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.66907570969244357</v>
+        <v>0.6580262832306174</v>
       </c>
       <c r="O17">
-        <v>0.33092429030755643</v>
+        <v>0.34197371676938254</v>
       </c>
     </row>
     <row r="18">
@@ -5605,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.76774426194313539</v>
+        <v>0.78144100473393985</v>
       </c>
       <c r="J18">
-        <v>0.23225573805686464</v>
+        <v>0.21855899526606015</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.67610009784899272</v>
+        <v>0.70952678429842531</v>
       </c>
       <c r="O18">
-        <v>0.32389990215100722</v>
+        <v>0.29047321570157469</v>
       </c>
     </row>
     <row r="19">
@@ -5625,19 +5625,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.77463591487437888</v>
+        <v>0.77768974128854362</v>
       </c>
       <c r="J19">
-        <v>0.22536408512562106</v>
+        <v>0.22231025871145635</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.70040929522528184</v>
+        <v>0.70544298083024337</v>
       </c>
       <c r="O19">
-        <v>0.29959070477471827</v>
+        <v>0.29455701916975674</v>
       </c>
     </row>
     <row r="20">
@@ -5645,19 +5645,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.77228112066307897</v>
+        <v>0.76487536031933523</v>
       </c>
       <c r="J20">
-        <v>0.22771887933692103</v>
+        <v>0.23512463968066463</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.64660338716753352</v>
+        <v>0.65414175997901169</v>
       </c>
       <c r="O20">
-        <v>0.35339661283246648</v>
+        <v>0.34585824002098819</v>
       </c>
     </row>
     <row r="21">
@@ -5665,19 +5665,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.76845475841470601</v>
+        <v>0.78092162127098519</v>
       </c>
       <c r="J21">
-        <v>0.23154524158529396</v>
+        <v>0.21907837872901484</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.71448980707253462</v>
+        <v>0.72667544875816314</v>
       </c>
       <c r="O21">
-        <v>0.28551019292746538</v>
+        <v>0.27332455124183686</v>
       </c>
     </row>
     <row r="22">
@@ -5685,19 +5685,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.74705101712450994</v>
+        <v>0.76351779795675978</v>
       </c>
       <c r="J22">
-        <v>0.25294898287549</v>
+        <v>0.23648220204324016</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.69140567931054664</v>
+        <v>0.69254895334842803</v>
       </c>
       <c r="O22">
-        <v>0.30859432068945336</v>
+        <v>0.30745104665157197</v>
       </c>
     </row>
     <row r="23">
@@ -5705,19 +5705,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.76515377553298269</v>
+        <v>0.77267081542963201</v>
       </c>
       <c r="J23">
-        <v>0.23484622446701728</v>
+        <v>0.2273291845703681</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.66543647471879408</v>
+        <v>0.6352685340806532</v>
       </c>
       <c r="O23">
-        <v>0.33456352528120598</v>
+        <v>0.3647314659193468</v>
       </c>
     </row>
     <row r="24">
@@ -5725,19 +5725,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.78808560672664185</v>
+        <v>0.79024094126667599</v>
       </c>
       <c r="J24">
-        <v>0.2119143932733582</v>
+        <v>0.20975905873332396</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.71476620545082303</v>
+        <v>0.72306313247289122</v>
       </c>
       <c r="O24">
-        <v>0.28523379454917691</v>
+        <v>0.27693686752710872</v>
       </c>
     </row>
     <row r="25">
@@ -5745,19 +5745,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.73098885206617681</v>
+        <v>0.74288463862529519</v>
       </c>
       <c r="J25">
-        <v>0.26901114793382319</v>
+        <v>0.25711536137470481</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.69978600357032006</v>
+        <v>0.67786905079159654</v>
       </c>
       <c r="O25">
-        <v>0.30021399642967994</v>
+        <v>0.32213094920840346</v>
       </c>
     </row>
     <row r="26">
@@ -5765,19 +5765,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.75456898916415394</v>
+        <v>0.78390582369004524</v>
       </c>
       <c r="J26">
-        <v>0.24543101083584604</v>
+        <v>0.21609417630995473</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.68079698090839669</v>
+        <v>0.66226144429242029</v>
       </c>
       <c r="O26">
-        <v>0.31920301909160331</v>
+        <v>0.33773855570757977</v>
       </c>
     </row>
     <row r="27">
@@ -5785,19 +5785,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.75500633268595141</v>
+        <v>0.77030948344323324</v>
       </c>
       <c r="J27">
-        <v>0.24499366731404859</v>
+        <v>0.22969051655676667</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.72723523158547276</v>
+        <v>0.72931611071031122</v>
       </c>
       <c r="O27">
-        <v>0.27276476841452735</v>
+        <v>0.27068388928968878</v>
       </c>
     </row>
     <row r="28">
@@ -5805,19 +5805,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.75461432190813227</v>
+        <v>0.7771952493296953</v>
       </c>
       <c r="J28">
-        <v>0.24538567809186776</v>
+        <v>0.2228047506703047</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.69243101801674756</v>
+        <v>0.68507011185033351</v>
       </c>
       <c r="O28">
-        <v>0.30756898198325244</v>
+        <v>0.31492988814966649</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.79306543424064724</v>
+        <v>0.80859667560751902</v>
       </c>
       <c r="J29">
-        <v>0.20693456575935271</v>
+        <v>0.19140332439248092</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.70052364724033656</v>
+        <v>0.68375977276769884</v>
       </c>
       <c r="O29">
-        <v>0.29947635275966356</v>
+        <v>0.31624022723230127</v>
       </c>
     </row>
     <row r="30">
@@ -5845,19 +5845,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.75885031218983368</v>
+        <v>0.76370384600586405</v>
       </c>
       <c r="J30">
-        <v>0.24114968781016627</v>
+        <v>0.23629615399413595</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.71004559019645475</v>
+        <v>0.70272752684696083</v>
       </c>
       <c r="O30">
-        <v>0.28995440980354531</v>
+        <v>0.29727247315303917</v>
       </c>
     </row>
     <row r="31">
@@ -5865,19 +5865,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.79669594295924395</v>
+        <v>0.82044949277660761</v>
       </c>
       <c r="J31">
-        <v>0.20330405704075613</v>
+        <v>0.17955050722339241</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.69492547627093848</v>
+        <v>0.67524062769991566</v>
       </c>
       <c r="O31">
-        <v>0.30507452372906152</v>
+        <v>0.32475937230008428</v>
       </c>
     </row>
     <row r="32">
@@ -5885,19 +5885,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.78345750851138785</v>
+        <v>0.7956565052554313</v>
       </c>
       <c r="J32">
-        <v>0.21654249148861215</v>
+        <v>0.20434349474456864</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.71082467740656741</v>
+        <v>0.71566607782508584</v>
       </c>
       <c r="O32">
-        <v>0.28917532259343259</v>
+        <v>0.28433392217491421</v>
       </c>
     </row>
     <row r="33">
@@ -5905,19 +5905,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.76935172038458688</v>
+        <v>0.78412207000294443</v>
       </c>
       <c r="J33">
-        <v>0.23064827961541309</v>
+        <v>0.2158779299970556</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.70535670250049998</v>
+        <v>0.69599818112982492</v>
       </c>
       <c r="O33">
-        <v>0.29464329749949986</v>
+        <v>0.30400181887017508</v>
       </c>
     </row>
     <row r="34">
@@ -5925,19 +5925,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.7692854949466803</v>
+        <v>0.78468267694784966</v>
       </c>
       <c r="J34">
-        <v>0.23071450505331961</v>
+        <v>0.21531732305215037</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71367654127642943</v>
+        <v>0.70710660743277742</v>
       </c>
       <c r="O34">
-        <v>0.28632345872357068</v>
+        <v>0.29289339256722269</v>
       </c>
     </row>
     <row r="35">
@@ -5945,19 +5945,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.74613244827175529</v>
+        <v>0.76440511404894707</v>
       </c>
       <c r="J35">
-        <v>0.25386755172824477</v>
+        <v>0.23559488595105299</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.73570314760441458</v>
+        <v>0.7181224504800735</v>
       </c>
       <c r="O35">
-        <v>0.26429685239558537</v>
+        <v>0.28187754951992638</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.71021671762288396</v>
+        <v>0.71866769128199026</v>
       </c>
       <c r="J36">
-        <v>0.28978328237711604</v>
+        <v>0.28133230871800974</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.74028646569900214</v>
+        <v>0.73414248840633101</v>
       </c>
       <c r="O36">
-        <v>0.25971353430099797</v>
+        <v>0.26585751159366905</v>
       </c>
     </row>
     <row r="37">
@@ -5985,19 +5985,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.78271827027397778</v>
+        <v>0.79864663856760121</v>
       </c>
       <c r="J37">
-        <v>0.21728172972602222</v>
+        <v>0.20135336143239882</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.73865992283717263</v>
+        <v>0.74605048918148542</v>
       </c>
       <c r="O37">
-        <v>0.26134007716282731</v>
+        <v>0.25394951081851452</v>
       </c>
     </row>
     <row r="38">
@@ -6005,19 +6005,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.72883615220003894</v>
+        <v>0.73865748727573033</v>
       </c>
       <c r="J38">
-        <v>0.27116384779996111</v>
+        <v>0.26134251272426967</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.787118996452838</v>
+        <v>0.78074407551519653</v>
       </c>
       <c r="O38">
-        <v>0.21288100354716213</v>
+        <v>0.21925592448480349</v>
       </c>
     </row>
     <row r="39">
@@ -6025,19 +6025,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.72465971100416005</v>
+        <v>0.73495598189678302</v>
       </c>
       <c r="J39">
-        <v>0.27534028899583995</v>
+        <v>0.26504401810321704</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.79962905178260923</v>
+        <v>0.80179473226090903</v>
       </c>
       <c r="O39">
-        <v>0.20037094821739074</v>
+        <v>0.19820526773909083</v>
       </c>
     </row>
     <row r="40">
@@ -6045,19 +6045,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.71261083154304794</v>
+        <v>0.71176889528597154</v>
       </c>
       <c r="J40">
-        <v>0.287389168456952</v>
+        <v>0.28823110471402852</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.78267479716930921</v>
+        <v>0.78426136196683705</v>
       </c>
       <c r="O40">
-        <v>0.2173252028306909</v>
+        <v>0.21573863803316298</v>
       </c>
     </row>
     <row r="41">
@@ -6065,19 +6065,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.72317795655638561</v>
+        <v>0.73661746752409474</v>
       </c>
       <c r="J41">
-        <v>0.27682204344361433</v>
+        <v>0.26338253247590521</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.78244737013730459</v>
+        <v>0.77403931760912414</v>
       </c>
       <c r="O41">
-        <v>0.21755262986269538</v>
+        <v>0.22596068239087594</v>
       </c>
     </row>
     <row r="42">
@@ -6085,19 +6085,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.67259783119432237</v>
+        <v>0.67759981015714688</v>
       </c>
       <c r="J42">
-        <v>0.32740216880567774</v>
+        <v>0.32240018984285318</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.82795583097330705</v>
+        <v>0.81562149402281381</v>
       </c>
       <c r="O42">
-        <v>0.17204416902669289</v>
+        <v>0.18437850597718619</v>
       </c>
     </row>
     <row r="43">
@@ -6105,19 +6105,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.67715336246977964</v>
+        <v>0.67919585133513294</v>
       </c>
       <c r="J43">
-        <v>0.32284663753022036</v>
+        <v>0.32080414866486717</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.79623363317459528</v>
+        <v>0.80502745771270112</v>
       </c>
       <c r="O43">
-        <v>0.20376636682540464</v>
+        <v>0.19497254228729888</v>
       </c>
     </row>
     <row r="44">
@@ -6125,19 +6125,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.7036663196059989</v>
+        <v>0.70769271603320139</v>
       </c>
       <c r="J44">
-        <v>0.29633368039400104</v>
+        <v>0.29230728396679861</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.80360845482423515</v>
+        <v>0.79674850763518679</v>
       </c>
       <c r="O44">
-        <v>0.19639154517576488</v>
+        <v>0.20325149236481319</v>
       </c>
     </row>
     <row r="45">
@@ -6145,19 +6145,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.66739580186508729</v>
+        <v>0.66826353019734142</v>
       </c>
       <c r="J45">
-        <v>0.33260419813491282</v>
+        <v>0.33173646980265853</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.81513028288066403</v>
+        <v>0.81797036924563093</v>
       </c>
       <c r="O45">
-        <v>0.18486971711933597</v>
+        <v>0.18202963075436918</v>
       </c>
     </row>
     <row r="46">
@@ -6165,19 +6165,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.64477406105708701</v>
+        <v>0.63780566571730901</v>
       </c>
       <c r="J46">
-        <v>0.35522593894291288</v>
+        <v>0.36219433428269093</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.82781298346893517</v>
+        <v>0.82836785821896786</v>
       </c>
       <c r="O46">
-        <v>0.17218701653106475</v>
+        <v>0.17163214178103223</v>
       </c>
     </row>
     <row r="47">
@@ -6185,19 +6185,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.6656036640776869</v>
+        <v>0.67588707926715108</v>
       </c>
       <c r="J47">
-        <v>0.33439633592231316</v>
+        <v>0.32411292073284886</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.77774052283479023</v>
+        <v>0.77306268524424804</v>
       </c>
       <c r="O47">
-        <v>0.2222594771652098</v>
+        <v>0.22693731475575188</v>
       </c>
     </row>
     <row r="48">
@@ -6205,19 +6205,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.64603326110801229</v>
+        <v>0.65626343833914647</v>
       </c>
       <c r="J48">
-        <v>0.35396673889198776</v>
+        <v>0.34373656166085353</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.80302168620671355</v>
+        <v>0.80746752414476153</v>
       </c>
       <c r="O48">
-        <v>0.19697831379328642</v>
+        <v>0.19253247585523842</v>
       </c>
     </row>
     <row r="49">
@@ -6225,19 +6225,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.63147623353987348</v>
+        <v>0.63272828869411279</v>
       </c>
       <c r="J49">
-        <v>0.36852376646012652</v>
+        <v>0.36727171130588726</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.78166432796402441</v>
+        <v>0.78231561719059428</v>
       </c>
       <c r="O49">
-        <v>0.21833567203597554</v>
+        <v>0.21768438280940569</v>
       </c>
     </row>
     <row r="50">
@@ -6245,19 +6245,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.59996102805768015</v>
+        <v>0.60209242614440561</v>
       </c>
       <c r="J50">
-        <v>0.4000389719423198</v>
+        <v>0.39790757385559422</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.77534449783511417</v>
+        <v>0.77128838691833479</v>
       </c>
       <c r="O50">
-        <v>0.22465550216488583</v>
+        <v>0.22871161308166527</v>
       </c>
     </row>
     <row r="51">
@@ -6265,19 +6265,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.60817848869165347</v>
+        <v>0.60664679989163628</v>
       </c>
       <c r="J51">
-        <v>0.39182151130834658</v>
+        <v>0.39335320010836378</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.79628738436622226</v>
+        <v>0.79399715288426986</v>
       </c>
       <c r="O51">
-        <v>0.20371261563377768</v>
+        <v>0.20600284711573011</v>
       </c>
     </row>
     <row r="52">
@@ -6285,19 +6285,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.60305957537645194</v>
+        <v>0.59643804611154871</v>
       </c>
       <c r="J52">
-        <v>0.39694042462354812</v>
+        <v>0.4035619538884514</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.81136774047386317</v>
+        <v>0.81002606074168071</v>
       </c>
       <c r="O52">
-        <v>0.18863225952613694</v>
+        <v>0.18997393925831924</v>
       </c>
     </row>
     <row r="53">
@@ -6305,19 +6305,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.63150628593709179</v>
+        <v>0.62047318986021205</v>
       </c>
       <c r="J53">
-        <v>0.36849371406290826</v>
+        <v>0.37952681013978795</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.78115907098146942</v>
+        <v>0.78020118267908067</v>
       </c>
       <c r="O53">
-        <v>0.21884092901853067</v>
+        <v>0.21979881732091944</v>
       </c>
     </row>
     <row r="54">
@@ -7007,19 +7007,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.69315507153123934</v>
+        <v>0.71735153082907432</v>
       </c>
       <c r="J3">
-        <v>0.30684492846876071</v>
+        <v>0.28264846917092556</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.74314341783351057</v>
+        <v>0.75815686629586954</v>
       </c>
       <c r="O3">
-        <v>0.25685658216648954</v>
+        <v>0.24184313370413052</v>
       </c>
     </row>
     <row r="4">
@@ -7027,19 +7027,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.7034356021902799</v>
+        <v>0.69720827587239553</v>
       </c>
       <c r="J4">
-        <v>0.29656439780972005</v>
+        <v>0.30279172412760452</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.70500841932855973</v>
+        <v>0.71781694409765051</v>
       </c>
       <c r="O4">
-        <v>0.29499158067144027</v>
+        <v>0.28218305590234943</v>
       </c>
     </row>
     <row r="5">
@@ -7047,19 +7047,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.64539587424986178</v>
+        <v>0.63284005787521191</v>
       </c>
       <c r="J5">
-        <v>0.35460412575013822</v>
+        <v>0.36715994212478809</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.72259082365690297</v>
+        <v>0.72508895672954643</v>
       </c>
       <c r="O5">
-        <v>0.27740917634309703</v>
+        <v>0.27491104327045351</v>
       </c>
     </row>
     <row r="6">
@@ -7067,19 +7067,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.69082559755942274</v>
+        <v>0.67728090393848284</v>
       </c>
       <c r="J6">
-        <v>0.30917440244057726</v>
+        <v>0.32271909606151711</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.72241369335903549</v>
+        <v>0.73941188676400105</v>
       </c>
       <c r="O6">
-        <v>0.27758630664096456</v>
+        <v>0.26058811323599895</v>
       </c>
     </row>
     <row r="7">
@@ -7087,19 +7087,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.65706574268963513</v>
+        <v>0.67143349279136</v>
       </c>
       <c r="J7">
-        <v>0.34293425731036487</v>
+        <v>0.32856650720863995</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.73787755525933885</v>
+        <v>0.75783196025995037</v>
       </c>
       <c r="O7">
-        <v>0.26212244474066121</v>
+        <v>0.24216803974004961</v>
       </c>
     </row>
     <row r="8">
@@ -7107,19 +7107,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.67842756868320664</v>
+        <v>0.68965581564095202</v>
       </c>
       <c r="J8">
-        <v>0.32157243131679331</v>
+        <v>0.31034418435904781</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.74791799839361095</v>
+        <v>0.76451064853460926</v>
       </c>
       <c r="O8">
-        <v>0.25208200160638905</v>
+        <v>0.23548935146539071</v>
       </c>
     </row>
     <row r="9">
@@ -7127,19 +7127,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.68381380680719395</v>
+        <v>0.66165730378575405</v>
       </c>
       <c r="J9">
-        <v>0.31618619319280611</v>
+        <v>0.33834269621424595</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.71702832295105667</v>
+        <v>0.73033429744435685</v>
       </c>
       <c r="O9">
-        <v>0.28297167704894338</v>
+        <v>0.26966570255564315</v>
       </c>
     </row>
     <row r="10">
@@ -7147,19 +7147,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.71495019004429372</v>
+        <v>0.70357916211030647</v>
       </c>
       <c r="J10">
-        <v>0.28504980995570628</v>
+        <v>0.29642083788969348</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.728599575646661</v>
+        <v>0.74243165615348106</v>
       </c>
       <c r="O10">
-        <v>0.27140042435333905</v>
+        <v>0.257568343846519</v>
       </c>
     </row>
     <row r="11">
@@ -7167,19 +7167,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.65326942955783396</v>
+        <v>0.66773443292533696</v>
       </c>
       <c r="J11">
-        <v>0.3467305704421661</v>
+        <v>0.33226556707466309</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.7611107808236468</v>
+        <v>0.77550328793744761</v>
       </c>
       <c r="O11">
-        <v>0.23888921917635317</v>
+        <v>0.22449671206255239</v>
       </c>
     </row>
     <row r="12">
@@ -7187,19 +7187,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.69265112771188919</v>
+        <v>0.68918053293084014</v>
       </c>
       <c r="J12">
-        <v>0.30734887228811086</v>
+        <v>0.31081946706915986</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.74321811761254264</v>
+        <v>0.73733396692691344</v>
       </c>
       <c r="O12">
-        <v>0.25678188238745731</v>
+        <v>0.26266603307308656</v>
       </c>
     </row>
     <row r="13">
@@ -7207,19 +7207,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.69722333315036744</v>
+        <v>0.69327673920686084</v>
       </c>
       <c r="J13">
-        <v>0.30277666684963256</v>
+        <v>0.30672326079313911</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.74554999820362045</v>
+        <v>0.75836688591546664</v>
       </c>
       <c r="O13">
-        <v>0.25445000179637955</v>
+        <v>0.24163311408453345</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.69876545671402279</v>
+        <v>0.68400539701733398</v>
       </c>
       <c r="J14">
-        <v>0.30123454328597721</v>
+        <v>0.31599460298266602</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.7516936325625625</v>
+        <v>0.74862489568139445</v>
       </c>
       <c r="O14">
-        <v>0.24830636743743745</v>
+        <v>0.25137510431860549</v>
       </c>
     </row>
     <row r="15">
@@ -7247,19 +7247,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.67092623908183957</v>
+        <v>0.6825449685823507</v>
       </c>
       <c r="J15">
-        <v>0.32907376091816049</v>
+        <v>0.31745503141764941</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.77150599544880727</v>
+        <v>0.76526794393636399</v>
       </c>
       <c r="O15">
-        <v>0.22849400455119276</v>
+        <v>0.23473205606363598</v>
       </c>
     </row>
     <row r="16">
@@ -7267,19 +7267,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.65856272376690506</v>
+        <v>0.66841888305692287</v>
       </c>
       <c r="J16">
-        <v>0.34143727623309494</v>
+        <v>0.33158111694307707</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.77907769526037673</v>
+        <v>0.77799567654262702</v>
       </c>
       <c r="O16">
-        <v>0.22092230473962324</v>
+        <v>0.22200432345737303</v>
       </c>
     </row>
     <row r="17">
@@ -7287,19 +7287,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.67513751794352017</v>
+        <v>0.68160723050845995</v>
       </c>
       <c r="J17">
-        <v>0.32486248205647983</v>
+        <v>0.31839276949154005</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.76607289366365316</v>
+        <v>0.78782243814452635</v>
       </c>
       <c r="O17">
-        <v>0.23392710633634692</v>
+        <v>0.21217756185547365</v>
       </c>
     </row>
     <row r="18">
@@ -7307,19 +7307,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.67574843178036137</v>
+        <v>0.66694446282442577</v>
       </c>
       <c r="J18">
-        <v>0.32425156821963874</v>
+        <v>0.33305553717557418</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.78370691693808137</v>
+        <v>0.7835643121179815</v>
       </c>
       <c r="O18">
-        <v>0.21629308306191866</v>
+        <v>0.21643568788201847</v>
       </c>
     </row>
     <row r="19">
@@ -7327,19 +7327,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.6889847926744348</v>
+        <v>0.68344760158283302</v>
       </c>
       <c r="J19">
-        <v>0.31101520732556531</v>
+        <v>0.31655239841716692</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.77934267176174044</v>
+        <v>0.78649914572045976</v>
       </c>
       <c r="O19">
-        <v>0.22065732823825954</v>
+        <v>0.21350085427954016</v>
       </c>
     </row>
     <row r="20">
@@ -7347,19 +7347,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64975078925761098</v>
+        <v>0.64176152914387108</v>
       </c>
       <c r="J20">
-        <v>0.35024921074238896</v>
+        <v>0.35823847085612887</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.79739337635260066</v>
+        <v>0.80502854169246429</v>
       </c>
       <c r="O20">
-        <v>0.20260662364739931</v>
+        <v>0.19497145830753582</v>
       </c>
     </row>
     <row r="21">
@@ -7367,19 +7367,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.63182618323051032</v>
+        <v>0.62808732512216114</v>
       </c>
       <c r="J21">
-        <v>0.36817381676948985</v>
+        <v>0.3719126748778388</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.79260971260316726</v>
+        <v>0.80739293473900942</v>
       </c>
       <c r="O21">
-        <v>0.20739028739683282</v>
+        <v>0.19260706526099056</v>
       </c>
     </row>
     <row r="22">
@@ -7387,19 +7387,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.6515558575992314</v>
+        <v>0.65761303888477574</v>
       </c>
       <c r="J22">
-        <v>0.34844414240076871</v>
+        <v>0.34238696111522421</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.79696722405049059</v>
+        <v>0.79944520833195287</v>
       </c>
       <c r="O22">
-        <v>0.20303277594950947</v>
+        <v>0.20055479166804713</v>
       </c>
     </row>
     <row r="23">
@@ -7407,19 +7407,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.6587731028793653</v>
+        <v>0.66130311217078741</v>
       </c>
       <c r="J23">
-        <v>0.3412268971206347</v>
+        <v>0.33869688782921253</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.79877053703576462</v>
+        <v>0.79925763942460448</v>
       </c>
       <c r="O23">
-        <v>0.20122946296423536</v>
+        <v>0.20074236057539549</v>
       </c>
     </row>
     <row r="24">
@@ -7427,19 +7427,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.63810818988454387</v>
+        <v>0.6474321383653463</v>
       </c>
       <c r="J24">
-        <v>0.36189181011545607</v>
+        <v>0.35256786163465376</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.77771622316584932</v>
+        <v>0.79278139307161966</v>
       </c>
       <c r="O24">
-        <v>0.22228377683415057</v>
+        <v>0.20721860692838032</v>
       </c>
     </row>
     <row r="25">
@@ -7447,19 +7447,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.57794381921132465</v>
+        <v>0.58338582082433221</v>
       </c>
       <c r="J25">
-        <v>0.42205618078867541</v>
+        <v>0.41661417917566773</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.77606710093682629</v>
+        <v>0.77461555568732854</v>
       </c>
       <c r="O25">
-        <v>0.22393289906317362</v>
+        <v>0.22538444431267149</v>
       </c>
     </row>
     <row r="26">
@@ -7467,19 +7467,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.61257582703781377</v>
+        <v>0.62615457572017352</v>
       </c>
       <c r="J26">
-        <v>0.38742417296218612</v>
+        <v>0.37384542427982648</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.7934499723965176</v>
+        <v>0.79914190831753229</v>
       </c>
       <c r="O26">
-        <v>0.20655002760348234</v>
+        <v>0.20085809168246774</v>
       </c>
     </row>
     <row r="27">
@@ -7487,19 +7487,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.59523487713038459</v>
+        <v>0.61778906075830708</v>
       </c>
       <c r="J27">
-        <v>0.4047651228696153</v>
+        <v>0.38221093924169297</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.81181623857497975</v>
+        <v>0.81299132195930224</v>
       </c>
       <c r="O27">
-        <v>0.18818376142502036</v>
+        <v>0.18700867804069773</v>
       </c>
     </row>
     <row r="28">
@@ -7507,19 +7507,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.63600131977853369</v>
+        <v>0.6415918329588377</v>
       </c>
       <c r="J28">
-        <v>0.36399868022146631</v>
+        <v>0.35840816704116224</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.80475144412371369</v>
+        <v>0.81604835332455239</v>
       </c>
       <c r="O28">
-        <v>0.19524855587628631</v>
+        <v>0.18395164667544767</v>
       </c>
     </row>
     <row r="29">
@@ -7527,19 +7527,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.62552050734923348</v>
+        <v>0.63624006136554123</v>
       </c>
       <c r="J29">
-        <v>0.37447949265076663</v>
+        <v>0.36375993863445871</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.83459745153639653</v>
+        <v>0.84259579273654539</v>
       </c>
       <c r="O29">
-        <v>0.16540254846360342</v>
+        <v>0.15740420726345461</v>
       </c>
     </row>
     <row r="30">
@@ -7547,19 +7547,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.57702876050919838</v>
+        <v>0.62025666153563053</v>
       </c>
       <c r="J30">
-        <v>0.42297123949080168</v>
+        <v>0.37974333846436942</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.81026386573454934</v>
+        <v>0.79742716632701793</v>
       </c>
       <c r="O30">
-        <v>0.18973613426545075</v>
+        <v>0.20257283367298209</v>
       </c>
     </row>
     <row r="31">
@@ -7567,19 +7567,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.60812422431766566</v>
+        <v>0.60648707554413028</v>
       </c>
       <c r="J31">
-        <v>0.39187577568233439</v>
+        <v>0.39351292445586966</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.84068676601200676</v>
+        <v>0.84391306132750588</v>
       </c>
       <c r="O31">
-        <v>0.15931323398799324</v>
+        <v>0.15608693867249418</v>
       </c>
     </row>
     <row r="32">
@@ -7587,19 +7587,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.64722849372891111</v>
+        <v>0.64688107820322349</v>
       </c>
       <c r="J32">
-        <v>0.35277150627108883</v>
+        <v>0.35311892179677645</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.79954710811829965</v>
+        <v>0.79621465809566339</v>
       </c>
       <c r="O32">
-        <v>0.20045289188170029</v>
+        <v>0.20378534190433659</v>
       </c>
     </row>
     <row r="33">
@@ -7607,19 +7607,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.61622236543440934</v>
+        <v>0.65428361335133955</v>
       </c>
       <c r="J33">
-        <v>0.38377763456559066</v>
+        <v>0.34571638664866045</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.83603707477032618</v>
+        <v>0.82887416425355076</v>
       </c>
       <c r="O33">
-        <v>0.16396292522967373</v>
+        <v>0.1711258357464493</v>
       </c>
     </row>
     <row r="34">
@@ -7627,19 +7627,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.59438905345480075</v>
+        <v>0.57905295615535968</v>
       </c>
       <c r="J34">
-        <v>0.40561094654519925</v>
+        <v>0.42094704384464032</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.8182763288108198</v>
+        <v>0.81757938474831482</v>
       </c>
       <c r="O34">
-        <v>0.18172367118918012</v>
+        <v>0.18242061525168518</v>
       </c>
     </row>
     <row r="35">
@@ -7647,19 +7647,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.60158278398295473</v>
+        <v>0.63466843262577055</v>
       </c>
       <c r="J35">
-        <v>0.39841721601704527</v>
+        <v>0.36533156737422934</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.86226606052040666</v>
+        <v>0.86114355518653263</v>
       </c>
       <c r="O35">
-        <v>0.13773393947959323</v>
+        <v>0.13885644481346748</v>
       </c>
     </row>
     <row r="36">
@@ -7667,19 +7667,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.61645425639762119</v>
+        <v>0.61532586837819347</v>
       </c>
       <c r="J36">
-        <v>0.38354574360237875</v>
+        <v>0.38467413162180653</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.85002600448929344</v>
+        <v>0.86314838886560152</v>
       </c>
       <c r="O36">
-        <v>0.14997399551070656</v>
+        <v>0.13685161113439862</v>
       </c>
     </row>
     <row r="37">
@@ -7687,19 +7687,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.57998462428957953</v>
+        <v>0.57194665455623905</v>
       </c>
       <c r="J37">
-        <v>0.42001537571042047</v>
+        <v>0.42805334544376089</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.84707189921547721</v>
+        <v>0.84014471723107442</v>
       </c>
       <c r="O37">
-        <v>0.15292810078452276</v>
+        <v>0.15985528276892547</v>
       </c>
     </row>
     <row r="38">
@@ -7707,19 +7707,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.55895462347987468</v>
+        <v>0.56261020069826506</v>
       </c>
       <c r="J38">
-        <v>0.44104537652012532</v>
+        <v>0.43738979930173505</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.86403756381857677</v>
+        <v>0.86773379710577103</v>
       </c>
       <c r="O38">
-        <v>0.13596243618142329</v>
+        <v>0.13226620289422908</v>
       </c>
     </row>
     <row r="39">
@@ -7727,19 +7727,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.55317911396220842</v>
+        <v>0.5790022614422522</v>
       </c>
       <c r="J39">
-        <v>0.44682088603779152</v>
+        <v>0.4209977385577478</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.82967293781090368</v>
+        <v>0.84506189340389537</v>
       </c>
       <c r="O39">
-        <v>0.17032706218909643</v>
+        <v>0.15493810659610469</v>
       </c>
     </row>
     <row r="40">
@@ -7747,19 +7747,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.56334365836914457</v>
+        <v>0.55922043825688839</v>
       </c>
       <c r="J40">
-        <v>0.43665634163085543</v>
+        <v>0.44077956174311167</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.88576747448644477</v>
+        <v>0.8956206952412169</v>
       </c>
       <c r="O40">
-        <v>0.11423252551355519</v>
+        <v>0.10437930475878308</v>
       </c>
     </row>
     <row r="41">
@@ -7767,19 +7767,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.56987974139250408</v>
+        <v>0.53432991136620045</v>
       </c>
       <c r="J41">
-        <v>0.43012025860749592</v>
+        <v>0.46567008863379961</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.89211443900596654</v>
+        <v>0.90068010234997997</v>
       </c>
       <c r="O41">
-        <v>0.10788556099403337</v>
+        <v>0.099319897650020153</v>
       </c>
     </row>
     <row r="42">
@@ -7787,19 +7787,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.50340590406655583</v>
+        <v>0.5341909116684127</v>
       </c>
       <c r="J42">
-        <v>0.49659409593344411</v>
+        <v>0.46580908833158724</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.88057940484844954</v>
+        <v>0.88691490218554359</v>
       </c>
       <c r="O42">
-        <v>0.11942059515155046</v>
+        <v>0.11308509781445647</v>
       </c>
     </row>
     <row r="43">
@@ -7807,19 +7807,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.47249142106200859</v>
+        <v>0.4785442694431255</v>
       </c>
       <c r="J43">
-        <v>0.52750857893799141</v>
+        <v>0.52145573055687455</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.89139124086587973</v>
+        <v>0.89858524383501004</v>
       </c>
       <c r="O43">
-        <v>0.10860875913412017</v>
+        <v>0.10141475616498996</v>
       </c>
     </row>
     <row r="44">
@@ -7827,19 +7827,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.51992259615704361</v>
+        <v>0.53978700574429683</v>
       </c>
       <c r="J44">
-        <v>0.48007740384295639</v>
+        <v>0.46021299425570317</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.90612329698204719</v>
+        <v>0.90135838176831551</v>
       </c>
       <c r="O44">
-        <v>0.093876703017952742</v>
+        <v>0.098641618231684478</v>
       </c>
     </row>
     <row r="45">
@@ -7847,19 +7847,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.47006707892763872</v>
+        <v>0.45316942251099701</v>
       </c>
       <c r="J45">
-        <v>0.52993292107236134</v>
+        <v>0.54683057748900288</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.89330306189879038</v>
+        <v>0.89539513571080076</v>
       </c>
       <c r="O45">
-        <v>0.10669693810120953</v>
+        <v>0.1046048642891993</v>
       </c>
     </row>
     <row r="46">
@@ -7867,19 +7867,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.40185024441041034</v>
+        <v>0.39455612642422905</v>
       </c>
       <c r="J46">
-        <v>0.5981497555895896</v>
+        <v>0.6054438735757709</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.88318307375363503</v>
+        <v>0.87686688206275432</v>
       </c>
       <c r="O46">
-        <v>0.11681692624636507</v>
+        <v>0.12313311793724568</v>
       </c>
     </row>
     <row r="47">
@@ -7887,19 +7887,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.4824549260109392</v>
+        <v>0.4820521878312452</v>
       </c>
       <c r="J47">
-        <v>0.51754507398906069</v>
+        <v>0.51794781216875474</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.87850087369773489</v>
+        <v>0.88323466893290459</v>
       </c>
       <c r="O47">
-        <v>0.12149912630226498</v>
+        <v>0.1167653310670955</v>
       </c>
     </row>
     <row r="48">
@@ -7907,19 +7907,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.41198623951370761</v>
+        <v>0.43164623874649533</v>
       </c>
       <c r="J48">
-        <v>0.58801376048629239</v>
+        <v>0.56835376125350479</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.89580948966499518</v>
+        <v>0.89074520011800529</v>
       </c>
       <c r="O48">
-        <v>0.1041905103350049</v>
+        <v>0.1092547998819948</v>
       </c>
     </row>
     <row r="49">
@@ -7927,19 +7927,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.51722079976700219</v>
+        <v>0.54569840569639627</v>
       </c>
       <c r="J49">
-        <v>0.48277920023299781</v>
+        <v>0.45430159430360367</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.89722229867507508</v>
+        <v>0.8985301573890665</v>
       </c>
       <c r="O49">
-        <v>0.10277770132492499</v>
+        <v>0.10146984261093352</v>
       </c>
     </row>
     <row r="50">
@@ -7947,19 +7947,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.48057303070813723</v>
+        <v>0.48498133165222213</v>
       </c>
       <c r="J50">
-        <v>0.51942696929186283</v>
+        <v>0.51501866834777776</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.88843338114878667</v>
+        <v>0.89332437727621949</v>
       </c>
       <c r="O50">
-        <v>0.11156661885121323</v>
+        <v>0.10667562272378057</v>
       </c>
     </row>
     <row r="51">
@@ -7967,19 +7967,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.49302015975831842</v>
+        <v>0.46761137957744048</v>
       </c>
       <c r="J51">
-        <v>0.50697984024168152</v>
+        <v>0.53238862042255952</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.86089585770312715</v>
+        <v>0.86395622646746917</v>
       </c>
       <c r="O51">
-        <v>0.13910414229687285</v>
+        <v>0.13604377353253089</v>
       </c>
     </row>
     <row r="52">
@@ -7987,19 +7987,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.45677388990574119</v>
+        <v>0.44505049490056514</v>
       </c>
       <c r="J52">
-        <v>0.5432261100942587</v>
+        <v>0.55494950509943486</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.90111215324192195</v>
+        <v>0.89852978149621154</v>
       </c>
       <c r="O52">
-        <v>0.098887846758077935</v>
+        <v>0.1014702185037885</v>
       </c>
     </row>
     <row r="53">
@@ -8007,19 +8007,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.50837530104800754</v>
+        <v>0.51913571531101754</v>
       </c>
       <c r="J53">
-        <v>0.49162469895199246</v>
+        <v>0.48086428468898235</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.88950483852399465</v>
+        <v>0.89983702373877028</v>
       </c>
       <c r="O53">
-        <v>0.11049516147600533</v>
+        <v>0.10016297626122964</v>
       </c>
     </row>
     <row r="54">
@@ -8539,31 +8539,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.067568172968283671</v>
+        <v>0.063355351994642706</v>
       </c>
       <c r="C3">
-        <v>0.15496207181280025</v>
+        <v>0.15309277124095386</v>
       </c>
       <c r="D3">
-        <v>0.77746975521891615</v>
+        <v>0.78355187676440352</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.49739702162112315</v>
+        <v>0.50737116231026169</v>
       </c>
       <c r="J3">
-        <v>0.5026029783788768</v>
+        <v>0.49262883768973831</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.8514443603082773</v>
+        <v>0.86131363403752847</v>
       </c>
       <c r="O3">
-        <v>0.14855563969172264</v>
+        <v>0.13868636596247153</v>
       </c>
     </row>
     <row r="4">
@@ -8571,31 +8571,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.070432322716242932</v>
+        <v>0.064347714611105736</v>
       </c>
       <c r="C4">
-        <v>0.15523322314415705</v>
+        <v>0.1541255215544885</v>
       </c>
       <c r="D4">
-        <v>0.7743344541396</v>
+        <v>0.78152676383440578</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.5471118803417262</v>
+        <v>0.52507567856586779</v>
       </c>
       <c r="J4">
-        <v>0.45288811965827386</v>
+        <v>0.47492432143413221</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.84242218372320732</v>
+        <v>0.84991055761351597</v>
       </c>
       <c r="O4">
-        <v>0.15757781627679268</v>
+        <v>0.15008944238648397</v>
       </c>
     </row>
     <row r="5">
@@ -8603,31 +8603,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.080551059491021856</v>
+        <v>0.07592089617493028</v>
       </c>
       <c r="C5">
-        <v>0.16158270600504043</v>
+        <v>0.15515800394013138</v>
       </c>
       <c r="D5">
-        <v>0.75786623450393786</v>
+        <v>0.76892109988493829</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.51983077872271122</v>
+        <v>0.50048930501564648</v>
       </c>
       <c r="J5">
-        <v>0.48016922127728884</v>
+        <v>0.49951069498435346</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.85229020391457999</v>
+        <v>0.85633569562921885</v>
       </c>
       <c r="O5">
-        <v>0.14770979608541993</v>
+        <v>0.14366430437078115</v>
       </c>
     </row>
     <row r="6">
@@ -8635,31 +8635,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.071687594584677924</v>
+        <v>0.07269109217060378</v>
       </c>
       <c r="C6">
-        <v>0.17409181470226756</v>
+        <v>0.16081613905557035</v>
       </c>
       <c r="D6">
-        <v>0.75422059071305458</v>
+        <v>0.76649276877382588</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.50846976211093942</v>
+        <v>0.52064566760390474</v>
       </c>
       <c r="J6">
-        <v>0.49153023788906053</v>
+        <v>0.47935433239609526</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.85514551572714359</v>
+        <v>0.86386447379781817</v>
       </c>
       <c r="O6">
-        <v>0.14485448427285633</v>
+        <v>0.13613552620218181</v>
       </c>
     </row>
     <row r="7">
@@ -8667,31 +8667,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.084050490970282568</v>
+        <v>0.07576285577842197</v>
       </c>
       <c r="C7">
-        <v>0.15247541598733871</v>
+        <v>0.15172361675908952</v>
       </c>
       <c r="D7">
-        <v>0.76347409304237879</v>
+        <v>0.77251352746248858</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.56833921276355914</v>
+        <v>0.56701911675056471</v>
       </c>
       <c r="J7">
-        <v>0.43166078723644091</v>
+        <v>0.43298088324943523</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.85684124853465327</v>
+        <v>0.85132087853589655</v>
       </c>
       <c r="O7">
-        <v>0.14315875146534662</v>
+        <v>0.14867912146410342</v>
       </c>
     </row>
     <row r="8">
@@ -8699,31 +8699,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.081529862583498189</v>
+        <v>0.073886022046957364</v>
       </c>
       <c r="C8">
-        <v>0.15977222338500438</v>
+        <v>0.16414215068596072</v>
       </c>
       <c r="D8">
-        <v>0.75869791403149744</v>
+        <v>0.7619718272670819</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.57148110204579572</v>
+        <v>0.56986716495321832</v>
       </c>
       <c r="J8">
-        <v>0.42851889795420417</v>
+        <v>0.43013283504678157</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83059953500767092</v>
+        <v>0.83698334634267835</v>
       </c>
       <c r="O8">
-        <v>0.16940046499232911</v>
+        <v>0.16301665365732171</v>
       </c>
     </row>
     <row r="9">
@@ -8731,31 +8731,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.076500885057093349</v>
+        <v>0.069855088996066086</v>
       </c>
       <c r="C9">
-        <v>0.18911335515694611</v>
+        <v>0.18587938992774716</v>
       </c>
       <c r="D9">
-        <v>0.73438575978596055</v>
+        <v>0.74426552107618671</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.49038829338243678</v>
+        <v>0.483278053310293</v>
       </c>
       <c r="J9">
-        <v>0.50961170661756316</v>
+        <v>0.51672194668970695</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.85046152384739848</v>
+        <v>0.86057122478713344</v>
       </c>
       <c r="O9">
-        <v>0.1495384761526016</v>
+        <v>0.13942877521286651</v>
       </c>
     </row>
     <row r="10">
@@ -8763,31 +8763,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.087631813918060353</v>
+        <v>0.079276815296311073</v>
       </c>
       <c r="C10">
-        <v>0.15591525148871055</v>
+        <v>0.15295226067232315</v>
       </c>
       <c r="D10">
-        <v>0.75645293459322904</v>
+        <v>0.76777092403136582</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.57948873656515265</v>
+        <v>0.58370336719426363</v>
       </c>
       <c r="J10">
-        <v>0.42051126343484729</v>
+        <v>0.41629663280573631</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.84168353485445313</v>
+        <v>0.85603097456155852</v>
       </c>
       <c r="O10">
-        <v>0.15831646514554684</v>
+        <v>0.14396902543844151</v>
       </c>
     </row>
     <row r="11">
@@ -8795,31 +8795,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.088192028394477928</v>
+        <v>0.084929494719187121</v>
       </c>
       <c r="C11">
-        <v>0.16451313931716835</v>
+        <v>0.15842399642784918</v>
       </c>
       <c r="D11">
-        <v>0.74729483228835381</v>
+        <v>0.7566465088529637</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.55945088890709871</v>
+        <v>0.58503452612776508</v>
       </c>
       <c r="J11">
-        <v>0.44054911109290129</v>
+        <v>0.41496547387223492</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.85428375347805674</v>
+        <v>0.86283195159696902</v>
       </c>
       <c r="O11">
-        <v>0.14571624652194323</v>
+        <v>0.13716804840303096</v>
       </c>
     </row>
     <row r="12">
@@ -8827,31 +8827,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.085984424702875706</v>
+        <v>0.081342093437959229</v>
       </c>
       <c r="C12">
-        <v>0.17111819967954858</v>
+        <v>0.16690541631363798</v>
       </c>
       <c r="D12">
-        <v>0.74289737561757574</v>
+        <v>0.75175249024840285</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.58268986409875601</v>
+        <v>0.57526035292739774</v>
       </c>
       <c r="J12">
-        <v>0.41731013590124394</v>
+        <v>0.4247396470726022</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.84808891255312369</v>
+        <v>0.8590086857430137</v>
       </c>
       <c r="O12">
-        <v>0.15191108744687631</v>
+        <v>0.1409913142569863</v>
       </c>
     </row>
     <row r="13">
@@ -8859,31 +8859,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.10205086736872369</v>
+        <v>0.094386005040520915</v>
       </c>
       <c r="C13">
-        <v>0.16068417478102351</v>
+        <v>0.16165260298103221</v>
       </c>
       <c r="D13">
-        <v>0.7372649578502527</v>
+        <v>0.74396139197844702</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.59954384214716949</v>
+        <v>0.62021077177204875</v>
       </c>
       <c r="J13">
-        <v>0.40045615785283056</v>
+        <v>0.37978922822795125</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.82274984466329182</v>
+        <v>0.82609649859975309</v>
       </c>
       <c r="O13">
-        <v>0.17725015533670826</v>
+        <v>0.17390350140024699</v>
       </c>
     </row>
     <row r="14">
@@ -8891,31 +8891,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.10491416746409066</v>
+        <v>0.10134277307640371</v>
       </c>
       <c r="C14">
-        <v>0.17443076724391052</v>
+        <v>0.17572479729125723</v>
       </c>
       <c r="D14">
-        <v>0.72065506529199874</v>
+        <v>0.72293242963233917</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.59451087286359994</v>
+        <v>0.59197236239945306</v>
       </c>
       <c r="J14">
-        <v>0.40548912713640017</v>
+        <v>0.408027637600547</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.83334948564273226</v>
+        <v>0.8388915956263161</v>
       </c>
       <c r="O14">
-        <v>0.16665051435726772</v>
+        <v>0.16110840437368376</v>
       </c>
     </row>
     <row r="15">
@@ -8923,31 +8923,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.11921790443045094</v>
+        <v>0.11565135293049614</v>
       </c>
       <c r="C15">
-        <v>0.16349246693732744</v>
+        <v>0.16700467808031427</v>
       </c>
       <c r="D15">
-        <v>0.71728962863222157</v>
+        <v>0.71734396898918962</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.60275522311465846</v>
+        <v>0.58155190433630755</v>
       </c>
       <c r="J15">
-        <v>0.39724477688534143</v>
+        <v>0.41844809566369245</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.818894899139883</v>
+        <v>0.83157565090982866</v>
       </c>
       <c r="O15">
-        <v>0.181105100860117</v>
+        <v>0.16842434909017132</v>
       </c>
     </row>
     <row r="16">
@@ -8955,31 +8955,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.11712620200790935</v>
+        <v>0.11233589734051408</v>
       </c>
       <c r="C16">
-        <v>0.18052731333033004</v>
+        <v>0.17537258112606158</v>
       </c>
       <c r="D16">
-        <v>0.70234648466176064</v>
+        <v>0.71229152153342434</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.59031129999418286</v>
+        <v>0.60390989750768531</v>
       </c>
       <c r="J16">
-        <v>0.40968870000581709</v>
+        <v>0.39609010249231469</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.8351876934372704</v>
+        <v>0.84963083124056982</v>
       </c>
       <c r="O16">
-        <v>0.16481230656272966</v>
+        <v>0.15036916875943027</v>
       </c>
     </row>
     <row r="17">
@@ -8987,31 +8987,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.11890082078787001</v>
+        <v>0.11538513165555132</v>
       </c>
       <c r="C17">
-        <v>0.17043678481126404</v>
+        <v>0.1708485436675776</v>
       </c>
       <c r="D17">
-        <v>0.71066239440086609</v>
+        <v>0.71376632467687118</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.60530213039618419</v>
+        <v>0.60726808801502907</v>
       </c>
       <c r="J17">
-        <v>0.39469786960381581</v>
+        <v>0.39273191198497076</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.83315649415735993</v>
+        <v>0.83586143242456434</v>
       </c>
       <c r="O17">
-        <v>0.1668435058426401</v>
+        <v>0.1641385675754356</v>
       </c>
     </row>
     <row r="18">
@@ -9019,31 +9019,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.1251546105735741</v>
+        <v>0.11742034622270235</v>
       </c>
       <c r="C18">
-        <v>0.17554419726396647</v>
+        <v>0.17331321366847882</v>
       </c>
       <c r="D18">
-        <v>0.69930119216245934</v>
+        <v>0.7092664401088189</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.66169059094074156</v>
+        <v>0.6738166788918708</v>
       </c>
       <c r="J18">
-        <v>0.33830940905925838</v>
+        <v>0.32618332110812925</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.81884236156555656</v>
+        <v>0.82918300383875232</v>
       </c>
       <c r="O18">
-        <v>0.18115763843444335</v>
+        <v>0.17081699616124776</v>
       </c>
     </row>
     <row r="19">
@@ -9051,31 +9051,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.14072613611442267</v>
+        <v>0.13615786653534293</v>
       </c>
       <c r="C19">
-        <v>0.18001885589696406</v>
+        <v>0.17524122248718774</v>
       </c>
       <c r="D19">
-        <v>0.67925500798861316</v>
+        <v>0.68860091097746923</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.66300191051528612</v>
+        <v>0.6473822423383474</v>
       </c>
       <c r="J19">
-        <v>0.33699808948471399</v>
+        <v>0.35261775766165271</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.83703543404426717</v>
+        <v>0.84732358998949953</v>
       </c>
       <c r="O19">
-        <v>0.16296456595573275</v>
+        <v>0.15267641001050036</v>
       </c>
     </row>
     <row r="20">
@@ -9083,31 +9083,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.1337442625692547</v>
+        <v>0.12654111331529524</v>
       </c>
       <c r="C20">
-        <v>0.18346419397008243</v>
+        <v>0.17600483117461607</v>
       </c>
       <c r="D20">
-        <v>0.68279154346066295</v>
+        <v>0.69745405551008854</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64248497751706057</v>
+        <v>0.66235752074749432</v>
       </c>
       <c r="J20">
-        <v>0.35751502248293937</v>
+        <v>0.33764247925250573</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.8263582912941031</v>
+        <v>0.83137803052525505</v>
       </c>
       <c r="O20">
-        <v>0.17364170870589699</v>
+        <v>0.168621969474745</v>
       </c>
     </row>
     <row r="21">
@@ -9115,31 +9115,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.14450223049654523</v>
+        <v>0.13738317691493054</v>
       </c>
       <c r="C21">
-        <v>0.18196065480721463</v>
+        <v>0.18827471895707368</v>
       </c>
       <c r="D21">
-        <v>0.67353711469624</v>
+        <v>0.67434210412799578</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.6630237829850929</v>
+        <v>0.67033184386127487</v>
       </c>
       <c r="J21">
-        <v>0.33697621701490704</v>
+        <v>0.32966815613872519</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.81052958219848303</v>
+        <v>0.82316345352260978</v>
       </c>
       <c r="O21">
-        <v>0.18947041780151697</v>
+        <v>0.17683654647739017</v>
       </c>
     </row>
     <row r="22">
@@ -9147,31 +9147,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.15756970241087556</v>
+        <v>0.15459636823445874</v>
       </c>
       <c r="C22">
-        <v>0.18665866409570553</v>
+        <v>0.1845472418910189</v>
       </c>
       <c r="D22">
-        <v>0.65577163349341883</v>
+        <v>0.66085638987452244</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.67410156507017804</v>
+        <v>0.67716225439379152</v>
       </c>
       <c r="J22">
-        <v>0.32589843492982196</v>
+        <v>0.32283774560620843</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.82855163849689339</v>
+        <v>0.83629612982882739</v>
       </c>
       <c r="O22">
-        <v>0.17144836150310661</v>
+        <v>0.16370387017117261</v>
       </c>
     </row>
     <row r="23">
@@ -9179,31 +9179,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.1517587205839844</v>
+        <v>0.15174137873477461</v>
       </c>
       <c r="C23">
-        <v>0.1895520508200641</v>
+        <v>0.18829780001207472</v>
       </c>
       <c r="D23">
-        <v>0.65868922859595147</v>
+        <v>0.65996082125315059</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.63901424103531657</v>
+        <v>0.65243562847578629</v>
       </c>
       <c r="J23">
-        <v>0.36098575896468343</v>
+        <v>0.34756437152421366</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.80245861981063693</v>
+        <v>0.81877387042964589</v>
       </c>
       <c r="O23">
-        <v>0.19754138018936315</v>
+        <v>0.18122612957035403</v>
       </c>
     </row>
     <row r="24">
@@ -9211,31 +9211,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.15455721001563166</v>
+        <v>0.15372952659964295</v>
       </c>
       <c r="C24">
-        <v>0.19073677073922529</v>
+        <v>0.18852313209751495</v>
       </c>
       <c r="D24">
-        <v>0.65470601924514304</v>
+        <v>0.65774734130284207</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.66528167322008658</v>
+        <v>0.66952613337786704</v>
       </c>
       <c r="J24">
-        <v>0.33471832677991331</v>
+        <v>0.33047386662213291</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.81060066788566287</v>
+        <v>0.81757953945103434</v>
       </c>
       <c r="O24">
-        <v>0.18939933211433718</v>
+        <v>0.18242046054896563</v>
       </c>
     </row>
     <row r="25">
@@ -9243,31 +9243,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.16800752334307922</v>
+        <v>0.16609703149655905</v>
       </c>
       <c r="C25">
-        <v>0.18104531894513751</v>
+        <v>0.18161086131005993</v>
       </c>
       <c r="D25">
-        <v>0.65094715771178324</v>
+        <v>0.65229210719338093</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.70923493728817244</v>
+        <v>0.70578350695069347</v>
       </c>
       <c r="J25">
-        <v>0.29076506271182762</v>
+        <v>0.29421649304930653</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.79999217247101284</v>
+        <v>0.81166558031456937</v>
       </c>
       <c r="O25">
-        <v>0.20000782752898724</v>
+        <v>0.18833441968543069</v>
       </c>
     </row>
     <row r="26">
@@ -9275,31 +9275,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.1693788587730963</v>
+        <v>0.17316246915428316</v>
       </c>
       <c r="C26">
-        <v>0.20470509445555463</v>
+        <v>0.19054598697754646</v>
       </c>
       <c r="D26">
-        <v>0.62591604677134904</v>
+        <v>0.63629154386817044</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.68940706509094429</v>
+        <v>0.69187313579162568</v>
       </c>
       <c r="J26">
-        <v>0.31059293490905571</v>
+        <v>0.30812686420837437</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80030732838821295</v>
+        <v>0.80574768717349132</v>
       </c>
       <c r="O26">
-        <v>0.19969267161178703</v>
+        <v>0.19425231282650873</v>
       </c>
     </row>
     <row r="27">
@@ -9307,31 +9307,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.1801103602874306</v>
+        <v>0.18217287650382169</v>
       </c>
       <c r="C27">
-        <v>0.20543861813348643</v>
+        <v>0.19917147222055534</v>
       </c>
       <c r="D27">
-        <v>0.61445102157908305</v>
+        <v>0.61865565127562305</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.69184400216850062</v>
+        <v>0.69857323922278269</v>
       </c>
       <c r="J27">
-        <v>0.30815599783149938</v>
+        <v>0.3014267607772172</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.79710661794078819</v>
+        <v>0.79659006431505641</v>
       </c>
       <c r="O27">
-        <v>0.20289338205921192</v>
+        <v>0.20340993568494362</v>
       </c>
     </row>
     <row r="28">
@@ -9339,31 +9339,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.17576623286471577</v>
+        <v>0.18063740874740342</v>
       </c>
       <c r="C28">
-        <v>0.21653372082460801</v>
+        <v>0.21208808270689802</v>
       </c>
       <c r="D28">
-        <v>0.6077000463106762</v>
+        <v>0.60727450854569853</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.70813286377658324</v>
+        <v>0.71351331920478545</v>
       </c>
       <c r="J28">
-        <v>0.2918671362234167</v>
+        <v>0.28648668079521461</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.78647505230279324</v>
+        <v>0.78928023782972168</v>
       </c>
       <c r="O28">
-        <v>0.21352494769720673</v>
+        <v>0.21071976217027819</v>
       </c>
     </row>
     <row r="29">
@@ -9371,31 +9371,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20036333094676484</v>
+        <v>0.20071601238260664</v>
       </c>
       <c r="C29">
-        <v>0.20159817254671777</v>
+        <v>0.20170655022748932</v>
       </c>
       <c r="D29">
-        <v>0.59803849650651741</v>
+        <v>0.5975774373899041</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.71309970485737662</v>
+        <v>0.72845730579558943</v>
       </c>
       <c r="J29">
-        <v>0.28690029514262344</v>
+        <v>0.27154269420441052</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79221549336326336</v>
+        <v>0.78873093531143501</v>
       </c>
       <c r="O29">
-        <v>0.20778450663673662</v>
+        <v>0.21126906468856507</v>
       </c>
     </row>
     <row r="30">
@@ -9403,31 +9403,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.2070964088418431</v>
+        <v>0.21086083886430385</v>
       </c>
       <c r="C30">
-        <v>0.20232730202134835</v>
+        <v>0.20726490471622763</v>
       </c>
       <c r="D30">
-        <v>0.59057628913680849</v>
+        <v>0.58187425641946855</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.73550870445037431</v>
+        <v>0.7482528171337639</v>
       </c>
       <c r="J30">
-        <v>0.26449129554962569</v>
+        <v>0.25174718286623615</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.78310235226296099</v>
+        <v>0.79409232493386195</v>
       </c>
       <c r="O30">
-        <v>0.21689764773703907</v>
+        <v>0.20590767506613819</v>
       </c>
     </row>
     <row r="31">
@@ -9435,31 +9435,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22321503277297605</v>
+        <v>0.22705147933975295</v>
       </c>
       <c r="C31">
-        <v>0.20577145617164261</v>
+        <v>0.20538095835662853</v>
       </c>
       <c r="D31">
-        <v>0.57101351105538134</v>
+        <v>0.56756756230361838</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.73389651246882259</v>
+        <v>0.75969276072752345</v>
       </c>
       <c r="J31">
-        <v>0.26610348753117741</v>
+        <v>0.24030723927247657</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.79813588318057627</v>
+        <v>0.80892811494823424</v>
       </c>
       <c r="O31">
-        <v>0.20186411681942376</v>
+        <v>0.19107188505176581</v>
       </c>
     </row>
     <row r="32">
@@ -9467,31 +9467,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.2114652629439436</v>
+        <v>0.21965622881433833</v>
       </c>
       <c r="C32">
-        <v>0.21532138107406595</v>
+        <v>0.2081282435037905</v>
       </c>
       <c r="D32">
-        <v>0.57321335598199052</v>
+        <v>0.57221552768187112</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.75748996056461948</v>
+        <v>0.7810467641803347</v>
       </c>
       <c r="J32">
-        <v>0.24251003943538058</v>
+        <v>0.21895323581966533</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.79754399239608242</v>
+        <v>0.80987461291825524</v>
       </c>
       <c r="O32">
-        <v>0.2024560076039176</v>
+        <v>0.1901253870817447</v>
       </c>
     </row>
     <row r="33">
@@ -9499,31 +9499,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.23377653090515257</v>
+        <v>0.24673917005793711</v>
       </c>
       <c r="C33">
-        <v>0.21061333218861877</v>
+        <v>0.20654751919559103</v>
       </c>
       <c r="D33">
-        <v>0.55561013690622862</v>
+        <v>0.546713310746472</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.74265506912726797</v>
+        <v>0.7540110189694309</v>
       </c>
       <c r="J33">
-        <v>0.25734493087273208</v>
+        <v>0.24598898103056907</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.77978053390873769</v>
+        <v>0.77760818406845356</v>
       </c>
       <c r="O33">
-        <v>0.22021946609126236</v>
+        <v>0.22239181593154644</v>
       </c>
     </row>
     <row r="34">
@@ -9531,31 +9531,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.23114947621430856</v>
+        <v>0.23609163178071488</v>
       </c>
       <c r="C34">
-        <v>0.21523526070982343</v>
+        <v>0.21569150913415769</v>
       </c>
       <c r="D34">
-        <v>0.55361526307586795</v>
+        <v>0.54821685908512741</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.77923933338760876</v>
+        <v>0.78678299474110835</v>
       </c>
       <c r="J34">
-        <v>0.22076066661239116</v>
+        <v>0.21321700525889165</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.77361039644485385</v>
+        <v>0.76963987937726164</v>
       </c>
       <c r="O34">
-        <v>0.22638960355514609</v>
+        <v>0.23036012062273831</v>
       </c>
     </row>
     <row r="35">
@@ -9563,31 +9563,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.27800600149783072</v>
+        <v>0.28540634989834418</v>
       </c>
       <c r="C35">
-        <v>0.1991689280108784</v>
+        <v>0.19851322519080583</v>
       </c>
       <c r="D35">
-        <v>0.52282507049129079</v>
+        <v>0.51608042491084993</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.78617421150001454</v>
+        <v>0.79513916278278129</v>
       </c>
       <c r="J35">
-        <v>0.21382578849998543</v>
+        <v>0.20486083721721879</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.78056414380173222</v>
+        <v>0.77880030550304491</v>
       </c>
       <c r="O35">
-        <v>0.21943585619826775</v>
+        <v>0.22119969449695503</v>
       </c>
     </row>
     <row r="36">
@@ -9595,31 +9595,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.27046853142170635</v>
+        <v>0.27913670646662886</v>
       </c>
       <c r="C36">
-        <v>0.22036279134433351</v>
+        <v>0.22132437537600519</v>
       </c>
       <c r="D36">
-        <v>0.5091686772339602</v>
+        <v>0.4995389181573659</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.76449946206840769</v>
+        <v>0.76679645818848829</v>
       </c>
       <c r="J36">
-        <v>0.23550053793159237</v>
+        <v>0.23320354181151159</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.76703954466554181</v>
+        <v>0.77342258158836874</v>
       </c>
       <c r="O36">
-        <v>0.23296045533445831</v>
+        <v>0.22657741841163123</v>
       </c>
     </row>
     <row r="37">
@@ -9627,31 +9627,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.27301594493960191</v>
+        <v>0.28405914800583276</v>
       </c>
       <c r="C37">
-        <v>0.22141444315411971</v>
+        <v>0.21935521823063561</v>
       </c>
       <c r="D37">
-        <v>0.50556961190627836</v>
+        <v>0.4965856337635316</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.79521544324018412</v>
+        <v>0.81517288526815024</v>
       </c>
       <c r="J37">
-        <v>0.20478455675981588</v>
+        <v>0.18482711473184979</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.75371163019411913</v>
+        <v>0.75718572744784518</v>
       </c>
       <c r="O37">
-        <v>0.24628836980588087</v>
+        <v>0.24281427255215482</v>
       </c>
     </row>
     <row r="38">
@@ -9659,31 +9659,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.28818629701856752</v>
+        <v>0.30008115252673218</v>
       </c>
       <c r="C38">
-        <v>0.22978025598109467</v>
+        <v>0.2255952829873924</v>
       </c>
       <c r="D38">
-        <v>0.48203344700033784</v>
+        <v>0.47432356448587537</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.78430436939002401</v>
+        <v>0.7962844049857265</v>
       </c>
       <c r="J38">
-        <v>0.21569563060997587</v>
+        <v>0.20371559501427347</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76239778675758996</v>
+        <v>0.76672987303188567</v>
       </c>
       <c r="O38">
-        <v>0.23760221324241015</v>
+        <v>0.23327012696811433</v>
       </c>
     </row>
     <row r="39">
@@ -9691,31 +9691,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.30807037735584436</v>
+        <v>0.31031071927200793</v>
       </c>
       <c r="C39">
-        <v>0.21511424504303722</v>
+        <v>0.2192234224752927</v>
       </c>
       <c r="D39">
-        <v>0.47681537760111831</v>
+        <v>0.47046585825269943</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.80899972659693042</v>
+        <v>0.81691450017545475</v>
       </c>
       <c r="J39">
-        <v>0.19100027340306944</v>
+        <v>0.18308549982454514</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.72639937917191244</v>
+        <v>0.7203708326334114</v>
       </c>
       <c r="O39">
-        <v>0.27360062082808756</v>
+        <v>0.27962916736658855</v>
       </c>
     </row>
     <row r="40">
@@ -9723,31 +9723,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.29968552246601254</v>
+        <v>0.30283177329162586</v>
       </c>
       <c r="C40">
-        <v>0.24479648018864836</v>
+        <v>0.2507558567007111</v>
       </c>
       <c r="D40">
-        <v>0.45551799734533915</v>
+        <v>0.44641237000766304</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.80812768146875702</v>
+        <v>0.80817313487610232</v>
       </c>
       <c r="J40">
-        <v>0.19187231853124295</v>
+        <v>0.19182686512389777</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.74768578422322296</v>
+        <v>0.74688715944960349</v>
       </c>
       <c r="O40">
-        <v>0.25231421577677704</v>
+        <v>0.25311284055039662</v>
       </c>
     </row>
     <row r="41">
@@ -9755,31 +9755,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.31645426678945809</v>
+        <v>0.31233782100163382</v>
       </c>
       <c r="C41">
-        <v>0.23752708311940487</v>
+        <v>0.24373428282667151</v>
       </c>
       <c r="D41">
-        <v>0.44601865009113695</v>
+        <v>0.44392789617169459</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.7989097436483712</v>
+        <v>0.80762135078964548</v>
       </c>
       <c r="J41">
-        <v>0.20109025635162869</v>
+        <v>0.19237864921035458</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.74493509752737319</v>
+        <v>0.75563210323512042</v>
       </c>
       <c r="O41">
-        <v>0.25506490247262681</v>
+        <v>0.24436789676487966</v>
       </c>
     </row>
     <row r="42">
@@ -9787,31 +9787,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.33087041357652086</v>
+        <v>0.33214171927261038</v>
       </c>
       <c r="C42">
-        <v>0.22057625177981754</v>
+        <v>0.22430298257226305</v>
       </c>
       <c r="D42">
-        <v>0.44855333464366143</v>
+        <v>0.44355529815512656</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.82263317901716748</v>
+        <v>0.8322630196677071</v>
       </c>
       <c r="J42">
-        <v>0.17736682098283257</v>
+        <v>0.16773698033229295</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.74870153465200395</v>
+        <v>0.74324269266168008</v>
       </c>
       <c r="O42">
-        <v>0.25129846534799599</v>
+        <v>0.25675730733831986</v>
       </c>
     </row>
     <row r="43">
@@ -9819,31 +9819,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.31655211295216651</v>
+        <v>0.3178205416585092</v>
       </c>
       <c r="C43">
-        <v>0.24449579228326654</v>
+        <v>0.25207305383559647</v>
       </c>
       <c r="D43">
-        <v>0.43895209476456704</v>
+        <v>0.43010640450589432</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.80896936327844815</v>
+        <v>0.80618709687574386</v>
       </c>
       <c r="J43">
-        <v>0.19103063672155174</v>
+        <v>0.19381290312425628</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.74775625137383051</v>
+        <v>0.75900569009467378</v>
       </c>
       <c r="O43">
-        <v>0.25224374862616944</v>
+        <v>0.24099430990532625</v>
       </c>
     </row>
     <row r="44">
@@ -9851,31 +9851,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.32512885005871778</v>
+        <v>0.32461063956306652</v>
       </c>
       <c r="C44">
-        <v>0.23885453494994108</v>
+        <v>0.23936743559484946</v>
       </c>
       <c r="D44">
-        <v>0.43601661499134109</v>
+        <v>0.43602192484208419</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.83930054624990746</v>
+        <v>0.84457714112268079</v>
       </c>
       <c r="J44">
-        <v>0.16069945375009248</v>
+        <v>0.1554228588773193</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.74555866993478259</v>
+        <v>0.75006619403930963</v>
       </c>
       <c r="O44">
-        <v>0.25444133006521746</v>
+        <v>0.24993380596069042</v>
       </c>
     </row>
     <row r="45">
@@ -9883,31 +9883,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.33324907066288278</v>
+        <v>0.32249551341424626</v>
       </c>
       <c r="C45">
-        <v>0.2498601520655771</v>
+        <v>0.26118032605872321</v>
       </c>
       <c r="D45">
-        <v>0.41689077727154017</v>
+        <v>0.41632416052703047</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.8066469838081417</v>
+        <v>0.8075526602598746</v>
       </c>
       <c r="J45">
-        <v>0.19335301619185821</v>
+        <v>0.19244733974012551</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.74202319648461323</v>
+        <v>0.74738457651019574</v>
       </c>
       <c r="O45">
-        <v>0.25797680351538671</v>
+        <v>0.2526154234898042</v>
       </c>
     </row>
     <row r="46">
@@ -9915,31 +9915,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.31747893481383505</v>
+        <v>0.31500280961435467</v>
       </c>
       <c r="C46">
-        <v>0.25573000696519238</v>
+        <v>0.25558483844937913</v>
       </c>
       <c r="D46">
-        <v>0.42679105822097257</v>
+        <v>0.42941235193626615</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.79406163774615124</v>
+        <v>0.8000161673993319</v>
       </c>
       <c r="J46">
-        <v>0.20593836225384887</v>
+        <v>0.1999838326006681</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.73007731963424738</v>
+        <v>0.73012439516828331</v>
       </c>
       <c r="O46">
-        <v>0.26992268036575251</v>
+        <v>0.26987560483171669</v>
       </c>
     </row>
     <row r="47">
@@ -9947,31 +9947,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.33926186440422523</v>
+        <v>0.33358773528391433</v>
       </c>
       <c r="C47">
-        <v>0.23851807768381708</v>
+        <v>0.24611293395268638</v>
       </c>
       <c r="D47">
-        <v>0.42222005791195766</v>
+        <v>0.42029933076339931</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.82395466199657752</v>
+        <v>0.81727940613708339</v>
       </c>
       <c r="J47">
-        <v>0.17604533800342248</v>
+        <v>0.1827205938629167</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.71373497082818727</v>
+        <v>0.72963472752529623</v>
       </c>
       <c r="O47">
-        <v>0.28626502917181273</v>
+        <v>0.27036527247470388</v>
       </c>
     </row>
     <row r="48">
@@ -9979,31 +9979,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.34835728595586551</v>
+        <v>0.33744898761733672</v>
       </c>
       <c r="C48">
-        <v>0.25669896539119197</v>
+        <v>0.25782668201876435</v>
       </c>
       <c r="D48">
-        <v>0.39494374865294246</v>
+        <v>0.4047243303638991</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.83141582416339421</v>
+        <v>0.82881052060024807</v>
       </c>
       <c r="J48">
-        <v>0.16858417583660584</v>
+        <v>0.17118947939975185</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.71862789831281637</v>
+        <v>0.7191456670574885</v>
       </c>
       <c r="O48">
-        <v>0.28137210168718368</v>
+        <v>0.28085433294251144</v>
       </c>
     </row>
     <row r="49">
@@ -10011,31 +10011,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.37505779626564667</v>
+        <v>0.36144737687677542</v>
       </c>
       <c r="C49">
-        <v>0.2469979042097013</v>
+        <v>0.2562274955895506</v>
       </c>
       <c r="D49">
-        <v>0.37794429952465197</v>
+        <v>0.38232512753367393</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.81772353946389809</v>
+        <v>0.81932607030469207</v>
       </c>
       <c r="J49">
-        <v>0.18227646053610189</v>
+        <v>0.18067392969530791</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.70992873434449966</v>
+        <v>0.71374909701426104</v>
       </c>
       <c r="O49">
-        <v>0.29007126565550029</v>
+        <v>0.28625090298573896</v>
       </c>
     </row>
     <row r="50">
@@ -10043,31 +10043,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.3825350531351458</v>
+        <v>0.37433148908765751</v>
       </c>
       <c r="C50">
-        <v>0.24719621363510877</v>
+        <v>0.25299399418878937</v>
       </c>
       <c r="D50">
-        <v>0.37026873322974541</v>
+        <v>0.37267451672355306</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.83713505577855862</v>
+        <v>0.83864814669976451</v>
       </c>
       <c r="J50">
-        <v>0.16286494422144138</v>
+        <v>0.16135185330023546</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.69495618957329219</v>
+        <v>0.7007877899977355</v>
       </c>
       <c r="O50">
-        <v>0.30504381042670792</v>
+        <v>0.29921221000226456</v>
       </c>
     </row>
     <row r="51">
@@ -10075,31 +10075,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.41185977099671739</v>
+        <v>0.40414562576877627</v>
       </c>
       <c r="C51">
-        <v>0.24228484020622604</v>
+        <v>0.24604061636068136</v>
       </c>
       <c r="D51">
-        <v>0.34585538879705657</v>
+        <v>0.34981375787054236</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.86043242801969999</v>
+        <v>0.8576528748744684</v>
       </c>
       <c r="J51">
-        <v>0.13956757198030001</v>
+        <v>0.14234712512553171</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.72732421724003438</v>
+        <v>0.73091764421346239</v>
       </c>
       <c r="O51">
-        <v>0.27267578275996562</v>
+        <v>0.26908235578653761</v>
       </c>
     </row>
     <row r="52">
@@ -10107,31 +10107,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.42119427299079343</v>
+        <v>0.40799386770983059</v>
       </c>
       <c r="C52">
-        <v>0.24546263505634078</v>
+        <v>0.25450743124882641</v>
       </c>
       <c r="D52">
-        <v>0.33334309195286577</v>
+        <v>0.33749870104134316</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.85942281349316574</v>
+        <v>0.86269017200340647</v>
       </c>
       <c r="J52">
-        <v>0.14057718650683418</v>
+        <v>0.13730982799659355</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.64962530037199484</v>
+        <v>0.66816385996752059</v>
       </c>
       <c r="O52">
-        <v>0.35037469962800516</v>
+        <v>0.33183614003247941</v>
       </c>
     </row>
     <row r="53">
@@ -10139,31 +10139,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.45386448872657004</v>
+        <v>0.43957069090628131</v>
       </c>
       <c r="C53">
-        <v>0.24564532400425954</v>
+        <v>0.25528123175757167</v>
       </c>
       <c r="D53">
-        <v>0.30049018726917054</v>
+        <v>0.30514807733614691</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.86699565684637514</v>
+        <v>0.8712722407552107</v>
       </c>
       <c r="J53">
-        <v>0.13300434315362486</v>
+        <v>0.1287277592447893</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.66673026660515855</v>
+        <v>0.67895418226376847</v>
       </c>
       <c r="O53">
-        <v>0.33326973339484156</v>
+        <v>0.32104581773623148</v>
       </c>
     </row>
     <row r="54">
@@ -10171,13 +10171,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.45863525884102002</v>
+        <v>0.44883992823055741</v>
       </c>
       <c r="C54">
-        <v>0.25773770410045332</v>
+        <v>0.26514117454755848</v>
       </c>
       <c r="D54">
-        <v>0.28362703705852654</v>
+        <v>0.28601889722188417</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -11028,19 +11028,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.52294437336958755</v>
+        <v>0.54405711107299859</v>
       </c>
       <c r="J3">
-        <v>0.47705562663041245</v>
+        <v>0.45594288892700141</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.83639318810223828</v>
+        <v>0.83834726384445513</v>
       </c>
       <c r="O3">
-        <v>0.16360681189776177</v>
+        <v>0.16165273615554482</v>
       </c>
     </row>
     <row r="4">
@@ -11048,19 +11048,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.58726230212675679</v>
+        <v>0.57889927147767839</v>
       </c>
       <c r="J4">
-        <v>0.41273769787324316</v>
+        <v>0.42110072852232161</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.80030791430261883</v>
+        <v>0.80656981686928508</v>
       </c>
       <c r="O4">
-        <v>0.19969208569738109</v>
+        <v>0.19343018313071486</v>
       </c>
     </row>
     <row r="5">
@@ -11068,19 +11068,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.62246576888387328</v>
+        <v>0.57623660157270251</v>
       </c>
       <c r="J5">
-        <v>0.37753423111612677</v>
+        <v>0.42376339842729749</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.81874709272669599</v>
+        <v>0.81085941581696408</v>
       </c>
       <c r="O5">
-        <v>0.18125290727330395</v>
+        <v>0.18914058418303586</v>
       </c>
     </row>
     <row r="6">
@@ -11088,19 +11088,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.53306380230666306</v>
+        <v>0.54822791361964529</v>
       </c>
       <c r="J6">
-        <v>0.46693619769333683</v>
+        <v>0.45177208638035465</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.83378319552784086</v>
+        <v>0.86022958414056627</v>
       </c>
       <c r="O6">
-        <v>0.16621680447215911</v>
+        <v>0.1397704158594337</v>
       </c>
     </row>
     <row r="7">
@@ -11108,19 +11108,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.69174983411382041</v>
+        <v>0.67830835558347036</v>
       </c>
       <c r="J7">
-        <v>0.30825016588617971</v>
+        <v>0.32169164441652959</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.8251799329434002</v>
+        <v>0.82069236417703972</v>
       </c>
       <c r="O7">
-        <v>0.17482006705659975</v>
+        <v>0.17930763582296028</v>
       </c>
     </row>
     <row r="8">
@@ -11128,19 +11128,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.66941788995506868</v>
+        <v>0.6776293706368296</v>
       </c>
       <c r="J8">
-        <v>0.33058211004493132</v>
+        <v>0.32237062936317046</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.8348734295791107</v>
+        <v>0.84672646877913105</v>
       </c>
       <c r="O8">
-        <v>0.16512657042088924</v>
+        <v>0.15327353122086904</v>
       </c>
     </row>
     <row r="9">
@@ -11148,19 +11148,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.59189781409954068</v>
+        <v>0.58607056084214926</v>
       </c>
       <c r="J9">
-        <v>0.40810218590045944</v>
+        <v>0.41392943915785085</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.80033606010330516</v>
+        <v>0.80141245383913817</v>
       </c>
       <c r="O9">
-        <v>0.1996639398966949</v>
+        <v>0.1985875461608618</v>
       </c>
     </row>
     <row r="10">
@@ -11168,19 +11168,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.67749664981414393</v>
+        <v>0.71210435809849215</v>
       </c>
       <c r="J10">
-        <v>0.32250335018585619</v>
+        <v>0.28789564190150785</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.78395484804305704</v>
+        <v>0.79213645282019496</v>
       </c>
       <c r="O10">
-        <v>0.21604515195694296</v>
+        <v>0.20786354717980504</v>
       </c>
     </row>
     <row r="11">
@@ -11188,19 +11188,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.65291438551337821</v>
+        <v>0.66286096431806951</v>
       </c>
       <c r="J11">
-        <v>0.34708561448662184</v>
+        <v>0.33713903568193049</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.81099748139780992</v>
+        <v>0.80088887722046298</v>
       </c>
       <c r="O11">
-        <v>0.18900251860219</v>
+        <v>0.19911112277953713</v>
       </c>
     </row>
     <row r="12">
@@ -11208,19 +11208,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.62957272191438152</v>
+        <v>0.62499428034107318</v>
       </c>
       <c r="J12">
-        <v>0.37042727808561837</v>
+        <v>0.37500571965892682</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.81101624190422283</v>
+        <v>0.81720881437281112</v>
       </c>
       <c r="O12">
-        <v>0.18898375809577708</v>
+        <v>0.18279118562718882</v>
       </c>
     </row>
     <row r="13">
@@ -11228,19 +11228,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.68371050975312286</v>
+        <v>0.71490321071025442</v>
       </c>
       <c r="J13">
-        <v>0.31628949024687708</v>
+        <v>0.28509678928974558</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.78178148717651907</v>
+        <v>0.78346321173006706</v>
       </c>
       <c r="O13">
-        <v>0.2182185128234809</v>
+        <v>0.21653678826993292</v>
       </c>
     </row>
     <row r="14">
@@ -11248,19 +11248,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.63802479710785021</v>
+        <v>0.64805934038792101</v>
       </c>
       <c r="J14">
-        <v>0.36197520289214985</v>
+        <v>0.35194065961207893</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.81868439212022093</v>
+        <v>0.82879932452915817</v>
       </c>
       <c r="O14">
-        <v>0.1813156078797791</v>
+        <v>0.17120067547084181</v>
       </c>
     </row>
     <row r="15">
@@ -11268,19 +11268,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.67643618460373411</v>
+        <v>0.65787705869621615</v>
       </c>
       <c r="J15">
-        <v>0.32356381539626583</v>
+        <v>0.34212294130378373</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.81010544189152678</v>
+        <v>0.81502924742179406</v>
       </c>
       <c r="O15">
-        <v>0.18989455810847311</v>
+        <v>0.18497075257820594</v>
       </c>
     </row>
     <row r="16">
@@ -11288,19 +11288,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.68612847505046104</v>
+        <v>0.70694954401586396</v>
       </c>
       <c r="J16">
-        <v>0.31387152494953902</v>
+        <v>0.29305045598413609</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.79523012107994961</v>
+        <v>0.80766262216500917</v>
       </c>
       <c r="O16">
-        <v>0.20476987892005033</v>
+        <v>0.19233737783499083</v>
       </c>
     </row>
     <row r="17">
@@ -11308,19 +11308,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.70421277718683739</v>
+        <v>0.72544624469099439</v>
       </c>
       <c r="J17">
-        <v>0.29578722281316266</v>
+        <v>0.2745537553090055</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78711943337026447</v>
+        <v>0.78635169097645852</v>
       </c>
       <c r="O17">
-        <v>0.21288056662973551</v>
+        <v>0.21364830902354148</v>
       </c>
     </row>
     <row r="18">
@@ -11328,19 +11328,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.7331892577463679</v>
+        <v>0.76215056454043284</v>
       </c>
       <c r="J18">
-        <v>0.26681074225363205</v>
+        <v>0.2378494354595671</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.7835538037824592</v>
+        <v>0.79072577438046399</v>
       </c>
       <c r="O18">
-        <v>0.21644619621754072</v>
+        <v>0.20927422561953601</v>
       </c>
     </row>
     <row r="19">
@@ -11348,19 +11348,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.75108244961401649</v>
+        <v>0.73167876829468126</v>
       </c>
       <c r="J19">
-        <v>0.24891755038598348</v>
+        <v>0.26832123170531874</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.80751801848990079</v>
+        <v>0.81541550510278904</v>
       </c>
       <c r="O19">
-        <v>0.19248198151009924</v>
+        <v>0.18458449489721099</v>
       </c>
     </row>
     <row r="20">
@@ -11368,19 +11368,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.71097616765175409</v>
+        <v>0.75677424218475264</v>
       </c>
       <c r="J20">
-        <v>0.28902383234824591</v>
+        <v>0.24322575781524744</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.79677875081895921</v>
+        <v>0.78377351269259399</v>
       </c>
       <c r="O20">
-        <v>0.20322124918104073</v>
+        <v>0.21622648730740593</v>
       </c>
     </row>
     <row r="21">
@@ -11388,19 +11388,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.73376720343939184</v>
+        <v>0.73749640221276136</v>
       </c>
       <c r="J21">
-        <v>0.26623279656060816</v>
+        <v>0.26250359778723859</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.7686450269866183</v>
+        <v>0.78043271251115287</v>
       </c>
       <c r="O21">
-        <v>0.2313549730133817</v>
+        <v>0.21956728748884707</v>
       </c>
     </row>
     <row r="22">
@@ -11408,19 +11408,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.75683652855691053</v>
+        <v>0.77098484720773286</v>
       </c>
       <c r="J22">
-        <v>0.24316347144308953</v>
+        <v>0.22901515279226711</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.7977561396099615</v>
+        <v>0.80571564796279227</v>
       </c>
       <c r="O22">
-        <v>0.20224386039003858</v>
+        <v>0.19428435203720776</v>
       </c>
     </row>
     <row r="23">
@@ -11428,19 +11428,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.7475554350414837</v>
+        <v>0.75134702648773377</v>
       </c>
       <c r="J23">
-        <v>0.2524445649585163</v>
+        <v>0.24865297351226628</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75782969198940309</v>
+        <v>0.77375578261414335</v>
       </c>
       <c r="O23">
-        <v>0.24217030801059691</v>
+        <v>0.22624421738585659</v>
       </c>
     </row>
     <row r="24">
@@ -11448,19 +11448,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.75489525654828815</v>
+        <v>0.76590000214630005</v>
       </c>
       <c r="J24">
-        <v>0.24510474345171185</v>
+        <v>0.23409999785369992</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.78572622061961572</v>
+        <v>0.79249956105869668</v>
       </c>
       <c r="O24">
-        <v>0.21427377938038422</v>
+        <v>0.20750043894130338</v>
       </c>
     </row>
     <row r="25">
@@ -11468,19 +11468,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.80453091657396747</v>
+        <v>0.79900704834230718</v>
       </c>
       <c r="J25">
-        <v>0.19546908342603253</v>
+        <v>0.20099295165769296</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.76405112512164375</v>
+        <v>0.76835757033327556</v>
       </c>
       <c r="O25">
-        <v>0.23594887487835622</v>
+        <v>0.23164242966672441</v>
       </c>
     </row>
     <row r="26">
@@ -11488,19 +11488,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.79686039851535839</v>
+        <v>0.79168067433886646</v>
       </c>
       <c r="J26">
-        <v>0.20313960148464161</v>
+        <v>0.20831932566113362</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.73147608162999611</v>
+        <v>0.73494711225026743</v>
       </c>
       <c r="O26">
-        <v>0.26852391837000383</v>
+        <v>0.26505288774973257</v>
       </c>
     </row>
     <row r="27">
@@ -11508,19 +11508,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.76412009126350233</v>
+        <v>0.76867846282218077</v>
       </c>
       <c r="J27">
-        <v>0.23587990873649764</v>
+        <v>0.23132153717781931</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.75121383369712058</v>
+        <v>0.75876715511100168</v>
       </c>
       <c r="O27">
-        <v>0.24878616630287947</v>
+        <v>0.24123284488899827</v>
       </c>
     </row>
     <row r="28">
@@ -11528,19 +11528,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.80169378253511914</v>
+        <v>0.81583300167426409</v>
       </c>
       <c r="J28">
-        <v>0.19830621746488086</v>
+        <v>0.18416699832573594</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.7297259433491563</v>
+        <v>0.72781131369476515</v>
       </c>
       <c r="O28">
-        <v>0.27027405665084381</v>
+        <v>0.27218868630523496</v>
       </c>
     </row>
     <row r="29">
@@ -11548,19 +11548,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.80850126188884675</v>
+        <v>0.82498859362123611</v>
       </c>
       <c r="J29">
-        <v>0.1914987381111532</v>
+        <v>0.17501140637876389</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.7277749890686549</v>
+        <v>0.72123335107989772</v>
       </c>
       <c r="O29">
-        <v>0.2722250109313451</v>
+        <v>0.27876664892010222</v>
       </c>
     </row>
     <row r="30">
@@ -11568,19 +11568,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.83712666084491028</v>
+        <v>0.85290756912663934</v>
       </c>
       <c r="J30">
-        <v>0.16287333915508967</v>
+        <v>0.14709243087336063</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70642539324864839</v>
+        <v>0.71595408869987387</v>
       </c>
       <c r="O30">
-        <v>0.29357460675135166</v>
+        <v>0.28404591130012619</v>
       </c>
     </row>
     <row r="31">
@@ -11588,19 +11588,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.82755941948005474</v>
+        <v>0.84505788827634876</v>
       </c>
       <c r="J31">
-        <v>0.17244058051994526</v>
+        <v>0.15494211172365122</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.74475933164369801</v>
+        <v>0.75771838132064595</v>
       </c>
       <c r="O31">
-        <v>0.25524066835630199</v>
+        <v>0.24228161867935397</v>
       </c>
     </row>
     <row r="32">
@@ -11608,19 +11608,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.84937723232176854</v>
+        <v>0.85904989528391718</v>
       </c>
       <c r="J32">
-        <v>0.15062276767823141</v>
+        <v>0.14095010471608285</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.74604035679915393</v>
+        <v>0.761505129701603</v>
       </c>
       <c r="O32">
-        <v>0.25395964320084602</v>
+        <v>0.23849487029839692</v>
       </c>
     </row>
     <row r="33">
@@ -11628,19 +11628,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.8574976221885795</v>
+        <v>0.86670081622192663</v>
       </c>
       <c r="J33">
-        <v>0.1425023778114205</v>
+        <v>0.1332991837780734</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.73585378461220519</v>
+        <v>0.72204741972740227</v>
       </c>
       <c r="O33">
-        <v>0.26414621538779487</v>
+        <v>0.27795258027259773</v>
       </c>
     </row>
     <row r="34">
@@ -11648,19 +11648,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.86203874778133116</v>
+        <v>0.86818069572985901</v>
       </c>
       <c r="J34">
-        <v>0.13796125221866887</v>
+        <v>0.13181930427014102</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71689073305964901</v>
+        <v>0.71304462823130066</v>
       </c>
       <c r="O34">
-        <v>0.28310926694035088</v>
+        <v>0.28695537176869929</v>
       </c>
     </row>
     <row r="35">
@@ -11668,19 +11668,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.87787812578700464</v>
+        <v>0.88827785893607114</v>
       </c>
       <c r="J35">
-        <v>0.12212187421299547</v>
+        <v>0.1117221410639288</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.70763141727927226</v>
+        <v>0.71760525395596197</v>
       </c>
       <c r="O35">
-        <v>0.29236858272072774</v>
+        <v>0.28239474604403791</v>
       </c>
     </row>
     <row r="36">
@@ -11688,19 +11688,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.85848343178831144</v>
+        <v>0.86145278451699736</v>
       </c>
       <c r="J36">
-        <v>0.14151656821168856</v>
+        <v>0.13854721548300272</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.74521150711072426</v>
+        <v>0.74970863215585259</v>
       </c>
       <c r="O36">
-        <v>0.25478849288927569</v>
+        <v>0.25029136784414735</v>
       </c>
     </row>
     <row r="37">
@@ -11708,19 +11708,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.87619365564090435</v>
+        <v>0.89245526756393823</v>
       </c>
       <c r="J37">
-        <v>0.1238063443590956</v>
+        <v>0.10754473243606176</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.72251684128698568</v>
+        <v>0.7186241726741841</v>
       </c>
       <c r="O37">
-        <v>0.27748315871301427</v>
+        <v>0.28137582732581601</v>
       </c>
     </row>
     <row r="38">
@@ -11728,19 +11728,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.88252479067314815</v>
+        <v>0.90134773268444868</v>
       </c>
       <c r="J38">
-        <v>0.11747520932685186</v>
+        <v>0.098652267315551351</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.71970526613377162</v>
+        <v>0.74419698667836554</v>
       </c>
       <c r="O38">
-        <v>0.2802947338662285</v>
+        <v>0.25580301332163452</v>
       </c>
     </row>
     <row r="39">
@@ -11748,19 +11748,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.9258470105089065</v>
+        <v>0.92313443433451137</v>
       </c>
       <c r="J39">
-        <v>0.074152989491093474</v>
+        <v>0.076865565665488675</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.67062257431775996</v>
+        <v>0.66666223015720749</v>
       </c>
       <c r="O39">
-        <v>0.32937742568223999</v>
+        <v>0.3333377698427924</v>
       </c>
     </row>
     <row r="40">
@@ -11768,19 +11768,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.88787308928709052</v>
+        <v>0.88664280001007334</v>
       </c>
       <c r="J40">
-        <v>0.11212691071290951</v>
+        <v>0.11335719998992667</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.66828496676637428</v>
+        <v>0.64699976659515801</v>
       </c>
       <c r="O40">
-        <v>0.33171503323362572</v>
+        <v>0.35300023340484199</v>
       </c>
     </row>
     <row r="41">
@@ -11788,19 +11788,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.90256680276582102</v>
+        <v>0.91586571381786874</v>
       </c>
       <c r="J41">
-        <v>0.097433197234179036</v>
+        <v>0.084134286182131257</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.66495877571014395</v>
+        <v>0.67077086514344653</v>
       </c>
       <c r="O41">
-        <v>0.335041224289856</v>
+        <v>0.32922913485655342</v>
       </c>
     </row>
     <row r="42">
@@ -11808,19 +11808,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.91453314837416388</v>
+        <v>0.91068107827454636</v>
       </c>
       <c r="J42">
-        <v>0.085466851625836129</v>
+        <v>0.089318921725453582</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.66963308761872165</v>
+        <v>0.63624314176166163</v>
       </c>
       <c r="O42">
-        <v>0.3303669123812783</v>
+        <v>0.36375685823833837</v>
       </c>
     </row>
     <row r="43">
@@ -11828,19 +11828,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.92001803836047746</v>
+        <v>0.91099947284528648</v>
       </c>
       <c r="J43">
-        <v>0.079981961639522592</v>
+        <v>0.089000527154713571</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.66585297230323082</v>
+        <v>0.67839010710890824</v>
       </c>
       <c r="O43">
-        <v>0.33414702769676929</v>
+        <v>0.32160989289109182</v>
       </c>
     </row>
     <row r="44">
@@ -11848,19 +11848,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.93167848469696746</v>
+        <v>0.92734850692508153</v>
       </c>
       <c r="J44">
-        <v>0.068321515303032515</v>
+        <v>0.0726514930749185</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.68307570677973639</v>
+        <v>0.67821456686802617</v>
       </c>
       <c r="O44">
-        <v>0.31692429322026344</v>
+        <v>0.32178543313197377</v>
       </c>
     </row>
     <row r="45">
@@ -11868,19 +11868,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.91689102007438605</v>
+        <v>0.91282966968099155</v>
       </c>
       <c r="J45">
-        <v>0.083108979925614029</v>
+        <v>0.087170330319008407</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.6678717174200508</v>
+        <v>0.64848193974482049</v>
       </c>
       <c r="O45">
-        <v>0.33212828257994909</v>
+        <v>0.35151806025517957</v>
       </c>
     </row>
     <row r="46">
@@ -11888,19 +11888,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.88368411813748116</v>
+        <v>0.89030661016294343</v>
       </c>
       <c r="J46">
-        <v>0.11631588186251882</v>
+        <v>0.10969338983705659</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.5689339846304825</v>
+        <v>0.57801867058443579</v>
       </c>
       <c r="O46">
-        <v>0.43106601536951744</v>
+        <v>0.42198132941556427</v>
       </c>
     </row>
     <row r="47">
@@ -11908,19 +11908,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.88992571602722725</v>
+        <v>0.88398469827830273</v>
       </c>
       <c r="J47">
-        <v>0.1100742839727727</v>
+        <v>0.11601530172169716</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.55840190653813104</v>
+        <v>0.56951363498723817</v>
       </c>
       <c r="O47">
-        <v>0.4415980934618689</v>
+        <v>0.43048636501276177</v>
       </c>
     </row>
     <row r="48">
@@ -11928,19 +11928,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.92131001721046368</v>
+        <v>0.91714495198158641</v>
       </c>
       <c r="J48">
-        <v>0.078689982789536289</v>
+        <v>0.082855048018413688</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.60991805968928148</v>
+        <v>0.60764500495355611</v>
       </c>
       <c r="O48">
-        <v>0.39008194031071841</v>
+        <v>0.39235499504644394</v>
       </c>
     </row>
     <row r="49">
@@ -11948,19 +11948,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.8903332479047541</v>
+        <v>0.89206352300159708</v>
       </c>
       <c r="J49">
-        <v>0.10966675209524578</v>
+        <v>0.10793647699840296</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.60462143393474832</v>
+        <v>0.63237096717149011</v>
       </c>
       <c r="O49">
-        <v>0.39537856606525168</v>
+        <v>0.36762903282850995</v>
       </c>
     </row>
     <row r="50">
@@ -11968,19 +11968,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.87534295508285664</v>
+        <v>0.87794832843259729</v>
       </c>
       <c r="J50">
-        <v>0.1246570449171434</v>
+        <v>0.12205167156740274</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.58738413982715065</v>
+        <v>0.58822364858573095</v>
       </c>
       <c r="O50">
-        <v>0.41261586017284935</v>
+        <v>0.4117763514142691</v>
       </c>
     </row>
     <row r="51">
@@ -11988,19 +11988,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.91454574217444939</v>
+        <v>0.91522586866933497</v>
       </c>
       <c r="J51">
-        <v>0.085454257825550509</v>
+        <v>0.084774131330665053</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.61735007143058529</v>
+        <v>0.60047897936143579</v>
       </c>
       <c r="O51">
-        <v>0.38264992856941471</v>
+        <v>0.39952102063856421</v>
       </c>
     </row>
     <row r="52">
@@ -12008,19 +12008,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.91991429143212122</v>
+        <v>0.91357974928237196</v>
       </c>
       <c r="J52">
-        <v>0.080085708567878916</v>
+        <v>0.086420250717627961</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.60283386482445489</v>
+        <v>0.61281813989825851</v>
       </c>
       <c r="O52">
-        <v>0.39716613517554511</v>
+        <v>0.38718186010174155</v>
       </c>
     </row>
     <row r="53">
@@ -12028,19 +12028,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.92817360949842875</v>
+        <v>0.93058795738215727</v>
       </c>
       <c r="J53">
-        <v>0.07182639050157133</v>
+        <v>0.069412042617842715</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.62917889330530752</v>
+        <v>0.61147523674177517</v>
       </c>
       <c r="O53">
-        <v>0.37082110669469254</v>
+        <v>0.38852476325822483</v>
       </c>
     </row>
     <row r="54">
@@ -12545,19 +12545,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.47057684547959366</v>
+        <v>0.46998088035482988</v>
       </c>
       <c r="J3">
-        <v>0.52942315452040634</v>
+        <v>0.53001911964517012</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.86465191405476183</v>
+        <v>0.88121683657205219</v>
       </c>
       <c r="O3">
-        <v>0.13534808594523828</v>
+        <v>0.11878316342794783</v>
       </c>
     </row>
     <row r="4">
@@ -12565,19 +12565,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.49851152365956619</v>
+        <v>0.45444221352087411</v>
       </c>
       <c r="J4">
-        <v>0.5014884763404337</v>
+        <v>0.54555778647912589</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.87770130355567344</v>
+        <v>0.88598768287553409</v>
       </c>
       <c r="O4">
-        <v>0.12229869644432659</v>
+        <v>0.11401231712446588</v>
       </c>
     </row>
     <row r="5">
@@ -12585,19 +12585,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.42390245987279934</v>
+        <v>0.43188008948079754</v>
       </c>
       <c r="J5">
-        <v>0.57609754012720071</v>
+        <v>0.56811991051920252</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.88078709441835412</v>
+        <v>0.89434340689924563</v>
       </c>
       <c r="O5">
-        <v>0.11921290558164582</v>
+        <v>0.10565659310075436</v>
       </c>
     </row>
     <row r="6">
@@ -12605,19 +12605,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.48276429590120518</v>
+        <v>0.49233501534569823</v>
       </c>
       <c r="J6">
-        <v>0.51723570409879482</v>
+        <v>0.50766498465430165</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.87197214889481722</v>
+        <v>0.86660817724663974</v>
       </c>
       <c r="O6">
-        <v>0.12802785110518283</v>
+        <v>0.13339182275336031</v>
       </c>
     </row>
     <row r="7">
@@ -12625,19 +12625,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.44514516575613994</v>
+        <v>0.46979694702415686</v>
       </c>
       <c r="J7">
-        <v>0.55485483424386006</v>
+        <v>0.53020305297584314</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.88515081133162377</v>
+        <v>0.87783613568076502</v>
       </c>
       <c r="O7">
-        <v>0.11484918866837628</v>
+        <v>0.12216386431923495</v>
       </c>
     </row>
     <row r="8">
@@ -12645,19 +12645,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.46820460210734327</v>
+        <v>0.45265326874258383</v>
       </c>
       <c r="J8">
-        <v>0.53179539789265673</v>
+        <v>0.54734673125741617</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.82740721022013153</v>
+        <v>0.83008984534217145</v>
       </c>
       <c r="O8">
-        <v>0.17259278977986853</v>
+        <v>0.16991015465782847</v>
       </c>
     </row>
     <row r="9">
@@ -12665,19 +12665,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.37844647434065681</v>
+        <v>0.369347329313158</v>
       </c>
       <c r="J9">
-        <v>0.62155352565934308</v>
+        <v>0.63065267068684205</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.88655084955704333</v>
+        <v>0.89880557557115826</v>
       </c>
       <c r="O9">
-        <v>0.11344915044295659</v>
+        <v>0.10119442442884174</v>
       </c>
     </row>
     <row r="10">
@@ -12685,19 +12685,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.46334887946260395</v>
+        <v>0.45714672934901651</v>
       </c>
       <c r="J10">
-        <v>0.53665112053739616</v>
+        <v>0.54285327065098343</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.8854127276897058</v>
+        <v>0.90278975457681854</v>
       </c>
       <c r="O10">
-        <v>0.11458727231029414</v>
+        <v>0.097210245423181491</v>
       </c>
     </row>
     <row r="11">
@@ -12705,19 +12705,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.4620004049086866</v>
+        <v>0.50045829883845649</v>
       </c>
       <c r="J11">
-        <v>0.53799959509131345</v>
+        <v>0.49954170116154351</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.88905634795120148</v>
+        <v>0.9077416326360237</v>
       </c>
       <c r="O11">
-        <v>0.11094365204879859</v>
+        <v>0.092258367363976315</v>
       </c>
     </row>
     <row r="12">
@@ -12725,19 +12725,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.53813464390418497</v>
+        <v>0.52549880222217682</v>
       </c>
       <c r="J12">
-        <v>0.46186535609581508</v>
+        <v>0.47450119777782318</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.87652526255754759</v>
+        <v>0.89071045169888718</v>
       </c>
       <c r="O12">
-        <v>0.12347473744245238</v>
+        <v>0.10928954830111282</v>
       </c>
     </row>
     <row r="13">
@@ -12745,19 +12745,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.51546200535985875</v>
+        <v>0.52968822055039799</v>
       </c>
       <c r="J13">
-        <v>0.48453799464014119</v>
+        <v>0.47031177944960206</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.85501880306617639</v>
+        <v>0.85966384978035437</v>
       </c>
       <c r="O13">
-        <v>0.14498119693382355</v>
+        <v>0.1403361502196456</v>
       </c>
     </row>
     <row r="14">
@@ -12765,19 +12765,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.55594617073323938</v>
+        <v>0.54247055634040031</v>
       </c>
       <c r="J14">
-        <v>0.44405382926676057</v>
+        <v>0.45752944365959974</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84356167364873824</v>
+        <v>0.84580360451554104</v>
       </c>
       <c r="O14">
-        <v>0.15643832635126173</v>
+        <v>0.15419639548445896</v>
       </c>
     </row>
     <row r="15">
@@ -12785,19 +12785,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.52882282588108886</v>
+        <v>0.50411859418894911</v>
       </c>
       <c r="J15">
-        <v>0.47117717411891114</v>
+        <v>0.49588140581105072</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.82560055362619766</v>
+        <v>0.84343747651629242</v>
       </c>
       <c r="O15">
-        <v>0.17439944637380228</v>
+        <v>0.15656252348370761</v>
       </c>
     </row>
     <row r="16">
@@ -12805,19 +12805,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.50754217318099637</v>
+        <v>0.5079702632994576</v>
       </c>
       <c r="J16">
-        <v>0.49245782681900357</v>
+        <v>0.49202973670054245</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.86740643949676721</v>
+        <v>0.88063527239232886</v>
       </c>
       <c r="O16">
-        <v>0.13259356050323276</v>
+        <v>0.11936472760767122</v>
       </c>
     </row>
     <row r="17">
@@ -12825,19 +12825,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.49972395816540888</v>
+        <v>0.47278904433396535</v>
       </c>
       <c r="J17">
-        <v>0.50027604183459107</v>
+        <v>0.5272109556660346</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.86704347858738129</v>
+        <v>0.8714202325685334</v>
       </c>
       <c r="O17">
-        <v>0.13295652141261877</v>
+        <v>0.12857976743146665</v>
       </c>
     </row>
     <row r="18">
@@ -12845,19 +12845,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.58725022228887214</v>
+        <v>0.57376452655481947</v>
       </c>
       <c r="J18">
-        <v>0.41274977771112786</v>
+        <v>0.42623547344518053</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.84269452652768562</v>
+        <v>0.85345459237803256</v>
       </c>
       <c r="O18">
-        <v>0.15730547347231438</v>
+        <v>0.14654540762196749</v>
       </c>
     </row>
     <row r="19">
@@ -12865,19 +12865,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.58007635610550889</v>
+        <v>0.56375677629202248</v>
       </c>
       <c r="J19">
-        <v>0.41992364389449116</v>
+        <v>0.43624322370797752</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.85653275878490776</v>
+        <v>0.86699297536615016</v>
       </c>
       <c r="O19">
-        <v>0.14346724121509222</v>
+        <v>0.13300702463384981</v>
       </c>
     </row>
     <row r="20">
@@ -12885,19 +12885,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.58670826820428135</v>
+        <v>0.58469506887653955</v>
       </c>
       <c r="J20">
-        <v>0.41329173179571871</v>
+        <v>0.41530493112346034</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.84651538725342335</v>
+        <v>0.86134138012569439</v>
       </c>
       <c r="O20">
-        <v>0.15348461274657668</v>
+        <v>0.13865861987430558</v>
       </c>
     </row>
     <row r="21">
@@ -12905,19 +12905,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.59835192990862129</v>
+        <v>0.6040774466325971</v>
       </c>
       <c r="J21">
-        <v>0.40164807009137876</v>
+        <v>0.39592255336740284</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.83721809247280332</v>
+        <v>0.84969676658464288</v>
       </c>
       <c r="O21">
-        <v>0.16278190752719671</v>
+        <v>0.15030323341535706</v>
       </c>
     </row>
     <row r="22">
@@ -12925,19 +12925,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.59791753782508217</v>
+        <v>0.58696078328872336</v>
       </c>
       <c r="J22">
-        <v>0.40208246217491783</v>
+        <v>0.41303921671127658</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.84679979861213694</v>
+        <v>0.85318998808385793</v>
       </c>
       <c r="O22">
-        <v>0.15320020138786314</v>
+        <v>0.14681001191614212</v>
       </c>
     </row>
     <row r="23">
@@ -12945,19 +12945,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.53626478203070282</v>
+        <v>0.55378028950729519</v>
       </c>
       <c r="J23">
-        <v>0.46373521796929712</v>
+        <v>0.44621971049270481</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.83006957952579996</v>
+        <v>0.84605818893987328</v>
       </c>
       <c r="O23">
-        <v>0.16993042047420001</v>
+        <v>0.1539418110601268</v>
       </c>
     </row>
     <row r="24">
@@ -12965,19 +12965,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.5811462168408793</v>
+        <v>0.56739156947938962</v>
       </c>
       <c r="J24">
-        <v>0.41885378315912075</v>
+        <v>0.43260843052061032</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.82558573697312343</v>
+        <v>0.83261595302295777</v>
       </c>
       <c r="O24">
-        <v>0.17441426302687649</v>
+        <v>0.16738404697704215</v>
       </c>
     </row>
     <row r="25">
@@ -12985,19 +12985,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.63215911468868258</v>
+        <v>0.62095462660595202</v>
       </c>
       <c r="J25">
-        <v>0.36784088531131737</v>
+        <v>0.37904537339404804</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.82262693317408542</v>
+        <v>0.8378772189287611</v>
       </c>
       <c r="O25">
-        <v>0.1773730668259145</v>
+        <v>0.16212278107123884</v>
       </c>
     </row>
     <row r="26">
@@ -13005,19 +13005,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.59766215378703913</v>
+        <v>0.60074264220790996</v>
       </c>
       <c r="J26">
-        <v>0.40233784621296098</v>
+        <v>0.3992573577920901</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.84288037205712074</v>
+        <v>0.84918566528167916</v>
       </c>
       <c r="O26">
-        <v>0.15711962794287923</v>
+        <v>0.15081433471832081</v>
       </c>
     </row>
     <row r="27">
@@ -13025,19 +13025,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.62091529961993486</v>
+        <v>0.62304951731825886</v>
       </c>
       <c r="J27">
-        <v>0.3790847003800652</v>
+        <v>0.37695048268174114</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.82449717961696178</v>
+        <v>0.81821923629094018</v>
       </c>
       <c r="O27">
-        <v>0.17550282038303824</v>
+        <v>0.18178076370905979</v>
       </c>
     </row>
     <row r="28">
@@ -13045,19 +13045,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.63168485317690592</v>
+        <v>0.62480479515967324</v>
       </c>
       <c r="J28">
-        <v>0.36831514682309396</v>
+        <v>0.37519520484032676</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.82007263043265921</v>
+        <v>0.82665820810439927</v>
       </c>
       <c r="O28">
-        <v>0.17992736956734082</v>
+        <v>0.17334179189560076</v>
       </c>
     </row>
     <row r="29">
@@ -13065,19 +13065,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.62776995149706438</v>
+        <v>0.63380792742056868</v>
       </c>
       <c r="J29">
-        <v>0.37223004850293567</v>
+        <v>0.36619207257943137</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.82951115269213227</v>
+        <v>0.82711449412456384</v>
       </c>
       <c r="O29">
-        <v>0.17048884730786776</v>
+        <v>0.17288550587543614</v>
       </c>
     </row>
     <row r="30">
@@ -13085,19 +13085,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.64229825942935503</v>
+        <v>0.64177270239826156</v>
       </c>
       <c r="J30">
-        <v>0.35770174057064502</v>
+        <v>0.35822729760173833</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.82470010408200911</v>
+        <v>0.83671026069843557</v>
       </c>
       <c r="O30">
-        <v>0.17529989591799083</v>
+        <v>0.16328973930156446</v>
       </c>
     </row>
     <row r="31">
@@ -13105,19 +13105,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.65886832481508728</v>
+        <v>0.6821028508648912</v>
       </c>
       <c r="J31">
-        <v>0.34113167518491272</v>
+        <v>0.31789714913510875</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.82792606731910068</v>
+        <v>0.83899180949153873</v>
       </c>
       <c r="O31">
-        <v>0.17207393268089929</v>
+        <v>0.16100819050846121</v>
       </c>
     </row>
     <row r="32">
@@ -13125,19 +13125,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.66761729053744734</v>
+        <v>0.69874623199511654</v>
       </c>
       <c r="J32">
-        <v>0.33238270946255272</v>
+        <v>0.3012537680048834</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.82415752550564669</v>
+        <v>0.83627342437350694</v>
       </c>
       <c r="O32">
-        <v>0.17584247449435336</v>
+        <v>0.16372657562649301</v>
       </c>
     </row>
     <row r="33">
@@ -13145,19 +13145,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.63997631007734768</v>
+        <v>0.64028427624914264</v>
       </c>
       <c r="J33">
-        <v>0.36002368992265221</v>
+        <v>0.35971572375085736</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.80434049713238487</v>
+        <v>0.80775833567815369</v>
       </c>
       <c r="O33">
-        <v>0.19565950286761505</v>
+        <v>0.19224166432184628</v>
       </c>
     </row>
     <row r="34">
@@ -13165,19 +13165,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69405090082612242</v>
+        <v>0.69574542229313685</v>
       </c>
       <c r="J34">
-        <v>0.30594909917387758</v>
+        <v>0.30425457770686309</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.8000237290187272</v>
+        <v>0.79753602719589423</v>
       </c>
       <c r="O34">
-        <v>0.19997627098127282</v>
+        <v>0.20246397280410572</v>
       </c>
     </row>
     <row r="35">
@@ -13185,19 +13185,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70183883599981323</v>
+        <v>0.70342281639468762</v>
       </c>
       <c r="J35">
-        <v>0.29816116400018672</v>
+        <v>0.29657718360531238</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.81722524272881192</v>
+        <v>0.81008188912943702</v>
       </c>
       <c r="O35">
-        <v>0.18277475727118803</v>
+        <v>0.18991811087056304</v>
       </c>
     </row>
     <row r="36">
@@ -13205,19 +13205,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.68284897211910911</v>
+        <v>0.67264731182259174</v>
       </c>
       <c r="J36">
-        <v>0.31715102788089089</v>
+        <v>0.3273526881774082</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.77669871249879174</v>
+        <v>0.78403601747613305</v>
       </c>
       <c r="O36">
-        <v>0.22330128750120817</v>
+        <v>0.215963982523867</v>
       </c>
     </row>
     <row r="37">
@@ -13225,19 +13225,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.72987609380477392</v>
+        <v>0.74714238355494245</v>
       </c>
       <c r="J37">
-        <v>0.27012390619522597</v>
+        <v>0.25285761644505755</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.76712299214629243</v>
+        <v>0.77400954916598252</v>
       </c>
       <c r="O37">
-        <v>0.23287700785370746</v>
+        <v>0.22599045083401742</v>
       </c>
     </row>
     <row r="38">
@@ -13245,19 +13245,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.70971633066272688</v>
+        <v>0.71057499186132222</v>
       </c>
       <c r="J38">
-        <v>0.29028366933727318</v>
+        <v>0.28942500813867778</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.77910394702409402</v>
+        <v>0.77523719993295348</v>
       </c>
       <c r="O38">
-        <v>0.22089605297590589</v>
+        <v>0.22476280006704655</v>
       </c>
     </row>
     <row r="39">
@@ -13265,19 +13265,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.73344508760901372</v>
+        <v>0.74120088679761398</v>
       </c>
       <c r="J39">
-        <v>0.26655491239098628</v>
+        <v>0.25879911320238591</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.74754995977010885</v>
+        <v>0.7407687161060168</v>
       </c>
       <c r="O39">
-        <v>0.25245004022989104</v>
+        <v>0.2592312838939832</v>
       </c>
     </row>
     <row r="40">
@@ -13285,19 +13285,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.75764217470933437</v>
+        <v>0.75522007237479738</v>
       </c>
       <c r="J40">
-        <v>0.24235782529066566</v>
+        <v>0.24477992762520254</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.77257697762667987</v>
+        <v>0.77688276330706696</v>
       </c>
       <c r="O40">
-        <v>0.22742302237332013</v>
+        <v>0.22311723669293307</v>
       </c>
     </row>
     <row r="41">
@@ -13305,19 +13305,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.73721165157368784</v>
+        <v>0.73893866868109004</v>
       </c>
       <c r="J41">
-        <v>0.2627883484263121</v>
+        <v>0.26106133131890996</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.77002986893493242</v>
+        <v>0.78056365466957489</v>
       </c>
       <c r="O41">
-        <v>0.22997013106506756</v>
+        <v>0.21943634533042514</v>
       </c>
     </row>
     <row r="42">
@@ -13325,19 +13325,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.77315794558418238</v>
+        <v>0.78705905374274088</v>
       </c>
       <c r="J42">
-        <v>0.22684205441581762</v>
+        <v>0.21294094625725909</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.76951592285993353</v>
+        <v>0.76988378357600118</v>
       </c>
       <c r="O42">
-        <v>0.2304840771400665</v>
+        <v>0.23011621642399879</v>
       </c>
     </row>
     <row r="43">
@@ -13345,19 +13345,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.75760361869376958</v>
+        <v>0.75462362985855813</v>
       </c>
       <c r="J43">
-        <v>0.24239638130623034</v>
+        <v>0.24537637014144198</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.77035145791630621</v>
+        <v>0.78199231482035148</v>
       </c>
       <c r="O43">
-        <v>0.22964854208369379</v>
+        <v>0.21800768517964855</v>
       </c>
     </row>
     <row r="44">
@@ -13365,19 +13365,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.79654152104309695</v>
+        <v>0.80541894830406291</v>
       </c>
       <c r="J44">
-        <v>0.20345847895690303</v>
+        <v>0.19458105169593712</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.76096938621074306</v>
+        <v>0.7661131941536381</v>
       </c>
       <c r="O44">
-        <v>0.23903061378925694</v>
+        <v>0.23388680584636182</v>
       </c>
     </row>
     <row r="45">
@@ -13385,19 +13385,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.75158018572737972</v>
+        <v>0.75448174433617787</v>
       </c>
       <c r="J45">
-        <v>0.24841981427262025</v>
+        <v>0.24551825566382213</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.75942918152801475</v>
+        <v>0.77116965350256128</v>
       </c>
       <c r="O45">
-        <v>0.24057081847198519</v>
+        <v>0.22883034649743872</v>
       </c>
     </row>
     <row r="46">
@@ -13405,19 +13405,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.75365051969270103</v>
+        <v>0.75735301640173769</v>
       </c>
       <c r="J46">
-        <v>0.24634948030729897</v>
+        <v>0.24264698359826228</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.76851752659684769</v>
+        <v>0.76566444247905618</v>
       </c>
       <c r="O46">
-        <v>0.23148247340315231</v>
+        <v>0.23433555752094382</v>
       </c>
     </row>
     <row r="47">
@@ -13425,19 +13425,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.79677104449620351</v>
+        <v>0.7892273449429319</v>
       </c>
       <c r="J47">
-        <v>0.20322895550379649</v>
+        <v>0.21077265505706819</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.74807678773944408</v>
+        <v>0.76402608591434573</v>
       </c>
       <c r="O47">
-        <v>0.25192321226055592</v>
+        <v>0.23597391408565419</v>
       </c>
     </row>
     <row r="48">
@@ -13445,19 +13445,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.79002991746122142</v>
+        <v>0.78630974185605862</v>
       </c>
       <c r="J48">
-        <v>0.20997008253877855</v>
+        <v>0.21369025814394138</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.74538698605946796</v>
+        <v>0.7451562868452829</v>
       </c>
       <c r="O48">
-        <v>0.25461301394053198</v>
+        <v>0.2548437131547171</v>
       </c>
     </row>
     <row r="49">
@@ -13465,19 +13465,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.78400563537081258</v>
+        <v>0.78427327269026859</v>
       </c>
       <c r="J49">
-        <v>0.21599436462918739</v>
+        <v>0.21572672730973141</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.73393642872014087</v>
+        <v>0.7320545814448135</v>
       </c>
       <c r="O49">
-        <v>0.26606357127985919</v>
+        <v>0.26794541855518655</v>
       </c>
     </row>
     <row r="50">
@@ -13485,19 +13485,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.82011639966226602</v>
+        <v>0.82100790485479225</v>
       </c>
       <c r="J50">
-        <v>0.17988360033773401</v>
+        <v>0.17899209514520781</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.72250789988380959</v>
+        <v>0.72863610378071408</v>
       </c>
       <c r="O50">
-        <v>0.27749210011619041</v>
+        <v>0.27136389621928597</v>
       </c>
     </row>
     <row r="51">
@@ -13505,19 +13505,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.83560685587526584</v>
+        <v>0.83040348363494754</v>
       </c>
       <c r="J51">
-        <v>0.16439314412473416</v>
+        <v>0.16959651636505255</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.75414025949001096</v>
+        <v>0.76222785219640676</v>
       </c>
       <c r="O51">
-        <v>0.24585974050998904</v>
+        <v>0.23777214780359329</v>
       </c>
     </row>
     <row r="52">
@@ -13525,19 +13525,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.83380997032133475</v>
+        <v>0.84086708954360279</v>
       </c>
       <c r="J52">
-        <v>0.16619002967866531</v>
+        <v>0.15913291045639727</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.66235432322621912</v>
+        <v>0.68251681725397328</v>
       </c>
       <c r="O52">
-        <v>0.33764567677378088</v>
+        <v>0.31748318274602672</v>
       </c>
     </row>
     <row r="53">
@@ -13545,19 +13545,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.84055647142520151</v>
+        <v>0.84567967406984645</v>
       </c>
       <c r="J53">
-        <v>0.15944352857479849</v>
+        <v>0.1543203259301536</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.67540095963260927</v>
+        <v>0.69347984337523305</v>
       </c>
       <c r="O53">
-        <v>0.32459904036739085</v>
+        <v>0.306520156624767</v>
       </c>
     </row>
     <row r="54">

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13431" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13489" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13489" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13663" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>
@@ -691,31 +691,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.24913470030625082</v>
+        <v>0.24402008638272821</v>
       </c>
       <c r="C3">
-        <v>0.22625953111749514</v>
+        <v>0.228390438184774</v>
       </c>
       <c r="D3">
-        <v>0.52460576857625407</v>
+        <v>0.52758947543249768</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.73737911409071089</v>
+        <v>0.72708673058499662</v>
       </c>
       <c r="J3">
-        <v>0.26262088590928917</v>
+        <v>0.27291326941500343</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.73567057662705648</v>
+        <v>0.72967220813582634</v>
       </c>
       <c r="O3">
-        <v>0.26432942337294352</v>
+        <v>0.27032779186417361</v>
       </c>
     </row>
     <row r="4">
@@ -723,31 +723,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.2633412993263764</v>
+        <v>0.2599791706417342</v>
       </c>
       <c r="C4">
-        <v>0.22580879040011648</v>
+        <v>0.22844563666653214</v>
       </c>
       <c r="D4">
-        <v>0.51084991027350712</v>
+        <v>0.51157519269173357</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.72784155745545109</v>
+        <v>0.72094726730252634</v>
       </c>
       <c r="J4">
-        <v>0.27215844254454891</v>
+        <v>0.27905273269747355</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.71251150230038229</v>
+        <v>0.70771328553142554</v>
       </c>
       <c r="O4">
-        <v>0.28748849769961765</v>
+        <v>0.29228671446857452</v>
       </c>
     </row>
     <row r="5">
@@ -755,31 +755,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.25723706372217453</v>
+        <v>0.26244257185487668</v>
       </c>
       <c r="C5">
-        <v>0.22015235616121434</v>
+        <v>0.21654523321617805</v>
       </c>
       <c r="D5">
-        <v>0.5226105801166111</v>
+        <v>0.52101219492894535</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.66354432473053626</v>
+        <v>0.68002291688992333</v>
       </c>
       <c r="J5">
-        <v>0.33645567526946363</v>
+        <v>0.31997708311007672</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.72299722502602781</v>
+        <v>0.71949107854880001</v>
       </c>
       <c r="O5">
-        <v>0.27700277497397219</v>
+        <v>0.28050892145119999</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.23797225062750113</v>
+        <v>0.23777422642923088</v>
       </c>
       <c r="C6">
-        <v>0.21303652250255353</v>
+        <v>0.21879878361379276</v>
       </c>
       <c r="D6">
-        <v>0.54899122686994528</v>
+        <v>0.54342698995697647</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.7143013756483394</v>
+        <v>0.70601754695496421</v>
       </c>
       <c r="J6">
-        <v>0.28569862435166066</v>
+        <v>0.29398245304503573</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.69934603481944679</v>
+        <v>0.69608070501965891</v>
       </c>
       <c r="O6">
-        <v>0.3006539651805531</v>
+        <v>0.3039192949803412</v>
       </c>
     </row>
     <row r="7">
@@ -819,31 +819,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.24032841579863615</v>
+        <v>0.25509936056013621</v>
       </c>
       <c r="C7">
-        <v>0.23078250204832118</v>
+        <v>0.21726516952534247</v>
       </c>
       <c r="D7">
-        <v>0.52888908215304276</v>
+        <v>0.52763546991452148</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.6940657342833545</v>
+        <v>0.70732860861048386</v>
       </c>
       <c r="J7">
-        <v>0.30593426571664539</v>
+        <v>0.2926713913895162</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.7411909144363884</v>
+        <v>0.72800563410414987</v>
       </c>
       <c r="O7">
-        <v>0.2588090855636116</v>
+        <v>0.27199436589585013</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.23483640816488086</v>
+        <v>0.24594224820589622</v>
       </c>
       <c r="C8">
-        <v>0.21719716022045465</v>
+        <v>0.21862534200510395</v>
       </c>
       <c r="D8">
-        <v>0.54796643161466463</v>
+        <v>0.53543240978899986</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.71941379440690301</v>
+        <v>0.7271805577569489</v>
       </c>
       <c r="J8">
-        <v>0.2805862055930971</v>
+        <v>0.27281944224305116</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.73783317589799868</v>
+        <v>0.73538922746051272</v>
       </c>
       <c r="O8">
-        <v>0.26216682410200126</v>
+        <v>0.26461077253948723</v>
       </c>
     </row>
     <row r="9">
@@ -883,31 +883,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.25176790999694421</v>
+        <v>0.26034446617214585</v>
       </c>
       <c r="C9">
-        <v>0.19760728148341791</v>
+        <v>0.20213309504622909</v>
       </c>
       <c r="D9">
-        <v>0.5506248085196378</v>
+        <v>0.53752243878162498</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.6799930689731345</v>
+        <v>0.67663347068176183</v>
       </c>
       <c r="J9">
-        <v>0.32000693102686545</v>
+        <v>0.32336652931823817</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.70044615127591159</v>
+        <v>0.7096750442041625</v>
       </c>
       <c r="O9">
-        <v>0.29955384872408836</v>
+        <v>0.29032495579583745</v>
       </c>
     </row>
     <row r="10">
@@ -915,31 +915,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.22148521269369803</v>
+        <v>0.22687047651748909</v>
       </c>
       <c r="C10">
-        <v>0.23736044069161477</v>
+        <v>0.23136916368768423</v>
       </c>
       <c r="D10">
-        <v>0.5411543466146872</v>
+        <v>0.54176035979482673</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.7235453439208489</v>
+        <v>0.72278838460631911</v>
       </c>
       <c r="J10">
-        <v>0.27645465607915104</v>
+        <v>0.27721161539368089</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.70219410447366593</v>
+        <v>0.70838948528749557</v>
       </c>
       <c r="O10">
-        <v>0.29780589552633413</v>
+        <v>0.29161051471250449</v>
       </c>
     </row>
     <row r="11">
@@ -947,31 +947,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.23827956458983979</v>
+        <v>0.22893592085613501</v>
       </c>
       <c r="C11">
-        <v>0.23095445486431104</v>
+        <v>0.2325352176372697</v>
       </c>
       <c r="D11">
-        <v>0.53076598054584911</v>
+        <v>0.53852886150659529</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.68076015170623827</v>
+        <v>0.67311250297193748</v>
       </c>
       <c r="J11">
-        <v>0.31923984829376179</v>
+        <v>0.32688749702806252</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.74901885154364944</v>
+        <v>0.74150221101649383</v>
       </c>
       <c r="O11">
-        <v>0.25098114845635067</v>
+        <v>0.25849778898350606</v>
       </c>
     </row>
     <row r="12">
@@ -979,31 +979,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.21527211968866419</v>
+        <v>0.21791833014646078</v>
       </c>
       <c r="C12">
-        <v>0.22720192409811121</v>
+        <v>0.22803725018607049</v>
       </c>
       <c r="D12">
-        <v>0.55752595621322465</v>
+        <v>0.55404441966746865</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.71456745727976978</v>
+        <v>0.71545727843136553</v>
       </c>
       <c r="J12">
-        <v>0.28543254272023022</v>
+        <v>0.28454272156863442</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.7280881991768412</v>
+        <v>0.72779329973879003</v>
       </c>
       <c r="O12">
-        <v>0.27191180082315891</v>
+        <v>0.27220670026120997</v>
       </c>
     </row>
     <row r="13">
@@ -1011,31 +1011,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.22052638902332569</v>
+        <v>0.21958880200648778</v>
       </c>
       <c r="C13">
-        <v>0.23916233936819481</v>
+        <v>0.24268705281030045</v>
       </c>
       <c r="D13">
-        <v>0.54031127160847958</v>
+        <v>0.53772414518321177</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.70447161662636826</v>
+        <v>0.70040355430264278</v>
       </c>
       <c r="J13">
-        <v>0.29552838337363174</v>
+        <v>0.29959644569735711</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.75142002912034622</v>
+        <v>0.74457809340378456</v>
       </c>
       <c r="O13">
-        <v>0.24857997087965375</v>
+        <v>0.2554219065962155</v>
       </c>
     </row>
     <row r="14">
@@ -1043,31 +1043,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.2109032810944392</v>
+        <v>0.21197662272534512</v>
       </c>
       <c r="C14">
-        <v>0.21860210587288834</v>
+        <v>0.22261864300872786</v>
       </c>
       <c r="D14">
-        <v>0.57049461303267246</v>
+        <v>0.56540473426592708</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.70560380322261029</v>
+        <v>0.73328917410064698</v>
       </c>
       <c r="J14">
-        <v>0.2943961967773896</v>
+        <v>0.26671082589935302</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.72611902193167177</v>
+        <v>0.73376031841801581</v>
       </c>
       <c r="O14">
-        <v>0.27388097806832817</v>
+        <v>0.26623968158198402</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.22898051900861724</v>
+        <v>0.23589074876634164</v>
       </c>
       <c r="C15">
-        <v>0.22412539254154962</v>
+        <v>0.22455030632463921</v>
       </c>
       <c r="D15">
-        <v>0.54689408844983323</v>
+        <v>0.53955894490901901</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.71665678788324538</v>
+        <v>0.72103460328144109</v>
       </c>
       <c r="J15">
-        <v>0.28334321211675456</v>
+        <v>0.27896539671855891</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.73376936967221817</v>
+        <v>0.73911902191046608</v>
       </c>
       <c r="O15">
-        <v>0.26623063032778183</v>
+        <v>0.26088097808953387</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.22637137691684567</v>
+        <v>0.22429313988820349</v>
       </c>
       <c r="C16">
-        <v>0.22914218905190659</v>
+        <v>0.23136974418212472</v>
       </c>
       <c r="D16">
-        <v>0.54448643403124786</v>
+        <v>0.54433711592967182</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.71280133927079214</v>
+        <v>0.7021847058752313</v>
       </c>
       <c r="J16">
-        <v>0.28719866072920786</v>
+        <v>0.29781529412476865</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.73636641093245492</v>
+        <v>0.73877225126748003</v>
       </c>
       <c r="O16">
-        <v>0.26363358906754519</v>
+        <v>0.26122774873252003</v>
       </c>
     </row>
     <row r="17">
@@ -1139,31 +1139,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.23636829524099687</v>
+        <v>0.23338343262193645</v>
       </c>
       <c r="C17">
-        <v>0.21545428155815088</v>
+        <v>0.21654549492525735</v>
       </c>
       <c r="D17">
-        <v>0.54817742320085228</v>
+        <v>0.55007107245280629</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.71912458064572049</v>
+        <v>0.71469880792363305</v>
       </c>
       <c r="J17">
-        <v>0.28087541935427962</v>
+        <v>0.28530119207636695</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.75745211219174213</v>
+        <v>0.75357734982726532</v>
       </c>
       <c r="O17">
-        <v>0.24254788780825795</v>
+        <v>0.24642265017273463</v>
       </c>
     </row>
     <row r="18">
@@ -1171,31 +1171,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.22383618304968489</v>
+        <v>0.22324133276575181</v>
       </c>
       <c r="C18">
-        <v>0.22233054360599872</v>
+        <v>0.22513191673492747</v>
       </c>
       <c r="D18">
-        <v>0.55383327334431642</v>
+        <v>0.55162675049932075</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.70760023896483359</v>
+        <v>0.71745088554681802</v>
       </c>
       <c r="J18">
-        <v>0.29239976103516641</v>
+        <v>0.28254911445318198</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.76618262710075302</v>
+        <v>0.76367522661535536</v>
       </c>
       <c r="O18">
-        <v>0.23381737289924695</v>
+        <v>0.23632477338464464</v>
       </c>
     </row>
     <row r="19">
@@ -1203,31 +1203,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.21463828302567162</v>
+        <v>0.21584770405080977</v>
       </c>
       <c r="C19">
-        <v>0.21727088095950645</v>
+        <v>0.22174051130210096</v>
       </c>
       <c r="D19">
-        <v>0.56809083601482191</v>
+        <v>0.56241178464708919</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.71798867210931394</v>
+        <v>0.7112601706923769</v>
       </c>
       <c r="J19">
-        <v>0.28201132789068611</v>
+        <v>0.28873982930762321</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.76506444231759807</v>
+        <v>0.77085365536653194</v>
       </c>
       <c r="O19">
-        <v>0.23493555768240187</v>
+        <v>0.22914634463346809</v>
       </c>
     </row>
     <row r="20">
@@ -1235,31 +1235,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.21047713323542333</v>
+        <v>0.20796914678828343</v>
       </c>
       <c r="C20">
-        <v>0.21208259917533756</v>
+        <v>0.21016380127513043</v>
       </c>
       <c r="D20">
-        <v>0.57744026758923905</v>
+        <v>0.58186705193658605</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.68117594743787635</v>
+        <v>0.68453691273504824</v>
       </c>
       <c r="J20">
-        <v>0.31882405256212365</v>
+        <v>0.31546308726495187</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.76506017685100192</v>
+        <v>0.76800910840300618</v>
       </c>
       <c r="O20">
-        <v>0.23493982314899811</v>
+        <v>0.23199089159699376</v>
       </c>
     </row>
     <row r="21">
@@ -1267,31 +1267,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.21187409038847024</v>
+        <v>0.20793311007744053</v>
       </c>
       <c r="C21">
-        <v>0.20482282622774611</v>
+        <v>0.20836976635120175</v>
       </c>
       <c r="D21">
-        <v>0.58330308338378378</v>
+        <v>0.58369712357135772</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.68530509239152348</v>
+        <v>0.68535073671654412</v>
       </c>
       <c r="J21">
-        <v>0.31469490760847657</v>
+        <v>0.31464926328345588</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.78530736767620712</v>
+        <v>0.78291606756374676</v>
       </c>
       <c r="O21">
-        <v>0.21469263232379296</v>
+        <v>0.21708393243625326</v>
       </c>
     </row>
     <row r="22">
@@ -1299,31 +1299,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.20330909880438083</v>
+        <v>0.20584501478067785</v>
       </c>
       <c r="C22">
-        <v>0.20676830205957375</v>
+        <v>0.2035603187917901</v>
       </c>
       <c r="D22">
-        <v>0.58992259913604539</v>
+        <v>0.59059466642753211</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.70079355631028906</v>
+        <v>0.69615614071240917</v>
       </c>
       <c r="J22">
-        <v>0.29920644368971094</v>
+        <v>0.30384385928759083</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.76914542518957252</v>
+        <v>0.77133176723719254</v>
       </c>
       <c r="O22">
-        <v>0.23085457481042754</v>
+        <v>0.22866823276280751</v>
       </c>
     </row>
     <row r="23">
@@ -1331,31 +1331,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.21914978502488822</v>
+        <v>0.21530567070144402</v>
       </c>
       <c r="C23">
-        <v>0.2035685108237254</v>
+        <v>0.20519921139288352</v>
       </c>
       <c r="D23">
-        <v>0.57728170415138647</v>
+        <v>0.57949511790567243</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.70600754484996608</v>
+        <v>0.70035262010627586</v>
       </c>
       <c r="J23">
-        <v>0.29399245515003392</v>
+        <v>0.29964737989372409</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.7517803624502859</v>
+        <v>0.75664800257367293</v>
       </c>
       <c r="O23">
-        <v>0.24821963754971413</v>
+        <v>0.24335199742632702</v>
       </c>
     </row>
     <row r="24">
@@ -1363,31 +1363,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.2097989164632828</v>
+        <v>0.20967928236936278</v>
       </c>
       <c r="C24">
-        <v>0.22472029826468159</v>
+        <v>0.220943993091336</v>
       </c>
       <c r="D24">
-        <v>0.5654807852720356</v>
+        <v>0.5693767245393011</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.70487351146960164</v>
+        <v>0.70772497259949974</v>
       </c>
       <c r="J24">
-        <v>0.29512648853039836</v>
+        <v>0.29227502740050021</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.7735594920877279</v>
+        <v>0.77288934863596759</v>
       </c>
       <c r="O24">
-        <v>0.22644050791227222</v>
+        <v>0.22711065136403244</v>
       </c>
     </row>
     <row r="25">
@@ -1395,31 +1395,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.20967361522941619</v>
+        <v>0.20870922884199039</v>
       </c>
       <c r="C25">
-        <v>0.21569792201547547</v>
+        <v>0.21575161498592255</v>
       </c>
       <c r="D25">
-        <v>0.57462846275510826</v>
+        <v>0.57553915617208717</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.64631596768137511</v>
+        <v>0.64397056743051317</v>
       </c>
       <c r="J25">
-        <v>0.35368403231862483</v>
+        <v>0.35602943256948677</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.7453615281436774</v>
+        <v>0.7578220819400735</v>
       </c>
       <c r="O25">
-        <v>0.2546384718563226</v>
+        <v>0.2421779180599265</v>
       </c>
     </row>
     <row r="26">
@@ -1427,31 +1427,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.21410222604702669</v>
+        <v>0.20945201650504963</v>
       </c>
       <c r="C26">
-        <v>0.20078020775954769</v>
+        <v>0.19833377800202429</v>
       </c>
       <c r="D26">
-        <v>0.58511756619342559</v>
+        <v>0.59221420549292603</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.6907984171611915</v>
+        <v>0.69615790757724227</v>
       </c>
       <c r="J26">
-        <v>0.30920158283880855</v>
+        <v>0.30384209242275778</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.75559801840854446</v>
+        <v>0.75686383195398121</v>
       </c>
       <c r="O26">
-        <v>0.24440198159145565</v>
+        <v>0.24313616804601879</v>
       </c>
     </row>
     <row r="27">
@@ -1459,31 +1459,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.21508840215155348</v>
+        <v>0.21604242799434822</v>
       </c>
       <c r="C27">
-        <v>0.21207514474140687</v>
+        <v>0.21032526494914028</v>
       </c>
       <c r="D27">
-        <v>0.57283645310703957</v>
+        <v>0.57363230705651158</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.68743065281935645</v>
+        <v>0.68555765790381595</v>
       </c>
       <c r="J27">
-        <v>0.3125693471806435</v>
+        <v>0.31444234209618405</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.78718105183971321</v>
+        <v>0.78391185419928056</v>
       </c>
       <c r="O27">
-        <v>0.21281894816028674</v>
+        <v>0.21608814580071944</v>
       </c>
     </row>
     <row r="28">
@@ -1491,31 +1491,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.20647504534282132</v>
+        <v>0.20677763929440235</v>
       </c>
       <c r="C28">
-        <v>0.213586936440436</v>
+        <v>0.20963371121062044</v>
       </c>
       <c r="D28">
-        <v>0.57993801821674262</v>
+        <v>0.58358864949497713</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.70050982510135551</v>
+        <v>0.70305800966744025</v>
       </c>
       <c r="J28">
-        <v>0.29949017489864443</v>
+        <v>0.29694199033255975</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.77018302534257788</v>
+        <v>0.77161461807977694</v>
       </c>
       <c r="O28">
-        <v>0.2298169746574221</v>
+        <v>0.22838538192022306</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.21074012724404934</v>
+        <v>0.20672485204653415</v>
       </c>
       <c r="C29">
-        <v>0.20942084935530028</v>
+        <v>0.21096609829795329</v>
       </c>
       <c r="D29">
-        <v>0.57983902340065041</v>
+        <v>0.58230904965551256</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.7159367198132135</v>
+        <v>0.71910480268304755</v>
       </c>
       <c r="J29">
-        <v>0.2840632801867865</v>
+        <v>0.28089519731695245</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.78973288432713273</v>
+        <v>0.79062844665169885</v>
       </c>
       <c r="O29">
-        <v>0.21026711567286732</v>
+        <v>0.20937155334830104</v>
       </c>
     </row>
     <row r="30">
@@ -1555,31 +1555,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.22611263838799253</v>
+        <v>0.2223988287929238</v>
       </c>
       <c r="C30">
-        <v>0.20026060020929218</v>
+        <v>0.20361893560781141</v>
       </c>
       <c r="D30">
-        <v>0.57362676140271529</v>
+        <v>0.57398223559926476</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.69225623706577588</v>
+        <v>0.69044937419088648</v>
       </c>
       <c r="J30">
-        <v>0.30774376293422417</v>
+        <v>0.30955062580911347</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.76421247122100622</v>
+        <v>0.76422340329891292</v>
       </c>
       <c r="O30">
-        <v>0.23578752877899378</v>
+        <v>0.23577659670108714</v>
       </c>
     </row>
     <row r="31">
@@ -1587,31 +1587,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22669706962370509</v>
+        <v>0.22861444219953622</v>
       </c>
       <c r="C31">
-        <v>0.19678805561106091</v>
+        <v>0.1952465116883613</v>
       </c>
       <c r="D31">
-        <v>0.57651487476523389</v>
+        <v>0.57613904611210243</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.70987833680103496</v>
+        <v>0.70261314704031852</v>
       </c>
       <c r="J31">
-        <v>0.29012166319896504</v>
+        <v>0.29738685295968159</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78040072924601966</v>
+        <v>0.78271706844255928</v>
       </c>
       <c r="O31">
-        <v>0.21959927075398031</v>
+        <v>0.21728293155744063</v>
       </c>
     </row>
     <row r="32">
@@ -1619,31 +1619,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.22442753738590945</v>
+        <v>0.21714969900370168</v>
       </c>
       <c r="C32">
-        <v>0.19341278829822051</v>
+        <v>0.19484493322717522</v>
       </c>
       <c r="D32">
-        <v>0.58215967431587012</v>
+        <v>0.58800536776912316</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.72395526953490741</v>
+        <v>0.72383599759135708</v>
       </c>
       <c r="J32">
-        <v>0.27604473046509254</v>
+        <v>0.27616400240864297</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.76743124560639664</v>
+        <v>0.77846663112155223</v>
       </c>
       <c r="O32">
-        <v>0.23256875439360339</v>
+        <v>0.22153336887844771</v>
       </c>
     </row>
     <row r="33">
@@ -1651,31 +1651,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.21885180865523809</v>
+        <v>0.21797614569618148</v>
       </c>
       <c r="C33">
-        <v>0.20698195401865163</v>
+        <v>0.20299362177329741</v>
       </c>
       <c r="D33">
-        <v>0.57416623732611027</v>
+        <v>0.57903023253052111</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.72300665193208091</v>
+        <v>0.72136145926481954</v>
       </c>
       <c r="J33">
-        <v>0.27699334806791909</v>
+        <v>0.27863854073518046</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.77880567457260974</v>
+        <v>0.78319215909477768</v>
       </c>
       <c r="O33">
-        <v>0.22119432542739023</v>
+        <v>0.21680784090522232</v>
       </c>
     </row>
     <row r="34">
@@ -1683,31 +1683,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.21415239073329473</v>
+        <v>0.21080801137064342</v>
       </c>
       <c r="C34">
-        <v>0.20840512532842531</v>
+        <v>0.20498730924786393</v>
       </c>
       <c r="D34">
-        <v>0.57744248393828002</v>
+        <v>0.58420467938149268</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69532984751636051</v>
+        <v>0.69791876420044252</v>
       </c>
       <c r="J34">
-        <v>0.30467015248363938</v>
+        <v>0.30208123579955742</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.77731448266765102</v>
+        <v>0.78201144372360454</v>
       </c>
       <c r="O34">
-        <v>0.22268551733234893</v>
+        <v>0.21798855627639555</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.22322172904709234</v>
+        <v>0.21878769739099768</v>
       </c>
       <c r="C35">
-        <v>0.19960407778879974</v>
+        <v>0.19900348994511688</v>
       </c>
       <c r="D35">
-        <v>0.5771741931641079</v>
+        <v>0.58220881266388536</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70974928998068221</v>
+        <v>0.71194466122074263</v>
       </c>
       <c r="J35">
-        <v>0.29025071001931779</v>
+        <v>0.28805533877925732</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80160931930451884</v>
+        <v>0.80446273164236104</v>
       </c>
       <c r="O35">
-        <v>0.19839068069548127</v>
+        <v>0.19553726835763904</v>
       </c>
     </row>
     <row r="36">
@@ -1747,31 +1747,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.21709354934219863</v>
+        <v>0.21714461293035275</v>
       </c>
       <c r="C36">
-        <v>0.19167398250809259</v>
+        <v>0.18987871805050377</v>
       </c>
       <c r="D36">
-        <v>0.59123246814970865</v>
+        <v>0.59297666901914359</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.67861457875723608</v>
+        <v>0.66911669064568569</v>
       </c>
       <c r="J36">
-        <v>0.32138542124276387</v>
+        <v>0.33088330935431426</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.80954002864805974</v>
+        <v>0.81293157667715521</v>
       </c>
       <c r="O36">
-        <v>0.19045997135194026</v>
+        <v>0.18706842332284479</v>
       </c>
     </row>
     <row r="37">
@@ -1779,31 +1779,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.20885157473181473</v>
+        <v>0.20461391774687421</v>
       </c>
       <c r="C37">
-        <v>0.18279657538599575</v>
+        <v>0.18054108029198357</v>
       </c>
       <c r="D37">
-        <v>0.60835184988218949</v>
+        <v>0.61484500196114222</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.70828509441130372</v>
+        <v>0.70522587965511441</v>
       </c>
       <c r="J37">
-        <v>0.29171490558869628</v>
+        <v>0.29477412034488554</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.79988650224370816</v>
+        <v>0.80118330717684916</v>
       </c>
       <c r="O37">
-        <v>0.20011349775629175</v>
+        <v>0.19881669282315095</v>
       </c>
     </row>
     <row r="38">
@@ -1811,31 +1811,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.19765423695987466</v>
+        <v>0.19843190905592908</v>
       </c>
       <c r="C38">
-        <v>0.1840250106418499</v>
+        <v>0.18150844300276625</v>
       </c>
       <c r="D38">
-        <v>0.61832075239827555</v>
+        <v>0.62005964794130475</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.67463607044714147</v>
+        <v>0.67555477897320004</v>
       </c>
       <c r="J38">
-        <v>0.32536392955285853</v>
+        <v>0.32444522102680001</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.82880930328061386</v>
+        <v>0.82300450630489885</v>
       </c>
       <c r="O38">
-        <v>0.17119069671938619</v>
+        <v>0.17699549369510112</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1843,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.19237883400207589</v>
+        <v>0.18822366711479468</v>
       </c>
       <c r="C39">
-        <v>0.16392891338949978</v>
+        <v>0.17049526402859302</v>
       </c>
       <c r="D39">
-        <v>0.64369225260842444</v>
+        <v>0.64128106885661229</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.67627905289364509</v>
+        <v>0.67382876074176112</v>
       </c>
       <c r="J39">
-        <v>0.32372094710635496</v>
+        <v>0.32617123925823893</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.82476868056443997</v>
+        <v>0.82707707937144836</v>
       </c>
       <c r="O39">
-        <v>0.17523131943556</v>
+        <v>0.17292292062855161</v>
       </c>
     </row>
     <row r="40">
@@ -1875,31 +1875,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.1677174608168473</v>
+        <v>0.1676063485844477</v>
       </c>
       <c r="C40">
-        <v>0.16943037417361992</v>
+        <v>0.17051443397001614</v>
       </c>
       <c r="D40">
-        <v>0.66285216500953292</v>
+        <v>0.66187921744553624</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.66320970410110225</v>
+        <v>0.66093946166361051</v>
       </c>
       <c r="J40">
-        <v>0.33679029589889764</v>
+        <v>0.33906053833638949</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.84128215486550351</v>
+        <v>0.83811050676708132</v>
       </c>
       <c r="O40">
-        <v>0.15871784513449649</v>
+        <v>0.16188949323291868</v>
       </c>
     </row>
     <row r="41">
@@ -1907,31 +1907,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.15848294796085036</v>
+        <v>0.15891242706007241</v>
       </c>
       <c r="C41">
-        <v>0.16553448277715616</v>
+        <v>0.16632680652715423</v>
       </c>
       <c r="D41">
-        <v>0.6759825692619934</v>
+        <v>0.67476076641277338</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.66911557787808917</v>
+        <v>0.67412228266550867</v>
       </c>
       <c r="J41">
-        <v>0.33088442212191077</v>
+        <v>0.32587771733449139</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.83984245841708793</v>
+        <v>0.83622548169156785</v>
       </c>
       <c r="O41">
-        <v>0.16015754158291207</v>
+        <v>0.16377451830843212</v>
       </c>
     </row>
     <row r="42">
@@ -1939,31 +1939,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.1439968991453984</v>
+        <v>0.14622547924832155</v>
       </c>
       <c r="C42">
-        <v>0.16719793370557676</v>
+        <v>0.16817473509375577</v>
       </c>
       <c r="D42">
-        <v>0.68880516714902484</v>
+        <v>0.68559978565792268</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.63286932050041711</v>
+        <v>0.63309083240033581</v>
       </c>
       <c r="J42">
-        <v>0.36713067949958278</v>
+        <v>0.3669091675996643</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.85212871386015543</v>
+        <v>0.85166850465746102</v>
       </c>
       <c r="O42">
-        <v>0.14787128613984465</v>
+        <v>0.14833149534253906</v>
       </c>
     </row>
     <row r="43">
@@ -1971,31 +1971,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.13267675441427806</v>
+        <v>0.1338987572325519</v>
       </c>
       <c r="C43">
-        <v>0.16084632197173956</v>
+        <v>0.16096734904413157</v>
       </c>
       <c r="D43">
-        <v>0.70647692361398229</v>
+        <v>0.70513389372331658</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.60941951980318232</v>
+        <v>0.6074356201406601</v>
       </c>
       <c r="J43">
-        <v>0.39058048019681757</v>
+        <v>0.39256437985934006</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.84985379577104103</v>
+        <v>0.8462278460506133</v>
       </c>
       <c r="O43">
-        <v>0.15014620422895886</v>
+        <v>0.15377215394938668</v>
       </c>
     </row>
     <row r="44">
@@ -2003,31 +2003,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.12588400898553501</v>
+        <v>0.12438203425058814</v>
       </c>
       <c r="C44">
-        <v>0.15504183112810699</v>
+        <v>0.15667434718080098</v>
       </c>
       <c r="D44">
-        <v>0.71907415988635803</v>
+        <v>0.71894361856861089</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.65471310126461235</v>
+        <v>0.64189424780775983</v>
       </c>
       <c r="J44">
-        <v>0.34528689873538754</v>
+        <v>0.35810575219224017</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.84843174517906317</v>
+        <v>0.84939716642925156</v>
       </c>
       <c r="O44">
-        <v>0.1515682548209368</v>
+        <v>0.15060283357074847</v>
       </c>
     </row>
     <row r="45">
@@ -2035,31 +2035,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.12510662643677653</v>
+        <v>0.12381599036696042</v>
       </c>
       <c r="C45">
-        <v>0.15809466375911316</v>
+        <v>0.15703362631071988</v>
       </c>
       <c r="D45">
-        <v>0.7167987098041102</v>
+        <v>0.71915038332231962</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.6034423311886381</v>
+        <v>0.60797955589310304</v>
       </c>
       <c r="J45">
-        <v>0.3965576688113619</v>
+        <v>0.39202044410689696</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.85473505933327609</v>
+        <v>0.85116542570122744</v>
       </c>
       <c r="O45">
-        <v>0.14526494066672399</v>
+        <v>0.1488345742987725</v>
       </c>
     </row>
     <row r="46">
@@ -2067,31 +2067,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.12184982303936301</v>
+        <v>0.1213965202888769</v>
       </c>
       <c r="C46">
-        <v>0.1525114133509341</v>
+        <v>0.15584516333615706</v>
       </c>
       <c r="D46">
-        <v>0.72563876360970292</v>
+        <v>0.72275831637496613</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.56101139226763508</v>
+        <v>0.56572276459925297</v>
       </c>
       <c r="J46">
-        <v>0.43898860773236492</v>
+        <v>0.43427723540074703</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.85177652953625693</v>
+        <v>0.85377937461612141</v>
       </c>
       <c r="O46">
-        <v>0.14822347046374315</v>
+        <v>0.14622062538387864</v>
       </c>
     </row>
     <row r="47">
@@ -2099,31 +2099,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.11068562395981653</v>
+        <v>0.11145942382646609</v>
       </c>
       <c r="C47">
-        <v>0.15168138577680879</v>
+        <v>0.14992235030440204</v>
       </c>
       <c r="D47">
-        <v>0.73763299026337481</v>
+        <v>0.73861822586913195</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.61488791360986028</v>
+        <v>0.61874444171394172</v>
       </c>
       <c r="J47">
-        <v>0.38511208639013966</v>
+        <v>0.38125555828605828</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.82522223225973301</v>
+        <v>0.82568510999189959</v>
       </c>
       <c r="O47">
-        <v>0.17477776774026701</v>
+        <v>0.17431489000810027</v>
       </c>
     </row>
     <row r="48">
@@ -2131,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.12734517957057231</v>
+        <v>0.12838825485416874</v>
       </c>
       <c r="C48">
-        <v>0.15878044271144676</v>
+        <v>0.15783717519177176</v>
       </c>
       <c r="D48">
-        <v>0.71387437771798101</v>
+        <v>0.71377456995405941</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.5918420245501228</v>
+        <v>0.59435708415283295</v>
       </c>
       <c r="J48">
-        <v>0.4081579754498772</v>
+        <v>0.40564291584716711</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.84522376392020415</v>
+        <v>0.84937924028791167</v>
       </c>
       <c r="O48">
-        <v>0.1547762360797959</v>
+        <v>0.15062075971208827</v>
       </c>
     </row>
     <row r="49">
@@ -2163,31 +2163,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.11161579913825422</v>
+        <v>0.11087736783751637</v>
       </c>
       <c r="C49">
-        <v>0.17074755667941904</v>
+        <v>0.17008699935609564</v>
       </c>
       <c r="D49">
-        <v>0.71763664418232676</v>
+        <v>0.71903563280638805</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.60862509671822163</v>
+        <v>0.61415888146715991</v>
       </c>
       <c r="J49">
-        <v>0.39137490328177849</v>
+        <v>0.38584111853283998</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.83469700717959394</v>
+        <v>0.83612381858347784</v>
       </c>
       <c r="O49">
-        <v>0.16530299282040603</v>
+        <v>0.16387618141652213</v>
       </c>
     </row>
     <row r="50">
@@ -2195,31 +2195,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.11963968908779522</v>
+        <v>0.11623500941798141</v>
       </c>
       <c r="C50">
-        <v>0.17007287931642578</v>
+        <v>0.16967149923141914</v>
       </c>
       <c r="D50">
-        <v>0.71028743159577901</v>
+        <v>0.71409349135059963</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.56848859168038524</v>
+        <v>0.56605409436914977</v>
       </c>
       <c r="J50">
-        <v>0.43151140831961471</v>
+        <v>0.43394590563085023</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.82278696659633721</v>
+        <v>0.82253784267945351</v>
       </c>
       <c r="O50">
-        <v>0.17721303340366268</v>
+        <v>0.17746215732054635</v>
       </c>
     </row>
     <row r="51">
@@ -2227,31 +2227,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.12603634786681783</v>
+        <v>0.12510860838249163</v>
       </c>
       <c r="C51">
-        <v>0.16107183353091037</v>
+        <v>0.16186454418571528</v>
       </c>
       <c r="D51">
-        <v>0.71289181860227169</v>
+        <v>0.71302684743179323</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.57072016552372584</v>
+        <v>0.57331919732041314</v>
       </c>
       <c r="J51">
-        <v>0.42927983447627421</v>
+        <v>0.4266808026795868</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.82248758561613067</v>
+        <v>0.82389916043854283</v>
       </c>
       <c r="O51">
-        <v>0.17751241438386942</v>
+        <v>0.17610083956145714</v>
       </c>
     </row>
     <row r="52">
@@ -2259,31 +2259,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.12159481460154613</v>
+        <v>0.11880132855129846</v>
       </c>
       <c r="C52">
-        <v>0.15991487553050376</v>
+        <v>0.16146938004665221</v>
       </c>
       <c r="D52">
-        <v>0.71849030986795004</v>
+        <v>0.71972929140204933</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.55617528203021505</v>
+        <v>0.55754654953469851</v>
       </c>
       <c r="J52">
-        <v>0.44382471796978501</v>
+        <v>0.44245345046530155</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.84318493279065498</v>
+        <v>0.84573047748404917</v>
       </c>
       <c r="O52">
-        <v>0.15681506720934504</v>
+        <v>0.15426952251595077</v>
       </c>
     </row>
     <row r="53">
@@ -2291,31 +2291,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.11685145909115899</v>
+        <v>0.11329615819833444</v>
       </c>
       <c r="C53">
-        <v>0.16934333395169465</v>
+        <v>0.16863559992372615</v>
       </c>
       <c r="D53">
-        <v>0.71380520695714633</v>
+        <v>0.71806824187793938</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.59913034565592638</v>
+        <v>0.59475266178783193</v>
       </c>
       <c r="J53">
-        <v>0.40086965434407362</v>
+        <v>0.40524733821216807</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.82188673924551214</v>
+        <v>0.82080932173448817</v>
       </c>
       <c r="O53">
-        <v>0.17811326075448791</v>
+        <v>0.17919067826551183</v>
       </c>
     </row>
     <row r="54">
@@ -2323,13 +2323,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.11060040138881272</v>
+        <v>0.10790333330724772</v>
       </c>
       <c r="C54">
-        <v>0.1777943705617932</v>
+        <v>0.18015237300254361</v>
       </c>
       <c r="D54">
-        <v>0.71160522804939419</v>
+        <v>0.71194429369020873</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -5305,19 +5305,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.80827848390929102</v>
+        <v>0.79496233690234164</v>
       </c>
       <c r="J3">
-        <v>0.191721516090709</v>
+        <v>0.20503766309765836</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.64205243551221014</v>
+        <v>0.63409962205721981</v>
       </c>
       <c r="O3">
-        <v>0.35794756448778986</v>
+        <v>0.36590037794278013</v>
       </c>
     </row>
     <row r="4">
@@ -5325,19 +5325,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.81655451332016549</v>
+        <v>0.79930627405568311</v>
       </c>
       <c r="J4">
-        <v>0.18344548667983451</v>
+        <v>0.20069372594431692</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.68828909438426467</v>
+        <v>0.66938359966569394</v>
       </c>
       <c r="O4">
-        <v>0.31171090561573533</v>
+        <v>0.33061640033430612</v>
       </c>
     </row>
     <row r="5">
@@ -5345,19 +5345,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.76350979294445598</v>
+        <v>0.77424036319358491</v>
       </c>
       <c r="J5">
-        <v>0.23649020705554405</v>
+        <v>0.22575963680641509</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.71561672511195018</v>
+        <v>0.70567951168356635</v>
       </c>
       <c r="O5">
-        <v>0.28438327488804988</v>
+        <v>0.29432048831643354</v>
       </c>
     </row>
     <row r="6">
@@ -5365,19 +5365,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.81563003613373586</v>
+        <v>0.8224577465341476</v>
       </c>
       <c r="J6">
-        <v>0.18436996386626414</v>
+        <v>0.17754225346585242</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.55022495312961817</v>
+        <v>0.53703490006769894</v>
       </c>
       <c r="O6">
-        <v>0.44977504687038178</v>
+        <v>0.46296509993230123</v>
       </c>
     </row>
     <row r="7">
@@ -5385,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.77760547678839564</v>
+        <v>0.78345202285122328</v>
       </c>
       <c r="J7">
-        <v>0.22239452321160427</v>
+        <v>0.21654797714877672</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.67920565748520134</v>
+        <v>0.64377830531138724</v>
       </c>
       <c r="O7">
-        <v>0.3207943425147986</v>
+        <v>0.35622169468861287</v>
       </c>
     </row>
     <row r="8">
@@ -5405,19 +5405,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.79683573996351886</v>
+        <v>0.8078684227109203</v>
       </c>
       <c r="J8">
-        <v>0.20316426003648116</v>
+        <v>0.19213157728907973</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.63113026148994134</v>
+        <v>0.62253146158213168</v>
       </c>
       <c r="O8">
-        <v>0.36886973851005878</v>
+        <v>0.37746853841786832</v>
       </c>
     </row>
     <row r="9">
@@ -5425,19 +5425,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.71968367987578896</v>
+        <v>0.73242582576660575</v>
       </c>
       <c r="J9">
-        <v>0.28031632012421093</v>
+        <v>0.2675741742333943</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.58949481362880951</v>
+        <v>0.62012041793187966</v>
       </c>
       <c r="O9">
-        <v>0.41050518637119054</v>
+        <v>0.37987958206812028</v>
       </c>
     </row>
     <row r="10">
@@ -5445,19 +5445,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.78436833535772565</v>
+        <v>0.78281707340815543</v>
       </c>
       <c r="J10">
-        <v>0.21563166464227432</v>
+        <v>0.21718292659184457</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.53710389910731304</v>
+        <v>0.55514533359128293</v>
       </c>
       <c r="O10">
-        <v>0.4628961008926869</v>
+        <v>0.44485466640871707</v>
       </c>
     </row>
     <row r="11">
@@ -5465,19 +5465,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.71595519184901746</v>
+        <v>0.7050352302983266</v>
       </c>
       <c r="J11">
-        <v>0.28404480815098249</v>
+        <v>0.2949647697016734</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.64175720928418045</v>
+        <v>0.66881339081089786</v>
       </c>
       <c r="O11">
-        <v>0.35824279071581966</v>
+        <v>0.33118660918910209</v>
       </c>
     </row>
     <row r="12">
@@ -5485,19 +5485,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.78332781834933596</v>
+        <v>0.77538273859502427</v>
       </c>
       <c r="J12">
-        <v>0.21667218165066399</v>
+        <v>0.22461726140497568</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.69505096520091159</v>
+        <v>0.70307654542470144</v>
       </c>
       <c r="O12">
-        <v>0.30494903479908847</v>
+        <v>0.29692345457529873</v>
       </c>
     </row>
     <row r="13">
@@ -5505,19 +5505,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.73576863360264033</v>
+        <v>0.74047890121379223</v>
       </c>
       <c r="J13">
-        <v>0.26423136639735961</v>
+        <v>0.2595210987862076</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.72783995444164129</v>
+        <v>0.70046924303340108</v>
       </c>
       <c r="O13">
-        <v>0.27216004555835871</v>
+        <v>0.29953075696659892</v>
       </c>
     </row>
     <row r="14">
@@ -5525,19 +5525,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.75749598032805165</v>
+        <v>0.78190465253367569</v>
       </c>
       <c r="J14">
-        <v>0.24250401967194837</v>
+        <v>0.21809534746632439</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.65643716926532092</v>
+        <v>0.66677793983218026</v>
       </c>
       <c r="O14">
-        <v>0.34356283073467914</v>
+        <v>0.33322206016781986</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.78664539209989748</v>
+        <v>0.79617505480239159</v>
       </c>
       <c r="J15">
-        <v>0.21335460790010252</v>
+        <v>0.20382494519760835</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.64231055761718259</v>
+        <v>0.64755973859503502</v>
       </c>
       <c r="O15">
-        <v>0.35768944238281741</v>
+        <v>0.35244026140496493</v>
       </c>
     </row>
     <row r="16">
@@ -5565,19 +5565,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.80645336514846744</v>
+        <v>0.79026375077169397</v>
       </c>
       <c r="J16">
-        <v>0.19354663485153253</v>
+        <v>0.20973624922830603</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.62565437941848978</v>
+        <v>0.62677677653591191</v>
       </c>
       <c r="O16">
-        <v>0.37434562058151027</v>
+        <v>0.37322322346408809</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.7966458657184845</v>
+        <v>0.79677724777354575</v>
       </c>
       <c r="J17">
-        <v>0.20335413428151553</v>
+        <v>0.20322275222645428</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.6580262832306174</v>
+        <v>0.67500939469825105</v>
       </c>
       <c r="O17">
-        <v>0.34197371676938254</v>
+        <v>0.32499060530174884</v>
       </c>
     </row>
     <row r="18">
@@ -5605,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.78144100473393985</v>
+        <v>0.78568118971910139</v>
       </c>
       <c r="J18">
-        <v>0.21855899526606015</v>
+        <v>0.21431881028089855</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.70952678429842531</v>
+        <v>0.72937633936832202</v>
       </c>
       <c r="O18">
-        <v>0.29047321570157469</v>
+        <v>0.27062366063167798</v>
       </c>
     </row>
     <row r="19">
@@ -5625,19 +5625,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.77768974128854362</v>
+        <v>0.78443526274859887</v>
       </c>
       <c r="J19">
-        <v>0.22231025871145635</v>
+        <v>0.21556473725140099</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.70544298083024337</v>
+        <v>0.71453441613714697</v>
       </c>
       <c r="O19">
-        <v>0.29455701916975674</v>
+        <v>0.28546558386285292</v>
       </c>
     </row>
     <row r="20">
@@ -5645,19 +5645,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.76487536031933523</v>
+        <v>0.78752858606017273</v>
       </c>
       <c r="J20">
-        <v>0.23512463968066463</v>
+        <v>0.21247141393982727</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.65414175997901169</v>
+        <v>0.6539080705935616</v>
       </c>
       <c r="O20">
-        <v>0.34585824002098819</v>
+        <v>0.34609192940643846</v>
       </c>
     </row>
     <row r="21">
@@ -5665,19 +5665,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.78092162127098519</v>
+        <v>0.78392644328675687</v>
       </c>
       <c r="J21">
-        <v>0.21907837872901484</v>
+        <v>0.21607355671324321</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.72667544875816314</v>
+        <v>0.71937044308449605</v>
       </c>
       <c r="O21">
-        <v>0.27332455124183686</v>
+        <v>0.28062955691550395</v>
       </c>
     </row>
     <row r="22">
@@ -5685,19 +5685,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.76351779795675978</v>
+        <v>0.74554684242751856</v>
       </c>
       <c r="J22">
-        <v>0.23648220204324016</v>
+        <v>0.25445315757248144</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.69254895334842803</v>
+        <v>0.69698000955349138</v>
       </c>
       <c r="O22">
-        <v>0.30745104665157197</v>
+        <v>0.30301999044650868</v>
       </c>
     </row>
     <row r="23">
@@ -5705,19 +5705,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.77267081542963201</v>
+        <v>0.77217255209837987</v>
       </c>
       <c r="J23">
-        <v>0.2273291845703681</v>
+        <v>0.22782744790162007</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.6352685340806532</v>
+        <v>0.64651445518977435</v>
       </c>
       <c r="O23">
-        <v>0.3647314659193468</v>
+        <v>0.35348554481022565</v>
       </c>
     </row>
     <row r="24">
@@ -5725,19 +5725,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.79024094126667599</v>
+        <v>0.78831645893664182</v>
       </c>
       <c r="J24">
-        <v>0.20975905873332396</v>
+        <v>0.21168354106335813</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.72306313247289122</v>
+        <v>0.71755773513278753</v>
       </c>
       <c r="O24">
-        <v>0.27693686752710872</v>
+        <v>0.28244226486721247</v>
       </c>
     </row>
     <row r="25">
@@ -5745,19 +5745,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.74288463862529519</v>
+        <v>0.74676665176011126</v>
       </c>
       <c r="J25">
-        <v>0.25711536137470481</v>
+        <v>0.25323334823988874</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.67786905079159654</v>
+        <v>0.67489791148067924</v>
       </c>
       <c r="O25">
-        <v>0.32213094920840346</v>
+        <v>0.32510208851932082</v>
       </c>
     </row>
     <row r="26">
@@ -5765,19 +5765,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.78390582369004524</v>
+        <v>0.7883278853905481</v>
       </c>
       <c r="J26">
-        <v>0.21609417630995473</v>
+        <v>0.21167211460945187</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.66226144429242029</v>
+        <v>0.66358092065382979</v>
       </c>
       <c r="O26">
-        <v>0.33773855570757977</v>
+        <v>0.33641907934617021</v>
       </c>
     </row>
     <row r="27">
@@ -5785,19 +5785,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.77030948344323324</v>
+        <v>0.77137346929496575</v>
       </c>
       <c r="J27">
-        <v>0.22969051655676667</v>
+        <v>0.22862653070503425</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.72931611071031122</v>
+        <v>0.72010447520991772</v>
       </c>
       <c r="O27">
-        <v>0.27068388928968878</v>
+        <v>0.27989552479008223</v>
       </c>
     </row>
     <row r="28">
@@ -5805,19 +5805,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.7771952493296953</v>
+        <v>0.77698466812331024</v>
       </c>
       <c r="J28">
-        <v>0.2228047506703047</v>
+        <v>0.22301533187668973</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.68507011185033351</v>
+        <v>0.68716179793454701</v>
       </c>
       <c r="O28">
-        <v>0.31492988814966649</v>
+        <v>0.31283820206545293</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.80859667560751902</v>
+        <v>0.80224514435124195</v>
       </c>
       <c r="J29">
-        <v>0.19140332439248092</v>
+        <v>0.19775485564875803</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.68375977276769884</v>
+        <v>0.6846619572987962</v>
       </c>
       <c r="O29">
-        <v>0.31624022723230127</v>
+        <v>0.31533804270120386</v>
       </c>
     </row>
     <row r="30">
@@ -5845,19 +5845,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.76370384600586405</v>
+        <v>0.76038073318502886</v>
       </c>
       <c r="J30">
-        <v>0.23629615399413595</v>
+        <v>0.23961926681497112</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70272752684696083</v>
+        <v>0.70156699032814207</v>
       </c>
       <c r="O30">
-        <v>0.29727247315303917</v>
+        <v>0.29843300967185804</v>
       </c>
     </row>
     <row r="31">
@@ -5865,19 +5865,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.82044949277660761</v>
+        <v>0.81190520412204636</v>
       </c>
       <c r="J31">
-        <v>0.17955050722339241</v>
+        <v>0.18809479587795366</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.67524062769991566</v>
+        <v>0.67722758933357829</v>
       </c>
       <c r="O31">
-        <v>0.32475937230008428</v>
+        <v>0.32277241066642182</v>
       </c>
     </row>
     <row r="32">
@@ -5885,19 +5885,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.7956565052554313</v>
+        <v>0.79781574668619126</v>
       </c>
       <c r="J32">
-        <v>0.20434349474456864</v>
+        <v>0.20218425331380879</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.71566607782508584</v>
+        <v>0.71851162463568263</v>
       </c>
       <c r="O32">
-        <v>0.28433392217491421</v>
+        <v>0.28148837536431731</v>
       </c>
     </row>
     <row r="33">
@@ -5905,19 +5905,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.78412207000294443</v>
+        <v>0.77877703638764662</v>
       </c>
       <c r="J33">
-        <v>0.2158779299970556</v>
+        <v>0.22122296361235341</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.69599818112982492</v>
+        <v>0.69968986794019217</v>
       </c>
       <c r="O33">
-        <v>0.30400181887017508</v>
+        <v>0.30031013205980789</v>
       </c>
     </row>
     <row r="34">
@@ -5925,19 +5925,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.78468267694784966</v>
+        <v>0.77595786944596901</v>
       </c>
       <c r="J34">
-        <v>0.21531732305215037</v>
+        <v>0.22404213055403108</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.70710660743277742</v>
+        <v>0.71181151269012055</v>
       </c>
       <c r="O34">
-        <v>0.29289339256722269</v>
+        <v>0.2881884873098795</v>
       </c>
     </row>
     <row r="35">
@@ -5945,19 +5945,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.76440511404894707</v>
+        <v>0.77372559646646355</v>
       </c>
       <c r="J35">
-        <v>0.23559488595105299</v>
+        <v>0.22627440353353648</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.7181224504800735</v>
+        <v>0.72348275003624574</v>
       </c>
       <c r="O35">
-        <v>0.28187754951992638</v>
+        <v>0.27651724996375437</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.71866769128199026</v>
+        <v>0.71315212938812567</v>
       </c>
       <c r="J36">
-        <v>0.28133230871800974</v>
+        <v>0.28684787061187439</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.73414248840633101</v>
+        <v>0.73622419957586871</v>
       </c>
       <c r="O36">
-        <v>0.26585751159366905</v>
+        <v>0.2637758004241314</v>
       </c>
     </row>
     <row r="37">
@@ -5985,19 +5985,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.79864663856760121</v>
+        <v>0.79065681722644332</v>
       </c>
       <c r="J37">
-        <v>0.20135336143239882</v>
+        <v>0.20934318277355665</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.74605048918148542</v>
+        <v>0.74102436791472814</v>
       </c>
       <c r="O37">
-        <v>0.25394951081851452</v>
+        <v>0.25897563208527191</v>
       </c>
     </row>
     <row r="38">
@@ -6005,19 +6005,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.73865748727573033</v>
+        <v>0.74221276630759303</v>
       </c>
       <c r="J38">
-        <v>0.26134251272426967</v>
+        <v>0.25778723369240697</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.78074407551519653</v>
+        <v>0.76975803288455191</v>
       </c>
       <c r="O38">
-        <v>0.21925592448480349</v>
+        <v>0.230241967115448</v>
       </c>
     </row>
     <row r="39">
@@ -6025,19 +6025,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.73495598189678302</v>
+        <v>0.72841464462091032</v>
       </c>
       <c r="J39">
-        <v>0.26504401810321704</v>
+        <v>0.27158535537908962</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.80179473226090903</v>
+        <v>0.80051684887198304</v>
       </c>
       <c r="O39">
-        <v>0.19820526773909083</v>
+        <v>0.19948315112801701</v>
       </c>
     </row>
     <row r="40">
@@ -6045,19 +6045,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.71176889528597154</v>
+        <v>0.71688109334775285</v>
       </c>
       <c r="J40">
-        <v>0.28823110471402852</v>
+        <v>0.28311890665224715</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.78426136196683705</v>
+        <v>0.77893491749864274</v>
       </c>
       <c r="O40">
-        <v>0.21573863803316298</v>
+        <v>0.22106508250135723</v>
       </c>
     </row>
     <row r="41">
@@ -6065,19 +6065,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.73661746752409474</v>
+        <v>0.74302479415615708</v>
       </c>
       <c r="J41">
-        <v>0.26338253247590521</v>
+        <v>0.25697520584384298</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.77403931760912414</v>
+        <v>0.77143982548278534</v>
       </c>
       <c r="O41">
-        <v>0.22596068239087594</v>
+        <v>0.22856017451721472</v>
       </c>
     </row>
     <row r="42">
@@ -6085,19 +6085,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.67759981015714688</v>
+        <v>0.67721906884266758</v>
       </c>
       <c r="J42">
-        <v>0.32240018984285318</v>
+        <v>0.32278093115733253</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.81562149402281381</v>
+        <v>0.81770844870833193</v>
       </c>
       <c r="O42">
-        <v>0.18437850597718619</v>
+        <v>0.18229155129166802</v>
       </c>
     </row>
     <row r="43">
@@ -6105,19 +6105,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.67919585133513294</v>
+        <v>0.67601854774555481</v>
       </c>
       <c r="J43">
-        <v>0.32080414866486717</v>
+        <v>0.32398145225444519</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.80502745771270112</v>
+        <v>0.79809214499219472</v>
       </c>
       <c r="O43">
-        <v>0.19497254228729888</v>
+        <v>0.20190785500780531</v>
       </c>
     </row>
     <row r="44">
@@ -6125,19 +6125,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.70769271603320139</v>
+        <v>0.702473284463624</v>
       </c>
       <c r="J44">
-        <v>0.29230728396679861</v>
+        <v>0.29752671553637594</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.79674850763518679</v>
+        <v>0.79546739661722232</v>
       </c>
       <c r="O44">
-        <v>0.20325149236481319</v>
+        <v>0.20453260338277765</v>
       </c>
     </row>
     <row r="45">
@@ -6145,19 +6145,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.66826353019734142</v>
+        <v>0.67398533469225697</v>
       </c>
       <c r="J45">
-        <v>0.33173646980265853</v>
+        <v>0.32601466530774298</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.81797036924563093</v>
+        <v>0.81607397683105221</v>
       </c>
       <c r="O45">
-        <v>0.18202963075436918</v>
+        <v>0.18392602316894785</v>
       </c>
     </row>
     <row r="46">
@@ -6165,19 +6165,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.63780566571730901</v>
+        <v>0.63936316959657313</v>
       </c>
       <c r="J46">
-        <v>0.36219433428269093</v>
+        <v>0.36063683040342687</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.82836785821896786</v>
+        <v>0.82487546298271153</v>
       </c>
       <c r="O46">
-        <v>0.17163214178103223</v>
+        <v>0.17512453701728845</v>
       </c>
     </row>
     <row r="47">
@@ -6185,19 +6185,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.67588707926715108</v>
+        <v>0.67741144390560748</v>
       </c>
       <c r="J47">
-        <v>0.32411292073284886</v>
+        <v>0.32258855609439263</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.77306268524424804</v>
+        <v>0.77370183412728222</v>
       </c>
       <c r="O47">
-        <v>0.22693731475575188</v>
+        <v>0.2262981658727177</v>
       </c>
     </row>
     <row r="48">
@@ -6205,19 +6205,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.65626343833914647</v>
+        <v>0.65670059195733133</v>
       </c>
       <c r="J48">
-        <v>0.34373656166085353</v>
+        <v>0.34329940804266867</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.80746752414476153</v>
+        <v>0.81221174039743926</v>
       </c>
       <c r="O48">
-        <v>0.19253247585523842</v>
+        <v>0.18778825960256082</v>
       </c>
     </row>
     <row r="49">
@@ -6225,19 +6225,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.63272828869411279</v>
+        <v>0.63901420130135889</v>
       </c>
       <c r="J49">
-        <v>0.36727171130588726</v>
+        <v>0.36098579869864106</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.78231561719059428</v>
+        <v>0.78158038970023846</v>
       </c>
       <c r="O49">
-        <v>0.21768438280940569</v>
+        <v>0.21841961029976165</v>
       </c>
     </row>
     <row r="50">
@@ -6245,19 +6245,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.60209242614440561</v>
+        <v>0.60178470385751415</v>
       </c>
       <c r="J50">
-        <v>0.39790757385559422</v>
+        <v>0.3982152961424858</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.77128838691833479</v>
+        <v>0.77429400149820671</v>
       </c>
       <c r="O50">
-        <v>0.22871161308166527</v>
+        <v>0.22570599850179329</v>
       </c>
     </row>
     <row r="51">
@@ -6265,19 +6265,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.60664679989163628</v>
+        <v>0.60277368982615487</v>
       </c>
       <c r="J51">
-        <v>0.39335320010836378</v>
+        <v>0.39722631017384524</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.79399715288426986</v>
+        <v>0.7931531575834232</v>
       </c>
       <c r="O51">
-        <v>0.20600284711573011</v>
+        <v>0.20684684241657675</v>
       </c>
     </row>
     <row r="52">
@@ -6285,19 +6285,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.59643804611154871</v>
+        <v>0.59882481913301899</v>
       </c>
       <c r="J52">
-        <v>0.4035619538884514</v>
+        <v>0.40117518086698095</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.81002606074168071</v>
+        <v>0.8129219620572341</v>
       </c>
       <c r="O52">
-        <v>0.18997393925831924</v>
+        <v>0.18707803794276587</v>
       </c>
     </row>
     <row r="53">
@@ -6305,19 +6305,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.62047318986021205</v>
+        <v>0.61805695514594228</v>
       </c>
       <c r="J53">
-        <v>0.37952681013978795</v>
+        <v>0.38194304485405778</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.78020118267908067</v>
+        <v>0.77741302670903589</v>
       </c>
       <c r="O53">
-        <v>0.21979881732091944</v>
+        <v>0.222586973290964</v>
       </c>
     </row>
     <row r="54">
@@ -7007,19 +7007,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.71735153082907432</v>
+        <v>0.70794310374183889</v>
       </c>
       <c r="J3">
-        <v>0.28264846917092556</v>
+        <v>0.29205689625816106</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.75815686629586954</v>
+        <v>0.75271689309315293</v>
       </c>
       <c r="O3">
-        <v>0.24184313370413052</v>
+        <v>0.2472831069068471</v>
       </c>
     </row>
     <row r="4">
@@ -7027,19 +7027,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.69720827587239553</v>
+        <v>0.69391406912641884</v>
       </c>
       <c r="J4">
-        <v>0.30279172412760452</v>
+        <v>0.30608593087358105</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.71781694409765051</v>
+        <v>0.71664599474557467</v>
       </c>
       <c r="O4">
-        <v>0.28218305590234943</v>
+        <v>0.28335400525442539</v>
       </c>
     </row>
     <row r="5">
@@ -7047,19 +7047,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.63284005787521191</v>
+        <v>0.65163121929667345</v>
       </c>
       <c r="J5">
-        <v>0.36715994212478809</v>
+        <v>0.3483687807033265</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.72508895672954643</v>
+        <v>0.72349027996071424</v>
       </c>
       <c r="O5">
-        <v>0.27491104327045351</v>
+        <v>0.27650972003928576</v>
       </c>
     </row>
     <row r="6">
@@ -7067,19 +7067,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.67728090393848284</v>
+        <v>0.66366348067552683</v>
       </c>
       <c r="J6">
-        <v>0.32271909606151711</v>
+        <v>0.33633651932447334</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.73941188676400105</v>
+        <v>0.73885117283791835</v>
       </c>
       <c r="O6">
-        <v>0.26058811323599895</v>
+        <v>0.26114882716208165</v>
       </c>
     </row>
     <row r="7">
@@ -7087,19 +7087,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.67143349279136</v>
+        <v>0.68584069482026755</v>
       </c>
       <c r="J7">
-        <v>0.32856650720863995</v>
+        <v>0.31415930517973245</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.75783196025995037</v>
+        <v>0.75064900148916514</v>
       </c>
       <c r="O7">
-        <v>0.24216803974004961</v>
+        <v>0.24935099851083495</v>
       </c>
     </row>
     <row r="8">
@@ -7107,19 +7107,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.68965581564095202</v>
+        <v>0.69584682782226936</v>
       </c>
       <c r="J8">
-        <v>0.31034418435904781</v>
+        <v>0.30415317217773075</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.76451064853460926</v>
+        <v>0.76290213185187628</v>
       </c>
       <c r="O8">
-        <v>0.23548935146539071</v>
+        <v>0.23709786814812375</v>
       </c>
     </row>
     <row r="9">
@@ -7127,19 +7127,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.66165730378575405</v>
+        <v>0.65211218873104104</v>
       </c>
       <c r="J9">
-        <v>0.33834269621424595</v>
+        <v>0.3478878112689589</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.73033429744435685</v>
+        <v>0.73449208831014212</v>
       </c>
       <c r="O9">
-        <v>0.26966570255564315</v>
+        <v>0.26550791168985788</v>
       </c>
     </row>
     <row r="10">
@@ -7147,19 +7147,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.70357916211030647</v>
+        <v>0.7036223019479716</v>
       </c>
       <c r="J10">
-        <v>0.29642083788969348</v>
+        <v>0.29637769805202829</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.74243165615348106</v>
+        <v>0.7463272712865533</v>
       </c>
       <c r="O10">
-        <v>0.257568343846519</v>
+        <v>0.2536727287134467</v>
       </c>
     </row>
     <row r="11">
@@ -7167,19 +7167,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.66773443292533696</v>
+        <v>0.66112431625102108</v>
       </c>
       <c r="J11">
-        <v>0.33226556707466309</v>
+        <v>0.33887568374897886</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.77550328793744761</v>
+        <v>0.7595200425232026</v>
       </c>
       <c r="O11">
-        <v>0.22449671206255239</v>
+        <v>0.24047995747679746</v>
       </c>
     </row>
     <row r="12">
@@ -7187,19 +7187,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.68918053293084014</v>
+        <v>0.69342673105805341</v>
       </c>
       <c r="J12">
-        <v>0.31081946706915986</v>
+        <v>0.3065732689419467</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.73733396692691344</v>
+        <v>0.73489826285463555</v>
       </c>
       <c r="O12">
-        <v>0.26266603307308656</v>
+        <v>0.26510173714536439</v>
       </c>
     </row>
     <row r="13">
@@ -7207,19 +7207,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.69327673920686084</v>
+        <v>0.68587203692413201</v>
       </c>
       <c r="J13">
-        <v>0.30672326079313911</v>
+        <v>0.31412796307586793</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.75836688591546664</v>
+        <v>0.75731308076567994</v>
       </c>
       <c r="O13">
-        <v>0.24163311408453345</v>
+        <v>0.24268691923432009</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.68400539701733398</v>
+        <v>0.7119914189118155</v>
       </c>
       <c r="J14">
-        <v>0.31599460298266602</v>
+        <v>0.28800858108818439</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.74862489568139445</v>
+        <v>0.75573115807805369</v>
       </c>
       <c r="O14">
-        <v>0.25137510431860549</v>
+        <v>0.24426884192194626</v>
       </c>
     </row>
     <row r="15">
@@ -7247,19 +7247,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.6825449685823507</v>
+        <v>0.68565806920007466</v>
       </c>
       <c r="J15">
-        <v>0.31745503141764941</v>
+        <v>0.3143419307999254</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.76526794393636399</v>
+        <v>0.77056081690546907</v>
       </c>
       <c r="O15">
-        <v>0.23473205606363598</v>
+        <v>0.22943918309453093</v>
       </c>
     </row>
     <row r="16">
@@ -7267,19 +7267,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.66841888305692287</v>
+        <v>0.65926144083939786</v>
       </c>
       <c r="J16">
-        <v>0.33158111694307707</v>
+        <v>0.34073855916060225</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.77799567654262702</v>
+        <v>0.78126844973162557</v>
       </c>
       <c r="O16">
-        <v>0.22200432345737303</v>
+        <v>0.21873155026837446</v>
       </c>
     </row>
     <row r="17">
@@ -7287,19 +7287,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.68160723050845995</v>
+        <v>0.676385217020947</v>
       </c>
       <c r="J17">
-        <v>0.31839276949154005</v>
+        <v>0.323614782979053</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78782243814452635</v>
+        <v>0.77864698723104186</v>
       </c>
       <c r="O17">
-        <v>0.21217756185547365</v>
+        <v>0.22135301276895811</v>
       </c>
     </row>
     <row r="18">
@@ -7307,19 +7307,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.66694446282442577</v>
+        <v>0.68071835669884229</v>
       </c>
       <c r="J18">
-        <v>0.33305553717557418</v>
+        <v>0.31928164330115771</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.7835643121179815</v>
+        <v>0.77453704854672201</v>
       </c>
       <c r="O18">
-        <v>0.21643568788201847</v>
+        <v>0.22546295145327797</v>
       </c>
     </row>
     <row r="19">
@@ -7327,19 +7327,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.68344760158283302</v>
+        <v>0.67044950415943838</v>
       </c>
       <c r="J19">
-        <v>0.31655239841716692</v>
+        <v>0.32955049584056162</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.78649914572045976</v>
+        <v>0.79107524246458671</v>
       </c>
       <c r="O19">
-        <v>0.21350085427954016</v>
+        <v>0.20892475753541323</v>
       </c>
     </row>
     <row r="20">
@@ -7347,19 +7347,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64176152914387108</v>
+        <v>0.6367491587736428</v>
       </c>
       <c r="J20">
-        <v>0.35823847085612887</v>
+        <v>0.36325084122635715</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.80502854169246429</v>
+        <v>0.80901245829798696</v>
       </c>
       <c r="O20">
-        <v>0.19497145830753582</v>
+        <v>0.19098754170201307</v>
       </c>
     </row>
     <row r="21">
@@ -7367,19 +7367,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.62808732512216114</v>
+        <v>0.62775330706972787</v>
       </c>
       <c r="J21">
-        <v>0.3719126748778388</v>
+        <v>0.37224669293027207</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.80739293473900942</v>
+        <v>0.80658365925081077</v>
       </c>
       <c r="O21">
-        <v>0.19260706526099056</v>
+        <v>0.19341634074918918</v>
       </c>
     </row>
     <row r="22">
@@ -7387,19 +7387,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.65761303888477574</v>
+        <v>0.66316948090328021</v>
       </c>
       <c r="J22">
-        <v>0.34238696111522421</v>
+        <v>0.33683051909671974</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.79944520833195287</v>
+        <v>0.80116916552353135</v>
       </c>
       <c r="O22">
-        <v>0.20055479166804713</v>
+        <v>0.19883083447646868</v>
       </c>
     </row>
     <row r="23">
@@ -7407,19 +7407,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.66130311217078741</v>
+        <v>0.65408690234109845</v>
       </c>
       <c r="J23">
-        <v>0.33869688782921253</v>
+        <v>0.34591309765890149</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.79925763942460448</v>
+        <v>0.80248165289021045</v>
       </c>
       <c r="O23">
-        <v>0.20074236057539549</v>
+        <v>0.19751834710978949</v>
       </c>
     </row>
     <row r="24">
@@ -7427,19 +7427,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.6474321383653463</v>
+        <v>0.65424638576236149</v>
       </c>
       <c r="J24">
-        <v>0.35256786163465376</v>
+        <v>0.34575361423763856</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.79278139307161966</v>
+        <v>0.79424356143440378</v>
       </c>
       <c r="O24">
-        <v>0.20721860692838032</v>
+        <v>0.20575643856559617</v>
       </c>
     </row>
     <row r="25">
@@ -7447,19 +7447,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.58338582082433221</v>
+        <v>0.57706880668363869</v>
       </c>
       <c r="J25">
-        <v>0.41661417917566773</v>
+        <v>0.4229311933163612</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.77461555568732854</v>
+        <v>0.79406985143320985</v>
       </c>
       <c r="O25">
-        <v>0.22538444431267149</v>
+        <v>0.20593014856679023</v>
       </c>
     </row>
     <row r="26">
@@ -7467,19 +7467,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.62615457572017352</v>
+        <v>0.6273696398133668</v>
       </c>
       <c r="J26">
-        <v>0.37384542427982648</v>
+        <v>0.37263036018663326</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.79914190831753229</v>
+        <v>0.7998984173501491</v>
       </c>
       <c r="O26">
-        <v>0.20085809168246774</v>
+        <v>0.20010158264985095</v>
       </c>
     </row>
     <row r="27">
@@ -7487,19 +7487,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.61778906075830708</v>
+        <v>0.61317317519955339</v>
       </c>
       <c r="J27">
-        <v>0.38221093924169297</v>
+        <v>0.38682682480044661</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.81299132195930224</v>
+        <v>0.81302564204688899</v>
       </c>
       <c r="O27">
-        <v>0.18700867804069773</v>
+        <v>0.18697435795311099</v>
       </c>
     </row>
     <row r="28">
@@ -7507,19 +7507,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.6415918329588377</v>
+        <v>0.64633747684295306</v>
       </c>
       <c r="J28">
-        <v>0.35840816704116224</v>
+        <v>0.35366252315704694</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.81604835332455239</v>
+        <v>0.81775308730455443</v>
       </c>
       <c r="O28">
-        <v>0.18395164667544767</v>
+        <v>0.1822469126954456</v>
       </c>
     </row>
     <row r="29">
@@ -7527,19 +7527,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.63624006136554123</v>
+        <v>0.64688357094122495</v>
       </c>
       <c r="J29">
-        <v>0.36375993863445871</v>
+        <v>0.35311642905877499</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.84259579273654539</v>
+        <v>0.84423311913144616</v>
       </c>
       <c r="O29">
-        <v>0.15740420726345461</v>
+        <v>0.15576688086855395</v>
       </c>
     </row>
     <row r="30">
@@ -7547,19 +7547,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.62025666153563053</v>
+        <v>0.61737622094003763</v>
       </c>
       <c r="J30">
-        <v>0.37974333846436942</v>
+        <v>0.38262377905996242</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79742716632701793</v>
+        <v>0.79891369933448475</v>
       </c>
       <c r="O30">
-        <v>0.20257283367298209</v>
+        <v>0.20108630066551517</v>
       </c>
     </row>
     <row r="31">
@@ -7567,19 +7567,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.60648707554413028</v>
+        <v>0.59884660645020771</v>
       </c>
       <c r="J31">
-        <v>0.39351292445586966</v>
+        <v>0.40115339354979224</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.84391306132750588</v>
+        <v>0.84734387886213891</v>
       </c>
       <c r="O31">
-        <v>0.15608693867249418</v>
+        <v>0.15265612113786112</v>
       </c>
     </row>
     <row r="32">
@@ -7587,19 +7587,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.64688107820322349</v>
+        <v>0.64273593478814239</v>
       </c>
       <c r="J32">
-        <v>0.35311892179677645</v>
+        <v>0.35726406521185761</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.79621465809566339</v>
+        <v>0.81421535137283219</v>
       </c>
       <c r="O32">
-        <v>0.20378534190433659</v>
+        <v>0.18578464862716779</v>
       </c>
     </row>
     <row r="33">
@@ -7607,19 +7607,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65428361335133955</v>
+        <v>0.65500273364991446</v>
       </c>
       <c r="J33">
-        <v>0.34571638664866045</v>
+        <v>0.3449972663500856</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.82887416425355076</v>
+        <v>0.83413873481111478</v>
       </c>
       <c r="O33">
-        <v>0.1711258357464493</v>
+        <v>0.16586126518888522</v>
       </c>
     </row>
     <row r="34">
@@ -7627,19 +7627,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.57905295615535968</v>
+        <v>0.59564405315731217</v>
       </c>
       <c r="J34">
-        <v>0.42094704384464032</v>
+        <v>0.40435594684268772</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.81757938474831482</v>
+        <v>0.8221212070372228</v>
       </c>
       <c r="O34">
-        <v>0.18242061525168518</v>
+        <v>0.17787879296277723</v>
       </c>
     </row>
     <row r="35">
@@ -7647,19 +7647,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.63466843262577055</v>
+        <v>0.62792355900185393</v>
       </c>
       <c r="J35">
-        <v>0.36533156737422934</v>
+        <v>0.37207644099814602</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.86114355518653263</v>
+        <v>0.86432835346770542</v>
       </c>
       <c r="O35">
-        <v>0.13885644481346748</v>
+        <v>0.13567164653229469</v>
       </c>
     </row>
     <row r="36">
@@ -7667,19 +7667,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.61532586837819347</v>
+        <v>0.60172362928101941</v>
       </c>
       <c r="J36">
-        <v>0.38467413162180653</v>
+        <v>0.39827637071898053</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.86314838886560152</v>
+        <v>0.87067661076457836</v>
       </c>
       <c r="O36">
-        <v>0.13685161113439862</v>
+        <v>0.12932338923542178</v>
       </c>
     </row>
     <row r="37">
@@ -7687,19 +7687,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.57194665455623905</v>
+        <v>0.57215564437091015</v>
       </c>
       <c r="J37">
-        <v>0.42805334544376089</v>
+        <v>0.42784435562908985</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.84014471723107442</v>
+        <v>0.84709617246101321</v>
       </c>
       <c r="O37">
-        <v>0.15985528276892547</v>
+        <v>0.15290382753898682</v>
       </c>
     </row>
     <row r="38">
@@ -7707,19 +7707,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.56261020069826506</v>
+        <v>0.55643727972567547</v>
       </c>
       <c r="J38">
-        <v>0.43738979930173505</v>
+        <v>0.44356272027432458</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.86773379710577103</v>
+        <v>0.86627770080187194</v>
       </c>
       <c r="O38">
-        <v>0.13226620289422908</v>
+        <v>0.133722299198128</v>
       </c>
     </row>
     <row r="39">
@@ -7727,19 +7727,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.5790022614422522</v>
+        <v>0.5850126224997092</v>
       </c>
       <c r="J39">
-        <v>0.4209977385577478</v>
+        <v>0.41498737750029091</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.84506189340389537</v>
+        <v>0.85077522889678991</v>
       </c>
       <c r="O39">
-        <v>0.15493810659610469</v>
+        <v>0.14922477110321009</v>
       </c>
     </row>
     <row r="40">
@@ -7747,19 +7747,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.55922043825688839</v>
+        <v>0.54660192849656286</v>
       </c>
       <c r="J40">
-        <v>0.44077956174311167</v>
+        <v>0.45339807150343703</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.8956206952412169</v>
+        <v>0.89454941304939539</v>
       </c>
       <c r="O40">
-        <v>0.10437930475878308</v>
+        <v>0.10545058695060458</v>
       </c>
     </row>
     <row r="41">
@@ -7767,19 +7767,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.53432991136620045</v>
+        <v>0.5382945758195582</v>
       </c>
       <c r="J41">
-        <v>0.46567008863379961</v>
+        <v>0.46170542418044169</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.90068010234997997</v>
+        <v>0.89707065297451072</v>
       </c>
       <c r="O41">
-        <v>0.099319897650020153</v>
+        <v>0.10292934702548928</v>
       </c>
     </row>
     <row r="42">
@@ -7787,19 +7787,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.5341909116684127</v>
+        <v>0.53341651341862428</v>
       </c>
       <c r="J42">
-        <v>0.46580908833158724</v>
+        <v>0.46658348658137583</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.88691490218554359</v>
+        <v>0.88488295188508859</v>
       </c>
       <c r="O42">
-        <v>0.11308509781445647</v>
+        <v>0.11511704811491136</v>
       </c>
     </row>
     <row r="43">
@@ -7807,19 +7807,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.4785442694431255</v>
+        <v>0.47943834230932519</v>
       </c>
       <c r="J43">
-        <v>0.52145573055687455</v>
+        <v>0.52056165769067486</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.89858524383501004</v>
+        <v>0.89861655095909476</v>
       </c>
       <c r="O43">
-        <v>0.10141475616498996</v>
+        <v>0.10138344904090531</v>
       </c>
     </row>
     <row r="44">
@@ -7827,19 +7827,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.53978700574429683</v>
+        <v>0.51102232467591613</v>
       </c>
       <c r="J44">
-        <v>0.46021299425570317</v>
+        <v>0.48897767532408387</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.90135838176831551</v>
+        <v>0.90451868165615423</v>
       </c>
       <c r="O44">
-        <v>0.098641618231684478</v>
+        <v>0.095481318343845781</v>
       </c>
     </row>
     <row r="45">
@@ -7847,19 +7847,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.45316942251099701</v>
+        <v>0.45004749046614201</v>
       </c>
       <c r="J45">
-        <v>0.54683057748900288</v>
+        <v>0.54995250953385799</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.89539513571080076</v>
+        <v>0.88979392731698781</v>
       </c>
       <c r="O45">
-        <v>0.1046048642891993</v>
+        <v>0.11020607268301223</v>
       </c>
     </row>
     <row r="46">
@@ -7867,19 +7867,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.39455612642422905</v>
+        <v>0.40226097432158225</v>
       </c>
       <c r="J46">
-        <v>0.6054438735757709</v>
+        <v>0.59773902567841775</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.87686688206275432</v>
+        <v>0.88590654554311243</v>
       </c>
       <c r="O46">
-        <v>0.12313311793724568</v>
+        <v>0.11409345445688755</v>
       </c>
     </row>
     <row r="47">
@@ -7887,19 +7887,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.4820521878312452</v>
+        <v>0.48820395866674055</v>
       </c>
       <c r="J47">
-        <v>0.51794781216875474</v>
+        <v>0.51179604133325951</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.88323466893290459</v>
+        <v>0.88445839217416977</v>
       </c>
       <c r="O47">
-        <v>0.1167653310670955</v>
+        <v>0.11554160782583028</v>
       </c>
     </row>
     <row r="48">
@@ -7907,19 +7907,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.43164623874649533</v>
+        <v>0.43913464825074833</v>
       </c>
       <c r="J48">
-        <v>0.56835376125350479</v>
+        <v>0.56086535174925167</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.89074520011800529</v>
+        <v>0.89484895344033222</v>
       </c>
       <c r="O48">
-        <v>0.1092547998819948</v>
+        <v>0.10515104655966777</v>
       </c>
     </row>
     <row r="49">
@@ -7927,19 +7927,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.54569840569639627</v>
+        <v>0.54869366883345216</v>
       </c>
       <c r="J49">
-        <v>0.45430159430360367</v>
+        <v>0.45130633116654789</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.8985301573890665</v>
+        <v>0.90265034839156366</v>
       </c>
       <c r="O49">
-        <v>0.10146984261093352</v>
+        <v>0.097349651608436255</v>
       </c>
     </row>
     <row r="50">
@@ -7947,19 +7947,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.48498133165222213</v>
+        <v>0.47518433605186911</v>
       </c>
       <c r="J50">
-        <v>0.51501866834777776</v>
+        <v>0.52481566394813084</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.89332437727621949</v>
+        <v>0.88945298201356215</v>
       </c>
       <c r="O50">
-        <v>0.10667562272378057</v>
+        <v>0.11054701798643775</v>
       </c>
     </row>
     <row r="51">
@@ -7967,19 +7967,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.46761137957744048</v>
+        <v>0.48512319946278171</v>
       </c>
       <c r="J51">
-        <v>0.53238862042255952</v>
+        <v>0.51487680053721829</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.86395622646746917</v>
+        <v>0.8689829262418155</v>
       </c>
       <c r="O51">
-        <v>0.13604377353253089</v>
+        <v>0.13101707375818458</v>
       </c>
     </row>
     <row r="52">
@@ -7987,19 +7987,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.44505049490056514</v>
+        <v>0.44432291274562996</v>
       </c>
       <c r="J52">
-        <v>0.55494950509943486</v>
+        <v>0.55567708725437004</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.89852978149621154</v>
+        <v>0.90107891571220355</v>
       </c>
       <c r="O52">
-        <v>0.1014702185037885</v>
+        <v>0.098921084287796501</v>
       </c>
     </row>
     <row r="53">
@@ -8007,19 +8007,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.51913571531101754</v>
+        <v>0.51151750216001457</v>
       </c>
       <c r="J53">
-        <v>0.48086428468898235</v>
+        <v>0.48848249783998549</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.89983702373877028</v>
+        <v>0.89899734560893885</v>
       </c>
       <c r="O53">
-        <v>0.10016297626122964</v>
+        <v>0.10100265439106117</v>
       </c>
     </row>
     <row r="54">
@@ -8539,31 +8539,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.063355351994642706</v>
+        <v>0.064951342756725816</v>
       </c>
       <c r="C3">
-        <v>0.15309277124095386</v>
+        <v>0.15369670951091116</v>
       </c>
       <c r="D3">
-        <v>0.78355187676440352</v>
+        <v>0.78135194773236294</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.50737116231026169</v>
+        <v>0.50890558686844511</v>
       </c>
       <c r="J3">
-        <v>0.49262883768973831</v>
+        <v>0.49109441313155489</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.86131363403752847</v>
+        <v>0.86179320778291202</v>
       </c>
       <c r="O3">
-        <v>0.13868636596247153</v>
+        <v>0.13820679221708804</v>
       </c>
     </row>
     <row r="4">
@@ -8571,31 +8571,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.064347714611105736</v>
+        <v>0.062216088779597493</v>
       </c>
       <c r="C4">
-        <v>0.1541255215544885</v>
+        <v>0.15714850340225595</v>
       </c>
       <c r="D4">
-        <v>0.78152676383440578</v>
+        <v>0.78063540781814655</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.52507567856586779</v>
+        <v>0.51523159940517516</v>
       </c>
       <c r="J4">
-        <v>0.47492432143413221</v>
+        <v>0.48476840059482479</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.84991055761351597</v>
+        <v>0.84794115209108178</v>
       </c>
       <c r="O4">
-        <v>0.15008944238648397</v>
+        <v>0.15205884790891827</v>
       </c>
     </row>
     <row r="5">
@@ -8603,31 +8603,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.07592089617493028</v>
+        <v>0.074438796546048916</v>
       </c>
       <c r="C5">
-        <v>0.15515800394013138</v>
+        <v>0.15618797646430782</v>
       </c>
       <c r="D5">
-        <v>0.76892109988493829</v>
+        <v>0.76937322698964328</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.50048930501564648</v>
+        <v>0.51161163293722023</v>
       </c>
       <c r="J5">
-        <v>0.49951069498435346</v>
+        <v>0.48838836706277977</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.85633569562921885</v>
+        <v>0.85785435900666995</v>
       </c>
       <c r="O5">
-        <v>0.14366430437078115</v>
+        <v>0.14214564099332996</v>
       </c>
     </row>
     <row r="6">
@@ -8635,31 +8635,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.07269109217060378</v>
+        <v>0.073167776493885908</v>
       </c>
       <c r="C6">
-        <v>0.16081613905557035</v>
+        <v>0.15959645104984449</v>
       </c>
       <c r="D6">
-        <v>0.76649276877382588</v>
+        <v>0.76723577245626973</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.52064566760390474</v>
+        <v>0.53748770727264672</v>
       </c>
       <c r="J6">
-        <v>0.47935433239609526</v>
+        <v>0.46251229272735322</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86386447379781817</v>
+        <v>0.86511382077090238</v>
       </c>
       <c r="O6">
-        <v>0.13613552620218181</v>
+        <v>0.13488617922909762</v>
       </c>
     </row>
     <row r="7">
@@ -8667,31 +8667,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.07576285577842197</v>
+        <v>0.082150523990529994</v>
       </c>
       <c r="C7">
-        <v>0.15172361675908952</v>
+        <v>0.14961974900538089</v>
       </c>
       <c r="D7">
-        <v>0.77251352746248858</v>
+        <v>0.7682297270040892</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.56701911675056471</v>
+        <v>0.55608613022294306</v>
       </c>
       <c r="J7">
-        <v>0.43298088324943523</v>
+        <v>0.44391386977705699</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.85132087853589655</v>
+        <v>0.85134010540623695</v>
       </c>
       <c r="O7">
-        <v>0.14867912146410342</v>
+        <v>0.14865989459376308</v>
       </c>
     </row>
     <row r="8">
@@ -8699,31 +8699,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.073886022046957364</v>
+        <v>0.07693485433531333</v>
       </c>
       <c r="C8">
-        <v>0.16414215068596072</v>
+        <v>0.15984090168256226</v>
       </c>
       <c r="D8">
-        <v>0.7619718272670819</v>
+        <v>0.76322424398212441</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.56986716495321832</v>
+        <v>0.56823031370710686</v>
       </c>
       <c r="J8">
-        <v>0.43013283504678157</v>
+        <v>0.43176968629289308</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83698334634267835</v>
+        <v>0.83635054770094719</v>
       </c>
       <c r="O8">
-        <v>0.16301665365732171</v>
+        <v>0.16364945229905273</v>
       </c>
     </row>
     <row r="9">
@@ -8731,31 +8731,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.069855088996066086</v>
+        <v>0.072118017652099325</v>
       </c>
       <c r="C9">
-        <v>0.18587938992774716</v>
+        <v>0.18413883170477918</v>
       </c>
       <c r="D9">
-        <v>0.74426552107618671</v>
+        <v>0.74374315064312158</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.483278053310293</v>
+        <v>0.48976187154384815</v>
       </c>
       <c r="J9">
-        <v>0.51672194668970695</v>
+        <v>0.51023812845615191</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.86057122478713344</v>
+        <v>0.86377338495802525</v>
       </c>
       <c r="O9">
-        <v>0.13942877521286651</v>
+        <v>0.13622661504197464</v>
       </c>
     </row>
     <row r="10">
@@ -8763,31 +8763,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.079276815296311073</v>
+        <v>0.079818972643280708</v>
       </c>
       <c r="C10">
-        <v>0.15295226067232315</v>
+        <v>0.15379195066537579</v>
       </c>
       <c r="D10">
-        <v>0.76777092403136582</v>
+        <v>0.76638907669134337</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.58370336719426363</v>
+        <v>0.57930253313585678</v>
       </c>
       <c r="J10">
-        <v>0.41629663280573631</v>
+        <v>0.42069746686414317</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.85603097456155852</v>
+        <v>0.85370824353635877</v>
       </c>
       <c r="O10">
-        <v>0.14396902543844151</v>
+        <v>0.1462917564636412</v>
       </c>
     </row>
     <row r="11">
@@ -8795,31 +8795,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.084929494719187121</v>
+        <v>0.085445071742887777</v>
       </c>
       <c r="C11">
-        <v>0.15842399642784918</v>
+        <v>0.15891237968121044</v>
       </c>
       <c r="D11">
-        <v>0.7566465088529637</v>
+        <v>0.75564254857590185</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.58503452612776508</v>
+        <v>0.57169539783271373</v>
       </c>
       <c r="J11">
-        <v>0.41496547387223492</v>
+        <v>0.42830460216728639</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.86283195159696902</v>
+        <v>0.86144827081296582</v>
       </c>
       <c r="O11">
-        <v>0.13716804840303096</v>
+        <v>0.13855172918703415</v>
       </c>
     </row>
     <row r="12">
@@ -8827,31 +8827,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.081342093437959229</v>
+        <v>0.08067310194459637</v>
       </c>
       <c r="C12">
-        <v>0.16690541631363798</v>
+        <v>0.16906705878638609</v>
       </c>
       <c r="D12">
-        <v>0.75175249024840285</v>
+        <v>0.75025983926901751</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.57526035292739774</v>
+        <v>0.56604921927023055</v>
       </c>
       <c r="J12">
-        <v>0.4247396470726022</v>
+        <v>0.43395078072976956</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.8590086857430137</v>
+        <v>0.85679771148527728</v>
       </c>
       <c r="O12">
-        <v>0.1409913142569863</v>
+        <v>0.14320228851472272</v>
       </c>
     </row>
     <row r="13">
@@ -8859,31 +8859,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.094386005040520915</v>
+        <v>0.09295280449134953</v>
       </c>
       <c r="C13">
-        <v>0.16165260298103221</v>
+        <v>0.16088566550486519</v>
       </c>
       <c r="D13">
-        <v>0.74396139197844702</v>
+        <v>0.74616153000378527</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.62021077177204875</v>
+        <v>0.61749574062726464</v>
       </c>
       <c r="J13">
-        <v>0.37978922822795125</v>
+        <v>0.38250425937273524</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.82609649859975309</v>
+        <v>0.81650644890779311</v>
       </c>
       <c r="O13">
-        <v>0.17390350140024699</v>
+        <v>0.18349355109220686</v>
       </c>
     </row>
     <row r="14">
@@ -8891,31 +8891,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.10134277307640371</v>
+        <v>0.10081714381582797</v>
       </c>
       <c r="C14">
-        <v>0.17572479729125723</v>
+        <v>0.18249205048749717</v>
       </c>
       <c r="D14">
-        <v>0.72293242963233917</v>
+        <v>0.71669080569667487</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.59197236239945306</v>
+        <v>0.58324852327201215</v>
       </c>
       <c r="J14">
-        <v>0.408027637600547</v>
+        <v>0.41675147672798779</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.8388915956263161</v>
+        <v>0.84168697957491312</v>
       </c>
       <c r="O14">
-        <v>0.16110840437368376</v>
+        <v>0.1583130204250868</v>
       </c>
     </row>
     <row r="15">
@@ -8923,31 +8923,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.11565135293049614</v>
+        <v>0.11427121646136808</v>
       </c>
       <c r="C15">
-        <v>0.16700467808031427</v>
+        <v>0.16740348699785731</v>
       </c>
       <c r="D15">
-        <v>0.71734396898918962</v>
+        <v>0.71832529654077448</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.58155190433630755</v>
+        <v>0.59090196198590306</v>
       </c>
       <c r="J15">
-        <v>0.41844809566369245</v>
+        <v>0.409098038014097</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.83157565090982866</v>
+        <v>0.83040812734879232</v>
       </c>
       <c r="O15">
-        <v>0.16842434909017132</v>
+        <v>0.16959187265120756</v>
       </c>
     </row>
     <row r="16">
@@ -8955,31 +8955,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.11233589734051408</v>
+        <v>0.1141556466692874</v>
       </c>
       <c r="C16">
-        <v>0.17537258112606158</v>
+        <v>0.18109255483076711</v>
       </c>
       <c r="D16">
-        <v>0.71229152153342434</v>
+        <v>0.7047517984999454</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.60390989750768531</v>
+        <v>0.59170339009361783</v>
       </c>
       <c r="J16">
-        <v>0.39609010249231469</v>
+        <v>0.40829660990638217</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.84963083124056982</v>
+        <v>0.85099619818568495</v>
       </c>
       <c r="O16">
-        <v>0.15036916875943027</v>
+        <v>0.14900380181431502</v>
       </c>
     </row>
     <row r="17">
@@ -8987,31 +8987,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.11538513165555132</v>
+        <v>0.11319942537172432</v>
       </c>
       <c r="C17">
-        <v>0.1708485436675776</v>
+        <v>0.17066825660767118</v>
       </c>
       <c r="D17">
-        <v>0.71376632467687118</v>
+        <v>0.71613231802060462</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.60726808801502907</v>
+        <v>0.60818715201624662</v>
       </c>
       <c r="J17">
-        <v>0.39273191198497076</v>
+        <v>0.39181284798375349</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.83586143242456434</v>
+        <v>0.83521537672188195</v>
       </c>
       <c r="O17">
-        <v>0.1641385675754356</v>
+        <v>0.16478462327811808</v>
       </c>
     </row>
     <row r="18">
@@ -9019,31 +9019,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.11742034622270235</v>
+        <v>0.11623334157331076</v>
       </c>
       <c r="C18">
-        <v>0.17331321366847882</v>
+        <v>0.17699229180781467</v>
       </c>
       <c r="D18">
-        <v>0.7092664401088189</v>
+        <v>0.70677436661887461</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.6738166788918708</v>
+        <v>0.66557170581721581</v>
       </c>
       <c r="J18">
-        <v>0.32618332110812925</v>
+        <v>0.33442829418278419</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.82918300383875232</v>
+        <v>0.82490877648960137</v>
       </c>
       <c r="O18">
-        <v>0.17081699616124776</v>
+        <v>0.1750912235103986</v>
       </c>
     </row>
     <row r="19">
@@ -9051,31 +9051,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.13615786653534293</v>
+        <v>0.13535482113843172</v>
       </c>
       <c r="C19">
-        <v>0.17524122248718774</v>
+        <v>0.17677654509833604</v>
       </c>
       <c r="D19">
-        <v>0.68860091097746923</v>
+        <v>0.68786863376323226</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.6473822423383474</v>
+        <v>0.64701118220290488</v>
       </c>
       <c r="J19">
-        <v>0.35261775766165271</v>
+        <v>0.35298881779709512</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.84732358998949953</v>
+        <v>0.8431572520043773</v>
       </c>
       <c r="O19">
-        <v>0.15267641001050036</v>
+        <v>0.15684274799562259</v>
       </c>
     </row>
     <row r="20">
@@ -9083,31 +9083,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.12654111331529524</v>
+        <v>0.12386785233817059</v>
       </c>
       <c r="C20">
-        <v>0.17600483117461607</v>
+        <v>0.17900259704732741</v>
       </c>
       <c r="D20">
-        <v>0.69745405551008854</v>
+        <v>0.69712955061450188</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.66235752074749432</v>
+        <v>0.64226230206975921</v>
       </c>
       <c r="J20">
-        <v>0.33764247925250573</v>
+        <v>0.35773769793024068</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.83137803052525505</v>
+        <v>0.82900494306810768</v>
       </c>
       <c r="O20">
-        <v>0.168621969474745</v>
+        <v>0.17099505693189238</v>
       </c>
     </row>
     <row r="21">
@@ -9115,31 +9115,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.13738317691493054</v>
+        <v>0.13579387444616212</v>
       </c>
       <c r="C21">
-        <v>0.18827471895707368</v>
+        <v>0.18648745962512914</v>
       </c>
       <c r="D21">
-        <v>0.67434210412799578</v>
+        <v>0.67771866592870866</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.67033184386127487</v>
+        <v>0.65633023304346028</v>
       </c>
       <c r="J21">
-        <v>0.32966815613872519</v>
+        <v>0.34366976695653978</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.82316345352260978</v>
+        <v>0.8190810969789728</v>
       </c>
       <c r="O21">
-        <v>0.17683654647739017</v>
+        <v>0.18091890302102726</v>
       </c>
     </row>
     <row r="22">
@@ -9147,31 +9147,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.15459636823445874</v>
+        <v>0.15043042395123835</v>
       </c>
       <c r="C22">
-        <v>0.1845472418910189</v>
+        <v>0.18679492530645064</v>
       </c>
       <c r="D22">
-        <v>0.66085638987452244</v>
+        <v>0.66277465074231101</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.67716225439379152</v>
+        <v>0.67484672919623601</v>
       </c>
       <c r="J22">
-        <v>0.32283774560620843</v>
+        <v>0.32515327080376388</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.83629612982882739</v>
+        <v>0.83783216306641872</v>
       </c>
       <c r="O22">
-        <v>0.16370387017117261</v>
+        <v>0.16216783693358122</v>
       </c>
     </row>
     <row r="23">
@@ -9179,31 +9179,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.15174137873477461</v>
+        <v>0.15135403374659442</v>
       </c>
       <c r="C23">
-        <v>0.18829780001207472</v>
+        <v>0.18783523696521237</v>
       </c>
       <c r="D23">
-        <v>0.65996082125315059</v>
+        <v>0.66081072928819318</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.65243562847578629</v>
+        <v>0.64536069871693835</v>
       </c>
       <c r="J23">
-        <v>0.34756437152421366</v>
+        <v>0.3546393012830617</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.81877387042964589</v>
+        <v>0.81931368669813831</v>
       </c>
       <c r="O23">
-        <v>0.18122612957035403</v>
+        <v>0.18068631330186172</v>
       </c>
     </row>
     <row r="24">
@@ -9211,31 +9211,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.15372952659964295</v>
+        <v>0.15287271015639969</v>
       </c>
       <c r="C24">
-        <v>0.18852313209751495</v>
+        <v>0.18884901146408861</v>
       </c>
       <c r="D24">
-        <v>0.65774734130284207</v>
+        <v>0.65827827837951158</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.66952613337786704</v>
+        <v>0.67829428483296184</v>
       </c>
       <c r="J24">
-        <v>0.33047386662213291</v>
+        <v>0.32170571516703822</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.81757953945103434</v>
+        <v>0.8180221081114043</v>
       </c>
       <c r="O24">
-        <v>0.18242046054896563</v>
+        <v>0.1819778918885957</v>
       </c>
     </row>
     <row r="25">
@@ -9243,31 +9243,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.16609703149655905</v>
+        <v>0.16446735744417953</v>
       </c>
       <c r="C25">
-        <v>0.18161086131005993</v>
+        <v>0.18495160158329763</v>
       </c>
       <c r="D25">
-        <v>0.65229210719338093</v>
+        <v>0.65058104097252289</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.70578350695069347</v>
+        <v>0.70817559830632304</v>
       </c>
       <c r="J25">
-        <v>0.29421649304930653</v>
+        <v>0.29182440169367696</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.81166558031456937</v>
+        <v>0.81043388201170175</v>
       </c>
       <c r="O25">
-        <v>0.18833441968543069</v>
+        <v>0.18956611798829823</v>
       </c>
     </row>
     <row r="26">
@@ -9275,31 +9275,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.17316246915428316</v>
+        <v>0.17212358924776766</v>
       </c>
       <c r="C26">
-        <v>0.19054598697754646</v>
+        <v>0.19792531649782616</v>
       </c>
       <c r="D26">
-        <v>0.63629154386817044</v>
+        <v>0.62995109425440632</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.69187313579162568</v>
+        <v>0.69485675525006418</v>
       </c>
       <c r="J26">
-        <v>0.30812686420837437</v>
+        <v>0.30514324474993587</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80574768717349132</v>
+        <v>0.80350723071630092</v>
       </c>
       <c r="O26">
-        <v>0.19425231282650873</v>
+        <v>0.1964927692836991</v>
       </c>
     </row>
     <row r="27">
@@ -9307,31 +9307,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.18217287650382169</v>
+        <v>0.18079822043864638</v>
       </c>
       <c r="C27">
-        <v>0.19917147222055534</v>
+        <v>0.20416043582356055</v>
       </c>
       <c r="D27">
-        <v>0.61865565127562305</v>
+        <v>0.61504134373779307</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.69857323922278269</v>
+        <v>0.69568673624427368</v>
       </c>
       <c r="J27">
-        <v>0.3014267607772172</v>
+        <v>0.30431326375572643</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.79659006431505641</v>
+        <v>0.79742760841710447</v>
       </c>
       <c r="O27">
-        <v>0.20340993568494362</v>
+        <v>0.20257239158289558</v>
       </c>
     </row>
     <row r="28">
@@ -9339,31 +9339,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.18063740874740342</v>
+        <v>0.17849723681537641</v>
       </c>
       <c r="C28">
-        <v>0.21208808270689802</v>
+        <v>0.2126017542948313</v>
       </c>
       <c r="D28">
-        <v>0.60727450854569853</v>
+        <v>0.60890100888979237</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.71351331920478545</v>
+        <v>0.71710192659699834</v>
       </c>
       <c r="J28">
-        <v>0.28648668079521461</v>
+        <v>0.28289807340300166</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.78928023782972168</v>
+        <v>0.78834794653626727</v>
       </c>
       <c r="O28">
-        <v>0.21071976217027819</v>
+        <v>0.21165205346373264</v>
       </c>
     </row>
     <row r="29">
@@ -9371,31 +9371,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20071601238260664</v>
+        <v>0.19998009732332492</v>
       </c>
       <c r="C29">
-        <v>0.20170655022748932</v>
+        <v>0.20226096489077477</v>
       </c>
       <c r="D29">
-        <v>0.5975774373899041</v>
+        <v>0.59775893778590028</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.72845730579558943</v>
+        <v>0.73334987248094008</v>
       </c>
       <c r="J29">
-        <v>0.27154269420441052</v>
+        <v>0.26665012751905992</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.78873093531143501</v>
+        <v>0.79097433099767422</v>
       </c>
       <c r="O29">
-        <v>0.21126906468856507</v>
+        <v>0.20902566900232578</v>
       </c>
     </row>
     <row r="30">
@@ -9403,31 +9403,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.21086083886430385</v>
+        <v>0.20711404531024274</v>
       </c>
       <c r="C30">
-        <v>0.20726490471622763</v>
+        <v>0.21423685735763465</v>
       </c>
       <c r="D30">
-        <v>0.58187425641946855</v>
+        <v>0.57864909733212255</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.7482528171337639</v>
+        <v>0.74760167467121919</v>
       </c>
       <c r="J30">
-        <v>0.25174718286623615</v>
+        <v>0.25239832532878081</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79409232493386195</v>
+        <v>0.79334918006737698</v>
       </c>
       <c r="O30">
-        <v>0.20590767506613819</v>
+        <v>0.20665081993262296</v>
       </c>
     </row>
     <row r="31">
@@ -9435,31 +9435,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22705147933975295</v>
+        <v>0.22696808922403092</v>
       </c>
       <c r="C31">
-        <v>0.20538095835662853</v>
+        <v>0.20925273897028607</v>
       </c>
       <c r="D31">
-        <v>0.56756756230361838</v>
+        <v>0.56377917180568293</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.75969276072752345</v>
+        <v>0.7633275057090233</v>
       </c>
       <c r="J31">
-        <v>0.24030723927247657</v>
+        <v>0.23667249429097681</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.80892811494823424</v>
+        <v>0.80048206375544673</v>
       </c>
       <c r="O31">
-        <v>0.19107188505176581</v>
+        <v>0.1995179362445533</v>
       </c>
     </row>
     <row r="32">
@@ -9467,31 +9467,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21965622881433833</v>
+        <v>0.22270552803759575</v>
       </c>
       <c r="C32">
-        <v>0.2081282435037905</v>
+        <v>0.21392061066494231</v>
       </c>
       <c r="D32">
-        <v>0.57221552768187112</v>
+        <v>0.56337386129746192</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.7810467641803347</v>
+        <v>0.77823145072932354</v>
       </c>
       <c r="J32">
-        <v>0.21895323581966533</v>
+        <v>0.22176854927067641</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.80987461291825524</v>
+        <v>0.80903610291113692</v>
       </c>
       <c r="O32">
-        <v>0.1901253870817447</v>
+        <v>0.19096389708886305</v>
       </c>
     </row>
     <row r="33">
@@ -9499,31 +9499,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.24673917005793711</v>
+        <v>0.24756015027907152</v>
       </c>
       <c r="C33">
-        <v>0.20654751919559103</v>
+        <v>0.20916571737215162</v>
       </c>
       <c r="D33">
-        <v>0.546713310746472</v>
+        <v>0.54327413234877686</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.7540110189694309</v>
+        <v>0.75720874539940675</v>
       </c>
       <c r="J33">
-        <v>0.24598898103056907</v>
+        <v>0.24279125460059323</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.77760818406845356</v>
+        <v>0.78142232967110969</v>
       </c>
       <c r="O33">
-        <v>0.22239181593154644</v>
+        <v>0.21857767032889031</v>
       </c>
     </row>
     <row r="34">
@@ -9531,31 +9531,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.23609163178071488</v>
+        <v>0.23818944714194135</v>
       </c>
       <c r="C34">
-        <v>0.21569150913415769</v>
+        <v>0.21408067124571686</v>
       </c>
       <c r="D34">
-        <v>0.54821685908512741</v>
+        <v>0.54772988161234182</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.78678299474110835</v>
+        <v>0.78865757090558153</v>
       </c>
       <c r="J34">
-        <v>0.21321700525889165</v>
+        <v>0.21134242909441839</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.76963987937726164</v>
+        <v>0.76375763300263733</v>
       </c>
       <c r="O34">
-        <v>0.23036012062273831</v>
+        <v>0.23624236699736273</v>
       </c>
     </row>
     <row r="35">
@@ -9563,31 +9563,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.28540634989834418</v>
+        <v>0.28284068563299369</v>
       </c>
       <c r="C35">
-        <v>0.19851322519080583</v>
+        <v>0.20599522215688018</v>
       </c>
       <c r="D35">
-        <v>0.51608042491084993</v>
+        <v>0.51116409221012604</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.79513916278278129</v>
+        <v>0.79746029199571034</v>
       </c>
       <c r="J35">
-        <v>0.20486083721721879</v>
+        <v>0.20253970800428958</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.77880030550304491</v>
+        <v>0.77138929443448645</v>
       </c>
       <c r="O35">
-        <v>0.22119969449695503</v>
+        <v>0.22861070556551363</v>
       </c>
     </row>
     <row r="36">
@@ -9595,31 +9595,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.27913670646662886</v>
+        <v>0.27804375735085413</v>
       </c>
       <c r="C36">
-        <v>0.22132437537600519</v>
+        <v>0.23002848092473838</v>
       </c>
       <c r="D36">
-        <v>0.4995389181573659</v>
+        <v>0.4919277617244075</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.76679645818848829</v>
+        <v>0.76600779452481293</v>
       </c>
       <c r="J36">
-        <v>0.23320354181151159</v>
+        <v>0.23399220547518698</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.77342258158836874</v>
+        <v>0.76514165641028498</v>
       </c>
       <c r="O36">
-        <v>0.22657741841163123</v>
+        <v>0.23485834358971502</v>
       </c>
     </row>
     <row r="37">
@@ -9627,31 +9627,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.28405914800583276</v>
+        <v>0.28449665035882443</v>
       </c>
       <c r="C37">
-        <v>0.21935521823063561</v>
+        <v>0.22463894348520147</v>
       </c>
       <c r="D37">
-        <v>0.4965856337635316</v>
+        <v>0.49086440615597426</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.81517288526815024</v>
+        <v>0.81668534769552048</v>
       </c>
       <c r="J37">
-        <v>0.18482711473184979</v>
+        <v>0.18331465230447963</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.75718572744784518</v>
+        <v>0.76290356019851979</v>
       </c>
       <c r="O37">
-        <v>0.24281427255215482</v>
+        <v>0.23709643980148026</v>
       </c>
     </row>
     <row r="38">
@@ -9659,31 +9659,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.30008115252673218</v>
+        <v>0.29871208655683062</v>
       </c>
       <c r="C38">
-        <v>0.2255952829873924</v>
+        <v>0.22774238530326937</v>
       </c>
       <c r="D38">
-        <v>0.47432356448587537</v>
+        <v>0.47354552813989986</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.7962844049857265</v>
+        <v>0.7961555605170868</v>
       </c>
       <c r="J38">
-        <v>0.20371559501427347</v>
+        <v>0.20384443948291314</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76672987303188567</v>
+        <v>0.7688224448447909</v>
       </c>
       <c r="O38">
-        <v>0.23327012696811433</v>
+        <v>0.23117755515520907</v>
       </c>
     </row>
     <row r="39">
@@ -9691,31 +9691,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.31031071927200793</v>
+        <v>0.30707728453572397</v>
       </c>
       <c r="C39">
-        <v>0.2192234224752927</v>
+        <v>0.2249589768580994</v>
       </c>
       <c r="D39">
-        <v>0.47046585825269943</v>
+        <v>0.46796373860617663</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.81691450017545475</v>
+        <v>0.82123530939153144</v>
       </c>
       <c r="J39">
-        <v>0.18308549982454514</v>
+        <v>0.17876469060846861</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.7203708326334114</v>
+        <v>0.72692632225788434</v>
       </c>
       <c r="O39">
-        <v>0.27962916736658855</v>
+        <v>0.27307367774211572</v>
       </c>
     </row>
     <row r="40">
@@ -9723,31 +9723,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.30283177329162586</v>
+        <v>0.30593812051741859</v>
       </c>
       <c r="C40">
-        <v>0.2507558567007111</v>
+        <v>0.24643293274393641</v>
       </c>
       <c r="D40">
-        <v>0.44641237000766304</v>
+        <v>0.44762894673864506</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.80817313487610232</v>
+        <v>0.8146142170662023</v>
       </c>
       <c r="J40">
-        <v>0.19182686512389777</v>
+        <v>0.18538578293379768</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.74688715944960349</v>
+        <v>0.7447975317102431</v>
       </c>
       <c r="O40">
-        <v>0.25311284055039662</v>
+        <v>0.2552024682897569</v>
       </c>
     </row>
     <row r="41">
@@ -9755,31 +9755,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.31233782100163382</v>
+        <v>0.312530055375976</v>
       </c>
       <c r="C41">
-        <v>0.24373428282667151</v>
+        <v>0.24719623153971787</v>
       </c>
       <c r="D41">
-        <v>0.44392789617169459</v>
+        <v>0.44027371308430602</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.80762135078964548</v>
+        <v>0.81040957699086658</v>
       </c>
       <c r="J41">
-        <v>0.19237864921035458</v>
+        <v>0.18959042300913345</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.75563210323512042</v>
+        <v>0.75645650566685563</v>
       </c>
       <c r="O41">
-        <v>0.24436789676487966</v>
+        <v>0.24354349433314437</v>
       </c>
     </row>
     <row r="42">
@@ -9787,31 +9787,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.33214171927261038</v>
+        <v>0.3308614702338496</v>
       </c>
       <c r="C42">
-        <v>0.22430298257226305</v>
+        <v>0.22889200271606858</v>
       </c>
       <c r="D42">
-        <v>0.44355529815512656</v>
+        <v>0.44024652705008177</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.8322630196677071</v>
+        <v>0.83369745762019243</v>
       </c>
       <c r="J42">
-        <v>0.16773698033229295</v>
+        <v>0.1663025423798076</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.74324269266168008</v>
+        <v>0.75005856157795325</v>
       </c>
       <c r="O42">
-        <v>0.25675730733831986</v>
+        <v>0.24994143842204675</v>
       </c>
     </row>
     <row r="43">
@@ -9819,31 +9819,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.3178205416585092</v>
+        <v>0.31889564148139932</v>
       </c>
       <c r="C43">
-        <v>0.25207305383559647</v>
+        <v>0.25077500845110307</v>
       </c>
       <c r="D43">
-        <v>0.43010640450589432</v>
+        <v>0.43032935006749762</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.80618709687574386</v>
+        <v>0.80592345338925286</v>
       </c>
       <c r="J43">
-        <v>0.19381290312425628</v>
+        <v>0.19407654661074719</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.75900569009467378</v>
+        <v>0.75799629828803827</v>
       </c>
       <c r="O43">
-        <v>0.24099430990532625</v>
+        <v>0.24200370171196164</v>
       </c>
     </row>
     <row r="44">
@@ -9851,31 +9851,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.32461063956306652</v>
+        <v>0.31979046956195034</v>
       </c>
       <c r="C44">
-        <v>0.23936743559484946</v>
+        <v>0.2436416803858549</v>
       </c>
       <c r="D44">
-        <v>0.43602192484208419</v>
+        <v>0.43656785005219473</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.84457714112268079</v>
+        <v>0.84750643961662386</v>
       </c>
       <c r="J44">
-        <v>0.1554228588773193</v>
+        <v>0.15249356038337616</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.75006619403930963</v>
+        <v>0.74668618067779224</v>
       </c>
       <c r="O44">
-        <v>0.24993380596069042</v>
+        <v>0.25331381932220776</v>
       </c>
     </row>
     <row r="45">
@@ -9883,31 +9883,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.32249551341424626</v>
+        <v>0.32125351272010755</v>
       </c>
       <c r="C45">
-        <v>0.26118032605872321</v>
+        <v>0.26455214938449723</v>
       </c>
       <c r="D45">
-        <v>0.41632416052703047</v>
+        <v>0.41419433789539517</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.8075526602598746</v>
+        <v>0.81789022021430635</v>
       </c>
       <c r="J45">
-        <v>0.19244733974012551</v>
+        <v>0.18210977978569365</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.74738457651019574</v>
+        <v>0.74066067504168742</v>
       </c>
       <c r="O45">
-        <v>0.2526154234898042</v>
+        <v>0.25933932495831252</v>
       </c>
     </row>
     <row r="46">
@@ -9915,31 +9915,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.31500280961435467</v>
+        <v>0.31775188186179015</v>
       </c>
       <c r="C46">
-        <v>0.25558483844937913</v>
+        <v>0.26194309884974321</v>
       </c>
       <c r="D46">
-        <v>0.42941235193626615</v>
+        <v>0.42030501928846675</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.8000161673993319</v>
+        <v>0.79686879697778223</v>
       </c>
       <c r="J46">
-        <v>0.1999838326006681</v>
+        <v>0.20313120302221771</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.73012439516828331</v>
+        <v>0.72694376957216811</v>
       </c>
       <c r="O46">
-        <v>0.26987560483171669</v>
+        <v>0.27305623042783189</v>
       </c>
     </row>
     <row r="47">
@@ -9947,31 +9947,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.33358773528391433</v>
+        <v>0.33582135344757286</v>
       </c>
       <c r="C47">
-        <v>0.24611293395268638</v>
+        <v>0.24617952617110531</v>
       </c>
       <c r="D47">
-        <v>0.42029933076339931</v>
+        <v>0.41799912038132186</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.81727940613708339</v>
+        <v>0.82306403577170495</v>
       </c>
       <c r="J47">
-        <v>0.1827205938629167</v>
+        <v>0.17693596422829513</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.72963472752529623</v>
+        <v>0.72234545396186967</v>
       </c>
       <c r="O47">
-        <v>0.27036527247470388</v>
+        <v>0.27765454603813028</v>
       </c>
     </row>
     <row r="48">
@@ -9979,31 +9979,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.33744898761733672</v>
+        <v>0.33905102509402113</v>
       </c>
       <c r="C48">
-        <v>0.25782668201876435</v>
+        <v>0.26202608208372707</v>
       </c>
       <c r="D48">
-        <v>0.4047243303638991</v>
+        <v>0.39892289282225185</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.82881052060024807</v>
+        <v>0.83036139903027639</v>
       </c>
       <c r="J48">
-        <v>0.17118947939975185</v>
+        <v>0.16963860096972355</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.7191456670574885</v>
+        <v>0.72361425196288198</v>
       </c>
       <c r="O48">
-        <v>0.28085433294251144</v>
+        <v>0.27638574803711807</v>
       </c>
     </row>
     <row r="49">
@@ -10011,31 +10011,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.36144737687677542</v>
+        <v>0.36149938323815012</v>
       </c>
       <c r="C49">
-        <v>0.2562274955895506</v>
+        <v>0.25673402828297986</v>
       </c>
       <c r="D49">
-        <v>0.38232512753367393</v>
+        <v>0.38176658847886991</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.81932607030469207</v>
+        <v>0.82344044504633562</v>
       </c>
       <c r="J49">
-        <v>0.18067392969530791</v>
+        <v>0.17655955495366432</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.71374909701426104</v>
+        <v>0.72127892198568122</v>
       </c>
       <c r="O49">
-        <v>0.28625090298573896</v>
+        <v>0.27872107801431878</v>
       </c>
     </row>
     <row r="50">
@@ -10043,31 +10043,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.37433148908765751</v>
+        <v>0.3744528353121962</v>
       </c>
       <c r="C50">
-        <v>0.25299399418878937</v>
+        <v>0.25224823488262915</v>
       </c>
       <c r="D50">
-        <v>0.37267451672355306</v>
+        <v>0.3732989298051746</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.83864814669976451</v>
+        <v>0.84159095089521874</v>
       </c>
       <c r="J50">
-        <v>0.16135185330023546</v>
+        <v>0.15840904910478115</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.7007877899977355</v>
+        <v>0.70476229371332921</v>
       </c>
       <c r="O50">
-        <v>0.29921221000226456</v>
+        <v>0.29523770628667079</v>
       </c>
     </row>
     <row r="51">
@@ -10075,31 +10075,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.40414562576877627</v>
+        <v>0.40215343234841894</v>
       </c>
       <c r="C51">
-        <v>0.24604061636068136</v>
+        <v>0.25113574817984347</v>
       </c>
       <c r="D51">
-        <v>0.34981375787054236</v>
+        <v>0.34671081947173765</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.8576528748744684</v>
+        <v>0.85769252096289827</v>
       </c>
       <c r="J51">
-        <v>0.14234712512553171</v>
+        <v>0.14230747903710175</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.73091764421346239</v>
+        <v>0.73036983004503553</v>
       </c>
       <c r="O51">
-        <v>0.26908235578653761</v>
+        <v>0.26963016995496436</v>
       </c>
     </row>
     <row r="52">
@@ -10107,31 +10107,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.40799386770983059</v>
+        <v>0.4080009474819124</v>
       </c>
       <c r="C52">
-        <v>0.25450743124882641</v>
+        <v>0.25419404126775064</v>
       </c>
       <c r="D52">
-        <v>0.33749870104134316</v>
+        <v>0.33780501125033696</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.86269017200340647</v>
+        <v>0.85308782731441768</v>
       </c>
       <c r="J52">
-        <v>0.13730982799659355</v>
+        <v>0.14691217268558229</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.66816385996752059</v>
+        <v>0.67066492808689504</v>
       </c>
       <c r="O52">
-        <v>0.33183614003247941</v>
+        <v>0.32933507191310485</v>
       </c>
     </row>
     <row r="53">
@@ -10139,31 +10139,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.43957069090628131</v>
+        <v>0.43789737297844133</v>
       </c>
       <c r="C53">
-        <v>0.25528123175757167</v>
+        <v>0.25036347524038643</v>
       </c>
       <c r="D53">
-        <v>0.30514807733614691</v>
+        <v>0.31173915178117234</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.8712722407552107</v>
+        <v>0.87255430714666948</v>
       </c>
       <c r="J53">
-        <v>0.1287277592447893</v>
+        <v>0.1274456928533306</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.67895418226376847</v>
+        <v>0.6812607297188914</v>
       </c>
       <c r="O53">
-        <v>0.32104581773623148</v>
+        <v>0.31873927028110854</v>
       </c>
     </row>
     <row r="54">
@@ -10171,13 +10171,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.44883992823055741</v>
+        <v>0.44154603782185731</v>
       </c>
       <c r="C54">
-        <v>0.26514117454755848</v>
+        <v>0.27019838104212862</v>
       </c>
       <c r="D54">
-        <v>0.28601889722188417</v>
+        <v>0.28825558113601402</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -11028,19 +11028,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.54405711107299859</v>
+        <v>0.55396090740206905</v>
       </c>
       <c r="J3">
-        <v>0.45594288892700141</v>
+        <v>0.44603909259793095</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.83834726384445513</v>
+        <v>0.83618357356255835</v>
       </c>
       <c r="O3">
-        <v>0.16165273615554482</v>
+        <v>0.16381642643744165</v>
       </c>
     </row>
     <row r="4">
@@ -11048,19 +11048,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.57889927147767839</v>
+        <v>0.56079143119116026</v>
       </c>
       <c r="J4">
-        <v>0.42110072852232161</v>
+        <v>0.43920856880883974</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.80656981686928508</v>
+        <v>0.79889074827459505</v>
       </c>
       <c r="O4">
-        <v>0.19343018313071486</v>
+        <v>0.20110925172540503</v>
       </c>
     </row>
     <row r="5">
@@ -11068,19 +11068,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.57623660157270251</v>
+        <v>0.58212823955377047</v>
       </c>
       <c r="J5">
-        <v>0.42376339842729749</v>
+        <v>0.41787176044622959</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.81085941581696408</v>
+        <v>0.81658587204561661</v>
       </c>
       <c r="O5">
-        <v>0.18914058418303586</v>
+        <v>0.1834141279543835</v>
       </c>
     </row>
     <row r="6">
@@ -11088,19 +11088,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.54822791361964529</v>
+        <v>0.57860146584353978</v>
       </c>
       <c r="J6">
-        <v>0.45177208638035465</v>
+        <v>0.42139853415646022</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86022958414056627</v>
+        <v>0.86352566184730006</v>
       </c>
       <c r="O6">
-        <v>0.1397704158594337</v>
+        <v>0.13647433815269994</v>
       </c>
     </row>
     <row r="7">
@@ -11108,19 +11108,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.67830835558347036</v>
+        <v>0.66181967532437358</v>
       </c>
       <c r="J7">
-        <v>0.32169164441652959</v>
+        <v>0.33818032467562648</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.82069236417703972</v>
+        <v>0.81739158966801206</v>
       </c>
       <c r="O7">
-        <v>0.17930763582296028</v>
+        <v>0.18260841033198796</v>
       </c>
     </row>
     <row r="8">
@@ -11128,19 +11128,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.6776293706368296</v>
+        <v>0.66876343626024148</v>
       </c>
       <c r="J8">
-        <v>0.32237062936317046</v>
+        <v>0.33123656373975863</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.84672646877913105</v>
+        <v>0.84198484607129354</v>
       </c>
       <c r="O8">
-        <v>0.15327353122086904</v>
+        <v>0.15801515392870641</v>
       </c>
     </row>
     <row r="9">
@@ -11148,19 +11148,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.58607056084214926</v>
+        <v>0.5992445768771556</v>
       </c>
       <c r="J9">
-        <v>0.41392943915785085</v>
+        <v>0.40075542312284435</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.80141245383913817</v>
+        <v>0.80786371826917514</v>
       </c>
       <c r="O9">
-        <v>0.1985875461608618</v>
+        <v>0.19213628173082478</v>
       </c>
     </row>
     <row r="10">
@@ -11168,19 +11168,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.71210435809849215</v>
+        <v>0.7048150049797961</v>
       </c>
       <c r="J10">
-        <v>0.28789564190150785</v>
+        <v>0.29518499502020396</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.79213645282019496</v>
+        <v>0.78926451256747687</v>
       </c>
       <c r="O10">
-        <v>0.20786354717980504</v>
+        <v>0.21073548743252321</v>
       </c>
     </row>
     <row r="11">
@@ -11188,19 +11188,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.66286096431806951</v>
+        <v>0.63718052917369117</v>
       </c>
       <c r="J11">
-        <v>0.33713903568193049</v>
+        <v>0.36281947082630889</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.80088887722046298</v>
+        <v>0.79637067705523157</v>
       </c>
       <c r="O11">
-        <v>0.19911112277953713</v>
+        <v>0.20362932294476843</v>
       </c>
     </row>
     <row r="12">
@@ -11208,19 +11208,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.62499428034107318</v>
+        <v>0.60827713969436836</v>
       </c>
       <c r="J12">
-        <v>0.37500571965892682</v>
+        <v>0.39172286030563164</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.81720881437281112</v>
+        <v>0.80921800065585414</v>
       </c>
       <c r="O12">
-        <v>0.18279118562718882</v>
+        <v>0.19078199934414597</v>
       </c>
     </row>
     <row r="13">
@@ -11228,19 +11228,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.71490321071025442</v>
+        <v>0.69406642826983045</v>
       </c>
       <c r="J13">
-        <v>0.28509678928974558</v>
+        <v>0.30593357173016955</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.78346321173006706</v>
+        <v>0.77852724692128394</v>
       </c>
       <c r="O13">
-        <v>0.21653678826993292</v>
+        <v>0.22147275307871608</v>
       </c>
     </row>
     <row r="14">
@@ -11248,19 +11248,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.64805934038792101</v>
+        <v>0.6398678923054153</v>
       </c>
       <c r="J14">
-        <v>0.35194065961207893</v>
+        <v>0.36013210769458459</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.82879932452915817</v>
+        <v>0.83172418786468605</v>
       </c>
       <c r="O14">
-        <v>0.17120067547084181</v>
+        <v>0.16827581213531395</v>
       </c>
     </row>
     <row r="15">
@@ -11268,19 +11268,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.65787705869621615</v>
+        <v>0.67149710915496874</v>
       </c>
       <c r="J15">
-        <v>0.34212294130378373</v>
+        <v>0.3285028908450312</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.81502924742179406</v>
+        <v>0.80915703392562865</v>
       </c>
       <c r="O15">
-        <v>0.18497075257820594</v>
+        <v>0.19084296607437132</v>
       </c>
     </row>
     <row r="16">
@@ -11288,19 +11288,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.70694954401586396</v>
+        <v>0.68123129034251162</v>
       </c>
       <c r="J16">
-        <v>0.29305045598413609</v>
+        <v>0.31876870965748838</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.80766262216500917</v>
+        <v>0.81182517726666914</v>
       </c>
       <c r="O16">
-        <v>0.19233737783499083</v>
+        <v>0.18817482273333089</v>
       </c>
     </row>
     <row r="17">
@@ -11308,19 +11308,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.72544624469099439</v>
+        <v>0.72961771088235305</v>
       </c>
       <c r="J17">
-        <v>0.2745537553090055</v>
+        <v>0.27038228911764706</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78635169097645852</v>
+        <v>0.78418497313755864</v>
       </c>
       <c r="O17">
-        <v>0.21364830902354148</v>
+        <v>0.21581502686244136</v>
       </c>
     </row>
     <row r="18">
@@ -11328,19 +11328,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.76215056454043284</v>
+        <v>0.75511417134400671</v>
       </c>
       <c r="J18">
-        <v>0.2378494354595671</v>
+        <v>0.24488582865599329</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.79072577438046399</v>
+        <v>0.78199172126873229</v>
       </c>
       <c r="O18">
-        <v>0.20927422561953601</v>
+        <v>0.21800827873126777</v>
       </c>
     </row>
     <row r="19">
@@ -11348,19 +11348,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.73167876829468126</v>
+        <v>0.72519589232863801</v>
       </c>
       <c r="J19">
-        <v>0.26832123170531874</v>
+        <v>0.2748041076713621</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.81541550510278904</v>
+        <v>0.81258527029922567</v>
       </c>
       <c r="O19">
-        <v>0.18458449489721099</v>
+        <v>0.18741472970077436</v>
       </c>
     </row>
     <row r="20">
@@ -11368,19 +11368,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.75677424218475264</v>
+        <v>0.73358770785719007</v>
       </c>
       <c r="J20">
-        <v>0.24322575781524744</v>
+        <v>0.26641229214280998</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.78377351269259399</v>
+        <v>0.77911954913344117</v>
       </c>
       <c r="O20">
-        <v>0.21622648730740593</v>
+        <v>0.22088045086655889</v>
       </c>
     </row>
     <row r="21">
@@ -11388,19 +11388,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.73749640221276136</v>
+        <v>0.72819852419116415</v>
       </c>
       <c r="J21">
-        <v>0.26250359778723859</v>
+        <v>0.2718014758088359</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.78043271251115287</v>
+        <v>0.77824600599688021</v>
       </c>
       <c r="O21">
-        <v>0.21956728748884707</v>
+        <v>0.22175399400311971</v>
       </c>
     </row>
     <row r="22">
@@ -11408,19 +11408,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.77098484720773286</v>
+        <v>0.77279566493475127</v>
       </c>
       <c r="J22">
-        <v>0.22901515279226711</v>
+        <v>0.22720433506524867</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80571564796279227</v>
+        <v>0.80054785127865213</v>
       </c>
       <c r="O22">
-        <v>0.19428435203720776</v>
+        <v>0.19945214872134792</v>
       </c>
     </row>
     <row r="23">
@@ -11428,19 +11428,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.75134702648773377</v>
+        <v>0.75596106805868868</v>
       </c>
       <c r="J23">
-        <v>0.24865297351226628</v>
+        <v>0.2440389319413114</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.77375578261414335</v>
+        <v>0.77190805309309685</v>
       </c>
       <c r="O23">
-        <v>0.22624421738585659</v>
+        <v>0.22809194690690304</v>
       </c>
     </row>
     <row r="24">
@@ -11448,19 +11448,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.76590000214630005</v>
+        <v>0.77325001947097993</v>
       </c>
       <c r="J24">
-        <v>0.23409999785369992</v>
+        <v>0.22674998052902007</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.79249956105869668</v>
+        <v>0.79008309212683903</v>
       </c>
       <c r="O24">
-        <v>0.20750043894130338</v>
+        <v>0.20991690787316106</v>
       </c>
     </row>
     <row r="25">
@@ -11468,19 +11468,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.79900704834230718</v>
+        <v>0.80502428495654299</v>
       </c>
       <c r="J25">
-        <v>0.20099295165769296</v>
+        <v>0.19497571504345695</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.76835757033327556</v>
+        <v>0.76382723198962821</v>
       </c>
       <c r="O25">
-        <v>0.23164242966672441</v>
+        <v>0.23617276801037171</v>
       </c>
     </row>
     <row r="26">
@@ -11488,19 +11488,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.79168067433886646</v>
+        <v>0.78652317914333336</v>
       </c>
       <c r="J26">
-        <v>0.20831932566113362</v>
+        <v>0.21347682085666661</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.73494711225026743</v>
+        <v>0.73887567015062849</v>
       </c>
       <c r="O26">
-        <v>0.26505288774973257</v>
+        <v>0.26112432984937156</v>
       </c>
     </row>
     <row r="27">
@@ -11508,19 +11508,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.76867846282218077</v>
+        <v>0.7638593888496249</v>
       </c>
       <c r="J27">
-        <v>0.23132153717781931</v>
+        <v>0.23614061115037507</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.75876715511100168</v>
+        <v>0.75699396985408973</v>
       </c>
       <c r="O27">
-        <v>0.24123284488899827</v>
+        <v>0.24300603014591024</v>
       </c>
     </row>
     <row r="28">
@@ -11528,19 +11528,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.81583300167426409</v>
+        <v>0.81345539980756476</v>
       </c>
       <c r="J28">
-        <v>0.18416699832573594</v>
+        <v>0.18654460019243521</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.72781131369476515</v>
+        <v>0.73874018214731918</v>
       </c>
       <c r="O28">
-        <v>0.27218868630523496</v>
+        <v>0.26125981785268082</v>
       </c>
     </row>
     <row r="29">
@@ -11548,19 +11548,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.82498859362123611</v>
+        <v>0.82949561653384751</v>
       </c>
       <c r="J29">
-        <v>0.17501140637876389</v>
+        <v>0.17050438346615257</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.72123335107989772</v>
+        <v>0.71929769118662701</v>
       </c>
       <c r="O29">
-        <v>0.27876664892010222</v>
+        <v>0.28070230881337288</v>
       </c>
     </row>
     <row r="30">
@@ -11568,19 +11568,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.85290756912663934</v>
+        <v>0.84830408719146122</v>
       </c>
       <c r="J30">
-        <v>0.14709243087336063</v>
+        <v>0.15169591280853875</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.71595408869987387</v>
+        <v>0.69964073502903024</v>
       </c>
       <c r="O30">
-        <v>0.28404591130012619</v>
+        <v>0.30035926497096982</v>
       </c>
     </row>
     <row r="31">
@@ -11588,19 +11588,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.84505788827634876</v>
+        <v>0.84668078525511259</v>
       </c>
       <c r="J31">
-        <v>0.15494211172365122</v>
+        <v>0.15331921474488744</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.75771838132064595</v>
+        <v>0.74405458784618073</v>
       </c>
       <c r="O31">
-        <v>0.24228161867935397</v>
+        <v>0.25594541215381922</v>
       </c>
     </row>
     <row r="32">
@@ -11608,19 +11608,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.85904989528391718</v>
+        <v>0.8570905147620651</v>
       </c>
       <c r="J32">
-        <v>0.14095010471608285</v>
+        <v>0.14290948523793487</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.761505129701603</v>
+        <v>0.75931872137663703</v>
       </c>
       <c r="O32">
-        <v>0.23849487029839692</v>
+        <v>0.24068127862336289</v>
       </c>
     </row>
     <row r="33">
@@ -11628,19 +11628,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.86670081622192663</v>
+        <v>0.86617059102576732</v>
       </c>
       <c r="J33">
-        <v>0.1332991837780734</v>
+        <v>0.13382940897423259</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.72204741972740227</v>
+        <v>0.71891857789569014</v>
       </c>
       <c r="O33">
-        <v>0.27795258027259773</v>
+        <v>0.28108142210430986</v>
       </c>
     </row>
     <row r="34">
@@ -11648,19 +11648,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.86818069572985901</v>
+        <v>0.86764655678235814</v>
       </c>
       <c r="J34">
-        <v>0.13181930427014102</v>
+        <v>0.13235344321764184</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71304462823130066</v>
+        <v>0.72049887448280414</v>
       </c>
       <c r="O34">
-        <v>0.28695537176869929</v>
+        <v>0.2795011255171958</v>
       </c>
     </row>
     <row r="35">
@@ -11668,19 +11668,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.88827785893607114</v>
+        <v>0.894479974314625</v>
       </c>
       <c r="J35">
-        <v>0.1117221410639288</v>
+        <v>0.10552002568537504</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.71760525395596197</v>
+        <v>0.69734633540474589</v>
       </c>
       <c r="O35">
-        <v>0.28239474604403791</v>
+        <v>0.30265366459525411</v>
       </c>
     </row>
     <row r="36">
@@ -11688,19 +11688,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.86145278451699736</v>
+        <v>0.86060447261866868</v>
       </c>
       <c r="J36">
-        <v>0.13854721548300272</v>
+        <v>0.13939552738133132</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.74970863215585259</v>
+        <v>0.72758522433128148</v>
       </c>
       <c r="O36">
-        <v>0.25029136784414735</v>
+        <v>0.27241477566871847</v>
       </c>
     </row>
     <row r="37">
@@ -11708,19 +11708,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.89245526756393823</v>
+        <v>0.89567161080626612</v>
       </c>
       <c r="J37">
-        <v>0.10754473243606176</v>
+        <v>0.10432838919373383</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.7186241726741841</v>
+        <v>0.71894649255451826</v>
       </c>
       <c r="O37">
-        <v>0.28137582732581601</v>
+        <v>0.28105350744548163</v>
       </c>
     </row>
     <row r="38">
@@ -11728,19 +11728,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.90134773268444868</v>
+        <v>0.89663537923515235</v>
       </c>
       <c r="J38">
-        <v>0.098652267315551351</v>
+        <v>0.10336462076484762</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.74419698667836554</v>
+        <v>0.74192560197682844</v>
       </c>
       <c r="O38">
-        <v>0.25580301332163452</v>
+        <v>0.25807439802317161</v>
       </c>
     </row>
     <row r="39">
@@ -11748,19 +11748,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.92313443433451137</v>
+        <v>0.92038837645285809</v>
       </c>
       <c r="J39">
-        <v>0.076865565665488675</v>
+        <v>0.079611623547141949</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.66666223015720749</v>
+        <v>0.67632025693201636</v>
       </c>
       <c r="O39">
-        <v>0.3333377698427924</v>
+        <v>0.32367974306798364</v>
       </c>
     </row>
     <row r="40">
@@ -11768,19 +11768,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.88664280001007334</v>
+        <v>0.8873180282951445</v>
       </c>
       <c r="J40">
-        <v>0.11335719998992667</v>
+        <v>0.11268197170485551</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.64699976659515801</v>
+        <v>0.65904324152005955</v>
       </c>
       <c r="O40">
-        <v>0.35300023340484199</v>
+        <v>0.34095675847994039</v>
       </c>
     </row>
     <row r="41">
@@ -11788,19 +11788,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.91586571381786874</v>
+        <v>0.9193845110681339</v>
       </c>
       <c r="J41">
-        <v>0.084134286182131257</v>
+        <v>0.080615488931866069</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.67077086514344653</v>
+        <v>0.66408443254462834</v>
       </c>
       <c r="O41">
-        <v>0.32922913485655342</v>
+        <v>0.33591556745537171</v>
       </c>
     </row>
     <row r="42">
@@ -11808,19 +11808,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.91068107827454636</v>
+        <v>0.906613267384765</v>
       </c>
       <c r="J42">
-        <v>0.089318921725453582</v>
+        <v>0.093386732615234988</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.63624314176166163</v>
+        <v>0.6626689955656756</v>
       </c>
       <c r="O42">
-        <v>0.36375685823833837</v>
+        <v>0.33733100443432446</v>
       </c>
     </row>
     <row r="43">
@@ -11828,19 +11828,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.91099947284528648</v>
+        <v>0.91115827810046945</v>
       </c>
       <c r="J43">
-        <v>0.089000527154713571</v>
+        <v>0.088841721899530532</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.67839010710890824</v>
+        <v>0.66598135142060899</v>
       </c>
       <c r="O43">
-        <v>0.32160989289109182</v>
+        <v>0.33401864857939106</v>
       </c>
     </row>
     <row r="44">
@@ -11848,19 +11848,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.92734850692508153</v>
+        <v>0.92904271238999236</v>
       </c>
       <c r="J44">
-        <v>0.0726514930749185</v>
+        <v>0.070957287610007636</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.67821456686802617</v>
+        <v>0.64974997610498475</v>
       </c>
       <c r="O44">
-        <v>0.32178543313197377</v>
+        <v>0.35025002389501536</v>
       </c>
     </row>
     <row r="45">
@@ -11868,19 +11868,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.91282966968099155</v>
+        <v>0.92812543640124467</v>
       </c>
       <c r="J45">
-        <v>0.087170330319008407</v>
+        <v>0.071874563598755298</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.64848193974482049</v>
+        <v>0.64689086493315195</v>
       </c>
       <c r="O45">
-        <v>0.35151806025517957</v>
+        <v>0.35310913506684805</v>
       </c>
     </row>
     <row r="46">
@@ -11888,19 +11888,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.89030661016294343</v>
+        <v>0.89055424365340063</v>
       </c>
       <c r="J46">
-        <v>0.10969338983705659</v>
+        <v>0.10944575634659938</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.57801867058443579</v>
+        <v>0.57572587433479627</v>
       </c>
       <c r="O46">
-        <v>0.42198132941556427</v>
+        <v>0.42427412566520367</v>
       </c>
     </row>
     <row r="47">
@@ -11908,19 +11908,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.88398469827830273</v>
+        <v>0.89288766670560338</v>
       </c>
       <c r="J47">
-        <v>0.11601530172169716</v>
+        <v>0.10711233329439658</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.56951363498723817</v>
+        <v>0.57050733293214972</v>
       </c>
       <c r="O47">
-        <v>0.43048636501276177</v>
+        <v>0.42949266706785033</v>
       </c>
     </row>
     <row r="48">
@@ -11928,19 +11928,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.91714495198158641</v>
+        <v>0.91693441438492063</v>
       </c>
       <c r="J48">
-        <v>0.082855048018413688</v>
+        <v>0.083065585615079318</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.60764500495355611</v>
+        <v>0.5927301019176846</v>
       </c>
       <c r="O48">
-        <v>0.39235499504644394</v>
+        <v>0.40726989808231528</v>
       </c>
     </row>
     <row r="49">
@@ -11948,19 +11948,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.89206352300159708</v>
+        <v>0.8910833943610651</v>
       </c>
       <c r="J49">
-        <v>0.10793647699840296</v>
+        <v>0.10891660563893486</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.63237096717149011</v>
+        <v>0.64301788285541861</v>
       </c>
       <c r="O49">
-        <v>0.36762903282850995</v>
+        <v>0.35698211714458133</v>
       </c>
     </row>
     <row r="50">
@@ -11968,19 +11968,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.87794832843259729</v>
+        <v>0.88309945665117684</v>
       </c>
       <c r="J50">
-        <v>0.12205167156740274</v>
+        <v>0.11690054334882306</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.58822364858573095</v>
+        <v>0.59550877540967573</v>
       </c>
       <c r="O50">
-        <v>0.4117763514142691</v>
+        <v>0.40449122459032422</v>
       </c>
     </row>
     <row r="51">
@@ -11988,19 +11988,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.91522586866933497</v>
+        <v>0.90928523839117259</v>
       </c>
       <c r="J51">
-        <v>0.084774131330665053</v>
+        <v>0.090714761608827382</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.60047897936143579</v>
+        <v>0.61933322630089338</v>
       </c>
       <c r="O51">
-        <v>0.39952102063856421</v>
+        <v>0.38066677369910662</v>
       </c>
     </row>
     <row r="52">
@@ -12008,19 +12008,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.91357974928237196</v>
+        <v>0.90235670940888812</v>
       </c>
       <c r="J52">
-        <v>0.086420250717627961</v>
+        <v>0.097643290591111889</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.61281813989825851</v>
+        <v>0.60625133165277389</v>
       </c>
       <c r="O52">
-        <v>0.38718186010174155</v>
+        <v>0.39374866834722611</v>
       </c>
     </row>
     <row r="53">
@@ -12028,19 +12028,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.93058795738215727</v>
+        <v>0.93090951668316513</v>
       </c>
       <c r="J53">
-        <v>0.069412042617842715</v>
+        <v>0.069090483316834941</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.61147523674177517</v>
+        <v>0.57608679912678551</v>
       </c>
       <c r="O53">
-        <v>0.38852476325822483</v>
+        <v>0.42391320087321444</v>
       </c>
     </row>
     <row r="54">
@@ -12545,19 +12545,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.46998088035482988</v>
+        <v>0.46332536741929559</v>
       </c>
       <c r="J3">
-        <v>0.53001911964517012</v>
+        <v>0.53667463258070436</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.88121683657205219</v>
+        <v>0.88394254030341279</v>
       </c>
       <c r="O3">
-        <v>0.11878316342794783</v>
+        <v>0.11605745969658725</v>
       </c>
     </row>
     <row r="4">
@@ -12565,19 +12565,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.45444221352087411</v>
+        <v>0.45871102205590791</v>
       </c>
       <c r="J4">
-        <v>0.54555778647912589</v>
+        <v>0.54128897794409203</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.88598768287553409</v>
+        <v>0.88904727302616504</v>
       </c>
       <c r="O4">
-        <v>0.11401231712446588</v>
+        <v>0.11095272697383489</v>
       </c>
     </row>
     <row r="5">
@@ -12585,19 +12585,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.43188008948079754</v>
+        <v>0.44868576534737142</v>
       </c>
       <c r="J5">
-        <v>0.56811991051920252</v>
+        <v>0.55131423465262852</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.89434340689924563</v>
+        <v>0.89323996589732602</v>
       </c>
       <c r="O5">
-        <v>0.10565659310075436</v>
+        <v>0.10676003410267407</v>
       </c>
     </row>
     <row r="6">
@@ -12605,19 +12605,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.49233501534569823</v>
+        <v>0.49453239182402559</v>
       </c>
       <c r="J6">
-        <v>0.50766498465430165</v>
+        <v>0.50546760817597458</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86660817724663974</v>
+        <v>0.86634056296127548</v>
       </c>
       <c r="O6">
-        <v>0.13339182275336031</v>
+        <v>0.13365943703872454</v>
       </c>
     </row>
     <row r="7">
@@ -12625,19 +12625,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.46979694702415686</v>
+        <v>0.46050846538458146</v>
       </c>
       <c r="J7">
-        <v>0.53020305297584314</v>
+        <v>0.53949153461541854</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.87783613568076502</v>
+        <v>0.88056657811730576</v>
       </c>
       <c r="O7">
-        <v>0.12216386431923495</v>
+        <v>0.11943342188269426</v>
       </c>
     </row>
     <row r="8">
@@ -12645,19 +12645,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.45265326874258383</v>
+        <v>0.44976743198205771</v>
       </c>
       <c r="J8">
-        <v>0.54734673125741617</v>
+        <v>0.55023256801794229</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83008984534217145</v>
+        <v>0.83218267850002392</v>
       </c>
       <c r="O8">
-        <v>0.16991015465782847</v>
+        <v>0.16781732149997605</v>
       </c>
     </row>
     <row r="9">
@@ -12665,19 +12665,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.369347329313158</v>
+        <v>0.3695782359899269</v>
       </c>
       <c r="J9">
-        <v>0.63065267068684205</v>
+        <v>0.6304217640100731</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.89880557557115826</v>
+        <v>0.90247064981269387</v>
       </c>
       <c r="O9">
-        <v>0.10119442442884174</v>
+        <v>0.097529350187306116</v>
       </c>
     </row>
     <row r="10">
@@ -12685,19 +12685,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.45714672934901651</v>
+        <v>0.46356284379857687</v>
       </c>
       <c r="J10">
-        <v>0.54285327065098343</v>
+        <v>0.53643715620142318</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.90278975457681854</v>
+        <v>0.89978582536390084</v>
       </c>
       <c r="O10">
-        <v>0.097210245423181491</v>
+        <v>0.10021417463609909</v>
       </c>
     </row>
     <row r="11">
@@ -12705,19 +12705,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.50045829883845649</v>
+        <v>0.50174615647021348</v>
       </c>
       <c r="J11">
-        <v>0.49954170116154351</v>
+        <v>0.49825384352978663</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.9077416326360237</v>
+        <v>0.90733141633478931</v>
       </c>
       <c r="O11">
-        <v>0.092258367363976315</v>
+        <v>0.092668583665210719</v>
       </c>
     </row>
     <row r="12">
@@ -12725,19 +12725,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.52549880222217682</v>
+        <v>0.52461081576785396</v>
       </c>
       <c r="J12">
-        <v>0.47450119777782318</v>
+        <v>0.47538918423214616</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.89071045169888718</v>
+        <v>0.89330516959854189</v>
       </c>
       <c r="O12">
-        <v>0.10928954830111282</v>
+        <v>0.10669483040145814</v>
       </c>
     </row>
     <row r="13">
@@ -12745,19 +12745,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.52968822055039799</v>
+        <v>0.53973231725247406</v>
       </c>
       <c r="J13">
-        <v>0.47031177944960206</v>
+        <v>0.46026768274752594</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.85966384978035437</v>
+        <v>0.8472177180216911</v>
       </c>
       <c r="O13">
-        <v>0.1403361502196456</v>
+        <v>0.1527822819783089</v>
       </c>
     </row>
     <row r="14">
@@ -12765,19 +12765,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.54247055634040031</v>
+        <v>0.53079955864841699</v>
       </c>
       <c r="J14">
-        <v>0.45752944365959974</v>
+        <v>0.46920044135158318</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84580360451554104</v>
+        <v>0.84859700694152196</v>
       </c>
       <c r="O14">
-        <v>0.15419639548445896</v>
+        <v>0.15140299305847801</v>
       </c>
     </row>
     <row r="15">
@@ -12785,19 +12785,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.50411859418894911</v>
+        <v>0.50811208955399467</v>
       </c>
       <c r="J15">
-        <v>0.49588140581105072</v>
+        <v>0.49188791044600533</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.84343747651629242</v>
+        <v>0.84633069368821645</v>
       </c>
       <c r="O15">
-        <v>0.15656252348370761</v>
+        <v>0.15366930631178358</v>
       </c>
     </row>
     <row r="16">
@@ -12805,19 +12805,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.5079702632994576</v>
+        <v>0.50721366661666123</v>
       </c>
       <c r="J16">
-        <v>0.49202973670054245</v>
+        <v>0.49278633338333877</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.88063527239232886</v>
+        <v>0.87977944845694656</v>
       </c>
       <c r="O16">
-        <v>0.11936472760767122</v>
+        <v>0.12022055154305336</v>
       </c>
     </row>
     <row r="17">
@@ -12825,19 +12825,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.47278904433396535</v>
+        <v>0.47819728724802035</v>
       </c>
       <c r="J17">
-        <v>0.5272109556660346</v>
+        <v>0.52180271275197954</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.8714202325685334</v>
+        <v>0.87255666858879577</v>
       </c>
       <c r="O17">
-        <v>0.12857976743146665</v>
+        <v>0.1274433314112042</v>
       </c>
     </row>
     <row r="18">
@@ -12845,19 +12845,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.57376452655481947</v>
+        <v>0.56920462047122788</v>
       </c>
       <c r="J18">
-        <v>0.42623547344518053</v>
+        <v>0.43079537952877212</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.85345459237803256</v>
+        <v>0.85207809327575279</v>
       </c>
       <c r="O18">
-        <v>0.14654540762196749</v>
+        <v>0.14792190672424724</v>
       </c>
     </row>
     <row r="19">
@@ -12865,19 +12865,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.56375677629202248</v>
+        <v>0.57070461892765845</v>
       </c>
       <c r="J19">
-        <v>0.43624322370797752</v>
+        <v>0.42929538107234155</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.86699297536615016</v>
+        <v>0.86236655925327177</v>
       </c>
       <c r="O19">
-        <v>0.13300702463384981</v>
+        <v>0.13763344074672818</v>
       </c>
     </row>
     <row r="20">
@@ -12885,19 +12885,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.58469506887653955</v>
+        <v>0.56987342718803902</v>
       </c>
       <c r="J20">
-        <v>0.41530493112346034</v>
+        <v>0.43012657281196098</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.86134138012569439</v>
+        <v>0.85962943285351245</v>
       </c>
       <c r="O20">
-        <v>0.13865861987430558</v>
+        <v>0.14037056714648766</v>
       </c>
     </row>
     <row r="21">
@@ -12905,19 +12905,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.6040774466325971</v>
+        <v>0.58744377507265622</v>
       </c>
       <c r="J21">
-        <v>0.39592255336740284</v>
+        <v>0.41255622492734373</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.84969676658464288</v>
+        <v>0.84403079397317815</v>
       </c>
       <c r="O21">
-        <v>0.15030323341535706</v>
+        <v>0.15596920602682196</v>
       </c>
     </row>
     <row r="22">
@@ -12925,19 +12925,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.58696078328872336</v>
+        <v>0.58299285810716373</v>
       </c>
       <c r="J22">
-        <v>0.41303921671127658</v>
+        <v>0.41700714189283633</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.85318998808385793</v>
+        <v>0.85884092404629975</v>
       </c>
       <c r="O22">
-        <v>0.14681001191614212</v>
+        <v>0.14115907595370025</v>
       </c>
     </row>
     <row r="23">
@@ -12945,19 +12945,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.55378028950729519</v>
+        <v>0.53925732885038891</v>
       </c>
       <c r="J23">
-        <v>0.44621971049270481</v>
+        <v>0.46074267114961104</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.84605818893987328</v>
+        <v>0.84869377252025968</v>
       </c>
       <c r="O23">
-        <v>0.1539418110601268</v>
+        <v>0.15130622747974029</v>
       </c>
     </row>
     <row r="24">
@@ -12965,19 +12965,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.56739156947938962</v>
+        <v>0.58201658142402379</v>
       </c>
       <c r="J24">
-        <v>0.43260843052061032</v>
+        <v>0.4179834185759761</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.83261595302295777</v>
+        <v>0.83449747537858809</v>
       </c>
       <c r="O24">
-        <v>0.16738404697704215</v>
+        <v>0.16550252462141185</v>
       </c>
     </row>
     <row r="25">
@@ -12985,19 +12985,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.62095462660595202</v>
+        <v>0.62059469364753983</v>
       </c>
       <c r="J25">
-        <v>0.37904537339404804</v>
+        <v>0.37940530635246011</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.8378772189287611</v>
+        <v>0.83874146277195161</v>
       </c>
       <c r="O25">
-        <v>0.16212278107123884</v>
+        <v>0.16125853722804842</v>
       </c>
     </row>
     <row r="26">
@@ -13005,19 +13005,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.60074264220790996</v>
+        <v>0.60849604342856878</v>
       </c>
       <c r="J26">
-        <v>0.3992573577920901</v>
+        <v>0.39150395657143122</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.84918566528167916</v>
+        <v>0.84114650212730024</v>
       </c>
       <c r="O26">
-        <v>0.15081433471832081</v>
+        <v>0.15885349787269976</v>
       </c>
     </row>
     <row r="27">
@@ -13025,19 +13025,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.62304951731825886</v>
+        <v>0.62444888255968356</v>
       </c>
       <c r="J27">
-        <v>0.37695048268174114</v>
+        <v>0.37555111744031638</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.81821923629094018</v>
+        <v>0.82028323350752108</v>
       </c>
       <c r="O27">
-        <v>0.18178076370905979</v>
+        <v>0.17971676649247884</v>
       </c>
     </row>
     <row r="28">
@@ -13045,19 +13045,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.62480479515967324</v>
+        <v>0.63656209548123999</v>
       </c>
       <c r="J28">
-        <v>0.37519520484032676</v>
+        <v>0.36343790451876012</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.82665820810439927</v>
+        <v>0.81787382279552256</v>
       </c>
       <c r="O28">
-        <v>0.17334179189560076</v>
+        <v>0.18212617720447735</v>
       </c>
     </row>
     <row r="29">
@@ -13065,19 +13065,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.63380792742056868</v>
+        <v>0.64129474193695635</v>
       </c>
       <c r="J29">
-        <v>0.36619207257943137</v>
+        <v>0.35870525806304365</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.82711449412456384</v>
+        <v>0.83093903356910714</v>
       </c>
       <c r="O29">
-        <v>0.17288550587543614</v>
+        <v>0.16906096643089288</v>
       </c>
     </row>
     <row r="30">
@@ -13085,19 +13085,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.64177270239826156</v>
+        <v>0.64459272228271591</v>
       </c>
       <c r="J30">
-        <v>0.35822729760173833</v>
+        <v>0.35540727771728414</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.83671026069843557</v>
+        <v>0.8441382692042021</v>
       </c>
       <c r="O30">
-        <v>0.16328973930156446</v>
+        <v>0.15586173079579788</v>
       </c>
     </row>
     <row r="31">
@@ -13105,19 +13105,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.6821028508648912</v>
+        <v>0.68828889046422803</v>
       </c>
       <c r="J31">
-        <v>0.31789714913510875</v>
+        <v>0.31171110953577208</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.83899180949153873</v>
+        <v>0.83326045084568667</v>
       </c>
       <c r="O31">
-        <v>0.16100819050846121</v>
+        <v>0.1667395491543133</v>
       </c>
     </row>
     <row r="32">
@@ -13125,19 +13125,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.69874623199511654</v>
+        <v>0.69899625723053616</v>
       </c>
       <c r="J32">
-        <v>0.3012537680048834</v>
+        <v>0.30100374276946379</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.83627342437350694</v>
+        <v>0.83620684254533373</v>
       </c>
       <c r="O32">
-        <v>0.16372657562649301</v>
+        <v>0.16379315745466635</v>
       </c>
     </row>
     <row r="33">
@@ -13145,19 +13145,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.64028427624914264</v>
+        <v>0.65016236041903508</v>
       </c>
       <c r="J33">
-        <v>0.35971572375085736</v>
+        <v>0.34983763958096492</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.80775833567815369</v>
+        <v>0.81383777152584347</v>
       </c>
       <c r="O33">
-        <v>0.19224166432184628</v>
+        <v>0.18616222847415645</v>
       </c>
     </row>
     <row r="34">
@@ -13165,19 +13165,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69574542229313685</v>
+        <v>0.70228676738176632</v>
       </c>
       <c r="J34">
-        <v>0.30425457770686309</v>
+        <v>0.29771323261823374</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.79753602719589423</v>
+        <v>0.7843796864144329</v>
       </c>
       <c r="O34">
-        <v>0.20246397280410572</v>
+        <v>0.2156203135855671</v>
       </c>
     </row>
     <row r="35">
@@ -13185,19 +13185,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70342281639468762</v>
+        <v>0.70575784889582427</v>
       </c>
       <c r="J35">
-        <v>0.29657718360531238</v>
+        <v>0.29424215110417579</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.81008188912943702</v>
+        <v>0.80943194361724857</v>
       </c>
       <c r="O35">
-        <v>0.18991811087056304</v>
+        <v>0.19056805638275146</v>
       </c>
     </row>
     <row r="36">
@@ -13205,19 +13205,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.67264731182259174</v>
+        <v>0.67854992235880418</v>
       </c>
       <c r="J36">
-        <v>0.3273526881774082</v>
+        <v>0.32145007764119587</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.78403601747613305</v>
+        <v>0.78222103242584529</v>
       </c>
       <c r="O36">
-        <v>0.215963982523867</v>
+        <v>0.21777896757415474</v>
       </c>
     </row>
     <row r="37">
@@ -13225,19 +13225,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.74714238355494245</v>
+        <v>0.74928433803497052</v>
       </c>
       <c r="J37">
-        <v>0.25285761644505755</v>
+        <v>0.25071566196502959</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.77400954916598252</v>
+        <v>0.78128214312523825</v>
       </c>
       <c r="O37">
-        <v>0.22599045083401742</v>
+        <v>0.21871785687476178</v>
       </c>
     </row>
     <row r="38">
@@ -13245,19 +13245,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.71057499186132222</v>
+        <v>0.7153256992083642</v>
       </c>
       <c r="J38">
-        <v>0.28942500813867778</v>
+        <v>0.28467430079163569</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.77523719993295348</v>
+        <v>0.77866253399899643</v>
       </c>
       <c r="O38">
-        <v>0.22476280006704655</v>
+        <v>0.22133746600100354</v>
       </c>
     </row>
     <row r="39">
@@ -13265,19 +13265,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.74120088679761398</v>
+        <v>0.74978480763799593</v>
       </c>
       <c r="J39">
-        <v>0.25879911320238591</v>
+        <v>0.25021519236200412</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.7407687161060168</v>
+        <v>0.74692368657676145</v>
       </c>
       <c r="O39">
-        <v>0.2592312838939832</v>
+        <v>0.25307631342323861</v>
       </c>
     </row>
     <row r="40">
@@ -13285,19 +13285,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.75522007237479738</v>
+        <v>0.76666826038706004</v>
       </c>
       <c r="J40">
-        <v>0.24477992762520254</v>
+        <v>0.23333173961293988</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.77688276330706696</v>
+        <v>0.77118714199187732</v>
       </c>
       <c r="O40">
-        <v>0.22311723669293307</v>
+        <v>0.22881285800812262</v>
       </c>
     </row>
     <row r="41">
@@ -13305,19 +13305,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.73893866868109004</v>
+        <v>0.74201349132613792</v>
       </c>
       <c r="J41">
-        <v>0.26106133131890996</v>
+        <v>0.25798650867386203</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.78056365466957489</v>
+        <v>0.78407749707587848</v>
       </c>
       <c r="O41">
-        <v>0.21943634533042514</v>
+        <v>0.21592250292412149</v>
       </c>
     </row>
     <row r="42">
@@ -13325,19 +13325,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.78705905374274088</v>
+        <v>0.79138974436994725</v>
       </c>
       <c r="J42">
-        <v>0.21294094625725909</v>
+        <v>0.20861025563005281</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.76988378357600118</v>
+        <v>0.77201436622607211</v>
       </c>
       <c r="O42">
-        <v>0.23011621642399879</v>
+        <v>0.22798563377392783</v>
       </c>
     </row>
     <row r="43">
@@ -13345,19 +13345,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.75462362985855813</v>
+        <v>0.75467381469839367</v>
       </c>
       <c r="J43">
-        <v>0.24537637014144198</v>
+        <v>0.24532618530160627</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.78199231482035148</v>
+        <v>0.78412846097651956</v>
       </c>
       <c r="O43">
-        <v>0.21800768517964855</v>
+        <v>0.2158715390234805</v>
       </c>
     </row>
     <row r="44">
@@ -13365,19 +13365,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.80541894830406291</v>
+        <v>0.80861534273502311</v>
       </c>
       <c r="J44">
-        <v>0.19458105169593712</v>
+        <v>0.1913846572649768</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.7661131941536381</v>
+        <v>0.76856147010800435</v>
       </c>
       <c r="O44">
-        <v>0.23388680584636182</v>
+        <v>0.23143852989199573</v>
       </c>
     </row>
     <row r="45">
@@ -13385,19 +13385,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.75448174433617787</v>
+        <v>0.76346079086219554</v>
       </c>
       <c r="J45">
-        <v>0.24551825566382213</v>
+        <v>0.23653920913780457</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.77116965350256128</v>
+        <v>0.7619614138232309</v>
       </c>
       <c r="O45">
-        <v>0.22883034649743872</v>
+        <v>0.23803858617676921</v>
       </c>
     </row>
     <row r="46">
@@ -13405,19 +13405,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.75735301640173769</v>
+        <v>0.75270989515704101</v>
       </c>
       <c r="J46">
-        <v>0.24264698359826228</v>
+        <v>0.24729010484295896</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.76566444247905618</v>
+        <v>0.76263529435374289</v>
       </c>
       <c r="O46">
-        <v>0.23433555752094382</v>
+        <v>0.23736470564625708</v>
       </c>
     </row>
     <row r="47">
@@ -13425,19 +13425,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.7892273449429319</v>
+        <v>0.79368370703360502</v>
       </c>
       <c r="J47">
-        <v>0.21077265505706819</v>
+        <v>0.20631629296639495</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.76402608591434573</v>
+        <v>0.75480930405750923</v>
       </c>
       <c r="O47">
-        <v>0.23597391408565419</v>
+        <v>0.24519069594249085</v>
       </c>
     </row>
     <row r="48">
@@ -13445,19 +13445,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.78630974185605862</v>
+        <v>0.78910333836049062</v>
       </c>
       <c r="J48">
-        <v>0.21369025814394138</v>
+        <v>0.2108966616395094</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.7451562868452829</v>
+        <v>0.75426273110162556</v>
       </c>
       <c r="O48">
-        <v>0.2548437131547171</v>
+        <v>0.24573726889837444</v>
       </c>
     </row>
     <row r="49">
@@ -13465,19 +13465,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.78427327269026859</v>
+        <v>0.79165637227619012</v>
       </c>
       <c r="J49">
-        <v>0.21572672730973141</v>
+        <v>0.20834362772380982</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.7320545814448135</v>
+        <v>0.73830810559587046</v>
       </c>
       <c r="O49">
-        <v>0.26794541855518655</v>
+        <v>0.26169189440412943</v>
       </c>
     </row>
     <row r="50">
@@ -13485,19 +13485,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.82100790485479225</v>
+        <v>0.82337955981244348</v>
       </c>
       <c r="J50">
-        <v>0.17899209514520781</v>
+        <v>0.1766204401875564</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.72863610378071408</v>
+        <v>0.73090466699206413</v>
       </c>
       <c r="O50">
-        <v>0.27136389621928597</v>
+        <v>0.26909533300793592</v>
       </c>
     </row>
     <row r="51">
@@ -13505,19 +13505,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.83040348363494754</v>
+        <v>0.83332865811543944</v>
       </c>
       <c r="J51">
-        <v>0.16959651636505255</v>
+        <v>0.16667134188456051</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.76222785219640676</v>
+        <v>0.75604764711415062</v>
       </c>
       <c r="O51">
-        <v>0.23777214780359329</v>
+        <v>0.24395235288584943</v>
       </c>
     </row>
     <row r="52">
@@ -13525,19 +13525,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.84086708954360279</v>
+        <v>0.83245839628537088</v>
       </c>
       <c r="J52">
-        <v>0.15913291045639727</v>
+        <v>0.16754160371462923</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.68251681725397328</v>
+        <v>0.68725297535293617</v>
       </c>
       <c r="O52">
-        <v>0.31748318274602672</v>
+        <v>0.31274702464706378</v>
       </c>
     </row>
     <row r="53">
@@ -13545,19 +13545,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.84567967406984645</v>
+        <v>0.84764872354006382</v>
       </c>
       <c r="J53">
-        <v>0.1543203259301536</v>
+        <v>0.15235127645993624</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.69347984337523305</v>
+        <v>0.70390414338383378</v>
       </c>
       <c r="O53">
-        <v>0.306520156624767</v>
+        <v>0.29609585661616622</v>
       </c>
     </row>
     <row r="54">

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13663" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13721" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13721" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13779" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13779" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13895" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13895" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14069" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>
@@ -691,31 +691,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.24402008638272821</v>
+        <v>0.2424355673629788</v>
       </c>
       <c r="C3">
-        <v>0.228390438184774</v>
+        <v>0.23259716702198344</v>
       </c>
       <c r="D3">
-        <v>0.52758947543249768</v>
+        <v>0.5249672656150377</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.72708673058499662</v>
+        <v>0.72621127945989872</v>
       </c>
       <c r="J3">
-        <v>0.27291326941500343</v>
+        <v>0.27378872054010128</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.72967220813582634</v>
+        <v>0.73557331485886912</v>
       </c>
       <c r="O3">
-        <v>0.27032779186417361</v>
+        <v>0.26442668514113088</v>
       </c>
     </row>
     <row r="4">
@@ -723,31 +723,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.2599791706417342</v>
+        <v>0.25951608444768742</v>
       </c>
       <c r="C4">
-        <v>0.22844563666653214</v>
+        <v>0.22541354063316246</v>
       </c>
       <c r="D4">
-        <v>0.51157519269173357</v>
+        <v>0.5150703749191502</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.72094726730252634</v>
+        <v>0.72240688574070067</v>
       </c>
       <c r="J4">
-        <v>0.27905273269747355</v>
+        <v>0.27759311425929928</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.70771328553142554</v>
+        <v>0.70205269816354909</v>
       </c>
       <c r="O4">
-        <v>0.29228671446857452</v>
+        <v>0.29794730183645096</v>
       </c>
     </row>
     <row r="5">
@@ -755,31 +755,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.26244257185487668</v>
+        <v>0.26248618559099773</v>
       </c>
       <c r="C5">
-        <v>0.21654523321617805</v>
+        <v>0.21921469310669531</v>
       </c>
       <c r="D5">
-        <v>0.52101219492894535</v>
+        <v>0.51829912130230704</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.68002291688992333</v>
+        <v>0.67725644355130921</v>
       </c>
       <c r="J5">
-        <v>0.31997708311007672</v>
+        <v>0.32274355644869085</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.71949107854880001</v>
+        <v>0.72607167938757877</v>
       </c>
       <c r="O5">
-        <v>0.28050892145119999</v>
+        <v>0.27392832061242139</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.23777422642923088</v>
+        <v>0.23845989630566944</v>
       </c>
       <c r="C6">
-        <v>0.21879878361379276</v>
+        <v>0.21997647770001971</v>
       </c>
       <c r="D6">
-        <v>0.54342698995697647</v>
+        <v>0.54156362599431085</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.70601754695496421</v>
+        <v>0.70398603953624705</v>
       </c>
       <c r="J6">
-        <v>0.29398245304503573</v>
+        <v>0.29601396046375289</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.69608070501965891</v>
+        <v>0.69615667267680204</v>
       </c>
       <c r="O6">
-        <v>0.3039192949803412</v>
+        <v>0.30384332732319802</v>
       </c>
     </row>
     <row r="7">
@@ -819,31 +819,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.25509936056013621</v>
+        <v>0.25466233500539431</v>
       </c>
       <c r="C7">
-        <v>0.21726516952534247</v>
+        <v>0.21859541538900423</v>
       </c>
       <c r="D7">
-        <v>0.52763546991452148</v>
+        <v>0.52674224960560145</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.70732860861048386</v>
+        <v>0.70213824512454248</v>
       </c>
       <c r="J7">
-        <v>0.2926713913895162</v>
+        <v>0.29786175487545752</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.72800563410414987</v>
+        <v>0.72674922819428789</v>
       </c>
       <c r="O7">
-        <v>0.27199436589585013</v>
+        <v>0.27325077180571211</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.24594224820589622</v>
+        <v>0.24639942486081165</v>
       </c>
       <c r="C8">
-        <v>0.21862534200510395</v>
+        <v>0.2162939916543532</v>
       </c>
       <c r="D8">
-        <v>0.53543240978899986</v>
+        <v>0.53730658348483507</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.7271805577569489</v>
+        <v>0.72107238266667995</v>
       </c>
       <c r="J8">
-        <v>0.27281944224305116</v>
+        <v>0.27892761733332005</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.73538922746051272</v>
+        <v>0.73180256728783533</v>
       </c>
       <c r="O8">
-        <v>0.26461077253948723</v>
+        <v>0.26819743271216467</v>
       </c>
     </row>
     <row r="9">
@@ -883,31 +883,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.26034446617214585</v>
+        <v>0.26002344456291154</v>
       </c>
       <c r="C9">
-        <v>0.20213309504622909</v>
+        <v>0.19913555999012308</v>
       </c>
       <c r="D9">
-        <v>0.53752243878162498</v>
+        <v>0.5408409954469654</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.67663347068176183</v>
+        <v>0.67628320132249631</v>
       </c>
       <c r="J9">
-        <v>0.32336652931823817</v>
+        <v>0.32371679867750369</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.7096750442041625</v>
+        <v>0.70904245253079656</v>
       </c>
       <c r="O9">
-        <v>0.29032495579583745</v>
+        <v>0.29095754746920355</v>
       </c>
     </row>
     <row r="10">
@@ -915,31 +915,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.22687047651748909</v>
+        <v>0.22798964482233131</v>
       </c>
       <c r="C10">
-        <v>0.23136916368768423</v>
+        <v>0.23093121377456488</v>
       </c>
       <c r="D10">
-        <v>0.54176035979482673</v>
+        <v>0.54107914140310365</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.72278838460631911</v>
+        <v>0.72265377539541265</v>
       </c>
       <c r="J10">
-        <v>0.27721161539368089</v>
+        <v>0.27734622460458724</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.70838948528749557</v>
+        <v>0.70959347997196653</v>
       </c>
       <c r="O10">
-        <v>0.29161051471250449</v>
+        <v>0.29040652002803335</v>
       </c>
     </row>
     <row r="11">
@@ -947,31 +947,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.22893592085613501</v>
+        <v>0.22995059129412757</v>
       </c>
       <c r="C11">
-        <v>0.2325352176372697</v>
+        <v>0.23055109061092938</v>
       </c>
       <c r="D11">
-        <v>0.53852886150659529</v>
+        <v>0.53949831809494309</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.67311250297193748</v>
+        <v>0.67496463522569294</v>
       </c>
       <c r="J11">
-        <v>0.32688749702806252</v>
+        <v>0.325035364774307</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.74150221101649383</v>
+        <v>0.74170887144543651</v>
       </c>
       <c r="O11">
-        <v>0.25849778898350606</v>
+        <v>0.25829112855456349</v>
       </c>
     </row>
     <row r="12">
@@ -979,31 +979,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.21791833014646078</v>
+        <v>0.22049400609541628</v>
       </c>
       <c r="C12">
-        <v>0.22803725018607049</v>
+        <v>0.22347714587610765</v>
       </c>
       <c r="D12">
-        <v>0.55404441966746865</v>
+        <v>0.55602884802847607</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.71545727843136553</v>
+        <v>0.71270860096419131</v>
       </c>
       <c r="J12">
-        <v>0.28454272156863442</v>
+        <v>0.28729139903580858</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.72779329973879003</v>
+        <v>0.726596416138787</v>
       </c>
       <c r="O12">
-        <v>0.27220670026120997</v>
+        <v>0.27340358386121311</v>
       </c>
     </row>
     <row r="13">
@@ -1011,31 +1011,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.21958880200648778</v>
+        <v>0.22112610954571396</v>
       </c>
       <c r="C13">
-        <v>0.24268705281030045</v>
+        <v>0.24102805462769777</v>
       </c>
       <c r="D13">
-        <v>0.53772414518321177</v>
+        <v>0.53784583582658818</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.70040355430264278</v>
+        <v>0.7007660263854244</v>
       </c>
       <c r="J13">
-        <v>0.29959644569735711</v>
+        <v>0.29923397361457565</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.74457809340378456</v>
+        <v>0.73985377936066443</v>
       </c>
       <c r="O13">
-        <v>0.2554219065962155</v>
+        <v>0.26014622063933568</v>
       </c>
     </row>
     <row r="14">
@@ -1043,31 +1043,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.21197662272534512</v>
+        <v>0.21044596306210758</v>
       </c>
       <c r="C14">
-        <v>0.22261864300872786</v>
+        <v>0.22437165614389995</v>
       </c>
       <c r="D14">
-        <v>0.56540473426592708</v>
+        <v>0.56518238079399252</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.73328917410064698</v>
+        <v>0.7276488075113916</v>
       </c>
       <c r="J14">
-        <v>0.26671082589935302</v>
+        <v>0.2723511924886084</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.73376031841801581</v>
+        <v>0.72968733351574311</v>
       </c>
       <c r="O14">
-        <v>0.26623968158198402</v>
+        <v>0.27031266648425695</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.23589074876634164</v>
+        <v>0.23603833280727979</v>
       </c>
       <c r="C15">
-        <v>0.22455030632463921</v>
+        <v>0.22501420680470299</v>
       </c>
       <c r="D15">
-        <v>0.53955894490901901</v>
+        <v>0.53894746038801733</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.72103460328144109</v>
+        <v>0.71625148256729976</v>
       </c>
       <c r="J15">
-        <v>0.27896539671855891</v>
+        <v>0.28374851743270035</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.73911902191046608</v>
+        <v>0.73632828504815206</v>
       </c>
       <c r="O15">
-        <v>0.26088097808953387</v>
+        <v>0.26367171495184788</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.22429313988820349</v>
+        <v>0.22392754843743715</v>
       </c>
       <c r="C16">
-        <v>0.23136974418212472</v>
+        <v>0.23050603843601206</v>
       </c>
       <c r="D16">
-        <v>0.54433711592967182</v>
+        <v>0.54556641312655085</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.7021847058752313</v>
+        <v>0.70396264052975233</v>
       </c>
       <c r="J16">
-        <v>0.29781529412476865</v>
+        <v>0.29603735947024773</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.73877225126748003</v>
+        <v>0.73658250605859144</v>
       </c>
       <c r="O16">
-        <v>0.26122774873252003</v>
+        <v>0.26341749394140856</v>
       </c>
     </row>
     <row r="17">
@@ -1139,31 +1139,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.23338343262193645</v>
+        <v>0.23120885528965154</v>
       </c>
       <c r="C17">
-        <v>0.21654549492525735</v>
+        <v>0.21872856057986667</v>
       </c>
       <c r="D17">
-        <v>0.55007107245280629</v>
+        <v>0.55006258413048181</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.71469880792363305</v>
+        <v>0.71581953339471427</v>
       </c>
       <c r="J17">
-        <v>0.28530119207636695</v>
+        <v>0.28418046660528562</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.75357734982726532</v>
+        <v>0.75464531816544589</v>
       </c>
       <c r="O17">
-        <v>0.24642265017273463</v>
+        <v>0.24535468183455414</v>
       </c>
     </row>
     <row r="18">
@@ -1171,31 +1171,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.22324133276575181</v>
+        <v>0.22366342936534855</v>
       </c>
       <c r="C18">
-        <v>0.22513191673492747</v>
+        <v>0.22514066758838119</v>
       </c>
       <c r="D18">
-        <v>0.55162675049932075</v>
+        <v>0.5511959030462702</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.71745088554681802</v>
+        <v>0.7163542815458126</v>
       </c>
       <c r="J18">
-        <v>0.28254911445318198</v>
+        <v>0.2836457184541874</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.76367522661535536</v>
+        <v>0.76641362240593547</v>
       </c>
       <c r="O18">
-        <v>0.23632477338464464</v>
+        <v>0.23358637759406459</v>
       </c>
     </row>
     <row r="19">
@@ -1203,31 +1203,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.21584770405080977</v>
+        <v>0.21566381922044525</v>
       </c>
       <c r="C19">
-        <v>0.22174051130210096</v>
+        <v>0.21911432147721435</v>
       </c>
       <c r="D19">
-        <v>0.56241178464708919</v>
+        <v>0.56522185930234048</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.7112601706923769</v>
+        <v>0.71262635387261652</v>
       </c>
       <c r="J19">
-        <v>0.28873982930762321</v>
+        <v>0.28737364612738359</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.77085365536653194</v>
+        <v>0.76952459155669017</v>
       </c>
       <c r="O19">
-        <v>0.22914634463346809</v>
+        <v>0.23047540844330983</v>
       </c>
     </row>
     <row r="20">
@@ -1235,31 +1235,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.20796914678828343</v>
+        <v>0.20875490009079345</v>
       </c>
       <c r="C20">
-        <v>0.21016380127513043</v>
+        <v>0.2101803359371002</v>
       </c>
       <c r="D20">
-        <v>0.58186705193658605</v>
+        <v>0.58106476397210627</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.68453691273504824</v>
+        <v>0.68827041463956173</v>
       </c>
       <c r="J20">
-        <v>0.31546308726495187</v>
+        <v>0.31172958536043821</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.76800910840300618</v>
+        <v>0.77102109541362351</v>
       </c>
       <c r="O20">
-        <v>0.23199089159699376</v>
+        <v>0.22897890458637651</v>
       </c>
     </row>
     <row r="21">
@@ -1267,31 +1267,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.20793311007744053</v>
+        <v>0.20873628695771076</v>
       </c>
       <c r="C21">
-        <v>0.20836976635120175</v>
+        <v>0.20667585842156355</v>
       </c>
       <c r="D21">
-        <v>0.58369712357135772</v>
+        <v>0.58458785462072571</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.68535073671654412</v>
+        <v>0.68414549764099075</v>
       </c>
       <c r="J21">
-        <v>0.31464926328345588</v>
+        <v>0.31585450235900919</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.78291606756374676</v>
+        <v>0.78233431734383752</v>
       </c>
       <c r="O21">
-        <v>0.21708393243625326</v>
+        <v>0.21766568265616257</v>
       </c>
     </row>
     <row r="22">
@@ -1299,31 +1299,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.20584501478067785</v>
+        <v>0.20574485795111791</v>
       </c>
       <c r="C22">
-        <v>0.2035603187917901</v>
+        <v>0.20335859185964417</v>
       </c>
       <c r="D22">
-        <v>0.59059466642753211</v>
+        <v>0.59089655018923792</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.69615614071240917</v>
+        <v>0.69796097960780268</v>
       </c>
       <c r="J22">
-        <v>0.30384385928759083</v>
+        <v>0.30203902039219732</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.77133176723719254</v>
+        <v>0.77179399015668404</v>
       </c>
       <c r="O22">
-        <v>0.22866823276280751</v>
+        <v>0.22820600984331593</v>
       </c>
     </row>
     <row r="23">
@@ -1331,31 +1331,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.21530567070144402</v>
+        <v>0.21570534968284877</v>
       </c>
       <c r="C23">
-        <v>0.20519921139288352</v>
+        <v>0.20484373845859927</v>
       </c>
       <c r="D23">
-        <v>0.57949511790567243</v>
+        <v>0.57945091185855202</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.70035262010627586</v>
+        <v>0.7011616711740033</v>
       </c>
       <c r="J23">
-        <v>0.29964737989372409</v>
+        <v>0.2988383288259967</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75664800257367293</v>
+        <v>0.75787438279006158</v>
       </c>
       <c r="O23">
-        <v>0.24335199742632702</v>
+        <v>0.24212561720993833</v>
       </c>
     </row>
     <row r="24">
@@ -1363,31 +1363,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.20967928236936278</v>
+        <v>0.20988095403453955</v>
       </c>
       <c r="C24">
-        <v>0.220943993091336</v>
+        <v>0.21993110969459728</v>
       </c>
       <c r="D24">
-        <v>0.5693767245393011</v>
+        <v>0.57018793627086328</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.70772497259949974</v>
+        <v>0.7058113255014018</v>
       </c>
       <c r="J24">
-        <v>0.29227502740050021</v>
+        <v>0.29418867449859826</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.77288934863596759</v>
+        <v>0.77357551243065037</v>
       </c>
       <c r="O24">
-        <v>0.22711065136403244</v>
+        <v>0.2264244875693496</v>
       </c>
     </row>
     <row r="25">
@@ -1395,31 +1395,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.20870922884199039</v>
+        <v>0.20843152677260651</v>
       </c>
       <c r="C25">
-        <v>0.21575161498592255</v>
+        <v>0.21464380693638127</v>
       </c>
       <c r="D25">
-        <v>0.57553915617208717</v>
+        <v>0.57692466629101224</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.64397056743051317</v>
+        <v>0.64339387164802719</v>
       </c>
       <c r="J25">
-        <v>0.35602943256948677</v>
+        <v>0.35660612835197281</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.7578220819400735</v>
+        <v>0.75328692574773004</v>
       </c>
       <c r="O25">
-        <v>0.2421779180599265</v>
+        <v>0.24671307425226988</v>
       </c>
     </row>
     <row r="26">
@@ -1427,31 +1427,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.20945201650504963</v>
+        <v>0.21052047615374342</v>
       </c>
       <c r="C26">
-        <v>0.19833377800202429</v>
+        <v>0.20098102224925338</v>
       </c>
       <c r="D26">
-        <v>0.59221420549292603</v>
+        <v>0.58849850159700323</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.69615790757724227</v>
+        <v>0.69734460941041898</v>
       </c>
       <c r="J26">
-        <v>0.30384209242275778</v>
+        <v>0.30265539058958107</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.75686383195398121</v>
+        <v>0.75528788534226576</v>
       </c>
       <c r="O26">
-        <v>0.24313616804601879</v>
+        <v>0.24471211465773421</v>
       </c>
     </row>
     <row r="27">
@@ -1459,31 +1459,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.21604242799434822</v>
+        <v>0.21750714868190787</v>
       </c>
       <c r="C27">
-        <v>0.21032526494914028</v>
+        <v>0.21005464646953995</v>
       </c>
       <c r="D27">
-        <v>0.57363230705651158</v>
+        <v>0.57243820484855223</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.68555765790381595</v>
+        <v>0.68496655694914221</v>
       </c>
       <c r="J27">
-        <v>0.31444234209618405</v>
+        <v>0.31503344305085773</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.78391185419928056</v>
+        <v>0.78376641789608836</v>
       </c>
       <c r="O27">
-        <v>0.21608814580071944</v>
+        <v>0.21623358210391164</v>
       </c>
     </row>
     <row r="28">
@@ -1491,31 +1491,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.20677763929440235</v>
+        <v>0.20634209770828049</v>
       </c>
       <c r="C28">
-        <v>0.20963371121062044</v>
+        <v>0.20993245587690668</v>
       </c>
       <c r="D28">
-        <v>0.58358864949497713</v>
+        <v>0.58372544641481294</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.70305800966744025</v>
+        <v>0.70012945960488671</v>
       </c>
       <c r="J28">
-        <v>0.29694199033255975</v>
+        <v>0.29987054039511329</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.77161461807977694</v>
+        <v>0.77126343395822661</v>
       </c>
       <c r="O28">
-        <v>0.22838538192022306</v>
+        <v>0.22873656604177339</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20672485204653415</v>
+        <v>0.20653603063156326</v>
       </c>
       <c r="C29">
-        <v>0.21096609829795329</v>
+        <v>0.2106072173256946</v>
       </c>
       <c r="D29">
-        <v>0.58230904965551256</v>
+        <v>0.58285675204274212</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.71910480268304755</v>
+        <v>0.72045977178260767</v>
       </c>
       <c r="J29">
-        <v>0.28089519731695245</v>
+        <v>0.27954022821739233</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79062844665169885</v>
+        <v>0.79156096300237777</v>
       </c>
       <c r="O29">
-        <v>0.20937155334830104</v>
+        <v>0.20843903699762212</v>
       </c>
     </row>
     <row r="30">
@@ -1555,31 +1555,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.2223988287929238</v>
+        <v>0.22294331364317183</v>
       </c>
       <c r="C30">
-        <v>0.20361893560781141</v>
+        <v>0.20266356612431999</v>
       </c>
       <c r="D30">
-        <v>0.57398223559926476</v>
+        <v>0.57439312023250833</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.69044937419088648</v>
+        <v>0.69280635068062746</v>
       </c>
       <c r="J30">
-        <v>0.30955062580911347</v>
+        <v>0.30719364931937254</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.76422340329891292</v>
+        <v>0.76535544859050997</v>
       </c>
       <c r="O30">
-        <v>0.23577659670108714</v>
+        <v>0.23464455140949003</v>
       </c>
     </row>
     <row r="31">
@@ -1587,31 +1587,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22861444219953622</v>
+        <v>0.22767431338553329</v>
       </c>
       <c r="C31">
-        <v>0.1952465116883613</v>
+        <v>0.19515717891297504</v>
       </c>
       <c r="D31">
-        <v>0.57613904611210243</v>
+        <v>0.57716850770149164</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.70261314704031852</v>
+        <v>0.70484631512417384</v>
       </c>
       <c r="J31">
-        <v>0.29738685295968159</v>
+        <v>0.29515368487582622</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78271706844255928</v>
+        <v>0.78453126260164152</v>
       </c>
       <c r="O31">
-        <v>0.21728293155744063</v>
+        <v>0.21546873739835845</v>
       </c>
     </row>
     <row r="32">
@@ -1619,31 +1619,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21714969900370168</v>
+        <v>0.21636146541342099</v>
       </c>
       <c r="C32">
-        <v>0.19484493322717522</v>
+        <v>0.19602950014469936</v>
       </c>
       <c r="D32">
-        <v>0.58800536776912316</v>
+        <v>0.58760903444187962</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.72383599759135708</v>
+        <v>0.72401902126156092</v>
       </c>
       <c r="J32">
-        <v>0.27616400240864297</v>
+        <v>0.27598097873843913</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.77846663112155223</v>
+        <v>0.77708335231083636</v>
       </c>
       <c r="O32">
-        <v>0.22153336887844771</v>
+        <v>0.22291664768916353</v>
       </c>
     </row>
     <row r="33">
@@ -1651,31 +1651,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.21797614569618148</v>
+        <v>0.21762912956426467</v>
       </c>
       <c r="C33">
-        <v>0.20299362177329741</v>
+        <v>0.2046854303332413</v>
       </c>
       <c r="D33">
-        <v>0.57903023253052111</v>
+        <v>0.57768544010249401</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.72136145926481954</v>
+        <v>0.72137821922787204</v>
       </c>
       <c r="J33">
-        <v>0.27863854073518046</v>
+        <v>0.27862178077212796</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78319215909477768</v>
+        <v>0.78440684066537414</v>
       </c>
       <c r="O33">
-        <v>0.21680784090522232</v>
+        <v>0.21559315933462594</v>
       </c>
     </row>
     <row r="34">
@@ -1683,31 +1683,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.21080801137064342</v>
+        <v>0.21107259500002887</v>
       </c>
       <c r="C34">
-        <v>0.20498730924786393</v>
+        <v>0.20460047092930983</v>
       </c>
       <c r="D34">
-        <v>0.58420467938149268</v>
+        <v>0.58432693407066127</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69791876420044252</v>
+        <v>0.69667733035382218</v>
       </c>
       <c r="J34">
-        <v>0.30208123579955742</v>
+        <v>0.30332266964617777</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78201144372360454</v>
+        <v>0.78191357012004037</v>
       </c>
       <c r="O34">
-        <v>0.21798855627639555</v>
+        <v>0.21808642987995955</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.21878769739099768</v>
+        <v>0.21952317181800901</v>
       </c>
       <c r="C35">
-        <v>0.19900348994511688</v>
+        <v>0.19714520090455179</v>
       </c>
       <c r="D35">
-        <v>0.58220881266388536</v>
+        <v>0.58333162727743926</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.71194466122074263</v>
+        <v>0.71137355807634828</v>
       </c>
       <c r="J35">
-        <v>0.28805533877925732</v>
+        <v>0.28862644192365183</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80446273164236104</v>
+        <v>0.80424178820521142</v>
       </c>
       <c r="O35">
-        <v>0.19553726835763904</v>
+        <v>0.19575821179478853</v>
       </c>
     </row>
     <row r="36">
@@ -1747,31 +1747,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.21714461293035275</v>
+        <v>0.21708791999870433</v>
       </c>
       <c r="C36">
-        <v>0.18987871805050377</v>
+        <v>0.18969544968326138</v>
       </c>
       <c r="D36">
-        <v>0.59297666901914359</v>
+        <v>0.59321663031803418</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.66911669064568569</v>
+        <v>0.66823641470236295</v>
       </c>
       <c r="J36">
-        <v>0.33088330935431426</v>
+        <v>0.33176358529763711</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.81293157667715521</v>
+        <v>0.81299050073032619</v>
       </c>
       <c r="O36">
-        <v>0.18706842332284479</v>
+        <v>0.18700949926967386</v>
       </c>
     </row>
     <row r="37">
@@ -1779,31 +1779,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.20461391774687421</v>
+        <v>0.20445957971158502</v>
       </c>
       <c r="C37">
-        <v>0.18054108029198357</v>
+        <v>0.18241332643900302</v>
       </c>
       <c r="D37">
-        <v>0.61484500196114222</v>
+        <v>0.613127093849412</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.70522587965511441</v>
+        <v>0.70103105765051865</v>
       </c>
       <c r="J37">
-        <v>0.29477412034488554</v>
+        <v>0.29896894234948129</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.80118330717684916</v>
+        <v>0.80046577293221977</v>
       </c>
       <c r="O37">
-        <v>0.19881669282315095</v>
+        <v>0.19953422706778037</v>
       </c>
     </row>
     <row r="38">
@@ -1811,31 +1811,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.19843190905592908</v>
+        <v>0.19792847056946478</v>
       </c>
       <c r="C38">
-        <v>0.18150844300276625</v>
+        <v>0.18165938342664251</v>
       </c>
       <c r="D38">
-        <v>0.62005964794130475</v>
+        <v>0.62041214600389272</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.67555477897320004</v>
+        <v>0.68130423386958916</v>
       </c>
       <c r="J38">
-        <v>0.32444522102680001</v>
+        <v>0.31869576613041084</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.82300450630489885</v>
+        <v>0.82466873760500503</v>
       </c>
       <c r="O38">
-        <v>0.17699549369510112</v>
+        <v>0.17533126239499491</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1843,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.18822366711479468</v>
+        <v>0.18784761597750707</v>
       </c>
       <c r="C39">
-        <v>0.17049526402859302</v>
+        <v>0.17176305386968804</v>
       </c>
       <c r="D39">
-        <v>0.64128106885661229</v>
+        <v>0.64038933015280486</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.67382876074176112</v>
+        <v>0.67095043103237051</v>
       </c>
       <c r="J39">
-        <v>0.32617123925823893</v>
+        <v>0.32904956896762944</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.82707707937144836</v>
+        <v>0.82723196368362939</v>
       </c>
       <c r="O39">
-        <v>0.17292292062855161</v>
+        <v>0.17276803631637061</v>
       </c>
     </row>
     <row r="40">
@@ -1875,31 +1875,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.1676063485844477</v>
+        <v>0.16724299133594953</v>
       </c>
       <c r="C40">
-        <v>0.17051443397001614</v>
+        <v>0.17092550536406007</v>
       </c>
       <c r="D40">
-        <v>0.66187921744553624</v>
+        <v>0.66183150329999041</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.66093946166361051</v>
+        <v>0.66302057221468336</v>
       </c>
       <c r="J40">
-        <v>0.33906053833638949</v>
+        <v>0.33697942778531675</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.83811050676708132</v>
+        <v>0.84077772245399995</v>
       </c>
       <c r="O40">
-        <v>0.16188949323291868</v>
+        <v>0.15922227754600005</v>
       </c>
     </row>
     <row r="41">
@@ -1907,31 +1907,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.15891242706007241</v>
+        <v>0.1594070966120778</v>
       </c>
       <c r="C41">
-        <v>0.16632680652715423</v>
+        <v>0.16553561361945029</v>
       </c>
       <c r="D41">
-        <v>0.67476076641277338</v>
+        <v>0.6750572897684719</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.67412228266550867</v>
+        <v>0.67176007516811598</v>
       </c>
       <c r="J41">
-        <v>0.32587771733449139</v>
+        <v>0.32823992483188408</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.83622548169156785</v>
+        <v>0.83575363454804596</v>
       </c>
       <c r="O41">
-        <v>0.16377451830843212</v>
+        <v>0.16424636545195406</v>
       </c>
     </row>
     <row r="42">
@@ -1939,31 +1939,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.14622547924832155</v>
+        <v>0.14584657596509026</v>
       </c>
       <c r="C42">
-        <v>0.16817473509375577</v>
+        <v>0.1687843378687249</v>
       </c>
       <c r="D42">
-        <v>0.68559978565792268</v>
+        <v>0.68536908616618486</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.63309083240033581</v>
+        <v>0.63868765574515596</v>
       </c>
       <c r="J42">
-        <v>0.3669091675996643</v>
+        <v>0.36131234425484415</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.85166850465746102</v>
+        <v>0.85269655738791317</v>
       </c>
       <c r="O42">
-        <v>0.14833149534253906</v>
+        <v>0.14730344261208683</v>
       </c>
     </row>
     <row r="43">
@@ -1971,31 +1971,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.1338987572325519</v>
+        <v>0.13318279267722916</v>
       </c>
       <c r="C43">
-        <v>0.16096734904413157</v>
+        <v>0.1615072361128515</v>
       </c>
       <c r="D43">
-        <v>0.70513389372331658</v>
+        <v>0.70530997120991934</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.6074356201406601</v>
+        <v>0.60680579784373478</v>
       </c>
       <c r="J43">
-        <v>0.39256437985934006</v>
+        <v>0.39319420215626533</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.8462278460506133</v>
+        <v>0.84730570996590593</v>
       </c>
       <c r="O43">
-        <v>0.15377215394938668</v>
+        <v>0.15269429003409404</v>
       </c>
     </row>
     <row r="44">
@@ -2003,31 +2003,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.12438203425058814</v>
+        <v>0.1243885594620503</v>
       </c>
       <c r="C44">
-        <v>0.15667434718080098</v>
+        <v>0.15494447505043102</v>
       </c>
       <c r="D44">
-        <v>0.71894361856861089</v>
+        <v>0.72066696548751874</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.64189424780775983</v>
+        <v>0.64455134287064264</v>
       </c>
       <c r="J44">
-        <v>0.35810575219224017</v>
+        <v>0.35544865712935747</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.84939716642925156</v>
+        <v>0.84860765303452834</v>
       </c>
       <c r="O44">
-        <v>0.15060283357074847</v>
+        <v>0.15139234696547166</v>
       </c>
     </row>
     <row r="45">
@@ -2035,31 +2035,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.12381599036696042</v>
+        <v>0.1240402949890093</v>
       </c>
       <c r="C45">
-        <v>0.15703362631071988</v>
+        <v>0.15755138178655598</v>
       </c>
       <c r="D45">
-        <v>0.71915038332231962</v>
+        <v>0.71840832322443471</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.60797955589310304</v>
+        <v>0.60586900517326669</v>
       </c>
       <c r="J45">
-        <v>0.39202044410689696</v>
+        <v>0.39413099482673325</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.85116542570122744</v>
+        <v>0.85294727115711966</v>
       </c>
       <c r="O45">
-        <v>0.1488345742987725</v>
+        <v>0.14705272884288037</v>
       </c>
     </row>
     <row r="46">
@@ -2067,31 +2067,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.1213965202888769</v>
+        <v>0.12068138049212082</v>
       </c>
       <c r="C46">
-        <v>0.15584516333615706</v>
+        <v>0.1553152356475124</v>
       </c>
       <c r="D46">
-        <v>0.72275831637496613</v>
+        <v>0.72400338386036667</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.56572276459925297</v>
+        <v>0.5683188610521297</v>
       </c>
       <c r="J46">
-        <v>0.43427723540074703</v>
+        <v>0.43168113894787025</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.85377937461612141</v>
+        <v>0.85257573460932012</v>
       </c>
       <c r="O46">
-        <v>0.14622062538387864</v>
+        <v>0.14742426539067988</v>
       </c>
     </row>
     <row r="47">
@@ -2099,31 +2099,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.11145942382646609</v>
+        <v>0.1116878420259713</v>
       </c>
       <c r="C47">
-        <v>0.14992235030440204</v>
+        <v>0.15160379237730617</v>
       </c>
       <c r="D47">
-        <v>0.73861822586913195</v>
+        <v>0.73670836559672259</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.61874444171394172</v>
+        <v>0.62203292956639866</v>
       </c>
       <c r="J47">
-        <v>0.38125555828605828</v>
+        <v>0.37796707043360123</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.82568510999189959</v>
+        <v>0.82630015179235483</v>
       </c>
       <c r="O47">
-        <v>0.17431489000810027</v>
+        <v>0.17369984820764522</v>
       </c>
     </row>
     <row r="48">
@@ -2131,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.12838825485416874</v>
+        <v>0.12797502174322109</v>
       </c>
       <c r="C48">
-        <v>0.15783717519177176</v>
+        <v>0.15834768838567762</v>
       </c>
       <c r="D48">
-        <v>0.71377456995405941</v>
+        <v>0.71367728987110135</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.59435708415283295</v>
+        <v>0.59544953375291132</v>
       </c>
       <c r="J48">
-        <v>0.40564291584716711</v>
+        <v>0.40455046624708874</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.84937924028791167</v>
+        <v>0.8504883923291735</v>
       </c>
       <c r="O48">
-        <v>0.15062075971208827</v>
+        <v>0.14951160767082658</v>
       </c>
     </row>
     <row r="49">
@@ -2163,31 +2163,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.11087736783751637</v>
+        <v>0.11178578082975681</v>
       </c>
       <c r="C49">
-        <v>0.17008699935609564</v>
+        <v>0.16939570391920294</v>
       </c>
       <c r="D49">
-        <v>0.71903563280638805</v>
+        <v>0.71881851525104012</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.61415888146715991</v>
+        <v>0.61106593625108074</v>
       </c>
       <c r="J49">
-        <v>0.38584111853283998</v>
+        <v>0.38893406374891926</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.83612381858347784</v>
+        <v>0.83624982310396756</v>
       </c>
       <c r="O49">
-        <v>0.16387618141652213</v>
+        <v>0.1637501768960325</v>
       </c>
     </row>
     <row r="50">
@@ -2195,31 +2195,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.11623500941798141</v>
+        <v>0.1154633823179361</v>
       </c>
       <c r="C50">
-        <v>0.16967149923141914</v>
+        <v>0.16847555667948549</v>
       </c>
       <c r="D50">
-        <v>0.71409349135059963</v>
+        <v>0.71606106100257849</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.56605409436914977</v>
+        <v>0.56504225905050842</v>
       </c>
       <c r="J50">
-        <v>0.43394590563085023</v>
+        <v>0.43495774094949163</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.82253784267945351</v>
+        <v>0.82144032950143309</v>
       </c>
       <c r="O50">
-        <v>0.17746215732054635</v>
+        <v>0.17855967049856683</v>
       </c>
     </row>
     <row r="51">
@@ -2227,31 +2227,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.12510860838249163</v>
+        <v>0.12746841955631699</v>
       </c>
       <c r="C51">
-        <v>0.16186454418571528</v>
+        <v>0.160361647259325</v>
       </c>
       <c r="D51">
-        <v>0.71302684743179323</v>
+        <v>0.71216993318435806</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.57331919732041314</v>
+        <v>0.56750520364844925</v>
       </c>
       <c r="J51">
-        <v>0.4266808026795868</v>
+        <v>0.43249479635155086</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.82389916043854283</v>
+        <v>0.82100185987366414</v>
       </c>
       <c r="O51">
-        <v>0.17610083956145714</v>
+        <v>0.17899814012633591</v>
       </c>
     </row>
     <row r="52">
@@ -2259,31 +2259,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.11880132855129846</v>
+        <v>0.11847653454852364</v>
       </c>
       <c r="C52">
-        <v>0.16146938004665221</v>
+        <v>0.16375343331307157</v>
       </c>
       <c r="D52">
-        <v>0.71972929140204933</v>
+        <v>0.71777003213840473</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.55754654953469851</v>
+        <v>0.55920292880999312</v>
       </c>
       <c r="J52">
-        <v>0.44245345046530155</v>
+        <v>0.44079707119000694</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.84573047748404917</v>
+        <v>0.8479015934659675</v>
       </c>
       <c r="O52">
-        <v>0.15426952251595077</v>
+        <v>0.15209840653403262</v>
       </c>
     </row>
     <row r="53">
@@ -2291,31 +2291,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.11329615819833444</v>
+        <v>0.11285309227370249</v>
       </c>
       <c r="C53">
-        <v>0.16863559992372615</v>
+        <v>0.16989895195405827</v>
       </c>
       <c r="D53">
-        <v>0.71806824187793938</v>
+        <v>0.71724795577223921</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.59475266178783193</v>
+        <v>0.59365737816976905</v>
       </c>
       <c r="J53">
-        <v>0.40524733821216807</v>
+        <v>0.40634262183023101</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.82080932173448817</v>
+        <v>0.82084059531838804</v>
       </c>
       <c r="O53">
-        <v>0.17919067826551183</v>
+        <v>0.17915940468161198</v>
       </c>
     </row>
     <row r="54">
@@ -2323,13 +2323,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.10790333330724772</v>
+        <v>0.1079733301102251</v>
       </c>
       <c r="C54">
-        <v>0.18015237300254361</v>
+        <v>0.17943451428438484</v>
       </c>
       <c r="D54">
-        <v>0.71194429369020873</v>
+        <v>0.71259215560539013</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -5305,19 +5305,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.79496233690234164</v>
+        <v>0.79628005274316582</v>
       </c>
       <c r="J3">
-        <v>0.20503766309765836</v>
+        <v>0.20371994725683412</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.63409962205721981</v>
+        <v>0.63799671364864896</v>
       </c>
       <c r="O3">
-        <v>0.36590037794278013</v>
+        <v>0.36200328635135109</v>
       </c>
     </row>
     <row r="4">
@@ -5325,19 +5325,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.79930627405568311</v>
+        <v>0.79557639860345919</v>
       </c>
       <c r="J4">
-        <v>0.20069372594431692</v>
+        <v>0.20442360139654084</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.66938359966569394</v>
+        <v>0.65729735634083286</v>
       </c>
       <c r="O4">
-        <v>0.33061640033430612</v>
+        <v>0.34270264365916714</v>
       </c>
     </row>
     <row r="5">
@@ -5345,19 +5345,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.77424036319358491</v>
+        <v>0.7687938132105524</v>
       </c>
       <c r="J5">
-        <v>0.22575963680641509</v>
+        <v>0.23120618678944763</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.70567951168356635</v>
+        <v>0.71087531040669794</v>
       </c>
       <c r="O5">
-        <v>0.29432048831643354</v>
+        <v>0.28912468959330201</v>
       </c>
     </row>
     <row r="6">
@@ -5365,19 +5365,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.8224577465341476</v>
+        <v>0.82531755069601154</v>
       </c>
       <c r="J6">
-        <v>0.17754225346585242</v>
+        <v>0.17468244930398844</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.53703490006769894</v>
+        <v>0.53857109301588668</v>
       </c>
       <c r="O6">
-        <v>0.46296509993230123</v>
+        <v>0.46142890698411332</v>
       </c>
     </row>
     <row r="7">
@@ -5385,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.78345202285122328</v>
+        <v>0.78006055193055679</v>
       </c>
       <c r="J7">
-        <v>0.21654797714877672</v>
+        <v>0.21993944806944327</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.64377830531138724</v>
+        <v>0.6505407226295169</v>
       </c>
       <c r="O7">
-        <v>0.35622169468861287</v>
+        <v>0.3494592773704831</v>
       </c>
     </row>
     <row r="8">
@@ -5405,19 +5405,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.8078684227109203</v>
+        <v>0.80822953909693751</v>
       </c>
       <c r="J8">
-        <v>0.19213157728907973</v>
+        <v>0.19177046090306238</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.62253146158213168</v>
+        <v>0.61185141641759733</v>
       </c>
       <c r="O8">
-        <v>0.37746853841786832</v>
+        <v>0.38814858358240262</v>
       </c>
     </row>
     <row r="9">
@@ -5425,19 +5425,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.73242582576660575</v>
+        <v>0.73141300082328697</v>
       </c>
       <c r="J9">
-        <v>0.2675741742333943</v>
+        <v>0.26858699917671314</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.62012041793187966</v>
+        <v>0.62067832635918407</v>
       </c>
       <c r="O9">
-        <v>0.37987958206812028</v>
+        <v>0.37932167364081587</v>
       </c>
     </row>
     <row r="10">
@@ -5445,19 +5445,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.78281707340815543</v>
+        <v>0.78215076274482975</v>
       </c>
       <c r="J10">
-        <v>0.21718292659184457</v>
+        <v>0.21784923725517033</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.55514533359128293</v>
+        <v>0.54976040745267274</v>
       </c>
       <c r="O10">
-        <v>0.44485466640871707</v>
+        <v>0.45023959254732737</v>
       </c>
     </row>
     <row r="11">
@@ -5465,19 +5465,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.7050352302983266</v>
+        <v>0.70338296164254877</v>
       </c>
       <c r="J11">
-        <v>0.2949647697016734</v>
+        <v>0.29661703835745123</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.66881339081089786</v>
+        <v>0.67206467190071906</v>
       </c>
       <c r="O11">
-        <v>0.33118660918910209</v>
+        <v>0.32793532809928089</v>
       </c>
     </row>
     <row r="12">
@@ -5485,19 +5485,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.77538273859502427</v>
+        <v>0.77703247234332207</v>
       </c>
       <c r="J12">
-        <v>0.22461726140497568</v>
+        <v>0.22296752765667791</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.70307654542470144</v>
+        <v>0.71037116781930698</v>
       </c>
       <c r="O12">
-        <v>0.29692345457529873</v>
+        <v>0.28962883218069307</v>
       </c>
     </row>
     <row r="13">
@@ -5505,19 +5505,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.74047890121379223</v>
+        <v>0.74575370320858736</v>
       </c>
       <c r="J13">
-        <v>0.2595210987862076</v>
+        <v>0.25424629679141258</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.70046924303340108</v>
+        <v>0.69458579089291139</v>
       </c>
       <c r="O13">
-        <v>0.29953075696659892</v>
+        <v>0.30541420910708861</v>
       </c>
     </row>
     <row r="14">
@@ -5525,19 +5525,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.78190465253367569</v>
+        <v>0.77561077838830061</v>
       </c>
       <c r="J14">
-        <v>0.21809534746632439</v>
+        <v>0.22438922161169944</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.66677793983218026</v>
+        <v>0.6514683936989708</v>
       </c>
       <c r="O14">
-        <v>0.33322206016781986</v>
+        <v>0.3485316063010292</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.79617505480239159</v>
+        <v>0.79621700243525939</v>
       </c>
       <c r="J15">
-        <v>0.20382494519760835</v>
+        <v>0.20378299756474053</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.64755973859503502</v>
+        <v>0.64288210026053738</v>
       </c>
       <c r="O15">
-        <v>0.35244026140496493</v>
+        <v>0.35711789973946262</v>
       </c>
     </row>
     <row r="16">
@@ -5565,19 +5565,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.79026375077169397</v>
+        <v>0.7919250535115121</v>
       </c>
       <c r="J16">
-        <v>0.20973624922830603</v>
+        <v>0.20807494648848798</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.62677677653591191</v>
+        <v>0.62487956682842127</v>
       </c>
       <c r="O16">
-        <v>0.37322322346408809</v>
+        <v>0.37512043317157873</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.79677724777354575</v>
+        <v>0.79562032110003111</v>
       </c>
       <c r="J17">
-        <v>0.20322275222645428</v>
+        <v>0.20437967889996897</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.67500939469825105</v>
+        <v>0.67398891992527643</v>
       </c>
       <c r="O17">
-        <v>0.32499060530174884</v>
+        <v>0.32601108007472368</v>
       </c>
     </row>
     <row r="18">
@@ -5605,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.78568118971910139</v>
+        <v>0.78538894124026171</v>
       </c>
       <c r="J18">
-        <v>0.21431881028089855</v>
+        <v>0.21461105875973838</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.72937633936832202</v>
+        <v>0.72521589643157203</v>
       </c>
       <c r="O18">
-        <v>0.27062366063167798</v>
+        <v>0.27478410356842797</v>
       </c>
     </row>
     <row r="19">
@@ -5625,19 +5625,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.78443526274859887</v>
+        <v>0.78625276150652235</v>
       </c>
       <c r="J19">
-        <v>0.21556473725140099</v>
+        <v>0.21374723849347768</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.71453441613714697</v>
+        <v>0.71333258416950129</v>
       </c>
       <c r="O19">
-        <v>0.28546558386285292</v>
+        <v>0.2866674158304986</v>
       </c>
     </row>
     <row r="20">
@@ -5645,19 +5645,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.78752858606017273</v>
+        <v>0.78576271707151646</v>
       </c>
       <c r="J20">
-        <v>0.21247141393982727</v>
+        <v>0.21423728292848354</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.6539080705935616</v>
+        <v>0.65889477609407243</v>
       </c>
       <c r="O20">
-        <v>0.34609192940643846</v>
+        <v>0.34110522390592751</v>
       </c>
     </row>
     <row r="21">
@@ -5665,19 +5665,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.78392644328675687</v>
+        <v>0.78063150585324281</v>
       </c>
       <c r="J21">
-        <v>0.21607355671324321</v>
+        <v>0.21936849414675724</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.71937044308449605</v>
+        <v>0.71800991033853079</v>
       </c>
       <c r="O21">
-        <v>0.28062955691550395</v>
+        <v>0.28199008966146921</v>
       </c>
     </row>
     <row r="22">
@@ -5685,19 +5685,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.74554684242751856</v>
+        <v>0.75093557935244593</v>
       </c>
       <c r="J22">
-        <v>0.25445315757248144</v>
+        <v>0.24906442064755405</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.69698000955349138</v>
+        <v>0.69862688001979489</v>
       </c>
       <c r="O22">
-        <v>0.30301999044650868</v>
+        <v>0.30137311998020511</v>
       </c>
     </row>
     <row r="23">
@@ -5705,19 +5705,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.77217255209837987</v>
+        <v>0.77106359020039816</v>
       </c>
       <c r="J23">
-        <v>0.22782744790162007</v>
+        <v>0.22893640979960175</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.64651445518977435</v>
+        <v>0.65028499469603074</v>
       </c>
       <c r="O23">
-        <v>0.35348554481022565</v>
+        <v>0.34971500530396915</v>
       </c>
     </row>
     <row r="24">
@@ -5725,19 +5725,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.78831645893664182</v>
+        <v>0.79072405059663453</v>
       </c>
       <c r="J24">
-        <v>0.21168354106335813</v>
+        <v>0.20927594940336547</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.71755773513278753</v>
+        <v>0.72025552545376426</v>
       </c>
       <c r="O24">
-        <v>0.28244226486721247</v>
+        <v>0.27974447454623574</v>
       </c>
     </row>
     <row r="25">
@@ -5745,19 +5745,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.74676665176011126</v>
+        <v>0.74979092293415928</v>
       </c>
       <c r="J25">
-        <v>0.25323334823988874</v>
+        <v>0.25020907706584072</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.67489791148067924</v>
+        <v>0.66849053557939342</v>
       </c>
       <c r="O25">
-        <v>0.32510208851932082</v>
+        <v>0.33150946442060664</v>
       </c>
     </row>
     <row r="26">
@@ -5765,19 +5765,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.7883278853905481</v>
+        <v>0.78739895649578917</v>
       </c>
       <c r="J26">
-        <v>0.21167211460945187</v>
+        <v>0.2126010435042108</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.66358092065382979</v>
+        <v>0.66074883585654276</v>
       </c>
       <c r="O26">
-        <v>0.33641907934617021</v>
+        <v>0.33925116414345724</v>
       </c>
     </row>
     <row r="27">
@@ -5785,19 +5785,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.77137346929496575</v>
+        <v>0.77509052563601233</v>
       </c>
       <c r="J27">
-        <v>0.22862653070503425</v>
+        <v>0.22490947436398775</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.72010447520991772</v>
+        <v>0.71926716140645253</v>
       </c>
       <c r="O27">
-        <v>0.27989552479008223</v>
+        <v>0.28073283859354753</v>
       </c>
     </row>
     <row r="28">
@@ -5805,19 +5805,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.77698466812331024</v>
+        <v>0.7733386634404934</v>
       </c>
       <c r="J28">
-        <v>0.22301533187668973</v>
+        <v>0.22666133655950657</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.68716179793454701</v>
+        <v>0.68636386559201501</v>
       </c>
       <c r="O28">
-        <v>0.31283820206545293</v>
+        <v>0.31363613440798493</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.80224514435124195</v>
+        <v>0.80342792469143254</v>
       </c>
       <c r="J29">
-        <v>0.19775485564875803</v>
+        <v>0.19657207530856743</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.6846619572987962</v>
+        <v>0.68903341159167608</v>
       </c>
       <c r="O29">
-        <v>0.31533804270120386</v>
+        <v>0.31096658840832386</v>
       </c>
     </row>
     <row r="30">
@@ -5845,19 +5845,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.76038073318502886</v>
+        <v>0.76449773879679561</v>
       </c>
       <c r="J30">
-        <v>0.23961926681497112</v>
+        <v>0.23550226120320442</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70156699032814207</v>
+        <v>0.70703864840536168</v>
       </c>
       <c r="O30">
-        <v>0.29843300967185804</v>
+        <v>0.29296135159463843</v>
       </c>
     </row>
     <row r="31">
@@ -5865,19 +5865,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.81190520412204636</v>
+        <v>0.81575300739817935</v>
       </c>
       <c r="J31">
-        <v>0.18809479587795366</v>
+        <v>0.18424699260182059</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.67722758933357829</v>
+        <v>0.68167219622071984</v>
       </c>
       <c r="O31">
-        <v>0.32277241066642182</v>
+        <v>0.31832780377928011</v>
       </c>
     </row>
     <row r="32">
@@ -5885,19 +5885,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.79781574668619126</v>
+        <v>0.79969160575522957</v>
       </c>
       <c r="J32">
-        <v>0.20218425331380879</v>
+        <v>0.20030839424477048</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.71851162463568263</v>
+        <v>0.71863726771033465</v>
       </c>
       <c r="O32">
-        <v>0.28148837536431731</v>
+        <v>0.28136273228966546</v>
       </c>
     </row>
     <row r="33">
@@ -5905,19 +5905,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.77877703638764662</v>
+        <v>0.77844960491973825</v>
       </c>
       <c r="J33">
-        <v>0.22122296361235341</v>
+        <v>0.22155039508026178</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.69968986794019217</v>
+        <v>0.70286133649163396</v>
       </c>
       <c r="O33">
-        <v>0.30031013205980789</v>
+        <v>0.29713866350836604</v>
       </c>
     </row>
     <row r="34">
@@ -5925,19 +5925,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.77595786944596901</v>
+        <v>0.77579589080166456</v>
       </c>
       <c r="J34">
-        <v>0.22404213055403108</v>
+        <v>0.22420410919833542</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71181151269012055</v>
+        <v>0.71128125027283784</v>
       </c>
       <c r="O34">
-        <v>0.2881884873098795</v>
+        <v>0.28871874972716211</v>
       </c>
     </row>
     <row r="35">
@@ -5945,19 +5945,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.77372559646646355</v>
+        <v>0.77326671957840654</v>
       </c>
       <c r="J35">
-        <v>0.22627440353353648</v>
+        <v>0.22673328042159352</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.72348275003624574</v>
+        <v>0.72572323364322611</v>
       </c>
       <c r="O35">
-        <v>0.27651724996375437</v>
+        <v>0.27427676635677406</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.71315212938812567</v>
+        <v>0.71300188035026135</v>
       </c>
       <c r="J36">
-        <v>0.28684787061187439</v>
+        <v>0.28699811964973876</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.73622419957586871</v>
+        <v>0.73537582643378552</v>
       </c>
       <c r="O36">
-        <v>0.2637758004241314</v>
+        <v>0.26462417356621454</v>
       </c>
     </row>
     <row r="37">
@@ -5985,19 +5985,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.79065681722644332</v>
+        <v>0.78719380814947937</v>
       </c>
       <c r="J37">
-        <v>0.20934318277355665</v>
+        <v>0.21280619185052069</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.74102436791472814</v>
+        <v>0.7397469604337924</v>
       </c>
       <c r="O37">
-        <v>0.25897563208527191</v>
+        <v>0.26025303956620766</v>
       </c>
     </row>
     <row r="38">
@@ -6005,19 +6005,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.74221276630759303</v>
+        <v>0.74236253757943227</v>
       </c>
       <c r="J38">
-        <v>0.25778723369240697</v>
+        <v>0.25763746242056773</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76975803288455191</v>
+        <v>0.7699484089295755</v>
       </c>
       <c r="O38">
-        <v>0.230241967115448</v>
+        <v>0.2300515910704245</v>
       </c>
     </row>
     <row r="39">
@@ -6025,19 +6025,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.72841464462091032</v>
+        <v>0.72731203450102211</v>
       </c>
       <c r="J39">
-        <v>0.27158535537908962</v>
+        <v>0.272687965498978</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.80051684887198304</v>
+        <v>0.79866288386410855</v>
       </c>
       <c r="O39">
-        <v>0.19948315112801701</v>
+        <v>0.20133711613589136</v>
       </c>
     </row>
     <row r="40">
@@ -6045,19 +6045,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.71688109334775285</v>
+        <v>0.71901642280084765</v>
       </c>
       <c r="J40">
-        <v>0.28311890665224715</v>
+        <v>0.28098357719915235</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.77893491749864274</v>
+        <v>0.78275239406948405</v>
       </c>
       <c r="O40">
-        <v>0.22106508250135723</v>
+        <v>0.21724760593051595</v>
       </c>
     </row>
     <row r="41">
@@ -6065,19 +6065,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.74302479415615708</v>
+        <v>0.73995583843282731</v>
       </c>
       <c r="J41">
-        <v>0.25697520584384298</v>
+        <v>0.26004416156717264</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.77143982548278534</v>
+        <v>0.77143984419684175</v>
       </c>
       <c r="O41">
-        <v>0.22856017451721472</v>
+        <v>0.2285601558031583</v>
       </c>
     </row>
     <row r="42">
@@ -6085,19 +6085,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.67721906884266758</v>
+        <v>0.68488137613351585</v>
       </c>
       <c r="J42">
-        <v>0.32278093115733253</v>
+        <v>0.31511862386648409</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.81770844870833193</v>
+        <v>0.81888364832609206</v>
       </c>
       <c r="O42">
-        <v>0.18229155129166802</v>
+        <v>0.18111635167390797</v>
       </c>
     </row>
     <row r="43">
@@ -6105,19 +6105,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.67601854774555481</v>
+        <v>0.67760617313001748</v>
       </c>
       <c r="J43">
-        <v>0.32398145225444519</v>
+        <v>0.32239382686998258</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.79809214499219472</v>
+        <v>0.79976052449538315</v>
       </c>
       <c r="O43">
-        <v>0.20190785500780531</v>
+        <v>0.20023947550461679</v>
       </c>
     </row>
     <row r="44">
@@ -6125,19 +6125,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.702473284463624</v>
+        <v>0.70686193568956379</v>
       </c>
       <c r="J44">
-        <v>0.29752671553637594</v>
+        <v>0.29313806431043621</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.79546739661722232</v>
+        <v>0.79487665619083958</v>
       </c>
       <c r="O44">
-        <v>0.20453260338277765</v>
+        <v>0.20512334380916047</v>
       </c>
     </row>
     <row r="45">
@@ -6145,19 +6145,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.67398533469225697</v>
+        <v>0.66969068418483124</v>
       </c>
       <c r="J45">
-        <v>0.32601466530774298</v>
+        <v>0.3303093158151687</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.81607397683105221</v>
+        <v>0.81686975877580759</v>
       </c>
       <c r="O45">
-        <v>0.18392602316894785</v>
+        <v>0.18313024122419247</v>
       </c>
     </row>
     <row r="46">
@@ -6165,19 +6165,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.63936316959657313</v>
+        <v>0.64326876217633455</v>
       </c>
       <c r="J46">
-        <v>0.36063683040342687</v>
+        <v>0.35673123782366539</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.82487546298271153</v>
+        <v>0.82445032098966176</v>
       </c>
       <c r="O46">
-        <v>0.17512453701728845</v>
+        <v>0.17554967901033824</v>
       </c>
     </row>
     <row r="47">
@@ -6185,19 +6185,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.67741144390560748</v>
+        <v>0.67937202335704749</v>
       </c>
       <c r="J47">
-        <v>0.32258855609439263</v>
+        <v>0.32062797664295239</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.77370183412728222</v>
+        <v>0.775001358232559</v>
       </c>
       <c r="O47">
-        <v>0.2262981658727177</v>
+        <v>0.224998641767441</v>
       </c>
     </row>
     <row r="48">
@@ -6205,19 +6205,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.65670059195733133</v>
+        <v>0.66018198858091348</v>
       </c>
       <c r="J48">
-        <v>0.34329940804266867</v>
+        <v>0.33981801141908646</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.81221174039743926</v>
+        <v>0.81491586808666305</v>
       </c>
       <c r="O48">
-        <v>0.18778825960256082</v>
+        <v>0.18508413191333697</v>
       </c>
     </row>
     <row r="49">
@@ -6225,19 +6225,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.63901420130135889</v>
+        <v>0.63472914746899334</v>
       </c>
       <c r="J49">
-        <v>0.36098579869864106</v>
+        <v>0.36527085253100661</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.78158038970023846</v>
+        <v>0.78154715343647985</v>
       </c>
       <c r="O49">
-        <v>0.21841961029976165</v>
+        <v>0.21845284656352015</v>
       </c>
     </row>
     <row r="50">
@@ -6245,19 +6245,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.60178470385751415</v>
+        <v>0.60142395670676896</v>
       </c>
       <c r="J50">
-        <v>0.3982152961424858</v>
+        <v>0.39857604329323099</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.77429400149820671</v>
+        <v>0.77344811505372679</v>
       </c>
       <c r="O50">
-        <v>0.22570599850179329</v>
+        <v>0.22655188494627321</v>
       </c>
     </row>
     <row r="51">
@@ -6265,19 +6265,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.60277368982615487</v>
+        <v>0.59601483810100786</v>
       </c>
       <c r="J51">
-        <v>0.39722631017384524</v>
+        <v>0.4039851618989922</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.7931531575834232</v>
+        <v>0.78858684678371727</v>
       </c>
       <c r="O51">
-        <v>0.20684684241657675</v>
+        <v>0.21141315321628271</v>
       </c>
     </row>
     <row r="52">
@@ -6285,19 +6285,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.59882481913301899</v>
+        <v>0.60023157139496197</v>
       </c>
       <c r="J52">
-        <v>0.40117518086698095</v>
+        <v>0.39976842860503797</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.8129219620572341</v>
+        <v>0.8121140150904641</v>
       </c>
       <c r="O52">
-        <v>0.18707803794276587</v>
+        <v>0.18788598490953584</v>
       </c>
     </row>
     <row r="53">
@@ -6305,19 +6305,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.61805695514594228</v>
+        <v>0.61388910694797871</v>
       </c>
       <c r="J53">
-        <v>0.38194304485405778</v>
+        <v>0.3861108930520214</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.77741302670903589</v>
+        <v>0.77740710377444278</v>
       </c>
       <c r="O53">
-        <v>0.222586973290964</v>
+        <v>0.22259289622555725</v>
       </c>
     </row>
     <row r="54">
@@ -7007,19 +7007,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.70794310374183889</v>
+        <v>0.70645675906475069</v>
       </c>
       <c r="J3">
-        <v>0.29205689625816106</v>
+        <v>0.29354324093524936</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.75271689309315293</v>
+        <v>0.75861306230309589</v>
       </c>
       <c r="O3">
-        <v>0.2472831069068471</v>
+        <v>0.24138693769690414</v>
       </c>
     </row>
     <row r="4">
@@ -7027,19 +7027,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.69391406912641884</v>
+        <v>0.69764895795649506</v>
       </c>
       <c r="J4">
-        <v>0.30608593087358105</v>
+        <v>0.30235104204350499</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.71664599474557467</v>
+        <v>0.71242731924825431</v>
       </c>
       <c r="O4">
-        <v>0.28335400525442539</v>
+        <v>0.28757268075174569</v>
       </c>
     </row>
     <row r="5">
@@ -7047,19 +7047,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.65163121929667345</v>
+        <v>0.6499507448886459</v>
       </c>
       <c r="J5">
-        <v>0.3483687807033265</v>
+        <v>0.3500492551113541</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.72349027996071424</v>
+        <v>0.73051642604941391</v>
       </c>
       <c r="O5">
-        <v>0.27650972003928576</v>
+        <v>0.26948357395058614</v>
       </c>
     </row>
     <row r="6">
@@ -7067,19 +7067,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.66366348067552683</v>
+        <v>0.66056419683939682</v>
       </c>
       <c r="J6">
-        <v>0.33633651932447334</v>
+        <v>0.33943580316060312</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.73885117283791835</v>
+        <v>0.73910315316537456</v>
       </c>
       <c r="O6">
-        <v>0.26114882716208165</v>
+        <v>0.26089684683462538</v>
       </c>
     </row>
     <row r="7">
@@ -7087,19 +7087,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.68584069482026755</v>
+        <v>0.68001911402273085</v>
       </c>
       <c r="J7">
-        <v>0.31415930517973245</v>
+        <v>0.31998088597726915</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.75064900148916514</v>
+        <v>0.74704690193085588</v>
       </c>
       <c r="O7">
-        <v>0.24935099851083495</v>
+        <v>0.25295309806914407</v>
       </c>
     </row>
     <row r="8">
@@ -7107,19 +7107,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.69584682782226936</v>
+        <v>0.68820144500808766</v>
       </c>
       <c r="J8">
-        <v>0.30415317217773075</v>
+        <v>0.31179855499191245</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.76290213185187628</v>
+        <v>0.76148696533836424</v>
       </c>
       <c r="O8">
-        <v>0.23709786814812375</v>
+        <v>0.2385130346616357</v>
       </c>
     </row>
     <row r="9">
@@ -7127,19 +7127,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.65211218873104104</v>
+        <v>0.65196192441314493</v>
       </c>
       <c r="J9">
-        <v>0.3478878112689589</v>
+        <v>0.34803807558685507</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.73449208831014212</v>
+        <v>0.73340946971161702</v>
       </c>
       <c r="O9">
-        <v>0.26550791168985788</v>
+        <v>0.26659053028838298</v>
       </c>
     </row>
     <row r="10">
@@ -7147,19 +7147,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.7036223019479716</v>
+        <v>0.70342397081904473</v>
       </c>
       <c r="J10">
-        <v>0.29637769805202829</v>
+        <v>0.29657602918095533</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.7463272712865533</v>
+        <v>0.74911176805298407</v>
       </c>
       <c r="O10">
-        <v>0.2536727287134467</v>
+        <v>0.25088823194701593</v>
       </c>
     </row>
     <row r="11">
@@ -7167,19 +7167,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.66112431625102108</v>
+        <v>0.66425081937928632</v>
       </c>
       <c r="J11">
-        <v>0.33887568374897886</v>
+        <v>0.33574918062071368</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.7595200425232026</v>
+        <v>0.75885318209298191</v>
       </c>
       <c r="O11">
-        <v>0.24047995747679746</v>
+        <v>0.24114681790701806</v>
       </c>
     </row>
     <row r="12">
@@ -7187,19 +7187,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.69342673105805341</v>
+        <v>0.68872641834544235</v>
       </c>
       <c r="J12">
-        <v>0.3065732689419467</v>
+        <v>0.31127358165455771</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.73489826285463555</v>
+        <v>0.73124708316379905</v>
       </c>
       <c r="O12">
-        <v>0.26510173714536439</v>
+        <v>0.26875291683620084</v>
       </c>
     </row>
     <row r="13">
@@ -7207,19 +7207,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.68587203692413201</v>
+        <v>0.68426239879370032</v>
       </c>
       <c r="J13">
-        <v>0.31412796307586793</v>
+        <v>0.31573760120629984</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.75731308076567994</v>
+        <v>0.75336084370293988</v>
       </c>
       <c r="O13">
-        <v>0.24268691923432009</v>
+        <v>0.24663915629706015</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.7119914189118155</v>
+        <v>0.70752814040356571</v>
       </c>
       <c r="J14">
-        <v>0.28800858108818439</v>
+        <v>0.29247185959643424</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.75573115807805369</v>
+        <v>0.75537161098451366</v>
       </c>
       <c r="O14">
-        <v>0.24426884192194626</v>
+        <v>0.24462838901548634</v>
       </c>
     </row>
     <row r="15">
@@ -7247,19 +7247,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.68565806920007466</v>
+        <v>0.67949909705512845</v>
       </c>
       <c r="J15">
-        <v>0.3143419307999254</v>
+        <v>0.32050090294487155</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.77056081690546907</v>
+        <v>0.76805344158445177</v>
       </c>
       <c r="O15">
-        <v>0.22943918309453093</v>
+        <v>0.23194655841554818</v>
       </c>
     </row>
     <row r="16">
@@ -7267,19 +7267,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.65926144083939786</v>
+        <v>0.66096421825247609</v>
       </c>
       <c r="J16">
-        <v>0.34073855916060225</v>
+        <v>0.33903578174752408</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.78126844973162557</v>
+        <v>0.7785260339230482</v>
       </c>
       <c r="O16">
-        <v>0.21873155026837446</v>
+        <v>0.22147396607695183</v>
       </c>
     </row>
     <row r="17">
@@ -7287,19 +7287,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.676385217020947</v>
+        <v>0.6785844638057994</v>
       </c>
       <c r="J17">
-        <v>0.323614782979053</v>
+        <v>0.3214155361942006</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.77864698723104186</v>
+        <v>0.7802128054057772</v>
       </c>
       <c r="O17">
-        <v>0.22135301276895811</v>
+        <v>0.21978719459422277</v>
       </c>
     </row>
     <row r="18">
@@ -7307,19 +7307,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.68071835669884229</v>
+        <v>0.67948875223249738</v>
       </c>
       <c r="J18">
-        <v>0.31928164330115771</v>
+        <v>0.32051124776750256</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.77453704854672201</v>
+        <v>0.77942612810580281</v>
       </c>
       <c r="O18">
-        <v>0.22546295145327797</v>
+        <v>0.22057387189419725</v>
       </c>
     </row>
     <row r="19">
@@ -7327,19 +7327,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.67044950415943838</v>
+        <v>0.6712297775766185</v>
       </c>
       <c r="J19">
-        <v>0.32955049584056162</v>
+        <v>0.3287702224233815</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.79107524246458671</v>
+        <v>0.78954114824722188</v>
       </c>
       <c r="O19">
-        <v>0.20892475753541323</v>
+        <v>0.21045885175277815</v>
       </c>
     </row>
     <row r="20">
@@ -7347,19 +7347,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.6367491587736428</v>
+        <v>0.64349990888030884</v>
       </c>
       <c r="J20">
-        <v>0.36325084122635715</v>
+        <v>0.35650009111969122</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.80901245829798696</v>
+        <v>0.81136980950437809</v>
       </c>
       <c r="O20">
-        <v>0.19098754170201307</v>
+        <v>0.18863019049562185</v>
       </c>
     </row>
     <row r="21">
@@ -7367,19 +7367,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.62775330706972787</v>
+        <v>0.62832075465374992</v>
       </c>
       <c r="J21">
-        <v>0.37224669293027207</v>
+        <v>0.37167924534625008</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.80658365925081077</v>
+        <v>0.80628188253400068</v>
       </c>
       <c r="O21">
-        <v>0.19341634074918918</v>
+        <v>0.19371811746599932</v>
       </c>
     </row>
     <row r="22">
@@ -7387,19 +7387,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.66316948090328021</v>
+        <v>0.6628086590892589</v>
       </c>
       <c r="J22">
-        <v>0.33683051909671974</v>
+        <v>0.33719134091074104</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80116916552353135</v>
+        <v>0.80086306996795253</v>
       </c>
       <c r="O22">
-        <v>0.19883083447646868</v>
+        <v>0.19913693003204747</v>
       </c>
     </row>
     <row r="23">
@@ -7407,19 +7407,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.65408690234109845</v>
+        <v>0.65581573361978929</v>
       </c>
       <c r="J23">
-        <v>0.34591309765890149</v>
+        <v>0.34418426638021071</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.80248165289021045</v>
+        <v>0.80229453933223494</v>
       </c>
       <c r="O23">
-        <v>0.19751834710978949</v>
+        <v>0.19770546066776501</v>
       </c>
     </row>
     <row r="24">
@@ -7427,19 +7427,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.65424638576236149</v>
+        <v>0.64957052179827313</v>
       </c>
       <c r="J24">
-        <v>0.34575361423763856</v>
+        <v>0.35042947820172682</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.79424356143440378</v>
+        <v>0.79416285253157537</v>
       </c>
       <c r="O24">
-        <v>0.20575643856559617</v>
+        <v>0.20583714746842466</v>
       </c>
     </row>
     <row r="25">
@@ -7447,19 +7447,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.57706880668363869</v>
+        <v>0.57448557686689483</v>
       </c>
       <c r="J25">
-        <v>0.4229311933163612</v>
+        <v>0.42551442313310511</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.79406985143320985</v>
+        <v>0.79016998734186372</v>
       </c>
       <c r="O25">
-        <v>0.20593014856679023</v>
+        <v>0.20983001265813631</v>
       </c>
     </row>
     <row r="26">
@@ -7467,19 +7467,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.6273696398133668</v>
+        <v>0.63065108442291729</v>
       </c>
       <c r="J26">
-        <v>0.37263036018663326</v>
+        <v>0.36934891557708277</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.7998984173501491</v>
+        <v>0.79893256803592727</v>
       </c>
       <c r="O26">
-        <v>0.20010158264985095</v>
+        <v>0.20106743196407278</v>
       </c>
     </row>
     <row r="27">
@@ -7487,19 +7487,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.61317317519955339</v>
+        <v>0.60921291322139082</v>
       </c>
       <c r="J27">
-        <v>0.38682682480044661</v>
+        <v>0.39078708677860918</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.81302564204688899</v>
+        <v>0.81307640699881922</v>
       </c>
       <c r="O27">
-        <v>0.18697435795311099</v>
+        <v>0.1869235930011808</v>
       </c>
     </row>
     <row r="28">
@@ -7507,19 +7507,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.64633747684295306</v>
+        <v>0.64415389726484951</v>
       </c>
       <c r="J28">
-        <v>0.35366252315704694</v>
+        <v>0.35584610273515044</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.81775308730455443</v>
+        <v>0.81741041936719472</v>
       </c>
       <c r="O28">
-        <v>0.1822469126954456</v>
+        <v>0.18258958063280523</v>
       </c>
     </row>
     <row r="29">
@@ -7527,19 +7527,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.64688357094122495</v>
+        <v>0.64858178927131638</v>
       </c>
       <c r="J29">
-        <v>0.35311642905877499</v>
+        <v>0.35141821072868357</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.84423311913144616</v>
+        <v>0.84414690904554723</v>
       </c>
       <c r="O29">
-        <v>0.15576688086855395</v>
+        <v>0.15585309095445277</v>
       </c>
     </row>
     <row r="30">
@@ -7547,19 +7547,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.61737622094003763</v>
+        <v>0.61846289034422941</v>
       </c>
       <c r="J30">
-        <v>0.38262377905996242</v>
+        <v>0.38153710965577048</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79891369933448475</v>
+        <v>0.79778991483024808</v>
       </c>
       <c r="O30">
-        <v>0.20108630066551517</v>
+        <v>0.20221008516975186</v>
       </c>
     </row>
     <row r="31">
@@ -7567,19 +7567,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.59884660645020771</v>
+        <v>0.60018946198193124</v>
       </c>
       <c r="J31">
-        <v>0.40115339354979224</v>
+        <v>0.39981053801806871</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.84734387886213891</v>
+        <v>0.84740492547344093</v>
       </c>
       <c r="O31">
-        <v>0.15265612113786112</v>
+        <v>0.15259507452655907</v>
       </c>
     </row>
     <row r="32">
@@ -7587,19 +7587,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.64273593478814239</v>
+        <v>0.64131654556866413</v>
       </c>
       <c r="J32">
-        <v>0.35726406521185761</v>
+        <v>0.35868345443133587</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.81421535137283219</v>
+        <v>0.81190606869055049</v>
       </c>
       <c r="O32">
-        <v>0.18578464862716779</v>
+        <v>0.18809393130944943</v>
       </c>
     </row>
     <row r="33">
@@ -7607,19 +7607,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65500273364991446</v>
+        <v>0.65597892273405634</v>
       </c>
       <c r="J33">
-        <v>0.3449972663500856</v>
+        <v>0.34402107726594378</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.83413873481111478</v>
+        <v>0.83454092717363171</v>
       </c>
       <c r="O33">
-        <v>0.16586126518888522</v>
+        <v>0.16545907282636818</v>
       </c>
     </row>
     <row r="34">
@@ -7627,19 +7627,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.59564405315731217</v>
+        <v>0.59350833893261112</v>
       </c>
       <c r="J34">
-        <v>0.40435594684268772</v>
+        <v>0.40649166106738877</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.8221212070372228</v>
+        <v>0.82244378172431287</v>
       </c>
       <c r="O34">
-        <v>0.17787879296277723</v>
+        <v>0.17755621827568704</v>
       </c>
     </row>
     <row r="35">
@@ -7647,19 +7647,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.62792355900185393</v>
+        <v>0.62705689185070568</v>
       </c>
       <c r="J35">
-        <v>0.37207644099814602</v>
+        <v>0.37294310814929432</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.86432835346770542</v>
+        <v>0.86232278916263438</v>
       </c>
       <c r="O35">
-        <v>0.13567164653229469</v>
+        <v>0.13767721083736567</v>
       </c>
     </row>
     <row r="36">
@@ -7667,19 +7667,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.60172362928101941</v>
+        <v>0.59950580810617704</v>
       </c>
       <c r="J36">
-        <v>0.39827637071898053</v>
+        <v>0.40049419189382301</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.87067661076457836</v>
+        <v>0.87111495870518629</v>
       </c>
       <c r="O36">
-        <v>0.12932338923542178</v>
+        <v>0.12888504129481368</v>
       </c>
     </row>
     <row r="37">
@@ -7687,19 +7687,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.57215564437091015</v>
+        <v>0.56635862932059222</v>
       </c>
       <c r="J37">
-        <v>0.42784435562908985</v>
+        <v>0.43364137067940767</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.84709617246101321</v>
+        <v>0.8468166553241987</v>
       </c>
       <c r="O37">
-        <v>0.15290382753898682</v>
+        <v>0.15318334467580133</v>
       </c>
     </row>
     <row r="38">
@@ -7707,19 +7707,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.55643727972567547</v>
+        <v>0.57219816542746327</v>
       </c>
       <c r="J38">
-        <v>0.44356272027432458</v>
+        <v>0.42780183457253673</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.86627770080187194</v>
+        <v>0.86934166732720131</v>
       </c>
       <c r="O38">
-        <v>0.133722299198128</v>
+        <v>0.13065833267279867</v>
       </c>
     </row>
     <row r="39">
@@ -7727,19 +7727,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.5850126224997092</v>
+        <v>0.57894744217341232</v>
       </c>
       <c r="J39">
-        <v>0.41498737750029091</v>
+        <v>0.42105255782658768</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.85077522889678991</v>
+        <v>0.8524233101603339</v>
       </c>
       <c r="O39">
-        <v>0.14922477110321009</v>
+        <v>0.14757668983966613</v>
       </c>
     </row>
     <row r="40">
@@ -7747,19 +7747,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.54660192849656286</v>
+        <v>0.54623359161603657</v>
       </c>
       <c r="J40">
-        <v>0.45339807150343703</v>
+        <v>0.45376640838396348</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.89454941304939539</v>
+        <v>0.89624749459072528</v>
       </c>
       <c r="O40">
-        <v>0.10545058695060458</v>
+        <v>0.10375250540927482</v>
       </c>
     </row>
     <row r="41">
@@ -7767,19 +7767,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.5382945758195582</v>
+        <v>0.53625828620639415</v>
       </c>
       <c r="J41">
-        <v>0.46170542418044169</v>
+        <v>0.46374171379360585</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.89707065297451072</v>
+        <v>0.8959522959826477</v>
       </c>
       <c r="O41">
-        <v>0.10292934702548928</v>
+        <v>0.10404770401735233</v>
       </c>
     </row>
     <row r="42">
@@ -7787,19 +7787,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.53341651341862428</v>
+        <v>0.53513896379001413</v>
       </c>
       <c r="J42">
-        <v>0.46658348658137583</v>
+        <v>0.46486103620998587</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.88488295188508859</v>
+        <v>0.88578517727180817</v>
       </c>
       <c r="O42">
-        <v>0.11511704811491136</v>
+        <v>0.11421482272819192</v>
       </c>
     </row>
     <row r="43">
@@ -7807,19 +7807,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.47943834230932519</v>
+        <v>0.47506468544688701</v>
       </c>
       <c r="J43">
-        <v>0.52056165769067486</v>
+        <v>0.52493531455311293</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.89861655095909476</v>
+        <v>0.89919685276603667</v>
       </c>
       <c r="O43">
-        <v>0.10138344904090531</v>
+        <v>0.10080314723396326</v>
       </c>
     </row>
     <row r="44">
@@ -7827,19 +7827,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.51102232467591613</v>
+        <v>0.50688920043059249</v>
       </c>
       <c r="J44">
-        <v>0.48897767532408387</v>
+        <v>0.49311079956940745</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.90451868165615423</v>
+        <v>0.90351947215740169</v>
       </c>
       <c r="O44">
-        <v>0.095481318343845781</v>
+        <v>0.09648052784259821</v>
       </c>
     </row>
     <row r="45">
@@ -7847,19 +7847,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.45004749046614201</v>
+        <v>0.45327346495852056</v>
       </c>
       <c r="J45">
-        <v>0.54995250953385799</v>
+        <v>0.5467265350414795</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.88979392731698781</v>
+        <v>0.89291398690273494</v>
       </c>
       <c r="O45">
-        <v>0.11020607268301223</v>
+        <v>0.10708601309726502</v>
       </c>
     </row>
     <row r="46">
@@ -7867,19 +7867,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.40226097432158225</v>
+        <v>0.40243212406999512</v>
       </c>
       <c r="J46">
-        <v>0.59773902567841775</v>
+        <v>0.59756787593000482</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.88590654554311243</v>
+        <v>0.88382194831149341</v>
       </c>
       <c r="O46">
-        <v>0.11409345445688755</v>
+        <v>0.11617805168850663</v>
       </c>
     </row>
     <row r="47">
@@ -7887,19 +7887,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.48820395866674055</v>
+        <v>0.49486985395134769</v>
       </c>
       <c r="J47">
-        <v>0.51179604133325951</v>
+        <v>0.50513014604865225</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.88445839217416977</v>
+        <v>0.8839663470966056</v>
       </c>
       <c r="O47">
-        <v>0.11554160782583028</v>
+        <v>0.11603365290339442</v>
       </c>
     </row>
     <row r="48">
@@ -7907,19 +7907,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.43913464825074833</v>
+        <v>0.43417930889817641</v>
       </c>
       <c r="J48">
-        <v>0.56086535174925167</v>
+        <v>0.56582069110182354</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.89484895344033222</v>
+        <v>0.89465559075328793</v>
       </c>
       <c r="O48">
-        <v>0.10515104655966777</v>
+        <v>0.10534440924671211</v>
       </c>
     </row>
     <row r="49">
@@ -7936,10 +7936,10 @@
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.90265034839156366</v>
+        <v>0.90277165167264484</v>
       </c>
       <c r="O49">
-        <v>0.097349651608436255</v>
+        <v>0.097228348327355218</v>
       </c>
     </row>
     <row r="50">
@@ -7947,19 +7947,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.47518433605186911</v>
+        <v>0.47295279277783248</v>
       </c>
       <c r="J50">
-        <v>0.52481566394813084</v>
+        <v>0.52704720722216758</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.88945298201356215</v>
+        <v>0.88773409618880361</v>
       </c>
       <c r="O50">
-        <v>0.11054701798643775</v>
+        <v>0.11226590381119633</v>
       </c>
     </row>
     <row r="51">
@@ -7967,19 +7967,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.48512319946278171</v>
+        <v>0.48354211359103216</v>
       </c>
       <c r="J51">
-        <v>0.51487680053721829</v>
+        <v>0.51645788640896795</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.8689829262418155</v>
+        <v>0.86870673658241759</v>
       </c>
       <c r="O51">
-        <v>0.13101707375818458</v>
+        <v>0.13129326341758246</v>
       </c>
     </row>
     <row r="52">
@@ -7987,19 +7987,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.44432291274562996</v>
+        <v>0.44675184200469215</v>
       </c>
       <c r="J52">
-        <v>0.55567708725437004</v>
+        <v>0.5532481579953078</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.90107891571220355</v>
+        <v>0.90796377702479314</v>
       </c>
       <c r="O52">
-        <v>0.098921084287796501</v>
+        <v>0.092036222975206819</v>
       </c>
     </row>
     <row r="53">
@@ -8007,19 +8007,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.51151750216001457</v>
+        <v>0.52102491342963198</v>
       </c>
       <c r="J53">
-        <v>0.48848249783998549</v>
+        <v>0.47897508657036797</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.89899734560893885</v>
+        <v>0.89905902301723462</v>
       </c>
       <c r="O53">
-        <v>0.10100265439106117</v>
+        <v>0.1009409769827654</v>
       </c>
     </row>
     <row r="54">
@@ -8539,31 +8539,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.064951342756725816</v>
+        <v>0.064373772136573262</v>
       </c>
       <c r="C3">
-        <v>0.15369670951091116</v>
+        <v>0.15210272223496529</v>
       </c>
       <c r="D3">
-        <v>0.78135194773236294</v>
+        <v>0.78352350562846151</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.50890558686844511</v>
+        <v>0.51050630346902015</v>
       </c>
       <c r="J3">
-        <v>0.49109441313155489</v>
+        <v>0.48949369653097979</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.86179320778291202</v>
+        <v>0.8596665264140444</v>
       </c>
       <c r="O3">
-        <v>0.13820679221708804</v>
+        <v>0.14033347358595563</v>
       </c>
     </row>
     <row r="4">
@@ -8571,31 +8571,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.062216088779597493</v>
+        <v>0.062562455387357455</v>
       </c>
       <c r="C4">
-        <v>0.15714850340225595</v>
+        <v>0.15727493449695612</v>
       </c>
       <c r="D4">
-        <v>0.78063540781814655</v>
+        <v>0.78016261011568644</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.51523159940517516</v>
+        <v>0.52048983125709636</v>
       </c>
       <c r="J4">
-        <v>0.48476840059482479</v>
+        <v>0.47951016874290359</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.84794115209108178</v>
+        <v>0.84851392063571052</v>
       </c>
       <c r="O4">
-        <v>0.15205884790891827</v>
+        <v>0.1514860793642894</v>
       </c>
     </row>
     <row r="5">
@@ -8603,31 +8603,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.074438796546048916</v>
+        <v>0.074314630114923536</v>
       </c>
       <c r="C5">
-        <v>0.15618797646430782</v>
+        <v>0.15648534082580418</v>
       </c>
       <c r="D5">
-        <v>0.76937322698964328</v>
+        <v>0.76920002905927232</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.51161163293722023</v>
+        <v>0.51180420966109652</v>
       </c>
       <c r="J5">
-        <v>0.48838836706277977</v>
+        <v>0.48819579033890353</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.85785435900666995</v>
+        <v>0.85598469380225539</v>
       </c>
       <c r="O5">
-        <v>0.14214564099332996</v>
+        <v>0.14401530619774472</v>
       </c>
     </row>
     <row r="6">
@@ -8635,31 +8635,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.073167776493885908</v>
+        <v>0.073329566586532044</v>
       </c>
       <c r="C6">
-        <v>0.15959645104984449</v>
+        <v>0.16045849903139053</v>
       </c>
       <c r="D6">
-        <v>0.76723577245626973</v>
+        <v>0.76621193438207746</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.53748770727264672</v>
+        <v>0.53742185502150097</v>
       </c>
       <c r="J6">
-        <v>0.46251229272735322</v>
+        <v>0.46257814497849903</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86511382077090238</v>
+        <v>0.86533527888816575</v>
       </c>
       <c r="O6">
-        <v>0.13488617922909762</v>
+        <v>0.13466472111183431</v>
       </c>
     </row>
     <row r="7">
@@ -8667,31 +8667,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.082150523990529994</v>
+        <v>0.081252881971006177</v>
       </c>
       <c r="C7">
-        <v>0.14961974900538089</v>
+        <v>0.14984599165725229</v>
       </c>
       <c r="D7">
-        <v>0.7682297270040892</v>
+        <v>0.76890112637174146</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.55608613022294306</v>
+        <v>0.556964670159243</v>
       </c>
       <c r="J7">
-        <v>0.44391386977705699</v>
+        <v>0.44303532984075705</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.85134010540623695</v>
+        <v>0.85549321170185955</v>
       </c>
       <c r="O7">
-        <v>0.14865989459376308</v>
+        <v>0.14450678829814051</v>
       </c>
     </row>
     <row r="8">
@@ -8699,31 +8699,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.07693485433531333</v>
+        <v>0.078627513229015913</v>
       </c>
       <c r="C8">
-        <v>0.15984090168256226</v>
+        <v>0.15602896265217328</v>
       </c>
       <c r="D8">
-        <v>0.76322424398212441</v>
+        <v>0.76534352411881079</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.56823031370710686</v>
+        <v>0.57182525450192156</v>
       </c>
       <c r="J8">
-        <v>0.43176968629289308</v>
+        <v>0.42817474549807849</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83635054770094719</v>
+        <v>0.83668604534444657</v>
       </c>
       <c r="O8">
-        <v>0.16364945229905273</v>
+        <v>0.16331395465555346</v>
       </c>
     </row>
     <row r="9">
@@ -8731,31 +8731,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.072118017652099325</v>
+        <v>0.071865220624617879</v>
       </c>
       <c r="C9">
-        <v>0.18413883170477918</v>
+        <v>0.18330925283202709</v>
       </c>
       <c r="D9">
-        <v>0.74374315064312158</v>
+        <v>0.74482552654335499</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.48976187154384815</v>
+        <v>0.4911821094304985</v>
       </c>
       <c r="J9">
-        <v>0.51023812845615191</v>
+        <v>0.50881789056950144</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.86377338495802525</v>
+        <v>0.86456259671034141</v>
       </c>
       <c r="O9">
-        <v>0.13622661504197464</v>
+        <v>0.13543740328965856</v>
       </c>
     </row>
     <row r="10">
@@ -8763,31 +8763,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.079818972643280708</v>
+        <v>0.079268262879232804</v>
       </c>
       <c r="C10">
-        <v>0.15379195066537579</v>
+        <v>0.1540918332856861</v>
       </c>
       <c r="D10">
-        <v>0.76638907669134337</v>
+        <v>0.76663990383508107</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.57930253313585678</v>
+        <v>0.57724850370675518</v>
       </c>
       <c r="J10">
-        <v>0.42069746686414317</v>
+        <v>0.42275149629324493</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.85370824353635877</v>
+        <v>0.85253592389683219</v>
       </c>
       <c r="O10">
-        <v>0.1462917564636412</v>
+        <v>0.14746407610316778</v>
       </c>
     </row>
     <row r="11">
@@ -8795,31 +8795,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.085445071742887777</v>
+        <v>0.08432871937734833</v>
       </c>
       <c r="C11">
-        <v>0.15891237968121044</v>
+        <v>0.16000047188977973</v>
       </c>
       <c r="D11">
-        <v>0.75564254857590185</v>
+        <v>0.75567080873287196</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.57169539783271373</v>
+        <v>0.57531283814936796</v>
       </c>
       <c r="J11">
-        <v>0.42830460216728639</v>
+        <v>0.42468716185063216</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.86144827081296582</v>
+        <v>0.86159094508681222</v>
       </c>
       <c r="O11">
-        <v>0.13855172918703415</v>
+        <v>0.13840905491318772</v>
       </c>
     </row>
     <row r="12">
@@ -8827,31 +8827,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.08067310194459637</v>
+        <v>0.080717753342293655</v>
       </c>
       <c r="C12">
-        <v>0.16906705878638609</v>
+        <v>0.1685521917555832</v>
       </c>
       <c r="D12">
-        <v>0.75025983926901751</v>
+        <v>0.75073005490212319</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.56604921927023055</v>
+        <v>0.56763366162277762</v>
       </c>
       <c r="J12">
-        <v>0.43395078072976956</v>
+        <v>0.43236633837722233</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.85679771148527728</v>
+        <v>0.85616322995973215</v>
       </c>
       <c r="O12">
-        <v>0.14320228851472272</v>
+        <v>0.14383677004026776</v>
       </c>
     </row>
     <row r="13">
@@ -8859,31 +8859,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.09295280449134953</v>
+        <v>0.093453713482597914</v>
       </c>
       <c r="C13">
-        <v>0.16088566550486519</v>
+        <v>0.16348842708628139</v>
       </c>
       <c r="D13">
-        <v>0.74616153000378527</v>
+        <v>0.74305785943112068</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.61749574062726464</v>
+        <v>0.60777731213986874</v>
       </c>
       <c r="J13">
-        <v>0.38250425937273524</v>
+        <v>0.39222268786013126</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.81650644890779311</v>
+        <v>0.82513986546166906</v>
       </c>
       <c r="O13">
-        <v>0.18349355109220686</v>
+        <v>0.17486013453833082</v>
       </c>
     </row>
     <row r="14">
@@ -8891,31 +8891,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.10081714381582797</v>
+        <v>0.10100036773020384</v>
       </c>
       <c r="C14">
-        <v>0.18249205048749717</v>
+        <v>0.17779794843041202</v>
       </c>
       <c r="D14">
-        <v>0.71669080569667487</v>
+        <v>0.72120168383938421</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.58324852327201215</v>
+        <v>0.58864473422874841</v>
       </c>
       <c r="J14">
-        <v>0.41675147672798779</v>
+        <v>0.41135526577125153</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84168697957491312</v>
+        <v>0.84137704740284303</v>
       </c>
       <c r="O14">
-        <v>0.1583130204250868</v>
+        <v>0.15862295259715689</v>
       </c>
     </row>
     <row r="15">
@@ -8923,31 +8923,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.11427121646136808</v>
+        <v>0.1129890532736699</v>
       </c>
       <c r="C15">
-        <v>0.16740348699785731</v>
+        <v>0.16608105308549451</v>
       </c>
       <c r="D15">
-        <v>0.71832529654077448</v>
+        <v>0.72092989364083571</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.59090196198590306</v>
+        <v>0.58623450688869216</v>
       </c>
       <c r="J15">
-        <v>0.409098038014097</v>
+        <v>0.41376549311130784</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.83040812734879232</v>
+        <v>0.8268898363666134</v>
       </c>
       <c r="O15">
-        <v>0.16959187265120756</v>
+        <v>0.17311016363338655</v>
       </c>
     </row>
     <row r="16">
@@ -8955,31 +8955,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.1141556466692874</v>
+        <v>0.11427466613264177</v>
       </c>
       <c r="C16">
-        <v>0.18109255483076711</v>
+        <v>0.17934801363937095</v>
       </c>
       <c r="D16">
-        <v>0.7047517984999454</v>
+        <v>0.70637732022798738</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.59170339009361783</v>
+        <v>0.59260438386150549</v>
       </c>
       <c r="J16">
-        <v>0.40829660990638217</v>
+        <v>0.40739561613849462</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.85099619818568495</v>
+        <v>0.850428977698234</v>
       </c>
       <c r="O16">
-        <v>0.14900380181431502</v>
+        <v>0.149571022301766</v>
       </c>
     </row>
     <row r="17">
@@ -8987,31 +8987,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.11319942537172432</v>
+        <v>0.11295593896969709</v>
       </c>
       <c r="C17">
-        <v>0.17066825660767118</v>
+        <v>0.1716101066448798</v>
       </c>
       <c r="D17">
-        <v>0.71613231802060462</v>
+        <v>0.71543395438542312</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.60818715201624662</v>
+        <v>0.60608332561725509</v>
       </c>
       <c r="J17">
-        <v>0.39181284798375349</v>
+        <v>0.39391667438274486</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.83521537672188195</v>
+        <v>0.8347306545935842</v>
       </c>
       <c r="O17">
-        <v>0.16478462327811808</v>
+        <v>0.16526934540641586</v>
       </c>
     </row>
     <row r="18">
@@ -9019,31 +9019,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.11623334157331076</v>
+        <v>0.11619821258609342</v>
       </c>
       <c r="C18">
-        <v>0.17699229180781467</v>
+        <v>0.17667173297026945</v>
       </c>
       <c r="D18">
-        <v>0.70677436661887461</v>
+        <v>0.70713005444363719</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.66557170581721581</v>
+        <v>0.66673435344458098</v>
       </c>
       <c r="J18">
-        <v>0.33442829418278419</v>
+        <v>0.33326564655541913</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.82490877648960137</v>
+        <v>0.82617925047698904</v>
       </c>
       <c r="O18">
-        <v>0.1750912235103986</v>
+        <v>0.17382074952301105</v>
       </c>
     </row>
     <row r="19">
@@ -9051,31 +9051,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.13535482113843172</v>
+        <v>0.13517434271352194</v>
       </c>
       <c r="C19">
-        <v>0.17677654509833604</v>
+        <v>0.17604420167910839</v>
       </c>
       <c r="D19">
-        <v>0.68786863376323226</v>
+        <v>0.6887814556073697</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.64701118220290488</v>
+        <v>0.65020213356577516</v>
       </c>
       <c r="J19">
-        <v>0.35298881779709512</v>
+        <v>0.34979786643422489</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.8431572520043773</v>
+        <v>0.8452286251996477</v>
       </c>
       <c r="O19">
-        <v>0.15684274799562259</v>
+        <v>0.15477137480035225</v>
       </c>
     </row>
     <row r="20">
@@ -9083,31 +9083,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.12386785233817059</v>
+        <v>0.12332328204011314</v>
       </c>
       <c r="C20">
-        <v>0.17900259704732741</v>
+        <v>0.17808367543907835</v>
       </c>
       <c r="D20">
-        <v>0.69712955061450188</v>
+        <v>0.69859304252080845</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64226230206975921</v>
+        <v>0.64693962267028471</v>
       </c>
       <c r="J20">
-        <v>0.35773769793024068</v>
+        <v>0.35306037732971529</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.82900494306810768</v>
+        <v>0.83141675503216317</v>
       </c>
       <c r="O20">
-        <v>0.17099505693189238</v>
+        <v>0.16858324496783694</v>
       </c>
     </row>
     <row r="21">
@@ -9115,31 +9115,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.13579387444616212</v>
+        <v>0.13560830833265278</v>
       </c>
       <c r="C21">
-        <v>0.18648745962512914</v>
+        <v>0.18599879406227932</v>
       </c>
       <c r="D21">
-        <v>0.67771866592870866</v>
+        <v>0.67839289760506793</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.65633023304346028</v>
+        <v>0.66049408168175394</v>
       </c>
       <c r="J21">
-        <v>0.34366976695653978</v>
+        <v>0.33950591831824606</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.8190810969789728</v>
+        <v>0.82122237736410386</v>
       </c>
       <c r="O21">
-        <v>0.18091890302102726</v>
+        <v>0.17877762263589619</v>
       </c>
     </row>
     <row r="22">
@@ -9147,31 +9147,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.15043042395123835</v>
+        <v>0.1500165909932186</v>
       </c>
       <c r="C22">
-        <v>0.18679492530645064</v>
+        <v>0.18603421478424068</v>
       </c>
       <c r="D22">
-        <v>0.66277465074231101</v>
+        <v>0.66394919422254073</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.67484672919623601</v>
+        <v>0.67569352329968202</v>
       </c>
       <c r="J22">
-        <v>0.32515327080376388</v>
+        <v>0.32430647670031798</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.83783216306641872</v>
+        <v>0.83658677587527186</v>
       </c>
       <c r="O22">
-        <v>0.16216783693358122</v>
+        <v>0.16341322412472817</v>
       </c>
     </row>
     <row r="23">
@@ -9179,31 +9179,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.15135403374659442</v>
+        <v>0.15257413251790869</v>
       </c>
       <c r="C23">
-        <v>0.18783523696521237</v>
+        <v>0.18643033956214938</v>
       </c>
       <c r="D23">
-        <v>0.66081072928819318</v>
+        <v>0.66099552791994198</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.64536069871693835</v>
+        <v>0.64363486935384373</v>
       </c>
       <c r="J23">
-        <v>0.3546393012830617</v>
+        <v>0.35636513064615616</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.81931368669813831</v>
+        <v>0.81920343509752125</v>
       </c>
       <c r="O23">
-        <v>0.18068631330186172</v>
+        <v>0.18079656490247875</v>
       </c>
     </row>
     <row r="24">
@@ -9211,31 +9211,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.15287271015639969</v>
+        <v>0.15305562367415754</v>
       </c>
       <c r="C24">
-        <v>0.18884901146408861</v>
+        <v>0.1888415156709112</v>
       </c>
       <c r="D24">
-        <v>0.65827827837951158</v>
+        <v>0.65810286065493129</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.67829428483296184</v>
+        <v>0.67710690138370111</v>
       </c>
       <c r="J24">
-        <v>0.32170571516703822</v>
+        <v>0.32289309861629895</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.8180221081114043</v>
+        <v>0.81790309047594922</v>
       </c>
       <c r="O24">
-        <v>0.1819778918885957</v>
+        <v>0.18209690952405075</v>
       </c>
     </row>
     <row r="25">
@@ -9243,31 +9243,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.16446735744417953</v>
+        <v>0.16454419648895988</v>
       </c>
       <c r="C25">
-        <v>0.18495160158329763</v>
+        <v>0.18482265537708684</v>
       </c>
       <c r="D25">
-        <v>0.65058104097252289</v>
+        <v>0.65063314813395323</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.70817559830632304</v>
+        <v>0.70862620428901812</v>
       </c>
       <c r="J25">
-        <v>0.29182440169367696</v>
+        <v>0.29137379571098193</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.81043388201170175</v>
+        <v>0.80931301669039779</v>
       </c>
       <c r="O25">
-        <v>0.18956611798829823</v>
+        <v>0.19068698330960215</v>
       </c>
     </row>
     <row r="26">
@@ -9275,31 +9275,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.17212358924776766</v>
+        <v>0.17302714018259671</v>
       </c>
       <c r="C26">
-        <v>0.19792531649782616</v>
+        <v>0.19664514151758178</v>
       </c>
       <c r="D26">
-        <v>0.62995109425440632</v>
+        <v>0.63032771829982148</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.69485675525006418</v>
+        <v>0.69220811836576579</v>
       </c>
       <c r="J26">
-        <v>0.30514324474993587</v>
+        <v>0.30779188163423427</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80350723071630092</v>
+        <v>0.80154657512153538</v>
       </c>
       <c r="O26">
-        <v>0.1964927692836991</v>
+        <v>0.19845342487846457</v>
       </c>
     </row>
     <row r="27">
@@ -9307,31 +9307,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.18079822043864638</v>
+        <v>0.18059822804435791</v>
       </c>
       <c r="C27">
-        <v>0.20416043582356055</v>
+        <v>0.20540532279790391</v>
       </c>
       <c r="D27">
-        <v>0.61504134373779307</v>
+        <v>0.6139964491577381</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.69568673624427368</v>
+        <v>0.69396824510751109</v>
       </c>
       <c r="J27">
-        <v>0.30431326375572643</v>
+        <v>0.30603175489248896</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.79742760841710447</v>
+        <v>0.79742264907263183</v>
       </c>
       <c r="O27">
-        <v>0.20257239158289558</v>
+        <v>0.20257735092736814</v>
       </c>
     </row>
     <row r="28">
@@ -9339,31 +9339,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.17849723681537641</v>
+        <v>0.17797915639695361</v>
       </c>
       <c r="C28">
-        <v>0.2126017542948313</v>
+        <v>0.21275090282813394</v>
       </c>
       <c r="D28">
-        <v>0.60890100888979237</v>
+        <v>0.60926994077491237</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.71710192659699834</v>
+        <v>0.7204938370783821</v>
       </c>
       <c r="J28">
-        <v>0.28289807340300166</v>
+        <v>0.27950616292161784</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.78834794653626727</v>
+        <v>0.78761665710401274</v>
       </c>
       <c r="O28">
-        <v>0.21165205346373264</v>
+        <v>0.21238334289598712</v>
       </c>
     </row>
     <row r="29">
@@ -9371,31 +9371,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.19998009732332492</v>
+        <v>0.20141734268997785</v>
       </c>
       <c r="C29">
-        <v>0.20226096489077477</v>
+        <v>0.20245507125534379</v>
       </c>
       <c r="D29">
-        <v>0.59775893778590028</v>
+        <v>0.59612758605467842</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.73334987248094008</v>
+        <v>0.73148404819623791</v>
       </c>
       <c r="J29">
-        <v>0.26665012751905992</v>
+        <v>0.2685159518037622</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79097433099767422</v>
+        <v>0.79004200369402711</v>
       </c>
       <c r="O29">
-        <v>0.20902566900232578</v>
+        <v>0.20995799630597295</v>
       </c>
     </row>
     <row r="30">
@@ -9403,31 +9403,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.20711404531024274</v>
+        <v>0.20747445674277742</v>
       </c>
       <c r="C30">
-        <v>0.21423685735763465</v>
+        <v>0.21434325535377785</v>
       </c>
       <c r="D30">
-        <v>0.57864909733212255</v>
+        <v>0.57818228790344461</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.74760167467121919</v>
+        <v>0.74827971393367321</v>
       </c>
       <c r="J30">
-        <v>0.25239832532878081</v>
+        <v>0.25172028606632679</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79334918006737698</v>
+        <v>0.79411727515035135</v>
       </c>
       <c r="O30">
-        <v>0.20665081993262296</v>
+        <v>0.20588272484964862</v>
       </c>
     </row>
     <row r="31">
@@ -9435,31 +9435,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22696808922403092</v>
+        <v>0.2260066815992382</v>
       </c>
       <c r="C31">
-        <v>0.20925273897028607</v>
+        <v>0.20934863974456644</v>
       </c>
       <c r="D31">
-        <v>0.56377917180568293</v>
+        <v>0.5646446786561955</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.7633275057090233</v>
+        <v>0.76572558132255297</v>
       </c>
       <c r="J31">
-        <v>0.23667249429097681</v>
+        <v>0.23427441867744703</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.80048206375544673</v>
+        <v>0.80321057265288021</v>
       </c>
       <c r="O31">
-        <v>0.1995179362445533</v>
+        <v>0.19678942734711977</v>
       </c>
     </row>
     <row r="32">
@@ -9467,31 +9467,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.22270552803759575</v>
+        <v>0.222578824706719</v>
       </c>
       <c r="C32">
-        <v>0.21392061066494231</v>
+        <v>0.21344968328171113</v>
       </c>
       <c r="D32">
-        <v>0.56337386129746192</v>
+        <v>0.56397149201157004</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.77823145072932354</v>
+        <v>0.77816802047824618</v>
       </c>
       <c r="J32">
-        <v>0.22176854927067641</v>
+        <v>0.22183197952175374</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.80903610291113692</v>
+        <v>0.80969219253204072</v>
       </c>
       <c r="O32">
-        <v>0.19096389708886305</v>
+        <v>0.19030780746795922</v>
       </c>
     </row>
     <row r="33">
@@ -9499,31 +9499,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.24756015027907152</v>
+        <v>0.2477919632337415</v>
       </c>
       <c r="C33">
-        <v>0.20916571737215162</v>
+        <v>0.20976086471973554</v>
       </c>
       <c r="D33">
-        <v>0.54327413234877686</v>
+        <v>0.54244717204652304</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.75720874539940675</v>
+        <v>0.75754229026971986</v>
       </c>
       <c r="J33">
-        <v>0.24279125460059323</v>
+        <v>0.24245770973028016</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78142232967110969</v>
+        <v>0.78293593999969535</v>
       </c>
       <c r="O33">
-        <v>0.21857767032889031</v>
+        <v>0.21706406000030476</v>
       </c>
     </row>
     <row r="34">
@@ -9531,31 +9531,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.23818944714194135</v>
+        <v>0.23781341898532699</v>
       </c>
       <c r="C34">
-        <v>0.21408067124571686</v>
+        <v>0.2144538955638163</v>
       </c>
       <c r="D34">
-        <v>0.54772988161234182</v>
+        <v>0.54773268545085685</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.78865757090558153</v>
+        <v>0.79181592251590227</v>
       </c>
       <c r="J34">
-        <v>0.21134242909441839</v>
+        <v>0.20818407748409776</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.76375763300263733</v>
+        <v>0.76332950976306213</v>
       </c>
       <c r="O34">
-        <v>0.23624236699736273</v>
+        <v>0.23667049023693781</v>
       </c>
     </row>
     <row r="35">
@@ -9563,31 +9563,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.28284068563299369</v>
+        <v>0.28293526527182489</v>
       </c>
       <c r="C35">
-        <v>0.20599522215688018</v>
+        <v>0.20686063375476657</v>
       </c>
       <c r="D35">
-        <v>0.51116409221012604</v>
+        <v>0.51020410097340851</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.79746029199571034</v>
+        <v>0.79576520201746359</v>
       </c>
       <c r="J35">
-        <v>0.20253970800428958</v>
+        <v>0.20423479798253649</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.77138929443448645</v>
+        <v>0.77217426976447689</v>
       </c>
       <c r="O35">
-        <v>0.22861070556551363</v>
+        <v>0.22782573023552316</v>
       </c>
     </row>
     <row r="36">
@@ -9595,31 +9595,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.27804375735085413</v>
+        <v>0.27834089307214804</v>
       </c>
       <c r="C36">
-        <v>0.23002848092473838</v>
+        <v>0.22948855062932924</v>
       </c>
       <c r="D36">
-        <v>0.4919277617244075</v>
+        <v>0.49217055629852274</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.76600779452481293</v>
+        <v>0.7676153272227294</v>
       </c>
       <c r="J36">
-        <v>0.23399220547518698</v>
+        <v>0.23238467277727054</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.76514165641028498</v>
+        <v>0.76314737024183799</v>
       </c>
       <c r="O36">
-        <v>0.23485834358971502</v>
+        <v>0.23685262975816196</v>
       </c>
     </row>
     <row r="37">
@@ -9627,31 +9627,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.28449665035882443</v>
+        <v>0.28325575623316257</v>
       </c>
       <c r="C37">
-        <v>0.22463894348520147</v>
+        <v>0.22665578536837883</v>
       </c>
       <c r="D37">
-        <v>0.49086440615597426</v>
+        <v>0.49008845839845866</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.81668534769552048</v>
+        <v>0.81741490516502535</v>
       </c>
       <c r="J37">
-        <v>0.18331465230447963</v>
+        <v>0.18258509483497468</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.76290356019851979</v>
+        <v>0.76262718735463497</v>
       </c>
       <c r="O37">
-        <v>0.23709643980148026</v>
+        <v>0.23737281264536497</v>
       </c>
     </row>
     <row r="38">
@@ -9659,31 +9659,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.29871208655683062</v>
+        <v>0.29934134038364413</v>
       </c>
       <c r="C38">
-        <v>0.22774238530326937</v>
+        <v>0.22810556470156179</v>
       </c>
       <c r="D38">
-        <v>0.47354552813989986</v>
+        <v>0.47255309491479408</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.7961555605170868</v>
+        <v>0.79545203488965055</v>
       </c>
       <c r="J38">
-        <v>0.20384443948291314</v>
+        <v>0.20454796511034942</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.7688224448447909</v>
+        <v>0.76824521944969004</v>
       </c>
       <c r="O38">
-        <v>0.23117755515520907</v>
+        <v>0.23175478055030999</v>
       </c>
     </row>
     <row r="39">
@@ -9691,31 +9691,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.30707728453572397</v>
+        <v>0.30715323737147349</v>
       </c>
       <c r="C39">
-        <v>0.2249589768580994</v>
+        <v>0.22378771055750238</v>
       </c>
       <c r="D39">
-        <v>0.46796373860617663</v>
+        <v>0.46905905207102416</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.82123530939153144</v>
+        <v>0.8223536880591904</v>
       </c>
       <c r="J39">
-        <v>0.17876469060846861</v>
+        <v>0.17764631194080957</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.72692632225788434</v>
+        <v>0.72626144449901608</v>
       </c>
       <c r="O39">
-        <v>0.27307367774211572</v>
+        <v>0.27373855550098397</v>
       </c>
     </row>
     <row r="40">
@@ -9723,31 +9723,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.30593812051741859</v>
+        <v>0.30583736531889821</v>
       </c>
       <c r="C40">
-        <v>0.24643293274393641</v>
+        <v>0.24777825986536642</v>
       </c>
       <c r="D40">
-        <v>0.44762894673864506</v>
+        <v>0.4463843748157354</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.8146142170662023</v>
+        <v>0.81393366229457009</v>
       </c>
       <c r="J40">
-        <v>0.18538578293379768</v>
+        <v>0.18606633770542996</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.7447975317102431</v>
+        <v>0.7454593392842308</v>
       </c>
       <c r="O40">
-        <v>0.2552024682897569</v>
+        <v>0.25454066071576914</v>
       </c>
     </row>
     <row r="41">
@@ -9755,31 +9755,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.312530055375976</v>
+        <v>0.31208838974437436</v>
       </c>
       <c r="C41">
-        <v>0.24719623153971787</v>
+        <v>0.24788084245553532</v>
       </c>
       <c r="D41">
-        <v>0.44027371308430602</v>
+        <v>0.44003076780009032</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.81040957699086658</v>
+        <v>0.8098026164411487</v>
       </c>
       <c r="J41">
-        <v>0.18959042300913345</v>
+        <v>0.19019738355885141</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.75645650566685563</v>
+        <v>0.75564395368361426</v>
       </c>
       <c r="O41">
-        <v>0.24354349433314437</v>
+        <v>0.24435604631638583</v>
       </c>
     </row>
     <row r="42">
@@ -9787,31 +9787,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.3308614702338496</v>
+        <v>0.33265461013678682</v>
       </c>
       <c r="C42">
-        <v>0.22889200271606858</v>
+        <v>0.22723156729897201</v>
       </c>
       <c r="D42">
-        <v>0.44024652705008177</v>
+        <v>0.4401138225642412</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.83369745762019243</v>
+        <v>0.83434792611422859</v>
       </c>
       <c r="J42">
-        <v>0.1663025423798076</v>
+        <v>0.16565207388577141</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.75005856157795325</v>
+        <v>0.75259462167678548</v>
       </c>
       <c r="O42">
-        <v>0.24994143842204675</v>
+        <v>0.2474053783232146</v>
       </c>
     </row>
     <row r="43">
@@ -9819,31 +9819,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.31889564148139932</v>
+        <v>0.31863530566996628</v>
       </c>
       <c r="C43">
-        <v>0.25077500845110307</v>
+        <v>0.25063994432993819</v>
       </c>
       <c r="D43">
-        <v>0.43032935006749762</v>
+        <v>0.43072475000009547</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.80592345338925286</v>
+        <v>0.80652392204015044</v>
       </c>
       <c r="J43">
-        <v>0.19407654661074719</v>
+        <v>0.19347607795984961</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.75799629828803827</v>
+        <v>0.75833697570271585</v>
       </c>
       <c r="O43">
-        <v>0.24200370171196164</v>
+        <v>0.24166302429728415</v>
       </c>
     </row>
     <row r="44">
@@ -9851,31 +9851,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.31979046956195034</v>
+        <v>0.32017576815582899</v>
       </c>
       <c r="C44">
-        <v>0.2436416803858549</v>
+        <v>0.24389014634266104</v>
       </c>
       <c r="D44">
-        <v>0.43656785005219473</v>
+        <v>0.43593408550151008</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.84750643961662386</v>
+        <v>0.84732338390470019</v>
       </c>
       <c r="J44">
-        <v>0.15249356038337616</v>
+        <v>0.15267661609529987</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.74668618067779224</v>
+        <v>0.74695453361277331</v>
       </c>
       <c r="O44">
-        <v>0.25331381932220776</v>
+        <v>0.25304546638722664</v>
       </c>
     </row>
     <row r="45">
@@ -9883,31 +9883,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.32125351272010755</v>
+        <v>0.32283371353093915</v>
       </c>
       <c r="C45">
-        <v>0.26455214938449723</v>
+        <v>0.26359665889251171</v>
       </c>
       <c r="D45">
-        <v>0.41419433789539517</v>
+        <v>0.41356962757654919</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.81789022021430635</v>
+        <v>0.81626428642459425</v>
       </c>
       <c r="J45">
-        <v>0.18210977978569365</v>
+        <v>0.18373571357540572</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.74066067504168742</v>
+        <v>0.73968079668459608</v>
       </c>
       <c r="O45">
-        <v>0.25933932495831252</v>
+        <v>0.26031920331540392</v>
       </c>
     </row>
     <row r="46">
@@ -9915,31 +9915,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.31775188186179015</v>
+        <v>0.31848132377389865</v>
       </c>
       <c r="C46">
-        <v>0.26194309884974321</v>
+        <v>0.2609450347182935</v>
       </c>
       <c r="D46">
-        <v>0.42030501928846675</v>
+        <v>0.4205736415078079</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.79686879697778223</v>
+        <v>0.79608139805230604</v>
       </c>
       <c r="J46">
-        <v>0.20313120302221771</v>
+        <v>0.20391860194769387</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.72694376957216811</v>
+        <v>0.72970740841743076</v>
       </c>
       <c r="O46">
-        <v>0.27305623042783189</v>
+        <v>0.27029259158256924</v>
       </c>
     </row>
     <row r="47">
@@ -9947,31 +9947,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.33582135344757286</v>
+        <v>0.33549944836874801</v>
       </c>
       <c r="C47">
-        <v>0.24617952617110531</v>
+        <v>0.24513389439149505</v>
       </c>
       <c r="D47">
-        <v>0.41799912038132186</v>
+        <v>0.41936665723975686</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.82306403577170495</v>
+        <v>0.82262530811441203</v>
       </c>
       <c r="J47">
-        <v>0.17693596422829513</v>
+        <v>0.17737469188558788</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.72234545396186967</v>
+        <v>0.71772658558962676</v>
       </c>
       <c r="O47">
-        <v>0.27765454603813028</v>
+        <v>0.28227341441037329</v>
       </c>
     </row>
     <row r="48">
@@ -9979,31 +9979,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.33905102509402113</v>
+        <v>0.33968572831938065</v>
       </c>
       <c r="C48">
-        <v>0.26202608208372707</v>
+        <v>0.26349512269643488</v>
       </c>
       <c r="D48">
-        <v>0.39892289282225185</v>
+        <v>0.39681914898418447</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.83036139903027639</v>
+        <v>0.82886762711440298</v>
       </c>
       <c r="J48">
-        <v>0.16963860096972355</v>
+        <v>0.17113237288559688</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.72361425196288198</v>
+        <v>0.72667020817377259</v>
       </c>
       <c r="O48">
-        <v>0.27638574803711807</v>
+        <v>0.27332979182622746</v>
       </c>
     </row>
     <row r="49">
@@ -10011,31 +10011,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.36149938323815012</v>
+        <v>0.36046666602121508</v>
       </c>
       <c r="C49">
-        <v>0.25673402828297986</v>
+        <v>0.25760439047257377</v>
       </c>
       <c r="D49">
-        <v>0.38176658847886991</v>
+        <v>0.38192894350621115</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.82344044504633562</v>
+        <v>0.8197816920110087</v>
       </c>
       <c r="J49">
-        <v>0.17655955495366432</v>
+        <v>0.18021830798899136</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.72127892198568122</v>
+        <v>0.71919562222497446</v>
       </c>
       <c r="O49">
-        <v>0.27872107801431878</v>
+        <v>0.28080437777502543</v>
       </c>
     </row>
     <row r="50">
@@ -10043,31 +10043,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.3744528353121962</v>
+        <v>0.3743970298066267</v>
       </c>
       <c r="C50">
-        <v>0.25224823488262915</v>
+        <v>0.25118037967233492</v>
       </c>
       <c r="D50">
-        <v>0.3732989298051746</v>
+        <v>0.37442259052103838</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.84159095089521874</v>
+        <v>0.84121089711681607</v>
       </c>
       <c r="J50">
-        <v>0.15840904910478115</v>
+        <v>0.15878910288318401</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.70476229371332921</v>
+        <v>0.70238736642548949</v>
       </c>
       <c r="O50">
-        <v>0.29523770628667079</v>
+        <v>0.29761263357451062</v>
       </c>
     </row>
     <row r="51">
@@ -10075,31 +10075,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.40215343234841894</v>
+        <v>0.40220813508596048</v>
       </c>
       <c r="C51">
-        <v>0.25113574817984347</v>
+        <v>0.25073974284195522</v>
       </c>
       <c r="D51">
-        <v>0.34671081947173765</v>
+        <v>0.34705212207208436</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.85769252096289827</v>
+        <v>0.85716986397666961</v>
       </c>
       <c r="J51">
-        <v>0.14230747903710175</v>
+        <v>0.14283013602333042</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.73036983004503553</v>
+        <v>0.73141266559163753</v>
       </c>
       <c r="O51">
-        <v>0.26963016995496436</v>
+        <v>0.26858733440836252</v>
       </c>
     </row>
     <row r="52">
@@ -10107,31 +10107,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.4080009474819124</v>
+        <v>0.40832438353363332</v>
       </c>
       <c r="C52">
-        <v>0.25419404126775064</v>
+        <v>0.25442672945707639</v>
       </c>
       <c r="D52">
-        <v>0.33780501125033696</v>
+        <v>0.33724888700929029</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.85308782731441768</v>
+        <v>0.85352685966238295</v>
       </c>
       <c r="J52">
-        <v>0.14691217268558229</v>
+        <v>0.14647314033761707</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.67066492808689504</v>
+        <v>0.67167257738680319</v>
       </c>
       <c r="O52">
-        <v>0.32933507191310485</v>
+        <v>0.32832742261319686</v>
       </c>
     </row>
     <row r="53">
@@ -10139,31 +10139,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.43789737297844133</v>
+        <v>0.43758404764430897</v>
       </c>
       <c r="C53">
-        <v>0.25036347524038643</v>
+        <v>0.25076755725238992</v>
       </c>
       <c r="D53">
-        <v>0.31173915178117234</v>
+        <v>0.31164839510330111</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.87255430714666948</v>
+        <v>0.87448338796910463</v>
       </c>
       <c r="J53">
-        <v>0.1274456928533306</v>
+        <v>0.12551661203089534</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.6812607297188914</v>
+        <v>0.68168097254713311</v>
       </c>
       <c r="O53">
-        <v>0.31873927028110854</v>
+        <v>0.31831902745286678</v>
       </c>
     </row>
     <row r="54">
@@ -10171,13 +10171,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.44154603782185731</v>
+        <v>0.44321368849749621</v>
       </c>
       <c r="C54">
-        <v>0.27019838104212862</v>
+        <v>0.2706588190176813</v>
       </c>
       <c r="D54">
-        <v>0.28825558113601402</v>
+        <v>0.28612749248482255</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -11028,19 +11028,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.55396090740206905</v>
+        <v>0.5461870889100312</v>
       </c>
       <c r="J3">
-        <v>0.44603909259793095</v>
+        <v>0.45381291108996885</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.83618357356255835</v>
+        <v>0.83503519079396793</v>
       </c>
       <c r="O3">
-        <v>0.16381642643744165</v>
+        <v>0.16496480920603199</v>
       </c>
     </row>
     <row r="4">
@@ -11048,19 +11048,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.56079143119116026</v>
+        <v>0.57121369119543042</v>
       </c>
       <c r="J4">
-        <v>0.43920856880883974</v>
+        <v>0.42878630880456953</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.79889074827459505</v>
+        <v>0.80288101035374926</v>
       </c>
       <c r="O4">
-        <v>0.20110925172540503</v>
+        <v>0.19711898964625066</v>
       </c>
     </row>
     <row r="5">
@@ -11068,19 +11068,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.58212823955377047</v>
+        <v>0.58341015305402211</v>
       </c>
       <c r="J5">
-        <v>0.41787176044622959</v>
+        <v>0.41658984694597795</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.81658587204561661</v>
+        <v>0.81103727935612657</v>
       </c>
       <c r="O5">
-        <v>0.1834141279543835</v>
+        <v>0.1889627206438734</v>
       </c>
     </row>
     <row r="6">
@@ -11088,19 +11088,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.57860146584353978</v>
+        <v>0.57713620238549301</v>
       </c>
       <c r="J6">
-        <v>0.42139853415646022</v>
+        <v>0.42286379761450704</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86352566184730006</v>
+        <v>0.85866305199343718</v>
       </c>
       <c r="O6">
-        <v>0.13647433815269994</v>
+        <v>0.14133694800656285</v>
       </c>
     </row>
     <row r="7">
@@ -11108,19 +11108,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.66181967532437358</v>
+        <v>0.66781966262332348</v>
       </c>
       <c r="J7">
-        <v>0.33818032467562648</v>
+        <v>0.33218033737667663</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.81739158966801206</v>
+        <v>0.81856587997159269</v>
       </c>
       <c r="O7">
-        <v>0.18260841033198796</v>
+        <v>0.18143412002840731</v>
       </c>
     </row>
     <row r="8">
@@ -11128,19 +11128,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.66876343626024148</v>
+        <v>0.66910925780455566</v>
       </c>
       <c r="J8">
-        <v>0.33123656373975863</v>
+        <v>0.3308907421954444</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.84198484607129354</v>
+        <v>0.84225977702352661</v>
       </c>
       <c r="O8">
-        <v>0.15801515392870641</v>
+        <v>0.15774022297647347</v>
       </c>
     </row>
     <row r="9">
@@ -11148,19 +11148,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.5992445768771556</v>
+        <v>0.59984219378146986</v>
       </c>
       <c r="J9">
-        <v>0.40075542312284435</v>
+        <v>0.4001578062185302</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.80786371826917514</v>
+        <v>0.80811561853661618</v>
       </c>
       <c r="O9">
-        <v>0.19213628173082478</v>
+        <v>0.19188438146338371</v>
       </c>
     </row>
     <row r="10">
@@ -11168,19 +11168,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.7048150049797961</v>
+        <v>0.70564448063942742</v>
       </c>
       <c r="J10">
-        <v>0.29518499502020396</v>
+        <v>0.29435551936057264</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.78926451256747687</v>
+        <v>0.78828421958391515</v>
       </c>
       <c r="O10">
-        <v>0.21073548743252321</v>
+        <v>0.21171578041608485</v>
       </c>
     </row>
     <row r="11">
@@ -11188,19 +11188,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.63718052917369117</v>
+        <v>0.64295902845161246</v>
       </c>
       <c r="J11">
-        <v>0.36281947082630889</v>
+        <v>0.3570409715483876</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.79637067705523157</v>
+        <v>0.79453117116231997</v>
       </c>
       <c r="O11">
-        <v>0.20362932294476843</v>
+        <v>0.20546882883768003</v>
       </c>
     </row>
     <row r="12">
@@ -11208,19 +11208,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.60827713969436836</v>
+        <v>0.61115420452270663</v>
       </c>
       <c r="J12">
-        <v>0.39172286030563164</v>
+        <v>0.38884579547729337</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.80921800065585414</v>
+        <v>0.80688974047382522</v>
       </c>
       <c r="O12">
-        <v>0.19078199934414597</v>
+        <v>0.19311025952617475</v>
       </c>
     </row>
     <row r="13">
@@ -11228,19 +11228,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.69406642826983045</v>
+        <v>0.68313481120292763</v>
       </c>
       <c r="J13">
-        <v>0.30593357173016955</v>
+        <v>0.31686518879707237</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.77852724692128394</v>
+        <v>0.78063086366859635</v>
       </c>
       <c r="O13">
-        <v>0.22147275307871608</v>
+        <v>0.2193691363314037</v>
       </c>
     </row>
     <row r="14">
@@ -11248,19 +11248,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.6398678923054153</v>
+        <v>0.64832526978855498</v>
       </c>
       <c r="J14">
-        <v>0.36013210769458459</v>
+        <v>0.35167473021144507</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.83172418786468605</v>
+        <v>0.8278204549295729</v>
       </c>
       <c r="O14">
-        <v>0.16827581213531395</v>
+        <v>0.17217954507042713</v>
       </c>
     </row>
     <row r="15">
@@ -11268,19 +11268,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.67149710915496874</v>
+        <v>0.66569085224787172</v>
       </c>
       <c r="J15">
-        <v>0.3285028908450312</v>
+        <v>0.33430914775212817</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.80915703392562865</v>
+        <v>0.80187526409944476</v>
       </c>
       <c r="O15">
-        <v>0.19084296607437132</v>
+        <v>0.19812473590055521</v>
       </c>
     </row>
     <row r="16">
@@ -11288,19 +11288,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.68123129034251162</v>
+        <v>0.6832476171151014</v>
       </c>
       <c r="J16">
-        <v>0.31876870965748838</v>
+        <v>0.3167523828848986</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.81182517726666914</v>
+        <v>0.81015818651383487</v>
       </c>
       <c r="O16">
-        <v>0.18817482273333089</v>
+        <v>0.18984181348616511</v>
       </c>
     </row>
     <row r="17">
@@ -11308,19 +11308,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.72961771088235305</v>
+        <v>0.72769642156306746</v>
       </c>
       <c r="J17">
-        <v>0.27038228911764706</v>
+        <v>0.27230357843693248</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78418497313755864</v>
+        <v>0.78802490850158646</v>
       </c>
       <c r="O17">
-        <v>0.21581502686244136</v>
+        <v>0.21197509149841359</v>
       </c>
     </row>
     <row r="18">
@@ -11328,19 +11328,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.75511417134400671</v>
+        <v>0.75657560375747013</v>
       </c>
       <c r="J18">
-        <v>0.24488582865599329</v>
+        <v>0.24342439624252993</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.78199172126873229</v>
+        <v>0.78720977580870988</v>
       </c>
       <c r="O18">
-        <v>0.21800827873126777</v>
+        <v>0.21279022419129009</v>
       </c>
     </row>
     <row r="19">
@@ -11348,19 +11348,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.72519589232863801</v>
+        <v>0.72938990676417848</v>
       </c>
       <c r="J19">
-        <v>0.2748041076713621</v>
+        <v>0.27061009323582147</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.81258527029922567</v>
+        <v>0.81599024235092033</v>
       </c>
       <c r="O19">
-        <v>0.18741472970077436</v>
+        <v>0.18400975764907973</v>
       </c>
     </row>
     <row r="20">
@@ -11368,19 +11368,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.73358770785719007</v>
+        <v>0.74485717251405659</v>
       </c>
       <c r="J20">
-        <v>0.26641229214280998</v>
+        <v>0.25514282748594336</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.77911954913344117</v>
+        <v>0.78593322084235406</v>
       </c>
       <c r="O20">
-        <v>0.22088045086655889</v>
+        <v>0.21406677915764602</v>
       </c>
     </row>
     <row r="21">
@@ -11388,19 +11388,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.72819852419116415</v>
+        <v>0.73409574150894641</v>
       </c>
       <c r="J21">
-        <v>0.2718014758088359</v>
+        <v>0.2659042584910537</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.77824600599688021</v>
+        <v>0.78100793848735139</v>
       </c>
       <c r="O21">
-        <v>0.22175399400311971</v>
+        <v>0.21899206151264861</v>
       </c>
     </row>
     <row r="22">
@@ -11408,19 +11408,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.77279566493475127</v>
+        <v>0.77516365337245707</v>
       </c>
       <c r="J22">
-        <v>0.22720433506524867</v>
+        <v>0.22483634662754298</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80054785127865213</v>
+        <v>0.80041379129674906</v>
       </c>
       <c r="O22">
-        <v>0.19945214872134792</v>
+        <v>0.19958620870325106</v>
       </c>
     </row>
     <row r="23">
@@ -11428,19 +11428,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.75596106805868868</v>
+        <v>0.75121000067152643</v>
       </c>
       <c r="J23">
-        <v>0.2440389319413114</v>
+        <v>0.24878999932847348</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.77190805309309685</v>
+        <v>0.77241318074539944</v>
       </c>
       <c r="O23">
-        <v>0.22809194690690304</v>
+        <v>0.22758681925460056</v>
       </c>
     </row>
     <row r="24">
@@ -11448,19 +11448,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.77325001947097993</v>
+        <v>0.77314143659955548</v>
       </c>
       <c r="J24">
-        <v>0.22674998052902007</v>
+        <v>0.22685856340044452</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.79008309212683903</v>
+        <v>0.78996838186712637</v>
       </c>
       <c r="O24">
-        <v>0.20991690787316106</v>
+        <v>0.21003161813287363</v>
       </c>
     </row>
     <row r="25">
@@ -11468,19 +11468,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.80502428495654299</v>
+        <v>0.80718442846675509</v>
       </c>
       <c r="J25">
-        <v>0.19497571504345695</v>
+        <v>0.19281557153324494</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.76382723198962821</v>
+        <v>0.76318883685849015</v>
       </c>
       <c r="O25">
-        <v>0.23617276801037171</v>
+        <v>0.23681116314150991</v>
       </c>
     </row>
     <row r="26">
@@ -11488,19 +11488,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.78652317914333336</v>
+        <v>0.78445823155028804</v>
       </c>
       <c r="J26">
-        <v>0.21347682085666661</v>
+        <v>0.21554176844971201</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.73887567015062849</v>
+        <v>0.73589679590381651</v>
       </c>
       <c r="O26">
-        <v>0.26112432984937156</v>
+        <v>0.2641032040961836</v>
       </c>
     </row>
     <row r="27">
@@ -11508,19 +11508,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.7638593888496249</v>
+        <v>0.76172828425128536</v>
       </c>
       <c r="J27">
-        <v>0.23614061115037507</v>
+        <v>0.23827171574871464</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.75699396985408973</v>
+        <v>0.75355425190530145</v>
       </c>
       <c r="O27">
-        <v>0.24300603014591024</v>
+        <v>0.24644574809469852</v>
       </c>
     </row>
     <row r="28">
@@ -11528,19 +11528,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.81345539980756476</v>
+        <v>0.81604443801904925</v>
       </c>
       <c r="J28">
-        <v>0.18654460019243521</v>
+        <v>0.18395556198095073</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.73874018214731918</v>
+        <v>0.7358650551590914</v>
       </c>
       <c r="O28">
-        <v>0.26125981785268082</v>
+        <v>0.2641349448409086</v>
       </c>
     </row>
     <row r="29">
@@ -11548,19 +11548,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.82949561653384751</v>
+        <v>0.82902681236101849</v>
       </c>
       <c r="J29">
-        <v>0.17050438346615257</v>
+        <v>0.17097318763898153</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.71929769118662701</v>
+        <v>0.7215447312237423</v>
       </c>
       <c r="O29">
-        <v>0.28070230881337288</v>
+        <v>0.27845526877625765</v>
       </c>
     </row>
     <row r="30">
@@ -11568,19 +11568,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.84830408719146122</v>
+        <v>0.84955351069663021</v>
       </c>
       <c r="J30">
-        <v>0.15169591280853875</v>
+        <v>0.15044648930336979</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.69964073502903024</v>
+        <v>0.70235976117048593</v>
       </c>
       <c r="O30">
-        <v>0.30035926497096982</v>
+        <v>0.29764023882951401</v>
       </c>
     </row>
     <row r="31">
@@ -11588,19 +11588,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.84668078525511259</v>
+        <v>0.84990577777635223</v>
       </c>
       <c r="J31">
-        <v>0.15331921474488744</v>
+        <v>0.15009422222364768</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.74405458784618073</v>
+        <v>0.74567125883848362</v>
       </c>
       <c r="O31">
-        <v>0.25594541215381922</v>
+        <v>0.25432874116151644</v>
       </c>
     </row>
     <row r="32">
@@ -11608,19 +11608,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.8570905147620651</v>
+        <v>0.8578850723377095</v>
       </c>
       <c r="J32">
-        <v>0.14290948523793487</v>
+        <v>0.14211492766229056</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.75931872137663703</v>
+        <v>0.75713035033991705</v>
       </c>
       <c r="O32">
-        <v>0.24068127862336289</v>
+        <v>0.24286964966008298</v>
       </c>
     </row>
     <row r="33">
@@ -11628,19 +11628,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.86617059102576732</v>
+        <v>0.86745260760961362</v>
       </c>
       <c r="J33">
-        <v>0.13382940897423259</v>
+        <v>0.13254739239038646</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.71891857789569014</v>
+        <v>0.72376289370916203</v>
       </c>
       <c r="O33">
-        <v>0.28108142210430986</v>
+        <v>0.27623710629083803</v>
       </c>
     </row>
     <row r="34">
@@ -11648,19 +11648,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.86764655678235814</v>
+        <v>0.87165423045321688</v>
       </c>
       <c r="J34">
-        <v>0.13235344321764184</v>
+        <v>0.12834576954678303</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.72049887448280414</v>
+        <v>0.72240960285061706</v>
       </c>
       <c r="O34">
-        <v>0.2795011255171958</v>
+        <v>0.27759039714938305</v>
       </c>
     </row>
     <row r="35">
@@ -11668,19 +11668,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.894479974314625</v>
+        <v>0.89438802470716805</v>
       </c>
       <c r="J35">
-        <v>0.10552002568537504</v>
+        <v>0.10561197529283195</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.69734633540474589</v>
+        <v>0.69904994273711218</v>
       </c>
       <c r="O35">
-        <v>0.30265366459525411</v>
+        <v>0.30095005726288782</v>
       </c>
     </row>
     <row r="36">
@@ -11688,19 +11688,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.86060447261866868</v>
+        <v>0.8624772509744435</v>
       </c>
       <c r="J36">
-        <v>0.13939552738133132</v>
+        <v>0.13752274902555647</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.72758522433128148</v>
+        <v>0.72639383239045607</v>
       </c>
       <c r="O36">
-        <v>0.27241477566871847</v>
+        <v>0.27360616760954393</v>
       </c>
     </row>
     <row r="37">
@@ -11708,19 +11708,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.89567161080626612</v>
+        <v>0.89502444281186644</v>
       </c>
       <c r="J37">
-        <v>0.10432838919373383</v>
+        <v>0.10497555718813349</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.71894649255451826</v>
+        <v>0.7166971350914686</v>
       </c>
       <c r="O37">
-        <v>0.28105350744548163</v>
+        <v>0.2833028649085314</v>
       </c>
     </row>
     <row r="38">
@@ -11728,19 +11728,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.89663537923515235</v>
+        <v>0.89478053355909493</v>
       </c>
       <c r="J38">
-        <v>0.10336462076484762</v>
+        <v>0.10521946644090509</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.74192560197682844</v>
+        <v>0.73875813130370249</v>
       </c>
       <c r="O38">
-        <v>0.25807439802317161</v>
+        <v>0.26124186869629751</v>
       </c>
     </row>
     <row r="39">
@@ -11748,19 +11748,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.92038837645285809</v>
+        <v>0.92077699339586017</v>
       </c>
       <c r="J39">
-        <v>0.079611623547141949</v>
+        <v>0.079223006604139834</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.67632025693201636</v>
+        <v>0.6723776716876857</v>
       </c>
       <c r="O39">
-        <v>0.32367974306798364</v>
+        <v>0.32762232831231425</v>
       </c>
     </row>
     <row r="40">
@@ -11768,19 +11768,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.8873180282951445</v>
+        <v>0.88816789429618037</v>
       </c>
       <c r="J40">
-        <v>0.11268197170485551</v>
+        <v>0.11183210570381971</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.65904324152005955</v>
+        <v>0.66233935127797505</v>
       </c>
       <c r="O40">
-        <v>0.34095675847994039</v>
+        <v>0.33766064872202495</v>
       </c>
     </row>
     <row r="41">
@@ -11788,19 +11788,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.9193845110681339</v>
+        <v>0.91972607281087604</v>
       </c>
       <c r="J41">
-        <v>0.080615488931866069</v>
+        <v>0.080273927189123961</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.66408443254462834</v>
+        <v>0.66285209377065324</v>
       </c>
       <c r="O41">
-        <v>0.33591556745537171</v>
+        <v>0.33714790622934682</v>
       </c>
     </row>
     <row r="42">
@@ -11808,19 +11808,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.906613267384765</v>
+        <v>0.90455730553654667</v>
       </c>
       <c r="J42">
-        <v>0.093386732615234988</v>
+        <v>0.095442694463453354</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.6626689955656756</v>
+        <v>0.66391429448983252</v>
       </c>
       <c r="O42">
-        <v>0.33733100443432446</v>
+        <v>0.33608570551016737</v>
       </c>
     </row>
     <row r="43">
@@ -11828,19 +11828,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.91115827810046945</v>
+        <v>0.90842702050326019</v>
       </c>
       <c r="J43">
-        <v>0.088841721899530532</v>
+        <v>0.091572979496739759</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.66598135142060899</v>
+        <v>0.66606226086548259</v>
       </c>
       <c r="O43">
-        <v>0.33401864857939106</v>
+        <v>0.33393773913451741</v>
       </c>
     </row>
     <row r="44">
@@ -11848,19 +11848,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.92904271238999236</v>
+        <v>0.92916436230335153</v>
       </c>
       <c r="J44">
-        <v>0.070957287610007636</v>
+        <v>0.070835637696648496</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.64974997610498475</v>
+        <v>0.65404063920337274</v>
       </c>
       <c r="O44">
-        <v>0.35025002389501536</v>
+        <v>0.34595936079662726</v>
       </c>
     </row>
     <row r="45">
@@ -11868,19 +11868,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.92812543640124467</v>
+        <v>0.92409699996672279</v>
       </c>
       <c r="J45">
-        <v>0.071874563598755298</v>
+        <v>0.075903000033277171</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.64689086493315195</v>
+        <v>0.64655220592228602</v>
       </c>
       <c r="O45">
-        <v>0.35310913506684805</v>
+        <v>0.35344779407771398</v>
       </c>
     </row>
     <row r="46">
@@ -11888,19 +11888,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.89055424365340063</v>
+        <v>0.88793318791311471</v>
       </c>
       <c r="J46">
-        <v>0.10944575634659938</v>
+        <v>0.11206681208688531</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.57572587433479627</v>
+        <v>0.57555997296977424</v>
       </c>
       <c r="O46">
-        <v>0.42427412566520367</v>
+        <v>0.42444002703022571</v>
       </c>
     </row>
     <row r="47">
@@ -11908,19 +11908,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.89288766670560338</v>
+        <v>0.89295058053866749</v>
       </c>
       <c r="J47">
-        <v>0.10711233329439658</v>
+        <v>0.1070494194613326</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.57050733293214972</v>
+        <v>0.56682393639287576</v>
       </c>
       <c r="O47">
-        <v>0.42949266706785033</v>
+        <v>0.4331760636071243</v>
       </c>
     </row>
     <row r="48">
@@ -11928,19 +11928,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.91693441438492063</v>
+        <v>0.91723417726952083</v>
       </c>
       <c r="J48">
-        <v>0.083065585615079318</v>
+        <v>0.082765822730479222</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.5927301019176846</v>
+        <v>0.59759011047644317</v>
       </c>
       <c r="O48">
-        <v>0.40726989808231528</v>
+        <v>0.40240988952355677</v>
       </c>
     </row>
     <row r="49">
@@ -11948,19 +11948,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.8910833943610651</v>
+        <v>0.88540774191105676</v>
       </c>
       <c r="J49">
-        <v>0.10891660563893486</v>
+        <v>0.11459225808894338</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.64301788285541861</v>
+        <v>0.64301788285541872</v>
       </c>
       <c r="O49">
-        <v>0.35698211714458133</v>
+        <v>0.35698211714458139</v>
       </c>
     </row>
     <row r="50">
@@ -11968,19 +11968,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.88309945665117684</v>
+        <v>0.88309740250981872</v>
       </c>
       <c r="J50">
-        <v>0.11690054334882306</v>
+        <v>0.11690259749018127</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.59550877540967573</v>
+        <v>0.58583753748829659</v>
       </c>
       <c r="O50">
-        <v>0.40449122459032422</v>
+        <v>0.41416246251170341</v>
       </c>
     </row>
     <row r="51">
@@ -11988,19 +11988,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.90928523839117259</v>
+        <v>0.91132461638637374</v>
       </c>
       <c r="J51">
-        <v>0.090714761608827382</v>
+        <v>0.088675383613626355</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.61933322630089338</v>
+        <v>0.62351336157612935</v>
       </c>
       <c r="O51">
-        <v>0.38066677369910662</v>
+        <v>0.37648663842387065</v>
       </c>
     </row>
     <row r="52">
@@ -12008,19 +12008,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.90235670940888812</v>
+        <v>0.89809298241002411</v>
       </c>
       <c r="J52">
-        <v>0.097643290591111889</v>
+        <v>0.10190701758997586</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.60625133165277389</v>
+        <v>0.6066770417479781</v>
       </c>
       <c r="O52">
-        <v>0.39374866834722611</v>
+        <v>0.39332295825202201</v>
       </c>
     </row>
     <row r="53">
@@ -12028,19 +12028,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.93090951668316513</v>
+        <v>0.93094291897093107</v>
       </c>
       <c r="J53">
-        <v>0.069090483316834941</v>
+        <v>0.069057081029069073</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.57608679912678551</v>
+        <v>0.57876841113540822</v>
       </c>
       <c r="O53">
-        <v>0.42391320087321444</v>
+        <v>0.42123158886459167</v>
       </c>
     </row>
     <row r="54">
@@ -12545,19 +12545,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.46332536741929559</v>
+        <v>0.47332890928946897</v>
       </c>
       <c r="J3">
-        <v>0.53667463258070436</v>
+        <v>0.52667109071053098</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.88394254030341279</v>
+        <v>0.8811607891654879</v>
       </c>
       <c r="O3">
-        <v>0.11605745969658725</v>
+        <v>0.11883921083451211</v>
       </c>
     </row>
     <row r="4">
@@ -12565,19 +12565,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.45871102205590791</v>
+        <v>0.45871102205590797</v>
       </c>
       <c r="J4">
-        <v>0.54128897794409203</v>
+        <v>0.54128897794409214</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.88904727302616504</v>
+        <v>0.88658968606814648</v>
       </c>
       <c r="O4">
-        <v>0.11095272697383489</v>
+        <v>0.11341031393185347</v>
       </c>
     </row>
     <row r="5">
@@ -12585,19 +12585,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.44868576534737142</v>
+        <v>0.44758123183930476</v>
       </c>
       <c r="J5">
-        <v>0.55131423465262852</v>
+        <v>0.55241876816069513</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.89323996589732602</v>
+        <v>0.8955121075930168</v>
       </c>
       <c r="O5">
-        <v>0.10676003410267407</v>
+        <v>0.10448789240698317</v>
       </c>
     </row>
     <row r="6">
@@ -12605,19 +12605,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.49453239182402559</v>
+        <v>0.4962096149566782</v>
       </c>
       <c r="J6">
-        <v>0.50546760817597458</v>
+        <v>0.50379038504332174</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86634056296127548</v>
+        <v>0.8706078938715176</v>
       </c>
       <c r="O6">
-        <v>0.13365943703872454</v>
+        <v>0.12939210612848245</v>
       </c>
     </row>
     <row r="7">
@@ -12625,19 +12625,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.46050846538458146</v>
+        <v>0.45484150384429928</v>
       </c>
       <c r="J7">
-        <v>0.53949153461541854</v>
+        <v>0.54515849615570078</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.88056657811730576</v>
+        <v>0.88741252231186496</v>
       </c>
       <c r="O7">
-        <v>0.11943342188269426</v>
+        <v>0.11258747768813497</v>
       </c>
     </row>
     <row r="8">
@@ -12645,19 +12645,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.44976743198205771</v>
+        <v>0.46226682434495264</v>
       </c>
       <c r="J8">
-        <v>0.55023256801794229</v>
+        <v>0.53773317565504741</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83218267850002392</v>
+        <v>0.83256729742974411</v>
       </c>
       <c r="O8">
-        <v>0.16781732149997605</v>
+        <v>0.16743270257025594</v>
       </c>
     </row>
     <row r="9">
@@ -12665,19 +12665,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.3695782359899269</v>
+        <v>0.3725258186449652</v>
       </c>
       <c r="J9">
-        <v>0.6304217640100731</v>
+        <v>0.62747418135503474</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.90247064981269387</v>
+        <v>0.90309160677250144</v>
       </c>
       <c r="O9">
-        <v>0.097529350187306116</v>
+        <v>0.096908393227498571</v>
       </c>
     </row>
     <row r="10">
@@ -12685,19 +12685,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.46356284379857687</v>
+        <v>0.4578462184258496</v>
       </c>
       <c r="J10">
-        <v>0.53643715620142318</v>
+        <v>0.54215378157415051</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.89978582536390084</v>
+        <v>0.8982444749597599</v>
       </c>
       <c r="O10">
-        <v>0.10021417463609909</v>
+        <v>0.10175552504024016</v>
       </c>
     </row>
     <row r="11">
@@ -12705,19 +12705,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.50174615647021348</v>
+        <v>0.50296987452090269</v>
       </c>
       <c r="J11">
-        <v>0.49825384352978663</v>
+        <v>0.49703012547909747</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.90733141633478931</v>
+        <v>0.90841881847005312</v>
       </c>
       <c r="O11">
-        <v>0.092668583665210719</v>
+        <v>0.091581181529946931</v>
       </c>
     </row>
     <row r="12">
@@ -12734,10 +12734,10 @@
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.89330516959854189</v>
+        <v>0.89361096135179341</v>
       </c>
       <c r="O12">
-        <v>0.10669483040145814</v>
+        <v>0.10638903864820659</v>
       </c>
     </row>
     <row r="13">
@@ -12745,19 +12745,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.53973231725247406</v>
+        <v>0.53276868925463994</v>
       </c>
       <c r="J13">
-        <v>0.46026768274752594</v>
+        <v>0.46723131074536012</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.8472177180216911</v>
+        <v>0.86117419893985259</v>
       </c>
       <c r="O13">
-        <v>0.1527822819783089</v>
+        <v>0.13882580106014741</v>
       </c>
     </row>
     <row r="14">
@@ -12765,19 +12765,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.53079955864841699</v>
+        <v>0.53485415093573174</v>
       </c>
       <c r="J14">
-        <v>0.46920044135158318</v>
+        <v>0.4651458490642682</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84859700694152196</v>
+        <v>0.8509409282289836</v>
       </c>
       <c r="O14">
-        <v>0.15140299305847801</v>
+        <v>0.14905907177101629</v>
       </c>
     </row>
     <row r="15">
@@ -12785,19 +12785,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.50811208955399467</v>
+        <v>0.50540547003585534</v>
       </c>
       <c r="J15">
-        <v>0.49188791044600533</v>
+        <v>0.4945945299641446</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.84633069368821645</v>
+        <v>0.84568695705871411</v>
       </c>
       <c r="O15">
-        <v>0.15366930631178358</v>
+        <v>0.15431304294128589</v>
       </c>
     </row>
     <row r="16">
@@ -12805,19 +12805,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.50721366661666123</v>
+        <v>0.50675886639782108</v>
       </c>
       <c r="J16">
-        <v>0.49278633338333877</v>
+        <v>0.49324113360217892</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.87977944845694656</v>
+        <v>0.87972558742569573</v>
       </c>
       <c r="O16">
-        <v>0.12022055154305336</v>
+        <v>0.1202744125743043</v>
       </c>
     </row>
     <row r="17">
@@ -12825,19 +12825,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.47819728724802035</v>
+        <v>0.47493356569008349</v>
       </c>
       <c r="J17">
-        <v>0.52180271275197954</v>
+        <v>0.52506643430991662</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.87255666858879577</v>
+        <v>0.8689492123726994</v>
       </c>
       <c r="O17">
-        <v>0.1274433314112042</v>
+        <v>0.13105078762730052</v>
       </c>
     </row>
     <row r="18">
@@ -12845,19 +12845,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.56920462047122788</v>
+        <v>0.57023198491435945</v>
       </c>
       <c r="J18">
-        <v>0.43079537952877212</v>
+        <v>0.42976801508564044</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.85207809327575279</v>
+        <v>0.85093756862009351</v>
       </c>
       <c r="O18">
-        <v>0.14792190672424724</v>
+        <v>0.14906243137990655</v>
       </c>
     </row>
     <row r="19">
@@ -12865,19 +12865,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.57070461892765845</v>
+        <v>0.57244396518656249</v>
       </c>
       <c r="J19">
-        <v>0.42929538107234155</v>
+        <v>0.42755603481343751</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.86236655925327177</v>
+        <v>0.86341831323152185</v>
       </c>
       <c r="O19">
-        <v>0.13763344074672818</v>
+        <v>0.13658168676847809</v>
       </c>
     </row>
     <row r="20">
@@ -12885,19 +12885,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.56987342718803902</v>
+        <v>0.56978502632088734</v>
       </c>
       <c r="J20">
-        <v>0.43012657281196098</v>
+        <v>0.4302149736791126</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.85962943285351245</v>
+        <v>0.8595005586617519</v>
       </c>
       <c r="O20">
-        <v>0.14037056714648766</v>
+        <v>0.1404994413382481</v>
       </c>
     </row>
     <row r="21">
@@ -12905,19 +12905,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.58744377507265622</v>
+        <v>0.59013566669668904</v>
       </c>
       <c r="J21">
-        <v>0.41255622492734373</v>
+        <v>0.40986433330331096</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.84403079397317815</v>
+        <v>0.84595861429093744</v>
       </c>
       <c r="O21">
-        <v>0.15596920602682196</v>
+        <v>0.15404138570906251</v>
       </c>
     </row>
     <row r="22">
@@ -12925,19 +12925,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.58299285810716373</v>
+        <v>0.58208931614577308</v>
       </c>
       <c r="J22">
-        <v>0.41700714189283633</v>
+        <v>0.41791068385422703</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.85884092404629975</v>
+        <v>0.8569673349420116</v>
       </c>
       <c r="O22">
-        <v>0.14115907595370025</v>
+        <v>0.14303266505798837</v>
       </c>
     </row>
     <row r="23">
@@ -12945,19 +12945,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.53925732885038891</v>
+        <v>0.53976002883421803</v>
       </c>
       <c r="J23">
-        <v>0.46074267114961104</v>
+        <v>0.46023997116578191</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.84869377252025968</v>
+        <v>0.84795855953786792</v>
       </c>
       <c r="O23">
-        <v>0.15130622747974029</v>
+        <v>0.15204144046213214</v>
       </c>
     </row>
     <row r="24">
@@ -12965,19 +12965,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.58201658142402379</v>
+        <v>0.57977035836945479</v>
       </c>
       <c r="J24">
-        <v>0.4179834185759761</v>
+        <v>0.42022964163054521</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.83449747537858809</v>
+        <v>0.83440841582836056</v>
       </c>
       <c r="O24">
-        <v>0.16550252462141185</v>
+        <v>0.16559158417163944</v>
       </c>
     </row>
     <row r="25">
@@ -12985,19 +12985,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.62059469364753983</v>
+        <v>0.61971802392671105</v>
       </c>
       <c r="J25">
-        <v>0.37940530635246011</v>
+        <v>0.38028197607328901</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.83874146277195161</v>
+        <v>0.83725679950809062</v>
       </c>
       <c r="O25">
-        <v>0.16125853722804842</v>
+        <v>0.16274320049190941</v>
       </c>
     </row>
     <row r="26">
@@ -13005,19 +13005,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.60849604342856878</v>
+        <v>0.60471858782088461</v>
       </c>
       <c r="J26">
-        <v>0.39150395657143122</v>
+        <v>0.39528141217911528</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.84114650212730024</v>
+        <v>0.84035835567138095</v>
       </c>
       <c r="O26">
-        <v>0.15885349787269976</v>
+        <v>0.15964164432861902</v>
       </c>
     </row>
     <row r="27">
@@ -13025,19 +13025,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.62444888255968356</v>
+        <v>0.6228996181120634</v>
       </c>
       <c r="J27">
-        <v>0.37555111744031638</v>
+        <v>0.3771003818879366</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.82028323350752108</v>
+        <v>0.82229711547775419</v>
       </c>
       <c r="O27">
-        <v>0.17971676649247884</v>
+        <v>0.17770288452224589</v>
       </c>
     </row>
     <row r="28">
@@ -13045,19 +13045,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.63656209548123999</v>
+        <v>0.64029186376958624</v>
       </c>
       <c r="J28">
-        <v>0.36343790451876012</v>
+        <v>0.3597081362304137</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.81787382279552256</v>
+        <v>0.81849688528364761</v>
       </c>
       <c r="O28">
-        <v>0.18212617720447735</v>
+        <v>0.1815031147163523</v>
       </c>
     </row>
     <row r="29">
@@ -13065,19 +13065,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.64129474193695635</v>
+        <v>0.63890247908353293</v>
       </c>
       <c r="J29">
-        <v>0.35870525806304365</v>
+        <v>0.36109752091646713</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.83093903356910714</v>
+        <v>0.82853195892226761</v>
       </c>
       <c r="O29">
-        <v>0.16906096643089288</v>
+        <v>0.17146804107773247</v>
       </c>
     </row>
     <row r="30">
@@ -13085,19 +13085,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.64459272228271591</v>
+        <v>0.64561183194451188</v>
       </c>
       <c r="J30">
-        <v>0.35540727771728414</v>
+        <v>0.35438816805548801</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.8441382692042021</v>
+        <v>0.84400761197698204</v>
       </c>
       <c r="O30">
-        <v>0.15586173079579788</v>
+        <v>0.15599238802301796</v>
       </c>
     </row>
     <row r="31">
@@ -13105,19 +13105,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.68828889046422803</v>
+        <v>0.69005025873409742</v>
       </c>
       <c r="J31">
-        <v>0.31171110953577208</v>
+        <v>0.30994974126590252</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.83326045084568667</v>
+        <v>0.83671678135197125</v>
       </c>
       <c r="O31">
-        <v>0.1667395491543133</v>
+        <v>0.16328321864802878</v>
       </c>
     </row>
     <row r="32">
@@ -13125,19 +13125,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.69899625723053616</v>
+        <v>0.69783157578822508</v>
       </c>
       <c r="J32">
-        <v>0.30100374276946379</v>
+        <v>0.30216842421177509</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.83620684254533373</v>
+        <v>0.83856966888811457</v>
       </c>
       <c r="O32">
-        <v>0.16379315745466635</v>
+        <v>0.16143033111188546</v>
       </c>
     </row>
     <row r="33">
@@ -13145,19 +13145,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65016236041903508</v>
+        <v>0.65003377436906473</v>
       </c>
       <c r="J33">
-        <v>0.34983763958096492</v>
+        <v>0.34996622563093527</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.81383777152584347</v>
+        <v>0.81398916837859614</v>
       </c>
       <c r="O33">
-        <v>0.18616222847415645</v>
+        <v>0.18601083162140378</v>
       </c>
     </row>
     <row r="34">
@@ -13165,19 +13165,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.70228676738176632</v>
+        <v>0.70487937328457217</v>
       </c>
       <c r="J34">
-        <v>0.29771323261823374</v>
+        <v>0.29512062671542777</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.7843796864144329</v>
+        <v>0.78293737454306966</v>
       </c>
       <c r="O34">
-        <v>0.2156203135855671</v>
+        <v>0.21706262545693028</v>
       </c>
     </row>
     <row r="35">
@@ -13185,19 +13185,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70575784889582427</v>
+        <v>0.70268099974213638</v>
       </c>
       <c r="J35">
-        <v>0.29424215110417579</v>
+        <v>0.29731900025786351</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80943194361724857</v>
+        <v>0.80965011800309983</v>
       </c>
       <c r="O35">
-        <v>0.19056805638275146</v>
+        <v>0.19034988199690014</v>
       </c>
     </row>
     <row r="36">
@@ -13205,19 +13205,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.67854992235880418</v>
+        <v>0.67982347729648818</v>
       </c>
       <c r="J36">
-        <v>0.32145007764119587</v>
+        <v>0.32017652270351188</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.78222103242584529</v>
+        <v>0.77973825050513512</v>
       </c>
       <c r="O36">
-        <v>0.21777896757415474</v>
+        <v>0.22026174949486493</v>
       </c>
     </row>
     <row r="37">
@@ -13225,19 +13225,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.74928433803497052</v>
+        <v>0.75060779757093288</v>
       </c>
       <c r="J37">
-        <v>0.25071566196502959</v>
+        <v>0.24939220242906701</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.78128214312523825</v>
+        <v>0.78193709127472544</v>
       </c>
       <c r="O37">
-        <v>0.21871785687476178</v>
+        <v>0.21806290872527445</v>
       </c>
     </row>
     <row r="38">
@@ -13245,19 +13245,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.7153256992083642</v>
+        <v>0.71562411639165824</v>
       </c>
       <c r="J38">
-        <v>0.28467430079163569</v>
+        <v>0.28437588360834176</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.77866253399899643</v>
+        <v>0.77907212599491382</v>
       </c>
       <c r="O38">
-        <v>0.22133746600100354</v>
+        <v>0.22092787400508615</v>
       </c>
     </row>
     <row r="39">
@@ -13265,19 +13265,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.74978480763799593</v>
+        <v>0.75051473542892833</v>
       </c>
       <c r="J39">
-        <v>0.25021519236200412</v>
+        <v>0.24948526457107159</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.74692368657676145</v>
+        <v>0.74750643665475902</v>
       </c>
       <c r="O39">
-        <v>0.25307631342323861</v>
+        <v>0.25249356334524098</v>
       </c>
     </row>
     <row r="40">
@@ -13285,19 +13285,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.76666826038706004</v>
+        <v>0.76463098123068118</v>
       </c>
       <c r="J40">
-        <v>0.23333173961293988</v>
+        <v>0.23536901876931887</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.77118714199187732</v>
+        <v>0.77076233717658071</v>
       </c>
       <c r="O40">
-        <v>0.22881285800812262</v>
+        <v>0.22923766282341923</v>
       </c>
     </row>
     <row r="41">
@@ -13305,19 +13305,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.74201349132613792</v>
+        <v>0.74033303543671802</v>
       </c>
       <c r="J41">
-        <v>0.25798650867386203</v>
+        <v>0.25966696456328198</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.78407749707587848</v>
+        <v>0.78326939839523657</v>
       </c>
       <c r="O41">
-        <v>0.21592250292412149</v>
+        <v>0.21673060160476348</v>
       </c>
     </row>
     <row r="42">
@@ -13325,19 +13325,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.79138974436994725</v>
+        <v>0.79380103604353869</v>
       </c>
       <c r="J42">
-        <v>0.20861025563005281</v>
+        <v>0.20619896395646126</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.77201436622607211</v>
+        <v>0.77495216818587842</v>
       </c>
       <c r="O42">
-        <v>0.22798563377392783</v>
+        <v>0.22504783181412158</v>
       </c>
     </row>
     <row r="43">
@@ -13345,19 +13345,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.75467381469839367</v>
+        <v>0.75712781655983274</v>
       </c>
       <c r="J43">
-        <v>0.24532618530160627</v>
+        <v>0.2428721834401672</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.78412846097651956</v>
+        <v>0.7845724520928119</v>
       </c>
       <c r="O43">
-        <v>0.2158715390234805</v>
+        <v>0.2154275479071881</v>
       </c>
     </row>
     <row r="44">
@@ -13365,19 +13365,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.80861534273502311</v>
+        <v>0.80828206653432033</v>
       </c>
       <c r="J44">
-        <v>0.1913846572649768</v>
+        <v>0.1917179334656797</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.76856147010800435</v>
+        <v>0.76745777887605537</v>
       </c>
       <c r="O44">
-        <v>0.23143852989199573</v>
+        <v>0.23254222112394463</v>
       </c>
     </row>
     <row r="45">
@@ -13385,19 +13385,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.76346079086219554</v>
+        <v>0.76281746275030937</v>
       </c>
       <c r="J45">
-        <v>0.23653920913780457</v>
+        <v>0.2371825372496906</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.7619614138232309</v>
+        <v>0.76106744160973838</v>
       </c>
       <c r="O45">
-        <v>0.23803858617676921</v>
+        <v>0.23893255839026159</v>
       </c>
     </row>
     <row r="46">
@@ -13405,19 +13405,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.75270989515704101</v>
+        <v>0.75291692336291871</v>
       </c>
       <c r="J46">
-        <v>0.24729010484295896</v>
+        <v>0.24708307663708123</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.76263529435374289</v>
+        <v>0.76606817414111683</v>
       </c>
       <c r="O46">
-        <v>0.23736470564625708</v>
+        <v>0.23393182585888314</v>
       </c>
     </row>
     <row r="47">
@@ -13425,19 +13425,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.79368370703360502</v>
+        <v>0.79291641539942737</v>
       </c>
       <c r="J47">
-        <v>0.20631629296639495</v>
+        <v>0.20708358460057272</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.75480930405750923</v>
+        <v>0.75003947951304861</v>
       </c>
       <c r="O47">
-        <v>0.24519069594249085</v>
+        <v>0.24996052048695142</v>
       </c>
     </row>
     <row r="48">
@@ -13445,19 +13445,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.78910333836049062</v>
+        <v>0.78682479554399065</v>
       </c>
       <c r="J48">
-        <v>0.2108966616395094</v>
+        <v>0.21317520445600932</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.75426273110162556</v>
+        <v>0.75727690042602613</v>
       </c>
       <c r="O48">
-        <v>0.24573726889837444</v>
+        <v>0.24272309957397392</v>
       </c>
     </row>
     <row r="49">
@@ -13465,19 +13465,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.79165637227619012</v>
+        <v>0.78886840513635836</v>
       </c>
       <c r="J49">
-        <v>0.20834362772380982</v>
+        <v>0.21113159486364166</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.73830810559587046</v>
+        <v>0.73575083645924355</v>
       </c>
       <c r="O49">
-        <v>0.26169189440412943</v>
+        <v>0.26424916354075639</v>
       </c>
     </row>
     <row r="50">
@@ -13485,19 +13485,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.82337955981244348</v>
+        <v>0.82278747747464753</v>
       </c>
       <c r="J50">
-        <v>0.1766204401875564</v>
+        <v>0.17721252252535249</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.73090466699206413</v>
+        <v>0.73036317623557234</v>
       </c>
       <c r="O50">
-        <v>0.26909533300793592</v>
+        <v>0.26963682376442771</v>
       </c>
     </row>
     <row r="51">
@@ -13505,19 +13505,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.83332865811543944</v>
+        <v>0.8317398879222605</v>
       </c>
       <c r="J51">
-        <v>0.16667134188456051</v>
+        <v>0.16826011207773953</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.75604764711415062</v>
+        <v>0.75673174039853119</v>
       </c>
       <c r="O51">
-        <v>0.24395235288584943</v>
+        <v>0.24326825960146881</v>
       </c>
     </row>
     <row r="52">
@@ -13525,19 +13525,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.83245839628537088</v>
+        <v>0.83452639866808387</v>
       </c>
       <c r="J52">
-        <v>0.16754160371462923</v>
+        <v>0.16547360133191605</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.68725297535293617</v>
+        <v>0.68864075140808545</v>
       </c>
       <c r="O52">
-        <v>0.31274702464706378</v>
+        <v>0.31135924859191449</v>
       </c>
     </row>
     <row r="53">
@@ -13545,19 +13545,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.84764872354006382</v>
+        <v>0.8503786546328177</v>
       </c>
       <c r="J53">
-        <v>0.15235127645993624</v>
+        <v>0.14962134536718233</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.70390414338383378</v>
+        <v>0.70372139954014812</v>
       </c>
       <c r="O53">
-        <v>0.29609585661616622</v>
+        <v>0.29627860045985188</v>
       </c>
     </row>
     <row r="54">

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14069" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14127" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14127" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14301" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>
@@ -691,31 +691,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.2424355673629788</v>
+        <v>0.24633712522157716</v>
       </c>
       <c r="C3">
-        <v>0.23259716702198344</v>
+        <v>0.23091690577489396</v>
       </c>
       <c r="D3">
-        <v>0.5249672656150377</v>
+        <v>0.52274596900352888</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.72621127945989872</v>
+        <v>0.7295818524759643</v>
       </c>
       <c r="J3">
-        <v>0.27378872054010128</v>
+        <v>0.27041814752403576</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.73557331485886912</v>
+        <v>0.7309444158628392</v>
       </c>
       <c r="O3">
-        <v>0.26442668514113088</v>
+        <v>0.2690555841371608</v>
       </c>
     </row>
     <row r="4">
@@ -723,31 +723,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.25951608444768742</v>
+        <v>0.25916777471355407</v>
       </c>
       <c r="C4">
-        <v>0.22541354063316246</v>
+        <v>0.22844058343526499</v>
       </c>
       <c r="D4">
-        <v>0.5150703749191502</v>
+        <v>0.51239164185118091</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.72240688574070067</v>
+        <v>0.72095615442904881</v>
       </c>
       <c r="J4">
-        <v>0.27759311425929928</v>
+        <v>0.27904384557095113</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.70205269816354909</v>
+        <v>0.70433492455986124</v>
       </c>
       <c r="O4">
-        <v>0.29794730183645096</v>
+        <v>0.2956650754401387</v>
       </c>
     </row>
     <row r="5">
@@ -755,31 +755,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.26248618559099773</v>
+        <v>0.26180947655891973</v>
       </c>
       <c r="C5">
-        <v>0.21921469310669531</v>
+        <v>0.2198567470730505</v>
       </c>
       <c r="D5">
-        <v>0.51829912130230704</v>
+        <v>0.5183337763680298</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.67725644355130921</v>
+        <v>0.66667417182519606</v>
       </c>
       <c r="J5">
-        <v>0.32274355644869085</v>
+        <v>0.33332582817480405</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.72607167938757877</v>
+        <v>0.71941288900551181</v>
       </c>
       <c r="O5">
-        <v>0.27392832061242139</v>
+        <v>0.28058711099448819</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.23845989630566944</v>
+        <v>0.23770235781576071</v>
       </c>
       <c r="C6">
-        <v>0.21997647770001971</v>
+        <v>0.21580044788488098</v>
       </c>
       <c r="D6">
-        <v>0.54156362599431085</v>
+        <v>0.54649719429935839</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.70398603953624705</v>
+        <v>0.70634371025451415</v>
       </c>
       <c r="J6">
-        <v>0.29601396046375289</v>
+        <v>0.29365628974548585</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.69615667267680204</v>
+        <v>0.69974142190959265</v>
       </c>
       <c r="O6">
-        <v>0.30384332732319802</v>
+        <v>0.30025857809040735</v>
       </c>
     </row>
     <row r="7">
@@ -819,31 +819,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.25466233500539431</v>
+        <v>0.25475053162440842</v>
       </c>
       <c r="C7">
-        <v>0.21859541538900423</v>
+        <v>0.21800252775021547</v>
       </c>
       <c r="D7">
-        <v>0.52674224960560145</v>
+        <v>0.52724694062537614</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.70213824512454248</v>
+        <v>0.69955411118746313</v>
       </c>
       <c r="J7">
-        <v>0.29786175487545752</v>
+        <v>0.30044588881253681</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.72674922819428789</v>
+        <v>0.72565768077872028</v>
       </c>
       <c r="O7">
-        <v>0.27325077180571211</v>
+        <v>0.27434231922127961</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.24639942486081165</v>
+        <v>0.24806475751452095</v>
       </c>
       <c r="C8">
-        <v>0.2162939916543532</v>
+        <v>0.21528431336952467</v>
       </c>
       <c r="D8">
-        <v>0.53730658348483507</v>
+        <v>0.53665092911595436</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.72107238266667995</v>
+        <v>0.71861847940365708</v>
       </c>
       <c r="J8">
-        <v>0.27892761733332005</v>
+        <v>0.28138152059634303</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.73180256728783533</v>
+        <v>0.73078543968035747</v>
       </c>
       <c r="O8">
-        <v>0.26819743271216467</v>
+        <v>0.26921456031964258</v>
       </c>
     </row>
     <row r="9">
@@ -883,31 +883,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.26002344456291154</v>
+        <v>0.2610809699692298</v>
       </c>
       <c r="C9">
-        <v>0.19913555999012308</v>
+        <v>0.20031002830576447</v>
       </c>
       <c r="D9">
-        <v>0.5408409954469654</v>
+        <v>0.5386090017250057</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.67628320132249631</v>
+        <v>0.68217278858053354</v>
       </c>
       <c r="J9">
-        <v>0.32371679867750369</v>
+        <v>0.31782721141946652</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.70904245253079656</v>
+        <v>0.71260021680188634</v>
       </c>
       <c r="O9">
-        <v>0.29095754746920355</v>
+        <v>0.28739978319811371</v>
       </c>
     </row>
     <row r="10">
@@ -915,31 +915,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.22798964482233131</v>
+        <v>0.22689861854569782</v>
       </c>
       <c r="C10">
-        <v>0.23093121377456488</v>
+        <v>0.23251945257265028</v>
       </c>
       <c r="D10">
-        <v>0.54107914140310365</v>
+        <v>0.54058192888165191</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.72265377539541265</v>
+        <v>0.72361647996115164</v>
       </c>
       <c r="J10">
-        <v>0.27734622460458724</v>
+        <v>0.27638352003884847</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.70959347997196653</v>
+        <v>0.7041901725619768</v>
       </c>
       <c r="O10">
-        <v>0.29040652002803335</v>
+        <v>0.2958098274380232</v>
       </c>
     </row>
     <row r="11">
@@ -947,31 +947,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.22995059129412757</v>
+        <v>0.23313626281056393</v>
       </c>
       <c r="C11">
-        <v>0.23055109061092938</v>
+        <v>0.23071027060681396</v>
       </c>
       <c r="D11">
-        <v>0.53949831809494309</v>
+        <v>0.53615346658262208</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.67496463522569294</v>
+        <v>0.67724760152663255</v>
       </c>
       <c r="J11">
-        <v>0.325035364774307</v>
+        <v>0.32275239847336745</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.74170887144543651</v>
+        <v>0.74267319255786768</v>
       </c>
       <c r="O11">
-        <v>0.25829112855456349</v>
+        <v>0.25732680744213227</v>
       </c>
     </row>
     <row r="12">
@@ -979,31 +979,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.22049400609541628</v>
+        <v>0.21960598986600721</v>
       </c>
       <c r="C12">
-        <v>0.22347714587610765</v>
+        <v>0.22287955531632814</v>
       </c>
       <c r="D12">
-        <v>0.55602884802847607</v>
+        <v>0.5575144548176646</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.71270860096419131</v>
+        <v>0.71012954073513646</v>
       </c>
       <c r="J12">
-        <v>0.28729139903580858</v>
+        <v>0.2898704592648636</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.726596416138787</v>
+        <v>0.72134616288697506</v>
       </c>
       <c r="O12">
-        <v>0.27340358386121311</v>
+        <v>0.27865383711302494</v>
       </c>
     </row>
     <row r="13">
@@ -1011,31 +1011,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.22112610954571396</v>
+        <v>0.22058413501908386</v>
       </c>
       <c r="C13">
-        <v>0.24102805462769777</v>
+        <v>0.24107835668434588</v>
       </c>
       <c r="D13">
-        <v>0.53784583582658818</v>
+        <v>0.53833750829657023</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.7007660263854244</v>
+        <v>0.69918466089579667</v>
       </c>
       <c r="J13">
-        <v>0.29923397361457565</v>
+        <v>0.30081533910420333</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.73985377936066443</v>
+        <v>0.74411325290913499</v>
       </c>
       <c r="O13">
-        <v>0.26014622063933568</v>
+        <v>0.2558867470908649</v>
       </c>
     </row>
     <row r="14">
@@ -1043,31 +1043,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.21044596306210758</v>
+        <v>0.21197579553808982</v>
       </c>
       <c r="C14">
-        <v>0.22437165614389995</v>
+        <v>0.22348444887631067</v>
       </c>
       <c r="D14">
-        <v>0.56518238079399252</v>
+        <v>0.56453975558559966</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.7276488075113916</v>
+        <v>0.72315488030390584</v>
       </c>
       <c r="J14">
-        <v>0.2723511924886084</v>
+        <v>0.27684511969609421</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.72968733351574311</v>
+        <v>0.73147137682186925</v>
       </c>
       <c r="O14">
-        <v>0.27031266648425695</v>
+        <v>0.26852862317813075</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.23603833280727979</v>
+        <v>0.23411617483044492</v>
       </c>
       <c r="C15">
-        <v>0.22501420680470299</v>
+        <v>0.22372955484132384</v>
       </c>
       <c r="D15">
-        <v>0.53894746038801733</v>
+        <v>0.54215427032823127</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.71625148256729976</v>
+        <v>0.71802463131494421</v>
       </c>
       <c r="J15">
-        <v>0.28374851743270035</v>
+        <v>0.28197536868505574</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.73632828504815206</v>
+        <v>0.73534980028350083</v>
       </c>
       <c r="O15">
-        <v>0.26367171495184788</v>
+        <v>0.26465019971649911</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.22392754843743715</v>
+        <v>0.22179894164612912</v>
       </c>
       <c r="C16">
-        <v>0.23050603843601206</v>
+        <v>0.23327038732294073</v>
       </c>
       <c r="D16">
-        <v>0.54556641312655085</v>
+        <v>0.54493067103093018</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.70396264052975233</v>
+        <v>0.7087805518426129</v>
       </c>
       <c r="J16">
-        <v>0.29603735947024773</v>
+        <v>0.29121944815738721</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.73658250605859144</v>
+        <v>0.73832154576957287</v>
       </c>
       <c r="O16">
-        <v>0.26341749394140856</v>
+        <v>0.26167845423042718</v>
       </c>
     </row>
     <row r="17">
@@ -1139,31 +1139,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.23120885528965154</v>
+        <v>0.23335347415955379</v>
       </c>
       <c r="C17">
-        <v>0.21872856057986667</v>
+        <v>0.22025787447142128</v>
       </c>
       <c r="D17">
-        <v>0.55006258413048181</v>
+        <v>0.54638865136902492</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.71581953339471427</v>
+        <v>0.71592016136065928</v>
       </c>
       <c r="J17">
-        <v>0.28418046660528562</v>
+        <v>0.28407983863934072</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.75464531816544589</v>
+        <v>0.7546399010300473</v>
       </c>
       <c r="O17">
-        <v>0.24535468183455414</v>
+        <v>0.2453600989699527</v>
       </c>
     </row>
     <row r="18">
@@ -1171,31 +1171,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.22366342936534855</v>
+        <v>0.22200215739671622</v>
       </c>
       <c r="C18">
-        <v>0.22514066758838119</v>
+        <v>0.22508125311079882</v>
       </c>
       <c r="D18">
-        <v>0.5511959030462702</v>
+        <v>0.55291658949248501</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.7163542815458126</v>
+        <v>0.7170789442384139</v>
       </c>
       <c r="J18">
-        <v>0.2836457184541874</v>
+        <v>0.28292105576158616</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.76641362240593547</v>
+        <v>0.76248419705206583</v>
       </c>
       <c r="O18">
-        <v>0.23358637759406459</v>
+        <v>0.23751580294793431</v>
       </c>
     </row>
     <row r="19">
@@ -1203,31 +1203,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.21566381922044525</v>
+        <v>0.21454282605167369</v>
       </c>
       <c r="C19">
-        <v>0.21911432147721435</v>
+        <v>0.22034137912137047</v>
       </c>
       <c r="D19">
-        <v>0.56522185930234048</v>
+        <v>0.56511579482695573</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.71262635387261652</v>
+        <v>0.70884937791387381</v>
       </c>
       <c r="J19">
-        <v>0.28737364612738359</v>
+        <v>0.29115062208612613</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.76952459155669017</v>
+        <v>0.76858727864390197</v>
       </c>
       <c r="O19">
-        <v>0.23047540844330983</v>
+        <v>0.23141272135609803</v>
       </c>
     </row>
     <row r="20">
@@ -1235,31 +1235,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.20875490009079345</v>
+        <v>0.2085156557895321</v>
       </c>
       <c r="C20">
-        <v>0.2101803359371002</v>
+        <v>0.21079725716951694</v>
       </c>
       <c r="D20">
-        <v>0.58106476397210627</v>
+        <v>0.58068708704095096</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.68827041463956173</v>
+        <v>0.68338568804230337</v>
       </c>
       <c r="J20">
-        <v>0.31172958536043821</v>
+        <v>0.31661431195769651</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.77102109541362351</v>
+        <v>0.76755824165890063</v>
       </c>
       <c r="O20">
-        <v>0.22897890458637651</v>
+        <v>0.2324417583410994</v>
       </c>
     </row>
     <row r="21">
@@ -1267,31 +1267,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.20873628695771076</v>
+        <v>0.20808795064838972</v>
       </c>
       <c r="C21">
-        <v>0.20667585842156355</v>
+        <v>0.20757777937081387</v>
       </c>
       <c r="D21">
-        <v>0.58458785462072571</v>
+        <v>0.58433426998079641</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.68414549764099075</v>
+        <v>0.68481169383526819</v>
       </c>
       <c r="J21">
-        <v>0.31585450235900919</v>
+        <v>0.31518830616473181</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.78233431734383752</v>
+        <v>0.77820459923499496</v>
       </c>
       <c r="O21">
-        <v>0.21766568265616257</v>
+        <v>0.22179540076500501</v>
       </c>
     </row>
     <row r="22">
@@ -1299,31 +1299,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.20574485795111791</v>
+        <v>0.20491975841924259</v>
       </c>
       <c r="C22">
-        <v>0.20335859185964417</v>
+        <v>0.20812512175881387</v>
       </c>
       <c r="D22">
-        <v>0.59089655018923792</v>
+        <v>0.58695511982194348</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.69796097960780268</v>
+        <v>0.69301024042516557</v>
       </c>
       <c r="J22">
-        <v>0.30203902039219732</v>
+        <v>0.30698975957483443</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.77179399015668404</v>
+        <v>0.77052009869665206</v>
       </c>
       <c r="O22">
-        <v>0.22820600984331593</v>
+        <v>0.22947990130334797</v>
       </c>
     </row>
     <row r="23">
@@ -1331,31 +1331,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.21570534968284877</v>
+        <v>0.21462368085107389</v>
       </c>
       <c r="C23">
-        <v>0.20484373845859927</v>
+        <v>0.20693068764994546</v>
       </c>
       <c r="D23">
-        <v>0.57945091185855202</v>
+        <v>0.57844563149898065</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.7011616711740033</v>
+        <v>0.69688546336584478</v>
       </c>
       <c r="J23">
-        <v>0.2988383288259967</v>
+        <v>0.30311453663415522</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75787438279006158</v>
+        <v>0.7580068746991967</v>
       </c>
       <c r="O23">
-        <v>0.24212561720993833</v>
+        <v>0.2419931253008033</v>
       </c>
     </row>
     <row r="24">
@@ -1363,31 +1363,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.20988095403453955</v>
+        <v>0.20716273262500912</v>
       </c>
       <c r="C24">
-        <v>0.21993110969459728</v>
+        <v>0.22122211157668709</v>
       </c>
       <c r="D24">
-        <v>0.57018793627086328</v>
+        <v>0.5716151557983038</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.7058113255014018</v>
+        <v>0.70564952686760118</v>
       </c>
       <c r="J24">
-        <v>0.29418867449859826</v>
+        <v>0.2943504731323987</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.77357551243065037</v>
+        <v>0.77398231873329559</v>
       </c>
       <c r="O24">
-        <v>0.2264244875693496</v>
+        <v>0.22601768126670441</v>
       </c>
     </row>
     <row r="25">
@@ -1395,31 +1395,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.20843152677260651</v>
+        <v>0.20919775666081644</v>
       </c>
       <c r="C25">
-        <v>0.21464380693638127</v>
+        <v>0.21481166778379962</v>
       </c>
       <c r="D25">
-        <v>0.57692466629101224</v>
+        <v>0.57599057555538402</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.64339387164802719</v>
+        <v>0.64230739248930102</v>
       </c>
       <c r="J25">
-        <v>0.35660612835197281</v>
+        <v>0.35769260751069892</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.75328692574773004</v>
+        <v>0.75312363965376838</v>
       </c>
       <c r="O25">
-        <v>0.24671307425226988</v>
+        <v>0.24687636034623167</v>
       </c>
     </row>
     <row r="26">
@@ -1427,31 +1427,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.21052047615374342</v>
+        <v>0.20915444407409961</v>
       </c>
       <c r="C26">
-        <v>0.20098102224925338</v>
+        <v>0.20162383569289602</v>
       </c>
       <c r="D26">
-        <v>0.58849850159700323</v>
+        <v>0.58922172023300445</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.69734460941041898</v>
+        <v>0.69590772217084629</v>
       </c>
       <c r="J26">
-        <v>0.30265539058958107</v>
+        <v>0.30409227782915371</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.75528788534226576</v>
+        <v>0.757926667613537</v>
       </c>
       <c r="O26">
-        <v>0.24471211465773421</v>
+        <v>0.24207333238646297</v>
       </c>
     </row>
     <row r="27">
@@ -1459,31 +1459,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.21750714868190787</v>
+        <v>0.21600344436713362</v>
       </c>
       <c r="C27">
-        <v>0.21005464646953995</v>
+        <v>0.21083224766070235</v>
       </c>
       <c r="D27">
-        <v>0.57243820484855223</v>
+        <v>0.57316430797216389</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.68496655694914221</v>
+        <v>0.68741242016524573</v>
       </c>
       <c r="J27">
-        <v>0.31503344305085773</v>
+        <v>0.31258757983475433</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.78376641789608836</v>
+        <v>0.78592473696309606</v>
       </c>
       <c r="O27">
-        <v>0.21623358210391164</v>
+        <v>0.21407526303690388</v>
       </c>
     </row>
     <row r="28">
@@ -1491,31 +1491,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.20634209770828049</v>
+        <v>0.2070572307050853</v>
       </c>
       <c r="C28">
-        <v>0.20993245587690668</v>
+        <v>0.20838983482013804</v>
       </c>
       <c r="D28">
-        <v>0.58372544641481294</v>
+        <v>0.58455293447477663</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.70012945960488671</v>
+        <v>0.70627976100156309</v>
       </c>
       <c r="J28">
-        <v>0.29987054039511329</v>
+        <v>0.29372023899843697</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.77126343395822661</v>
+        <v>0.7715071465737442</v>
       </c>
       <c r="O28">
-        <v>0.22873656604177339</v>
+        <v>0.22849285342625578</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20653603063156326</v>
+        <v>0.20836936116877675</v>
       </c>
       <c r="C29">
-        <v>0.2106072173256946</v>
+        <v>0.21221988717844015</v>
       </c>
       <c r="D29">
-        <v>0.58285675204274212</v>
+        <v>0.57941075165278311</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.72045977178260767</v>
+        <v>0.71375528023926915</v>
       </c>
       <c r="J29">
-        <v>0.27954022821739233</v>
+        <v>0.2862447197607309</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79156096300237777</v>
+        <v>0.79102945372036415</v>
       </c>
       <c r="O29">
-        <v>0.20843903699762212</v>
+        <v>0.20897054627963579</v>
       </c>
     </row>
     <row r="30">
@@ -1555,31 +1555,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.22294331364317183</v>
+        <v>0.22212257054194456</v>
       </c>
       <c r="C30">
-        <v>0.20266356612431999</v>
+        <v>0.20381956004565066</v>
       </c>
       <c r="D30">
-        <v>0.57439312023250833</v>
+        <v>0.57405786941240478</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.69280635068062746</v>
+        <v>0.69362428329374692</v>
       </c>
       <c r="J30">
-        <v>0.30719364931937254</v>
+        <v>0.30637571670625308</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.76535544859050997</v>
+        <v>0.76103336642732222</v>
       </c>
       <c r="O30">
-        <v>0.23464455140949003</v>
+        <v>0.23896663357267769</v>
       </c>
     </row>
     <row r="31">
@@ -1587,31 +1587,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22767431338553329</v>
+        <v>0.22670130998167984</v>
       </c>
       <c r="C31">
-        <v>0.19515717891297504</v>
+        <v>0.19548015294766941</v>
       </c>
       <c r="D31">
-        <v>0.57716850770149164</v>
+        <v>0.57781853707065067</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.70484631512417384</v>
+        <v>0.70850644318580502</v>
       </c>
       <c r="J31">
-        <v>0.29515368487582622</v>
+        <v>0.29149355681419503</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78453126260164152</v>
+        <v>0.78433512383146275</v>
       </c>
       <c r="O31">
-        <v>0.21546873739835845</v>
+        <v>0.21566487616853722</v>
       </c>
     </row>
     <row r="32">
@@ -1619,31 +1619,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21636146541342099</v>
+        <v>0.21818204537645611</v>
       </c>
       <c r="C32">
-        <v>0.19602950014469936</v>
+        <v>0.19379135213383308</v>
       </c>
       <c r="D32">
-        <v>0.58760903444187962</v>
+        <v>0.58802660248971084</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.72401902126156092</v>
+        <v>0.72693893249687014</v>
       </c>
       <c r="J32">
-        <v>0.27598097873843913</v>
+        <v>0.27306106750312992</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.77708335231083636</v>
+        <v>0.7767151962448513</v>
       </c>
       <c r="O32">
-        <v>0.22291664768916353</v>
+        <v>0.22328480375514861</v>
       </c>
     </row>
     <row r="33">
@@ -1651,31 +1651,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.21762912956426467</v>
+        <v>0.2161100484186855</v>
       </c>
       <c r="C33">
-        <v>0.2046854303332413</v>
+        <v>0.20662439816441242</v>
       </c>
       <c r="D33">
-        <v>0.57768544010249401</v>
+        <v>0.57726555341690211</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.72137821922787204</v>
+        <v>0.719839216063482</v>
       </c>
       <c r="J33">
-        <v>0.27862178077212796</v>
+        <v>0.280160783936518</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78440684066537414</v>
+        <v>0.78203897247507792</v>
       </c>
       <c r="O33">
-        <v>0.21559315933462594</v>
+        <v>0.21796102752492211</v>
       </c>
     </row>
     <row r="34">
@@ -1683,31 +1683,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.21107259500002887</v>
+        <v>0.21017961207835409</v>
       </c>
       <c r="C34">
-        <v>0.20460047092930983</v>
+        <v>0.20636867612780305</v>
       </c>
       <c r="D34">
-        <v>0.58432693407066127</v>
+        <v>0.58345171179384281</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69667733035382218</v>
+        <v>0.69759460189129996</v>
       </c>
       <c r="J34">
-        <v>0.30332266964617777</v>
+        <v>0.30240539810870004</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78191357012004037</v>
+        <v>0.78672854793063185</v>
       </c>
       <c r="O34">
-        <v>0.21808642987995955</v>
+        <v>0.21327145206936807</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.21952317181800901</v>
+        <v>0.21849287614777113</v>
       </c>
       <c r="C35">
-        <v>0.19714520090455179</v>
+        <v>0.19644241126073178</v>
       </c>
       <c r="D35">
-        <v>0.58333162727743926</v>
+        <v>0.58506471259149717</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.71137355807634828</v>
+        <v>0.70937456485440431</v>
       </c>
       <c r="J35">
-        <v>0.28862644192365183</v>
+        <v>0.29062543514559563</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80424178820521142</v>
+        <v>0.80648757860790365</v>
       </c>
       <c r="O35">
-        <v>0.19575821179478853</v>
+        <v>0.19351242139209629</v>
       </c>
     </row>
     <row r="36">
@@ -1747,31 +1747,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.21708791999870433</v>
+        <v>0.21492151178645827</v>
       </c>
       <c r="C36">
-        <v>0.18969544968326138</v>
+        <v>0.18900165498676447</v>
       </c>
       <c r="D36">
-        <v>0.59321663031803418</v>
+        <v>0.59607683322677729</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.66823641470236295</v>
+        <v>0.67187143081329959</v>
       </c>
       <c r="J36">
-        <v>0.33176358529763711</v>
+        <v>0.32812856918670036</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.81299050073032619</v>
+        <v>0.81673215581030423</v>
       </c>
       <c r="O36">
-        <v>0.18700949926967386</v>
+        <v>0.1832678441896958</v>
       </c>
     </row>
     <row r="37">
@@ -1779,31 +1779,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.20445957971158502</v>
+        <v>0.20343890090631123</v>
       </c>
       <c r="C37">
-        <v>0.18241332643900302</v>
+        <v>0.18099315713937764</v>
       </c>
       <c r="D37">
-        <v>0.613127093849412</v>
+        <v>0.61556794195431119</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.70103105765051865</v>
+        <v>0.69640348449224876</v>
       </c>
       <c r="J37">
-        <v>0.29896894234948129</v>
+        <v>0.3035965155077513</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.80046577293221977</v>
+        <v>0.79992628316929959</v>
       </c>
       <c r="O37">
-        <v>0.19953422706778037</v>
+        <v>0.20007371683070041</v>
       </c>
     </row>
     <row r="38">
@@ -1811,31 +1811,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.19792847056946478</v>
+        <v>0.19650558795713452</v>
       </c>
       <c r="C38">
-        <v>0.18165938342664251</v>
+        <v>0.18093514355707277</v>
       </c>
       <c r="D38">
-        <v>0.62041214600389272</v>
+        <v>0.62255926848579268</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.68130423386958916</v>
+        <v>0.68077520715409368</v>
       </c>
       <c r="J38">
-        <v>0.31869576613041084</v>
+        <v>0.31922479284590638</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.82466873760500503</v>
+        <v>0.82484975652361991</v>
       </c>
       <c r="O38">
-        <v>0.17533126239499491</v>
+        <v>0.17515024347638011</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1843,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.18784761597750707</v>
+        <v>0.1892555008212167</v>
       </c>
       <c r="C39">
-        <v>0.17176305386968804</v>
+        <v>0.17011713949223867</v>
       </c>
       <c r="D39">
-        <v>0.64038933015280486</v>
+        <v>0.64062735968654461</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.67095043103237051</v>
+        <v>0.67128014360583432</v>
       </c>
       <c r="J39">
-        <v>0.32904956896762944</v>
+        <v>0.32871985639416557</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.82723196368362939</v>
+        <v>0.8259942975648783</v>
       </c>
       <c r="O39">
-        <v>0.17276803631637061</v>
+        <v>0.1740057024351217</v>
       </c>
     </row>
     <row r="40">
@@ -1875,31 +1875,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.16724299133594953</v>
+        <v>0.167173147800636</v>
       </c>
       <c r="C40">
-        <v>0.17092550536406007</v>
+        <v>0.17017997071793253</v>
       </c>
       <c r="D40">
-        <v>0.66183150329999041</v>
+        <v>0.66264688148143147</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.66302057221468336</v>
+        <v>0.65802430335622619</v>
       </c>
       <c r="J40">
-        <v>0.33697942778531675</v>
+        <v>0.34197569664377381</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.84077772245399995</v>
+        <v>0.84243270606750231</v>
       </c>
       <c r="O40">
-        <v>0.15922227754600005</v>
+        <v>0.1575672939324976</v>
       </c>
     </row>
     <row r="41">
@@ -1907,31 +1907,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.1594070966120778</v>
+        <v>0.15895167393031454</v>
       </c>
       <c r="C41">
-        <v>0.16553561361945029</v>
+        <v>0.16504394760682284</v>
       </c>
       <c r="D41">
-        <v>0.6750572897684719</v>
+        <v>0.67600437846286254</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.67176007516811598</v>
+        <v>0.6727472741695274</v>
       </c>
       <c r="J41">
-        <v>0.32823992483188408</v>
+        <v>0.3272527258304726</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.83575363454804596</v>
+        <v>0.83664859209945142</v>
       </c>
       <c r="O41">
-        <v>0.16424636545195406</v>
+        <v>0.16335140790054858</v>
       </c>
     </row>
     <row r="42">
@@ -1939,31 +1939,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.14584657596509026</v>
+        <v>0.1458859596209694</v>
       </c>
       <c r="C42">
-        <v>0.1687843378687249</v>
+        <v>0.16835240513098668</v>
       </c>
       <c r="D42">
-        <v>0.68536908616618486</v>
+        <v>0.6857616352480439</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.63868765574515596</v>
+        <v>0.64209503734517215</v>
       </c>
       <c r="J42">
-        <v>0.36131234425484415</v>
+        <v>0.3579049626548278</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.85269655738791317</v>
+        <v>0.85363001846465736</v>
       </c>
       <c r="O42">
-        <v>0.14730344261208683</v>
+        <v>0.14636998153534272</v>
       </c>
     </row>
     <row r="43">
@@ -1971,31 +1971,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.13318279267722916</v>
+        <v>0.13385969684469354</v>
       </c>
       <c r="C43">
-        <v>0.1615072361128515</v>
+        <v>0.16372844457954494</v>
       </c>
       <c r="D43">
-        <v>0.70530997120991934</v>
+        <v>0.70241185857576138</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.60680579784373478</v>
+        <v>0.60768667280058875</v>
       </c>
       <c r="J43">
-        <v>0.39319420215626533</v>
+        <v>0.39231332719941131</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.84730570996590593</v>
+        <v>0.84692713230283967</v>
       </c>
       <c r="O43">
-        <v>0.15269429003409404</v>
+        <v>0.1530728676971603</v>
       </c>
     </row>
     <row r="44">
@@ -2003,31 +2003,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.1243885594620503</v>
+        <v>0.12323682641242678</v>
       </c>
       <c r="C44">
-        <v>0.15494447505043102</v>
+        <v>0.1571481997687216</v>
       </c>
       <c r="D44">
-        <v>0.72066696548751874</v>
+        <v>0.71961497381885176</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.64455134287064264</v>
+        <v>0.65255148582152944</v>
       </c>
       <c r="J44">
-        <v>0.35544865712935747</v>
+        <v>0.34744851417847067</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.84860765303452834</v>
+        <v>0.85098056803845357</v>
       </c>
       <c r="O44">
-        <v>0.15139234696547166</v>
+        <v>0.14901943196154646</v>
       </c>
     </row>
     <row r="45">
@@ -2035,31 +2035,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.1240402949890093</v>
+        <v>0.1253398000907161</v>
       </c>
       <c r="C45">
-        <v>0.15755138178655598</v>
+        <v>0.15713076180301735</v>
       </c>
       <c r="D45">
-        <v>0.71840832322443471</v>
+        <v>0.71752943810626668</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.60586900517326669</v>
+        <v>0.60255467376147187</v>
       </c>
       <c r="J45">
-        <v>0.39413099482673325</v>
+        <v>0.39744532623852813</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.85294727115711966</v>
+        <v>0.85352851927275619</v>
       </c>
       <c r="O45">
-        <v>0.14705272884288037</v>
+        <v>0.14647148072724386</v>
       </c>
     </row>
     <row r="46">
@@ -2067,31 +2067,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.12068138049212082</v>
+        <v>0.12146882441922485</v>
       </c>
       <c r="C46">
-        <v>0.1553152356475124</v>
+        <v>0.15322966622523629</v>
       </c>
       <c r="D46">
-        <v>0.72400338386036667</v>
+        <v>0.72530150935553872</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.5683188610521297</v>
+        <v>0.56778247726475006</v>
       </c>
       <c r="J46">
-        <v>0.43168113894787025</v>
+        <v>0.43221752273524988</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.85257573460932012</v>
+        <v>0.84894005221786772</v>
       </c>
       <c r="O46">
-        <v>0.14742426539067988</v>
+        <v>0.15105994778213228</v>
       </c>
     </row>
     <row r="47">
@@ -2099,31 +2099,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.1116878420259713</v>
+        <v>0.11310625172121082</v>
       </c>
       <c r="C47">
-        <v>0.15160379237730617</v>
+        <v>0.15101798278308029</v>
       </c>
       <c r="D47">
-        <v>0.73670836559672259</v>
+        <v>0.73587576549570888</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.62203292956639866</v>
+        <v>0.61847781763241338</v>
       </c>
       <c r="J47">
-        <v>0.37796707043360123</v>
+        <v>0.38152218236758656</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.82630015179235483</v>
+        <v>0.82755949031810705</v>
       </c>
       <c r="O47">
-        <v>0.17369984820764522</v>
+        <v>0.1724405096818929</v>
       </c>
     </row>
     <row r="48">
@@ -2131,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.12797502174322109</v>
+        <v>0.1273757573128782</v>
       </c>
       <c r="C48">
-        <v>0.15834768838567762</v>
+        <v>0.15736000128169642</v>
       </c>
       <c r="D48">
-        <v>0.71367728987110135</v>
+        <v>0.71526424140542522</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.59544953375291132</v>
+        <v>0.59994304953156996</v>
       </c>
       <c r="J48">
-        <v>0.40455046624708874</v>
+        <v>0.40005695046843004</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.8504883923291735</v>
+        <v>0.84853271439597244</v>
       </c>
       <c r="O48">
-        <v>0.14951160767082658</v>
+        <v>0.1514672856040275</v>
       </c>
     </row>
     <row r="49">
@@ -2163,31 +2163,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.11178578082975681</v>
+        <v>0.11219291186259092</v>
       </c>
       <c r="C49">
-        <v>0.16939570391920294</v>
+        <v>0.17021026251487831</v>
       </c>
       <c r="D49">
-        <v>0.71881851525104012</v>
+        <v>0.7175968256225308</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.61106593625108074</v>
+        <v>0.60922425331451413</v>
       </c>
       <c r="J49">
-        <v>0.38893406374891926</v>
+        <v>0.39077574668548581</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.83624982310396756</v>
+        <v>0.83683793591785172</v>
       </c>
       <c r="O49">
-        <v>0.1637501768960325</v>
+        <v>0.16316206408214834</v>
       </c>
     </row>
     <row r="50">
@@ -2195,31 +2195,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.1154633823179361</v>
+        <v>0.11647366687071407</v>
       </c>
       <c r="C50">
-        <v>0.16847555667948549</v>
+        <v>0.16937364374157873</v>
       </c>
       <c r="D50">
-        <v>0.71606106100257849</v>
+        <v>0.71415268938770715</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.56504225905050842</v>
+        <v>0.56782415722318957</v>
       </c>
       <c r="J50">
-        <v>0.43495774094949163</v>
+        <v>0.43217584277681054</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.82144032950143309</v>
+        <v>0.81927862900037685</v>
       </c>
       <c r="O50">
-        <v>0.17855967049856683</v>
+        <v>0.18072137099962304</v>
       </c>
     </row>
     <row r="51">
@@ -2227,31 +2227,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.12746841955631699</v>
+        <v>0.1268817739779094</v>
       </c>
       <c r="C51">
-        <v>0.160361647259325</v>
+        <v>0.16117059732775088</v>
       </c>
       <c r="D51">
-        <v>0.71216993318435806</v>
+        <v>0.7119476286943397</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.56750520364844925</v>
+        <v>0.57765566511110822</v>
       </c>
       <c r="J51">
-        <v>0.43249479635155086</v>
+        <v>0.42234433488889167</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.82100185987366414</v>
+        <v>0.82341459617720691</v>
       </c>
       <c r="O51">
-        <v>0.17899814012633591</v>
+        <v>0.17658540382279306</v>
       </c>
     </row>
     <row r="52">
@@ -2259,31 +2259,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.11847653454852364</v>
+        <v>0.12068347529181957</v>
       </c>
       <c r="C52">
-        <v>0.16375343331307157</v>
+        <v>0.16282523432285928</v>
       </c>
       <c r="D52">
-        <v>0.71777003213840473</v>
+        <v>0.71649129038532111</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.55920292880999312</v>
+        <v>0.56145596575281709</v>
       </c>
       <c r="J52">
-        <v>0.44079707119000694</v>
+        <v>0.43854403424718286</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.8479015934659675</v>
+        <v>0.84760159526823575</v>
       </c>
       <c r="O52">
-        <v>0.15209840653403262</v>
+        <v>0.15239840473176416</v>
       </c>
     </row>
     <row r="53">
@@ -2291,31 +2291,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.11285309227370249</v>
+        <v>0.11360601990962731</v>
       </c>
       <c r="C53">
-        <v>0.16989895195405827</v>
+        <v>0.16858676636193165</v>
       </c>
       <c r="D53">
-        <v>0.71724795577223921</v>
+        <v>0.71780721372844114</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.59365737816976905</v>
+        <v>0.59729905331619693</v>
       </c>
       <c r="J53">
-        <v>0.40634262183023101</v>
+        <v>0.40270094668380318</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.82084059531838804</v>
+        <v>0.82234890743349565</v>
       </c>
       <c r="O53">
-        <v>0.17915940468161198</v>
+        <v>0.17765109256650438</v>
       </c>
     </row>
     <row r="54">
@@ -2323,13 +2323,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.1079733301102251</v>
+        <v>0.10842749898938893</v>
       </c>
       <c r="C54">
-        <v>0.17943451428438484</v>
+        <v>0.17908143684763012</v>
       </c>
       <c r="D54">
-        <v>0.71259215560539013</v>
+        <v>0.71249106416298091</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -5305,19 +5305,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.79628005274316582</v>
+        <v>0.79408908263225497</v>
       </c>
       <c r="J3">
-        <v>0.20371994725683412</v>
+        <v>0.205910917367745</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.63799671364864896</v>
+        <v>0.62539472919649408</v>
       </c>
       <c r="O3">
-        <v>0.36200328635135109</v>
+        <v>0.37460527080350586</v>
       </c>
     </row>
     <row r="4">
@@ -5325,19 +5325,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.79557639860345919</v>
+        <v>0.81804334818963209</v>
       </c>
       <c r="J4">
-        <v>0.20442360139654084</v>
+        <v>0.18195665181036783</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.65729735634083286</v>
+        <v>0.66777207713019293</v>
       </c>
       <c r="O4">
-        <v>0.34270264365916714</v>
+        <v>0.33222792286980712</v>
       </c>
     </row>
     <row r="5">
@@ -5345,19 +5345,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.7687938132105524</v>
+        <v>0.75951080743271671</v>
       </c>
       <c r="J5">
-        <v>0.23120618678944763</v>
+        <v>0.24048919256728318</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.71087531040669794</v>
+        <v>0.69212028903124223</v>
       </c>
       <c r="O5">
-        <v>0.28912468959330201</v>
+        <v>0.30787971096875771</v>
       </c>
     </row>
     <row r="6">
@@ -5365,19 +5365,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.82531755069601154</v>
+        <v>0.82677854914380988</v>
       </c>
       <c r="J6">
-        <v>0.17468244930398844</v>
+        <v>0.17322145085619017</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.53857109301588668</v>
+        <v>0.55117152675737946</v>
       </c>
       <c r="O6">
-        <v>0.46142890698411332</v>
+        <v>0.44882847324262048</v>
       </c>
     </row>
     <row r="7">
@@ -5385,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.78006055193055679</v>
+        <v>0.77046634299178418</v>
       </c>
       <c r="J7">
-        <v>0.21993944806944327</v>
+        <v>0.22953365700821585</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.6505407226295169</v>
+        <v>0.63963105886367988</v>
       </c>
       <c r="O7">
-        <v>0.3494592773704831</v>
+        <v>0.36036894113632018</v>
       </c>
     </row>
     <row r="8">
@@ -5405,19 +5405,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.80822953909693751</v>
+        <v>0.80800727668598094</v>
       </c>
       <c r="J8">
-        <v>0.19177046090306238</v>
+        <v>0.19199272331401901</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.61185141641759733</v>
+        <v>0.61002833482553587</v>
       </c>
       <c r="O8">
-        <v>0.38814858358240262</v>
+        <v>0.38997166517446413</v>
       </c>
     </row>
     <row r="9">
@@ -5425,19 +5425,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.73141300082328697</v>
+        <v>0.72920388419392557</v>
       </c>
       <c r="J9">
-        <v>0.26858699917671314</v>
+        <v>0.27079611580607443</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.62067832635918407</v>
+        <v>0.62025342147749496</v>
       </c>
       <c r="O9">
-        <v>0.37932167364081587</v>
+        <v>0.3797465785225051</v>
       </c>
     </row>
     <row r="10">
@@ -5445,19 +5445,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.78215076274482975</v>
+        <v>0.76793388662479456</v>
       </c>
       <c r="J10">
-        <v>0.21784923725517033</v>
+        <v>0.23206611337520539</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.54976040745267274</v>
+        <v>0.53767806202076818</v>
       </c>
       <c r="O10">
-        <v>0.45023959254732737</v>
+        <v>0.46232193797923182</v>
       </c>
     </row>
     <row r="11">
@@ -5465,19 +5465,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.70338296164254877</v>
+        <v>0.70908020781134862</v>
       </c>
       <c r="J11">
-        <v>0.29661703835745123</v>
+        <v>0.29091979218865155</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.67206467190071906</v>
+        <v>0.6627152019278596</v>
       </c>
       <c r="O11">
-        <v>0.32793532809928089</v>
+        <v>0.33728479807214035</v>
       </c>
     </row>
     <row r="12">
@@ -5485,19 +5485,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.77703247234332207</v>
+        <v>0.76789858280113221</v>
       </c>
       <c r="J12">
-        <v>0.22296752765667791</v>
+        <v>0.23210141719886773</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.71037116781930698</v>
+        <v>0.68855177241542509</v>
       </c>
       <c r="O12">
-        <v>0.28962883218069307</v>
+        <v>0.31144822758457491</v>
       </c>
     </row>
     <row r="13">
@@ -5505,19 +5505,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.74575370320858736</v>
+        <v>0.7536539995849959</v>
       </c>
       <c r="J13">
-        <v>0.25424629679141258</v>
+        <v>0.24634600041500407</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.69458579089291139</v>
+        <v>0.69008240948106558</v>
       </c>
       <c r="O13">
-        <v>0.30541420910708861</v>
+        <v>0.30991759051893453</v>
       </c>
     </row>
     <row r="14">
@@ -5525,19 +5525,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.77561077838830061</v>
+        <v>0.7687610496886701</v>
       </c>
       <c r="J14">
-        <v>0.22438922161169944</v>
+        <v>0.23123895031132988</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.6514683936989708</v>
+        <v>0.66085187818780233</v>
       </c>
       <c r="O14">
-        <v>0.3485316063010292</v>
+        <v>0.33914812181219767</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.79621700243525939</v>
+        <v>0.79892249416798111</v>
       </c>
       <c r="J15">
-        <v>0.20378299756474053</v>
+        <v>0.20107750583201883</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.64288210026053738</v>
+        <v>0.64775878879787296</v>
       </c>
       <c r="O15">
-        <v>0.35711789973946262</v>
+        <v>0.35224121120212698</v>
       </c>
     </row>
     <row r="16">
@@ -5565,19 +5565,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.7919250535115121</v>
+        <v>0.79029935268387164</v>
       </c>
       <c r="J16">
-        <v>0.20807494648848798</v>
+        <v>0.20970064731612839</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.62487956682842127</v>
+        <v>0.619977321542315</v>
       </c>
       <c r="O16">
-        <v>0.37512043317157873</v>
+        <v>0.38002267845768506</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.79562032110003111</v>
+        <v>0.801192839597755</v>
       </c>
       <c r="J17">
-        <v>0.20437967889996897</v>
+        <v>0.198807160402245</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.67398891992527643</v>
+        <v>0.66735660710952294</v>
       </c>
       <c r="O17">
-        <v>0.32601108007472368</v>
+        <v>0.33264339289047712</v>
       </c>
     </row>
     <row r="18">
@@ -5605,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.78538894124026171</v>
+        <v>0.77743403504737274</v>
       </c>
       <c r="J18">
-        <v>0.21461105875973838</v>
+        <v>0.22256596495262732</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.72521589643157203</v>
+        <v>0.72715456810578238</v>
       </c>
       <c r="O18">
-        <v>0.27478410356842797</v>
+        <v>0.27284543189421767</v>
       </c>
     </row>
     <row r="19">
@@ -5625,19 +5625,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.78625276150652235</v>
+        <v>0.78346397349183738</v>
       </c>
       <c r="J19">
-        <v>0.21374723849347768</v>
+        <v>0.21653602650816264</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.71333258416950129</v>
+        <v>0.71039718290366294</v>
       </c>
       <c r="O19">
-        <v>0.2866674158304986</v>
+        <v>0.28960281709633712</v>
       </c>
     </row>
     <row r="20">
@@ -5645,19 +5645,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.78576271707151646</v>
+        <v>0.78973081964579928</v>
       </c>
       <c r="J20">
-        <v>0.21423728292848354</v>
+        <v>0.21026918035420067</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.65889477609407243</v>
+        <v>0.64940183488688774</v>
       </c>
       <c r="O20">
-        <v>0.34110522390592751</v>
+        <v>0.35059816511311231</v>
       </c>
     </row>
     <row r="21">
@@ -5665,19 +5665,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.78063150585324281</v>
+        <v>0.77939377804063992</v>
       </c>
       <c r="J21">
-        <v>0.21936849414675724</v>
+        <v>0.22060622195936008</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.71800991033853079</v>
+        <v>0.71845424145252534</v>
       </c>
       <c r="O21">
-        <v>0.28199008966146921</v>
+        <v>0.2815457585474746</v>
       </c>
     </row>
     <row r="22">
@@ -5685,19 +5685,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.75093557935244593</v>
+        <v>0.74821438410976271</v>
       </c>
       <c r="J22">
-        <v>0.24906442064755405</v>
+        <v>0.25178561589023729</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.69862688001979489</v>
+        <v>0.69384747478108277</v>
       </c>
       <c r="O22">
-        <v>0.30137311998020511</v>
+        <v>0.30615252521891717</v>
       </c>
     </row>
     <row r="23">
@@ -5705,19 +5705,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.77106359020039816</v>
+        <v>0.75611298311761821</v>
       </c>
       <c r="J23">
-        <v>0.22893640979960175</v>
+        <v>0.24388701688238187</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.65028499469603074</v>
+        <v>0.65453325754444025</v>
       </c>
       <c r="O23">
-        <v>0.34971500530396915</v>
+        <v>0.34546674245555975</v>
       </c>
     </row>
     <row r="24">
@@ -5725,19 +5725,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.79072405059663453</v>
+        <v>0.78809751102257686</v>
       </c>
       <c r="J24">
-        <v>0.20927594940336547</v>
+        <v>0.21190248897742309</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.72025552545376426</v>
+        <v>0.7205224677060692</v>
       </c>
       <c r="O24">
-        <v>0.27974447454623574</v>
+        <v>0.27947753229393074</v>
       </c>
     </row>
     <row r="25">
@@ -5745,19 +5745,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.74979092293415928</v>
+        <v>0.74653563001970058</v>
       </c>
       <c r="J25">
-        <v>0.25020907706584072</v>
+        <v>0.25346436998029948</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.66849053557939342</v>
+        <v>0.66828618535947293</v>
       </c>
       <c r="O25">
-        <v>0.33150946442060664</v>
+        <v>0.33171381464052713</v>
       </c>
     </row>
     <row r="26">
@@ -5765,19 +5765,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.78739895649578917</v>
+        <v>0.78908686597629607</v>
       </c>
       <c r="J26">
-        <v>0.2126010435042108</v>
+        <v>0.21091313402370393</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.66074883585654276</v>
+        <v>0.65696188143226986</v>
       </c>
       <c r="O26">
-        <v>0.33925116414345724</v>
+        <v>0.3430381185677302</v>
       </c>
     </row>
     <row r="27">
@@ -5785,19 +5785,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.77509052563601233</v>
+        <v>0.77614367706875897</v>
       </c>
       <c r="J27">
-        <v>0.22490947436398775</v>
+        <v>0.223856322931241</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.71926716140645253</v>
+        <v>0.72440262843216285</v>
       </c>
       <c r="O27">
-        <v>0.28073283859354753</v>
+        <v>0.27559737156783709</v>
       </c>
     </row>
     <row r="28">
@@ -5805,19 +5805,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.7733386634404934</v>
+        <v>0.77880767158578579</v>
       </c>
       <c r="J28">
-        <v>0.22666133655950657</v>
+        <v>0.22119232841421416</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.68636386559201501</v>
+        <v>0.6825506204555184</v>
       </c>
       <c r="O28">
-        <v>0.31363613440798493</v>
+        <v>0.31744937954448171</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.80342792469143254</v>
+        <v>0.80108853286795612</v>
       </c>
       <c r="J29">
-        <v>0.19657207530856743</v>
+        <v>0.19891146713204391</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.68903341159167608</v>
+        <v>0.68873567500807686</v>
       </c>
       <c r="O29">
-        <v>0.31096658840832386</v>
+        <v>0.31126432499192325</v>
       </c>
     </row>
     <row r="30">
@@ -5845,19 +5845,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.76449773879679561</v>
+        <v>0.76625319648748713</v>
       </c>
       <c r="J30">
-        <v>0.23550226120320442</v>
+        <v>0.23374680351251284</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70703864840536168</v>
+        <v>0.6990914277887903</v>
       </c>
       <c r="O30">
-        <v>0.29296135159463843</v>
+        <v>0.30090857221120959</v>
       </c>
     </row>
     <row r="31">
@@ -5865,19 +5865,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.81575300739817935</v>
+        <v>0.82050927410113428</v>
       </c>
       <c r="J31">
-        <v>0.18424699260182059</v>
+        <v>0.1794907258988658</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.68167219622071984</v>
+        <v>0.68868399573084826</v>
       </c>
       <c r="O31">
-        <v>0.31832780377928011</v>
+        <v>0.31131600426915174</v>
       </c>
     </row>
     <row r="32">
@@ -5885,19 +5885,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.79969160575522957</v>
+        <v>0.80056774144649911</v>
       </c>
       <c r="J32">
-        <v>0.20030839424477048</v>
+        <v>0.19943225855350086</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.71863726771033465</v>
+        <v>0.71991171455634073</v>
       </c>
       <c r="O32">
-        <v>0.28136273228966546</v>
+        <v>0.28008828544365927</v>
       </c>
     </row>
     <row r="33">
@@ -5905,19 +5905,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.77844960491973825</v>
+        <v>0.77858994302750051</v>
       </c>
       <c r="J33">
-        <v>0.22155039508026178</v>
+        <v>0.22141005697249949</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.70286133649163396</v>
+        <v>0.70504253598063327</v>
       </c>
       <c r="O33">
-        <v>0.29713866350836604</v>
+        <v>0.29495746401936673</v>
       </c>
     </row>
     <row r="34">
@@ -5925,19 +5925,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.77579589080166456</v>
+        <v>0.77605583534404898</v>
       </c>
       <c r="J34">
-        <v>0.22420410919833542</v>
+        <v>0.22394416465595096</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71128125027283784</v>
+        <v>0.72446597609545049</v>
       </c>
       <c r="O34">
-        <v>0.28871874972716211</v>
+        <v>0.27553402390454956</v>
       </c>
     </row>
     <row r="35">
@@ -5945,19 +5945,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.77326671957840654</v>
+        <v>0.76750369278713593</v>
       </c>
       <c r="J35">
-        <v>0.22673328042159352</v>
+        <v>0.23249630721286416</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.72572323364322611</v>
+        <v>0.7275161935552501</v>
       </c>
       <c r="O35">
-        <v>0.27427676635677406</v>
+        <v>0.27248380644474995</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.71300188035026135</v>
+        <v>0.71881301002447306</v>
       </c>
       <c r="J36">
-        <v>0.28699811964973876</v>
+        <v>0.28118698997552677</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.73537582643378552</v>
+        <v>0.74249877769315398</v>
       </c>
       <c r="O36">
-        <v>0.26462417356621454</v>
+        <v>0.25750122230684602</v>
       </c>
     </row>
     <row r="37">
@@ -5985,19 +5985,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.78719380814947937</v>
+        <v>0.78207785003178065</v>
       </c>
       <c r="J37">
-        <v>0.21280619185052069</v>
+        <v>0.21792214996821938</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.7397469604337924</v>
+        <v>0.74167121996365137</v>
       </c>
       <c r="O37">
-        <v>0.26025303956620766</v>
+        <v>0.25832878003634857</v>
       </c>
     </row>
     <row r="38">
@@ -6005,19 +6005,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.74236253757943227</v>
+        <v>0.74684452073134544</v>
       </c>
       <c r="J38">
-        <v>0.25763746242056773</v>
+        <v>0.25315547926865462</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.7699484089295755</v>
+        <v>0.77037128182274262</v>
       </c>
       <c r="O38">
-        <v>0.2300515910704245</v>
+        <v>0.2296287181772575</v>
       </c>
     </row>
     <row r="39">
@@ -6025,19 +6025,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.72731203450102211</v>
+        <v>0.72973582089971267</v>
       </c>
       <c r="J39">
-        <v>0.272687965498978</v>
+        <v>0.27026417910028738</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.79866288386410855</v>
+        <v>0.80395819094674381</v>
       </c>
       <c r="O39">
-        <v>0.20133711613589136</v>
+        <v>0.19604180905325616</v>
       </c>
     </row>
     <row r="40">
@@ -6045,19 +6045,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.71901642280084765</v>
+        <v>0.71978592523836737</v>
       </c>
       <c r="J40">
-        <v>0.28098357719915235</v>
+        <v>0.28021407476163274</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.78275239406948405</v>
+        <v>0.78824054764608753</v>
       </c>
       <c r="O40">
-        <v>0.21724760593051595</v>
+        <v>0.21175945235391239</v>
       </c>
     </row>
     <row r="41">
@@ -6065,19 +6065,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.73995583843282731</v>
+        <v>0.73677279863689371</v>
       </c>
       <c r="J41">
-        <v>0.26004416156717264</v>
+        <v>0.26322720136310623</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.77143984419684175</v>
+        <v>0.76809153658695906</v>
       </c>
       <c r="O41">
-        <v>0.2285601558031583</v>
+        <v>0.23190846341304089</v>
       </c>
     </row>
     <row r="42">
@@ -6085,19 +6085,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.68488137613351585</v>
+        <v>0.69221661469232076</v>
       </c>
       <c r="J42">
-        <v>0.31511862386648409</v>
+        <v>0.30778338530767918</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.81888364832609206</v>
+        <v>0.81954160623263084</v>
       </c>
       <c r="O42">
-        <v>0.18111635167390797</v>
+        <v>0.18045839376736927</v>
       </c>
     </row>
     <row r="43">
@@ -6105,19 +6105,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.67760617313001748</v>
+        <v>0.67908628623258038</v>
       </c>
       <c r="J43">
-        <v>0.32239382686998258</v>
+        <v>0.32091371376741956</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.79976052449538315</v>
+        <v>0.80321759024584782</v>
       </c>
       <c r="O43">
-        <v>0.20023947550461679</v>
+        <v>0.19678240975415212</v>
       </c>
     </row>
     <row r="44">
@@ -6125,19 +6125,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.70686193568956379</v>
+        <v>0.70726914593653811</v>
       </c>
       <c r="J44">
-        <v>0.29313806431043621</v>
+        <v>0.29273085406346189</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.79487665619083958</v>
+        <v>0.7976825560429911</v>
       </c>
       <c r="O44">
-        <v>0.20512334380916047</v>
+        <v>0.20231744395700879</v>
       </c>
     </row>
     <row r="45">
@@ -6145,19 +6145,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.66969068418483124</v>
+        <v>0.66942002553129099</v>
       </c>
       <c r="J45">
-        <v>0.3303093158151687</v>
+        <v>0.33057997446870901</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.81686975877580759</v>
+        <v>0.81793343422781206</v>
       </c>
       <c r="O45">
-        <v>0.18313024122419247</v>
+        <v>0.18206656577218794</v>
       </c>
     </row>
     <row r="46">
@@ -6165,19 +6165,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.64326876217633455</v>
+        <v>0.64057072144490657</v>
       </c>
       <c r="J46">
-        <v>0.35673123782366539</v>
+        <v>0.35942927855509332</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.82445032098966176</v>
+        <v>0.81706082792442725</v>
       </c>
       <c r="O46">
-        <v>0.17554967901033824</v>
+        <v>0.18293917207557273</v>
       </c>
     </row>
     <row r="47">
@@ -6185,19 +6185,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.67937202335704749</v>
+        <v>0.67318550060892013</v>
       </c>
       <c r="J47">
-        <v>0.32062797664295239</v>
+        <v>0.32681449939107993</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.775001358232559</v>
+        <v>0.77677870408921201</v>
       </c>
       <c r="O47">
-        <v>0.224998641767441</v>
+        <v>0.22322129591078801</v>
       </c>
     </row>
     <row r="48">
@@ -6205,19 +6205,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.66018198858091348</v>
+        <v>0.66499289268310191</v>
       </c>
       <c r="J48">
-        <v>0.33981801141908646</v>
+        <v>0.3350071073168982</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.81491586808666305</v>
+        <v>0.81146762033985764</v>
       </c>
       <c r="O48">
-        <v>0.18508413191333697</v>
+        <v>0.18853237966014239</v>
       </c>
     </row>
     <row r="49">
@@ -6225,19 +6225,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.63472914746899334</v>
+        <v>0.63348767179724652</v>
       </c>
       <c r="J49">
-        <v>0.36527085253100661</v>
+        <v>0.36651232820275353</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.78154715343647985</v>
+        <v>0.78207894015772828</v>
       </c>
       <c r="O49">
-        <v>0.21845284656352015</v>
+        <v>0.2179210598422717</v>
       </c>
     </row>
     <row r="50">
@@ -6245,19 +6245,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.60142395670676896</v>
+        <v>0.59855211989259682</v>
       </c>
       <c r="J50">
-        <v>0.39857604329323099</v>
+        <v>0.40144788010740312</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.77344811505372679</v>
+        <v>0.76928783301625414</v>
       </c>
       <c r="O50">
-        <v>0.22655188494627321</v>
+        <v>0.23071216698374594</v>
       </c>
     </row>
     <row r="51">
@@ -6265,19 +6265,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.59601483810100786</v>
+        <v>0.60847342409807337</v>
       </c>
       <c r="J51">
-        <v>0.4039851618989922</v>
+        <v>0.39152657590192669</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.78858684678371727</v>
+        <v>0.79295207622942887</v>
       </c>
       <c r="O51">
-        <v>0.21141315321628271</v>
+        <v>0.20704792377057113</v>
       </c>
     </row>
     <row r="52">
@@ -6285,19 +6285,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.60023157139496197</v>
+        <v>0.60319325763378251</v>
       </c>
       <c r="J52">
-        <v>0.39976842860503797</v>
+        <v>0.39680674236621749</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.8121140150904641</v>
+        <v>0.81473535856169466</v>
       </c>
       <c r="O52">
-        <v>0.18788598490953584</v>
+        <v>0.18526464143830543</v>
       </c>
     </row>
     <row r="53">
@@ -6305,19 +6305,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.61388910694797871</v>
+        <v>0.62087913650128324</v>
       </c>
       <c r="J53">
-        <v>0.3861108930520214</v>
+        <v>0.37912086349871671</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.77740710377444278</v>
+        <v>0.78085460595700307</v>
       </c>
       <c r="O53">
-        <v>0.22259289622555725</v>
+        <v>0.21914539404299688</v>
       </c>
     </row>
     <row r="54">
@@ -7007,19 +7007,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.70645675906475069</v>
+        <v>0.71219804342815685</v>
       </c>
       <c r="J3">
-        <v>0.29354324093524936</v>
+        <v>0.28780195657184315</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.75861306230309589</v>
+        <v>0.75712395005224942</v>
       </c>
       <c r="O3">
-        <v>0.24138693769690414</v>
+        <v>0.24287604994775053</v>
       </c>
     </row>
     <row r="4">
@@ -7027,19 +7027,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.69764895795649506</v>
+        <v>0.68757687289371661</v>
       </c>
       <c r="J4">
-        <v>0.30235104204350499</v>
+        <v>0.31242312710628339</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.71242731924825431</v>
+        <v>0.71288749287030351</v>
       </c>
       <c r="O4">
-        <v>0.28757268075174569</v>
+        <v>0.28711250712969644</v>
       </c>
     </row>
     <row r="5">
@@ -7047,19 +7047,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.6499507448886459</v>
+        <v>0.63931748493940244</v>
       </c>
       <c r="J5">
-        <v>0.3500492551113541</v>
+        <v>0.36068251506059756</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.73051642604941391</v>
+        <v>0.72735768662565059</v>
       </c>
       <c r="O5">
-        <v>0.26948357395058614</v>
+        <v>0.27264231337434941</v>
       </c>
     </row>
     <row r="6">
@@ -7067,19 +7067,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.66056419683939682</v>
+        <v>0.66333939769288486</v>
       </c>
       <c r="J6">
-        <v>0.33943580316060312</v>
+        <v>0.33666060230711525</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.73910315316537456</v>
+        <v>0.74105983329631397</v>
       </c>
       <c r="O6">
-        <v>0.26089684683462538</v>
+        <v>0.25894016670368603</v>
       </c>
     </row>
     <row r="7">
@@ -7087,19 +7087,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.68001911402273085</v>
+        <v>0.67941184902985452</v>
       </c>
       <c r="J7">
-        <v>0.31998088597726915</v>
+        <v>0.32058815097014542</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.74704690193085588</v>
+        <v>0.7493064242057822</v>
       </c>
       <c r="O7">
-        <v>0.25295309806914407</v>
+        <v>0.2506935757942178</v>
       </c>
     </row>
     <row r="8">
@@ -7107,19 +7107,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.68820144500808766</v>
+        <v>0.68501718763449537</v>
       </c>
       <c r="J8">
-        <v>0.31179855499191245</v>
+        <v>0.31498281236550457</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.76148696533836424</v>
+        <v>0.76094713190333108</v>
       </c>
       <c r="O8">
-        <v>0.2385130346616357</v>
+        <v>0.2390528680966689</v>
       </c>
     </row>
     <row r="9">
@@ -7127,19 +7127,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.65196192441314493</v>
+        <v>0.6608225872614838</v>
       </c>
       <c r="J9">
-        <v>0.34803807558685507</v>
+        <v>0.33917741273851615</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.73340946971161702</v>
+        <v>0.73716232779086721</v>
       </c>
       <c r="O9">
-        <v>0.26659053028838298</v>
+        <v>0.26283767220913273</v>
       </c>
     </row>
     <row r="10">
@@ -7147,19 +7147,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.70342397081904473</v>
+        <v>0.7089117309889349</v>
       </c>
       <c r="J10">
-        <v>0.29657602918095533</v>
+        <v>0.29108826901106521</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.74911176805298407</v>
+        <v>0.74588203920398022</v>
       </c>
       <c r="O10">
-        <v>0.25088823194701593</v>
+        <v>0.25411796079601973</v>
       </c>
     </row>
     <row r="11">
@@ -7167,19 +7167,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.66425081937928632</v>
+        <v>0.66500578078666495</v>
       </c>
       <c r="J11">
-        <v>0.33574918062071368</v>
+        <v>0.33499421921333505</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.75885318209298191</v>
+        <v>0.76285560180602108</v>
       </c>
       <c r="O11">
-        <v>0.24114681790701806</v>
+        <v>0.23714439819397892</v>
       </c>
     </row>
     <row r="12">
@@ -7187,19 +7187,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.68872641834544235</v>
+        <v>0.68898161431584037</v>
       </c>
       <c r="J12">
-        <v>0.31127358165455771</v>
+        <v>0.31101838568415957</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.73124708316379905</v>
+        <v>0.73087916778036999</v>
       </c>
       <c r="O12">
-        <v>0.26875291683620084</v>
+        <v>0.26912083221963007</v>
       </c>
     </row>
     <row r="13">
@@ -7207,19 +7207,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.68426239879370032</v>
+        <v>0.67922522944816477</v>
       </c>
       <c r="J13">
-        <v>0.31573760120629984</v>
+        <v>0.32077477055183512</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.75336084370293988</v>
+        <v>0.75989082853574208</v>
       </c>
       <c r="O13">
-        <v>0.24663915629706015</v>
+        <v>0.24010917146425798</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.70752814040356571</v>
+        <v>0.70369924169515086</v>
       </c>
       <c r="J14">
-        <v>0.29247185959643424</v>
+        <v>0.2963007583048492</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.75537161098451366</v>
+        <v>0.75423424235000658</v>
       </c>
       <c r="O14">
-        <v>0.24462838901548634</v>
+        <v>0.24576575764999339</v>
       </c>
     </row>
     <row r="15">
@@ -7247,19 +7247,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.67949909705512845</v>
+        <v>0.68038285250909736</v>
       </c>
       <c r="J15">
-        <v>0.32050090294487155</v>
+        <v>0.3196171474909027</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.76805344158445177</v>
+        <v>0.76477918350103036</v>
       </c>
       <c r="O15">
-        <v>0.23194655841554818</v>
+        <v>0.23522081649896964</v>
       </c>
     </row>
     <row r="16">
@@ -7267,19 +7267,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.66096421825247609</v>
+        <v>0.67001870371141992</v>
       </c>
       <c r="J16">
-        <v>0.33903578174752408</v>
+        <v>0.32998129628857997</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.7785260339230482</v>
+        <v>0.78249069804074345</v>
       </c>
       <c r="O16">
-        <v>0.22147396607695183</v>
+        <v>0.21750930195925658</v>
       </c>
     </row>
     <row r="17">
@@ -7287,19 +7287,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.6785844638057994</v>
+        <v>0.67594327120430653</v>
       </c>
       <c r="J17">
-        <v>0.3214155361942006</v>
+        <v>0.32405672879569342</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.7802128054057772</v>
+        <v>0.78249897187827999</v>
       </c>
       <c r="O17">
-        <v>0.21978719459422277</v>
+        <v>0.21750102812172001</v>
       </c>
     </row>
     <row r="18">
@@ -7307,19 +7307,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.67948875223249738</v>
+        <v>0.68472141622749272</v>
       </c>
       <c r="J18">
-        <v>0.32051124776750256</v>
+        <v>0.31527858377250728</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.77942612810580281</v>
+        <v>0.77368289789532585</v>
       </c>
       <c r="O18">
-        <v>0.22057387189419725</v>
+        <v>0.22631710210467409</v>
       </c>
     </row>
     <row r="19">
@@ -7327,19 +7327,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.6712297775766185</v>
+        <v>0.66765795080502244</v>
       </c>
       <c r="J19">
-        <v>0.3287702224233815</v>
+        <v>0.33234204919497756</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.78954114824722188</v>
+        <v>0.78977007183270209</v>
       </c>
       <c r="O19">
-        <v>0.21045885175277815</v>
+        <v>0.21022992816729791</v>
       </c>
     </row>
     <row r="20">
@@ -7347,19 +7347,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64349990888030884</v>
+        <v>0.6341720897991171</v>
       </c>
       <c r="J20">
-        <v>0.35650009111969122</v>
+        <v>0.36582791020088301</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.81136980950437809</v>
+        <v>0.81030333176409386</v>
       </c>
       <c r="O20">
-        <v>0.18863019049562185</v>
+        <v>0.18969666823590614</v>
       </c>
     </row>
     <row r="21">
@@ -7367,19 +7367,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.62832075465374992</v>
+        <v>0.62984810927760404</v>
       </c>
       <c r="J21">
-        <v>0.37167924534625008</v>
+        <v>0.37015189072239607</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.80628188253400068</v>
+        <v>0.80015115806244641</v>
       </c>
       <c r="O21">
-        <v>0.19371811746599932</v>
+        <v>0.19984884193755359</v>
       </c>
     </row>
     <row r="22">
@@ -7387,19 +7387,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.6628086590892589</v>
+        <v>0.65666646914307292</v>
       </c>
       <c r="J22">
-        <v>0.33719134091074104</v>
+        <v>0.34333353085692708</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80086306996795253</v>
+        <v>0.80119943028513552</v>
       </c>
       <c r="O22">
-        <v>0.19913693003204747</v>
+        <v>0.19880056971486457</v>
       </c>
     </row>
     <row r="23">
@@ -7407,19 +7407,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.65581573361978929</v>
+        <v>0.65816815572939702</v>
       </c>
       <c r="J23">
-        <v>0.34418426638021071</v>
+        <v>0.34183184427060292</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.80229453933223494</v>
+        <v>0.80033310845488392</v>
       </c>
       <c r="O23">
-        <v>0.19770546066776501</v>
+        <v>0.19966689154511605</v>
       </c>
     </row>
     <row r="24">
@@ -7427,19 +7427,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.64957052179827313</v>
+        <v>0.65117110562898672</v>
       </c>
       <c r="J24">
-        <v>0.35042947820172682</v>
+        <v>0.34882889437101328</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.79416285253157537</v>
+        <v>0.79455240241885849</v>
       </c>
       <c r="O24">
-        <v>0.20583714746842466</v>
+        <v>0.20544759758114156</v>
       </c>
     </row>
     <row r="25">
@@ -7447,19 +7447,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.57448557686689483</v>
+        <v>0.57441447081959307</v>
       </c>
       <c r="J25">
-        <v>0.42551442313310511</v>
+        <v>0.42558552918040682</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.79016998734186372</v>
+        <v>0.78983198752395511</v>
       </c>
       <c r="O25">
-        <v>0.20983001265813631</v>
+        <v>0.21016801247604489</v>
       </c>
     </row>
     <row r="26">
@@ -7467,19 +7467,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.63065108442291729</v>
+        <v>0.62820246192473284</v>
       </c>
       <c r="J26">
-        <v>0.36934891557708277</v>
+        <v>0.37179753807526716</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.79893256803592727</v>
+        <v>0.80493362422701142</v>
       </c>
       <c r="O26">
-        <v>0.20106743196407278</v>
+        <v>0.19506637577298855</v>
       </c>
     </row>
     <row r="27">
@@ -7487,19 +7487,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.60921291322139082</v>
+        <v>0.61467528337882515</v>
       </c>
       <c r="J27">
-        <v>0.39078708677860918</v>
+        <v>0.38532471662117496</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.81307640699881922</v>
+        <v>0.81403234862363794</v>
       </c>
       <c r="O27">
-        <v>0.1869235930011808</v>
+        <v>0.18596765137636209</v>
       </c>
     </row>
     <row r="28">
@@ -7507,19 +7507,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.64415389726484951</v>
+        <v>0.65134769071639109</v>
       </c>
       <c r="J28">
-        <v>0.35584610273515044</v>
+        <v>0.34865230928360891</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.81741041936719472</v>
+        <v>0.8201330435706915</v>
       </c>
       <c r="O28">
-        <v>0.18258958063280523</v>
+        <v>0.17986695642930861</v>
       </c>
     </row>
     <row r="29">
@@ -7527,19 +7527,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.64858178927131638</v>
+        <v>0.63751927537753328</v>
       </c>
       <c r="J29">
-        <v>0.35141821072868357</v>
+        <v>0.36248072462246667</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.84414690904554723</v>
+        <v>0.84304249742451087</v>
       </c>
       <c r="O29">
-        <v>0.15585309095445277</v>
+        <v>0.1569575025754891</v>
       </c>
     </row>
     <row r="30">
@@ -7547,19 +7547,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.61846289034422941</v>
+        <v>0.61761013933101894</v>
       </c>
       <c r="J30">
-        <v>0.38153710965577048</v>
+        <v>0.38238986066898106</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79778991483024808</v>
+        <v>0.79570314311317747</v>
       </c>
       <c r="O30">
-        <v>0.20221008516975186</v>
+        <v>0.20429685688682259</v>
       </c>
     </row>
     <row r="31">
@@ -7567,19 +7567,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.60018946198193124</v>
+        <v>0.60167018602736155</v>
       </c>
       <c r="J31">
-        <v>0.39981053801806871</v>
+        <v>0.39832981397263845</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.84740492547344093</v>
+        <v>0.84349336587427493</v>
       </c>
       <c r="O31">
-        <v>0.15259507452655907</v>
+        <v>0.15650663412572507</v>
       </c>
     </row>
     <row r="32">
@@ -7587,19 +7587,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.64131654556866413</v>
+        <v>0.64712258349615381</v>
       </c>
       <c r="J32">
-        <v>0.35868345443133587</v>
+        <v>0.35287741650384624</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.81190606869055049</v>
+        <v>0.81071414646109763</v>
       </c>
       <c r="O32">
-        <v>0.18809393130944943</v>
+        <v>0.18928585353890232</v>
       </c>
     </row>
     <row r="33">
@@ -7607,19 +7607,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65597892273405634</v>
+        <v>0.65250579444719647</v>
       </c>
       <c r="J33">
-        <v>0.34402107726594378</v>
+        <v>0.34749420555280358</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.83454092717363171</v>
+        <v>0.82948252847853787</v>
       </c>
       <c r="O33">
-        <v>0.16545907282636818</v>
+        <v>0.17051747152146207</v>
       </c>
     </row>
     <row r="34">
@@ -7627,19 +7627,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.59350833893261112</v>
+        <v>0.59514445820475781</v>
       </c>
       <c r="J34">
-        <v>0.40649166106738877</v>
+        <v>0.40485554179524214</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.82244378172431287</v>
+        <v>0.82273449018000144</v>
       </c>
       <c r="O34">
-        <v>0.17755621827568704</v>
+        <v>0.17726550981999853</v>
       </c>
     </row>
     <row r="35">
@@ -7647,19 +7647,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.62705689185070568</v>
+        <v>0.62982944921580264</v>
       </c>
       <c r="J35">
-        <v>0.37294310814929432</v>
+        <v>0.37017055078419736</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.86232278916263438</v>
+        <v>0.86338949057670422</v>
       </c>
       <c r="O35">
-        <v>0.13767721083736567</v>
+        <v>0.13661050942329578</v>
       </c>
     </row>
     <row r="36">
@@ -7667,19 +7667,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.59950580810617704</v>
+        <v>0.59837777216977672</v>
       </c>
       <c r="J36">
-        <v>0.40049419189382301</v>
+        <v>0.40162222783022333</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.87111495870518629</v>
+        <v>0.87266394172242256</v>
       </c>
       <c r="O36">
-        <v>0.12888504129481368</v>
+        <v>0.12733605827757732</v>
       </c>
     </row>
     <row r="37">
@@ -7687,19 +7687,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.56635862932059222</v>
+        <v>0.56505035629248401</v>
       </c>
       <c r="J37">
-        <v>0.43364137067940767</v>
+        <v>0.43494964370751604</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.8468166553241987</v>
+        <v>0.8440742775343355</v>
       </c>
       <c r="O37">
-        <v>0.15318334467580133</v>
+        <v>0.15592572246566455</v>
       </c>
     </row>
     <row r="38">
@@ -7707,19 +7707,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.57219816542746327</v>
+        <v>0.56335747379417378</v>
       </c>
       <c r="J38">
-        <v>0.42780183457253673</v>
+        <v>0.43664252620582622</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.86934166732720131</v>
+        <v>0.86895929405423966</v>
       </c>
       <c r="O38">
-        <v>0.13065833267279867</v>
+        <v>0.13104070594576037</v>
       </c>
     </row>
     <row r="39">
@@ -7727,19 +7727,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.57894744217341232</v>
+        <v>0.57928540305624943</v>
       </c>
       <c r="J39">
-        <v>0.42105255782658768</v>
+        <v>0.42071459694375057</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.8524233101603339</v>
+        <v>0.84520117593228472</v>
       </c>
       <c r="O39">
-        <v>0.14757668983966613</v>
+        <v>0.15479882406771536</v>
       </c>
     </row>
     <row r="40">
@@ -7747,19 +7747,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.54623359161603657</v>
+        <v>0.53720562253075821</v>
       </c>
       <c r="J40">
-        <v>0.45376640838396348</v>
+        <v>0.46279437746924185</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.89624749459072528</v>
+        <v>0.89409264260252497</v>
       </c>
       <c r="O40">
-        <v>0.10375250540927482</v>
+        <v>0.105907357397475</v>
       </c>
     </row>
     <row r="41">
@@ -7767,19 +7767,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.53625828620639415</v>
+        <v>0.54870785882422368</v>
       </c>
       <c r="J41">
-        <v>0.46374171379360585</v>
+        <v>0.45129214117577632</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.8959522959826477</v>
+        <v>0.90053226232371331</v>
       </c>
       <c r="O41">
-        <v>0.10404770401735233</v>
+        <v>0.099467737676286694</v>
       </c>
     </row>
     <row r="42">
@@ -7787,19 +7787,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.53513896379001413</v>
+        <v>0.52984125383921044</v>
       </c>
       <c r="J42">
-        <v>0.46486103620998587</v>
+        <v>0.47015874616078956</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.88578517727180817</v>
+        <v>0.8871342690400893</v>
       </c>
       <c r="O42">
-        <v>0.11421482272819192</v>
+        <v>0.11286573095991077</v>
       </c>
     </row>
     <row r="43">
@@ -7807,19 +7807,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.47506468544688701</v>
+        <v>0.47506661304138753</v>
       </c>
       <c r="J43">
-        <v>0.52493531455311293</v>
+        <v>0.52493338695861247</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.89919685276603667</v>
+        <v>0.8950629908451837</v>
       </c>
       <c r="O43">
-        <v>0.10080314723396326</v>
+        <v>0.10493700915481624</v>
       </c>
     </row>
     <row r="44">
@@ -7827,19 +7827,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.50688920043059249</v>
+        <v>0.53674638684496478</v>
       </c>
       <c r="J44">
-        <v>0.49311079956940745</v>
+        <v>0.46325361315503516</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.90351947215740169</v>
+        <v>0.90546176288158797</v>
       </c>
       <c r="O44">
-        <v>0.09648052784259821</v>
+        <v>0.094538237118412</v>
       </c>
     </row>
     <row r="45">
@@ -7847,19 +7847,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.45327346495852056</v>
+        <v>0.45225855632359063</v>
       </c>
       <c r="J45">
-        <v>0.5467265350414795</v>
+        <v>0.54774144367640942</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.89291398690273494</v>
+        <v>0.89242919852035552</v>
       </c>
       <c r="O45">
-        <v>0.10708601309726502</v>
+        <v>0.10757080147964455</v>
       </c>
     </row>
     <row r="46">
@@ -7867,19 +7867,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.40243212406999512</v>
+        <v>0.40917333114947529</v>
       </c>
       <c r="J46">
-        <v>0.59756787593000482</v>
+        <v>0.59082666885052471</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.88382194831149341</v>
+        <v>0.88398683315458404</v>
       </c>
       <c r="O46">
-        <v>0.11617805168850663</v>
+        <v>0.11601316684541599</v>
       </c>
     </row>
     <row r="47">
@@ -7887,19 +7887,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.49486985395134769</v>
+        <v>0.50019422415849812</v>
       </c>
       <c r="J47">
-        <v>0.50513014604865225</v>
+        <v>0.49980577584150199</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.8839663470966056</v>
+        <v>0.88488499149356237</v>
       </c>
       <c r="O47">
-        <v>0.11603365290339442</v>
+        <v>0.1151150085064376</v>
       </c>
     </row>
     <row r="48">
@@ -7907,19 +7907,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.43417930889817641</v>
+        <v>0.43933600733064526</v>
       </c>
       <c r="J48">
-        <v>0.56582069110182354</v>
+        <v>0.56066399266935474</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.89465559075328793</v>
+        <v>0.89428736545577536</v>
       </c>
       <c r="O48">
-        <v>0.10534440924671211</v>
+        <v>0.10571263454422469</v>
       </c>
     </row>
     <row r="49">
@@ -7927,19 +7927,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.54869366883345216</v>
+        <v>0.54488172902393128</v>
       </c>
       <c r="J49">
-        <v>0.45130633116654789</v>
+        <v>0.45511827097606877</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.90277165167264484</v>
+        <v>0.9032382537093735</v>
       </c>
       <c r="O49">
-        <v>0.097228348327355218</v>
+        <v>0.096761746290626532</v>
       </c>
     </row>
     <row r="50">
@@ -7947,19 +7947,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.47295279277783248</v>
+        <v>0.48948796172641618</v>
       </c>
       <c r="J50">
-        <v>0.52704720722216758</v>
+        <v>0.51051203827358393</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.88773409618880361</v>
+        <v>0.88791240334336297</v>
       </c>
       <c r="O50">
-        <v>0.11226590381119633</v>
+        <v>0.11208759665663702</v>
       </c>
     </row>
     <row r="51">
@@ -7967,19 +7967,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.48354211359103216</v>
+        <v>0.48652294902109333</v>
       </c>
       <c r="J51">
-        <v>0.51645788640896795</v>
+        <v>0.51347705097890672</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.86870673658241759</v>
+        <v>0.86807363893327627</v>
       </c>
       <c r="O51">
-        <v>0.13129326341758246</v>
+        <v>0.13192636106672379</v>
       </c>
     </row>
     <row r="52">
@@ -7987,19 +7987,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.44675184200469215</v>
+        <v>0.45291054352972376</v>
       </c>
       <c r="J52">
-        <v>0.5532481579953078</v>
+        <v>0.54708945647027618</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.90796377702479314</v>
+        <v>0.90304286929815747</v>
       </c>
       <c r="O52">
-        <v>0.092036222975206819</v>
+        <v>0.096957130701842517</v>
       </c>
     </row>
     <row r="53">
@@ -8007,19 +8007,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.52102491342963198</v>
+        <v>0.51538183057606413</v>
       </c>
       <c r="J53">
-        <v>0.47897508657036797</v>
+        <v>0.48461816942393587</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.89905902301723462</v>
+        <v>0.89662083965408279</v>
       </c>
       <c r="O53">
-        <v>0.1009409769827654</v>
+        <v>0.10337916034591715</v>
       </c>
     </row>
     <row r="54">
@@ -8539,31 +8539,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.064373772136573262</v>
+        <v>0.065258013126696018</v>
       </c>
       <c r="C3">
-        <v>0.15210272223496529</v>
+        <v>0.15386613864855148</v>
       </c>
       <c r="D3">
-        <v>0.78352350562846151</v>
+        <v>0.78087584822475253</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.51050630346902015</v>
+        <v>0.50120742653834949</v>
       </c>
       <c r="J3">
-        <v>0.48949369653097979</v>
+        <v>0.4987925734616504</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.8596665264140444</v>
+        <v>0.85872133670500206</v>
       </c>
       <c r="O3">
-        <v>0.14033347358595563</v>
+        <v>0.14127866329499791</v>
       </c>
     </row>
     <row r="4">
@@ -8571,31 +8571,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.062562455387357455</v>
+        <v>0.061840692362862035</v>
       </c>
       <c r="C4">
-        <v>0.15727493449695612</v>
+        <v>0.15951281106411561</v>
       </c>
       <c r="D4">
-        <v>0.78016261011568644</v>
+        <v>0.77864649657302232</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.52048983125709636</v>
+        <v>0.51360358708092502</v>
       </c>
       <c r="J4">
-        <v>0.47951016874290359</v>
+        <v>0.48639641291907498</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.84851392063571052</v>
+        <v>0.84893024159106911</v>
       </c>
       <c r="O4">
-        <v>0.1514860793642894</v>
+        <v>0.15106975840893086</v>
       </c>
     </row>
     <row r="5">
@@ -8603,31 +8603,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.074314630114923536</v>
+        <v>0.074395451833990794</v>
       </c>
       <c r="C5">
-        <v>0.15648534082580418</v>
+        <v>0.15525178963180608</v>
       </c>
       <c r="D5">
-        <v>0.76920002905927232</v>
+        <v>0.77035275853420315</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.51180420966109652</v>
+        <v>0.51100193691244944</v>
       </c>
       <c r="J5">
-        <v>0.48819579033890353</v>
+        <v>0.48899806308755062</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.85598469380225539</v>
+        <v>0.85666216966434294</v>
       </c>
       <c r="O5">
-        <v>0.14401530619774472</v>
+        <v>0.14333783033565703</v>
       </c>
     </row>
     <row r="6">
@@ -8635,31 +8635,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.073329566586532044</v>
+        <v>0.072392724571190906</v>
       </c>
       <c r="C6">
-        <v>0.16045849903139053</v>
+        <v>0.16090528370221149</v>
       </c>
       <c r="D6">
-        <v>0.76621193438207746</v>
+        <v>0.76670199172659759</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.53742185502150097</v>
+        <v>0.5345436084675218</v>
       </c>
       <c r="J6">
-        <v>0.46257814497849903</v>
+        <v>0.46545639153247814</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86533527888816575</v>
+        <v>0.86610606812539359</v>
       </c>
       <c r="O6">
-        <v>0.13466472111183431</v>
+        <v>0.1338939318746063</v>
       </c>
     </row>
     <row r="7">
@@ -8667,31 +8667,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.081252881971006177</v>
+        <v>0.084962515411791839</v>
       </c>
       <c r="C7">
-        <v>0.14984599165725229</v>
+        <v>0.1478859485878429</v>
       </c>
       <c r="D7">
-        <v>0.76890112637174146</v>
+        <v>0.76715153600036523</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.556964670159243</v>
+        <v>0.56051221748274571</v>
       </c>
       <c r="J7">
-        <v>0.44303532984075705</v>
+        <v>0.43948778251725434</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.85549321170185955</v>
+        <v>0.85217165161688513</v>
       </c>
       <c r="O7">
-        <v>0.14450678829814051</v>
+        <v>0.14782834838311482</v>
       </c>
     </row>
     <row r="8">
@@ -8699,31 +8699,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.078627513229015913</v>
+        <v>0.078464182755749276</v>
       </c>
       <c r="C8">
-        <v>0.15602896265217328</v>
+        <v>0.15690859006585278</v>
       </c>
       <c r="D8">
-        <v>0.76534352411881079</v>
+        <v>0.76462722717839782</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.57182525450192156</v>
+        <v>0.56920086606958142</v>
       </c>
       <c r="J8">
-        <v>0.42817474549807849</v>
+        <v>0.43079913393041869</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83668604534444657</v>
+        <v>0.83907798555139856</v>
       </c>
       <c r="O8">
-        <v>0.16331395465555346</v>
+        <v>0.16092201444860141</v>
       </c>
     </row>
     <row r="9">
@@ -8731,31 +8731,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.071865220624617879</v>
+        <v>0.07381989647654065</v>
       </c>
       <c r="C9">
-        <v>0.18330925283202709</v>
+        <v>0.18013150298486114</v>
       </c>
       <c r="D9">
-        <v>0.74482552654335499</v>
+        <v>0.74604860053859823</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.4911821094304985</v>
+        <v>0.49181026586818116</v>
       </c>
       <c r="J9">
-        <v>0.50881789056950144</v>
+        <v>0.50818973413181889</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.86456259671034141</v>
+        <v>0.86254165582428988</v>
       </c>
       <c r="O9">
-        <v>0.13543740328965856</v>
+        <v>0.13745834417571012</v>
       </c>
     </row>
     <row r="10">
@@ -8763,31 +8763,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.079268262879232804</v>
+        <v>0.080899081231185416</v>
       </c>
       <c r="C10">
-        <v>0.1540918332856861</v>
+        <v>0.15572736220039915</v>
       </c>
       <c r="D10">
-        <v>0.76663990383508107</v>
+        <v>0.76337355656841543</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.57724850370675518</v>
+        <v>0.57052324672410659</v>
       </c>
       <c r="J10">
-        <v>0.42275149629324493</v>
+        <v>0.4294767532758933</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.85253592389683219</v>
+        <v>0.85234670021371539</v>
       </c>
       <c r="O10">
-        <v>0.14746407610316778</v>
+        <v>0.14765329978628464</v>
       </c>
     </row>
     <row r="11">
@@ -8795,31 +8795,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.08432871937734833</v>
+        <v>0.084555872544291991</v>
       </c>
       <c r="C11">
-        <v>0.16000047188977973</v>
+        <v>0.16455317047559959</v>
       </c>
       <c r="D11">
-        <v>0.75567080873287196</v>
+        <v>0.75089095698010833</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.57531283814936796</v>
+        <v>0.57015735085983543</v>
       </c>
       <c r="J11">
-        <v>0.42468716185063216</v>
+        <v>0.42984264914016468</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.86159094508681222</v>
+        <v>0.86197024954631385</v>
       </c>
       <c r="O11">
-        <v>0.13840905491318772</v>
+        <v>0.13802975045368612</v>
       </c>
     </row>
     <row r="12">
@@ -8827,31 +8827,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.080717753342293655</v>
+        <v>0.082083199559106534</v>
       </c>
       <c r="C12">
-        <v>0.1685521917555832</v>
+        <v>0.16718805076276744</v>
       </c>
       <c r="D12">
-        <v>0.75073005490212319</v>
+        <v>0.75072874967812597</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.56763366162277762</v>
+        <v>0.56646529069584095</v>
       </c>
       <c r="J12">
-        <v>0.43236633837722233</v>
+        <v>0.43353470930415905</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.85616322995973215</v>
+        <v>0.85541056385430647</v>
       </c>
       <c r="O12">
-        <v>0.14383677004026776</v>
+        <v>0.14458943614569347</v>
       </c>
     </row>
     <row r="13">
@@ -8859,31 +8859,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.093453713482597914</v>
+        <v>0.093124888407439307</v>
       </c>
       <c r="C13">
-        <v>0.16348842708628139</v>
+        <v>0.16250075229343472</v>
       </c>
       <c r="D13">
-        <v>0.74305785943112068</v>
+        <v>0.74437435929912599</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.60777731213986874</v>
+        <v>0.61753712752581091</v>
       </c>
       <c r="J13">
-        <v>0.39222268786013126</v>
+        <v>0.38246287247418909</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.82513986546166906</v>
+        <v>0.82201685277299819</v>
       </c>
       <c r="O13">
-        <v>0.17486013453833082</v>
+        <v>0.17798314722700187</v>
       </c>
     </row>
     <row r="14">
@@ -8891,31 +8891,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.10100036773020384</v>
+        <v>0.10270149728981176</v>
       </c>
       <c r="C14">
-        <v>0.17779794843041202</v>
+        <v>0.17730017976118287</v>
       </c>
       <c r="D14">
-        <v>0.72120168383938421</v>
+        <v>0.71999832294900534</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.58864473422874841</v>
+        <v>0.59096931754188564</v>
       </c>
       <c r="J14">
-        <v>0.41135526577125153</v>
+        <v>0.40903068245811441</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84137704740284303</v>
+        <v>0.84370087231285595</v>
       </c>
       <c r="O14">
-        <v>0.15862295259715689</v>
+        <v>0.1562991276871441</v>
       </c>
     </row>
     <row r="15">
@@ -8923,31 +8923,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.1129890532736699</v>
+        <v>0.11226920459275881</v>
       </c>
       <c r="C15">
-        <v>0.16608105308549451</v>
+        <v>0.16674887082188372</v>
       </c>
       <c r="D15">
-        <v>0.72092989364083571</v>
+        <v>0.72098192458535748</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.58623450688869216</v>
+        <v>0.5914639345467243</v>
       </c>
       <c r="J15">
-        <v>0.41376549311130784</v>
+        <v>0.4085360654532757</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.8268898363666134</v>
+        <v>0.82751763565306813</v>
       </c>
       <c r="O15">
-        <v>0.17311016363338655</v>
+        <v>0.17248236434693187</v>
       </c>
     </row>
     <row r="16">
@@ -8955,31 +8955,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.11427466613264177</v>
+        <v>0.11588961942140319</v>
       </c>
       <c r="C16">
-        <v>0.17934801363937095</v>
+        <v>0.17673878820224107</v>
       </c>
       <c r="D16">
-        <v>0.70637732022798738</v>
+        <v>0.70737159237635561</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.59260438386150549</v>
+        <v>0.59672295162739408</v>
       </c>
       <c r="J16">
-        <v>0.40739561613849462</v>
+        <v>0.40327704837260597</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.850428977698234</v>
+        <v>0.84777856252221051</v>
       </c>
       <c r="O16">
-        <v>0.149571022301766</v>
+        <v>0.15222143747778946</v>
       </c>
     </row>
     <row r="17">
@@ -8987,31 +8987,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.11295593896969709</v>
+        <v>0.11420456604992164</v>
       </c>
       <c r="C17">
-        <v>0.1716101066448798</v>
+        <v>0.17216160652979062</v>
       </c>
       <c r="D17">
-        <v>0.71543395438542312</v>
+        <v>0.71363382742028769</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.60608332561725509</v>
+        <v>0.60236393525925558</v>
       </c>
       <c r="J17">
-        <v>0.39391667438274486</v>
+        <v>0.39763606474074442</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.8347306545935842</v>
+        <v>0.83434407653057874</v>
       </c>
       <c r="O17">
-        <v>0.16526934540641586</v>
+        <v>0.16565592346942126</v>
       </c>
     </row>
     <row r="18">
@@ -9019,31 +9019,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.11619821258609342</v>
+        <v>0.1159186758432441</v>
       </c>
       <c r="C18">
-        <v>0.17667173297026945</v>
+        <v>0.17544938496879611</v>
       </c>
       <c r="D18">
-        <v>0.70713005444363719</v>
+        <v>0.70863193918795975</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.66673435344458098</v>
+        <v>0.67212173996590696</v>
       </c>
       <c r="J18">
-        <v>0.33326564655541913</v>
+        <v>0.32787826003409293</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.82617925047698904</v>
+        <v>0.82785392923491319</v>
       </c>
       <c r="O18">
-        <v>0.17382074952301105</v>
+        <v>0.17214607076508681</v>
       </c>
     </row>
     <row r="19">
@@ -9051,31 +9051,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.13517434271352194</v>
+        <v>0.1355103447724931</v>
       </c>
       <c r="C19">
-        <v>0.17604420167910839</v>
+        <v>0.17659626581239049</v>
       </c>
       <c r="D19">
-        <v>0.6887814556073697</v>
+        <v>0.68789338941511635</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.65020213356577516</v>
+        <v>0.64834333043371351</v>
       </c>
       <c r="J19">
-        <v>0.34979786643422489</v>
+        <v>0.35165666956628655</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.8452286251996477</v>
+        <v>0.84407270991775485</v>
       </c>
       <c r="O19">
-        <v>0.15477137480035225</v>
+        <v>0.15592729008224515</v>
       </c>
     </row>
     <row r="20">
@@ -9083,31 +9083,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.12332328204011314</v>
+        <v>0.12461781959404171</v>
       </c>
       <c r="C20">
-        <v>0.17808367543907835</v>
+        <v>0.17760063572917756</v>
       </c>
       <c r="D20">
-        <v>0.69859304252080845</v>
+        <v>0.69778154467678077</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64693962267028471</v>
+        <v>0.64980741484591442</v>
       </c>
       <c r="J20">
-        <v>0.35306037732971529</v>
+        <v>0.35019258515408563</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.83141675503216317</v>
+        <v>0.83053939418797829</v>
       </c>
       <c r="O20">
-        <v>0.16858324496783694</v>
+        <v>0.16946060581202171</v>
       </c>
     </row>
     <row r="21">
@@ -9115,31 +9115,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.13560830833265278</v>
+        <v>0.13594858355690362</v>
       </c>
       <c r="C21">
-        <v>0.18599879406227932</v>
+        <v>0.18543433429198927</v>
       </c>
       <c r="D21">
-        <v>0.67839289760506793</v>
+        <v>0.67861708215110705</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.66049408168175394</v>
+        <v>0.66104990779970463</v>
       </c>
       <c r="J21">
-        <v>0.33950591831824606</v>
+        <v>0.33895009220029537</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.82122237736410386</v>
+        <v>0.82075923354771174</v>
       </c>
       <c r="O21">
-        <v>0.17877762263589619</v>
+        <v>0.17924076645228826</v>
       </c>
     </row>
     <row r="22">
@@ -9147,31 +9147,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.1500165909932186</v>
+        <v>0.15021712217341468</v>
       </c>
       <c r="C22">
-        <v>0.18603421478424068</v>
+        <v>0.18595748481521868</v>
       </c>
       <c r="D22">
-        <v>0.66394919422254073</v>
+        <v>0.66382539301136667</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.67569352329968202</v>
+        <v>0.67608054761593672</v>
       </c>
       <c r="J22">
-        <v>0.32430647670031798</v>
+        <v>0.32391945238406322</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.83658677587527186</v>
+        <v>0.8359139553012449</v>
       </c>
       <c r="O22">
-        <v>0.16341322412472817</v>
+        <v>0.16408604469875518</v>
       </c>
     </row>
     <row r="23">
@@ -9179,31 +9179,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.15257413251790869</v>
+        <v>0.15202387320307609</v>
       </c>
       <c r="C23">
-        <v>0.18643033956214938</v>
+        <v>0.18926002994857408</v>
       </c>
       <c r="D23">
-        <v>0.66099552791994198</v>
+        <v>0.65871609684834975</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.64363486935384373</v>
+        <v>0.64675450146027047</v>
       </c>
       <c r="J23">
-        <v>0.35636513064615616</v>
+        <v>0.35324549853972942</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.81920343509752125</v>
+        <v>0.82204697979635433</v>
       </c>
       <c r="O23">
-        <v>0.18079656490247875</v>
+        <v>0.17795302020364562</v>
       </c>
     </row>
     <row r="24">
@@ -9211,31 +9211,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.15305562367415754</v>
+        <v>0.15298271825368884</v>
       </c>
       <c r="C24">
-        <v>0.1888415156709112</v>
+        <v>0.18848546302571753</v>
       </c>
       <c r="D24">
-        <v>0.65810286065493129</v>
+        <v>0.65853181872059363</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.67710690138370111</v>
+        <v>0.67740219635425247</v>
       </c>
       <c r="J24">
-        <v>0.32289309861629895</v>
+        <v>0.32259780364574753</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.81790309047594922</v>
+        <v>0.81543236469560454</v>
       </c>
       <c r="O24">
-        <v>0.18209690952405075</v>
+        <v>0.18456763530439535</v>
       </c>
     </row>
     <row r="25">
@@ -9243,31 +9243,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.16454419648895988</v>
+        <v>0.16338543261178756</v>
       </c>
       <c r="C25">
-        <v>0.18482265537708684</v>
+        <v>0.18622924975081329</v>
       </c>
       <c r="D25">
-        <v>0.65063314813395323</v>
+        <v>0.65038531763739915</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.70862620428901812</v>
+        <v>0.7058255746290919</v>
       </c>
       <c r="J25">
-        <v>0.29137379571098193</v>
+        <v>0.29417442537090815</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.80931301669039779</v>
+        <v>0.80872851158307424</v>
       </c>
       <c r="O25">
-        <v>0.19068698330960215</v>
+        <v>0.19127148841692579</v>
       </c>
     </row>
     <row r="26">
@@ -9275,31 +9275,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.17302714018259671</v>
+        <v>0.17205306714054083</v>
       </c>
       <c r="C26">
-        <v>0.19664514151758178</v>
+        <v>0.19724709532440751</v>
       </c>
       <c r="D26">
-        <v>0.63032771829982148</v>
+        <v>0.63069983753505166</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.69220811836576579</v>
+        <v>0.68896886866669527</v>
       </c>
       <c r="J26">
-        <v>0.30779188163423427</v>
+        <v>0.31103113133330473</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80154657512153538</v>
+        <v>0.80217309720342767</v>
       </c>
       <c r="O26">
-        <v>0.19845342487846457</v>
+        <v>0.19782690279657236</v>
       </c>
     </row>
     <row r="27">
@@ -9307,31 +9307,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.18059822804435791</v>
+        <v>0.17980883316916046</v>
       </c>
       <c r="C27">
-        <v>0.20540532279790391</v>
+        <v>0.20394665025654277</v>
       </c>
       <c r="D27">
-        <v>0.6139964491577381</v>
+        <v>0.61624451657429669</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.69396824510751109</v>
+        <v>0.69642034950824749</v>
       </c>
       <c r="J27">
-        <v>0.30603175489248896</v>
+        <v>0.30357965049175245</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.79742264907263183</v>
+        <v>0.79666756777156933</v>
       </c>
       <c r="O27">
-        <v>0.20257735092736814</v>
+        <v>0.2033324322284307</v>
       </c>
     </row>
     <row r="28">
@@ -9339,31 +9339,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.17797915639695361</v>
+        <v>0.17996474524468717</v>
       </c>
       <c r="C28">
-        <v>0.21275090282813394</v>
+        <v>0.21051833412290777</v>
       </c>
       <c r="D28">
-        <v>0.60926994077491237</v>
+        <v>0.60951692063240503</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.7204938370783821</v>
+        <v>0.71658691610036185</v>
       </c>
       <c r="J28">
-        <v>0.27950616292161784</v>
+        <v>0.28341308389963815</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.78761665710401274</v>
+        <v>0.79062061431239128</v>
       </c>
       <c r="O28">
-        <v>0.21238334289598712</v>
+        <v>0.20937938568760872</v>
       </c>
     </row>
     <row r="29">
@@ -9371,31 +9371,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20141734268997785</v>
+        <v>0.20391398850242295</v>
       </c>
       <c r="C29">
-        <v>0.20245507125534379</v>
+        <v>0.19972256395398019</v>
       </c>
       <c r="D29">
-        <v>0.59612758605467842</v>
+        <v>0.59636344754359683</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.73148404819623791</v>
+        <v>0.73670051524809266</v>
       </c>
       <c r="J29">
-        <v>0.2685159518037622</v>
+        <v>0.26329948475190729</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79004200369402711</v>
+        <v>0.78733616716257659</v>
       </c>
       <c r="O29">
-        <v>0.20995799630597295</v>
+        <v>0.21266383283742329</v>
       </c>
     </row>
     <row r="30">
@@ -9403,31 +9403,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.20747445674277742</v>
+        <v>0.20725857390240493</v>
       </c>
       <c r="C30">
-        <v>0.21434325535377785</v>
+        <v>0.21553923558597718</v>
       </c>
       <c r="D30">
-        <v>0.57818228790344461</v>
+        <v>0.57720219051161803</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.74827971393367321</v>
+        <v>0.74865714787944682</v>
       </c>
       <c r="J30">
-        <v>0.25172028606632679</v>
+        <v>0.25134285212055318</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79411727515035135</v>
+        <v>0.79196626862522557</v>
       </c>
       <c r="O30">
-        <v>0.20588272484964862</v>
+        <v>0.20803373137477435</v>
       </c>
     </row>
     <row r="31">
@@ -9435,31 +9435,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.2260066815992382</v>
+        <v>0.22655810520004632</v>
       </c>
       <c r="C31">
-        <v>0.20934863974456644</v>
+        <v>0.21197774942072758</v>
       </c>
       <c r="D31">
-        <v>0.5646446786561955</v>
+        <v>0.56146414537922607</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.76572558132255297</v>
+        <v>0.76027929426537189</v>
       </c>
       <c r="J31">
-        <v>0.23427441867744703</v>
+        <v>0.2397207057346282</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.80321057265288021</v>
+        <v>0.80192126135443798</v>
       </c>
       <c r="O31">
-        <v>0.19678942734711977</v>
+        <v>0.19807873864556205</v>
       </c>
     </row>
     <row r="32">
@@ -9467,31 +9467,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.222578824706719</v>
+        <v>0.22270796925885947</v>
       </c>
       <c r="C32">
-        <v>0.21344968328171113</v>
+        <v>0.21392257582093974</v>
       </c>
       <c r="D32">
-        <v>0.56397149201157004</v>
+        <v>0.56336945492020085</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.77816802047824618</v>
+        <v>0.77820350334670374</v>
       </c>
       <c r="J32">
-        <v>0.22183197952175374</v>
+        <v>0.22179649665329623</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.80969219253204072</v>
+        <v>0.81030110271426103</v>
       </c>
       <c r="O32">
-        <v>0.19030780746795922</v>
+        <v>0.18969889728573899</v>
       </c>
     </row>
     <row r="33">
@@ -9499,31 +9499,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.2477919632337415</v>
+        <v>0.24872313787298278</v>
       </c>
       <c r="C33">
-        <v>0.20976086471973554</v>
+        <v>0.20851406553425805</v>
       </c>
       <c r="D33">
-        <v>0.54244717204652304</v>
+        <v>0.54276279659275917</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.75754229026971986</v>
+        <v>0.76092954477463237</v>
       </c>
       <c r="J33">
-        <v>0.24245770973028016</v>
+        <v>0.23907045522536746</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78293593999969535</v>
+        <v>0.78016176885628663</v>
       </c>
       <c r="O33">
-        <v>0.21706406000030476</v>
+        <v>0.21983823114371345</v>
       </c>
     </row>
     <row r="34">
@@ -9531,31 +9531,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.23781341898532699</v>
+        <v>0.23932356568350416</v>
       </c>
       <c r="C34">
-        <v>0.2144538955638163</v>
+        <v>0.21483290171820421</v>
       </c>
       <c r="D34">
-        <v>0.54773268545085685</v>
+        <v>0.54584353259829155</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.79181592251590227</v>
+        <v>0.78258790950879997</v>
       </c>
       <c r="J34">
-        <v>0.20818407748409776</v>
+        <v>0.21741209049120006</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.76332950976306213</v>
+        <v>0.76192448039067273</v>
       </c>
       <c r="O34">
-        <v>0.23667049023693781</v>
+        <v>0.23807551960932727</v>
       </c>
     </row>
     <row r="35">
@@ -9563,31 +9563,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.28293526527182489</v>
+        <v>0.28029906269682925</v>
       </c>
       <c r="C35">
-        <v>0.20686063375476657</v>
+        <v>0.20728958761550595</v>
       </c>
       <c r="D35">
-        <v>0.51020410097340851</v>
+        <v>0.51241134968766489</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.79576520201746359</v>
+        <v>0.79760528142099985</v>
       </c>
       <c r="J35">
-        <v>0.20423479798253649</v>
+        <v>0.20239471857900018</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.77217426976447689</v>
+        <v>0.76895536131094211</v>
       </c>
       <c r="O35">
-        <v>0.22782573023552316</v>
+        <v>0.23104463868905775</v>
       </c>
     </row>
     <row r="36">
@@ -9595,31 +9595,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.27834089307214804</v>
+        <v>0.28037009885230751</v>
       </c>
       <c r="C36">
-        <v>0.22948855062932924</v>
+        <v>0.23055507995531141</v>
       </c>
       <c r="D36">
-        <v>0.49217055629852274</v>
+        <v>0.48907482119238094</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.7676153272227294</v>
+        <v>0.76558632329829501</v>
       </c>
       <c r="J36">
-        <v>0.23238467277727054</v>
+        <v>0.23441367670170496</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.76314737024183799</v>
+        <v>0.76954273897929282</v>
       </c>
       <c r="O36">
-        <v>0.23685262975816196</v>
+        <v>0.23045726102070721</v>
       </c>
     </row>
     <row r="37">
@@ -9627,31 +9627,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.28325575623316257</v>
+        <v>0.28238838977941572</v>
       </c>
       <c r="C37">
-        <v>0.22665578536837883</v>
+        <v>0.22403770292297534</v>
       </c>
       <c r="D37">
-        <v>0.49008845839845866</v>
+        <v>0.49357390729760903</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.81741490516502535</v>
+        <v>0.81393202494297001</v>
       </c>
       <c r="J37">
-        <v>0.18258509483497468</v>
+        <v>0.1860679750570301</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.76262718735463497</v>
+        <v>0.76168524302661922</v>
       </c>
       <c r="O37">
-        <v>0.23737281264536497</v>
+        <v>0.23831475697338081</v>
       </c>
     </row>
     <row r="38">
@@ -9659,31 +9659,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.29934134038364413</v>
+        <v>0.29997622469734297</v>
       </c>
       <c r="C38">
-        <v>0.22810556470156179</v>
+        <v>0.22678819582827989</v>
       </c>
       <c r="D38">
-        <v>0.47255309491479408</v>
+        <v>0.47323557947437717</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.79545203488965055</v>
+        <v>0.79176190185662898</v>
       </c>
       <c r="J38">
-        <v>0.20454796511034942</v>
+        <v>0.20823809814337116</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76824521944969004</v>
+        <v>0.76846384907322185</v>
       </c>
       <c r="O38">
-        <v>0.23175478055030999</v>
+        <v>0.23153615092677818</v>
       </c>
     </row>
     <row r="39">
@@ -9691,31 +9691,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.30715323737147349</v>
+        <v>0.30314624674836771</v>
       </c>
       <c r="C39">
-        <v>0.22378771055750238</v>
+        <v>0.22376057799298948</v>
       </c>
       <c r="D39">
-        <v>0.46905905207102416</v>
+        <v>0.47309317525864292</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.8223536880591904</v>
+        <v>0.81921344042680366</v>
       </c>
       <c r="J39">
-        <v>0.17764631194080957</v>
+        <v>0.18078655957319634</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.72626144449901608</v>
+        <v>0.72281412961804958</v>
       </c>
       <c r="O39">
-        <v>0.27373855550098397</v>
+        <v>0.27718587038195031</v>
       </c>
     </row>
     <row r="40">
@@ -9723,31 +9723,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.30583736531889821</v>
+        <v>0.30657147136781326</v>
       </c>
       <c r="C40">
-        <v>0.24777825986536642</v>
+        <v>0.24449899647581883</v>
       </c>
       <c r="D40">
-        <v>0.4463843748157354</v>
+        <v>0.44892953215636794</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.81393366229457009</v>
+        <v>0.81110706119028364</v>
       </c>
       <c r="J40">
-        <v>0.18606633770542996</v>
+        <v>0.18889293880971642</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.7454593392842308</v>
+        <v>0.74562056130912324</v>
       </c>
       <c r="O40">
-        <v>0.25454066071576914</v>
+        <v>0.25437943869087676</v>
       </c>
     </row>
     <row r="41">
@@ -9755,31 +9755,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.31208838974437436</v>
+        <v>0.30969446986492283</v>
       </c>
       <c r="C41">
-        <v>0.24788084245553532</v>
+        <v>0.24643019250966394</v>
       </c>
       <c r="D41">
-        <v>0.44003076780009032</v>
+        <v>0.44387533762541315</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.8098026164411487</v>
+        <v>0.80901984537161409</v>
       </c>
       <c r="J41">
-        <v>0.19019738355885141</v>
+        <v>0.19098015462838597</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.75564395368361426</v>
+        <v>0.7563630253585969</v>
       </c>
       <c r="O41">
-        <v>0.24435604631638583</v>
+        <v>0.24363697464140308</v>
       </c>
     </row>
     <row r="42">
@@ -9787,31 +9787,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.33265461013678682</v>
+        <v>0.32815839051344603</v>
       </c>
       <c r="C42">
-        <v>0.22723156729897201</v>
+        <v>0.23258868195487895</v>
       </c>
       <c r="D42">
-        <v>0.4401138225642412</v>
+        <v>0.439252927531675</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.83434792611422859</v>
+        <v>0.83430621181376108</v>
       </c>
       <c r="J42">
-        <v>0.16565207388577141</v>
+        <v>0.16569378818623889</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.75259462167678548</v>
+        <v>0.75543328116258901</v>
       </c>
       <c r="O42">
-        <v>0.2474053783232146</v>
+        <v>0.24456671883741096</v>
       </c>
     </row>
     <row r="43">
@@ -9819,31 +9819,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.31863530566996628</v>
+        <v>0.31663153114870268</v>
       </c>
       <c r="C43">
-        <v>0.25063994432993819</v>
+        <v>0.25394036057880415</v>
       </c>
       <c r="D43">
-        <v>0.43072475000009547</v>
+        <v>0.42942810827249323</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.80652392204015044</v>
+        <v>0.80565932672189644</v>
       </c>
       <c r="J43">
-        <v>0.19347607795984961</v>
+        <v>0.1943406732781035</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.75833697570271585</v>
+        <v>0.76032180190278897</v>
       </c>
       <c r="O43">
-        <v>0.24166302429728415</v>
+        <v>0.239678198097211</v>
       </c>
     </row>
     <row r="44">
@@ -9851,31 +9851,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.32017576815582899</v>
+        <v>0.31748998850454363</v>
       </c>
       <c r="C44">
-        <v>0.24389014634266104</v>
+        <v>0.24449622008609009</v>
       </c>
       <c r="D44">
-        <v>0.43593408550151008</v>
+        <v>0.43801379140936636</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.84732338390470019</v>
+        <v>0.84592244085334556</v>
       </c>
       <c r="J44">
-        <v>0.15267661609529987</v>
+        <v>0.15407755914665441</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.74695453361277331</v>
+        <v>0.74857671932019798</v>
       </c>
       <c r="O44">
-        <v>0.25304546638722664</v>
+        <v>0.25142328067980196</v>
       </c>
     </row>
     <row r="45">
@@ -9883,31 +9883,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.32283371353093915</v>
+        <v>0.32041141322346028</v>
       </c>
       <c r="C45">
-        <v>0.26359665889251171</v>
+        <v>0.26065012950559702</v>
       </c>
       <c r="D45">
-        <v>0.41356962757654919</v>
+        <v>0.41893845727094281</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.81626428642459425</v>
+        <v>0.8167963099887936</v>
       </c>
       <c r="J45">
-        <v>0.18373571357540572</v>
+        <v>0.1832036900112064</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.73968079668459608</v>
+        <v>0.73922535727845606</v>
       </c>
       <c r="O45">
-        <v>0.26031920331540392</v>
+        <v>0.26077464272154399</v>
       </c>
     </row>
     <row r="46">
@@ -9915,31 +9915,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.31848132377389865</v>
+        <v>0.31814693699262353</v>
       </c>
       <c r="C46">
-        <v>0.2609450347182935</v>
+        <v>0.26052501430941832</v>
       </c>
       <c r="D46">
-        <v>0.4205736415078079</v>
+        <v>0.42132804869795804</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.79608139805230604</v>
+        <v>0.79344428303319769</v>
       </c>
       <c r="J46">
-        <v>0.20391860194769387</v>
+        <v>0.20655571696680242</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.72970740841743076</v>
+        <v>0.73088720242812732</v>
       </c>
       <c r="O46">
-        <v>0.27029259158256924</v>
+        <v>0.26911279757187273</v>
       </c>
     </row>
     <row r="47">
@@ -9947,31 +9947,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.33549944836874801</v>
+        <v>0.33343662292363119</v>
       </c>
       <c r="C47">
-        <v>0.24513389439149505</v>
+        <v>0.24577836738137476</v>
       </c>
       <c r="D47">
-        <v>0.41936665723975686</v>
+        <v>0.42078500969499411</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.82262530811441203</v>
+        <v>0.81988856568081458</v>
       </c>
       <c r="J47">
-        <v>0.17737469188558788</v>
+        <v>0.18011143431918547</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.71772658558962676</v>
+        <v>0.72005321800658817</v>
       </c>
       <c r="O47">
-        <v>0.28227341441037329</v>
+        <v>0.27994678199341189</v>
       </c>
     </row>
     <row r="48">
@@ -9979,31 +9979,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.33968572831938065</v>
+        <v>0.34024523428851228</v>
       </c>
       <c r="C48">
-        <v>0.26349512269643488</v>
+        <v>0.26126798194759515</v>
       </c>
       <c r="D48">
-        <v>0.39681914898418447</v>
+        <v>0.39848678376389252</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.82886762711440298</v>
+        <v>0.8279405607668191</v>
       </c>
       <c r="J48">
-        <v>0.17113237288559688</v>
+        <v>0.1720594392331809</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.72667020817377259</v>
+        <v>0.72259407040624568</v>
       </c>
       <c r="O48">
-        <v>0.27332979182622746</v>
+        <v>0.27740592959375437</v>
       </c>
     </row>
     <row r="49">
@@ -10011,31 +10011,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.36046666602121508</v>
+        <v>0.36093446104586602</v>
       </c>
       <c r="C49">
-        <v>0.25760439047257377</v>
+        <v>0.25670141652005568</v>
       </c>
       <c r="D49">
-        <v>0.38192894350621115</v>
+        <v>0.38236412243407836</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.8197816920110087</v>
+        <v>0.81972776936103031</v>
       </c>
       <c r="J49">
-        <v>0.18021830798899136</v>
+        <v>0.18027223063896969</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.71919562222497446</v>
+        <v>0.71897229477483027</v>
       </c>
       <c r="O49">
-        <v>0.28080437777502543</v>
+        <v>0.28102770522516973</v>
       </c>
     </row>
     <row r="50">
@@ -10043,31 +10043,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.3743970298066267</v>
+        <v>0.37454537479756295</v>
       </c>
       <c r="C50">
-        <v>0.25118037967233492</v>
+        <v>0.25162382303546244</v>
       </c>
       <c r="D50">
-        <v>0.37442259052103838</v>
+        <v>0.37383080216697451</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.84121089711681607</v>
+        <v>0.84149643543808272</v>
       </c>
       <c r="J50">
-        <v>0.15878910288318401</v>
+        <v>0.15850356456191736</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.70238736642548949</v>
+        <v>0.70173012631598075</v>
       </c>
       <c r="O50">
-        <v>0.29761263357451062</v>
+        <v>0.29826987368401914</v>
       </c>
     </row>
     <row r="51">
@@ -10075,31 +10075,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.40220813508596048</v>
+        <v>0.40401653683645244</v>
       </c>
       <c r="C51">
-        <v>0.25073974284195522</v>
+        <v>0.24871385717362524</v>
       </c>
       <c r="D51">
-        <v>0.34705212207208436</v>
+        <v>0.34726960598992229</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.85716986397666961</v>
+        <v>0.8569742856799013</v>
       </c>
       <c r="J51">
-        <v>0.14283013602333042</v>
+        <v>0.14302571432009867</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.73141266559163753</v>
+        <v>0.73136614647428355</v>
       </c>
       <c r="O51">
-        <v>0.26858733440836252</v>
+        <v>0.26863385352571645</v>
       </c>
     </row>
     <row r="52">
@@ -10107,31 +10107,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.40832438353363332</v>
+        <v>0.40662075744495874</v>
       </c>
       <c r="C52">
-        <v>0.25442672945707639</v>
+        <v>0.25559649887211738</v>
       </c>
       <c r="D52">
-        <v>0.33724888700929029</v>
+        <v>0.33778274368292388</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.85352685966238295</v>
+        <v>0.84997575391148217</v>
       </c>
       <c r="J52">
-        <v>0.14647314033761707</v>
+        <v>0.15002424608851783</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.67167257738680319</v>
+        <v>0.67170708946397906</v>
       </c>
       <c r="O52">
-        <v>0.32832742261319686</v>
+        <v>0.32829291053602083</v>
       </c>
     </row>
     <row r="53">
@@ -10139,31 +10139,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.43758404764430897</v>
+        <v>0.43523779461871687</v>
       </c>
       <c r="C53">
-        <v>0.25076755725238992</v>
+        <v>0.25030906056099861</v>
       </c>
       <c r="D53">
-        <v>0.31164839510330111</v>
+        <v>0.31445314482028458</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.87448338796910463</v>
+        <v>0.87499110783991108</v>
       </c>
       <c r="J53">
-        <v>0.12551661203089534</v>
+        <v>0.12500889216008898</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.68168097254713311</v>
+        <v>0.67937912430264047</v>
       </c>
       <c r="O53">
-        <v>0.31831902745286678</v>
+        <v>0.32062087569735948</v>
       </c>
     </row>
     <row r="54">
@@ -10171,13 +10171,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.44321368849749621</v>
+        <v>0.44320510560684701</v>
       </c>
       <c r="C54">
-        <v>0.2706588190176813</v>
+        <v>0.26927871306612966</v>
       </c>
       <c r="D54">
-        <v>0.28612749248482255</v>
+        <v>0.28751618132702333</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -11028,19 +11028,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.5461870889100312</v>
+        <v>0.55206122938022584</v>
       </c>
       <c r="J3">
-        <v>0.45381291108996885</v>
+        <v>0.44793877061977416</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.83503519079396793</v>
+        <v>0.83519895809400857</v>
       </c>
       <c r="O3">
-        <v>0.16496480920603199</v>
+        <v>0.16480104190599151</v>
       </c>
     </row>
     <row r="4">
@@ -11048,19 +11048,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.57121369119543042</v>
+        <v>0.56880365653361964</v>
       </c>
       <c r="J4">
-        <v>0.42878630880456953</v>
+        <v>0.43119634346638036</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.80288101035374926</v>
+        <v>0.80147309858747384</v>
       </c>
       <c r="O4">
-        <v>0.19711898964625066</v>
+        <v>0.19852690141252605</v>
       </c>
     </row>
     <row r="5">
@@ -11068,19 +11068,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.58341015305402211</v>
+        <v>0.58777865302920773</v>
       </c>
       <c r="J5">
-        <v>0.41658984694597795</v>
+        <v>0.41222134697079221</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.81103727935612657</v>
+        <v>0.80848495889277738</v>
       </c>
       <c r="O5">
-        <v>0.1889627206438734</v>
+        <v>0.19151504110722251</v>
       </c>
     </row>
     <row r="6">
@@ -11088,19 +11088,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.57713620238549301</v>
+        <v>0.56875783559257642</v>
       </c>
       <c r="J6">
-        <v>0.42286379761450704</v>
+        <v>0.43124216440742374</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.85866305199343718</v>
+        <v>0.85698327620116654</v>
       </c>
       <c r="O6">
-        <v>0.14133694800656285</v>
+        <v>0.14301672379883357</v>
       </c>
     </row>
     <row r="7">
@@ -11108,19 +11108,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.66781966262332348</v>
+        <v>0.65713638493192583</v>
       </c>
       <c r="J7">
-        <v>0.33218033737667663</v>
+        <v>0.34286361506807422</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.81856587997159269</v>
+        <v>0.8166586175339613</v>
       </c>
       <c r="O7">
-        <v>0.18143412002840731</v>
+        <v>0.18334138246603868</v>
       </c>
     </row>
     <row r="8">
@@ -11128,19 +11128,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.66910925780455566</v>
+        <v>0.67217860238622729</v>
       </c>
       <c r="J8">
-        <v>0.3308907421954444</v>
+        <v>0.32782139761377277</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.84225977702352661</v>
+        <v>0.84405854192319785</v>
       </c>
       <c r="O8">
-        <v>0.15774022297647347</v>
+        <v>0.15594145807680224</v>
       </c>
     </row>
     <row r="9">
@@ -11148,19 +11148,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.59984219378146986</v>
+        <v>0.59841381720623388</v>
       </c>
       <c r="J9">
-        <v>0.4001578062185302</v>
+        <v>0.40158618279376607</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.80811561853661618</v>
+        <v>0.80360935356829444</v>
       </c>
       <c r="O9">
-        <v>0.19188438146338371</v>
+        <v>0.19639064643170548</v>
       </c>
     </row>
     <row r="10">
@@ -11168,19 +11168,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.70564448063942742</v>
+        <v>0.69087815707395694</v>
       </c>
       <c r="J10">
-        <v>0.29435551936057264</v>
+        <v>0.309121842926043</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.78828421958391515</v>
+        <v>0.7902592314470902</v>
       </c>
       <c r="O10">
-        <v>0.21171578041608485</v>
+        <v>0.20974076855290993</v>
       </c>
     </row>
     <row r="11">
@@ -11188,19 +11188,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.64295902845161246</v>
+        <v>0.63713930112313166</v>
       </c>
       <c r="J11">
-        <v>0.3570409715483876</v>
+        <v>0.36286069887686828</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.79453117116231997</v>
+        <v>0.80196018544511305</v>
       </c>
       <c r="O11">
-        <v>0.20546882883768003</v>
+        <v>0.19803981455488692</v>
       </c>
     </row>
     <row r="12">
@@ -11208,19 +11208,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.61115420452270663</v>
+        <v>0.62779054766206399</v>
       </c>
       <c r="J12">
-        <v>0.38884579547729337</v>
+        <v>0.37220945233793606</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.80688974047382522</v>
+        <v>0.80558296631332604</v>
       </c>
       <c r="O12">
-        <v>0.19311025952617475</v>
+        <v>0.19441703368667401</v>
       </c>
     </row>
     <row r="13">
@@ -11228,19 +11228,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.68313481120292763</v>
+        <v>0.69212877057240285</v>
       </c>
       <c r="J13">
-        <v>0.31686518879707237</v>
+        <v>0.30787122942759704</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.78063086366859635</v>
+        <v>0.77875430257656819</v>
       </c>
       <c r="O13">
-        <v>0.2193691363314037</v>
+        <v>0.22124569742343175</v>
       </c>
     </row>
     <row r="14">
@@ -11248,19 +11248,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.64832526978855498</v>
+        <v>0.64773579088597677</v>
       </c>
       <c r="J14">
-        <v>0.35167473021144507</v>
+        <v>0.35226420911402329</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.8278204549295729</v>
+        <v>0.83532709938741356</v>
       </c>
       <c r="O14">
-        <v>0.17217954507042713</v>
+        <v>0.16467290061258644</v>
       </c>
     </row>
     <row r="15">
@@ -11268,19 +11268,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.66569085224787172</v>
+        <v>0.67225257416509243</v>
       </c>
       <c r="J15">
-        <v>0.33430914775212817</v>
+        <v>0.32774742583490757</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.80187526409944476</v>
+        <v>0.80340007581864059</v>
       </c>
       <c r="O15">
-        <v>0.19812473590055521</v>
+        <v>0.19659992418135935</v>
       </c>
     </row>
     <row r="16">
@@ -11288,19 +11288,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.6832476171151014</v>
+        <v>0.69058111920548637</v>
       </c>
       <c r="J16">
-        <v>0.3167523828848986</v>
+        <v>0.30941888079451357</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.81015818651383487</v>
+        <v>0.80566764548832659</v>
       </c>
       <c r="O16">
-        <v>0.18984181348616511</v>
+        <v>0.19433235451167336</v>
       </c>
     </row>
     <row r="17">
@@ -11308,19 +11308,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.72769642156306746</v>
+        <v>0.71909976526390451</v>
       </c>
       <c r="J17">
-        <v>0.27230357843693248</v>
+        <v>0.28090023473609549</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78802490850158646</v>
+        <v>0.78526226193286586</v>
       </c>
       <c r="O17">
-        <v>0.21197509149841359</v>
+        <v>0.21473773806713414</v>
       </c>
     </row>
     <row r="18">
@@ -11328,19 +11328,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.75657560375747013</v>
+        <v>0.7655806762139773</v>
       </c>
       <c r="J18">
-        <v>0.24342439624252993</v>
+        <v>0.23441932378602268</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.78720977580870988</v>
+        <v>0.78671200285895937</v>
       </c>
       <c r="O18">
-        <v>0.21279022419129009</v>
+        <v>0.21328799714104052</v>
       </c>
     </row>
     <row r="19">
@@ -11348,19 +11348,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.72938990676417848</v>
+        <v>0.72529716988259973</v>
       </c>
       <c r="J19">
-        <v>0.27061009323582147</v>
+        <v>0.27470283011740027</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.81599024235092033</v>
+        <v>0.81306597354871746</v>
       </c>
       <c r="O19">
-        <v>0.18400975764907973</v>
+        <v>0.18693402645128246</v>
       </c>
     </row>
     <row r="20">
@@ -11368,19 +11368,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.74485717251405659</v>
+        <v>0.7456852718458884</v>
       </c>
       <c r="J20">
-        <v>0.25514282748594336</v>
+        <v>0.25431472815411155</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.78593322084235406</v>
+        <v>0.79198710759936819</v>
       </c>
       <c r="O20">
-        <v>0.21406677915764602</v>
+        <v>0.20801289240063189</v>
       </c>
     </row>
     <row r="21">
@@ -11388,19 +11388,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.73409574150894641</v>
+        <v>0.73832722451591082</v>
       </c>
       <c r="J21">
-        <v>0.2659042584910537</v>
+        <v>0.26167277548408924</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.78100793848735139</v>
+        <v>0.78198105916814631</v>
       </c>
       <c r="O21">
-        <v>0.21899206151264861</v>
+        <v>0.21801894083185383</v>
       </c>
     </row>
     <row r="22">
@@ -11408,19 +11408,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.77516365337245707</v>
+        <v>0.77696661664441791</v>
       </c>
       <c r="J22">
-        <v>0.22483634662754298</v>
+        <v>0.22303338335558215</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80041379129674906</v>
+        <v>0.80444105122036313</v>
       </c>
       <c r="O22">
-        <v>0.19958620870325106</v>
+        <v>0.19555894877963689</v>
       </c>
     </row>
     <row r="23">
@@ -11428,19 +11428,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.75121000067152643</v>
+        <v>0.74505021857830533</v>
       </c>
       <c r="J23">
-        <v>0.24878999932847348</v>
+        <v>0.25494978142169461</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.77241318074539944</v>
+        <v>0.7789022636001901</v>
       </c>
       <c r="O23">
-        <v>0.22758681925460056</v>
+        <v>0.22109773639980987</v>
       </c>
     </row>
     <row r="24">
@@ -11448,19 +11448,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.77314143659955548</v>
+        <v>0.77234535273597582</v>
       </c>
       <c r="J24">
-        <v>0.22685856340044452</v>
+        <v>0.22765464726402412</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.78996838186712637</v>
+        <v>0.7856805053479482</v>
       </c>
       <c r="O24">
-        <v>0.21003161813287363</v>
+        <v>0.21431949465205191</v>
       </c>
     </row>
     <row r="25">
@@ -11468,19 +11468,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.80718442846675509</v>
+        <v>0.79589450196363676</v>
       </c>
       <c r="J25">
-        <v>0.19281557153324494</v>
+        <v>0.2041054980363633</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.76318883685849015</v>
+        <v>0.75867267160258844</v>
       </c>
       <c r="O25">
-        <v>0.23681116314150991</v>
+        <v>0.2413273283974115</v>
       </c>
     </row>
     <row r="26">
@@ -11488,19 +11488,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.78445823155028804</v>
+        <v>0.78703816133044302</v>
       </c>
       <c r="J26">
-        <v>0.21554176844971201</v>
+        <v>0.21296183866955704</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.73589679590381651</v>
+        <v>0.73196212379410452</v>
       </c>
       <c r="O26">
-        <v>0.2641032040961836</v>
+        <v>0.26803787620589542</v>
       </c>
     </row>
     <row r="27">
@@ -11508,19 +11508,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.76172828425128536</v>
+        <v>0.76598421121239546</v>
       </c>
       <c r="J27">
-        <v>0.23827171574871464</v>
+        <v>0.23401578878760454</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.75355425190530145</v>
+        <v>0.75558197981445929</v>
       </c>
       <c r="O27">
-        <v>0.24644574809469852</v>
+        <v>0.24441802018554068</v>
       </c>
     </row>
     <row r="28">
@@ -11528,19 +11528,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.81604443801904925</v>
+        <v>0.81404881209636082</v>
       </c>
       <c r="J28">
-        <v>0.18395556198095073</v>
+        <v>0.18595118790363921</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.7358650551590914</v>
+        <v>0.73931473961513117</v>
       </c>
       <c r="O28">
-        <v>0.2641349448409086</v>
+        <v>0.26068526038486889</v>
       </c>
     </row>
     <row r="29">
@@ -11548,19 +11548,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.82902681236101849</v>
+        <v>0.83076296983836251</v>
       </c>
       <c r="J29">
-        <v>0.17097318763898153</v>
+        <v>0.16923703016163746</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.7215447312237423</v>
+        <v>0.713053386378803</v>
       </c>
       <c r="O29">
-        <v>0.27845526877625765</v>
+        <v>0.28694661362119694</v>
       </c>
     </row>
     <row r="30">
@@ -11568,19 +11568,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.84955351069663021</v>
+        <v>0.84891852203457341</v>
       </c>
       <c r="J30">
-        <v>0.15044648930336979</v>
+        <v>0.15108147796542656</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70235976117048593</v>
+        <v>0.69895074857574768</v>
       </c>
       <c r="O30">
-        <v>0.29764023882951401</v>
+        <v>0.30104925142425226</v>
       </c>
     </row>
     <row r="31">
@@ -11588,19 +11588,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.84990577777635223</v>
+        <v>0.84677996057234972</v>
       </c>
       <c r="J31">
-        <v>0.15009422222364768</v>
+        <v>0.15322003942765025</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.74567125883848362</v>
+        <v>0.74779341518937381</v>
       </c>
       <c r="O31">
-        <v>0.25432874116151644</v>
+        <v>0.25220658481062613</v>
       </c>
     </row>
     <row r="32">
@@ -11608,19 +11608,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.8578850723377095</v>
+        <v>0.85656002760865735</v>
       </c>
       <c r="J32">
-        <v>0.14211492766229056</v>
+        <v>0.14343997239134262</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.75713035033991705</v>
+        <v>0.75811670934665332</v>
       </c>
       <c r="O32">
-        <v>0.24286964966008298</v>
+        <v>0.24188329065334671</v>
       </c>
     </row>
     <row r="33">
@@ -11628,19 +11628,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.86745260760961362</v>
+        <v>0.87192502047284426</v>
       </c>
       <c r="J33">
-        <v>0.13254739239038646</v>
+        <v>0.12807497952715571</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.72376289370916203</v>
+        <v>0.72174168588118515</v>
       </c>
       <c r="O33">
-        <v>0.27623710629083803</v>
+        <v>0.27825831411881491</v>
       </c>
     </row>
     <row r="34">
@@ -11648,19 +11648,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.87165423045321688</v>
+        <v>0.86244549578296559</v>
       </c>
       <c r="J34">
-        <v>0.12834576954678303</v>
+        <v>0.13755450421703438</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.72240960285061706</v>
+        <v>0.71653552955324851</v>
       </c>
       <c r="O34">
-        <v>0.27759039714938305</v>
+        <v>0.28346447044675149</v>
       </c>
     </row>
     <row r="35">
@@ -11668,19 +11668,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.89438802470716805</v>
+        <v>0.89656257893816738</v>
       </c>
       <c r="J35">
-        <v>0.10561197529283195</v>
+        <v>0.10343742106183267</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.69904994273711218</v>
+        <v>0.70256490804540639</v>
       </c>
       <c r="O35">
-        <v>0.30095005726288782</v>
+        <v>0.29743509195459356</v>
       </c>
     </row>
     <row r="36">
@@ -11688,19 +11688,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.8624772509744435</v>
+        <v>0.85669050518303524</v>
       </c>
       <c r="J36">
-        <v>0.13752274902555647</v>
+        <v>0.1433094948169647</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.72639383239045607</v>
+        <v>0.73340499120759273</v>
       </c>
       <c r="O36">
-        <v>0.27360616760954393</v>
+        <v>0.26659500879240722</v>
       </c>
     </row>
     <row r="37">
@@ -11708,19 +11708,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.89502444281186644</v>
+        <v>0.89610152780818875</v>
       </c>
       <c r="J37">
-        <v>0.10497555718813349</v>
+        <v>0.10389847219181124</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.7166971350914686</v>
+        <v>0.71409365184486939</v>
       </c>
       <c r="O37">
-        <v>0.2833028649085314</v>
+        <v>0.28590634815513066</v>
       </c>
     </row>
     <row r="38">
@@ -11728,19 +11728,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.89478053355909493</v>
+        <v>0.88106924881782789</v>
       </c>
       <c r="J38">
-        <v>0.10521946644090509</v>
+        <v>0.11893075118217215</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.73875813130370249</v>
+        <v>0.73233231213642758</v>
       </c>
       <c r="O38">
-        <v>0.26124186869629751</v>
+        <v>0.26766768786357248</v>
       </c>
     </row>
     <row r="39">
@@ -11748,19 +11748,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.92077699339586017</v>
+        <v>0.91678675692931733</v>
       </c>
       <c r="J39">
-        <v>0.079223006604139834</v>
+        <v>0.083213243070682646</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.6723776716876857</v>
+        <v>0.65957986183592887</v>
       </c>
       <c r="O39">
-        <v>0.32762232831231425</v>
+        <v>0.34042013816407124</v>
       </c>
     </row>
     <row r="40">
@@ -11768,19 +11768,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.88816789429618037</v>
+        <v>0.88813638407392381</v>
       </c>
       <c r="J40">
-        <v>0.11183210570381971</v>
+        <v>0.11186361592607622</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.66233935127797505</v>
+        <v>0.66312808781855315</v>
       </c>
       <c r="O40">
-        <v>0.33766064872202495</v>
+        <v>0.33687191218144691</v>
       </c>
     </row>
     <row r="41">
@@ -11788,19 +11788,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.91972607281087604</v>
+        <v>0.91407899966500772</v>
       </c>
       <c r="J41">
-        <v>0.080273927189123961</v>
+        <v>0.085921000334992254</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.66285209377065324</v>
+        <v>0.66242792158110952</v>
       </c>
       <c r="O41">
-        <v>0.33714790622934682</v>
+        <v>0.33757207841889053</v>
       </c>
     </row>
     <row r="42">
@@ -11808,19 +11808,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.90455730553654667</v>
+        <v>0.90681139894655072</v>
       </c>
       <c r="J42">
-        <v>0.095442694463453354</v>
+        <v>0.093188601053449227</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.66391429448983252</v>
+        <v>0.65961531765093018</v>
       </c>
       <c r="O42">
-        <v>0.33608570551016737</v>
+        <v>0.34038468234906988</v>
       </c>
     </row>
     <row r="43">
@@ -11828,19 +11828,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.90842702050326019</v>
+        <v>0.91310593243162197</v>
       </c>
       <c r="J43">
-        <v>0.091572979496739759</v>
+        <v>0.086894067568378017</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.66606226086548259</v>
+        <v>0.66768776442315092</v>
       </c>
       <c r="O43">
-        <v>0.33393773913451741</v>
+        <v>0.33231223557684902</v>
       </c>
     </row>
     <row r="44">
@@ -11848,19 +11848,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.92916436230335153</v>
+        <v>0.92092263033360711</v>
       </c>
       <c r="J44">
-        <v>0.070835637696648496</v>
+        <v>0.079077369666392991</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.65404063920337274</v>
+        <v>0.66045522763255515</v>
       </c>
       <c r="O44">
-        <v>0.34595936079662726</v>
+        <v>0.33954477236744485</v>
       </c>
     </row>
     <row r="45">
@@ -11868,19 +11868,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.92409699996672279</v>
+        <v>0.92495051398850359</v>
       </c>
       <c r="J45">
-        <v>0.075903000033277171</v>
+        <v>0.075049486011496497</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.64655220592228602</v>
+        <v>0.64011992937042317</v>
       </c>
       <c r="O45">
-        <v>0.35344779407771398</v>
+        <v>0.35988007062957689</v>
       </c>
     </row>
     <row r="46">
@@ -11888,19 +11888,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.88793318791311471</v>
+        <v>0.89212451713613761</v>
       </c>
       <c r="J46">
-        <v>0.11206681208688531</v>
+        <v>0.1078754828638625</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.57555997296977424</v>
+        <v>0.57652505528469622</v>
       </c>
       <c r="O46">
-        <v>0.42444002703022571</v>
+        <v>0.42347494471530384</v>
       </c>
     </row>
     <row r="47">
@@ -11908,19 +11908,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.89295058053866749</v>
+        <v>0.88660417388810431</v>
       </c>
       <c r="J47">
-        <v>0.1070494194613326</v>
+        <v>0.11339582611189572</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.56682393639287576</v>
+        <v>0.55131762254346728</v>
       </c>
       <c r="O47">
-        <v>0.4331760636071243</v>
+        <v>0.44868237745653261</v>
       </c>
     </row>
     <row r="48">
@@ -11928,19 +11928,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.91723417726952083</v>
+        <v>0.91426384648411529</v>
       </c>
       <c r="J48">
-        <v>0.082765822730479222</v>
+        <v>0.085736153515884664</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.59759011047644317</v>
+        <v>0.59903556905281985</v>
       </c>
       <c r="O48">
-        <v>0.40240988952355677</v>
+        <v>0.40096443094718021</v>
       </c>
     </row>
     <row r="49">
@@ -11948,19 +11948,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.88540774191105676</v>
+        <v>0.87995259035475193</v>
       </c>
       <c r="J49">
-        <v>0.11459225808894338</v>
+        <v>0.12004740964524813</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.64301788285541872</v>
+        <v>0.64177765830910971</v>
       </c>
       <c r="O49">
-        <v>0.35698211714458139</v>
+        <v>0.35822234169089023</v>
       </c>
     </row>
     <row r="50">
@@ -11968,19 +11968,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.88309740250981872</v>
+        <v>0.88341195351441881</v>
       </c>
       <c r="J50">
-        <v>0.11690259749018127</v>
+        <v>0.11658804648558119</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.58583753748829659</v>
+        <v>0.59861649375600146</v>
       </c>
       <c r="O50">
-        <v>0.41416246251170341</v>
+        <v>0.40138350624399849</v>
       </c>
     </row>
     <row r="51">
@@ -11988,19 +11988,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.91132461638637374</v>
+        <v>0.91006749084516381</v>
       </c>
       <c r="J51">
-        <v>0.088675383613626355</v>
+        <v>0.089932509154836179</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.62351336157612935</v>
+        <v>0.63301187577564944</v>
       </c>
       <c r="O51">
-        <v>0.37648663842387065</v>
+        <v>0.36698812422435062</v>
       </c>
     </row>
     <row r="52">
@@ -12008,19 +12008,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.89809298241002411</v>
+        <v>0.90107494954474265</v>
       </c>
       <c r="J52">
-        <v>0.10190701758997586</v>
+        <v>0.098925050455257374</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.6066770417479781</v>
+        <v>0.60041679546119764</v>
       </c>
       <c r="O52">
-        <v>0.39332295825202201</v>
+        <v>0.39958320453880231</v>
       </c>
     </row>
     <row r="53">
@@ -12028,19 +12028,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.93094291897093107</v>
+        <v>0.93059684007233923</v>
       </c>
       <c r="J53">
-        <v>0.069057081029069073</v>
+        <v>0.069403159927660829</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.57876841113540822</v>
+        <v>0.58454609724718365</v>
       </c>
       <c r="O53">
-        <v>0.42123158886459167</v>
+        <v>0.41545390275281624</v>
       </c>
     </row>
     <row r="54">
@@ -12545,19 +12545,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.47332890928946897</v>
+        <v>0.45153458831811394</v>
       </c>
       <c r="J3">
-        <v>0.52667109071053098</v>
+        <v>0.54846541168188612</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.8811607891654879</v>
+        <v>0.87986816283842728</v>
       </c>
       <c r="O3">
-        <v>0.11883921083451211</v>
+        <v>0.12013183716157276</v>
       </c>
     </row>
     <row r="4">
@@ -12565,19 +12565,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.45871102205590797</v>
+        <v>0.445235034464253</v>
       </c>
       <c r="J4">
-        <v>0.54128897794409214</v>
+        <v>0.55476496553574706</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.88658968606814648</v>
+        <v>0.88892101987297667</v>
       </c>
       <c r="O4">
-        <v>0.11341031393185347</v>
+        <v>0.11107898012702326</v>
       </c>
     </row>
     <row r="5">
@@ -12585,19 +12585,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.44758123183930476</v>
+        <v>0.44320463335182292</v>
       </c>
       <c r="J5">
-        <v>0.55241876816069513</v>
+        <v>0.55679536664817719</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.8955121075930168</v>
+        <v>0.89868819947112821</v>
       </c>
       <c r="O5">
-        <v>0.10448789240698317</v>
+        <v>0.10131180052887187</v>
       </c>
     </row>
     <row r="6">
@@ -12605,19 +12605,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.4962096149566782</v>
+        <v>0.50028662653554645</v>
       </c>
       <c r="J6">
-        <v>0.50379038504332174</v>
+        <v>0.49971337346445355</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.8706078938715176</v>
+        <v>0.8732202187950473</v>
       </c>
       <c r="O6">
-        <v>0.12939210612848245</v>
+        <v>0.12677978120495273</v>
       </c>
     </row>
     <row r="7">
@@ -12625,19 +12625,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.45484150384429928</v>
+        <v>0.47470859318201153</v>
       </c>
       <c r="J7">
-        <v>0.54515849615570078</v>
+        <v>0.52529140681798836</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.88741252231186496</v>
+        <v>0.88269244057509122</v>
       </c>
       <c r="O7">
-        <v>0.11258747768813497</v>
+        <v>0.11730755942490878</v>
       </c>
     </row>
     <row r="8">
@@ -12645,19 +12645,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.46226682434495264</v>
+        <v>0.45444857099085012</v>
       </c>
       <c r="J8">
-        <v>0.53773317565504741</v>
+        <v>0.54555142900914988</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83256729742974411</v>
+        <v>0.83539019683346805</v>
       </c>
       <c r="O8">
-        <v>0.16743270257025594</v>
+        <v>0.16460980316653195</v>
       </c>
     </row>
     <row r="9">
@@ -12665,19 +12665,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.3725258186449652</v>
+        <v>0.36992140155974496</v>
       </c>
       <c r="J9">
-        <v>0.62747418135503474</v>
+        <v>0.63007859844025504</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.90309160677250144</v>
+        <v>0.90202125615314011</v>
       </c>
       <c r="O9">
-        <v>0.096908393227498571</v>
+        <v>0.097978743846859895</v>
       </c>
     </row>
     <row r="10">
@@ -12685,19 +12685,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.4578462184258496</v>
+        <v>0.45655056040668385</v>
       </c>
       <c r="J10">
-        <v>0.54215378157415051</v>
+        <v>0.54344943959331615</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.8982444749597599</v>
+        <v>0.89671401690069519</v>
       </c>
       <c r="O10">
-        <v>0.10175552504024016</v>
+        <v>0.10328598309930474</v>
       </c>
     </row>
     <row r="11">
@@ -12705,19 +12705,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.50296987452090269</v>
+        <v>0.49797078634428188</v>
       </c>
       <c r="J11">
-        <v>0.49703012547909747</v>
+        <v>0.50202921365571807</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.90841881847005312</v>
+        <v>0.90441851949166818</v>
       </c>
       <c r="O11">
-        <v>0.091581181529946931</v>
+        <v>0.095581480508331762</v>
       </c>
     </row>
     <row r="12">
@@ -12725,19 +12725,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.52461081576785396</v>
+        <v>0.50746625019332658</v>
       </c>
       <c r="J12">
-        <v>0.47538918423214616</v>
+        <v>0.49253374980667336</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.89361096135179341</v>
+        <v>0.89347620491309199</v>
       </c>
       <c r="O12">
-        <v>0.10638903864820659</v>
+        <v>0.10652379508690801</v>
       </c>
     </row>
     <row r="13">
@@ -12745,19 +12745,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.53276868925463994</v>
+        <v>0.54231557463128055</v>
       </c>
       <c r="J13">
-        <v>0.46723131074536012</v>
+        <v>0.45768442536871956</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.86117419893985259</v>
+        <v>0.85678381114329072</v>
       </c>
       <c r="O13">
-        <v>0.13882580106014741</v>
+        <v>0.14321618885670928</v>
       </c>
     </row>
     <row r="14">
@@ -12765,19 +12765,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.53485415093573174</v>
+        <v>0.53849932569716019</v>
       </c>
       <c r="J14">
-        <v>0.4651458490642682</v>
+        <v>0.46150067430283975</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.8509409282289836</v>
+        <v>0.84954905149464932</v>
       </c>
       <c r="O14">
-        <v>0.14905907177101629</v>
+        <v>0.1504509485053506</v>
       </c>
     </row>
     <row r="15">
@@ -12785,19 +12785,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.50540547003585534</v>
+        <v>0.50826186731543266</v>
       </c>
       <c r="J15">
-        <v>0.4945945299641446</v>
+        <v>0.49173813268456723</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.84568695705871411</v>
+        <v>0.84545281464791244</v>
       </c>
       <c r="O15">
-        <v>0.15431304294128589</v>
+        <v>0.15454718535208758</v>
       </c>
     </row>
     <row r="16">
@@ -12805,19 +12805,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.50675886639782108</v>
+        <v>0.50734132692075806</v>
       </c>
       <c r="J16">
-        <v>0.49324113360217892</v>
+        <v>0.49265867307924194</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.87972558742569573</v>
+        <v>0.87925576852365395</v>
       </c>
       <c r="O16">
-        <v>0.1202744125743043</v>
+        <v>0.12074423147634612</v>
       </c>
     </row>
     <row r="17">
@@ -12825,19 +12825,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.47493356569008349</v>
+        <v>0.47589868915949668</v>
       </c>
       <c r="J17">
-        <v>0.52506643430991662</v>
+        <v>0.52410131084050338</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.8689492123726994</v>
+        <v>0.87054536478381062</v>
       </c>
       <c r="O17">
-        <v>0.13105078762730052</v>
+        <v>0.12945463521618933</v>
       </c>
     </row>
     <row r="18">
@@ -12845,19 +12845,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.57023198491435945</v>
+        <v>0.57202998170401176</v>
       </c>
       <c r="J18">
-        <v>0.42976801508564044</v>
+        <v>0.42797001829598824</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.85093756862009351</v>
+        <v>0.85390522001185076</v>
       </c>
       <c r="O18">
-        <v>0.14906243137990655</v>
+        <v>0.14609477998814926</v>
       </c>
     </row>
     <row r="19">
@@ -12865,19 +12865,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.57244396518656249</v>
+        <v>0.5748715884355553</v>
       </c>
       <c r="J19">
-        <v>0.42755603481343751</v>
+        <v>0.42512841156444481</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.86341831323152185</v>
+        <v>0.86359349166903221</v>
       </c>
       <c r="O19">
-        <v>0.13658168676847809</v>
+        <v>0.13640650833096785</v>
       </c>
     </row>
     <row r="20">
@@ -12885,19 +12885,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.56978502632088734</v>
+        <v>0.57291662283663858</v>
       </c>
       <c r="J20">
-        <v>0.4302149736791126</v>
+        <v>0.42708337716336153</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.8595005586617519</v>
+        <v>0.85470889121900195</v>
       </c>
       <c r="O20">
-        <v>0.1404994413382481</v>
+        <v>0.14529110878099805</v>
       </c>
     </row>
     <row r="21">
@@ -12905,19 +12905,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.59013566669668904</v>
+        <v>0.58591163722666872</v>
       </c>
       <c r="J21">
-        <v>0.40986433330331096</v>
+        <v>0.41408836277333133</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.84595861429093744</v>
+        <v>0.84459100225135642</v>
       </c>
       <c r="O21">
-        <v>0.15404138570906251</v>
+        <v>0.15540899774864358</v>
       </c>
     </row>
     <row r="22">
@@ -12925,19 +12925,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.58208931614577308</v>
+        <v>0.58068413255131346</v>
       </c>
       <c r="J22">
-        <v>0.41791068385422703</v>
+        <v>0.41931586744868654</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.8569673349420116</v>
+        <v>0.8540017211175891</v>
       </c>
       <c r="O22">
-        <v>0.14303266505798837</v>
+        <v>0.14599827888241104</v>
       </c>
     </row>
     <row r="23">
@@ -12945,19 +12945,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.53976002883421803</v>
+        <v>0.55179891537382775</v>
       </c>
       <c r="J23">
-        <v>0.46023997116578191</v>
+        <v>0.44820108462617231</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.84795855953786792</v>
+        <v>0.84812724070418455</v>
       </c>
       <c r="O23">
-        <v>0.15204144046213214</v>
+        <v>0.15187275929581545</v>
       </c>
     </row>
     <row r="24">
@@ -12965,19 +12965,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.57977035836945479</v>
+        <v>0.58082259304487283</v>
       </c>
       <c r="J24">
-        <v>0.42022964163054521</v>
+        <v>0.41917740695512717</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.83440841582836056</v>
+        <v>0.83305617080899252</v>
       </c>
       <c r="O24">
-        <v>0.16559158417163944</v>
+        <v>0.16694382919100756</v>
       </c>
     </row>
     <row r="25">
@@ -12985,19 +12985,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.61971802392671105</v>
+        <v>0.624160589930291</v>
       </c>
       <c r="J25">
-        <v>0.38028197607328901</v>
+        <v>0.37583941006970895</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.83725679950809062</v>
+        <v>0.83887618168483391</v>
       </c>
       <c r="O25">
-        <v>0.16274320049190941</v>
+        <v>0.16112381831516609</v>
       </c>
     </row>
     <row r="26">
@@ -13005,19 +13005,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.60471858782088461</v>
+        <v>0.59702826292065858</v>
       </c>
       <c r="J26">
-        <v>0.39528141217911528</v>
+        <v>0.40297173707934131</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.84035835567138095</v>
+        <v>0.84434933335858076</v>
       </c>
       <c r="O26">
-        <v>0.15964164432861902</v>
+        <v>0.15565066664141927</v>
       </c>
     </row>
     <row r="27">
@@ -13025,19 +13025,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.6228996181120634</v>
+        <v>0.62468065877756063</v>
       </c>
       <c r="J27">
-        <v>0.3771003818879366</v>
+        <v>0.37531934122243937</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.82229711547775419</v>
+        <v>0.82028205330504833</v>
       </c>
       <c r="O27">
-        <v>0.17770288452224589</v>
+        <v>0.17971794669495167</v>
       </c>
     </row>
     <row r="28">
@@ -13045,19 +13045,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.64029186376958624</v>
+        <v>0.63554999033969806</v>
       </c>
       <c r="J28">
-        <v>0.3597081362304137</v>
+        <v>0.36445000966030205</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.81849688528364761</v>
+        <v>0.82140880784372028</v>
       </c>
       <c r="O28">
-        <v>0.1815031147163523</v>
+        <v>0.17859119215627975</v>
       </c>
     </row>
     <row r="29">
@@ -13065,19 +13065,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.63890247908353293</v>
+        <v>0.64464823214342792</v>
       </c>
       <c r="J29">
-        <v>0.36109752091646713</v>
+        <v>0.35535176785657202</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.82853195892226761</v>
+        <v>0.82967988267889636</v>
       </c>
       <c r="O29">
-        <v>0.17146804107773247</v>
+        <v>0.17032011732110366</v>
       </c>
     </row>
     <row r="30">
@@ -13085,19 +13085,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.64561183194451188</v>
+        <v>0.64685008558299117</v>
       </c>
       <c r="J30">
-        <v>0.35438816805548801</v>
+        <v>0.35314991441700877</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.84400761197698204</v>
+        <v>0.84247669782465595</v>
       </c>
       <c r="O30">
-        <v>0.15599238802301796</v>
+        <v>0.15752330217534408</v>
       </c>
     </row>
     <row r="31">
@@ -13105,19 +13105,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.69005025873409742</v>
+        <v>0.68287548907850493</v>
       </c>
       <c r="J31">
-        <v>0.30994974126590252</v>
+        <v>0.31712451092149502</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.83671678135197125</v>
+        <v>0.83332628343294157</v>
       </c>
       <c r="O31">
-        <v>0.16328321864802878</v>
+        <v>0.16667371656705843</v>
       </c>
     </row>
     <row r="32">
@@ -13125,19 +13125,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.69783157578822508</v>
+        <v>0.70012683045066937</v>
       </c>
       <c r="J32">
-        <v>0.30216842421177509</v>
+        <v>0.29987316954933069</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.83856966888811457</v>
+        <v>0.83901110604364071</v>
       </c>
       <c r="O32">
-        <v>0.16143033111188546</v>
+        <v>0.16098889395635932</v>
       </c>
     </row>
     <row r="33">
@@ -13145,19 +13145,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65003377436906473</v>
+        <v>0.65274154493764813</v>
       </c>
       <c r="J33">
-        <v>0.34996622563093527</v>
+        <v>0.34725845506235203</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.81398916837859614</v>
+        <v>0.81077612654840592</v>
       </c>
       <c r="O33">
-        <v>0.18601083162140378</v>
+        <v>0.18922387345159408</v>
       </c>
     </row>
     <row r="34">
@@ -13165,19 +13165,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.70487937328457217</v>
+        <v>0.69615010637717212</v>
       </c>
       <c r="J34">
-        <v>0.29512062671542777</v>
+        <v>0.30384989362282794</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78293737454306966</v>
+        <v>0.7836829010830807</v>
       </c>
       <c r="O34">
-        <v>0.21706262545693028</v>
+        <v>0.21631709891691939</v>
       </c>
     </row>
     <row r="35">
@@ -13185,19 +13185,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70268099974213638</v>
+        <v>0.70415022612839606</v>
       </c>
       <c r="J35">
-        <v>0.29731900025786351</v>
+        <v>0.29584977387160388</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80965011800309983</v>
+        <v>0.80196935018439908</v>
       </c>
       <c r="O35">
-        <v>0.19034988199690014</v>
+        <v>0.19803064981560101</v>
       </c>
     </row>
     <row r="36">
@@ -13205,19 +13205,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.67982347729648818</v>
+        <v>0.68108444539704105</v>
       </c>
       <c r="J36">
-        <v>0.32017652270351188</v>
+        <v>0.3189155546029589</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.77973825050513512</v>
+        <v>0.78567355808064276</v>
       </c>
       <c r="O36">
-        <v>0.22026174949486493</v>
+        <v>0.21432644191935735</v>
       </c>
     </row>
     <row r="37">
@@ -13225,19 +13225,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.75060779757093288</v>
+        <v>0.74489178648135246</v>
       </c>
       <c r="J37">
-        <v>0.24939220242906701</v>
+        <v>0.2551082135186476</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.78193709127472544</v>
+        <v>0.78145082590971437</v>
       </c>
       <c r="O37">
-        <v>0.21806290872527445</v>
+        <v>0.21854917409028563</v>
       </c>
     </row>
     <row r="38">
@@ -13245,19 +13245,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.71562411639165824</v>
+        <v>0.71984452110219044</v>
       </c>
       <c r="J38">
-        <v>0.28437588360834176</v>
+        <v>0.28015547889780956</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.77907212599491382</v>
+        <v>0.78171967451948843</v>
       </c>
       <c r="O38">
-        <v>0.22092787400508615</v>
+        <v>0.21828032548051163</v>
       </c>
     </row>
     <row r="39">
@@ -13265,19 +13265,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.75051473542892833</v>
+        <v>0.74897801199969083</v>
       </c>
       <c r="J39">
-        <v>0.24948526457107159</v>
+        <v>0.25102198800030917</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.74750643665475902</v>
+        <v>0.74802357447723511</v>
       </c>
       <c r="O39">
-        <v>0.25249356334524098</v>
+        <v>0.25197642552276495</v>
       </c>
     </row>
     <row r="40">
@@ -13285,19 +13285,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.76463098123068118</v>
+        <v>0.7616341393963979</v>
       </c>
       <c r="J40">
-        <v>0.23536901876931887</v>
+        <v>0.23836586060360215</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.77076233717658071</v>
+        <v>0.77143887229135677</v>
       </c>
       <c r="O40">
-        <v>0.22923766282341923</v>
+        <v>0.22856112770864315</v>
       </c>
     </row>
     <row r="41">
@@ -13305,19 +13305,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.74033303543671802</v>
+        <v>0.74405713032478893</v>
       </c>
       <c r="J41">
-        <v>0.25966696456328198</v>
+        <v>0.25594286967521107</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.78326939839523657</v>
+        <v>0.78430064003707367</v>
       </c>
       <c r="O41">
-        <v>0.21673060160476348</v>
+        <v>0.21569935996292636</v>
       </c>
     </row>
     <row r="42">
@@ -13325,19 +13325,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.79380103604353869</v>
+        <v>0.79203923939209708</v>
       </c>
       <c r="J42">
-        <v>0.20619896395646126</v>
+        <v>0.20796076060790289</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.77495216818587842</v>
+        <v>0.77994624790695499</v>
       </c>
       <c r="O42">
-        <v>0.22504783181412158</v>
+        <v>0.22005375209304509</v>
       </c>
     </row>
     <row r="43">
@@ -13345,19 +13345,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.75712781655983274</v>
+        <v>0.75364278710582633</v>
       </c>
       <c r="J43">
-        <v>0.2428721834401672</v>
+        <v>0.24635721289417367</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.7845724520928119</v>
+        <v>0.78691058476214626</v>
       </c>
       <c r="O43">
-        <v>0.2154275479071881</v>
+        <v>0.21308941523785377</v>
       </c>
     </row>
     <row r="44">
@@ -13365,19 +13365,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.80828206653432033</v>
+        <v>0.81056834806969325</v>
       </c>
       <c r="J44">
-        <v>0.1917179334656797</v>
+        <v>0.18943165193030678</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.76745777887605537</v>
+        <v>0.76863966168840192</v>
       </c>
       <c r="O44">
-        <v>0.23254222112394463</v>
+        <v>0.23136033831159808</v>
       </c>
     </row>
     <row r="45">
@@ -13385,19 +13385,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.76281746275030937</v>
+        <v>0.76373725451296415</v>
       </c>
       <c r="J45">
-        <v>0.2371825372496906</v>
+        <v>0.23626274548703574</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.76106744160973838</v>
+        <v>0.76286462788140053</v>
       </c>
       <c r="O45">
-        <v>0.23893255839026159</v>
+        <v>0.23713537211859956</v>
       </c>
     </row>
     <row r="46">
@@ -13405,19 +13405,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.75291692336291871</v>
+        <v>0.74764852420639594</v>
       </c>
       <c r="J46">
-        <v>0.24708307663708123</v>
+        <v>0.25235147579360412</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.76606817414111683</v>
+        <v>0.76702896298138656</v>
       </c>
       <c r="O46">
-        <v>0.23393182585888314</v>
+        <v>0.23297103701861349</v>
       </c>
     </row>
     <row r="47">
@@ -13425,19 +13425,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.79291641539942737</v>
+        <v>0.79178506413841065</v>
       </c>
       <c r="J47">
-        <v>0.20708358460057272</v>
+        <v>0.2082149358615894</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.75003947951304861</v>
+        <v>0.75716501159755256</v>
       </c>
       <c r="O47">
-        <v>0.24996052048695142</v>
+        <v>0.24283498840244744</v>
       </c>
     </row>
     <row r="48">
@@ -13445,19 +13445,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.78682479554399065</v>
+        <v>0.78716528141957576</v>
       </c>
       <c r="J48">
-        <v>0.21317520445600932</v>
+        <v>0.21283471858042435</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.75727690042602613</v>
+        <v>0.75177461718768313</v>
       </c>
       <c r="O48">
-        <v>0.24272309957397392</v>
+        <v>0.2482253828123169</v>
       </c>
     </row>
     <row r="49">
@@ -13465,19 +13465,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.78886840513635836</v>
+        <v>0.79078070824900926</v>
       </c>
       <c r="J49">
-        <v>0.21113159486364166</v>
+        <v>0.20921929175099074</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.73575083645924355</v>
+        <v>0.7359384979341177</v>
       </c>
       <c r="O49">
-        <v>0.26424916354075639</v>
+        <v>0.2640615020658823</v>
       </c>
     </row>
     <row r="50">
@@ -13485,19 +13485,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.82278747747464753</v>
+        <v>0.82313370087783266</v>
       </c>
       <c r="J50">
-        <v>0.17721252252535249</v>
+        <v>0.17686629912216725</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.73036317623557234</v>
+        <v>0.72605764003988515</v>
       </c>
       <c r="O50">
-        <v>0.26963682376442771</v>
+        <v>0.2739423599601149</v>
       </c>
     </row>
     <row r="51">
@@ -13505,19 +13505,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.8317398879222605</v>
+        <v>0.83171722784862923</v>
       </c>
       <c r="J51">
-        <v>0.16826011207773953</v>
+        <v>0.1682827721513708</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.75673174039853119</v>
+        <v>0.75456183994242354</v>
       </c>
       <c r="O51">
-        <v>0.24326825960146881</v>
+        <v>0.24543816005757638</v>
       </c>
     </row>
     <row r="52">
@@ -13525,19 +13525,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.83452639866808387</v>
+        <v>0.82864684605526873</v>
       </c>
       <c r="J52">
-        <v>0.16547360133191605</v>
+        <v>0.17135315394473133</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.68864075140808545</v>
+        <v>0.69100813952216766</v>
       </c>
       <c r="O52">
-        <v>0.31135924859191449</v>
+        <v>0.30899186047783234</v>
       </c>
     </row>
     <row r="53">
@@ -13545,19 +13545,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.8503786546328177</v>
+        <v>0.8515743088222042</v>
       </c>
       <c r="J53">
-        <v>0.14962134536718233</v>
+        <v>0.14842569117779575</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.70372139954014812</v>
+        <v>0.69995574041621089</v>
       </c>
       <c r="O53">
-        <v>0.29627860045985188</v>
+        <v>0.30004425958378894</v>
       </c>
     </row>
     <row r="54">

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14301" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14707" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>
@@ -691,31 +691,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.24633712522157716</v>
+        <v>0.24392045044139346</v>
       </c>
       <c r="C3">
-        <v>0.23091690577489396</v>
+        <v>0.23077977077411574</v>
       </c>
       <c r="D3">
-        <v>0.52274596900352888</v>
+        <v>0.52529977878449075</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.7295818524759643</v>
+        <v>0.7259219444389442</v>
       </c>
       <c r="J3">
-        <v>0.27041814752403576</v>
+        <v>0.2740780555610558</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.7309444158628392</v>
+        <v>0.73512706938974126</v>
       </c>
       <c r="O3">
-        <v>0.2690555841371608</v>
+        <v>0.26487293061025863</v>
       </c>
     </row>
     <row r="4">
@@ -723,31 +723,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.25916777471355407</v>
+        <v>0.25698292440721826</v>
       </c>
       <c r="C4">
-        <v>0.22844058343526499</v>
+        <v>0.2283442345541811</v>
       </c>
       <c r="D4">
-        <v>0.51239164185118091</v>
+        <v>0.51467284103860056</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.72095615442904881</v>
+        <v>0.72517684909999081</v>
       </c>
       <c r="J4">
-        <v>0.27904384557095113</v>
+        <v>0.27482315090000919</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.70433492455986124</v>
+        <v>0.70583169727415851</v>
       </c>
       <c r="O4">
-        <v>0.2956650754401387</v>
+        <v>0.29416830272584149</v>
       </c>
     </row>
     <row r="5">
@@ -755,31 +755,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.26180947655891973</v>
+        <v>0.26229486494119914</v>
       </c>
       <c r="C5">
-        <v>0.2198567470730505</v>
+        <v>0.21818614889976395</v>
       </c>
       <c r="D5">
-        <v>0.5183337763680298</v>
+        <v>0.51951898615903691</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.66667417182519606</v>
+        <v>0.67322991639573293</v>
       </c>
       <c r="J5">
-        <v>0.33332582817480405</v>
+        <v>0.32677008360426701</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.71941288900551181</v>
+        <v>0.72431393274238953</v>
       </c>
       <c r="O5">
-        <v>0.28058711099448819</v>
+        <v>0.27568606725761052</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.23770235781576071</v>
+        <v>0.23829132408686612</v>
       </c>
       <c r="C6">
-        <v>0.21580044788488098</v>
+        <v>0.21607214504457842</v>
       </c>
       <c r="D6">
-        <v>0.54649719429935839</v>
+        <v>0.54563653086855546</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.70634371025451415</v>
+        <v>0.70326692789181644</v>
       </c>
       <c r="J6">
-        <v>0.29365628974548585</v>
+        <v>0.29673307210818356</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.69974142190959265</v>
+        <v>0.69343852037098908</v>
       </c>
       <c r="O6">
-        <v>0.30025857809040735</v>
+        <v>0.30656147962901092</v>
       </c>
     </row>
     <row r="7">
@@ -819,31 +819,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.25475053162440842</v>
+        <v>0.25411188253582273</v>
       </c>
       <c r="C7">
-        <v>0.21800252775021547</v>
+        <v>0.21725852681684599</v>
       </c>
       <c r="D7">
-        <v>0.52724694062537614</v>
+        <v>0.52862959064733128</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.69955411118746313</v>
+        <v>0.69859767784780058</v>
       </c>
       <c r="J7">
-        <v>0.30044588881253681</v>
+        <v>0.30140232215219948</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.72565768077872028</v>
+        <v>0.72262812942463417</v>
       </c>
       <c r="O7">
-        <v>0.27434231922127961</v>
+        <v>0.27737187057536589</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.24806475751452095</v>
+        <v>0.24709751080018544</v>
       </c>
       <c r="C8">
-        <v>0.21528431336952467</v>
+        <v>0.21578042924524499</v>
       </c>
       <c r="D8">
-        <v>0.53665092911595436</v>
+        <v>0.53712205995456952</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.71861847940365708</v>
+        <v>0.72034084946110166</v>
       </c>
       <c r="J8">
-        <v>0.28138152059634303</v>
+        <v>0.27965915053889834</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.73078543968035747</v>
+        <v>0.73018425891680316</v>
       </c>
       <c r="O8">
-        <v>0.26921456031964258</v>
+        <v>0.26981574108319689</v>
       </c>
     </row>
     <row r="9">
@@ -883,31 +883,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.2610809699692298</v>
+        <v>0.26126888393079994</v>
       </c>
       <c r="C9">
-        <v>0.20031002830576447</v>
+        <v>0.20037017924585909</v>
       </c>
       <c r="D9">
-        <v>0.5386090017250057</v>
+        <v>0.53836093682334085</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.68217278858053354</v>
+        <v>0.67869095507780464</v>
       </c>
       <c r="J9">
-        <v>0.31782721141946652</v>
+        <v>0.32130904492219536</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.71260021680188634</v>
+        <v>0.70976892275244019</v>
       </c>
       <c r="O9">
-        <v>0.28739978319811371</v>
+        <v>0.29023107724755987</v>
       </c>
     </row>
     <row r="10">
@@ -915,31 +915,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.22689861854569782</v>
+        <v>0.22737851823403729</v>
       </c>
       <c r="C10">
-        <v>0.23251945257265028</v>
+        <v>0.23184998762817899</v>
       </c>
       <c r="D10">
-        <v>0.54058192888165191</v>
+        <v>0.54077149413778369</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.72361647996115164</v>
+        <v>0.72270955797274661</v>
       </c>
       <c r="J10">
-        <v>0.27638352003884847</v>
+        <v>0.27729044202725334</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.7041901725619768</v>
+        <v>0.7031619653961092</v>
       </c>
       <c r="O10">
-        <v>0.2958098274380232</v>
+        <v>0.29683803460389074</v>
       </c>
     </row>
     <row r="11">
@@ -947,31 +947,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.23313626281056393</v>
+        <v>0.23242704567664843</v>
       </c>
       <c r="C11">
-        <v>0.23071027060681396</v>
+        <v>0.23144338815867138</v>
       </c>
       <c r="D11">
-        <v>0.53615346658262208</v>
+        <v>0.5361295661646801</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.67724760152663255</v>
+        <v>0.67363093648045058</v>
       </c>
       <c r="J11">
-        <v>0.32275239847336745</v>
+        <v>0.32636906351954942</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.74267319255786768</v>
+        <v>0.74547376801649001</v>
       </c>
       <c r="O11">
-        <v>0.25732680744213227</v>
+        <v>0.25452623198350988</v>
       </c>
     </row>
     <row r="12">
@@ -979,31 +979,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.21960598986600721</v>
+        <v>0.21859261501319127</v>
       </c>
       <c r="C12">
-        <v>0.22287955531632814</v>
+        <v>0.22372787729092788</v>
       </c>
       <c r="D12">
-        <v>0.5575144548176646</v>
+        <v>0.55767950769588082</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.71012954073513646</v>
+        <v>0.70976576922400891</v>
       </c>
       <c r="J12">
-        <v>0.2898704592648636</v>
+        <v>0.29023423077599103</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.72134616288697506</v>
+        <v>0.72410635252853928</v>
       </c>
       <c r="O12">
-        <v>0.27865383711302494</v>
+        <v>0.27589364747146061</v>
       </c>
     </row>
     <row r="13">
@@ -1011,31 +1011,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.22058413501908386</v>
+        <v>0.22009989242043226</v>
       </c>
       <c r="C13">
-        <v>0.24107835668434588</v>
+        <v>0.24070270857709875</v>
       </c>
       <c r="D13">
-        <v>0.53833750829657023</v>
+        <v>0.53919739900246888</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.69918466089579667</v>
+        <v>0.69989475437840731</v>
       </c>
       <c r="J13">
-        <v>0.30081533910420333</v>
+        <v>0.3001052456215928</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.74411325290913499</v>
+        <v>0.73813643253517669</v>
       </c>
       <c r="O13">
-        <v>0.2558867470908649</v>
+        <v>0.26186356746482337</v>
       </c>
     </row>
     <row r="14">
@@ -1043,31 +1043,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.21197579553808982</v>
+        <v>0.21171417033787548</v>
       </c>
       <c r="C14">
-        <v>0.22348444887631067</v>
+        <v>0.22442374209448077</v>
       </c>
       <c r="D14">
-        <v>0.56453975558559966</v>
+        <v>0.56386208756764378</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.72315488030390584</v>
+        <v>0.72586649094546873</v>
       </c>
       <c r="J14">
-        <v>0.27684511969609421</v>
+        <v>0.27413350905453121</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.73147137682186925</v>
+        <v>0.73105117171370015</v>
       </c>
       <c r="O14">
-        <v>0.26852862317813075</v>
+        <v>0.26894882828629979</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.23411617483044492</v>
+        <v>0.23543308858324774</v>
       </c>
       <c r="C15">
-        <v>0.22372955484132384</v>
+        <v>0.22396632403198533</v>
       </c>
       <c r="D15">
-        <v>0.54215427032823127</v>
+        <v>0.54060058738476691</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.71802463131494421</v>
+        <v>0.72067888226669419</v>
       </c>
       <c r="J15">
-        <v>0.28197536868505574</v>
+        <v>0.27932111773330581</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.73534980028350083</v>
+        <v>0.73707557878918184</v>
       </c>
       <c r="O15">
-        <v>0.26465019971649911</v>
+        <v>0.26292442121081816</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.22179894164612912</v>
+        <v>0.22213926213399759</v>
       </c>
       <c r="C16">
-        <v>0.23327038732294073</v>
+        <v>0.23399730523722154</v>
       </c>
       <c r="D16">
-        <v>0.54493067103093018</v>
+        <v>0.54386343262878079</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.7087805518426129</v>
+        <v>0.70446324518950942</v>
       </c>
       <c r="J16">
-        <v>0.29121944815738721</v>
+        <v>0.29553675481049052</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.73832154576957287</v>
+        <v>0.74181564501581065</v>
       </c>
       <c r="O16">
-        <v>0.26167845423042718</v>
+        <v>0.25818435498418935</v>
       </c>
     </row>
     <row r="17">
@@ -1139,31 +1139,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.23335347415955379</v>
+        <v>0.23183805828464021</v>
       </c>
       <c r="C17">
-        <v>0.22025787447142128</v>
+        <v>0.21827662111994595</v>
       </c>
       <c r="D17">
-        <v>0.54638865136902492</v>
+        <v>0.54988532059541373</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.71592016136065928</v>
+        <v>0.71694134230760365</v>
       </c>
       <c r="J17">
-        <v>0.28407983863934072</v>
+        <v>0.2830586576923963</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.7546399010300473</v>
+        <v>0.75616056630823947</v>
       </c>
       <c r="O17">
-        <v>0.2453600989699527</v>
+        <v>0.24383943369176048</v>
       </c>
     </row>
     <row r="18">
@@ -1171,31 +1171,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.22200215739671622</v>
+        <v>0.22212674348146788</v>
       </c>
       <c r="C18">
-        <v>0.22508125311079882</v>
+        <v>0.22529475803239157</v>
       </c>
       <c r="D18">
-        <v>0.55291658949248501</v>
+        <v>0.5525784984861406</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.7170789442384139</v>
+        <v>0.71520487004548672</v>
       </c>
       <c r="J18">
-        <v>0.28292105576158616</v>
+        <v>0.28479512995451328</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.76248419705206583</v>
+        <v>0.764190590169886</v>
       </c>
       <c r="O18">
-        <v>0.23751580294793431</v>
+        <v>0.23580940983011395</v>
       </c>
     </row>
     <row r="19">
@@ -1203,31 +1203,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.21454282605167369</v>
+        <v>0.21601793183047174</v>
       </c>
       <c r="C19">
-        <v>0.22034137912137047</v>
+        <v>0.21948745135485606</v>
       </c>
       <c r="D19">
-        <v>0.56511579482695573</v>
+        <v>0.56449461681467217</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.70884937791387381</v>
+        <v>0.71133776759694223</v>
       </c>
       <c r="J19">
-        <v>0.29115062208612613</v>
+        <v>0.28866223240305772</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.76858727864390197</v>
+        <v>0.76892752650691543</v>
       </c>
       <c r="O19">
-        <v>0.23141272135609803</v>
+        <v>0.23107247349308449</v>
       </c>
     </row>
     <row r="20">
@@ -1235,31 +1235,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.2085156557895321</v>
+        <v>0.20895692141068786</v>
       </c>
       <c r="C20">
-        <v>0.21079725716951694</v>
+        <v>0.21087250314650463</v>
       </c>
       <c r="D20">
-        <v>0.58068708704095096</v>
+        <v>0.58017057544280759</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.68338568804230337</v>
+        <v>0.68195717295214553</v>
       </c>
       <c r="J20">
-        <v>0.31661431195769651</v>
+        <v>0.31804282704785453</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.76755824165890063</v>
+        <v>0.769699849348912</v>
       </c>
       <c r="O20">
-        <v>0.2324417583410994</v>
+        <v>0.23030015065108805</v>
       </c>
     </row>
     <row r="21">
@@ -1267,31 +1267,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.20808795064838972</v>
+        <v>0.20728456593674865</v>
       </c>
       <c r="C21">
-        <v>0.20757777937081387</v>
+        <v>0.20567592763875178</v>
       </c>
       <c r="D21">
-        <v>0.58433426998079641</v>
+        <v>0.58703950642449954</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.68481169383526819</v>
+        <v>0.68593436823045117</v>
       </c>
       <c r="J21">
-        <v>0.31518830616473181</v>
+        <v>0.31406563176954883</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.77820459923499496</v>
+        <v>0.77936544472991787</v>
       </c>
       <c r="O21">
-        <v>0.22179540076500501</v>
+        <v>0.22063455527008216</v>
       </c>
     </row>
     <row r="22">
@@ -1299,31 +1299,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.20491975841924259</v>
+        <v>0.20470083972485431</v>
       </c>
       <c r="C22">
-        <v>0.20812512175881387</v>
+        <v>0.20671477221392615</v>
       </c>
       <c r="D22">
-        <v>0.58695511982194348</v>
+        <v>0.5885843880612196</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.69301024042516557</v>
+        <v>0.69673206573639779</v>
       </c>
       <c r="J22">
-        <v>0.30698975957483443</v>
+        <v>0.3032679342636021</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.77052009869665206</v>
+        <v>0.76995394320555788</v>
       </c>
       <c r="O22">
-        <v>0.22947990130334797</v>
+        <v>0.23004605679444215</v>
       </c>
     </row>
     <row r="23">
@@ -1331,31 +1331,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.21462368085107389</v>
+        <v>0.21552399623303684</v>
       </c>
       <c r="C23">
-        <v>0.20693068764994546</v>
+        <v>0.20679569767768921</v>
       </c>
       <c r="D23">
-        <v>0.57844563149898065</v>
+        <v>0.57768030608927401</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.69688546336584478</v>
+        <v>0.69958581854960411</v>
       </c>
       <c r="J23">
-        <v>0.30311453663415522</v>
+        <v>0.300414181450396</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.7580068746991967</v>
+        <v>0.75755914270655456</v>
       </c>
       <c r="O23">
-        <v>0.2419931253008033</v>
+        <v>0.24244085729344553</v>
       </c>
     </row>
     <row r="24">
@@ -1363,31 +1363,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.20716273262500912</v>
+        <v>0.20762399350219743</v>
       </c>
       <c r="C24">
-        <v>0.22122211157668709</v>
+        <v>0.22170131295852749</v>
       </c>
       <c r="D24">
-        <v>0.5716151557983038</v>
+        <v>0.57067469353927514</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.70564952686760118</v>
+        <v>0.70557723045482301</v>
       </c>
       <c r="J24">
-        <v>0.2943504731323987</v>
+        <v>0.29442276954517699</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.77398231873329559</v>
+        <v>0.77433122864095938</v>
       </c>
       <c r="O24">
-        <v>0.22601768126670441</v>
+        <v>0.22566877135904062</v>
       </c>
     </row>
     <row r="25">
@@ -1395,31 +1395,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.20919775666081644</v>
+        <v>0.208113837468932</v>
       </c>
       <c r="C25">
-        <v>0.21481166778379962</v>
+        <v>0.21442145849233915</v>
       </c>
       <c r="D25">
-        <v>0.57599057555538402</v>
+        <v>0.57746470403872885</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.64230739248930102</v>
+        <v>0.64021677087788798</v>
       </c>
       <c r="J25">
-        <v>0.35769260751069892</v>
+        <v>0.35978322912211208</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.75312363965376838</v>
+        <v>0.75331994889663956</v>
       </c>
       <c r="O25">
-        <v>0.24687636034623167</v>
+        <v>0.24668005110336055</v>
       </c>
     </row>
     <row r="26">
@@ -1427,31 +1427,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.20915444407409961</v>
+        <v>0.20958622996061799</v>
       </c>
       <c r="C26">
-        <v>0.20162383569289602</v>
+        <v>0.20098821545302342</v>
       </c>
       <c r="D26">
-        <v>0.58922172023300445</v>
+        <v>0.58942555458635848</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.69590772217084629</v>
+        <v>0.69525763593789691</v>
       </c>
       <c r="J26">
-        <v>0.30409227782915371</v>
+        <v>0.30474236406210303</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.757926667613537</v>
+        <v>0.75618145658157543</v>
       </c>
       <c r="O26">
-        <v>0.24207333238646297</v>
+        <v>0.24381854341842457</v>
       </c>
     </row>
     <row r="27">
@@ -1459,31 +1459,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.21600344436713362</v>
+        <v>0.21749668606440584</v>
       </c>
       <c r="C27">
-        <v>0.21083224766070235</v>
+        <v>0.20895915512527052</v>
       </c>
       <c r="D27">
-        <v>0.57316430797216389</v>
+        <v>0.57354415881032361</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.68741242016524573</v>
+        <v>0.68610451402077033</v>
       </c>
       <c r="J27">
-        <v>0.31258757983475433</v>
+        <v>0.31389548597922978</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.78592473696309606</v>
+        <v>0.78427540203067692</v>
       </c>
       <c r="O27">
-        <v>0.21407526303690388</v>
+        <v>0.21572459796932306</v>
       </c>
     </row>
     <row r="28">
@@ -1491,31 +1491,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.2070572307050853</v>
+        <v>0.20542136897426214</v>
       </c>
       <c r="C28">
-        <v>0.20838983482013804</v>
+        <v>0.20912263529271422</v>
       </c>
       <c r="D28">
-        <v>0.58455293447477663</v>
+        <v>0.58545599573302365</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.70627976100156309</v>
+        <v>0.7015193294503741</v>
       </c>
       <c r="J28">
-        <v>0.29372023899843697</v>
+        <v>0.29848067054962585</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.7715071465737442</v>
+        <v>0.77058340594783925</v>
       </c>
       <c r="O28">
-        <v>0.22849285342625578</v>
+        <v>0.2294165940521608</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20836936116877675</v>
+        <v>0.20781576851726913</v>
       </c>
       <c r="C29">
-        <v>0.21221988717844015</v>
+        <v>0.21062502587353643</v>
       </c>
       <c r="D29">
-        <v>0.57941075165278311</v>
+        <v>0.5815592056091945</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.71375528023926915</v>
+        <v>0.71941705184198923</v>
       </c>
       <c r="J29">
-        <v>0.2862447197607309</v>
+        <v>0.28058294815801071</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79102945372036415</v>
+        <v>0.79408117284394253</v>
       </c>
       <c r="O29">
-        <v>0.20897054627963579</v>
+        <v>0.20591882715605744</v>
       </c>
     </row>
     <row r="30">
@@ -1555,31 +1555,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.22212257054194456</v>
+        <v>0.22302692520928113</v>
       </c>
       <c r="C30">
-        <v>0.20381956004565066</v>
+        <v>0.20273286822570519</v>
       </c>
       <c r="D30">
-        <v>0.57405786941240478</v>
+        <v>0.57424020656501362</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.69362428329374692</v>
+        <v>0.69233192231018914</v>
       </c>
       <c r="J30">
-        <v>0.30637571670625308</v>
+        <v>0.30766807768981086</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.76103336642732222</v>
+        <v>0.7637575303215518</v>
       </c>
       <c r="O30">
-        <v>0.23896663357267769</v>
+        <v>0.23624246967844822</v>
       </c>
     </row>
     <row r="31">
@@ -1587,31 +1587,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22670130998167984</v>
+        <v>0.22783032629839514</v>
       </c>
       <c r="C31">
-        <v>0.19548015294766941</v>
+        <v>0.1945014258759386</v>
       </c>
       <c r="D31">
-        <v>0.57781853707065067</v>
+        <v>0.57766824782566617</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.70850644318580502</v>
+        <v>0.7065642995720075</v>
       </c>
       <c r="J31">
-        <v>0.29149355681419503</v>
+        <v>0.29343570042799255</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78433512383146275</v>
+        <v>0.78480242063815564</v>
       </c>
       <c r="O31">
-        <v>0.21566487616853722</v>
+        <v>0.21519757936184444</v>
       </c>
     </row>
     <row r="32">
@@ -1619,31 +1619,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.21818204537645611</v>
+        <v>0.2184599114989634</v>
       </c>
       <c r="C32">
-        <v>0.19379135213383308</v>
+        <v>0.19466785224828587</v>
       </c>
       <c r="D32">
-        <v>0.58802660248971084</v>
+        <v>0.58687223625275087</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.72693893249687014</v>
+        <v>0.7235630137135054</v>
       </c>
       <c r="J32">
-        <v>0.27306106750312992</v>
+        <v>0.2764369862864946</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.7767151962448513</v>
+        <v>0.77846816810250008</v>
       </c>
       <c r="O32">
-        <v>0.22328480375514861</v>
+        <v>0.22153183189749998</v>
       </c>
     </row>
     <row r="33">
@@ -1651,31 +1651,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.2161100484186855</v>
+        <v>0.21722512914142514</v>
       </c>
       <c r="C33">
-        <v>0.20662439816441242</v>
+        <v>0.20409577449735131</v>
       </c>
       <c r="D33">
-        <v>0.57726555341690211</v>
+        <v>0.5786790963612235</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.719839216063482</v>
+        <v>0.72070624059157518</v>
       </c>
       <c r="J33">
-        <v>0.280160783936518</v>
+        <v>0.27929375940842471</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78203897247507792</v>
+        <v>0.7826123898531675</v>
       </c>
       <c r="O33">
-        <v>0.21796102752492211</v>
+        <v>0.2173876101468325</v>
       </c>
     </row>
     <row r="34">
@@ -1683,31 +1683,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.21017961207835409</v>
+        <v>0.21185961809906373</v>
       </c>
       <c r="C34">
-        <v>0.20636867612780305</v>
+        <v>0.20452173312241209</v>
       </c>
       <c r="D34">
-        <v>0.58345171179384281</v>
+        <v>0.58361864877852432</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69759460189129996</v>
+        <v>0.69460187368385862</v>
       </c>
       <c r="J34">
-        <v>0.30240539810870004</v>
+        <v>0.30539812631614149</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78672854793063185</v>
+        <v>0.78390377293449731</v>
       </c>
       <c r="O34">
-        <v>0.21327145206936807</v>
+        <v>0.21609622706550274</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.21849287614777113</v>
+        <v>0.22121634876589991</v>
       </c>
       <c r="C35">
-        <v>0.19644241126073178</v>
+        <v>0.19608810300679488</v>
       </c>
       <c r="D35">
-        <v>0.58506471259149717</v>
+        <v>0.58269554822730518</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70937456485440431</v>
+        <v>0.70277593991161447</v>
       </c>
       <c r="J35">
-        <v>0.29062543514559563</v>
+        <v>0.29722406008838553</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80648757860790365</v>
+        <v>0.80329419394836832</v>
       </c>
       <c r="O35">
-        <v>0.19351242139209629</v>
+        <v>0.19670580605163171</v>
       </c>
     </row>
     <row r="36">
@@ -1747,31 +1747,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.21492151178645827</v>
+        <v>0.21619424869846651</v>
       </c>
       <c r="C36">
-        <v>0.18900165498676447</v>
+        <v>0.18671220767821081</v>
       </c>
       <c r="D36">
-        <v>0.59607683322677729</v>
+        <v>0.59709354362332256</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.67187143081329959</v>
+        <v>0.67158040840222932</v>
       </c>
       <c r="J36">
-        <v>0.32812856918670036</v>
+        <v>0.32841959159777062</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.81673215581030423</v>
+        <v>0.81308239345255129</v>
       </c>
       <c r="O36">
-        <v>0.1832678441896958</v>
+        <v>0.1869176065474486</v>
       </c>
     </row>
     <row r="37">
@@ -1779,31 +1779,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.20343890090631123</v>
+        <v>0.204481090485053</v>
       </c>
       <c r="C37">
-        <v>0.18099315713937764</v>
+        <v>0.18089434650603134</v>
       </c>
       <c r="D37">
-        <v>0.61556794195431119</v>
+        <v>0.61462456300891566</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.69640348449224876</v>
+        <v>0.70229981196531222</v>
       </c>
       <c r="J37">
-        <v>0.3035965155077513</v>
+        <v>0.29770018803468773</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.79992628316929959</v>
+        <v>0.79892174620123746</v>
       </c>
       <c r="O37">
-        <v>0.20007371683070041</v>
+        <v>0.20107825379876262</v>
       </c>
     </row>
     <row r="38">
@@ -1811,31 +1811,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.19650558795713452</v>
+        <v>0.19752960113351034</v>
       </c>
       <c r="C38">
-        <v>0.18093514355707277</v>
+        <v>0.18143247753109923</v>
       </c>
       <c r="D38">
-        <v>0.62255926848579268</v>
+        <v>0.62103792133539049</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.68077520715409368</v>
+        <v>0.67825833940484825</v>
       </c>
       <c r="J38">
-        <v>0.31922479284590638</v>
+        <v>0.32174166059515175</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.82484975652361991</v>
+        <v>0.8234801135786517</v>
       </c>
       <c r="O38">
-        <v>0.17515024347638011</v>
+        <v>0.17651988642134833</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1843,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.1892555008212167</v>
+        <v>0.18874773742573417</v>
       </c>
       <c r="C39">
-        <v>0.17011713949223867</v>
+        <v>0.17100829903115958</v>
       </c>
       <c r="D39">
-        <v>0.64062735968654461</v>
+        <v>0.64024396354310631</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.67128014360583432</v>
+        <v>0.67057982099334901</v>
       </c>
       <c r="J39">
-        <v>0.32871985639416557</v>
+        <v>0.32942017900665099</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.8259942975648783</v>
+        <v>0.82697025551656245</v>
       </c>
       <c r="O39">
-        <v>0.1740057024351217</v>
+        <v>0.17302974448343753</v>
       </c>
     </row>
     <row r="40">
@@ -1875,31 +1875,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.167173147800636</v>
+        <v>0.167239455406405</v>
       </c>
       <c r="C40">
-        <v>0.17017997071793253</v>
+        <v>0.17126610766683972</v>
       </c>
       <c r="D40">
-        <v>0.66264688148143147</v>
+        <v>0.66149443692675536</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.65802430335622619</v>
+        <v>0.66255010875886944</v>
       </c>
       <c r="J40">
-        <v>0.34197569664377381</v>
+        <v>0.3374498912411304</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.84243270606750231</v>
+        <v>0.84050996452436577</v>
       </c>
       <c r="O40">
-        <v>0.1575672939324976</v>
+        <v>0.15949003547563423</v>
       </c>
     </row>
     <row r="41">
@@ -1907,31 +1907,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.15895167393031454</v>
+        <v>0.16067919323311367</v>
       </c>
       <c r="C41">
-        <v>0.16504394760682284</v>
+        <v>0.16535089193966249</v>
       </c>
       <c r="D41">
-        <v>0.67600437846286254</v>
+        <v>0.6739699148272239</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.6727472741695274</v>
+        <v>0.67520585651387488</v>
       </c>
       <c r="J41">
-        <v>0.3272527258304726</v>
+        <v>0.32479414348612518</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.83664859209945142</v>
+        <v>0.83633646538954454</v>
       </c>
       <c r="O41">
-        <v>0.16335140790054858</v>
+        <v>0.16366353461045541</v>
       </c>
     </row>
     <row r="42">
@@ -1939,31 +1939,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.1458859596209694</v>
+        <v>0.14599630308438366</v>
       </c>
       <c r="C42">
-        <v>0.16835240513098668</v>
+        <v>0.16975787679935542</v>
       </c>
       <c r="D42">
-        <v>0.6857616352480439</v>
+        <v>0.68424582011626089</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.64209503734517215</v>
+        <v>0.63828553819225919</v>
       </c>
       <c r="J42">
-        <v>0.3579049626548278</v>
+        <v>0.36171446180774086</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.85363001846465736</v>
+        <v>0.85309966175934981</v>
       </c>
       <c r="O42">
-        <v>0.14636998153534272</v>
+        <v>0.14690033824065021</v>
       </c>
     </row>
     <row r="43">
@@ -1971,31 +1971,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.13385969684469354</v>
+        <v>0.13414802217422489</v>
       </c>
       <c r="C43">
-        <v>0.16372844457954494</v>
+        <v>0.16194223628246032</v>
       </c>
       <c r="D43">
-        <v>0.70241185857576138</v>
+        <v>0.70390974154331487</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.60768667280058875</v>
+        <v>0.60541361098615643</v>
       </c>
       <c r="J43">
-        <v>0.39231332719941131</v>
+        <v>0.39458638901384363</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.84692713230283967</v>
+        <v>0.84755592443995209</v>
       </c>
       <c r="O43">
-        <v>0.1530728676971603</v>
+        <v>0.15244407556004783</v>
       </c>
     </row>
     <row r="44">
@@ -2003,31 +2003,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.12323682641242678</v>
+        <v>0.12387268102232685</v>
       </c>
       <c r="C44">
-        <v>0.1571481997687216</v>
+        <v>0.15624422876470076</v>
       </c>
       <c r="D44">
-        <v>0.71961497381885176</v>
+        <v>0.71988309021297248</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.65255148582152944</v>
+        <v>0.64750476766890319</v>
       </c>
       <c r="J44">
-        <v>0.34744851417847067</v>
+        <v>0.35249523233109681</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.85098056803845357</v>
+        <v>0.8491721556729972</v>
       </c>
       <c r="O44">
-        <v>0.14901943196154646</v>
+        <v>0.15082784432700277</v>
       </c>
     </row>
     <row r="45">
@@ -2035,31 +2035,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.1253398000907161</v>
+        <v>0.12367557104248951</v>
       </c>
       <c r="C45">
-        <v>0.15713076180301735</v>
+        <v>0.15693278363416846</v>
       </c>
       <c r="D45">
-        <v>0.71752943810626668</v>
+        <v>0.71939164532334199</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.60255467376147187</v>
+        <v>0.60650773658535651</v>
       </c>
       <c r="J45">
-        <v>0.39744532623852813</v>
+        <v>0.39349226341464361</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.85352851927275619</v>
+        <v>0.85280884213905372</v>
       </c>
       <c r="O45">
-        <v>0.14647148072724386</v>
+        <v>0.14719115786094628</v>
       </c>
     </row>
     <row r="46">
@@ -2067,31 +2067,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.12146882441922485</v>
+        <v>0.12210028363766455</v>
       </c>
       <c r="C46">
-        <v>0.15322966622523629</v>
+        <v>0.15480912063264615</v>
       </c>
       <c r="D46">
-        <v>0.72530150935553872</v>
+        <v>0.72309059572968937</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.56778247726475006</v>
+        <v>0.56588230052684074</v>
       </c>
       <c r="J46">
-        <v>0.43221752273524988</v>
+        <v>0.4341176994731592</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.84894005221786772</v>
+        <v>0.85223302037804927</v>
       </c>
       <c r="O46">
-        <v>0.15105994778213228</v>
+        <v>0.14776697962195079</v>
       </c>
     </row>
     <row r="47">
@@ -2099,31 +2099,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.11310625172121082</v>
+        <v>0.11161542297771726</v>
       </c>
       <c r="C47">
-        <v>0.15101798278308029</v>
+        <v>0.15108280460106724</v>
       </c>
       <c r="D47">
-        <v>0.73587576549570888</v>
+        <v>0.73730177242121542</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.61847781763241338</v>
+        <v>0.61886666080323061</v>
       </c>
       <c r="J47">
-        <v>0.38152218236758656</v>
+        <v>0.38113333919676934</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.82755949031810705</v>
+        <v>0.82770964485488552</v>
       </c>
       <c r="O47">
-        <v>0.1724405096818929</v>
+        <v>0.17229035514511445</v>
       </c>
     </row>
     <row r="48">
@@ -2131,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.1273757573128782</v>
+        <v>0.12808607169723041</v>
       </c>
       <c r="C48">
-        <v>0.15736000128169642</v>
+        <v>0.15632438067959234</v>
       </c>
       <c r="D48">
-        <v>0.71526424140542522</v>
+        <v>0.71558954762317717</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.59994304953156996</v>
+        <v>0.59797588322573991</v>
       </c>
       <c r="J48">
-        <v>0.40005695046843004</v>
+        <v>0.40202411677426003</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.84853271439597244</v>
+        <v>0.85056773242263162</v>
       </c>
       <c r="O48">
-        <v>0.1514672856040275</v>
+        <v>0.14943226757736827</v>
       </c>
     </row>
     <row r="49">
@@ -2163,31 +2163,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.11219291186259092</v>
+        <v>0.11144372556146588</v>
       </c>
       <c r="C49">
-        <v>0.17021026251487831</v>
+        <v>0.17005958290504211</v>
       </c>
       <c r="D49">
-        <v>0.7175968256225308</v>
+        <v>0.71849669153349205</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.60922425331451413</v>
+        <v>0.6149487846902254</v>
       </c>
       <c r="J49">
-        <v>0.39077574668548581</v>
+        <v>0.3850512153097746</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.83683793591785172</v>
+        <v>0.83669743089911108</v>
       </c>
       <c r="O49">
-        <v>0.16316206408214834</v>
+        <v>0.16330256910088897</v>
       </c>
     </row>
     <row r="50">
@@ -2195,31 +2195,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.11647366687071407</v>
+        <v>0.11669804447192564</v>
       </c>
       <c r="C50">
-        <v>0.16937364374157873</v>
+        <v>0.16967038810188045</v>
       </c>
       <c r="D50">
-        <v>0.71415268938770715</v>
+        <v>0.71363156742619405</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.56782415722318957</v>
+        <v>0.56335461476173221</v>
       </c>
       <c r="J50">
-        <v>0.43217584277681054</v>
+        <v>0.43664538523826785</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.81927862900037685</v>
+        <v>0.8223239993305751</v>
       </c>
       <c r="O50">
-        <v>0.18072137099962304</v>
+        <v>0.17767600066942499</v>
       </c>
     </row>
     <row r="51">
@@ -2227,31 +2227,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.1268817739779094</v>
+        <v>0.12694005462654526</v>
       </c>
       <c r="C51">
-        <v>0.16117059732775088</v>
+        <v>0.15967011290873945</v>
       </c>
       <c r="D51">
-        <v>0.7119476286943397</v>
+        <v>0.71338983246471532</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.57765566511110822</v>
+        <v>0.57184072511954243</v>
       </c>
       <c r="J51">
-        <v>0.42234433488889167</v>
+        <v>0.42815927488045763</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.82341459617720691</v>
+        <v>0.82251963869434142</v>
       </c>
       <c r="O51">
-        <v>0.17658540382279306</v>
+        <v>0.17748036130565864</v>
       </c>
     </row>
     <row r="52">
@@ -2259,31 +2259,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.12068347529181957</v>
+        <v>0.12022831407311153</v>
       </c>
       <c r="C52">
-        <v>0.16282523432285928</v>
+        <v>0.16202666877960209</v>
       </c>
       <c r="D52">
-        <v>0.71649129038532111</v>
+        <v>0.71774501714728645</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.56145596575281709</v>
+        <v>0.55914707239060402</v>
       </c>
       <c r="J52">
-        <v>0.43854403424718286</v>
+        <v>0.44085292760939587</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.84760159526823575</v>
+        <v>0.84748630767292432</v>
       </c>
       <c r="O52">
-        <v>0.15239840473176416</v>
+        <v>0.15251369232707557</v>
       </c>
     </row>
     <row r="53">
@@ -2291,31 +2291,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.11360601990962731</v>
+        <v>0.1138965198104028</v>
       </c>
       <c r="C53">
-        <v>0.16858676636193165</v>
+        <v>0.16775039712187598</v>
       </c>
       <c r="D53">
-        <v>0.71780721372844114</v>
+        <v>0.71835308306772128</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.59729905331619693</v>
+        <v>0.59688830620606415</v>
       </c>
       <c r="J53">
-        <v>0.40270094668380318</v>
+        <v>0.40311169379393585</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.82234890743349565</v>
+        <v>0.82216720057233872</v>
       </c>
       <c r="O53">
-        <v>0.17765109256650438</v>
+        <v>0.17783279942766128</v>
       </c>
     </row>
     <row r="54">
@@ -2323,13 +2323,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.10842749898938893</v>
+        <v>0.10833230676159662</v>
       </c>
       <c r="C54">
-        <v>0.17908143684763012</v>
+        <v>0.17857893880806716</v>
       </c>
       <c r="D54">
-        <v>0.71249106416298091</v>
+        <v>0.71308875443033626</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -5314,10 +5314,10 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.62539472919649408</v>
+        <v>0.63409962205721981</v>
       </c>
       <c r="O3">
-        <v>0.37460527080350586</v>
+        <v>0.36590037794278019</v>
       </c>
     </row>
     <row r="4">
@@ -5325,19 +5325,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.81804334818963209</v>
+        <v>0.80509995442115068</v>
       </c>
       <c r="J4">
-        <v>0.18195665181036783</v>
+        <v>0.19490004557884946</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.66777207713019293</v>
+        <v>0.66359934606412896</v>
       </c>
       <c r="O4">
-        <v>0.33222792286980712</v>
+        <v>0.33640065393587099</v>
       </c>
     </row>
     <row r="5">
@@ -5345,19 +5345,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.75951080743271671</v>
+        <v>0.75810915587631389</v>
       </c>
       <c r="J5">
-        <v>0.24048919256728318</v>
+        <v>0.24189084412368617</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.69212028903124223</v>
+        <v>0.71074506847626018</v>
       </c>
       <c r="O5">
-        <v>0.30787971096875771</v>
+        <v>0.28925493152373988</v>
       </c>
     </row>
     <row r="6">
@@ -5365,19 +5365,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.82677854914380988</v>
+        <v>0.82210747320118638</v>
       </c>
       <c r="J6">
-        <v>0.17322145085619017</v>
+        <v>0.17789252679881359</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.55117152675737946</v>
+        <v>0.53964685670312951</v>
       </c>
       <c r="O6">
-        <v>0.44882847324262048</v>
+        <v>0.46035314329687049</v>
       </c>
     </row>
     <row r="7">
@@ -5385,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.77046634299178418</v>
+        <v>0.77623795643594506</v>
       </c>
       <c r="J7">
-        <v>0.22953365700821585</v>
+        <v>0.22376204356405496</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.63963105886367988</v>
+        <v>0.63202109324180811</v>
       </c>
       <c r="O7">
-        <v>0.36036894113632018</v>
+        <v>0.36797890675819184</v>
       </c>
     </row>
     <row r="8">
@@ -5405,19 +5405,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.80800727668598094</v>
+        <v>0.80896433149104996</v>
       </c>
       <c r="J8">
-        <v>0.19199272331401901</v>
+        <v>0.19103566850894999</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.61002833482553587</v>
+        <v>0.61081633873702657</v>
       </c>
       <c r="O8">
-        <v>0.38997166517446413</v>
+        <v>0.38918366126297338</v>
       </c>
     </row>
     <row r="9">
@@ -5425,19 +5425,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.72920388419392557</v>
+        <v>0.72537840559940236</v>
       </c>
       <c r="J9">
-        <v>0.27079611580607443</v>
+        <v>0.27462159440059758</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.62025342147749496</v>
+        <v>0.61881918093062427</v>
       </c>
       <c r="O9">
-        <v>0.3797465785225051</v>
+        <v>0.38118081906937579</v>
       </c>
     </row>
     <row r="10">
@@ -5445,19 +5445,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.76793388662479456</v>
+        <v>0.7754615783953156</v>
       </c>
       <c r="J10">
-        <v>0.23206611337520539</v>
+        <v>0.2245384216046844</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.53767806202076818</v>
+        <v>0.53315702224350781</v>
       </c>
       <c r="O10">
-        <v>0.46232193797923182</v>
+        <v>0.46684297775649225</v>
       </c>
     </row>
     <row r="11">
@@ -5465,19 +5465,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.70908020781134862</v>
+        <v>0.69870401381037084</v>
       </c>
       <c r="J11">
-        <v>0.29091979218865155</v>
+        <v>0.30129598618962905</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.6627152019278596</v>
+        <v>0.66883249435375147</v>
       </c>
       <c r="O11">
-        <v>0.33728479807214035</v>
+        <v>0.33116750564624858</v>
       </c>
     </row>
     <row r="12">
@@ -5485,19 +5485,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.76789858280113221</v>
+        <v>0.77119629436323422</v>
       </c>
       <c r="J12">
-        <v>0.23210141719886773</v>
+        <v>0.22880370563676578</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.68855177241542509</v>
+        <v>0.69375813942691689</v>
       </c>
       <c r="O12">
-        <v>0.31144822758457491</v>
+        <v>0.30624186057308317</v>
       </c>
     </row>
     <row r="13">
@@ -5505,19 +5505,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.7536539995849959</v>
+        <v>0.74806622751162388</v>
       </c>
       <c r="J13">
-        <v>0.24634600041500407</v>
+        <v>0.25193377248837601</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.69008240948106558</v>
+        <v>0.68849329792661507</v>
       </c>
       <c r="O13">
-        <v>0.30991759051893453</v>
+        <v>0.31150670207338488</v>
       </c>
     </row>
     <row r="14">
@@ -5525,19 +5525,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.7687610496886701</v>
+        <v>0.77569945041904509</v>
       </c>
       <c r="J14">
-        <v>0.23123895031132988</v>
+        <v>0.22430054958095488</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.66085187818780233</v>
+        <v>0.65951072208941919</v>
       </c>
       <c r="O14">
-        <v>0.33914812181219767</v>
+        <v>0.34048927791058087</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.79892249416798111</v>
+        <v>0.79636277158757873</v>
       </c>
       <c r="J15">
-        <v>0.20107750583201883</v>
+        <v>0.20363722841242124</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.64775878879787296</v>
+        <v>0.64532949411881269</v>
       </c>
       <c r="O15">
-        <v>0.35224121120212698</v>
+        <v>0.35467050588118737</v>
       </c>
     </row>
     <row r="16">
@@ -5565,19 +5565,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.79029935268387164</v>
+        <v>0.79151615894872263</v>
       </c>
       <c r="J16">
-        <v>0.20970064731612839</v>
+        <v>0.20848384105127735</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.619977321542315</v>
+        <v>0.62637416750194552</v>
       </c>
       <c r="O16">
-        <v>0.38002267845768506</v>
+        <v>0.37362583249805448</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.801192839597755</v>
+        <v>0.7956698039401634</v>
       </c>
       <c r="J17">
-        <v>0.198807160402245</v>
+        <v>0.20433019605983657</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.66735660710952294</v>
+        <v>0.67275483960059657</v>
       </c>
       <c r="O17">
-        <v>0.33264339289047712</v>
+        <v>0.32724516039940349</v>
       </c>
     </row>
     <row r="18">
@@ -5605,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.77743403504737274</v>
+        <v>0.78156285845107953</v>
       </c>
       <c r="J18">
-        <v>0.22256596495262732</v>
+        <v>0.21843714154892055</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.72715456810578238</v>
+        <v>0.72616111880789602</v>
       </c>
       <c r="O18">
-        <v>0.27284543189421767</v>
+        <v>0.27383888119210398</v>
       </c>
     </row>
     <row r="19">
@@ -5625,19 +5625,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.78346397349183738</v>
+        <v>0.78480715479669261</v>
       </c>
       <c r="J19">
-        <v>0.21653602650816264</v>
+        <v>0.21519284520330748</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.71039718290366294</v>
+        <v>0.70860231109632021</v>
       </c>
       <c r="O19">
-        <v>0.28960281709633712</v>
+        <v>0.29139768890367979</v>
       </c>
     </row>
     <row r="20">
@@ -5645,19 +5645,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.78973081964579928</v>
+        <v>0.78314922064547443</v>
       </c>
       <c r="J20">
-        <v>0.21026918035420067</v>
+        <v>0.21685077935452549</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.64940183488688774</v>
+        <v>0.65148849769686878</v>
       </c>
       <c r="O20">
-        <v>0.35059816511311231</v>
+        <v>0.34851150230313122</v>
       </c>
     </row>
     <row r="21">
@@ -5665,19 +5665,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.77939377804063992</v>
+        <v>0.78498995256220749</v>
       </c>
       <c r="J21">
-        <v>0.22060622195936008</v>
+        <v>0.21501004743779248</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.71845424145252534</v>
+        <v>0.71556355633725555</v>
       </c>
       <c r="O21">
-        <v>0.2815457585474746</v>
+        <v>0.28443644366274445</v>
       </c>
     </row>
     <row r="22">
@@ -5685,19 +5685,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.74821438410976271</v>
+        <v>0.75085056594727628</v>
       </c>
       <c r="J22">
-        <v>0.25178561589023729</v>
+        <v>0.24914943405272374</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.69384747478108277</v>
+        <v>0.69408287372733057</v>
       </c>
       <c r="O22">
-        <v>0.30615252521891717</v>
+        <v>0.30591712627266954</v>
       </c>
     </row>
     <row r="23">
@@ -5705,19 +5705,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.75611298311761821</v>
+        <v>0.7627872923165131</v>
       </c>
       <c r="J23">
-        <v>0.24388701688238187</v>
+        <v>0.2372127076834869</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.65453325754444025</v>
+        <v>0.64882121173570184</v>
       </c>
       <c r="O23">
-        <v>0.34546674245555975</v>
+        <v>0.35117878826429827</v>
       </c>
     </row>
     <row r="24">
@@ -5725,19 +5725,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.78809751102257686</v>
+        <v>0.78914557553505471</v>
       </c>
       <c r="J24">
-        <v>0.21190248897742309</v>
+        <v>0.21085442446494529</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.7205224677060692</v>
+        <v>0.72272135710267082</v>
       </c>
       <c r="O24">
-        <v>0.27947753229393074</v>
+        <v>0.27727864289732923</v>
       </c>
     </row>
     <row r="25">
@@ -5745,19 +5745,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.74653563001970058</v>
+        <v>0.7465576535150209</v>
       </c>
       <c r="J25">
-        <v>0.25346436998029948</v>
+        <v>0.25344234648497904</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.66828618535947293</v>
+        <v>0.6668751273650404</v>
       </c>
       <c r="O25">
-        <v>0.33171381464052713</v>
+        <v>0.3331248726349596</v>
       </c>
     </row>
     <row r="26">
@@ -5765,19 +5765,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.78908686597629607</v>
+        <v>0.78616743979865467</v>
       </c>
       <c r="J26">
-        <v>0.21091313402370393</v>
+        <v>0.21383256020134539</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.65696188143226986</v>
+        <v>0.65621123661671388</v>
       </c>
       <c r="O26">
-        <v>0.3430381185677302</v>
+        <v>0.34378876338328601</v>
       </c>
     </row>
     <row r="27">
@@ -5785,19 +5785,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.77614367706875897</v>
+        <v>0.77541169128777687</v>
       </c>
       <c r="J27">
-        <v>0.223856322931241</v>
+        <v>0.22458830871222307</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.72440262843216285</v>
+        <v>0.72156349805980513</v>
       </c>
       <c r="O27">
-        <v>0.27559737156783709</v>
+        <v>0.27843650194019487</v>
       </c>
     </row>
     <row r="28">
@@ -5805,19 +5805,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.77880767158578579</v>
+        <v>0.77700996602904582</v>
       </c>
       <c r="J28">
-        <v>0.22119232841421416</v>
+        <v>0.22299003397095427</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.6825506204555184</v>
+        <v>0.68364601557427096</v>
       </c>
       <c r="O28">
-        <v>0.31744937954448171</v>
+        <v>0.31635398442572904</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.80108853286795612</v>
+        <v>0.80570716023722821</v>
       </c>
       <c r="J29">
-        <v>0.19891146713204391</v>
+        <v>0.19429283976277176</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.68873567500807686</v>
+        <v>0.69320517098964374</v>
       </c>
       <c r="O29">
-        <v>0.31126432499192325</v>
+        <v>0.30679482901035626</v>
       </c>
     </row>
     <row r="30">
@@ -5845,19 +5845,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.76625319648748713</v>
+        <v>0.76372991274823365</v>
       </c>
       <c r="J30">
-        <v>0.23374680351251284</v>
+        <v>0.23627008725176629</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.6990914277887903</v>
+        <v>0.70207286130061952</v>
       </c>
       <c r="O30">
-        <v>0.30090857221120959</v>
+        <v>0.29792713869938042</v>
       </c>
     </row>
     <row r="31">
@@ -5865,19 +5865,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.82050927410113428</v>
+        <v>0.81896870412438494</v>
       </c>
       <c r="J31">
-        <v>0.1794907258988658</v>
+        <v>0.18103129587561501</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.68868399573084826</v>
+        <v>0.68453801358782784</v>
       </c>
       <c r="O31">
-        <v>0.31131600426915174</v>
+        <v>0.31546198641217216</v>
       </c>
     </row>
     <row r="32">
@@ -5885,19 +5885,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.80056774144649911</v>
+        <v>0.7963918301235583</v>
       </c>
       <c r="J32">
-        <v>0.19943225855350086</v>
+        <v>0.20360816987644159</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.71991171455634073</v>
+        <v>0.7213841850581787</v>
       </c>
       <c r="O32">
-        <v>0.28008828544365927</v>
+        <v>0.2786158149418213</v>
       </c>
     </row>
     <row r="33">
@@ -5905,19 +5905,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.77858994302750051</v>
+        <v>0.77841936315685212</v>
       </c>
       <c r="J33">
-        <v>0.22141005697249949</v>
+        <v>0.22158063684314791</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.70504253598063327</v>
+        <v>0.70181612412729411</v>
       </c>
       <c r="O33">
-        <v>0.29495746401936673</v>
+        <v>0.29818387587270589</v>
       </c>
     </row>
     <row r="34">
@@ -5925,19 +5925,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.77605583534404898</v>
+        <v>0.77366879446037529</v>
       </c>
       <c r="J34">
-        <v>0.22394416465595096</v>
+        <v>0.22633120553962469</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.72446597609545049</v>
+        <v>0.71603582715736502</v>
       </c>
       <c r="O34">
-        <v>0.27553402390454956</v>
+        <v>0.28396417284263498</v>
       </c>
     </row>
     <row r="35">
@@ -5945,19 +5945,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.76750369278713593</v>
+        <v>0.76163800253629155</v>
       </c>
       <c r="J35">
-        <v>0.23249630721286416</v>
+        <v>0.23836199746370851</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.7275161935552501</v>
+        <v>0.72429703087707165</v>
       </c>
       <c r="O35">
-        <v>0.27248380644474995</v>
+        <v>0.27570296912292841</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.71881301002447306</v>
+        <v>0.71466448452462583</v>
       </c>
       <c r="J36">
-        <v>0.28118698997552677</v>
+        <v>0.28533551547537422</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.74249877769315398</v>
+        <v>0.73875226872025046</v>
       </c>
       <c r="O36">
-        <v>0.25750122230684602</v>
+        <v>0.26124773127974954</v>
       </c>
     </row>
     <row r="37">
@@ -5985,19 +5985,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.78207785003178065</v>
+        <v>0.78934399189572679</v>
       </c>
       <c r="J37">
-        <v>0.21792214996821938</v>
+        <v>0.21065600810427318</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.74167121996365137</v>
+        <v>0.73707250122440937</v>
       </c>
       <c r="O37">
-        <v>0.25832878003634857</v>
+        <v>0.26292749877559057</v>
       </c>
     </row>
     <row r="38">
@@ -6005,19 +6005,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.74684452073134544</v>
+        <v>0.74232890326383927</v>
       </c>
       <c r="J38">
-        <v>0.25315547926865462</v>
+        <v>0.25767109673616068</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.77037128182274262</v>
+        <v>0.76941147838466684</v>
       </c>
       <c r="O38">
-        <v>0.2296287181772575</v>
+        <v>0.23058852161533325</v>
       </c>
     </row>
     <row r="39">
@@ -6025,19 +6025,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.72973582089971267</v>
+        <v>0.72840657654334751</v>
       </c>
       <c r="J39">
-        <v>0.27026417910028738</v>
+        <v>0.27159342345665249</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.80395819094674381</v>
+        <v>0.80068255900342278</v>
       </c>
       <c r="O39">
-        <v>0.19604180905325616</v>
+        <v>0.19931744099657722</v>
       </c>
     </row>
     <row r="40">
@@ -6045,19 +6045,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.71978592523836737</v>
+        <v>0.71897511978676432</v>
       </c>
       <c r="J40">
-        <v>0.28021407476163274</v>
+        <v>0.28102488021323568</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.78824054764608753</v>
+        <v>0.78337788692673338</v>
       </c>
       <c r="O40">
-        <v>0.21175945235391239</v>
+        <v>0.21662211307326654</v>
       </c>
     </row>
     <row r="41">
@@ -6065,19 +6065,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.73677279863689371</v>
+        <v>0.74146254085579577</v>
       </c>
       <c r="J41">
-        <v>0.26322720136310623</v>
+        <v>0.25853745914420428</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.76809153658695906</v>
+        <v>0.76852578211466471</v>
       </c>
       <c r="O41">
-        <v>0.23190846341304089</v>
+        <v>0.23147421788533523</v>
       </c>
     </row>
     <row r="42">
@@ -6085,19 +6085,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.69221661469232076</v>
+        <v>0.68502923023439144</v>
       </c>
       <c r="J42">
-        <v>0.30778338530767918</v>
+        <v>0.31497076976560845</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.81954160623263084</v>
+        <v>0.81944337837150105</v>
       </c>
       <c r="O42">
-        <v>0.18045839376736927</v>
+        <v>0.18055662162849898</v>
       </c>
     </row>
     <row r="43">
@@ -6105,19 +6105,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.67908628623258038</v>
+        <v>0.67553396473612903</v>
       </c>
       <c r="J43">
-        <v>0.32091371376741956</v>
+        <v>0.32446603526387097</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.80321759024584782</v>
+        <v>0.80127616616312269</v>
       </c>
       <c r="O43">
-        <v>0.19678240975415212</v>
+        <v>0.19872383383687728</v>
       </c>
     </row>
     <row r="44">
@@ -6125,19 +6125,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.70726914593653811</v>
+        <v>0.70940805046129085</v>
       </c>
       <c r="J44">
-        <v>0.29273085406346189</v>
+        <v>0.29059194953870915</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.7976825560429911</v>
+        <v>0.79492764707915964</v>
       </c>
       <c r="O44">
-        <v>0.20231744395700879</v>
+        <v>0.20507235292084036</v>
       </c>
     </row>
     <row r="45">
@@ -6145,19 +6145,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.66942002553129099</v>
+        <v>0.67076116649682449</v>
       </c>
       <c r="J45">
-        <v>0.33057997446870901</v>
+        <v>0.32923883350317557</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.81793343422781206</v>
+        <v>0.81648741088662025</v>
       </c>
       <c r="O45">
-        <v>0.18206656577218794</v>
+        <v>0.18351258911337986</v>
       </c>
     </row>
     <row r="46">
@@ -6165,19 +6165,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.64057072144490657</v>
+        <v>0.63856198367006611</v>
       </c>
       <c r="J46">
-        <v>0.35942927855509332</v>
+        <v>0.36143801632993394</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.81706082792442725</v>
+        <v>0.82332378688739105</v>
       </c>
       <c r="O46">
-        <v>0.18293917207557273</v>
+        <v>0.17667621311260898</v>
       </c>
     </row>
     <row r="47">
@@ -6185,19 +6185,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.67318550060892013</v>
+        <v>0.67753641026004818</v>
       </c>
       <c r="J47">
-        <v>0.32681449939107993</v>
+        <v>0.32246358973995182</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.77677870408921201</v>
+        <v>0.77599769437147226</v>
       </c>
       <c r="O47">
-        <v>0.22322129591078801</v>
+        <v>0.22400230562852774</v>
       </c>
     </row>
     <row r="48">
@@ -6205,19 +6205,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.66499289268310191</v>
+        <v>0.66289075791450192</v>
       </c>
       <c r="J48">
-        <v>0.3350071073168982</v>
+        <v>0.33710924208549803</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.81146762033985764</v>
+        <v>0.81458102666232712</v>
       </c>
       <c r="O48">
-        <v>0.18853237966014239</v>
+        <v>0.18541897333767288</v>
       </c>
     </row>
     <row r="49">
@@ -6225,19 +6225,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.63348767179724652</v>
+        <v>0.63932412323199717</v>
       </c>
       <c r="J49">
-        <v>0.36651232820275353</v>
+        <v>0.36067587676800283</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.78207894015772828</v>
+        <v>0.78144086883123931</v>
       </c>
       <c r="O49">
-        <v>0.2179210598422717</v>
+        <v>0.21855913116876066</v>
       </c>
     </row>
     <row r="50">
@@ -6245,19 +6245,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.59855211989259682</v>
+        <v>0.59754743769705343</v>
       </c>
       <c r="J50">
-        <v>0.40144788010740312</v>
+        <v>0.40245256230294668</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.76928783301625414</v>
+        <v>0.77266353336120608</v>
       </c>
       <c r="O50">
-        <v>0.23071216698374594</v>
+        <v>0.22733646663879398</v>
       </c>
     </row>
     <row r="51">
@@ -6265,19 +6265,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.60847342409807337</v>
+        <v>0.60079636929981883</v>
       </c>
       <c r="J51">
-        <v>0.39152657590192669</v>
+        <v>0.39920363070018117</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.79295207622942887</v>
+        <v>0.79127662333225057</v>
       </c>
       <c r="O51">
-        <v>0.20704792377057113</v>
+        <v>0.20872337666774951</v>
       </c>
     </row>
     <row r="52">
@@ -6285,19 +6285,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.60319325763378251</v>
+        <v>0.6018125911258676</v>
       </c>
       <c r="J52">
-        <v>0.39680674236621749</v>
+        <v>0.3981874088741324</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.81473535856169466</v>
+        <v>0.81245503794571938</v>
       </c>
       <c r="O52">
-        <v>0.18526464143830543</v>
+        <v>0.18754496205428056</v>
       </c>
     </row>
     <row r="53">
@@ -6305,19 +6305,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.62087913650128324</v>
+        <v>0.61816817734833507</v>
       </c>
       <c r="J53">
-        <v>0.37912086349871671</v>
+        <v>0.38183182265166493</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.78085460595700307</v>
+        <v>0.77933766165484908</v>
       </c>
       <c r="O53">
-        <v>0.21914539404299688</v>
+        <v>0.22066233834515095</v>
       </c>
     </row>
     <row r="54">
@@ -7007,19 +7007,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.71219804342815685</v>
+        <v>0.70701663899053702</v>
       </c>
       <c r="J3">
-        <v>0.28780195657184315</v>
+        <v>0.29298336100946298</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.75712395005224942</v>
+        <v>0.75970940621971017</v>
       </c>
       <c r="O3">
-        <v>0.24287604994775053</v>
+        <v>0.24029059378028986</v>
       </c>
     </row>
     <row r="4">
@@ -7027,19 +7027,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.68757687289371661</v>
+        <v>0.69759891089232628</v>
       </c>
       <c r="J4">
-        <v>0.31242312710628339</v>
+        <v>0.30240108910767372</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.71288749287030351</v>
+        <v>0.71546649323755485</v>
       </c>
       <c r="O4">
-        <v>0.28711250712969644</v>
+        <v>0.2845335067624451</v>
       </c>
     </row>
     <row r="5">
@@ -7047,19 +7047,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.63931748493940244</v>
+        <v>0.64768938438675039</v>
       </c>
       <c r="J5">
-        <v>0.36068251506059756</v>
+        <v>0.35231061561324956</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.72735768662565059</v>
+        <v>0.72824710849232133</v>
       </c>
       <c r="O5">
-        <v>0.27264231337434941</v>
+        <v>0.27175289150767873</v>
       </c>
     </row>
     <row r="6">
@@ -7067,19 +7067,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.66333939769288486</v>
+        <v>0.66128030378339564</v>
       </c>
       <c r="J6">
-        <v>0.33666060230711525</v>
+        <v>0.3387196962166043</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.74105983329631397</v>
+        <v>0.73595973128453951</v>
       </c>
       <c r="O6">
-        <v>0.25894016670368603</v>
+        <v>0.26404026871546049</v>
       </c>
     </row>
     <row r="7">
@@ -7087,19 +7087,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.67941184902985452</v>
+        <v>0.67684160917294134</v>
       </c>
       <c r="J7">
-        <v>0.32058815097014542</v>
+        <v>0.32315839082705861</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.7493064242057822</v>
+        <v>0.74745273179006133</v>
       </c>
       <c r="O7">
-        <v>0.2506935757942178</v>
+        <v>0.25254726820993867</v>
       </c>
     </row>
     <row r="8">
@@ -7107,19 +7107,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.68501718763449537</v>
+        <v>0.68674837244559628</v>
       </c>
       <c r="J8">
-        <v>0.31498281236550457</v>
+        <v>0.31325162755440378</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.76094713190333108</v>
+        <v>0.75994674553209074</v>
       </c>
       <c r="O8">
-        <v>0.2390528680966689</v>
+        <v>0.24005325446790929</v>
       </c>
     </row>
     <row r="9">
@@ -7127,19 +7127,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.6608225872614838</v>
+        <v>0.65770818425531141</v>
       </c>
       <c r="J9">
-        <v>0.33917741273851615</v>
+        <v>0.34229181574468853</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.73716232779086721</v>
+        <v>0.73445788559379854</v>
       </c>
       <c r="O9">
-        <v>0.26283767220913273</v>
+        <v>0.26554211440620135</v>
       </c>
     </row>
     <row r="10">
@@ -7147,19 +7147,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.7089117309889349</v>
+        <v>0.70540209292638112</v>
       </c>
       <c r="J10">
-        <v>0.29108826901106521</v>
+        <v>0.29459790707361899</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.74588203920398022</v>
+        <v>0.74529124572616667</v>
       </c>
       <c r="O10">
-        <v>0.25411796079601973</v>
+        <v>0.25470875427383338</v>
       </c>
     </row>
     <row r="11">
@@ -7167,19 +7167,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.66500578078666495</v>
+        <v>0.66413519006519062</v>
       </c>
       <c r="J11">
-        <v>0.33499421921333505</v>
+        <v>0.33586480993480927</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.76285560180602108</v>
+        <v>0.7646797322636697</v>
       </c>
       <c r="O11">
-        <v>0.23714439819397892</v>
+        <v>0.23532026773633039</v>
       </c>
     </row>
     <row r="12">
@@ -7187,19 +7187,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.68898161431584037</v>
+        <v>0.68756602747858553</v>
       </c>
       <c r="J12">
-        <v>0.31101838568415957</v>
+        <v>0.31243397252141447</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.73087916778036999</v>
+        <v>0.73302012357938962</v>
       </c>
       <c r="O12">
-        <v>0.26912083221963007</v>
+        <v>0.26697987642061044</v>
       </c>
     </row>
     <row r="13">
@@ -7207,19 +7207,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.67922522944816477</v>
+        <v>0.68222357655238342</v>
       </c>
       <c r="J13">
-        <v>0.32077477055183512</v>
+        <v>0.31777642344761664</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.75989082853574208</v>
+        <v>0.752873825936754</v>
       </c>
       <c r="O13">
-        <v>0.24010917146425798</v>
+        <v>0.24712617406324602</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.70369924169515086</v>
+        <v>0.70509659497795374</v>
       </c>
       <c r="J14">
-        <v>0.2963007583048492</v>
+        <v>0.29490340502204621</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.75423424235000658</v>
+        <v>0.75436484988317454</v>
       </c>
       <c r="O14">
-        <v>0.24576575764999339</v>
+        <v>0.24563515011682546</v>
       </c>
     </row>
     <row r="15">
@@ -7247,19 +7247,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.68038285250909736</v>
+        <v>0.68569922705564312</v>
       </c>
       <c r="J15">
-        <v>0.3196171474909027</v>
+        <v>0.31430077294435688</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.76477918350103036</v>
+        <v>0.76831340552769911</v>
       </c>
       <c r="O15">
-        <v>0.23522081649896964</v>
+        <v>0.23168659447230094</v>
       </c>
     </row>
     <row r="16">
@@ -7267,19 +7267,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.67001870371141992</v>
+        <v>0.66242604648386316</v>
       </c>
       <c r="J16">
-        <v>0.32998129628857997</v>
+        <v>0.33757395351613695</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.78249069804074345</v>
+        <v>0.78550508859380463</v>
       </c>
       <c r="O16">
-        <v>0.21750930195925658</v>
+        <v>0.21449491140619534</v>
       </c>
     </row>
     <row r="17">
@@ -7287,19 +7287,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.67594327120430653</v>
+        <v>0.68028082331332351</v>
       </c>
       <c r="J17">
-        <v>0.32405672879569342</v>
+        <v>0.3197191766866766</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78249897187827999</v>
+        <v>0.7828157306498934</v>
       </c>
       <c r="O17">
-        <v>0.21750102812172001</v>
+        <v>0.2171842693501066</v>
       </c>
     </row>
     <row r="18">
@@ -7307,19 +7307,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.68472141622749272</v>
+        <v>0.67993821776574181</v>
       </c>
       <c r="J18">
-        <v>0.31527858377250728</v>
+        <v>0.32006178223425824</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.77368289789532585</v>
+        <v>0.77621481358239475</v>
       </c>
       <c r="O18">
-        <v>0.22631710210467409</v>
+        <v>0.2237851864176052</v>
       </c>
     </row>
     <row r="19">
@@ -7327,19 +7327,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.66765795080502244</v>
+        <v>0.67009439650350477</v>
       </c>
       <c r="J19">
-        <v>0.33234204919497756</v>
+        <v>0.32990560349649523</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.78977007183270209</v>
+        <v>0.79060743876017192</v>
       </c>
       <c r="O19">
-        <v>0.21022992816729791</v>
+        <v>0.20939256123982805</v>
       </c>
     </row>
     <row r="20">
@@ -7347,19 +7347,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.6341720897991171</v>
+        <v>0.63524624402367624</v>
       </c>
       <c r="J20">
-        <v>0.36582791020088301</v>
+        <v>0.36475375597632387</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.81030333176409386</v>
+        <v>0.81216349093825668</v>
       </c>
       <c r="O20">
-        <v>0.18969666823590614</v>
+        <v>0.18783650906174332</v>
       </c>
     </row>
     <row r="21">
@@ -7367,19 +7367,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.62984810927760404</v>
+        <v>0.62854196828402431</v>
       </c>
       <c r="J21">
-        <v>0.37015189072239607</v>
+        <v>0.37145803171597569</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.80015115806244641</v>
+        <v>0.80289097521933195</v>
       </c>
       <c r="O21">
-        <v>0.19984884193755359</v>
+        <v>0.19710902478066797</v>
       </c>
     </row>
     <row r="22">
@@ -7387,19 +7387,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.65666646914307292</v>
+        <v>0.66053977311507983</v>
       </c>
       <c r="J22">
-        <v>0.34333353085692708</v>
+        <v>0.33946022688492006</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80119943028513552</v>
+        <v>0.80014092644135126</v>
       </c>
       <c r="O22">
-        <v>0.19880056971486457</v>
+        <v>0.19985907355864885</v>
       </c>
     </row>
     <row r="23">
@@ -7407,19 +7407,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.65816815572939702</v>
+        <v>0.65843483547806148</v>
       </c>
       <c r="J23">
-        <v>0.34183184427060292</v>
+        <v>0.34156516452193841</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.80033310845488392</v>
+        <v>0.80291462758797383</v>
       </c>
       <c r="O23">
-        <v>0.19966689154511605</v>
+        <v>0.19708537241202617</v>
       </c>
     </row>
     <row r="24">
@@ -7427,19 +7427,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.65117110562898672</v>
+        <v>0.65024236525851853</v>
       </c>
       <c r="J24">
-        <v>0.34882889437101328</v>
+        <v>0.34975763474148142</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.79455240241885849</v>
+        <v>0.79421203276376307</v>
       </c>
       <c r="O24">
-        <v>0.20544759758114156</v>
+        <v>0.20578796723623685</v>
       </c>
     </row>
     <row r="25">
@@ -7447,19 +7447,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.57441447081959307</v>
+        <v>0.57119159294513322</v>
       </c>
       <c r="J25">
-        <v>0.42558552918040682</v>
+        <v>0.42880840705486678</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.78983198752395511</v>
+        <v>0.79121811920605978</v>
       </c>
       <c r="O25">
-        <v>0.21016801247604489</v>
+        <v>0.20878188079394025</v>
       </c>
     </row>
     <row r="26">
@@ -7467,19 +7467,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.62820246192473284</v>
+        <v>0.62855011968038388</v>
       </c>
       <c r="J26">
-        <v>0.37179753807526716</v>
+        <v>0.37144988031961623</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80493362422701142</v>
+        <v>0.80260049872681849</v>
       </c>
       <c r="O26">
-        <v>0.19506637577298855</v>
+        <v>0.19739950127318159</v>
       </c>
     </row>
     <row r="27">
@@ -7487,19 +7487,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.61467528337882515</v>
+        <v>0.61133306014023503</v>
       </c>
       <c r="J27">
-        <v>0.38532471662117496</v>
+        <v>0.38866693985976497</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.81403234862363794</v>
+        <v>0.81277266599627973</v>
       </c>
       <c r="O27">
-        <v>0.18596765137636209</v>
+        <v>0.1872273340037203</v>
       </c>
     </row>
     <row r="28">
@@ -7507,19 +7507,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.65134769071639109</v>
+        <v>0.64368728493046257</v>
       </c>
       <c r="J28">
-        <v>0.34865230928360891</v>
+        <v>0.35631271506953738</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.8201330435706915</v>
+        <v>0.81811955407391623</v>
       </c>
       <c r="O28">
-        <v>0.17986695642930861</v>
+        <v>0.18188044592608382</v>
       </c>
     </row>
     <row r="29">
@@ -7527,19 +7527,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.63751927537753328</v>
+        <v>0.64507372472402591</v>
       </c>
       <c r="J29">
-        <v>0.36248072462246667</v>
+        <v>0.35492627527597403</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.84304249742451087</v>
+        <v>0.84559386108094259</v>
       </c>
       <c r="O29">
-        <v>0.1569575025754891</v>
+        <v>0.1544061389190575</v>
       </c>
     </row>
     <row r="30">
@@ -7547,19 +7547,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.61761013933101894</v>
+        <v>0.61788464659027931</v>
       </c>
       <c r="J30">
-        <v>0.38238986066898106</v>
+        <v>0.38211535340972064</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79570314311317747</v>
+        <v>0.79809834901504584</v>
       </c>
       <c r="O30">
-        <v>0.20429685688682259</v>
+        <v>0.20190165098495422</v>
       </c>
     </row>
     <row r="31">
@@ -7567,19 +7567,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.60167018602736155</v>
+        <v>0.59953062025808657</v>
       </c>
       <c r="J31">
-        <v>0.39832981397263845</v>
+        <v>0.40046937974191343</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.84349336587427493</v>
+        <v>0.84657194804501756</v>
       </c>
       <c r="O31">
-        <v>0.15650663412572507</v>
+        <v>0.15342805195498252</v>
       </c>
     </row>
     <row r="32">
@@ -7587,19 +7587,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.64712258349615381</v>
+        <v>0.64364269838468779</v>
       </c>
       <c r="J32">
-        <v>0.35287741650384624</v>
+        <v>0.35635730161531209</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.81071414646109763</v>
+        <v>0.81253330549006864</v>
       </c>
       <c r="O32">
-        <v>0.18928585353890232</v>
+        <v>0.18746669450993134</v>
       </c>
     </row>
     <row r="33">
@@ -7607,19 +7607,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65250579444719647</v>
+        <v>0.65440923704179754</v>
       </c>
       <c r="J33">
-        <v>0.34749420555280358</v>
+        <v>0.34559076295820246</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.82948252847853787</v>
+        <v>0.83212576570642738</v>
       </c>
       <c r="O33">
-        <v>0.17051747152146207</v>
+        <v>0.16787423429357268</v>
       </c>
     </row>
     <row r="34">
@@ -7627,19 +7627,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.59514445820475781</v>
+        <v>0.59144202047854766</v>
       </c>
       <c r="J34">
-        <v>0.40485554179524214</v>
+        <v>0.40855797952145229</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.82273449018000144</v>
+        <v>0.82296303336385823</v>
       </c>
       <c r="O34">
-        <v>0.17726550981999853</v>
+        <v>0.17703696663614177</v>
       </c>
     </row>
     <row r="35">
@@ -7647,19 +7647,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.62982944921580264</v>
+        <v>0.62274793026999553</v>
       </c>
       <c r="J35">
-        <v>0.37017055078419736</v>
+        <v>0.37725206973000447</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.86338949057670422</v>
+        <v>0.86158030631937521</v>
       </c>
       <c r="O35">
-        <v>0.13661050942329578</v>
+        <v>0.13841969368062471</v>
       </c>
     </row>
     <row r="36">
@@ -7667,19 +7667,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.59837777216977672</v>
+        <v>0.60426724485413275</v>
       </c>
       <c r="J36">
-        <v>0.40162222783022333</v>
+        <v>0.39573275514586725</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.87266394172242256</v>
+        <v>0.86943639132741601</v>
       </c>
       <c r="O36">
-        <v>0.12733605827757732</v>
+        <v>0.13056360867258393</v>
       </c>
     </row>
     <row r="37">
@@ -7687,19 +7687,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.56505035629248401</v>
+        <v>0.56805258196312158</v>
       </c>
       <c r="J37">
-        <v>0.43494964370751604</v>
+        <v>0.43194741803687836</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.8440742775343355</v>
+        <v>0.84621428064075399</v>
       </c>
       <c r="O37">
-        <v>0.15592572246566455</v>
+        <v>0.15378571935924604</v>
       </c>
     </row>
     <row r="38">
@@ -7707,19 +7707,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.56335747379417378</v>
+        <v>0.56371064424556894</v>
       </c>
       <c r="J38">
-        <v>0.43664252620582622</v>
+        <v>0.43628935575443112</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.86895929405423966</v>
+        <v>0.86746539266946887</v>
       </c>
       <c r="O38">
-        <v>0.13104070594576037</v>
+        <v>0.13253460733053118</v>
       </c>
     </row>
     <row r="39">
@@ -7727,19 +7727,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.57928540305624943</v>
+        <v>0.57645205291395196</v>
       </c>
       <c r="J39">
-        <v>0.42071459694375057</v>
+        <v>0.42354794708604798</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.84520117593228472</v>
+        <v>0.85027365700772017</v>
       </c>
       <c r="O39">
-        <v>0.15479882406771536</v>
+        <v>0.14972634299227985</v>
       </c>
     </row>
     <row r="40">
@@ -7747,19 +7747,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.53720562253075821</v>
+        <v>0.54667680332209834</v>
       </c>
       <c r="J40">
-        <v>0.46279437746924185</v>
+        <v>0.45332319667790166</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.89409264260252497</v>
+        <v>0.89499966448642954</v>
       </c>
       <c r="O40">
-        <v>0.105907357397475</v>
+        <v>0.10500033551357046</v>
       </c>
     </row>
     <row r="41">
@@ -7767,19 +7767,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.54870785882422368</v>
+        <v>0.54540617298393057</v>
       </c>
       <c r="J41">
-        <v>0.45129214117577632</v>
+        <v>0.45459382701606932</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.90053226232371331</v>
+        <v>0.89994713085520828</v>
       </c>
       <c r="O41">
-        <v>0.099467737676286694</v>
+        <v>0.10005286914479168</v>
       </c>
     </row>
     <row r="42">
@@ -7787,19 +7787,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.52984125383921044</v>
+        <v>0.53385328489663908</v>
       </c>
       <c r="J42">
-        <v>0.47015874616078956</v>
+        <v>0.46614671510336103</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.8871342690400893</v>
+        <v>0.88611075658170524</v>
       </c>
       <c r="O42">
-        <v>0.11286573095991077</v>
+        <v>0.11388924341829482</v>
       </c>
     </row>
     <row r="43">
@@ -7807,19 +7807,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.47506661304138753</v>
+        <v>0.47338766557408379</v>
       </c>
       <c r="J43">
-        <v>0.52493338695861247</v>
+        <v>0.52661233442591615</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.8950629908451837</v>
+        <v>0.89800368705392164</v>
       </c>
       <c r="O43">
-        <v>0.10493700915481624</v>
+        <v>0.10199631294607835</v>
       </c>
     </row>
     <row r="44">
@@ -7827,19 +7827,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.53674638684496478</v>
+        <v>0.51394904590277168</v>
       </c>
       <c r="J44">
-        <v>0.46325361315503516</v>
+        <v>0.48605095409722832</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.90546176288158797</v>
+        <v>0.90466673382734397</v>
       </c>
       <c r="O44">
-        <v>0.094538237118412</v>
+        <v>0.095333266172656153</v>
       </c>
     </row>
     <row r="45">
@@ -7847,19 +7847,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.45225855632359063</v>
+        <v>0.45383848966180135</v>
       </c>
       <c r="J45">
-        <v>0.54774144367640942</v>
+        <v>0.54616151033819871</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.89242919852035552</v>
+        <v>0.89278206488670175</v>
       </c>
       <c r="O45">
-        <v>0.10757080147964455</v>
+        <v>0.1072179351132982</v>
       </c>
     </row>
     <row r="46">
@@ -7867,19 +7867,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.40917333114947529</v>
+        <v>0.40566066710656234</v>
       </c>
       <c r="J46">
-        <v>0.59082666885052471</v>
+        <v>0.59433933289343766</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.88398683315458404</v>
+        <v>0.88429976421915302</v>
       </c>
       <c r="O46">
-        <v>0.11601316684541599</v>
+        <v>0.115700235780847</v>
       </c>
     </row>
     <row r="47">
@@ -7887,19 +7887,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.50019422415849812</v>
+        <v>0.48829191827245172</v>
       </c>
       <c r="J47">
-        <v>0.49980577584150199</v>
+        <v>0.51170808172754823</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.88488499149356237</v>
+        <v>0.88617679776695679</v>
       </c>
       <c r="O47">
-        <v>0.1151150085064376</v>
+        <v>0.11382320223304328</v>
       </c>
     </row>
     <row r="48">
@@ -7907,19 +7907,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.43933600733064526</v>
+        <v>0.43529487221401297</v>
       </c>
       <c r="J48">
-        <v>0.56066399266935474</v>
+        <v>0.56470512778598703</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.89428736545577536</v>
+        <v>0.8947734817327303</v>
       </c>
       <c r="O48">
-        <v>0.10571263454422469</v>
+        <v>0.1052265182672697</v>
       </c>
     </row>
     <row r="49">
@@ -7927,19 +7927,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.54488172902393128</v>
+        <v>0.55091992649850097</v>
       </c>
       <c r="J49">
-        <v>0.45511827097606877</v>
+        <v>0.44908007350149909</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.9032382537093735</v>
+        <v>0.90387382208778499</v>
       </c>
       <c r="O49">
-        <v>0.096761746290626532</v>
+        <v>0.096126177912215047</v>
       </c>
     </row>
     <row r="50">
@@ -7947,19 +7947,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.48948796172641618</v>
+        <v>0.47593290108717845</v>
       </c>
       <c r="J50">
-        <v>0.51051203827358393</v>
+        <v>0.52406709891282155</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.88791240334336297</v>
+        <v>0.89083312608365417</v>
       </c>
       <c r="O50">
-        <v>0.11208759665663702</v>
+        <v>0.10916687391634584</v>
       </c>
     </row>
     <row r="51">
@@ -7967,19 +7967,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.48652294902109333</v>
+        <v>0.48519826011596423</v>
       </c>
       <c r="J51">
-        <v>0.51347705097890672</v>
+        <v>0.51480173988403577</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.86807363893327627</v>
+        <v>0.86860273096107721</v>
       </c>
       <c r="O51">
-        <v>0.13192636106672379</v>
+        <v>0.13139726903892282</v>
       </c>
     </row>
     <row r="52">
@@ -7987,19 +7987,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.45291054352972376</v>
+        <v>0.44391382360472531</v>
       </c>
       <c r="J52">
-        <v>0.54708945647027618</v>
+        <v>0.5560861763952748</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.90304286929815747</v>
+        <v>0.90629558364249274</v>
       </c>
       <c r="O52">
-        <v>0.096957130701842517</v>
+        <v>0.093704416357507245</v>
       </c>
     </row>
     <row r="53">
@@ -8007,19 +8007,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.51538183057606413</v>
+        <v>0.52102491342963198</v>
       </c>
       <c r="J53">
-        <v>0.48461816942393587</v>
+        <v>0.47897508657036802</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.89662083965408279</v>
+        <v>0.89927393460595639</v>
       </c>
       <c r="O53">
-        <v>0.10337916034591715</v>
+        <v>0.10072606539404366</v>
       </c>
     </row>
     <row r="54">
@@ -8539,31 +8539,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.065258013126696018</v>
+        <v>0.063472748750201147</v>
       </c>
       <c r="C3">
-        <v>0.15386613864855148</v>
+        <v>0.15551024025639998</v>
       </c>
       <c r="D3">
-        <v>0.78087584822475253</v>
+        <v>0.78101701099339893</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.50120742653834949</v>
+        <v>0.50785596842728997</v>
       </c>
       <c r="J3">
-        <v>0.4987925734616504</v>
+        <v>0.49214403157271003</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.85872133670500206</v>
+        <v>0.8593585439829875</v>
       </c>
       <c r="O3">
-        <v>0.14127866329499791</v>
+        <v>0.14064145601701245</v>
       </c>
     </row>
     <row r="4">
@@ -8571,31 +8571,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.061840692362862035</v>
+        <v>0.062198667727277626</v>
       </c>
       <c r="C4">
-        <v>0.15951281106411561</v>
+        <v>0.15810727755963017</v>
       </c>
       <c r="D4">
-        <v>0.77864649657302232</v>
+        <v>0.77969405471309217</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.51360358708092502</v>
+        <v>0.51950344911230362</v>
       </c>
       <c r="J4">
-        <v>0.48639641291907498</v>
+        <v>0.48049655088769638</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.84893024159106911</v>
+        <v>0.84855956381646758</v>
       </c>
       <c r="O4">
-        <v>0.15106975840893086</v>
+        <v>0.15144043618353234</v>
       </c>
     </row>
     <row r="5">
@@ -8603,31 +8603,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.074395451833990794</v>
+        <v>0.074287654454140095</v>
       </c>
       <c r="C5">
-        <v>0.15525178963180608</v>
+        <v>0.15577372425237226</v>
       </c>
       <c r="D5">
-        <v>0.77035275853420315</v>
+        <v>0.76993862129348767</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.51100193691244944</v>
+        <v>0.51168829883440659</v>
       </c>
       <c r="J5">
-        <v>0.48899806308755062</v>
+        <v>0.48831170116559347</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.85666216966434294</v>
+        <v>0.8552758500740103</v>
       </c>
       <c r="O5">
-        <v>0.14333783033565703</v>
+        <v>0.14472414992598975</v>
       </c>
     </row>
     <row r="6">
@@ -8635,31 +8635,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.072392724571190906</v>
+        <v>0.073285086756194925</v>
       </c>
       <c r="C6">
-        <v>0.16090528370221149</v>
+        <v>0.16089622075266161</v>
       </c>
       <c r="D6">
-        <v>0.76670199172659759</v>
+        <v>0.76581869249114354</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.5345436084675218</v>
+        <v>0.53748366632774691</v>
       </c>
       <c r="J6">
-        <v>0.46545639153247814</v>
+        <v>0.46251633367225309</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86610606812539359</v>
+        <v>0.86393357404391569</v>
       </c>
       <c r="O6">
-        <v>0.1338939318746063</v>
+        <v>0.13606642595608429</v>
       </c>
     </row>
     <row r="7">
@@ -8667,31 +8667,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.084962515411791839</v>
+        <v>0.081231437097806808</v>
       </c>
       <c r="C7">
-        <v>0.1478859485878429</v>
+        <v>0.15125512328009169</v>
       </c>
       <c r="D7">
-        <v>0.76715153600036523</v>
+        <v>0.7675134396221015</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.56051221748274571</v>
+        <v>0.55637268362187609</v>
       </c>
       <c r="J7">
-        <v>0.43948778251725434</v>
+        <v>0.44362731637812391</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.85217165161688513</v>
+        <v>0.8542808249225009</v>
       </c>
       <c r="O7">
-        <v>0.14782834838311482</v>
+        <v>0.1457191750774991</v>
       </c>
     </row>
     <row r="8">
@@ -8699,31 +8699,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.078464182755749276</v>
+        <v>0.078311702488077853</v>
       </c>
       <c r="C8">
-        <v>0.15690859006585278</v>
+        <v>0.1569589153507408</v>
       </c>
       <c r="D8">
-        <v>0.76462722717839782</v>
+        <v>0.76472938216118136</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.56920086606958142</v>
+        <v>0.57037916890906559</v>
       </c>
       <c r="J8">
-        <v>0.43079913393041869</v>
+        <v>0.42962083109093446</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83907798555139856</v>
+        <v>0.83684691353773166</v>
       </c>
       <c r="O8">
-        <v>0.16092201444860141</v>
+        <v>0.16315308646226839</v>
       </c>
     </row>
     <row r="9">
@@ -8731,31 +8731,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.07381989647654065</v>
+        <v>0.071925277022564918</v>
       </c>
       <c r="C9">
-        <v>0.18013150298486114</v>
+        <v>0.18387284101291945</v>
       </c>
       <c r="D9">
-        <v>0.74604860053859823</v>
+        <v>0.74420188196451553</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.49181026586818116</v>
+        <v>0.49056331966917088</v>
       </c>
       <c r="J9">
-        <v>0.50818973413181889</v>
+        <v>0.50943668033082912</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.86254165582428988</v>
+        <v>0.86478187211444968</v>
       </c>
       <c r="O9">
-        <v>0.13745834417571012</v>
+        <v>0.13521812788555035</v>
       </c>
     </row>
     <row r="10">
@@ -8763,31 +8763,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.080899081231185416</v>
+        <v>0.079804025716897473</v>
       </c>
       <c r="C10">
-        <v>0.15572736220039915</v>
+        <v>0.15547384367197109</v>
       </c>
       <c r="D10">
-        <v>0.76337355656841543</v>
+        <v>0.76472213061113159</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.57052324672410659</v>
+        <v>0.57332606778604611</v>
       </c>
       <c r="J10">
-        <v>0.4294767532758933</v>
+        <v>0.42667393221395389</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.85234670021371539</v>
+        <v>0.85213541042576679</v>
       </c>
       <c r="O10">
-        <v>0.14765329978628464</v>
+        <v>0.14786458957423324</v>
       </c>
     </row>
     <row r="11">
@@ -8795,31 +8795,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.084555872544291991</v>
+        <v>0.084486448846813222</v>
       </c>
       <c r="C11">
-        <v>0.16455317047559959</v>
+        <v>0.16377534119225132</v>
       </c>
       <c r="D11">
-        <v>0.75089095698010833</v>
+        <v>0.75173820996093543</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.57015735085983543</v>
+        <v>0.57130030882014993</v>
       </c>
       <c r="J11">
-        <v>0.42984264914016468</v>
+        <v>0.42869969117984991</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.86197024954631385</v>
+        <v>0.86091088033015328</v>
       </c>
       <c r="O11">
-        <v>0.13802975045368612</v>
+        <v>0.13908911966984669</v>
       </c>
     </row>
     <row r="12">
@@ -8827,31 +8827,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.082083199559106534</v>
+        <v>0.082158643761609002</v>
       </c>
       <c r="C12">
-        <v>0.16718805076276744</v>
+        <v>0.16707229798813961</v>
       </c>
       <c r="D12">
-        <v>0.75072874967812597</v>
+        <v>0.75076905825025142</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.56646529069584095</v>
+        <v>0.56776852619767026</v>
       </c>
       <c r="J12">
-        <v>0.43353470930415905</v>
+        <v>0.43223147380232968</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.85541056385430647</v>
+        <v>0.85599465568456423</v>
       </c>
       <c r="O12">
-        <v>0.14458943614569347</v>
+        <v>0.14400534431543588</v>
       </c>
     </row>
     <row r="13">
@@ -8859,31 +8859,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.093124888407439307</v>
+        <v>0.093107234613200071</v>
       </c>
       <c r="C13">
-        <v>0.16250075229343472</v>
+        <v>0.16357648464443525</v>
       </c>
       <c r="D13">
-        <v>0.74437435929912599</v>
+        <v>0.74331628074236467</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.61753712752581091</v>
+        <v>0.61753345925126346</v>
       </c>
       <c r="J13">
-        <v>0.38246287247418909</v>
+        <v>0.38246654074873648</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.82201685277299819</v>
+        <v>0.82250976574933599</v>
       </c>
       <c r="O13">
-        <v>0.17798314722700187</v>
+        <v>0.17749023425066407</v>
       </c>
     </row>
     <row r="14">
@@ -8891,31 +8891,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.10270149728981176</v>
+        <v>0.10162045677891662</v>
       </c>
       <c r="C14">
-        <v>0.17730017976118287</v>
+        <v>0.17958324064078807</v>
       </c>
       <c r="D14">
-        <v>0.71999832294900534</v>
+        <v>0.71879630258029525</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.59096931754188564</v>
+        <v>0.59113567044429638</v>
       </c>
       <c r="J14">
-        <v>0.40903068245811441</v>
+        <v>0.40886432955570357</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84370087231285595</v>
+        <v>0.84250158127707009</v>
       </c>
       <c r="O14">
-        <v>0.1562991276871441</v>
+        <v>0.15749841872292997</v>
       </c>
     </row>
     <row r="15">
@@ -8923,31 +8923,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.11226920459275881</v>
+        <v>0.1125298359446819</v>
       </c>
       <c r="C15">
-        <v>0.16674887082188372</v>
+        <v>0.16696985718007989</v>
       </c>
       <c r="D15">
-        <v>0.72098192458535748</v>
+        <v>0.72050030687523814</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.5914639345467243</v>
+        <v>0.58720783337665294</v>
       </c>
       <c r="J15">
-        <v>0.4085360654532757</v>
+        <v>0.412792166623347</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.82751763565306813</v>
+        <v>0.82766877399122885</v>
       </c>
       <c r="O15">
-        <v>0.17248236434693187</v>
+        <v>0.17233122600877104</v>
       </c>
     </row>
     <row r="16">
@@ -8955,31 +8955,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.11588961942140319</v>
+        <v>0.11429071483428979</v>
       </c>
       <c r="C16">
-        <v>0.17673878820224107</v>
+        <v>0.17933812374696878</v>
       </c>
       <c r="D16">
-        <v>0.70737159237635561</v>
+        <v>0.70637116141874134</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.59672295162739408</v>
+        <v>0.59393597508725382</v>
       </c>
       <c r="J16">
-        <v>0.40327704837260597</v>
+        <v>0.40606402491274618</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.84777856252221051</v>
+        <v>0.85152298370197832</v>
       </c>
       <c r="O16">
-        <v>0.15222143747778946</v>
+        <v>0.14847701629802176</v>
       </c>
     </row>
     <row r="17">
@@ -8987,31 +8987,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.11420456604992164</v>
+        <v>0.11299789138723088</v>
       </c>
       <c r="C17">
-        <v>0.17216160652979062</v>
+        <v>0.17202350212038239</v>
       </c>
       <c r="D17">
-        <v>0.71363382742028769</v>
+        <v>0.71497860649238665</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.60236393525925558</v>
+        <v>0.60318904843070742</v>
       </c>
       <c r="J17">
-        <v>0.39763606474074442</v>
+        <v>0.39681095156929252</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.83434407653057874</v>
+        <v>0.83403121825840476</v>
       </c>
       <c r="O17">
-        <v>0.16565592346942126</v>
+        <v>0.16596878174159527</v>
       </c>
     </row>
     <row r="18">
@@ -9019,31 +9019,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.1159186758432441</v>
+        <v>0.11662710488471414</v>
       </c>
       <c r="C18">
-        <v>0.17544938496879611</v>
+        <v>0.17566934464984665</v>
       </c>
       <c r="D18">
-        <v>0.70863193918795975</v>
+        <v>0.70770355046543931</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.67212173996590696</v>
+        <v>0.67080937222128256</v>
       </c>
       <c r="J18">
-        <v>0.32787826003409293</v>
+        <v>0.32919062777871749</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.82785392923491319</v>
+        <v>0.82562323512052649</v>
       </c>
       <c r="O18">
-        <v>0.17214607076508681</v>
+        <v>0.17437676487947351</v>
       </c>
     </row>
     <row r="19">
@@ -9051,31 +9051,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.1355103447724931</v>
+        <v>0.13558141638123239</v>
       </c>
       <c r="C19">
-        <v>0.17659626581239049</v>
+        <v>0.17651028831679882</v>
       </c>
       <c r="D19">
-        <v>0.68789338941511635</v>
+        <v>0.68790829530196873</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.64834333043371351</v>
+        <v>0.64698034317141218</v>
       </c>
       <c r="J19">
-        <v>0.35165666956628655</v>
+        <v>0.35301965682858782</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.84407270991775485</v>
+        <v>0.84456393334401791</v>
       </c>
       <c r="O19">
-        <v>0.15592729008224515</v>
+        <v>0.15543606665598214</v>
       </c>
     </row>
     <row r="20">
@@ -9083,31 +9083,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.12461781959404171</v>
+        <v>0.12391111935953783</v>
       </c>
       <c r="C20">
-        <v>0.17760063572917756</v>
+        <v>0.17809249921141695</v>
       </c>
       <c r="D20">
-        <v>0.69778154467678077</v>
+        <v>0.69799638142904519</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64980741484591442</v>
+        <v>0.64577677950359835</v>
       </c>
       <c r="J20">
-        <v>0.35019258515408563</v>
+        <v>0.3542232204964017</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.83053939418797829</v>
+        <v>0.83178007685625122</v>
       </c>
       <c r="O20">
-        <v>0.16946060581202171</v>
+        <v>0.16821992314374878</v>
       </c>
     </row>
     <row r="21">
@@ -9115,31 +9115,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.13594858355690362</v>
+        <v>0.13530732438081397</v>
       </c>
       <c r="C21">
-        <v>0.18543433429198927</v>
+        <v>0.18516591324247497</v>
       </c>
       <c r="D21">
-        <v>0.67861708215110705</v>
+        <v>0.67952676237671095</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.66104990779970463</v>
+        <v>0.6604906844116929</v>
       </c>
       <c r="J21">
-        <v>0.33895009220029537</v>
+        <v>0.33950931558830705</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.82075923354771174</v>
+        <v>0.8202933513428452</v>
       </c>
       <c r="O21">
-        <v>0.17924076645228826</v>
+        <v>0.1797066486571548</v>
       </c>
     </row>
     <row r="22">
@@ -9147,31 +9147,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.15021712217341468</v>
+        <v>0.14975036720730547</v>
       </c>
       <c r="C22">
-        <v>0.18595748481521868</v>
+        <v>0.18693982662500119</v>
       </c>
       <c r="D22">
-        <v>0.66382539301136667</v>
+        <v>0.66330980616769331</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.67608054761593672</v>
+        <v>0.67821084922573227</v>
       </c>
       <c r="J22">
-        <v>0.32391945238406322</v>
+        <v>0.32178915077426778</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.8359139553012449</v>
+        <v>0.83621979919120115</v>
       </c>
       <c r="O22">
-        <v>0.16408604469875518</v>
+        <v>0.16378020080879882</v>
       </c>
     </row>
     <row r="23">
@@ -9179,31 +9179,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.15202387320307609</v>
+        <v>0.15170779040146823</v>
       </c>
       <c r="C23">
-        <v>0.18926002994857408</v>
+        <v>0.19017221014713107</v>
       </c>
       <c r="D23">
-        <v>0.65871609684834975</v>
+        <v>0.65811999945140076</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.64675450146027047</v>
+        <v>0.64532701486341681</v>
       </c>
       <c r="J23">
-        <v>0.35324549853972942</v>
+        <v>0.35467298513658324</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.82204697979635433</v>
+        <v>0.82185503751375977</v>
       </c>
       <c r="O23">
-        <v>0.17795302020364562</v>
+        <v>0.17814496248624026</v>
       </c>
     </row>
     <row r="24">
@@ -9211,31 +9211,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.15298271825368884</v>
+        <v>0.15315208555736073</v>
       </c>
       <c r="C24">
-        <v>0.18848546302571753</v>
+        <v>0.18860963252896351</v>
       </c>
       <c r="D24">
-        <v>0.65853181872059363</v>
+        <v>0.65823828191367573</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.67740219635425247</v>
+        <v>0.6761748711405916</v>
       </c>
       <c r="J24">
-        <v>0.32259780364574753</v>
+        <v>0.32382512885940845</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.81543236469560454</v>
+        <v>0.81667403441764586</v>
       </c>
       <c r="O24">
-        <v>0.18456763530439535</v>
+        <v>0.18332596558235409</v>
       </c>
     </row>
     <row r="25">
@@ -9243,31 +9243,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.16338543261178756</v>
+        <v>0.1637675452185991</v>
       </c>
       <c r="C25">
-        <v>0.18622924975081329</v>
+        <v>0.18577914518139191</v>
       </c>
       <c r="D25">
-        <v>0.65038531763739915</v>
+        <v>0.65045330960000902</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.7058255746290919</v>
+        <v>0.7082851910826955</v>
       </c>
       <c r="J25">
-        <v>0.29417442537090815</v>
+        <v>0.29171480891730456</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.80872851158307424</v>
+        <v>0.80821262407086192</v>
       </c>
       <c r="O25">
-        <v>0.19127148841692579</v>
+        <v>0.19178737592913811</v>
       </c>
     </row>
     <row r="26">
@@ -9275,31 +9275,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.17205306714054083</v>
+        <v>0.17278894251761015</v>
       </c>
       <c r="C26">
-        <v>0.19724709532440751</v>
+        <v>0.19700876287542329</v>
       </c>
       <c r="D26">
-        <v>0.63069983753505166</v>
+        <v>0.63020229460696653</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.68896886866669527</v>
+        <v>0.6947086178886519</v>
       </c>
       <c r="J26">
-        <v>0.31103113133330473</v>
+        <v>0.30529138211134804</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80217309720342767</v>
+        <v>0.80323964633238432</v>
       </c>
       <c r="O26">
-        <v>0.19782690279657236</v>
+        <v>0.19676035366761555</v>
       </c>
     </row>
     <row r="27">
@@ -9307,31 +9307,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.17980883316916046</v>
+        <v>0.18039889865039632</v>
       </c>
       <c r="C27">
-        <v>0.20394665025654277</v>
+        <v>0.2040452530662705</v>
       </c>
       <c r="D27">
-        <v>0.61624451657429669</v>
+        <v>0.61555584828333321</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.69642034950824749</v>
+        <v>0.69627702660600277</v>
       </c>
       <c r="J27">
-        <v>0.30357965049175245</v>
+        <v>0.30372297339399723</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.79666756777156933</v>
+        <v>0.79752910879825323</v>
       </c>
       <c r="O27">
-        <v>0.2033324322284307</v>
+        <v>0.20247089120174677</v>
       </c>
     </row>
     <row r="28">
@@ -9339,31 +9339,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.17996474524468717</v>
+        <v>0.17944071972648898</v>
       </c>
       <c r="C28">
-        <v>0.21051833412290777</v>
+        <v>0.21294359775679578</v>
       </c>
       <c r="D28">
-        <v>0.60951692063240503</v>
+        <v>0.60761568251671527</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.71658691610036185</v>
+        <v>0.71613095275610139</v>
       </c>
       <c r="J28">
-        <v>0.28341308389963815</v>
+        <v>0.28386904724389866</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.79062061431239128</v>
+        <v>0.78867817065842161</v>
       </c>
       <c r="O28">
-        <v>0.20937938568760872</v>
+        <v>0.21132182934157845</v>
       </c>
     </row>
     <row r="29">
@@ -9371,31 +9371,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20391398850242295</v>
+        <v>0.20076774926034555</v>
       </c>
       <c r="C29">
-        <v>0.19972256395398019</v>
+        <v>0.20187236304594167</v>
       </c>
       <c r="D29">
-        <v>0.59636344754359683</v>
+        <v>0.59735988769371273</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.73670051524809266</v>
+        <v>0.73362975869488456</v>
       </c>
       <c r="J29">
-        <v>0.26329948475190729</v>
+        <v>0.2663702413051155</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.78733616716257659</v>
+        <v>0.79024590595795441</v>
       </c>
       <c r="O29">
-        <v>0.21266383283742329</v>
+        <v>0.20975409404204554</v>
       </c>
     </row>
     <row r="30">
@@ -9403,31 +9403,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.20725857390240493</v>
+        <v>0.20706492801441145</v>
       </c>
       <c r="C30">
-        <v>0.21553923558597718</v>
+        <v>0.21531912139917331</v>
       </c>
       <c r="D30">
-        <v>0.57720219051161803</v>
+        <v>0.57761595058641524</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.74865714787944682</v>
+        <v>0.7478682928605479</v>
       </c>
       <c r="J30">
-        <v>0.25134285212055318</v>
+        <v>0.25213170713945193</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79196626862522557</v>
+        <v>0.79313638996989444</v>
       </c>
       <c r="O30">
-        <v>0.20803373137477435</v>
+        <v>0.20686361003010564</v>
       </c>
     </row>
     <row r="31">
@@ -9435,31 +9435,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22655810520004632</v>
+        <v>0.2267119447691105</v>
       </c>
       <c r="C31">
-        <v>0.21197774942072758</v>
+        <v>0.2109029913012212</v>
       </c>
       <c r="D31">
-        <v>0.56146414537922607</v>
+        <v>0.56238506392966825</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.76027929426537189</v>
+        <v>0.76023070569670126</v>
       </c>
       <c r="J31">
-        <v>0.2397207057346282</v>
+        <v>0.2397692943032988</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.80192126135443798</v>
+        <v>0.8008680012977778</v>
       </c>
       <c r="O31">
-        <v>0.19807873864556205</v>
+        <v>0.19913199870222228</v>
       </c>
     </row>
     <row r="32">
@@ -9467,31 +9467,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.22270796925885947</v>
+        <v>0.22265184523561249</v>
       </c>
       <c r="C32">
-        <v>0.21392257582093974</v>
+        <v>0.21371073380401359</v>
       </c>
       <c r="D32">
-        <v>0.56336945492020085</v>
+        <v>0.56363742096037406</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.77820350334670374</v>
+        <v>0.77880938917833265</v>
       </c>
       <c r="J32">
-        <v>0.22179649665329623</v>
+        <v>0.22119061082166738</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.81030110271426103</v>
+        <v>0.80993908032482342</v>
       </c>
       <c r="O32">
-        <v>0.18969889728573899</v>
+        <v>0.19006091967517647</v>
       </c>
     </row>
     <row r="33">
@@ -9499,31 +9499,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.24872313787298278</v>
+        <v>0.24819945778660485</v>
       </c>
       <c r="C33">
-        <v>0.20851406553425805</v>
+        <v>0.20895777541909788</v>
       </c>
       <c r="D33">
-        <v>0.54276279659275917</v>
+        <v>0.54284276679429722</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.76092954477463237</v>
+        <v>0.76100809220527543</v>
       </c>
       <c r="J33">
-        <v>0.23907045522536746</v>
+        <v>0.23899190779472465</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78016176885628663</v>
+        <v>0.78161435131356016</v>
       </c>
       <c r="O33">
-        <v>0.21983823114371345</v>
+        <v>0.21838564868643978</v>
       </c>
     </row>
     <row r="34">
@@ -9531,31 +9531,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.23932356568350416</v>
+        <v>0.23758381087015562</v>
       </c>
       <c r="C34">
-        <v>0.21483290171820421</v>
+        <v>0.21535998220084637</v>
       </c>
       <c r="D34">
-        <v>0.54584353259829155</v>
+        <v>0.54705620692899815</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.78258790950879997</v>
+        <v>0.78828133756517649</v>
       </c>
       <c r="J34">
-        <v>0.21741209049120006</v>
+        <v>0.21171866243482351</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.76192448039067273</v>
+        <v>0.76258847487033832</v>
       </c>
       <c r="O34">
-        <v>0.23807551960932727</v>
+        <v>0.23741152512966171</v>
       </c>
     </row>
     <row r="35">
@@ -9563,31 +9563,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.28029906269682925</v>
+        <v>0.28118887364354089</v>
       </c>
       <c r="C35">
-        <v>0.20728958761550595</v>
+        <v>0.20741838592297288</v>
       </c>
       <c r="D35">
-        <v>0.51241134968766489</v>
+        <v>0.51139274043348626</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.79760528142099985</v>
+        <v>0.7964726804669483</v>
       </c>
       <c r="J35">
-        <v>0.20239471857900018</v>
+        <v>0.20352731953305161</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.76895536131094211</v>
+        <v>0.76936149671287757</v>
       </c>
       <c r="O35">
-        <v>0.23104463868905775</v>
+        <v>0.23063850328712246</v>
       </c>
     </row>
     <row r="36">
@@ -9595,31 +9595,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.28037009885230751</v>
+        <v>0.27921810416901655</v>
       </c>
       <c r="C36">
-        <v>0.23055507995531141</v>
+        <v>0.23075464157544601</v>
       </c>
       <c r="D36">
-        <v>0.48907482119238094</v>
+        <v>0.49002725425553745</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.76558632329829501</v>
+        <v>0.7649389440278237</v>
       </c>
       <c r="J36">
-        <v>0.23441367670170496</v>
+        <v>0.23506105597217633</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.76954273897929282</v>
+        <v>0.76882697071051309</v>
       </c>
       <c r="O36">
-        <v>0.23045726102070721</v>
+        <v>0.23117302928948688</v>
       </c>
     </row>
     <row r="37">
@@ -9627,31 +9627,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.28238838977941572</v>
+        <v>0.28319192608236277</v>
       </c>
       <c r="C37">
-        <v>0.22403770292297534</v>
+        <v>0.22451987168412876</v>
       </c>
       <c r="D37">
-        <v>0.49357390729760903</v>
+        <v>0.49228820223350844</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.81393202494297001</v>
+        <v>0.81668354995901626</v>
       </c>
       <c r="J37">
-        <v>0.1860679750570301</v>
+        <v>0.18331645004098379</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.76168524302661922</v>
+        <v>0.76017878235104164</v>
       </c>
       <c r="O37">
-        <v>0.23831475697338081</v>
+        <v>0.23982121764895836</v>
       </c>
     </row>
     <row r="38">
@@ -9659,31 +9659,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.29997622469734297</v>
+        <v>0.29966031187766173</v>
       </c>
       <c r="C38">
-        <v>0.22678819582827989</v>
+        <v>0.22774871619773981</v>
       </c>
       <c r="D38">
-        <v>0.47323557947437717</v>
+        <v>0.47259097192459831</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.79176190185662898</v>
+        <v>0.79644190044742913</v>
       </c>
       <c r="J38">
-        <v>0.20823809814337116</v>
+        <v>0.20355809955257084</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76846384907322185</v>
+        <v>0.76773463144068599</v>
       </c>
       <c r="O38">
-        <v>0.23153615092677818</v>
+        <v>0.23226536855931404</v>
       </c>
     </row>
     <row r="39">
@@ -9691,31 +9691,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.30314624674836771</v>
+        <v>0.3076788641108063</v>
       </c>
       <c r="C39">
-        <v>0.22376057799298948</v>
+        <v>0.22337605477918374</v>
       </c>
       <c r="D39">
-        <v>0.47309317525864292</v>
+        <v>0.46894508111000999</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.81921344042680366</v>
+        <v>0.82214182833202865</v>
       </c>
       <c r="J39">
-        <v>0.18078655957319634</v>
+        <v>0.17785817166797124</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.72281412961804958</v>
+        <v>0.72713347211268398</v>
       </c>
       <c r="O39">
-        <v>0.27718587038195031</v>
+        <v>0.27286652788731602</v>
       </c>
     </row>
     <row r="40">
@@ -9723,31 +9723,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.30657147136781326</v>
+        <v>0.30525964940191258</v>
       </c>
       <c r="C40">
-        <v>0.24449899647581883</v>
+        <v>0.24685658425764298</v>
       </c>
       <c r="D40">
-        <v>0.44892953215636794</v>
+        <v>0.44788376634044452</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.81110706119028364</v>
+        <v>0.81387903077844581</v>
       </c>
       <c r="J40">
-        <v>0.18889293880971642</v>
+        <v>0.18612096922155422</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.74562056130912324</v>
+        <v>0.74469035511897586</v>
       </c>
       <c r="O40">
-        <v>0.25437943869087676</v>
+        <v>0.2553096448810242</v>
       </c>
     </row>
     <row r="41">
@@ -9755,31 +9755,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.30969446986492283</v>
+        <v>0.31162112253633584</v>
       </c>
       <c r="C41">
-        <v>0.24643019250966394</v>
+        <v>0.24764898055610002</v>
       </c>
       <c r="D41">
-        <v>0.44387533762541315</v>
+        <v>0.44072989690756414</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.80901984537161409</v>
+        <v>0.80971624801833875</v>
       </c>
       <c r="J41">
-        <v>0.19098015462838597</v>
+        <v>0.19028375198166114</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.7563630253585969</v>
+        <v>0.75567820426563281</v>
       </c>
       <c r="O41">
-        <v>0.24363697464140308</v>
+        <v>0.2443217957343671</v>
       </c>
     </row>
     <row r="42">
@@ -9787,31 +9787,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.32815839051344603</v>
+        <v>0.33100573036312692</v>
       </c>
       <c r="C42">
-        <v>0.23258868195487895</v>
+        <v>0.22925857299874033</v>
       </c>
       <c r="D42">
-        <v>0.439252927531675</v>
+        <v>0.43973569663813267</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.83430621181376108</v>
+        <v>0.8346849048485977</v>
       </c>
       <c r="J42">
-        <v>0.16569378818623889</v>
+        <v>0.16531509515140233</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.75543328116258901</v>
+        <v>0.75280698388960909</v>
       </c>
       <c r="O42">
-        <v>0.24456671883741096</v>
+        <v>0.24719301611039088</v>
       </c>
     </row>
     <row r="43">
@@ -9819,31 +9819,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.31663153114870268</v>
+        <v>0.31821570299234941</v>
       </c>
       <c r="C43">
-        <v>0.25394036057880415</v>
+        <v>0.25179457338280564</v>
       </c>
       <c r="D43">
-        <v>0.42942810827249323</v>
+        <v>0.42998972362484505</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.80565932672189644</v>
+        <v>0.80692680290299701</v>
       </c>
       <c r="J43">
-        <v>0.1943406732781035</v>
+        <v>0.19307319709700296</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.76032180190278897</v>
+        <v>0.76077710144925925</v>
       </c>
       <c r="O43">
-        <v>0.239678198097211</v>
+        <v>0.23922289855074083</v>
       </c>
     </row>
     <row r="44">
@@ -9851,31 +9851,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.31748998850454363</v>
+        <v>0.31947786237964998</v>
       </c>
       <c r="C44">
-        <v>0.24449622008609009</v>
+        <v>0.24353545760460493</v>
       </c>
       <c r="D44">
-        <v>0.43801379140936636</v>
+        <v>0.43698668001574509</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.84592244085334556</v>
+        <v>0.84821345738813481</v>
       </c>
       <c r="J44">
-        <v>0.15407755914665441</v>
+        <v>0.15178654261186519</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.74857671932019798</v>
+        <v>0.74806731031191487</v>
       </c>
       <c r="O44">
-        <v>0.25142328067980196</v>
+        <v>0.25193268968808508</v>
       </c>
     </row>
     <row r="45">
@@ -9883,31 +9883,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.32041141322346028</v>
+        <v>0.32194502174063117</v>
       </c>
       <c r="C45">
-        <v>0.26065012950559702</v>
+        <v>0.26309144228230791</v>
       </c>
       <c r="D45">
-        <v>0.41893845727094281</v>
+        <v>0.41496353597706087</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.8167963099887936</v>
+        <v>0.81814916022744666</v>
       </c>
       <c r="J45">
-        <v>0.1832036900112064</v>
+        <v>0.18185083977255331</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.73922535727845606</v>
+        <v>0.7403272196112276</v>
       </c>
       <c r="O45">
-        <v>0.26077464272154399</v>
+        <v>0.25967278038877228</v>
       </c>
     </row>
     <row r="46">
@@ -9915,31 +9915,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.31814693699262353</v>
+        <v>0.31783026890121985</v>
       </c>
       <c r="C46">
-        <v>0.26052501430941832</v>
+        <v>0.26118270955428502</v>
       </c>
       <c r="D46">
-        <v>0.42132804869795804</v>
+        <v>0.42098702154449513</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.79344428303319769</v>
+        <v>0.79713749566292347</v>
       </c>
       <c r="J46">
-        <v>0.20655571696680242</v>
+        <v>0.20286250433707656</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.73088720242812732</v>
+        <v>0.72840684631272556</v>
       </c>
       <c r="O46">
-        <v>0.26911279757187273</v>
+        <v>0.27159315368727449</v>
       </c>
     </row>
     <row r="47">
@@ -9947,31 +9947,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.33343662292363119</v>
+        <v>0.33622038929050224</v>
       </c>
       <c r="C47">
-        <v>0.24577836738137476</v>
+        <v>0.24609249812722025</v>
       </c>
       <c r="D47">
-        <v>0.42078500969499411</v>
+        <v>0.41768711258227748</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.81988856568081458</v>
+        <v>0.82196793094065712</v>
       </c>
       <c r="J47">
-        <v>0.18011143431918547</v>
+        <v>0.17803206905934291</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.72005321800658817</v>
+        <v>0.72167123432314428</v>
       </c>
       <c r="O47">
-        <v>0.27994678199341189</v>
+        <v>0.27832876567685566</v>
       </c>
     </row>
     <row r="48">
@@ -9979,31 +9979,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.34024523428851228</v>
+        <v>0.33986120436164535</v>
       </c>
       <c r="C48">
-        <v>0.26126798194759515</v>
+        <v>0.26186466317378171</v>
       </c>
       <c r="D48">
-        <v>0.39848678376389252</v>
+        <v>0.39827413246457288</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.8279405607668191</v>
+        <v>0.82715643201492339</v>
       </c>
       <c r="J48">
-        <v>0.1720594392331809</v>
+        <v>0.17284356798507655</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.72259407040624568</v>
+        <v>0.72350302920992093</v>
       </c>
       <c r="O48">
-        <v>0.27740592959375437</v>
+        <v>0.27649697079007918</v>
       </c>
     </row>
     <row r="49">
@@ -10011,31 +10011,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.36093446104586602</v>
+        <v>0.36091087399808958</v>
       </c>
       <c r="C49">
-        <v>0.25670141652005568</v>
+        <v>0.25676355188855993</v>
       </c>
       <c r="D49">
-        <v>0.38236412243407836</v>
+        <v>0.38232557411335055</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.81972776936103031</v>
+        <v>0.82235989639878126</v>
       </c>
       <c r="J49">
-        <v>0.18027223063896969</v>
+        <v>0.17764010360121868</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.71897229477483027</v>
+        <v>0.71926607320464808</v>
       </c>
       <c r="O49">
-        <v>0.28102770522516973</v>
+        <v>0.28073392679535197</v>
       </c>
     </row>
     <row r="50">
@@ -10043,31 +10043,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.37454537479756295</v>
+        <v>0.3742424732461706</v>
       </c>
       <c r="C50">
-        <v>0.25162382303546244</v>
+        <v>0.25254595006558983</v>
       </c>
       <c r="D50">
-        <v>0.37383080216697451</v>
+        <v>0.37321157668823968</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.84149643543808272</v>
+        <v>0.84205351226453107</v>
       </c>
       <c r="J50">
-        <v>0.15850356456191736</v>
+        <v>0.15794648773546896</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.70173012631598075</v>
+        <v>0.70350522470571852</v>
       </c>
       <c r="O50">
-        <v>0.29826987368401914</v>
+        <v>0.29649477529428148</v>
       </c>
     </row>
     <row r="51">
@@ -10075,31 +10075,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.40401653683645244</v>
+        <v>0.40326369384178345</v>
       </c>
       <c r="C51">
-        <v>0.24871385717362524</v>
+        <v>0.25033499279575316</v>
       </c>
       <c r="D51">
-        <v>0.34726960598992229</v>
+        <v>0.34640131336246338</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.8569742856799013</v>
+        <v>0.85746564176340456</v>
       </c>
       <c r="J51">
-        <v>0.14302571432009867</v>
+        <v>0.14253435823659538</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.73136614647428355</v>
+        <v>0.73372868262234059</v>
       </c>
       <c r="O51">
-        <v>0.26863385352571645</v>
+        <v>0.26627131737765952</v>
       </c>
     </row>
     <row r="52">
@@ -10107,31 +10107,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.40662075744495874</v>
+        <v>0.40759487230903468</v>
       </c>
       <c r="C52">
-        <v>0.25559649887211738</v>
+        <v>0.25482457411415993</v>
       </c>
       <c r="D52">
-        <v>0.33778274368292388</v>
+        <v>0.33758055357680533</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.84997575391148217</v>
+        <v>0.85327213625915443</v>
       </c>
       <c r="J52">
-        <v>0.15002424608851783</v>
+        <v>0.14672786374084559</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.67170708946397906</v>
+        <v>0.67212139082440137</v>
       </c>
       <c r="O52">
-        <v>0.32829291053602083</v>
+        <v>0.32787860917559863</v>
       </c>
     </row>
     <row r="53">
@@ -10139,31 +10139,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.43523779461871687</v>
+        <v>0.43658779692743793</v>
       </c>
       <c r="C53">
-        <v>0.25030906056099861</v>
+        <v>0.25066260309968197</v>
       </c>
       <c r="D53">
-        <v>0.31445314482028458</v>
+        <v>0.31274959997288021</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.87499110783991108</v>
+        <v>0.87541635514258653</v>
       </c>
       <c r="J53">
-        <v>0.12500889216008898</v>
+        <v>0.12458364485741347</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.67937912430264047</v>
+        <v>0.68105334237421766</v>
       </c>
       <c r="O53">
-        <v>0.32062087569735948</v>
+        <v>0.31894665762578234</v>
       </c>
     </row>
     <row r="54">
@@ -10171,13 +10171,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.44320510560684701</v>
+        <v>0.44315097109139229</v>
       </c>
       <c r="C54">
-        <v>0.26927871306612966</v>
+        <v>0.2696366568140604</v>
       </c>
       <c r="D54">
-        <v>0.28751618132702333</v>
+        <v>0.28721237209454742</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -11031,16 +11031,16 @@
         <v>0.55206122938022584</v>
       </c>
       <c r="J3">
-        <v>0.44793877061977416</v>
+        <v>0.44793877061977411</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.83519895809400857</v>
+        <v>0.83496798109637538</v>
       </c>
       <c r="O3">
-        <v>0.16480104190599151</v>
+        <v>0.16503201890362462</v>
       </c>
     </row>
     <row r="4">
@@ -11048,19 +11048,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.56880365653361964</v>
+        <v>0.56485626392108368</v>
       </c>
       <c r="J4">
-        <v>0.43119634346638036</v>
+        <v>0.43514373607891643</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.80147309858747384</v>
+        <v>0.80141933586977032</v>
       </c>
       <c r="O4">
-        <v>0.19852690141252605</v>
+        <v>0.19858066413022965</v>
       </c>
     </row>
     <row r="5">
@@ -11068,19 +11068,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.58777865302920773</v>
+        <v>0.58341015305402211</v>
       </c>
       <c r="J5">
-        <v>0.41222134697079221</v>
+        <v>0.41658984694597795</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.80848495889277738</v>
+        <v>0.80769825480753954</v>
       </c>
       <c r="O5">
-        <v>0.19151504110722251</v>
+        <v>0.19230174519246052</v>
       </c>
     </row>
     <row r="6">
@@ -11088,19 +11088,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.56875783559257642</v>
+        <v>0.56936538416358673</v>
       </c>
       <c r="J6">
-        <v>0.43124216440742374</v>
+        <v>0.43063461583641316</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.85698327620116654</v>
+        <v>0.8546786898631068</v>
       </c>
       <c r="O6">
-        <v>0.14301672379883357</v>
+        <v>0.1453213101368932</v>
       </c>
     </row>
     <row r="7">
@@ -11108,19 +11108,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.65713638493192583</v>
+        <v>0.65121614451575516</v>
       </c>
       <c r="J7">
-        <v>0.34286361506807422</v>
+        <v>0.34878385548424484</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.8166586175339613</v>
+        <v>0.81778281813345255</v>
       </c>
       <c r="O7">
-        <v>0.18334138246603868</v>
+        <v>0.1822171818665474</v>
       </c>
     </row>
     <row r="8">
@@ -11128,19 +11128,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.67217860238622729</v>
+        <v>0.66654548238706046</v>
       </c>
       <c r="J8">
-        <v>0.32782139761377277</v>
+        <v>0.33345451761293954</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.84405854192319785</v>
+        <v>0.84207191112460844</v>
       </c>
       <c r="O8">
-        <v>0.15594145807680224</v>
+        <v>0.15792808887539161</v>
       </c>
     </row>
     <row r="9">
@@ -11148,19 +11148,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.59841381720623388</v>
+        <v>0.60459759990851925</v>
       </c>
       <c r="J9">
-        <v>0.40158618279376607</v>
+        <v>0.39540240009148064</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.80360935356829444</v>
+        <v>0.80547652080509868</v>
       </c>
       <c r="O9">
-        <v>0.19639064643170548</v>
+        <v>0.19452347919490123</v>
       </c>
     </row>
     <row r="10">
@@ -11168,19 +11168,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.69087815707395694</v>
+        <v>0.69579332832550733</v>
       </c>
       <c r="J10">
-        <v>0.309121842926043</v>
+        <v>0.30420667167449261</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.7902592314470902</v>
+        <v>0.78815055857644134</v>
       </c>
       <c r="O10">
-        <v>0.20974076855290993</v>
+        <v>0.2118494414235588</v>
       </c>
     </row>
     <row r="11">
@@ -11188,19 +11188,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.63713930112313166</v>
+        <v>0.64089180382240207</v>
       </c>
       <c r="J11">
-        <v>0.36286069887686828</v>
+        <v>0.35910819617759782</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.80196018544511305</v>
+        <v>0.79907269935794634</v>
       </c>
       <c r="O11">
-        <v>0.19803981455488692</v>
+        <v>0.20092730064205377</v>
       </c>
     </row>
     <row r="12">
@@ -11208,19 +11208,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.62779054766206399</v>
+        <v>0.62697154718634029</v>
       </c>
       <c r="J12">
-        <v>0.37220945233793606</v>
+        <v>0.37302845281365976</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.80558296631332604</v>
+        <v>0.80792362686253993</v>
       </c>
       <c r="O12">
-        <v>0.19441703368667401</v>
+        <v>0.19207637313746004</v>
       </c>
     </row>
     <row r="13">
@@ -11228,19 +11228,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.69212877057240285</v>
+        <v>0.6961086891141044</v>
       </c>
       <c r="J13">
-        <v>0.30787122942759704</v>
+        <v>0.30389131088589555</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.77875430257656819</v>
+        <v>0.78272903471452182</v>
       </c>
       <c r="O13">
-        <v>0.22124569742343175</v>
+        <v>0.21727096528547821</v>
       </c>
     </row>
     <row r="14">
@@ -11248,19 +11248,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.64773579088597677</v>
+        <v>0.65540664286276917</v>
       </c>
       <c r="J14">
-        <v>0.35226420911402329</v>
+        <v>0.34459335713723083</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.83532709938741356</v>
+        <v>0.83235027048323385</v>
       </c>
       <c r="O14">
-        <v>0.16467290061258644</v>
+        <v>0.16764972951676615</v>
       </c>
     </row>
     <row r="15">
@@ -11268,19 +11268,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.67225257416509243</v>
+        <v>0.66592998878851928</v>
       </c>
       <c r="J15">
-        <v>0.32774742583490757</v>
+        <v>0.33407001121148067</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.80340007581864059</v>
+        <v>0.80320054136453833</v>
       </c>
       <c r="O15">
-        <v>0.19659992418135935</v>
+        <v>0.19679945863546164</v>
       </c>
     </row>
     <row r="16">
@@ -11288,19 +11288,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.69058111920548637</v>
+        <v>0.68473953481036043</v>
       </c>
       <c r="J16">
-        <v>0.30941888079451357</v>
+        <v>0.31526046518963952</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.80566764548832659</v>
+        <v>0.81034186149864096</v>
       </c>
       <c r="O16">
-        <v>0.19433235451167336</v>
+        <v>0.1896581385013591</v>
       </c>
     </row>
     <row r="17">
@@ -11308,19 +11308,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.71909976526390451</v>
+        <v>0.72761360203313119</v>
       </c>
       <c r="J17">
-        <v>0.28090023473609549</v>
+        <v>0.27238639796686881</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78526226193286586</v>
+        <v>0.78308194315153079</v>
       </c>
       <c r="O17">
-        <v>0.21473773806713414</v>
+        <v>0.21691805684846918</v>
       </c>
     </row>
     <row r="18">
@@ -11328,19 +11328,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.7655806762139773</v>
+        <v>0.76327008904331572</v>
       </c>
       <c r="J18">
-        <v>0.23441932378602268</v>
+        <v>0.23672991095668436</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.78671200285895937</v>
+        <v>0.78385561832199513</v>
       </c>
       <c r="O18">
-        <v>0.21328799714104052</v>
+        <v>0.2161443816780049</v>
       </c>
     </row>
     <row r="19">
@@ -11348,19 +11348,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.72529716988259973</v>
+        <v>0.72691374243682705</v>
       </c>
       <c r="J19">
-        <v>0.27470283011740027</v>
+        <v>0.27308625756317301</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.81306597354871746</v>
+        <v>0.8135574038631268</v>
       </c>
       <c r="O19">
-        <v>0.18693402645128246</v>
+        <v>0.18644259613687325</v>
       </c>
     </row>
     <row r="20">
@@ -11368,19 +11368,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.7456852718458884</v>
+        <v>0.74175409408398141</v>
       </c>
       <c r="J20">
-        <v>0.25431472815411155</v>
+        <v>0.25824590591601854</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.79198710759936819</v>
+        <v>0.78764144984808238</v>
       </c>
       <c r="O20">
-        <v>0.20801289240063189</v>
+        <v>0.21235855015191765</v>
       </c>
     </row>
     <row r="21">
@@ -11388,19 +11388,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.73832722451591082</v>
+        <v>0.73503563326172539</v>
       </c>
       <c r="J21">
-        <v>0.26167277548408924</v>
+        <v>0.26496436673827461</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.78198105916814631</v>
+        <v>0.7822537949914089</v>
       </c>
       <c r="O21">
-        <v>0.21801894083185383</v>
+        <v>0.21774620500859118</v>
       </c>
     </row>
     <row r="22">
@@ -11408,19 +11408,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.77696661664441791</v>
+        <v>0.78018885825146145</v>
       </c>
       <c r="J22">
-        <v>0.22303338335558215</v>
+        <v>0.21981114174853864</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80444105122036313</v>
+        <v>0.80420731714286753</v>
       </c>
       <c r="O22">
-        <v>0.19555894877963689</v>
+        <v>0.1957926828571325</v>
       </c>
     </row>
     <row r="23">
@@ -11428,19 +11428,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.74505021857830533</v>
+        <v>0.74820010012626914</v>
       </c>
       <c r="J23">
-        <v>0.25494978142169461</v>
+        <v>0.25179989987373086</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.7789022636001901</v>
+        <v>0.77695510183230265</v>
       </c>
       <c r="O23">
-        <v>0.22109773639980987</v>
+        <v>0.22304489816769729</v>
       </c>
     </row>
     <row r="24">
@@ -11448,19 +11448,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.77234535273597582</v>
+        <v>0.7730507422461772</v>
       </c>
       <c r="J24">
-        <v>0.22765464726402412</v>
+        <v>0.2269492577538228</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.7856805053479482</v>
+        <v>0.78879160374925317</v>
       </c>
       <c r="O24">
-        <v>0.21431949465205191</v>
+        <v>0.21120839625074689</v>
       </c>
     </row>
     <row r="25">
@@ -11468,19 +11468,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.79589450196363676</v>
+        <v>0.80162821135894891</v>
       </c>
       <c r="J25">
-        <v>0.2041054980363633</v>
+        <v>0.19837178864105109</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.75867267160258844</v>
+        <v>0.76171408724601064</v>
       </c>
       <c r="O25">
-        <v>0.2413273283974115</v>
+        <v>0.2382859127539895</v>
       </c>
     </row>
     <row r="26">
@@ -11488,19 +11488,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.78703816133044302</v>
+        <v>0.79309804462321054</v>
       </c>
       <c r="J26">
-        <v>0.21296183866955704</v>
+        <v>0.2069019553767894</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.73196212379410452</v>
+        <v>0.74010151802906732</v>
       </c>
       <c r="O26">
-        <v>0.26803787620589542</v>
+        <v>0.25989848197093279</v>
       </c>
     </row>
     <row r="27">
@@ -11508,19 +11508,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.76598421121239546</v>
+        <v>0.76377397367576261</v>
       </c>
       <c r="J27">
-        <v>0.23401578878760454</v>
+        <v>0.23622602632423736</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.75558197981445929</v>
+        <v>0.75529917102995248</v>
       </c>
       <c r="O27">
-        <v>0.24441802018554068</v>
+        <v>0.24470082897004747</v>
       </c>
     </row>
     <row r="28">
@@ -11528,19 +11528,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.81404881209636082</v>
+        <v>0.81225569192128377</v>
       </c>
       <c r="J28">
-        <v>0.18595118790363921</v>
+        <v>0.18774430807871625</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.73931473961513117</v>
+        <v>0.7392536248941014</v>
       </c>
       <c r="O28">
-        <v>0.26068526038486889</v>
+        <v>0.2607463751058986</v>
       </c>
     </row>
     <row r="29">
@@ -11548,19 +11548,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.83076296983836251</v>
+        <v>0.83084968141716009</v>
       </c>
       <c r="J29">
-        <v>0.16923703016163746</v>
+        <v>0.16915031858283996</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.713053386378803</v>
+        <v>0.71964693221479148</v>
       </c>
       <c r="O29">
-        <v>0.28694661362119694</v>
+        <v>0.28035306778520847</v>
       </c>
     </row>
     <row r="30">
@@ -11568,19 +11568,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.84891852203457341</v>
+        <v>0.84816907612554648</v>
       </c>
       <c r="J30">
-        <v>0.15108147796542656</v>
+        <v>0.15183092387445354</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.69895074857574768</v>
+        <v>0.70016375785828922</v>
       </c>
       <c r="O30">
-        <v>0.30104925142425226</v>
+        <v>0.29983624214171073</v>
       </c>
     </row>
     <row r="31">
@@ -11588,19 +11588,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.84677996057234972</v>
+        <v>0.84594789121046876</v>
       </c>
       <c r="J31">
-        <v>0.15322003942765025</v>
+        <v>0.15405210878953118</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.74779341518937381</v>
+        <v>0.74760187849382997</v>
       </c>
       <c r="O31">
-        <v>0.25220658481062613</v>
+        <v>0.25239812150617003</v>
       </c>
     </row>
     <row r="32">
@@ -11608,19 +11608,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.85656002760865735</v>
+        <v>0.85829360928372467</v>
       </c>
       <c r="J32">
-        <v>0.14343997239134262</v>
+        <v>0.14170639071627528</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.75811670934665332</v>
+        <v>0.75842627014533193</v>
       </c>
       <c r="O32">
-        <v>0.24188329065334671</v>
+        <v>0.24157372985466805</v>
       </c>
     </row>
     <row r="33">
@@ -11628,19 +11628,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.87192502047284426</v>
+        <v>0.87018949470749241</v>
       </c>
       <c r="J33">
-        <v>0.12807497952715571</v>
+        <v>0.12981050529250759</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.72174168588118515</v>
+        <v>0.72013720930285374</v>
       </c>
       <c r="O33">
-        <v>0.27825831411881491</v>
+        <v>0.27986279069714615</v>
       </c>
     </row>
     <row r="34">
@@ -11648,19 +11648,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.86244549578296559</v>
+        <v>0.86653931533228168</v>
       </c>
       <c r="J34">
-        <v>0.13755450421703438</v>
+        <v>0.13346068466771835</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71653552955324851</v>
+        <v>0.71695421852190921</v>
       </c>
       <c r="O34">
-        <v>0.28346447044675149</v>
+        <v>0.28304578147809079</v>
       </c>
     </row>
     <row r="35">
@@ -11668,19 +11668,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.89656257893816738</v>
+        <v>0.89404462461426215</v>
       </c>
       <c r="J35">
-        <v>0.10343742106183267</v>
+        <v>0.10595537538573795</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.70256490804540639</v>
+        <v>0.70153195589239481</v>
       </c>
       <c r="O35">
-        <v>0.29743509195459356</v>
+        <v>0.29846804410760513</v>
       </c>
     </row>
     <row r="36">
@@ -11688,19 +11688,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.85669050518303524</v>
+        <v>0.85779830808917512</v>
       </c>
       <c r="J36">
-        <v>0.1433094948169647</v>
+        <v>0.14220169191082493</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.73340499120759273</v>
+        <v>0.73245564052954726</v>
       </c>
       <c r="O36">
-        <v>0.26659500879240722</v>
+        <v>0.26754435947045269</v>
       </c>
     </row>
     <row r="37">
@@ -11708,19 +11708,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.89610152780818875</v>
+        <v>0.89503300888664539</v>
       </c>
       <c r="J37">
-        <v>0.10389847219181124</v>
+        <v>0.10496699111335464</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.71409365184486939</v>
+        <v>0.71478036231808606</v>
       </c>
       <c r="O37">
-        <v>0.28590634815513066</v>
+        <v>0.28521963768191411</v>
       </c>
     </row>
     <row r="38">
@@ -11728,19 +11728,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.88106924881782789</v>
+        <v>0.89476679726194486</v>
       </c>
       <c r="J38">
-        <v>0.11893075118217215</v>
+        <v>0.10523320273805514</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.73233231213642758</v>
+        <v>0.73822640849461985</v>
       </c>
       <c r="O38">
-        <v>0.26766768786357248</v>
+        <v>0.26177359150538015</v>
       </c>
     </row>
     <row r="39">
@@ -11748,19 +11748,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.91678675692931733</v>
+        <v>0.9182513384640113</v>
       </c>
       <c r="J39">
-        <v>0.083213243070682646</v>
+        <v>0.08174866153598874</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.65957986183592887</v>
+        <v>0.67692121819938156</v>
       </c>
       <c r="O39">
-        <v>0.34042013816407124</v>
+        <v>0.32307878180061833</v>
       </c>
     </row>
     <row r="40">
@@ -11768,19 +11768,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.88813638407392381</v>
+        <v>0.8878127042955043</v>
       </c>
       <c r="J40">
-        <v>0.11186361592607622</v>
+        <v>0.11218729570449576</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.66312808781855315</v>
+        <v>0.66324488961147621</v>
       </c>
       <c r="O40">
-        <v>0.33687191218144691</v>
+        <v>0.33675511038852368</v>
       </c>
     </row>
     <row r="41">
@@ -11788,19 +11788,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.91407899966500772</v>
+        <v>0.9168241393593064</v>
       </c>
       <c r="J41">
-        <v>0.085921000334992254</v>
+        <v>0.08317586064069353</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.66242792158110952</v>
+        <v>0.66358642665984247</v>
       </c>
       <c r="O41">
-        <v>0.33757207841889053</v>
+        <v>0.33641357334015753</v>
       </c>
     </row>
     <row r="42">
@@ -11808,19 +11808,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.90681139894655072</v>
+        <v>0.90586878571048512</v>
       </c>
       <c r="J42">
-        <v>0.093188601053449227</v>
+        <v>0.094131214289514861</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.65961531765093018</v>
+        <v>0.66632016834360475</v>
       </c>
       <c r="O42">
-        <v>0.34038468234906988</v>
+        <v>0.33367983165639531</v>
       </c>
     </row>
     <row r="43">
@@ -11828,19 +11828,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.91310593243162197</v>
+        <v>0.91214406744768761</v>
       </c>
       <c r="J43">
-        <v>0.086894067568378017</v>
+        <v>0.087855932552312471</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.66768776442315092</v>
+        <v>0.66506999456575844</v>
       </c>
       <c r="O43">
-        <v>0.33231223557684902</v>
+        <v>0.33493000543424151</v>
       </c>
     </row>
     <row r="44">
@@ -11848,19 +11848,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.92092263033360711</v>
+        <v>0.92863129817641332</v>
       </c>
       <c r="J44">
-        <v>0.079077369666392991</v>
+        <v>0.071368701823586775</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.66045522763255515</v>
+        <v>0.65734463854054359</v>
       </c>
       <c r="O44">
-        <v>0.33954477236744485</v>
+        <v>0.34265536145945646</v>
       </c>
     </row>
     <row r="45">
@@ -11868,19 +11868,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.92495051398850359</v>
+        <v>0.92756820652245198</v>
       </c>
       <c r="J45">
-        <v>0.075049486011496497</v>
+        <v>0.072431793477547982</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.64011992937042317</v>
+        <v>0.64741454007387611</v>
       </c>
       <c r="O45">
-        <v>0.35988007062957689</v>
+        <v>0.352585459926124</v>
       </c>
     </row>
     <row r="46">
@@ -11888,19 +11888,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.89212451713613761</v>
+        <v>0.89195262956940102</v>
       </c>
       <c r="J46">
-        <v>0.1078754828638625</v>
+        <v>0.10804737043059905</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.57652505528469622</v>
+        <v>0.57683184441164692</v>
       </c>
       <c r="O46">
-        <v>0.42347494471530384</v>
+        <v>0.42316815558835302</v>
       </c>
     </row>
     <row r="47">
@@ -11908,19 +11908,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.88660417388810431</v>
+        <v>0.89292916054521609</v>
       </c>
       <c r="J47">
-        <v>0.11339582611189572</v>
+        <v>0.10707083945478398</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.55131762254346728</v>
+        <v>0.5704092829356523</v>
       </c>
       <c r="O47">
-        <v>0.44868237745653261</v>
+        <v>0.42959071706434765</v>
       </c>
     </row>
     <row r="48">
@@ -11928,19 +11928,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.91426384648411529</v>
+        <v>0.91690883058960015</v>
       </c>
       <c r="J48">
-        <v>0.085736153515884664</v>
+        <v>0.083091169410399873</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.59903556905281985</v>
+        <v>0.596788029251753</v>
       </c>
       <c r="O48">
-        <v>0.40096443094718021</v>
+        <v>0.40321197074824688</v>
       </c>
     </row>
     <row r="49">
@@ -11948,19 +11948,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.87995259035475193</v>
+        <v>0.89132927036483633</v>
       </c>
       <c r="J49">
-        <v>0.12004740964524813</v>
+        <v>0.10867072963516376</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.64177765830910971</v>
+        <v>0.64477884679431186</v>
       </c>
       <c r="O49">
-        <v>0.35822234169089023</v>
+        <v>0.3552211532056882</v>
       </c>
     </row>
     <row r="50">
@@ -11968,19 +11968,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.88341195351441881</v>
+        <v>0.8856228214875882</v>
       </c>
       <c r="J50">
-        <v>0.11658804648558119</v>
+        <v>0.1143771785124118</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.59861649375600146</v>
+        <v>0.59644688934498635</v>
       </c>
       <c r="O50">
-        <v>0.40138350624399849</v>
+        <v>0.40355311065501365</v>
       </c>
     </row>
     <row r="51">
@@ -11988,19 +11988,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.91006749084516381</v>
+        <v>0.91176116922576445</v>
       </c>
       <c r="J51">
-        <v>0.089932509154836179</v>
+        <v>0.088238830774235472</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.63301187577564944</v>
+        <v>0.6234330649304739</v>
       </c>
       <c r="O51">
-        <v>0.36698812422435062</v>
+        <v>0.37656693506952615</v>
       </c>
     </row>
     <row r="52">
@@ -12008,19 +12008,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.90107494954474265</v>
+        <v>0.90073074545399834</v>
       </c>
       <c r="J52">
-        <v>0.098925050455257374</v>
+        <v>0.099269254546001662</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.60041679546119764</v>
+        <v>0.60282308873551305</v>
       </c>
       <c r="O52">
-        <v>0.39958320453880231</v>
+        <v>0.3971769112644869</v>
       </c>
     </row>
     <row r="53">
@@ -12028,19 +12028,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.93059684007233923</v>
+        <v>0.93045871086251863</v>
       </c>
       <c r="J53">
-        <v>0.069403159927660829</v>
+        <v>0.069541289137481435</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.58454609724718365</v>
+        <v>0.57876841113540833</v>
       </c>
       <c r="O53">
-        <v>0.41545390275281624</v>
+        <v>0.42123158886459167</v>
       </c>
     </row>
     <row r="54">
@@ -12545,19 +12545,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.45153458831811394</v>
+        <v>0.46332536741929564</v>
       </c>
       <c r="J3">
-        <v>0.54846541168188612</v>
+        <v>0.53667463258070436</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.87986816283842728</v>
+        <v>0.88091520883333452</v>
       </c>
       <c r="O3">
-        <v>0.12013183716157276</v>
+        <v>0.11908479116666547</v>
       </c>
     </row>
     <row r="4">
@@ -12565,19 +12565,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.445235034464253</v>
+        <v>0.46310901958179485</v>
       </c>
       <c r="J4">
-        <v>0.55476496553574706</v>
+        <v>0.53689098041820515</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.88892101987297667</v>
+        <v>0.88731489533044905</v>
       </c>
       <c r="O4">
-        <v>0.11107898012702326</v>
+        <v>0.11268510466955098</v>
       </c>
     </row>
     <row r="5">
@@ -12585,19 +12585,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.44320463335182292</v>
+        <v>0.44733238388765967</v>
       </c>
       <c r="J5">
-        <v>0.55679536664817719</v>
+        <v>0.55266761611234039</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.89868819947112821</v>
+        <v>0.89640131708866666</v>
       </c>
       <c r="O5">
-        <v>0.10131180052887187</v>
+        <v>0.1035986829113334</v>
       </c>
     </row>
     <row r="6">
@@ -12605,19 +12605,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.50028662653554645</v>
+        <v>0.50560216541876846</v>
       </c>
       <c r="J6">
-        <v>0.49971337346445355</v>
+        <v>0.49439783458123149</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.8732202187950473</v>
+        <v>0.87117617472058206</v>
       </c>
       <c r="O6">
-        <v>0.12677978120495273</v>
+        <v>0.12882382527941796</v>
       </c>
     </row>
     <row r="7">
@@ -12625,19 +12625,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.47470859318201153</v>
+        <v>0.47293731207052986</v>
       </c>
       <c r="J7">
-        <v>0.52529140681798836</v>
+        <v>0.52706268792947009</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.88269244057509122</v>
+        <v>0.8856742715640018</v>
       </c>
       <c r="O7">
-        <v>0.11730755942490878</v>
+        <v>0.11432572843599821</v>
       </c>
     </row>
     <row r="8">
@@ -12645,19 +12645,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.45444857099085012</v>
+        <v>0.46228079078951895</v>
       </c>
       <c r="J8">
-        <v>0.54555142900914988</v>
+        <v>0.537719209210481</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83539019683346805</v>
+        <v>0.83298350467809201</v>
       </c>
       <c r="O8">
-        <v>0.16460980316653195</v>
+        <v>0.16701649532190796</v>
       </c>
     </row>
     <row r="9">
@@ -12665,19 +12665,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.36992140155974496</v>
+        <v>0.36304815215040143</v>
       </c>
       <c r="J9">
-        <v>0.63007859844025504</v>
+        <v>0.63695184784959857</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.90202125615314011</v>
+        <v>0.90483708092561421</v>
       </c>
       <c r="O9">
-        <v>0.097978743846859895</v>
+        <v>0.095162919074385677</v>
       </c>
     </row>
     <row r="10">
@@ -12685,19 +12685,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.45655056040668385</v>
+        <v>0.45784621842584955</v>
       </c>
       <c r="J10">
-        <v>0.54344943959331615</v>
+        <v>0.5421537815741504</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.89671401690069519</v>
+        <v>0.89770671904969634</v>
       </c>
       <c r="O10">
-        <v>0.10328598309930474</v>
+        <v>0.10229328095030366</v>
       </c>
     </row>
     <row r="11">
@@ -12705,19 +12705,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.49797078634428188</v>
+        <v>0.49749545937043393</v>
       </c>
       <c r="J11">
-        <v>0.50202921365571807</v>
+        <v>0.50250454062956607</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.90441851949166818</v>
+        <v>0.90430564852042439</v>
       </c>
       <c r="O11">
-        <v>0.095581480508331762</v>
+        <v>0.095694351479575585</v>
       </c>
     </row>
     <row r="12">
@@ -12725,19 +12725,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.50746625019332658</v>
+        <v>0.51194829469803371</v>
       </c>
       <c r="J12">
-        <v>0.49253374980667336</v>
+        <v>0.48805170530196634</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.89347620491309199</v>
+        <v>0.89283263823426418</v>
       </c>
       <c r="O12">
-        <v>0.10652379508690801</v>
+        <v>0.10716736176573587</v>
       </c>
     </row>
     <row r="13">
@@ -12745,19 +12745,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.54231557463128055</v>
+        <v>0.53930881766940175</v>
       </c>
       <c r="J13">
-        <v>0.45768442536871956</v>
+        <v>0.46069118233059825</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.85678381114329072</v>
+        <v>0.85455892140801504</v>
       </c>
       <c r="O13">
-        <v>0.14321618885670928</v>
+        <v>0.14544107859198502</v>
       </c>
     </row>
     <row r="14">
@@ -12765,19 +12765,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.53849932569716019</v>
+        <v>0.53310166006060311</v>
       </c>
       <c r="J14">
-        <v>0.46150067430283975</v>
+        <v>0.46689833993939694</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84954905149464932</v>
+        <v>0.84966848098169745</v>
       </c>
       <c r="O14">
-        <v>0.1504509485053506</v>
+        <v>0.15033151901830252</v>
       </c>
     </row>
     <row r="15">
@@ -12785,19 +12785,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.50826186731543266</v>
+        <v>0.50742799516632586</v>
       </c>
       <c r="J15">
-        <v>0.49173813268456723</v>
+        <v>0.49257200483367408</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.84545281464791244</v>
+        <v>0.84593630971396572</v>
       </c>
       <c r="O15">
-        <v>0.15454718535208758</v>
+        <v>0.15406369028603423</v>
       </c>
     </row>
     <row r="16">
@@ -12805,19 +12805,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.50734132692075806</v>
+        <v>0.50818987398251469</v>
       </c>
       <c r="J16">
-        <v>0.49265867307924194</v>
+        <v>0.49181012601748525</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.87925576852365395</v>
+        <v>0.88200009956382819</v>
       </c>
       <c r="O16">
-        <v>0.12074423147634612</v>
+        <v>0.1179999004361718</v>
       </c>
     </row>
     <row r="17">
@@ -12825,19 +12825,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.47589868915949668</v>
+        <v>0.46963740908598084</v>
       </c>
       <c r="J17">
-        <v>0.52410131084050338</v>
+        <v>0.53036259091401916</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.87054536478381062</v>
+        <v>0.87156305267911915</v>
       </c>
       <c r="O17">
-        <v>0.12945463521618933</v>
+        <v>0.12843694732088079</v>
       </c>
     </row>
     <row r="18">
@@ -12845,19 +12845,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.57202998170401176</v>
+        <v>0.57238714316078931</v>
       </c>
       <c r="J18">
-        <v>0.42797001829598824</v>
+        <v>0.42761285683921069</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.85390522001185076</v>
+        <v>0.8520741904004695</v>
       </c>
       <c r="O18">
-        <v>0.14609477998814926</v>
+        <v>0.14792580959953053</v>
       </c>
     </row>
     <row r="19">
@@ -12865,19 +12865,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.5748715884355553</v>
+        <v>0.56898380696505746</v>
       </c>
       <c r="J19">
-        <v>0.42512841156444481</v>
+        <v>0.43101619303494249</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.86359349166903221</v>
+        <v>0.86393310702137005</v>
       </c>
       <c r="O19">
-        <v>0.13640650833096785</v>
+        <v>0.13606689297862995</v>
       </c>
     </row>
     <row r="20">
@@ -12885,19 +12885,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.57291662283663858</v>
+        <v>0.56924237239237407</v>
       </c>
       <c r="J20">
-        <v>0.42708337716336153</v>
+        <v>0.43075762760762581</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.85470889121900195</v>
+        <v>0.85917013033303902</v>
       </c>
       <c r="O20">
-        <v>0.14529110878099805</v>
+        <v>0.14082986966696096</v>
       </c>
     </row>
     <row r="21">
@@ -12905,19 +12905,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.58591163722666872</v>
+        <v>0.58904735751520021</v>
       </c>
       <c r="J21">
-        <v>0.41408836277333133</v>
+        <v>0.4109526424847999</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.84459100225135642</v>
+        <v>0.8434944933873979</v>
       </c>
       <c r="O21">
-        <v>0.15540899774864358</v>
+        <v>0.15650550661260212</v>
       </c>
     </row>
     <row r="22">
@@ -12925,19 +12925,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.58068413255131346</v>
+        <v>0.58113992127004233</v>
       </c>
       <c r="J22">
-        <v>0.41931586744868654</v>
+        <v>0.41886007872995767</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.8540017211175891</v>
+        <v>0.85434885416939599</v>
       </c>
       <c r="O22">
-        <v>0.14599827888241104</v>
+        <v>0.14565114583060407</v>
       </c>
     </row>
     <row r="23">
@@ -12945,19 +12945,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.55179891537382775</v>
+        <v>0.54616867869289165</v>
       </c>
       <c r="J23">
-        <v>0.44820108462617231</v>
+        <v>0.45383132130710835</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.84812724070418455</v>
+        <v>0.84957986961240628</v>
       </c>
       <c r="O23">
-        <v>0.15187275929581545</v>
+        <v>0.15042013038759372</v>
       </c>
     </row>
     <row r="24">
@@ -12965,19 +12965,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.58082259304487283</v>
+        <v>0.57783430958972082</v>
       </c>
       <c r="J24">
-        <v>0.41917740695512717</v>
+        <v>0.42216569041027913</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.83305617080899252</v>
+        <v>0.83314017458730771</v>
       </c>
       <c r="O24">
-        <v>0.16694382919100756</v>
+        <v>0.1668598254126922</v>
       </c>
     </row>
     <row r="25">
@@ -12985,19 +12985,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.624160589930291</v>
+        <v>0.62470059280936108</v>
       </c>
       <c r="J25">
-        <v>0.37583941006970895</v>
+        <v>0.37529940719063898</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.83887618168483391</v>
+        <v>0.83633523797009313</v>
       </c>
       <c r="O25">
-        <v>0.16112381831516609</v>
+        <v>0.16366476202990687</v>
       </c>
     </row>
     <row r="26">
@@ -13005,19 +13005,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.59702826292065858</v>
+        <v>0.60232642634182954</v>
       </c>
       <c r="J26">
-        <v>0.40297173707934131</v>
+        <v>0.39767357365817041</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.84434933335858076</v>
+        <v>0.84075361494447221</v>
       </c>
       <c r="O26">
-        <v>0.15565066664141927</v>
+        <v>0.15924638505552782</v>
       </c>
     </row>
     <row r="27">
@@ -13025,19 +13025,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.62468065877756063</v>
+        <v>0.62538628282106989</v>
       </c>
       <c r="J27">
-        <v>0.37531934122243937</v>
+        <v>0.37461371717893005</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.82028205330504833</v>
+        <v>0.82160207249515227</v>
       </c>
       <c r="O27">
-        <v>0.17971794669495167</v>
+        <v>0.17839792750484773</v>
       </c>
     </row>
     <row r="28">
@@ -13045,19 +13045,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.63554999033969806</v>
+        <v>0.63575169230150919</v>
       </c>
       <c r="J28">
-        <v>0.36445000966030205</v>
+        <v>0.36424830769849076</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.82140880784372028</v>
+        <v>0.81817623020115793</v>
       </c>
       <c r="O28">
-        <v>0.17859119215627975</v>
+        <v>0.18182376979884204</v>
       </c>
     </row>
     <row r="29">
@@ -13065,19 +13065,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.64464823214342792</v>
+        <v>0.64066751852694925</v>
       </c>
       <c r="J29">
-        <v>0.35535176785657202</v>
+        <v>0.35933248147305069</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.82967988267889636</v>
+        <v>0.83025834926935282</v>
       </c>
       <c r="O29">
-        <v>0.17032011732110366</v>
+        <v>0.16974165073064729</v>
       </c>
     </row>
     <row r="30">
@@ -13085,19 +13085,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.64685008558299117</v>
+        <v>0.64568273260409004</v>
       </c>
       <c r="J30">
-        <v>0.35314991441700877</v>
+        <v>0.35431726739590996</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.84247669782465595</v>
+        <v>0.84370848161344891</v>
       </c>
       <c r="O30">
-        <v>0.15752330217534408</v>
+        <v>0.156291518386551</v>
       </c>
     </row>
     <row r="31">
@@ -13105,19 +13105,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.68287548907850493</v>
+        <v>0.68317504406801943</v>
       </c>
       <c r="J31">
-        <v>0.31712451092149502</v>
+        <v>0.31682495593198051</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.83332628343294157</v>
+        <v>0.83184776497740898</v>
       </c>
       <c r="O31">
-        <v>0.16667371656705843</v>
+        <v>0.16815223502259108</v>
       </c>
     </row>
     <row r="32">
@@ -13125,19 +13125,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.70012683045066937</v>
+        <v>0.69851638037716557</v>
       </c>
       <c r="J32">
-        <v>0.29987316954933069</v>
+        <v>0.30148361962283449</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.83901110604364071</v>
+        <v>0.83823696662861613</v>
       </c>
       <c r="O32">
-        <v>0.16098889395635932</v>
+        <v>0.16176303337138381</v>
       </c>
     </row>
     <row r="33">
@@ -13145,19 +13145,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65274154493764813</v>
+        <v>0.65416185962226359</v>
       </c>
       <c r="J33">
-        <v>0.34725845506235203</v>
+        <v>0.34583814037773636</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.81077612654840592</v>
+        <v>0.81370925935896365</v>
       </c>
       <c r="O33">
-        <v>0.18922387345159408</v>
+        <v>0.18629074064103646</v>
       </c>
     </row>
     <row r="34">
@@ -13165,19 +13165,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69615010637717212</v>
+        <v>0.70273892007283056</v>
       </c>
       <c r="J34">
-        <v>0.30384989362282794</v>
+        <v>0.29726107992716944</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.7836829010830807</v>
+        <v>0.78459174841382406</v>
       </c>
       <c r="O34">
-        <v>0.21631709891691939</v>
+        <v>0.21540825158617591</v>
       </c>
     </row>
     <row r="35">
@@ -13185,19 +13185,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70415022612839606</v>
+        <v>0.7047537009922098</v>
       </c>
       <c r="J35">
-        <v>0.29584977387160388</v>
+        <v>0.2952462990077902</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80196935018439908</v>
+        <v>0.80396341586111597</v>
       </c>
       <c r="O35">
-        <v>0.19803064981560101</v>
+        <v>0.19603658413888392</v>
       </c>
     </row>
     <row r="36">
@@ -13205,19 +13205,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.68108444539704105</v>
+        <v>0.67922033850151964</v>
       </c>
       <c r="J36">
-        <v>0.3189155546029589</v>
+        <v>0.32077966149848042</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.78567355808064276</v>
+        <v>0.78511937690263056</v>
       </c>
       <c r="O36">
-        <v>0.21432644191935735</v>
+        <v>0.21488062309736938</v>
       </c>
     </row>
     <row r="37">
@@ -13225,19 +13225,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.74489178648135246</v>
+        <v>0.7504063713489304</v>
       </c>
       <c r="J37">
-        <v>0.2551082135186476</v>
+        <v>0.24959362865106965</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.78145082590971437</v>
+        <v>0.77921853668642227</v>
       </c>
       <c r="O37">
-        <v>0.21854917409028563</v>
+        <v>0.22078146331357765</v>
       </c>
     </row>
     <row r="38">
@@ -13245,19 +13245,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.71984452110219044</v>
+        <v>0.71728171546069464</v>
       </c>
       <c r="J38">
-        <v>0.28015547889780956</v>
+        <v>0.28271828453930536</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.78171967451948843</v>
+        <v>0.77854450198229752</v>
       </c>
       <c r="O38">
-        <v>0.21828032548051163</v>
+        <v>0.2214554980177024</v>
       </c>
     </row>
     <row r="39">
@@ -13265,19 +13265,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.74897801199969083</v>
+        <v>0.75241029958528227</v>
       </c>
       <c r="J39">
-        <v>0.25102198800030917</v>
+        <v>0.2475897004147177</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.74802357447723511</v>
+        <v>0.74697387056519415</v>
       </c>
       <c r="O39">
-        <v>0.25197642552276495</v>
+        <v>0.25302612943480585</v>
       </c>
     </row>
     <row r="40">
@@ -13285,19 +13285,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.7616341393963979</v>
+        <v>0.76483324875715653</v>
       </c>
       <c r="J40">
-        <v>0.23836586060360215</v>
+        <v>0.23516675124284347</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.77143887229135677</v>
+        <v>0.7697831446528991</v>
       </c>
       <c r="O40">
-        <v>0.22856112770864315</v>
+        <v>0.23021685534710085</v>
       </c>
     </row>
     <row r="41">
@@ -13305,19 +13305,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.74405713032478893</v>
+        <v>0.74203269396408067</v>
       </c>
       <c r="J41">
-        <v>0.25594286967521107</v>
+        <v>0.25796730603591927</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.78430064003707367</v>
+        <v>0.78354393433704839</v>
       </c>
       <c r="O41">
-        <v>0.21569935996292636</v>
+        <v>0.21645606566295156</v>
       </c>
     </row>
     <row r="42">
@@ -13325,19 +13325,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.79203923939209708</v>
+        <v>0.79334545684776658</v>
       </c>
       <c r="J42">
-        <v>0.20796076060790289</v>
+        <v>0.20665454315223342</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.77994624790695499</v>
+        <v>0.77485731188833473</v>
       </c>
       <c r="O42">
-        <v>0.22005375209304509</v>
+        <v>0.2251426881116653</v>
       </c>
     </row>
     <row r="43">
@@ -13345,19 +13345,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.75364278710582633</v>
+        <v>0.75534494749274272</v>
       </c>
       <c r="J43">
-        <v>0.24635721289417367</v>
+        <v>0.24465505250725725</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.78691058476214626</v>
+        <v>0.78794085498885591</v>
       </c>
       <c r="O43">
-        <v>0.21308941523785377</v>
+        <v>0.21205914501114403</v>
       </c>
     </row>
     <row r="44">
@@ -13365,19 +13365,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.81056834806969325</v>
+        <v>0.81017132738546793</v>
       </c>
       <c r="J44">
-        <v>0.18943165193030678</v>
+        <v>0.18982867261453204</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.76863966168840192</v>
+        <v>0.76841776916931492</v>
       </c>
       <c r="O44">
-        <v>0.23136033831159808</v>
+        <v>0.23158223083068508</v>
       </c>
     </row>
     <row r="45">
@@ -13385,19 +13385,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.76373725451296415</v>
+        <v>0.76408608070076467</v>
       </c>
       <c r="J45">
-        <v>0.23626274548703574</v>
+        <v>0.23591391929923544</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.76286462788140053</v>
+        <v>0.76159067314622053</v>
       </c>
       <c r="O45">
-        <v>0.23713537211859956</v>
+        <v>0.23840932685377941</v>
       </c>
     </row>
     <row r="46">
@@ -13405,19 +13405,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.74764852420639594</v>
+        <v>0.75236123607389938</v>
       </c>
       <c r="J46">
-        <v>0.25235147579360412</v>
+        <v>0.24763876392610071</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.76702896298138656</v>
+        <v>0.76442387546625035</v>
       </c>
       <c r="O46">
-        <v>0.23297103701861349</v>
+        <v>0.23557612453374957</v>
       </c>
     </row>
     <row r="47">
@@ -13425,19 +13425,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.79178506413841065</v>
+        <v>0.79209091299556145</v>
       </c>
       <c r="J47">
-        <v>0.2082149358615894</v>
+        <v>0.20790908700443861</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.75716501159755256</v>
+        <v>0.75402478108334214</v>
       </c>
       <c r="O47">
-        <v>0.24283498840244744</v>
+        <v>0.24597521891665783</v>
       </c>
     </row>
     <row r="48">
@@ -13445,19 +13445,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.78716528141957576</v>
+        <v>0.78449771204922492</v>
       </c>
       <c r="J48">
-        <v>0.21283471858042435</v>
+        <v>0.21550228795077503</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.75177461718768313</v>
+        <v>0.75302421565875011</v>
       </c>
       <c r="O48">
-        <v>0.2482253828123169</v>
+        <v>0.24697578434124989</v>
       </c>
     </row>
     <row r="49">
@@ -13465,19 +13465,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.79078070824900926</v>
+        <v>0.78978764662632706</v>
       </c>
       <c r="J49">
-        <v>0.20921929175099074</v>
+        <v>0.21021235337367289</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.7359384979341177</v>
+        <v>0.73554706971813599</v>
       </c>
       <c r="O49">
-        <v>0.2640615020658823</v>
+        <v>0.26445293028186401</v>
       </c>
     </row>
     <row r="50">
@@ -13485,19 +13485,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.82313370087783266</v>
+        <v>0.82280391477955506</v>
       </c>
       <c r="J50">
-        <v>0.17686629912216725</v>
+        <v>0.177196085220445</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.72605764003988515</v>
+        <v>0.72902722727585856</v>
       </c>
       <c r="O50">
-        <v>0.2739423599601149</v>
+        <v>0.27097277272414139</v>
       </c>
     </row>
     <row r="51">
@@ -13505,19 +13505,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.83171722784862923</v>
+        <v>0.8319038399176204</v>
       </c>
       <c r="J51">
-        <v>0.1682827721513708</v>
+        <v>0.16809616008237971</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.75456183994242354</v>
+        <v>0.75932495760913188</v>
       </c>
       <c r="O51">
-        <v>0.24543816005757638</v>
+        <v>0.24067504239086818</v>
       </c>
     </row>
     <row r="52">
@@ -13525,19 +13525,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.82864684605526873</v>
+        <v>0.83324230643530539</v>
       </c>
       <c r="J52">
-        <v>0.17135315394473133</v>
+        <v>0.16675769356469461</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.69100813952216766</v>
+        <v>0.69030055971540516</v>
       </c>
       <c r="O52">
-        <v>0.30899186047783234</v>
+        <v>0.30969944028459484</v>
       </c>
     </row>
     <row r="53">
@@ -13545,19 +13545,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.8515743088222042</v>
+        <v>0.85212271546987628</v>
       </c>
       <c r="J53">
-        <v>0.14842569117779575</v>
+        <v>0.14787728453012375</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.69995574041621089</v>
+        <v>0.7029127123013772</v>
       </c>
       <c r="O53">
-        <v>0.30004425958378894</v>
+        <v>0.2970872876986228</v>
       </c>
     </row>
     <row r="54">

--- a/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
+++ b/do_files/UKHLS_trans_output/UKHLS_De_Nardi_Figures.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14707" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14765" uniqueCount="188">
   <si>
     <t>Figure 1 (left) : Fraction of people in bad mental health</t>
   </si>
@@ -691,31 +691,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.24392045044139346</v>
+        <v>0.24317691409559006</v>
       </c>
       <c r="C3">
-        <v>0.23077977077411574</v>
+        <v>0.2290204447332243</v>
       </c>
       <c r="D3">
-        <v>0.52529977878449075</v>
+        <v>0.52780264117118558</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.7259219444389442</v>
+        <v>0.73023306957409861</v>
       </c>
       <c r="J3">
-        <v>0.2740780555610558</v>
+        <v>0.26976693042590133</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.73512706938974126</v>
+        <v>0.731378164267528</v>
       </c>
       <c r="O3">
-        <v>0.26487293061025863</v>
+        <v>0.26862183573247189</v>
       </c>
     </row>
     <row r="4">
@@ -723,31 +723,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.25698292440721826</v>
+        <v>0.26116227035423223</v>
       </c>
       <c r="C4">
-        <v>0.2283442345541811</v>
+        <v>0.22834802624212133</v>
       </c>
       <c r="D4">
-        <v>0.51467284103860056</v>
+        <v>0.51048970340364641</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.72517684909999081</v>
+        <v>0.72005251163996065</v>
       </c>
       <c r="J4">
-        <v>0.27482315090000919</v>
+        <v>0.27994748836003935</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.70583169727415851</v>
+        <v>0.70292663502534969</v>
       </c>
       <c r="O4">
-        <v>0.29416830272584149</v>
+        <v>0.29707336497465026</v>
       </c>
     </row>
     <row r="5">
@@ -755,31 +755,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.26229486494119914</v>
+        <v>0.26180578539180061</v>
       </c>
       <c r="C5">
-        <v>0.21818614889976395</v>
+        <v>0.21960834092118081</v>
       </c>
       <c r="D5">
-        <v>0.51951898615903691</v>
+        <v>0.51858587368701858</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.67322991639573293</v>
+        <v>0.67771852098350127</v>
       </c>
       <c r="J5">
-        <v>0.32677008360426701</v>
+        <v>0.32228147901649867</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.72431393274238953</v>
+        <v>0.72910776944376721</v>
       </c>
       <c r="O5">
-        <v>0.27568606725761052</v>
+        <v>0.27089223055623279</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.23829132408686612</v>
+        <v>0.23889197396215908</v>
       </c>
       <c r="C6">
-        <v>0.21607214504457842</v>
+        <v>0.21550982431524918</v>
       </c>
       <c r="D6">
-        <v>0.54563653086855546</v>
+        <v>0.54559820172259177</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.70326692789181644</v>
+        <v>0.7045845190427279</v>
       </c>
       <c r="J6">
-        <v>0.29673307210818356</v>
+        <v>0.2954154809572721</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.69343852037098908</v>
+        <v>0.69164742293990489</v>
       </c>
       <c r="O6">
-        <v>0.30656147962901092</v>
+        <v>0.30835257706009511</v>
       </c>
     </row>
     <row r="7">
@@ -819,31 +819,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.25411188253582273</v>
+        <v>0.25204581683086336</v>
       </c>
       <c r="C7">
-        <v>0.21725852681684599</v>
+        <v>0.22150725463322066</v>
       </c>
       <c r="D7">
-        <v>0.52862959064733128</v>
+        <v>0.52644692853591601</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.69859767784780058</v>
+        <v>0.69871223291010365</v>
       </c>
       <c r="J7">
-        <v>0.30140232215219948</v>
+        <v>0.30128776708989624</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.72262812942463417</v>
+        <v>0.72932400367590899</v>
       </c>
       <c r="O7">
-        <v>0.27737187057536589</v>
+        <v>0.27067599632409101</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.24709751080018544</v>
+        <v>0.24546101719726995</v>
       </c>
       <c r="C8">
-        <v>0.21578042924524499</v>
+        <v>0.21513820722464136</v>
       </c>
       <c r="D8">
-        <v>0.53712205995456952</v>
+        <v>0.53940077557808863</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.72034084946110166</v>
+        <v>0.71982592179799898</v>
       </c>
       <c r="J8">
-        <v>0.27965915053889834</v>
+        <v>0.28017407820200108</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.73018425891680316</v>
+        <v>0.73334761039856944</v>
       </c>
       <c r="O8">
-        <v>0.26981574108319689</v>
+        <v>0.26665238960143062</v>
       </c>
     </row>
     <row r="9">
@@ -883,31 +883,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.26126888393079994</v>
+        <v>0.26054985979967865</v>
       </c>
       <c r="C9">
-        <v>0.20037017924585909</v>
+        <v>0.19809380095080742</v>
       </c>
       <c r="D9">
-        <v>0.53836093682334085</v>
+        <v>0.54135633924951387</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.67869095507780464</v>
+        <v>0.68204297309138151</v>
       </c>
       <c r="J9">
-        <v>0.32130904492219536</v>
+        <v>0.31795702690861843</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.70976892275244019</v>
+        <v>0.70903488079076205</v>
       </c>
       <c r="O9">
-        <v>0.29023107724755987</v>
+        <v>0.29096511920923795</v>
       </c>
     </row>
     <row r="10">
@@ -915,31 +915,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.22737851823403729</v>
+        <v>0.22640527773841873</v>
       </c>
       <c r="C10">
-        <v>0.23184998762817899</v>
+        <v>0.2313087368355074</v>
       </c>
       <c r="D10">
-        <v>0.54077149413778369</v>
+        <v>0.54228598542607387</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.72270955797274661</v>
+        <v>0.72352779655755972</v>
       </c>
       <c r="J10">
-        <v>0.27729044202725334</v>
+        <v>0.27647220344244028</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.7031619653961092</v>
+        <v>0.71126750772290304</v>
       </c>
       <c r="O10">
-        <v>0.29683803460389074</v>
+        <v>0.28873249227709691</v>
       </c>
     </row>
     <row r="11">
@@ -947,31 +947,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.23242704567664843</v>
+        <v>0.22973939632383811</v>
       </c>
       <c r="C11">
-        <v>0.23144338815867138</v>
+        <v>0.23373017119772854</v>
       </c>
       <c r="D11">
-        <v>0.5361295661646801</v>
+        <v>0.53653043247843335</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.67363093648045058</v>
+        <v>0.67324805938433196</v>
       </c>
       <c r="J11">
-        <v>0.32636906351954942</v>
+        <v>0.32675194061566809</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.74547376801649001</v>
+        <v>0.74116984103694239</v>
       </c>
       <c r="O11">
-        <v>0.25452623198350988</v>
+        <v>0.25883015896305761</v>
       </c>
     </row>
     <row r="12">
@@ -979,31 +979,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.21859261501319127</v>
+        <v>0.21702050333460449</v>
       </c>
       <c r="C12">
-        <v>0.22372787729092788</v>
+        <v>0.22626178133899813</v>
       </c>
       <c r="D12">
-        <v>0.55767950769588082</v>
+        <v>0.55671771532639747</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.70976576922400891</v>
+        <v>0.71167729224623555</v>
       </c>
       <c r="J12">
-        <v>0.29023423077599103</v>
+        <v>0.28832270775376451</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.72410635252853928</v>
+        <v>0.72585394399805381</v>
       </c>
       <c r="O12">
-        <v>0.27589364747146061</v>
+        <v>0.27414605600194614</v>
       </c>
     </row>
     <row r="13">
@@ -1011,31 +1011,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.22009989242043226</v>
+        <v>0.2214264859131044</v>
       </c>
       <c r="C13">
-        <v>0.24070270857709875</v>
+        <v>0.23866450362359964</v>
       </c>
       <c r="D13">
-        <v>0.53919739900246888</v>
+        <v>0.53990901046329598</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.69989475437840731</v>
+        <v>0.70156968280684651</v>
       </c>
       <c r="J13">
-        <v>0.3001052456215928</v>
+        <v>0.29843031719315344</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.73813643253517669</v>
+        <v>0.74136587966624523</v>
       </c>
       <c r="O13">
-        <v>0.26186356746482337</v>
+        <v>0.25863412033375482</v>
       </c>
     </row>
     <row r="14">
@@ -1043,31 +1043,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.21171417033787548</v>
+        <v>0.21240715678046934</v>
       </c>
       <c r="C14">
-        <v>0.22442374209448077</v>
+        <v>0.22392125808161581</v>
       </c>
       <c r="D14">
-        <v>0.56386208756764378</v>
+        <v>0.56367158513791493</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.72586649094546873</v>
+        <v>0.72662431234753722</v>
       </c>
       <c r="J14">
-        <v>0.27413350905453121</v>
+        <v>0.27337568765246278</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.73105117171370015</v>
+        <v>0.73123341299301214</v>
       </c>
       <c r="O14">
-        <v>0.26894882828629979</v>
+        <v>0.26876658700698791</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.23543308858324774</v>
+        <v>0.23584530639344961</v>
       </c>
       <c r="C15">
-        <v>0.22396632403198533</v>
+        <v>0.22359492276075976</v>
       </c>
       <c r="D15">
-        <v>0.54060058738476691</v>
+        <v>0.54055977084579077</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.72067888226669419</v>
+        <v>0.72084834082747695</v>
       </c>
       <c r="J15">
-        <v>0.27932111773330581</v>
+        <v>0.2791516591725231</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.73707557878918184</v>
+        <v>0.73543365009595951</v>
       </c>
       <c r="O15">
-        <v>0.26292442121081816</v>
+        <v>0.26456634990404054</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.22213926213399759</v>
+        <v>0.22455503968011575</v>
       </c>
       <c r="C16">
-        <v>0.23399730523722154</v>
+        <v>0.23183783123975032</v>
       </c>
       <c r="D16">
-        <v>0.54386343262878079</v>
+        <v>0.54360712908013387</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.70446324518950942</v>
+        <v>0.70433280888183991</v>
       </c>
       <c r="J16">
-        <v>0.29553675481049052</v>
+        <v>0.29566719111816003</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.74181564501581065</v>
+        <v>0.73892227409513234</v>
       </c>
       <c r="O16">
-        <v>0.25818435498418935</v>
+        <v>0.26107772590486772</v>
       </c>
     </row>
     <row r="17">
@@ -1139,31 +1139,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.23183805828464021</v>
+        <v>0.23159802713472175</v>
       </c>
       <c r="C17">
-        <v>0.21827662111994595</v>
+        <v>0.21827419931266365</v>
       </c>
       <c r="D17">
-        <v>0.54988532059541373</v>
+        <v>0.55012777355261466</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.71694134230760365</v>
+        <v>0.71945738691842787</v>
       </c>
       <c r="J17">
-        <v>0.2830586576923963</v>
+        <v>0.28054261308157213</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.75616056630823947</v>
+        <v>0.7567198193743957</v>
       </c>
       <c r="O17">
-        <v>0.24383943369176048</v>
+        <v>0.24328018062560425</v>
       </c>
     </row>
     <row r="18">
@@ -1171,31 +1171,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.22212674348146788</v>
+        <v>0.22357595213685541</v>
       </c>
       <c r="C18">
-        <v>0.22529475803239157</v>
+        <v>0.2241716116060882</v>
       </c>
       <c r="D18">
-        <v>0.5525784984861406</v>
+        <v>0.55225243625705633</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.71520487004548672</v>
+        <v>0.71715056982715142</v>
       </c>
       <c r="J18">
-        <v>0.28479512995451328</v>
+        <v>0.28284943017284864</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.764190590169886</v>
+        <v>0.76435645277497144</v>
       </c>
       <c r="O18">
-        <v>0.23580940983011395</v>
+        <v>0.23564354722502853</v>
       </c>
     </row>
     <row r="19">
@@ -1203,31 +1203,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.21601793183047174</v>
+        <v>0.21480866153700431</v>
       </c>
       <c r="C19">
-        <v>0.21948745135485606</v>
+        <v>0.22089406402965359</v>
       </c>
       <c r="D19">
-        <v>0.56449461681467217</v>
+        <v>0.56429727443334199</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.71133776759694223</v>
+        <v>0.71237492933405799</v>
       </c>
       <c r="J19">
-        <v>0.28866223240305772</v>
+        <v>0.28762507066594201</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.76892752650691543</v>
+        <v>0.76761900700924102</v>
       </c>
       <c r="O19">
-        <v>0.23107247349308449</v>
+        <v>0.23238099299075904</v>
       </c>
     </row>
     <row r="20">
@@ -1235,31 +1235,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.20895692141068786</v>
+        <v>0.20901090678603165</v>
       </c>
       <c r="C20">
-        <v>0.21087250314650463</v>
+        <v>0.21122808890473815</v>
       </c>
       <c r="D20">
-        <v>0.58017057544280759</v>
+        <v>0.57976100430923028</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.68195717295214553</v>
+        <v>0.68378022461713195</v>
       </c>
       <c r="J20">
-        <v>0.31804282704785453</v>
+        <v>0.316219775382868</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.769699849348912</v>
+        <v>0.76833153404048937</v>
       </c>
       <c r="O20">
-        <v>0.23030015065108805</v>
+        <v>0.23166846595951057</v>
       </c>
     </row>
     <row r="21">
@@ -1267,31 +1267,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.20728456593674865</v>
+        <v>0.20756857554619218</v>
       </c>
       <c r="C21">
-        <v>0.20567592763875178</v>
+        <v>0.20847653362215021</v>
       </c>
       <c r="D21">
-        <v>0.58703950642449954</v>
+        <v>0.58395489083165764</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.68593436823045117</v>
+        <v>0.68639162476125093</v>
       </c>
       <c r="J21">
-        <v>0.31406563176954883</v>
+        <v>0.31360837523874913</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.77936544472991787</v>
+        <v>0.78146260709452087</v>
       </c>
       <c r="O21">
-        <v>0.22063455527008216</v>
+        <v>0.21853739290547908</v>
       </c>
     </row>
     <row r="22">
@@ -1299,31 +1299,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.20470083972485431</v>
+        <v>0.20561763479497269</v>
       </c>
       <c r="C22">
-        <v>0.20671477221392615</v>
+        <v>0.20608197435270864</v>
       </c>
       <c r="D22">
-        <v>0.5885843880612196</v>
+        <v>0.58830039085231856</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.69673206573639779</v>
+        <v>0.6970410009187048</v>
       </c>
       <c r="J22">
-        <v>0.3032679342636021</v>
+        <v>0.30295899908129514</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.76995394320555788</v>
+        <v>0.77247631844132558</v>
       </c>
       <c r="O22">
-        <v>0.23004605679444215</v>
+        <v>0.2275236815586745</v>
       </c>
     </row>
     <row r="23">
@@ -1331,31 +1331,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.21552399623303684</v>
+        <v>0.21563743527990853</v>
       </c>
       <c r="C23">
-        <v>0.20679569767768921</v>
+        <v>0.2063415903765253</v>
       </c>
       <c r="D23">
-        <v>0.57768030608927401</v>
+        <v>0.57802097434356614</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.69958581854960411</v>
+        <v>0.69592226551112835</v>
       </c>
       <c r="J23">
-        <v>0.300414181450396</v>
+        <v>0.30407773448887165</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.75755914270655456</v>
+        <v>0.75637841126870431</v>
       </c>
       <c r="O23">
-        <v>0.24244085729344553</v>
+        <v>0.24362158873129566</v>
       </c>
     </row>
     <row r="24">
@@ -1363,31 +1363,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.20762399350219743</v>
+        <v>0.20891170379807478</v>
       </c>
       <c r="C24">
-        <v>0.22170131295852749</v>
+        <v>0.22017530167007809</v>
       </c>
       <c r="D24">
-        <v>0.57067469353927514</v>
+        <v>0.57091299453184696</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.70557723045482301</v>
+        <v>0.7040053598065833</v>
       </c>
       <c r="J24">
-        <v>0.29442276954517699</v>
+        <v>0.2959946401934167</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.77433122864095938</v>
+        <v>0.76990939139761005</v>
       </c>
       <c r="O24">
-        <v>0.22566877135904062</v>
+        <v>0.23009060860238997</v>
       </c>
     </row>
     <row r="25">
@@ -1395,31 +1395,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.208113837468932</v>
+        <v>0.20805295299459153</v>
       </c>
       <c r="C25">
-        <v>0.21442145849233915</v>
+        <v>0.21524669589371032</v>
       </c>
       <c r="D25">
-        <v>0.57746470403872885</v>
+        <v>0.57670035111169804</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.64021677087788798</v>
+        <v>0.64135637642077536</v>
       </c>
       <c r="J25">
-        <v>0.35978322912211208</v>
+        <v>0.35864362357922469</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.75331994889663956</v>
+        <v>0.75277692058191115</v>
       </c>
       <c r="O25">
-        <v>0.24668005110336055</v>
+        <v>0.24722307941808885</v>
       </c>
     </row>
     <row r="26">
@@ -1427,31 +1427,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.20958622996061799</v>
+        <v>0.20990695366656878</v>
       </c>
       <c r="C26">
-        <v>0.20098821545302342</v>
+        <v>0.2006375120411221</v>
       </c>
       <c r="D26">
-        <v>0.58942555458635848</v>
+        <v>0.58945553429230912</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.69525763593789691</v>
+        <v>0.69635083822352084</v>
       </c>
       <c r="J26">
-        <v>0.30474236406210303</v>
+        <v>0.30364916177647916</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.75618145658157543</v>
+        <v>0.75584236295918694</v>
       </c>
       <c r="O26">
-        <v>0.24381854341842457</v>
+        <v>0.24415763704081303</v>
       </c>
     </row>
     <row r="27">
@@ -1459,31 +1459,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.21749668606440584</v>
+        <v>0.21738613792748565</v>
       </c>
       <c r="C27">
-        <v>0.20895915512527052</v>
+        <v>0.20977550452010293</v>
       </c>
       <c r="D27">
-        <v>0.57354415881032361</v>
+        <v>0.57283835755241141</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.68610451402077033</v>
+        <v>0.68487642672591931</v>
       </c>
       <c r="J27">
-        <v>0.31389548597922978</v>
+        <v>0.31512357327408069</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.78427540203067692</v>
+        <v>0.78379380351862549</v>
       </c>
       <c r="O27">
-        <v>0.21572459796932306</v>
+        <v>0.21620619648137454</v>
       </c>
     </row>
     <row r="28">
@@ -1491,31 +1491,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.20542136897426214</v>
+        <v>0.2068619719338014</v>
       </c>
       <c r="C28">
-        <v>0.20912263529271422</v>
+        <v>0.20783324869498404</v>
       </c>
       <c r="D28">
-        <v>0.58545599573302365</v>
+        <v>0.5853047793712145</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.7015193294503741</v>
+        <v>0.70051534247134639</v>
       </c>
       <c r="J28">
-        <v>0.29848067054962585</v>
+        <v>0.29948465752865366</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.77058340594783925</v>
+        <v>0.76901246611767615</v>
       </c>
       <c r="O28">
-        <v>0.2294165940521608</v>
+        <v>0.23098753388232388</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20781576851726913</v>
+        <v>0.20823761052398104</v>
       </c>
       <c r="C29">
-        <v>0.21062502587353643</v>
+        <v>0.20932050822912074</v>
       </c>
       <c r="D29">
-        <v>0.5815592056091945</v>
+        <v>0.58244188124689822</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.71941705184198923</v>
+        <v>0.71647043387626252</v>
       </c>
       <c r="J29">
-        <v>0.28058294815801071</v>
+        <v>0.28352956612373753</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79408117284394253</v>
+        <v>0.79185704982903615</v>
       </c>
       <c r="O29">
-        <v>0.20591882715605744</v>
+        <v>0.20814295017096376</v>
       </c>
     </row>
     <row r="30">
@@ -1555,31 +1555,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.22302692520928113</v>
+        <v>0.22298412267183443</v>
       </c>
       <c r="C30">
-        <v>0.20273286822570519</v>
+        <v>0.20227486642919251</v>
       </c>
       <c r="D30">
-        <v>0.57424020656501362</v>
+        <v>0.57474101089897311</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.69233192231018914</v>
+        <v>0.69232668260091401</v>
       </c>
       <c r="J30">
-        <v>0.30766807768981086</v>
+        <v>0.30767331739908593</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.7637575303215518</v>
+        <v>0.76426054467082627</v>
       </c>
       <c r="O30">
-        <v>0.23624246967844822</v>
+        <v>0.23573945532917376</v>
       </c>
     </row>
     <row r="31">
@@ -1587,31 +1587,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.22783032629839514</v>
+        <v>0.22730657844303589</v>
       </c>
       <c r="C31">
-        <v>0.1945014258759386</v>
+        <v>0.19521195653602649</v>
       </c>
       <c r="D31">
-        <v>0.57766824782566617</v>
+        <v>0.57748146502093756</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.7065642995720075</v>
+        <v>0.70654327510921899</v>
       </c>
       <c r="J31">
-        <v>0.29343570042799255</v>
+        <v>0.29345672489078095</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78480242063815564</v>
+        <v>0.78383964436254439</v>
       </c>
       <c r="O31">
-        <v>0.21519757936184444</v>
+        <v>0.21616035563745553</v>
       </c>
     </row>
     <row r="32">
@@ -1619,31 +1619,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.2184599114989634</v>
+        <v>0.21870511015915228</v>
       </c>
       <c r="C32">
-        <v>0.19466785224828587</v>
+        <v>0.19404875991307013</v>
       </c>
       <c r="D32">
-        <v>0.58687223625275087</v>
+        <v>0.58724612992777758</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.7235630137135054</v>
+        <v>0.72257949225826457</v>
       </c>
       <c r="J32">
-        <v>0.2764369862864946</v>
+        <v>0.27742050774173543</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.77846816810250008</v>
+        <v>0.7784275095883888</v>
       </c>
       <c r="O32">
-        <v>0.22153183189749998</v>
+        <v>0.22157249041161117</v>
       </c>
     </row>
     <row r="33">
@@ -1651,31 +1651,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.21722512914142514</v>
+        <v>0.21688260556333863</v>
       </c>
       <c r="C33">
-        <v>0.20409577449735131</v>
+        <v>0.20422680481039127</v>
       </c>
       <c r="D33">
-        <v>0.5786790963612235</v>
+        <v>0.57889058962627005</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.72070624059157518</v>
+        <v>0.72020632128669049</v>
       </c>
       <c r="J33">
-        <v>0.27929375940842471</v>
+        <v>0.27979367871330946</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.7826123898531675</v>
+        <v>0.78216211437706962</v>
       </c>
       <c r="O33">
-        <v>0.2173876101468325</v>
+        <v>0.21783788562293044</v>
       </c>
     </row>
     <row r="34">
@@ -1683,31 +1683,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.21185961809906373</v>
+        <v>0.21035093847138103</v>
       </c>
       <c r="C34">
-        <v>0.20452173312241209</v>
+        <v>0.20520594686257101</v>
       </c>
       <c r="D34">
-        <v>0.58361864877852432</v>
+        <v>0.58444311466604792</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.69460187368385862</v>
+        <v>0.6963224169280271</v>
       </c>
       <c r="J34">
-        <v>0.30539812631614149</v>
+        <v>0.30367758307197301</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78390377293449731</v>
+        <v>0.78222615688198716</v>
       </c>
       <c r="O34">
-        <v>0.21609622706550274</v>
+        <v>0.21777384311801282</v>
       </c>
     </row>
     <row r="35">
@@ -1715,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.22121634876589991</v>
+        <v>0.22159453238516377</v>
       </c>
       <c r="C35">
-        <v>0.19608810300679488</v>
+        <v>0.19663718426226667</v>
       </c>
       <c r="D35">
-        <v>0.58269554822730518</v>
+        <v>0.58176828335256958</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.70277593991161447</v>
+        <v>0.70644461848675077</v>
       </c>
       <c r="J35">
-        <v>0.29722406008838553</v>
+        <v>0.29355538151324934</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80329419394836832</v>
+        <v>0.80503986569651331</v>
       </c>
       <c r="O35">
-        <v>0.19670580605163171</v>
+        <v>0.19496013430348658</v>
       </c>
     </row>
     <row r="36">
@@ -1747,31 +1747,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.21619424869846651</v>
+        <v>0.21683946028105297</v>
       </c>
       <c r="C36">
-        <v>0.18671220767821081</v>
+        <v>0.18763071845940579</v>
       </c>
       <c r="D36">
-        <v>0.59709354362332256</v>
+        <v>0.59552982125954124</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.67158040840222932</v>
+        <v>0.67078962597816383</v>
       </c>
       <c r="J36">
-        <v>0.32841959159777062</v>
+        <v>0.32921037402183617</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.81308239345255129</v>
+        <v>0.81342995306958843</v>
       </c>
       <c r="O36">
-        <v>0.1869176065474486</v>
+        <v>0.18657004693041149</v>
       </c>
     </row>
     <row r="37">
@@ -1779,31 +1779,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.204481090485053</v>
+        <v>0.20345385927964144</v>
       </c>
       <c r="C37">
-        <v>0.18089434650603134</v>
+        <v>0.18033641765688838</v>
       </c>
       <c r="D37">
-        <v>0.61462456300891566</v>
+        <v>0.61620972306347011</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.70229981196531222</v>
+        <v>0.70697949971763019</v>
       </c>
       <c r="J37">
-        <v>0.29770018803468773</v>
+        <v>0.2930205002823697</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.79892174620123746</v>
+        <v>0.79885801640563214</v>
       </c>
       <c r="O37">
-        <v>0.20107825379876262</v>
+        <v>0.20114198359436788</v>
       </c>
     </row>
     <row r="38">
@@ -1811,31 +1811,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.19752960113351034</v>
+        <v>0.19913247270829759</v>
       </c>
       <c r="C38">
-        <v>0.18143247753109923</v>
+        <v>0.18141681833080553</v>
       </c>
       <c r="D38">
-        <v>0.62103792133539049</v>
+        <v>0.61945070896089682</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.67825833940484825</v>
+        <v>0.67962388749215163</v>
       </c>
       <c r="J38">
-        <v>0.32174166059515175</v>
+        <v>0.32037611250784837</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.8234801135786517</v>
+        <v>0.82423919439877358</v>
       </c>
       <c r="O38">
-        <v>0.17651988642134833</v>
+        <v>0.17576080560122639</v>
       </c>
     </row>
     <row r="39">
@@ -1843,31 +1843,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.18874773742573417</v>
+        <v>0.18792188537273743</v>
       </c>
       <c r="C39">
-        <v>0.17100829903115958</v>
+        <v>0.17214058903710233</v>
       </c>
       <c r="D39">
-        <v>0.64024396354310631</v>
+        <v>0.63993752559016026</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.67057982099334901</v>
+        <v>0.67125210499565879</v>
       </c>
       <c r="J39">
-        <v>0.32942017900665099</v>
+        <v>0.32874789500434126</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.82697025551656245</v>
+        <v>0.82744824455672106</v>
       </c>
       <c r="O39">
-        <v>0.17302974448343753</v>
+        <v>0.172551755443279</v>
       </c>
     </row>
     <row r="40">
@@ -1875,31 +1875,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.167239455406405</v>
+        <v>0.16698482961496916</v>
       </c>
       <c r="C40">
-        <v>0.17126610766683972</v>
+        <v>0.17084025357532548</v>
       </c>
       <c r="D40">
-        <v>0.66149443692675536</v>
+        <v>0.66217491680970531</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.66255010875886944</v>
+        <v>0.66472157306784396</v>
       </c>
       <c r="J40">
-        <v>0.3374498912411304</v>
+        <v>0.33527842693215598</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.84050996452436577</v>
+        <v>0.83927810631574418</v>
       </c>
       <c r="O40">
-        <v>0.15949003547563423</v>
+        <v>0.16072189368425582</v>
       </c>
     </row>
     <row r="41">
@@ -1907,31 +1907,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.16067919323311367</v>
+        <v>0.16028389802791387</v>
       </c>
       <c r="C41">
-        <v>0.16535089193966249</v>
+        <v>0.16633462618403497</v>
       </c>
       <c r="D41">
-        <v>0.6739699148272239</v>
+        <v>0.6733814757880513</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.67520585651387488</v>
+        <v>0.6762734401124747</v>
       </c>
       <c r="J41">
-        <v>0.32479414348612518</v>
+        <v>0.32372655988752536</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.83633646538954454</v>
+        <v>0.83673468650850491</v>
       </c>
       <c r="O41">
-        <v>0.16366353461045541</v>
+        <v>0.16326531349149512</v>
       </c>
     </row>
     <row r="42">
@@ -1939,31 +1939,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.14599630308438366</v>
+        <v>0.14720108179363645</v>
       </c>
       <c r="C42">
-        <v>0.16975787679935542</v>
+        <v>0.1686826257434689</v>
       </c>
       <c r="D42">
-        <v>0.68424582011626089</v>
+        <v>0.68411629246289452</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.63828553819225919</v>
+        <v>0.63574267947308083</v>
       </c>
       <c r="J42">
-        <v>0.36171446180774086</v>
+        <v>0.36425732052691923</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.85309966175934981</v>
+        <v>0.85189618807002376</v>
       </c>
       <c r="O42">
-        <v>0.14690033824065021</v>
+        <v>0.14810381192997632</v>
       </c>
     </row>
     <row r="43">
@@ -1971,31 +1971,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.13414802217422489</v>
+        <v>0.13402552234456935</v>
       </c>
       <c r="C43">
-        <v>0.16194223628246032</v>
+        <v>0.16144238592164908</v>
       </c>
       <c r="D43">
-        <v>0.70390974154331487</v>
+        <v>0.70453209173378162</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.60541361098615643</v>
+        <v>0.60618811032280762</v>
       </c>
       <c r="J43">
-        <v>0.39458638901384363</v>
+        <v>0.39381188967719238</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.84755592443995209</v>
+        <v>0.84709187101350003</v>
       </c>
       <c r="O43">
-        <v>0.15244407556004783</v>
+        <v>0.1529081289865</v>
       </c>
     </row>
     <row r="44">
@@ -2003,31 +2003,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.12387268102232685</v>
+        <v>0.12393504069805776</v>
       </c>
       <c r="C44">
-        <v>0.15624422876470076</v>
+        <v>0.15625073575126128</v>
       </c>
       <c r="D44">
-        <v>0.71988309021297248</v>
+        <v>0.71981422355068103</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.64750476766890319</v>
+        <v>0.64675310607294101</v>
       </c>
       <c r="J44">
-        <v>0.35249523233109681</v>
+        <v>0.35324689392705905</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.8491721556729972</v>
+        <v>0.84932297086328734</v>
       </c>
       <c r="O44">
-        <v>0.15082784432700277</v>
+        <v>0.1506770291367126</v>
       </c>
     </row>
     <row r="45">
@@ -2035,31 +2035,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.12367557104248951</v>
+        <v>0.12402136876276154</v>
       </c>
       <c r="C45">
-        <v>0.15693278363416846</v>
+        <v>0.15756671936085073</v>
       </c>
       <c r="D45">
-        <v>0.71939164532334199</v>
+        <v>0.71841191187638775</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.60650773658535651</v>
+        <v>0.60585421129481143</v>
       </c>
       <c r="J45">
-        <v>0.39349226341464361</v>
+        <v>0.39414578870518852</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.85280884213905372</v>
+        <v>0.85232673974342565</v>
       </c>
       <c r="O45">
-        <v>0.14719115786094628</v>
+        <v>0.14767326025657437</v>
       </c>
     </row>
     <row r="46">
@@ -2067,31 +2067,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.12210028363766455</v>
+        <v>0.12041300241203136</v>
       </c>
       <c r="C46">
-        <v>0.15480912063264615</v>
+        <v>0.15598541140994127</v>
       </c>
       <c r="D46">
-        <v>0.72309059572968937</v>
+        <v>0.72360158617802739</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.56588230052684074</v>
+        <v>0.56584081697392785</v>
       </c>
       <c r="J46">
-        <v>0.4341176994731592</v>
+        <v>0.43415918302607215</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.85223302037804927</v>
+        <v>0.85347988918798956</v>
       </c>
       <c r="O46">
-        <v>0.14776697962195079</v>
+        <v>0.14652011081201041</v>
       </c>
     </row>
     <row r="47">
@@ -2099,31 +2099,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.11161542297771726</v>
+        <v>0.11153174338766733</v>
       </c>
       <c r="C47">
-        <v>0.15108280460106724</v>
+        <v>0.15103723122383156</v>
       </c>
       <c r="D47">
-        <v>0.73730177242121542</v>
+        <v>0.73743102538850114</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.61886666080323061</v>
+        <v>0.61998543339813461</v>
       </c>
       <c r="J47">
-        <v>0.38113333919676934</v>
+        <v>0.38001456660186544</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.82770964485488552</v>
+        <v>0.8283962242305708</v>
       </c>
       <c r="O47">
-        <v>0.17229035514511445</v>
+        <v>0.17160377576942928</v>
       </c>
     </row>
     <row r="48">
@@ -2131,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.12808607169723041</v>
+        <v>0.12822750308169301</v>
       </c>
       <c r="C48">
-        <v>0.15632438067959234</v>
+        <v>0.15699919430205536</v>
       </c>
       <c r="D48">
-        <v>0.71558954762317717</v>
+        <v>0.7147733026162516</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.59797588322573991</v>
+        <v>0.59621872637045092</v>
       </c>
       <c r="J48">
-        <v>0.40202411677426003</v>
+        <v>0.40378127362954919</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.85056773242263162</v>
+        <v>0.84929290736948126</v>
       </c>
       <c r="O48">
-        <v>0.14943226757736827</v>
+        <v>0.15070709263051882</v>
       </c>
     </row>
     <row r="49">
@@ -2163,31 +2163,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.11144372556146588</v>
+        <v>0.11035138519683994</v>
       </c>
       <c r="C49">
-        <v>0.17005958290504211</v>
+        <v>0.1707695681060713</v>
       </c>
       <c r="D49">
-        <v>0.71849669153349205</v>
+        <v>0.7188790466970888</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.6149487846902254</v>
+        <v>0.61056264427865559</v>
       </c>
       <c r="J49">
-        <v>0.3850512153097746</v>
+        <v>0.38943735572134447</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.83669743089911108</v>
+        <v>0.83531072088627378</v>
       </c>
       <c r="O49">
-        <v>0.16330256910088897</v>
+        <v>0.16468927911372613</v>
       </c>
     </row>
     <row r="50">
@@ -2195,31 +2195,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.11669804447192564</v>
+        <v>0.11570337937265893</v>
       </c>
       <c r="C50">
-        <v>0.16967038810188045</v>
+        <v>0.16948787159721759</v>
       </c>
       <c r="D50">
-        <v>0.71363156742619405</v>
+        <v>0.71480874903012359</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.56335461476173221</v>
+        <v>0.56398211521052055</v>
       </c>
       <c r="J50">
-        <v>0.43664538523826785</v>
+        <v>0.43601788478947945</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.8223239993305751</v>
+        <v>0.82203929782596941</v>
       </c>
       <c r="O50">
-        <v>0.17767600066942499</v>
+        <v>0.17796070217403057</v>
       </c>
     </row>
     <row r="51">
@@ -2227,31 +2227,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.12694005462654526</v>
+        <v>0.12546087323300539</v>
       </c>
       <c r="C51">
-        <v>0.15967011290873945</v>
+        <v>0.16114970916525326</v>
       </c>
       <c r="D51">
-        <v>0.71338983246471532</v>
+        <v>0.71338941760174135</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.57184072511954243</v>
+        <v>0.57115359099219398</v>
       </c>
       <c r="J51">
-        <v>0.42815927488045763</v>
+        <v>0.42884640900780596</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.82251963869434142</v>
+        <v>0.82251942467772576</v>
       </c>
       <c r="O51">
-        <v>0.17748036130565864</v>
+        <v>0.17748057532227424</v>
       </c>
     </row>
     <row r="52">
@@ -2259,31 +2259,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.12022831407311153</v>
+        <v>0.11978021645308078</v>
       </c>
       <c r="C52">
-        <v>0.16202666877960209</v>
+        <v>0.16303149971664802</v>
       </c>
       <c r="D52">
-        <v>0.71774501714728645</v>
+        <v>0.71718828383027122</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.55914707239060402</v>
+        <v>0.55957818236416312</v>
       </c>
       <c r="J52">
-        <v>0.44085292760939587</v>
+        <v>0.44042181763583688</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.84748630767292432</v>
+        <v>0.84984688089924942</v>
       </c>
       <c r="O52">
-        <v>0.15251369232707557</v>
+        <v>0.15015311910075071</v>
       </c>
     </row>
     <row r="53">
@@ -2291,31 +2291,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.1138965198104028</v>
+        <v>0.11188150502186968</v>
       </c>
       <c r="C53">
-        <v>0.16775039712187598</v>
+        <v>0.16872634737686157</v>
       </c>
       <c r="D53">
-        <v>0.71835308306772128</v>
+        <v>0.71939214760126879</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.59688830620606415</v>
+        <v>0.59944409841114321</v>
       </c>
       <c r="J53">
-        <v>0.40311169379393585</v>
+        <v>0.40055590158885679</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.82216720057233872</v>
+        <v>0.82103804705080441</v>
       </c>
       <c r="O53">
-        <v>0.17783279942766128</v>
+        <v>0.17896195294919559</v>
       </c>
     </row>
     <row r="54">
@@ -2323,13 +2323,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.10833230676159662</v>
+        <v>0.10837917351154491</v>
       </c>
       <c r="C54">
-        <v>0.17857893880806716</v>
+        <v>0.17954977583425052</v>
       </c>
       <c r="D54">
-        <v>0.71308875443033626</v>
+        <v>0.71207105065420451</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -5305,19 +5305,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.79408908263225497</v>
+        <v>0.80910602788665242</v>
       </c>
       <c r="J3">
-        <v>0.205910917367745</v>
+        <v>0.19089397211334758</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.63409962205721981</v>
+        <v>0.64176890718423785</v>
       </c>
       <c r="O3">
-        <v>0.36590037794278019</v>
+        <v>0.35823109281576204</v>
       </c>
     </row>
     <row r="4">
@@ -5325,19 +5325,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.80509995442115068</v>
+        <v>0.8014342781865641</v>
       </c>
       <c r="J4">
-        <v>0.19490004557884946</v>
+        <v>0.19856572181343587</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.66359934606412896</v>
+        <v>0.66564215335255761</v>
       </c>
       <c r="O4">
-        <v>0.33640065393587099</v>
+        <v>0.33435784664744245</v>
       </c>
     </row>
     <row r="5">
@@ -5345,19 +5345,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.75810915587631389</v>
+        <v>0.77045033069200153</v>
       </c>
       <c r="J5">
-        <v>0.24189084412368617</v>
+        <v>0.22954966930799844</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.71074506847626018</v>
+        <v>0.72603213740214467</v>
       </c>
       <c r="O5">
-        <v>0.28925493152373988</v>
+        <v>0.27396786259785522</v>
       </c>
     </row>
     <row r="6">
@@ -5365,19 +5365,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.82210747320118638</v>
+        <v>0.81714186431945823</v>
       </c>
       <c r="J6">
-        <v>0.17789252679881359</v>
+        <v>0.18285813568054171</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.53964685670312951</v>
+        <v>0.5320224993555962</v>
       </c>
       <c r="O6">
-        <v>0.46035314329687049</v>
+        <v>0.4679775006444038</v>
       </c>
     </row>
     <row r="7">
@@ -5385,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.77623795643594506</v>
+        <v>0.79147838955219452</v>
       </c>
       <c r="J7">
-        <v>0.22376204356405496</v>
+        <v>0.20852161044780559</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.63202109324180811</v>
+        <v>0.65518653334205057</v>
       </c>
       <c r="O7">
-        <v>0.36797890675819184</v>
+        <v>0.34481346665794926</v>
       </c>
     </row>
     <row r="8">
@@ -5405,19 +5405,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.80896433149104996</v>
+        <v>0.80307933664053432</v>
       </c>
       <c r="J8">
-        <v>0.19103566850894999</v>
+        <v>0.19692066335946573</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.61081633873702657</v>
+        <v>0.61863103925431384</v>
       </c>
       <c r="O8">
-        <v>0.38918366126297338</v>
+        <v>0.38136896074568621</v>
       </c>
     </row>
     <row r="9">
@@ -5425,19 +5425,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.72537840559940236</v>
+        <v>0.73644091653852284</v>
       </c>
       <c r="J9">
-        <v>0.27462159440059758</v>
+        <v>0.26355908346147722</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.61881918093062427</v>
+        <v>0.61886954321156706</v>
       </c>
       <c r="O9">
-        <v>0.38118081906937579</v>
+        <v>0.38113045678843283</v>
       </c>
     </row>
     <row r="10">
@@ -5445,19 +5445,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.7754615783953156</v>
+        <v>0.77989957710444802</v>
       </c>
       <c r="J10">
-        <v>0.2245384216046844</v>
+        <v>0.22010042289555198</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.53315702224350781</v>
+        <v>0.55321900725248363</v>
       </c>
       <c r="O10">
-        <v>0.46684297775649225</v>
+        <v>0.44678099274751643</v>
       </c>
     </row>
     <row r="11">
@@ -5465,19 +5465,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.69870401381037084</v>
+        <v>0.69680618572302466</v>
       </c>
       <c r="J11">
-        <v>0.30129598618962905</v>
+        <v>0.30319381427697534</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.66883249435375147</v>
+        <v>0.66744878266211161</v>
       </c>
       <c r="O11">
-        <v>0.33116750564624858</v>
+        <v>0.33255121733788839</v>
       </c>
     </row>
     <row r="12">
@@ -5485,19 +5485,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.77119629436323422</v>
+        <v>0.77590155722785625</v>
       </c>
       <c r="J12">
-        <v>0.22880370563676578</v>
+        <v>0.2240984427721438</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.69375813942691689</v>
+        <v>0.69184320688820999</v>
       </c>
       <c r="O12">
-        <v>0.30624186057308317</v>
+        <v>0.3081567931117899</v>
       </c>
     </row>
     <row r="13">
@@ -5505,19 +5505,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.74806622751162388</v>
+        <v>0.74999799395277822</v>
       </c>
       <c r="J13">
-        <v>0.25193377248837601</v>
+        <v>0.25000200604722173</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.68849329792661507</v>
+        <v>0.69439306933170153</v>
       </c>
       <c r="O13">
-        <v>0.31150670207338488</v>
+        <v>0.30560693066829847</v>
       </c>
     </row>
     <row r="14">
@@ -5525,19 +5525,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.77569945041904509</v>
+        <v>0.77838049782951424</v>
       </c>
       <c r="J14">
-        <v>0.22430054958095488</v>
+        <v>0.22161950217048582</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.65951072208941919</v>
+        <v>0.65701683641195496</v>
       </c>
       <c r="O14">
-        <v>0.34048927791058087</v>
+        <v>0.34298316358804504</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.79636277158757873</v>
+        <v>0.79688182861083612</v>
       </c>
       <c r="J15">
-        <v>0.20363722841242124</v>
+        <v>0.20311817138916399</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.64532949411881269</v>
+        <v>0.64608396618025643</v>
       </c>
       <c r="O15">
-        <v>0.35467050588118737</v>
+        <v>0.35391603381974368</v>
       </c>
     </row>
     <row r="16">
@@ -5565,19 +5565,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.79151615894872263</v>
+        <v>0.79119487799280674</v>
       </c>
       <c r="J16">
-        <v>0.20848384105127735</v>
+        <v>0.20880512200719328</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.62637416750194552</v>
+        <v>0.62989973342641792</v>
       </c>
       <c r="O16">
-        <v>0.37362583249805448</v>
+        <v>0.37010026657358203</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.7956698039401634</v>
+        <v>0.79910822440933094</v>
       </c>
       <c r="J17">
-        <v>0.20433019605983657</v>
+        <v>0.20089177559066901</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.67275483960059657</v>
+        <v>0.67520180743091007</v>
       </c>
       <c r="O17">
-        <v>0.32724516039940349</v>
+        <v>0.32479819256908993</v>
       </c>
     </row>
     <row r="18">
@@ -5605,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.78156285845107953</v>
+        <v>0.78298127159447206</v>
       </c>
       <c r="J18">
-        <v>0.21843714154892055</v>
+        <v>0.21701872840552799</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.72616111880789602</v>
+        <v>0.72199241391623892</v>
       </c>
       <c r="O18">
-        <v>0.27383888119210398</v>
+        <v>0.27800758608376108</v>
       </c>
     </row>
     <row r="19">
@@ -5625,19 +5625,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.78480715479669261</v>
+        <v>0.7840180026768796</v>
       </c>
       <c r="J19">
-        <v>0.21519284520330748</v>
+        <v>0.21598199732312032</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.70860231109632021</v>
+        <v>0.71019268402636326</v>
       </c>
       <c r="O19">
-        <v>0.29139768890367979</v>
+        <v>0.28980731597363674</v>
       </c>
     </row>
     <row r="20">
@@ -5645,19 +5645,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.78314922064547443</v>
+        <v>0.78144303772969503</v>
       </c>
       <c r="J20">
-        <v>0.21685077935452549</v>
+        <v>0.21855696227030508</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.65148849769686878</v>
+        <v>0.66109357144839476</v>
       </c>
       <c r="O20">
-        <v>0.34851150230313122</v>
+        <v>0.33890642855160519</v>
       </c>
     </row>
     <row r="21">
@@ -5665,19 +5665,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.78498995256220749</v>
+        <v>0.78695814340200543</v>
       </c>
       <c r="J21">
-        <v>0.21501004743779248</v>
+        <v>0.21304185659799463</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.71556355633725555</v>
+        <v>0.7230616205015562</v>
       </c>
       <c r="O21">
-        <v>0.28443644366274445</v>
+        <v>0.27693837949844385</v>
       </c>
     </row>
     <row r="22">
@@ -5685,19 +5685,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.75085056594727628</v>
+        <v>0.7481400254184738</v>
       </c>
       <c r="J22">
-        <v>0.24914943405272374</v>
+        <v>0.25185997458152609</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.69408287372733057</v>
+        <v>0.69563250778756958</v>
       </c>
       <c r="O22">
-        <v>0.30591712627266954</v>
+        <v>0.30436749221243048</v>
       </c>
     </row>
     <row r="23">
@@ -5705,19 +5705,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.7627872923165131</v>
+        <v>0.76739225409885314</v>
       </c>
       <c r="J23">
-        <v>0.2372127076834869</v>
+        <v>0.23260774590114686</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.64882121173570184</v>
+        <v>0.64325898463282971</v>
       </c>
       <c r="O23">
-        <v>0.35117878826429827</v>
+        <v>0.35674101536717023</v>
       </c>
     </row>
     <row r="24">
@@ -5725,19 +5725,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.78914557553505471</v>
+        <v>0.78541121954872595</v>
       </c>
       <c r="J24">
-        <v>0.21085442446494529</v>
+        <v>0.21458878045127414</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.72272135710267082</v>
+        <v>0.71908869201954417</v>
       </c>
       <c r="O24">
-        <v>0.27727864289732923</v>
+        <v>0.28091130798045583</v>
       </c>
     </row>
     <row r="25">
@@ -5745,19 +5745,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.7465576535150209</v>
+        <v>0.74602709855024529</v>
       </c>
       <c r="J25">
-        <v>0.25344234648497904</v>
+        <v>0.25397290144975471</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.6668751273650404</v>
+        <v>0.67245310455399299</v>
       </c>
       <c r="O25">
-        <v>0.3331248726349596</v>
+        <v>0.32754689544600707</v>
       </c>
     </row>
     <row r="26">
@@ -5765,19 +5765,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.78616743979865467</v>
+        <v>0.78455850103976854</v>
       </c>
       <c r="J26">
-        <v>0.21383256020134539</v>
+        <v>0.21544149896023151</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.65621123661671388</v>
+        <v>0.65859268373654123</v>
       </c>
       <c r="O26">
-        <v>0.34378876338328601</v>
+        <v>0.34140731626345877</v>
       </c>
     </row>
     <row r="27">
@@ -5785,19 +5785,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.77541169128777687</v>
+        <v>0.77283900432409014</v>
       </c>
       <c r="J27">
-        <v>0.22458830871222307</v>
+        <v>0.22716099567590986</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.72156349805980513</v>
+        <v>0.72237249663610581</v>
       </c>
       <c r="O27">
-        <v>0.27843650194019487</v>
+        <v>0.27762750336389413</v>
       </c>
     </row>
     <row r="28">
@@ -5805,19 +5805,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.77700996602904582</v>
+        <v>0.77337567348800984</v>
       </c>
       <c r="J28">
-        <v>0.22299003397095427</v>
+        <v>0.22662432651199016</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.68364601557427096</v>
+        <v>0.68115827942463969</v>
       </c>
       <c r="O28">
-        <v>0.31635398442572904</v>
+        <v>0.31884172057536025</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.80570716023722821</v>
+        <v>0.80387718090902938</v>
       </c>
       <c r="J29">
-        <v>0.19429283976277176</v>
+        <v>0.19612281909097062</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.69320517098964374</v>
+        <v>0.69241702855234688</v>
       </c>
       <c r="O29">
-        <v>0.30679482901035626</v>
+        <v>0.30758297144765312</v>
       </c>
     </row>
     <row r="30">
@@ -5845,19 +5845,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.76372991274823365</v>
+        <v>0.76423221727382207</v>
       </c>
       <c r="J30">
-        <v>0.23627008725176629</v>
+        <v>0.23576778272617788</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70207286130061952</v>
+        <v>0.70244610941277774</v>
       </c>
       <c r="O30">
-        <v>0.29792713869938042</v>
+        <v>0.29755389058722226</v>
       </c>
     </row>
     <row r="31">
@@ -5865,19 +5865,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.81896870412438494</v>
+        <v>0.81725890426200487</v>
       </c>
       <c r="J31">
-        <v>0.18103129587561501</v>
+        <v>0.18274109573799516</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.68453801358782784</v>
+        <v>0.67988844123512748</v>
       </c>
       <c r="O31">
-        <v>0.31546198641217216</v>
+        <v>0.32011155876487235</v>
       </c>
     </row>
     <row r="32">
@@ -5885,19 +5885,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.7963918301235583</v>
+        <v>0.79349792414907594</v>
       </c>
       <c r="J32">
-        <v>0.20360816987644159</v>
+        <v>0.20650207585092409</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.7213841850581787</v>
+        <v>0.72134883755894819</v>
       </c>
       <c r="O32">
-        <v>0.2786158149418213</v>
+        <v>0.27865116244105181</v>
       </c>
     </row>
     <row r="33">
@@ -5905,19 +5905,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.77841936315685212</v>
+        <v>0.77997851426958442</v>
       </c>
       <c r="J33">
-        <v>0.22158063684314791</v>
+        <v>0.22002148573041558</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.70181612412729411</v>
+        <v>0.70170510787327633</v>
       </c>
       <c r="O33">
-        <v>0.29818387587270589</v>
+        <v>0.29829489212672361</v>
       </c>
     </row>
     <row r="34">
@@ -5925,19 +5925,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.77366879446037529</v>
+        <v>0.7787755875649286</v>
       </c>
       <c r="J34">
-        <v>0.22633120553962469</v>
+        <v>0.2212244124350714</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71603582715736502</v>
+        <v>0.71107696078379468</v>
       </c>
       <c r="O34">
-        <v>0.28396417284263498</v>
+        <v>0.28892303921620538</v>
       </c>
     </row>
     <row r="35">
@@ -5945,19 +5945,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.76163800253629155</v>
+        <v>0.76443348942621958</v>
       </c>
       <c r="J35">
-        <v>0.23836199746370851</v>
+        <v>0.23556651057378042</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.72429703087707165</v>
+        <v>0.72072993941076602</v>
       </c>
       <c r="O35">
-        <v>0.27570296912292841</v>
+        <v>0.27927006058923387</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.71466448452462583</v>
+        <v>0.71465013927078913</v>
       </c>
       <c r="J36">
-        <v>0.28533551547537422</v>
+        <v>0.28534986072921092</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.73875226872025046</v>
+        <v>0.73957053887756985</v>
       </c>
       <c r="O36">
-        <v>0.26124773127974954</v>
+        <v>0.26042946112243015</v>
       </c>
     </row>
     <row r="37">
@@ -5985,19 +5985,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.78934399189572679</v>
+        <v>0.79341890356732836</v>
       </c>
       <c r="J37">
-        <v>0.21065600810427318</v>
+        <v>0.20658109643267161</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.73707250122440937</v>
+        <v>0.73702860224708722</v>
       </c>
       <c r="O37">
-        <v>0.26292749877559057</v>
+        <v>0.26297139775291278</v>
       </c>
     </row>
     <row r="38">
@@ -6005,19 +6005,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.74232890326383927</v>
+        <v>0.74271281043188375</v>
       </c>
       <c r="J38">
-        <v>0.25767109673616068</v>
+        <v>0.25728718956811619</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76941147838466684</v>
+        <v>0.77072231701903904</v>
       </c>
       <c r="O38">
-        <v>0.23058852161533325</v>
+        <v>0.22927768298096096</v>
       </c>
     </row>
     <row r="39">
@@ -6025,19 +6025,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.72840657654334751</v>
+        <v>0.72525761042169967</v>
       </c>
       <c r="J39">
-        <v>0.27159342345665249</v>
+        <v>0.27474238957830033</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.80068255900342278</v>
+        <v>0.79925238788111075</v>
       </c>
       <c r="O39">
-        <v>0.19931744099657722</v>
+        <v>0.20074761211888925</v>
       </c>
     </row>
     <row r="40">
@@ -6045,19 +6045,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.71897511978676432</v>
+        <v>0.72268213000450909</v>
       </c>
       <c r="J40">
-        <v>0.28102488021323568</v>
+        <v>0.27731786999549091</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.78337788692673338</v>
+        <v>0.77811780130784625</v>
       </c>
       <c r="O40">
-        <v>0.21662211307326654</v>
+        <v>0.22188219869215389</v>
       </c>
     </row>
     <row r="41">
@@ -6065,19 +6065,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.74146254085579577</v>
+        <v>0.74393339312743256</v>
       </c>
       <c r="J41">
-        <v>0.25853745914420428</v>
+        <v>0.25606660687256744</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.76852578211466471</v>
+        <v>0.77421619415505072</v>
       </c>
       <c r="O41">
-        <v>0.23147421788533523</v>
+        <v>0.22578380584494914</v>
       </c>
     </row>
     <row r="42">
@@ -6085,19 +6085,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.68502923023439144</v>
+        <v>0.67870088721667854</v>
       </c>
       <c r="J42">
-        <v>0.31497076976560845</v>
+        <v>0.32129911278332141</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.81944337837150105</v>
+        <v>0.81703602480135251</v>
       </c>
       <c r="O42">
-        <v>0.18055662162849898</v>
+        <v>0.18296397519864754</v>
       </c>
     </row>
     <row r="43">
@@ -6105,19 +6105,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.67553396473612903</v>
+        <v>0.6748204240033765</v>
       </c>
       <c r="J43">
-        <v>0.32446603526387097</v>
+        <v>0.32517957599662345</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.80127616616312269</v>
+        <v>0.80048809146523248</v>
       </c>
       <c r="O43">
-        <v>0.19872383383687728</v>
+        <v>0.19951190853476758</v>
       </c>
     </row>
     <row r="44">
@@ -6125,19 +6125,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.70940805046129085</v>
+        <v>0.70539736898738803</v>
       </c>
       <c r="J44">
-        <v>0.29059194953870915</v>
+        <v>0.29460263101261192</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.79492764707915964</v>
+        <v>0.79510898008167341</v>
       </c>
       <c r="O44">
-        <v>0.20507235292084036</v>
+        <v>0.20489101991832653</v>
       </c>
     </row>
     <row r="45">
@@ -6145,19 +6145,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.67076116649682449</v>
+        <v>0.66913884267047563</v>
       </c>
       <c r="J45">
-        <v>0.32923883350317557</v>
+        <v>0.33086115732952431</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.81648741088662025</v>
+        <v>0.81513870096863417</v>
       </c>
       <c r="O45">
-        <v>0.18351258911337986</v>
+        <v>0.18486129903136586</v>
       </c>
     </row>
     <row r="46">
@@ -6165,19 +6165,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.63856198367006611</v>
+        <v>0.63839309974641356</v>
       </c>
       <c r="J46">
-        <v>0.36143801632993394</v>
+        <v>0.36160690025358644</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.82332378688739105</v>
+        <v>0.82786327447466557</v>
       </c>
       <c r="O46">
-        <v>0.17667621311260898</v>
+        <v>0.17213672552533443</v>
       </c>
     </row>
     <row r="47">
@@ -6185,19 +6185,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.67753641026004818</v>
+        <v>0.67824931811966627</v>
       </c>
       <c r="J47">
-        <v>0.32246358973995182</v>
+        <v>0.32175068188033384</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.77599769437147226</v>
+        <v>0.7781611542808079</v>
       </c>
       <c r="O47">
-        <v>0.22400230562852774</v>
+        <v>0.22183884571919207</v>
       </c>
     </row>
     <row r="48">
@@ -6205,19 +6205,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.66289075791450192</v>
+        <v>0.66297065016655843</v>
       </c>
       <c r="J48">
-        <v>0.33710924208549803</v>
+        <v>0.33702934983344157</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.81458102666232712</v>
+        <v>0.81490761436507586</v>
       </c>
       <c r="O48">
-        <v>0.18541897333767288</v>
+        <v>0.18509238563492419</v>
       </c>
     </row>
     <row r="49">
@@ -6225,19 +6225,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.63932412323199717</v>
+        <v>0.63480631909059548</v>
       </c>
       <c r="J49">
-        <v>0.36067587676800283</v>
+        <v>0.36519368090940446</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.78144086883123931</v>
+        <v>0.78052048426270182</v>
       </c>
       <c r="O49">
-        <v>0.21855913116876066</v>
+        <v>0.21947951573729815</v>
       </c>
     </row>
     <row r="50">
@@ -6245,19 +6245,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.59754743769705343</v>
+        <v>0.59835233189448256</v>
       </c>
       <c r="J50">
-        <v>0.40245256230294668</v>
+        <v>0.4016476681055175</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.77266353336120608</v>
+        <v>0.77243615347648442</v>
       </c>
       <c r="O50">
-        <v>0.22733646663879398</v>
+        <v>0.22756384652351563</v>
       </c>
     </row>
     <row r="51">
@@ -6265,19 +6265,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.60079636929981883</v>
+        <v>0.60153320107419972</v>
       </c>
       <c r="J51">
-        <v>0.39920363070018117</v>
+        <v>0.39846679892580028</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.79127662333225057</v>
+        <v>0.79052273340886281</v>
       </c>
       <c r="O51">
-        <v>0.20872337666774951</v>
+        <v>0.20947726659113733</v>
       </c>
     </row>
     <row r="52">
@@ -6285,19 +6285,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.6018125911258676</v>
+        <v>0.60303719499292718</v>
       </c>
       <c r="J52">
-        <v>0.3981874088741324</v>
+        <v>0.39696280500707282</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.81245503794571938</v>
+        <v>0.8164310414358259</v>
       </c>
       <c r="O52">
-        <v>0.18754496205428056</v>
+        <v>0.18356895856417407</v>
       </c>
     </row>
     <row r="53">
@@ -6305,19 +6305,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.61816817734833507</v>
+        <v>0.62134093234829813</v>
       </c>
       <c r="J53">
-        <v>0.38183182265166493</v>
+        <v>0.37865906765170187</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.77933766165484908</v>
+        <v>0.7788062502919556</v>
       </c>
       <c r="O53">
-        <v>0.22066233834515095</v>
+        <v>0.22119374970804428</v>
       </c>
     </row>
     <row r="54">
@@ -7007,19 +7007,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.70701663899053702</v>
+        <v>0.70841741812493442</v>
       </c>
       <c r="J3">
-        <v>0.29298336100946298</v>
+        <v>0.29158258187506553</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.75970940621971017</v>
+        <v>0.75348573081128911</v>
       </c>
       <c r="O3">
-        <v>0.24029059378028986</v>
+        <v>0.24651426918871083</v>
       </c>
     </row>
     <row r="4">
@@ -7027,19 +7027,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.69759891089232628</v>
+        <v>0.69169803828510223</v>
       </c>
       <c r="J4">
-        <v>0.30240108910767372</v>
+        <v>0.30830196171489777</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.71546649323755485</v>
+        <v>0.71130969135939948</v>
       </c>
       <c r="O4">
-        <v>0.2845335067624451</v>
+        <v>0.28869030864060047</v>
       </c>
     </row>
     <row r="5">
@@ -7047,19 +7047,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.64768938438675039</v>
+        <v>0.64975929881707251</v>
       </c>
       <c r="J5">
-        <v>0.35231061561324956</v>
+        <v>0.35024070118292738</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.72824710849232133</v>
+        <v>0.72997634180695958</v>
       </c>
       <c r="O5">
-        <v>0.27175289150767873</v>
+        <v>0.27002365819304031</v>
       </c>
     </row>
     <row r="6">
@@ -7067,19 +7067,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.66128030378339564</v>
+        <v>0.66513455455903669</v>
       </c>
       <c r="J6">
-        <v>0.3387196962166043</v>
+        <v>0.33486544544096336</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.73595973128453951</v>
+        <v>0.73367210108657521</v>
       </c>
       <c r="O6">
-        <v>0.26404026871546049</v>
+        <v>0.26632789891342484</v>
       </c>
     </row>
     <row r="7">
@@ -7087,19 +7087,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.67684160917294134</v>
+        <v>0.67271477787995271</v>
       </c>
       <c r="J7">
-        <v>0.32315839082705861</v>
+        <v>0.32728522212004735</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.74745273179006133</v>
+        <v>0.74887788112736131</v>
       </c>
       <c r="O7">
-        <v>0.25254726820993867</v>
+        <v>0.25112211887263863</v>
       </c>
     </row>
     <row r="8">
@@ -7107,19 +7107,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.68674837244559628</v>
+        <v>0.68807595429548396</v>
       </c>
       <c r="J8">
-        <v>0.31325162755440378</v>
+        <v>0.31192404570451593</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.75994674553209074</v>
+        <v>0.76184471561877443</v>
       </c>
       <c r="O8">
-        <v>0.24005325446790929</v>
+        <v>0.23815528438122552</v>
       </c>
     </row>
     <row r="9">
@@ -7127,19 +7127,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.65770818425531141</v>
+        <v>0.65784305330538562</v>
       </c>
       <c r="J9">
-        <v>0.34229181574468853</v>
+        <v>0.34215694669461449</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.73445788559379854</v>
+        <v>0.73329756780676847</v>
       </c>
       <c r="O9">
-        <v>0.26554211440620135</v>
+        <v>0.26670243219323142</v>
       </c>
     </row>
     <row r="10">
@@ -7147,19 +7147,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.70540209292638112</v>
+        <v>0.70513182388284401</v>
       </c>
       <c r="J10">
-        <v>0.29459790707361899</v>
+        <v>0.29486817611715588</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.74529124572616667</v>
+        <v>0.74961729278918554</v>
       </c>
       <c r="O10">
-        <v>0.25470875427383338</v>
+        <v>0.25038270721081451</v>
       </c>
     </row>
     <row r="11">
@@ -7167,19 +7167,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.66413519006519062</v>
+        <v>0.66447312216689081</v>
       </c>
       <c r="J11">
-        <v>0.33586480993480927</v>
+        <v>0.3355268778331093</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.7646797322636697</v>
+        <v>0.7591674298071257</v>
       </c>
       <c r="O11">
-        <v>0.23532026773633039</v>
+        <v>0.2408325701928743</v>
       </c>
     </row>
     <row r="12">
@@ -7187,19 +7187,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.68756602747858553</v>
+        <v>0.68791243069901764</v>
       </c>
       <c r="J12">
-        <v>0.31243397252141447</v>
+        <v>0.31208756930098241</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.73302012357938962</v>
+        <v>0.73517738952392619</v>
       </c>
       <c r="O12">
-        <v>0.26697987642061044</v>
+        <v>0.26482261047607381</v>
       </c>
     </row>
     <row r="13">
@@ -7207,19 +7207,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.68222357655238342</v>
+        <v>0.68375614473647095</v>
       </c>
       <c r="J13">
-        <v>0.31777642344761664</v>
+        <v>0.31624385526352905</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.752873825936754</v>
+        <v>0.75523039397050118</v>
       </c>
       <c r="O13">
-        <v>0.24712617406324602</v>
+        <v>0.24476960602949885</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.70509659497795374</v>
+        <v>0.7047286087142639</v>
       </c>
       <c r="J14">
-        <v>0.29490340502204621</v>
+        <v>0.29527139128573615</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.75436484988317454</v>
+        <v>0.75465053128568893</v>
       </c>
       <c r="O14">
-        <v>0.24563515011682546</v>
+        <v>0.24534946871431107</v>
       </c>
     </row>
     <row r="15">
@@ -7247,19 +7247,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.68569922705564312</v>
+        <v>0.68567175604554509</v>
       </c>
       <c r="J15">
-        <v>0.31430077294435688</v>
+        <v>0.31432824395445486</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.76831340552769911</v>
+        <v>0.76546144870515664</v>
       </c>
       <c r="O15">
-        <v>0.23168659447230094</v>
+        <v>0.23453855129484338</v>
       </c>
     </row>
     <row r="16">
@@ -7267,19 +7267,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.66242604648386316</v>
+        <v>0.66220137795475631</v>
       </c>
       <c r="J16">
-        <v>0.33757395351613695</v>
+        <v>0.33779862204524364</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.78550508859380463</v>
+        <v>0.77881688949715044</v>
       </c>
       <c r="O16">
-        <v>0.21449491140619534</v>
+        <v>0.22118311050284953</v>
       </c>
     </row>
     <row r="17">
@@ -7287,19 +7287,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.68028082331332351</v>
+        <v>0.68249093967502927</v>
       </c>
       <c r="J17">
-        <v>0.3197191766866766</v>
+        <v>0.31750906032497078</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.7828157306498934</v>
+        <v>0.78150895392985964</v>
       </c>
       <c r="O17">
-        <v>0.2171842693501066</v>
+        <v>0.21849104607014036</v>
       </c>
     </row>
     <row r="18">
@@ -7307,19 +7307,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.67993821776574181</v>
+        <v>0.68174639956950589</v>
       </c>
       <c r="J18">
-        <v>0.32006178223425824</v>
+        <v>0.31825360043049394</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.77621481358239475</v>
+        <v>0.77738424754579039</v>
       </c>
       <c r="O18">
-        <v>0.2237851864176052</v>
+        <v>0.22261575245420964</v>
       </c>
     </row>
     <row r="19">
@@ -7327,19 +7327,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.67009439650350477</v>
+        <v>0.67237993083314296</v>
       </c>
       <c r="J19">
-        <v>0.32990560349649523</v>
+        <v>0.32762006916685715</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.79060743876017192</v>
+        <v>0.78782096454362716</v>
       </c>
       <c r="O19">
-        <v>0.20939256123982805</v>
+        <v>0.21217903545637282</v>
       </c>
     </row>
     <row r="20">
@@ -7347,19 +7347,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.63524624402367624</v>
+        <v>0.63913788004503835</v>
       </c>
       <c r="J20">
-        <v>0.36475375597632387</v>
+        <v>0.36086211995496159</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.81216349093825668</v>
+        <v>0.80597174686583817</v>
       </c>
       <c r="O20">
-        <v>0.18783650906174332</v>
+        <v>0.19402825313416178</v>
       </c>
     </row>
     <row r="21">
@@ -7367,19 +7367,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.62854196828402431</v>
+        <v>0.62773998515756757</v>
       </c>
       <c r="J21">
-        <v>0.37145803171597569</v>
+        <v>0.37226001484243243</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.80289097521933195</v>
+        <v>0.80259080354262791</v>
       </c>
       <c r="O21">
-        <v>0.19710902478066797</v>
+        <v>0.19740919645737209</v>
       </c>
     </row>
     <row r="22">
@@ -7387,19 +7387,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.66053977311507983</v>
+        <v>0.66246779104313935</v>
       </c>
       <c r="J22">
-        <v>0.33946022688492006</v>
+        <v>0.33753220895686076</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80014092644135126</v>
+        <v>0.80225501330565629</v>
       </c>
       <c r="O22">
-        <v>0.19985907355864885</v>
+        <v>0.19774498669434373</v>
       </c>
     </row>
     <row r="23">
@@ -7407,19 +7407,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.65843483547806148</v>
+        <v>0.65033887933233847</v>
       </c>
       <c r="J23">
-        <v>0.34156516452193841</v>
+        <v>0.34966112066766164</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.80291462758797383</v>
+        <v>0.80222119999792507</v>
       </c>
       <c r="O23">
-        <v>0.19708537241202617</v>
+        <v>0.1977788000020749</v>
       </c>
     </row>
     <row r="24">
@@ -7427,19 +7427,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.65024236525851853</v>
+        <v>0.64974640217269553</v>
       </c>
       <c r="J24">
-        <v>0.34975763474148142</v>
+        <v>0.35025359782730447</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.79421203276376307</v>
+        <v>0.78906515985284909</v>
       </c>
       <c r="O24">
-        <v>0.20578796723623685</v>
+        <v>0.21093484014715091</v>
       </c>
     </row>
     <row r="25">
@@ -7447,19 +7447,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.57119159294513322</v>
+        <v>0.57332270215184844</v>
       </c>
       <c r="J25">
-        <v>0.42880840705486678</v>
+        <v>0.4266772978481515</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.79121811920605978</v>
+        <v>0.78737335709101186</v>
       </c>
       <c r="O25">
-        <v>0.20878188079394025</v>
+        <v>0.21262664290898811</v>
       </c>
     </row>
     <row r="26">
@@ -7467,19 +7467,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.62855011968038388</v>
+        <v>0.63099574624069499</v>
       </c>
       <c r="J26">
-        <v>0.37144988031961623</v>
+        <v>0.36900425375930496</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80260049872681849</v>
+        <v>0.80035982323436472</v>
       </c>
       <c r="O26">
-        <v>0.19739950127318159</v>
+        <v>0.19964017676563528</v>
       </c>
     </row>
     <row r="27">
@@ -7487,19 +7487,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.61133306014023503</v>
+        <v>0.6105825503318898</v>
       </c>
       <c r="J27">
-        <v>0.38866693985976497</v>
+        <v>0.38941744966811015</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.81277266599627973</v>
+        <v>0.81096661980166196</v>
       </c>
       <c r="O27">
-        <v>0.1872273340037203</v>
+        <v>0.18903338019833812</v>
       </c>
     </row>
     <row r="28">
@@ -7507,19 +7507,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.64368728493046257</v>
+        <v>0.64463690610289293</v>
       </c>
       <c r="J28">
-        <v>0.35631271506953738</v>
+        <v>0.35536309389710713</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.81811955407391623</v>
+        <v>0.81602017133338833</v>
       </c>
       <c r="O28">
-        <v>0.18188044592608382</v>
+        <v>0.18397982866661172</v>
       </c>
     </row>
     <row r="29">
@@ -7527,19 +7527,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.64507372472402591</v>
+        <v>0.64146099675092039</v>
       </c>
       <c r="J29">
-        <v>0.35492627527597403</v>
+        <v>0.35853900324907961</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.84559386108094259</v>
+        <v>0.8412432804171297</v>
       </c>
       <c r="O29">
-        <v>0.1544061389190575</v>
+        <v>0.15875671958287038</v>
       </c>
     </row>
     <row r="30">
@@ -7547,19 +7547,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.61788464659027931</v>
+        <v>0.61724625739767247</v>
       </c>
       <c r="J30">
-        <v>0.38211535340972064</v>
+        <v>0.38275374260232747</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79809834901504584</v>
+        <v>0.79793994584367933</v>
       </c>
       <c r="O30">
-        <v>0.20190165098495422</v>
+        <v>0.20206005415632072</v>
       </c>
     </row>
     <row r="31">
@@ -7567,19 +7567,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.59953062025808657</v>
+        <v>0.60122303084224737</v>
       </c>
       <c r="J31">
-        <v>0.40046937974191343</v>
+        <v>0.39877696915775268</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.84657194804501756</v>
+        <v>0.8459464093452832</v>
       </c>
       <c r="O31">
-        <v>0.15342805195498252</v>
+        <v>0.15405359065471674</v>
       </c>
     </row>
     <row r="32">
@@ -7587,19 +7587,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.64364269838468779</v>
+        <v>0.64480613599295344</v>
       </c>
       <c r="J32">
-        <v>0.35635730161531209</v>
+        <v>0.35519386400704656</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.81253330549006864</v>
+        <v>0.8112285790124717</v>
       </c>
       <c r="O32">
-        <v>0.18746669450993134</v>
+        <v>0.18877142098752836</v>
       </c>
     </row>
     <row r="33">
@@ -7607,19 +7607,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65440923704179754</v>
+        <v>0.65268929955551847</v>
       </c>
       <c r="J33">
-        <v>0.34559076295820246</v>
+        <v>0.34731070044448159</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.83212576570642738</v>
+        <v>0.83156209350207144</v>
       </c>
       <c r="O33">
-        <v>0.16787423429357268</v>
+        <v>0.16843790649792861</v>
       </c>
     </row>
     <row r="34">
@@ -7627,19 +7627,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.59144202047854766</v>
+        <v>0.58842123842731142</v>
       </c>
       <c r="J34">
-        <v>0.40855797952145229</v>
+        <v>0.41157876157268863</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.82296303336385823</v>
+        <v>0.82275395656076589</v>
       </c>
       <c r="O34">
-        <v>0.17703696663614177</v>
+        <v>0.17724604343923422</v>
       </c>
     </row>
     <row r="35">
@@ -7647,19 +7647,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.62274793026999553</v>
+        <v>0.62691632233644834</v>
       </c>
       <c r="J35">
-        <v>0.37725206973000447</v>
+        <v>0.37308367766355172</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.86158030631937521</v>
+        <v>0.86694404509573286</v>
       </c>
       <c r="O35">
-        <v>0.13841969368062471</v>
+        <v>0.13305595490426714</v>
       </c>
     </row>
     <row r="36">
@@ -7667,19 +7667,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.60426724485413275</v>
+        <v>0.60234562024815697</v>
       </c>
       <c r="J36">
-        <v>0.39573275514586725</v>
+        <v>0.39765437975184303</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.86943639132741601</v>
+        <v>0.86780079874713834</v>
       </c>
       <c r="O36">
-        <v>0.13056360867258393</v>
+        <v>0.13219920125286169</v>
       </c>
     </row>
     <row r="37">
@@ -7687,19 +7687,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.56805258196312158</v>
+        <v>0.57316475409886447</v>
       </c>
       <c r="J37">
-        <v>0.43194741803687836</v>
+        <v>0.42683524590113564</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.84621428064075399</v>
+        <v>0.84604945508616081</v>
       </c>
       <c r="O37">
-        <v>0.15378571935924604</v>
+        <v>0.1539505449138393</v>
       </c>
     </row>
     <row r="38">
@@ -7707,19 +7707,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.56371064424556894</v>
+        <v>0.56769913855737686</v>
       </c>
       <c r="J38">
-        <v>0.43628935575443112</v>
+        <v>0.43230086144262309</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.86746539266946887</v>
+        <v>0.86716418635640458</v>
       </c>
       <c r="O38">
-        <v>0.13253460733053118</v>
+        <v>0.13283581364359542</v>
       </c>
     </row>
     <row r="39">
@@ -7727,19 +7727,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.57645205291395196</v>
+        <v>0.58270154508946026</v>
       </c>
       <c r="J39">
-        <v>0.42354794708604798</v>
+        <v>0.41729845491053968</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.85027365700772017</v>
+        <v>0.85207018051901851</v>
       </c>
       <c r="O39">
-        <v>0.14972634299227985</v>
+        <v>0.14792981948098152</v>
       </c>
     </row>
     <row r="40">
@@ -7747,19 +7747,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.54667680332209834</v>
+        <v>0.54530023635183122</v>
       </c>
       <c r="J40">
-        <v>0.45332319667790166</v>
+        <v>0.45469976364816878</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.89499966448642954</v>
+        <v>0.89692208478809365</v>
       </c>
       <c r="O40">
-        <v>0.10500033551357046</v>
+        <v>0.10307791521190646</v>
       </c>
     </row>
     <row r="41">
@@ -7767,19 +7767,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.54540617298393057</v>
+        <v>0.54220921140587763</v>
       </c>
       <c r="J41">
-        <v>0.45459382701606932</v>
+        <v>0.45779078859412237</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.89994713085520828</v>
+        <v>0.89435599072257055</v>
       </c>
       <c r="O41">
-        <v>0.10005286914479168</v>
+        <v>0.1056440092774294</v>
       </c>
     </row>
     <row r="42">
@@ -7787,19 +7787,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.53385328489663908</v>
+        <v>0.53912525650651921</v>
       </c>
       <c r="J42">
-        <v>0.46614671510336103</v>
+        <v>0.46087474349348084</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.88611075658170524</v>
+        <v>0.88535345032266044</v>
       </c>
       <c r="O42">
-        <v>0.11388924341829482</v>
+        <v>0.11464654967733963</v>
       </c>
     </row>
     <row r="43">
@@ -7807,19 +7807,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.47338766557408379</v>
+        <v>0.47786247869031812</v>
       </c>
       <c r="J43">
-        <v>0.52661233442591615</v>
+        <v>0.52213752130968194</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.89800368705392164</v>
+        <v>0.89739011309342975</v>
       </c>
       <c r="O43">
-        <v>0.10199631294607835</v>
+        <v>0.10260988690657015</v>
       </c>
     </row>
     <row r="44">
@@ -7827,19 +7827,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.51394904590277168</v>
+        <v>0.51837550643983443</v>
       </c>
       <c r="J44">
-        <v>0.48605095409722832</v>
+        <v>0.48162449356016562</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.90466673382734397</v>
+        <v>0.90465433579411614</v>
       </c>
       <c r="O44">
-        <v>0.095333266172656153</v>
+        <v>0.095345664205883876</v>
       </c>
     </row>
     <row r="45">
@@ -7847,19 +7847,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.45383848966180135</v>
+        <v>0.45515020271232021</v>
       </c>
       <c r="J45">
-        <v>0.54616151033819871</v>
+        <v>0.54484979728767979</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.89278206488670175</v>
+        <v>0.89261044652717836</v>
       </c>
       <c r="O45">
-        <v>0.1072179351132982</v>
+        <v>0.10738955347282157</v>
       </c>
     </row>
     <row r="46">
@@ -7867,19 +7867,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.40566066710656234</v>
+        <v>0.40412891241738608</v>
       </c>
       <c r="J46">
-        <v>0.59433933289343766</v>
+        <v>0.59587108758261398</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.88429976421915302</v>
+        <v>0.88080228606231448</v>
       </c>
       <c r="O46">
-        <v>0.115700235780847</v>
+        <v>0.11919771393768552</v>
       </c>
     </row>
     <row r="47">
@@ -7887,19 +7887,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.48829191827245172</v>
+        <v>0.49072180438220875</v>
       </c>
       <c r="J47">
-        <v>0.51170808172754823</v>
+        <v>0.50927819561779109</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.88617679776695679</v>
+        <v>0.88439341495622359</v>
       </c>
       <c r="O47">
-        <v>0.11382320223304328</v>
+        <v>0.11560658504377634</v>
       </c>
     </row>
     <row r="48">
@@ -7907,19 +7907,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.43529487221401297</v>
+        <v>0.42901776268981251</v>
       </c>
       <c r="J48">
-        <v>0.56470512778598703</v>
+        <v>0.57098223731018749</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.8947734817327303</v>
+        <v>0.89070132740805763</v>
       </c>
       <c r="O48">
-        <v>0.1052265182672697</v>
+        <v>0.10929867259194227</v>
       </c>
     </row>
     <row r="49">
@@ -7927,19 +7927,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.55091992649850097</v>
+        <v>0.54763689622867895</v>
       </c>
       <c r="J49">
-        <v>0.44908007350149909</v>
+        <v>0.45236310377132105</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.90387382208778499</v>
+        <v>0.901935301647381</v>
       </c>
       <c r="O49">
-        <v>0.096126177912215047</v>
+        <v>0.098064698352619106</v>
       </c>
     </row>
     <row r="50">
@@ -7956,10 +7956,10 @@
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.89083312608365417</v>
+        <v>0.88966131453716379</v>
       </c>
       <c r="O50">
-        <v>0.10916687391634584</v>
+        <v>0.11033868546283618</v>
       </c>
     </row>
     <row r="51">
@@ -7967,19 +7967,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.48519826011596423</v>
+        <v>0.48118766248556305</v>
       </c>
       <c r="J51">
-        <v>0.51480173988403577</v>
+        <v>0.51881233751443701</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.86860273096107721</v>
+        <v>0.86886464814251507</v>
       </c>
       <c r="O51">
-        <v>0.13139726903892282</v>
+        <v>0.13113535185748493</v>
       </c>
     </row>
     <row r="52">
@@ -7987,19 +7987,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.44391382360472531</v>
+        <v>0.4400154039928304</v>
       </c>
       <c r="J52">
-        <v>0.5560861763952748</v>
+        <v>0.55998459600716965</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.90629558364249274</v>
+        <v>0.90524784932979641</v>
       </c>
       <c r="O52">
-        <v>0.093704416357507245</v>
+        <v>0.094752150670203622</v>
       </c>
     </row>
     <row r="53">
@@ -8007,19 +8007,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.52102491342963198</v>
+        <v>0.52102491342963209</v>
       </c>
       <c r="J53">
-        <v>0.47897508657036802</v>
+        <v>0.47897508657036808</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.89927393460595639</v>
+        <v>0.89733960756933739</v>
       </c>
       <c r="O53">
-        <v>0.10072606539404366</v>
+        <v>0.10266039243066265</v>
       </c>
     </row>
     <row r="54">
@@ -8539,31 +8539,31 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.063472748750201147</v>
+        <v>0.066580752529894163</v>
       </c>
       <c r="C3">
-        <v>0.15551024025639998</v>
+        <v>0.15404904078585174</v>
       </c>
       <c r="D3">
-        <v>0.78101701099339893</v>
+        <v>0.77937020668425405</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.50785596842728997</v>
+        <v>0.50981314431706004</v>
       </c>
       <c r="J3">
-        <v>0.49214403157271003</v>
+        <v>0.49018685568294001</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.8593585439829875</v>
+        <v>0.86188806006428231</v>
       </c>
       <c r="O3">
-        <v>0.14064145601701245</v>
+        <v>0.13811193993571769</v>
       </c>
     </row>
     <row r="4">
@@ -8571,31 +8571,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.062198667727277626</v>
+        <v>0.062453341391784607</v>
       </c>
       <c r="C4">
-        <v>0.15810727755963017</v>
+        <v>0.1552327590094873</v>
       </c>
       <c r="D4">
-        <v>0.77969405471309217</v>
+        <v>0.78231389959872799</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.51950344911230362</v>
+        <v>0.51319102595498034</v>
       </c>
       <c r="J4">
-        <v>0.48049655088769638</v>
+        <v>0.48680897404501966</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.84855956381646758</v>
+        <v>0.8515642449292713</v>
       </c>
       <c r="O4">
-        <v>0.15144043618353234</v>
+        <v>0.14843575507072862</v>
       </c>
     </row>
     <row r="5">
@@ -8603,31 +8603,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.074287654454140095</v>
+        <v>0.074036204732774169</v>
       </c>
       <c r="C5">
-        <v>0.15577372425237226</v>
+        <v>0.15549871869264251</v>
       </c>
       <c r="D5">
-        <v>0.76993862129348767</v>
+        <v>0.7704650765745833</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.51168829883440659</v>
+        <v>0.51194315072978858</v>
       </c>
       <c r="J5">
-        <v>0.48831170116559347</v>
+        <v>0.48805684927021137</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.8552758500740103</v>
+        <v>0.86219745417237847</v>
       </c>
       <c r="O5">
-        <v>0.14472414992598975</v>
+        <v>0.13780254582762153</v>
       </c>
     </row>
     <row r="6">
@@ -8635,31 +8635,31 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.073285086756194925</v>
+        <v>0.073195882734253301</v>
       </c>
       <c r="C6">
-        <v>0.16089622075266161</v>
+        <v>0.15713262718562024</v>
       </c>
       <c r="D6">
-        <v>0.76581869249114354</v>
+        <v>0.76967149008012647</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.53748366632774691</v>
+        <v>0.53883460347943546</v>
       </c>
       <c r="J6">
-        <v>0.46251633367225309</v>
+        <v>0.46116539652056465</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.86393357404391569</v>
+        <v>0.86465467058450118</v>
       </c>
       <c r="O6">
-        <v>0.13606642595608429</v>
+        <v>0.13534532941549884</v>
       </c>
     </row>
     <row r="7">
@@ -8667,31 +8667,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.081231437097806808</v>
+        <v>0.080960540648270962</v>
       </c>
       <c r="C7">
-        <v>0.15125512328009169</v>
+        <v>0.14842254966071969</v>
       </c>
       <c r="D7">
-        <v>0.7675134396221015</v>
+        <v>0.77061690969100938</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.55637268362187609</v>
+        <v>0.55964550678199354</v>
       </c>
       <c r="J7">
-        <v>0.44362731637812391</v>
+        <v>0.4403544932180064</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.8542808249225009</v>
+        <v>0.85425589417065328</v>
       </c>
       <c r="O7">
-        <v>0.1457191750774991</v>
+        <v>0.14574410582934677</v>
       </c>
     </row>
     <row r="8">
@@ -8699,31 +8699,31 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.078311702488077853</v>
+        <v>0.078712297866765243</v>
       </c>
       <c r="C8">
-        <v>0.1569589153507408</v>
+        <v>0.15465209899344076</v>
       </c>
       <c r="D8">
-        <v>0.76472938216118136</v>
+        <v>0.76663560313979395</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.57037916890906559</v>
+        <v>0.56898139480214915</v>
       </c>
       <c r="J8">
-        <v>0.42962083109093446</v>
+        <v>0.43101860519785079</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83684691353773166</v>
+        <v>0.83733858212227241</v>
       </c>
       <c r="O8">
-        <v>0.16315308646226839</v>
+        <v>0.16266141787772767</v>
       </c>
     </row>
     <row r="9">
@@ -8731,31 +8731,31 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.071925277022564918</v>
+        <v>0.071934973444499548</v>
       </c>
       <c r="C9">
-        <v>0.18387284101291945</v>
+        <v>0.18229927364900228</v>
       </c>
       <c r="D9">
-        <v>0.74420188196451553</v>
+        <v>0.74576575290649816</v>
       </c>
       <c r="H9">
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.49056331966917088</v>
+        <v>0.49187615811815877</v>
       </c>
       <c r="J9">
-        <v>0.50943668033082912</v>
+        <v>0.50812384188184123</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.86478187211444968</v>
+        <v>0.86663398785091217</v>
       </c>
       <c r="O9">
-        <v>0.13521812788555035</v>
+        <v>0.13336601214908778</v>
       </c>
     </row>
     <row r="10">
@@ -8763,31 +8763,31 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.079804025716897473</v>
+        <v>0.079569821453037676</v>
       </c>
       <c r="C10">
-        <v>0.15547384367197109</v>
+        <v>0.15302823508856656</v>
       </c>
       <c r="D10">
-        <v>0.76472213061113159</v>
+        <v>0.76740194345839563</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.57332606778604611</v>
+        <v>0.57847376994384758</v>
       </c>
       <c r="J10">
-        <v>0.42667393221395389</v>
+        <v>0.42152623005615247</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.85213541042576679</v>
+        <v>0.85511081534623201</v>
       </c>
       <c r="O10">
-        <v>0.14786458957423324</v>
+        <v>0.14488918465376788</v>
       </c>
     </row>
     <row r="11">
@@ -8795,31 +8795,31 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.084486448846813222</v>
+        <v>0.084906506061756537</v>
       </c>
       <c r="C11">
-        <v>0.16377534119225132</v>
+        <v>0.15942793549190692</v>
       </c>
       <c r="D11">
-        <v>0.75173820996093543</v>
+        <v>0.75566555844633654</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.57130030882014993</v>
+        <v>0.57087883640296022</v>
       </c>
       <c r="J11">
-        <v>0.42869969117984991</v>
+        <v>0.42912116359703989</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.86091088033015328</v>
+        <v>0.8640686661312067</v>
       </c>
       <c r="O11">
-        <v>0.13908911966984669</v>
+        <v>0.1359313338687933</v>
       </c>
     </row>
     <row r="12">
@@ -8827,31 +8827,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.082158643761609002</v>
+        <v>0.080408455582963945</v>
       </c>
       <c r="C12">
-        <v>0.16707229798813961</v>
+        <v>0.16574177806759227</v>
       </c>
       <c r="D12">
-        <v>0.75076905825025142</v>
+        <v>0.75384976634944389</v>
       </c>
       <c r="H12">
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.56776852619767026</v>
+        <v>0.57434337125434742</v>
       </c>
       <c r="J12">
-        <v>0.43223147380232968</v>
+        <v>0.42565662874565252</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.85599465568456423</v>
+        <v>0.85623239898252312</v>
       </c>
       <c r="O12">
-        <v>0.14400534431543588</v>
+        <v>0.14376760101747696</v>
       </c>
     </row>
     <row r="13">
@@ -8859,31 +8859,31 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.093107234613200071</v>
+        <v>0.092867364658676094</v>
       </c>
       <c r="C13">
-        <v>0.16357648464443525</v>
+        <v>0.16291468912559459</v>
       </c>
       <c r="D13">
-        <v>0.74331628074236467</v>
+        <v>0.74421794621572923</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.61753345925126346</v>
+        <v>0.6168683037211603</v>
       </c>
       <c r="J13">
-        <v>0.38246654074873648</v>
+        <v>0.38313169627883964</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.82250976574933599</v>
+        <v>0.82755174804973808</v>
       </c>
       <c r="O13">
-        <v>0.17749023425066407</v>
+        <v>0.17244825195026192</v>
       </c>
     </row>
     <row r="14">
@@ -8891,31 +8891,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.10162045677891662</v>
+        <v>0.10109196088243606</v>
       </c>
       <c r="C14">
-        <v>0.17958324064078807</v>
+        <v>0.17759703227151866</v>
       </c>
       <c r="D14">
-        <v>0.71879630258029525</v>
+        <v>0.72131100684604543</v>
       </c>
       <c r="H14">
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.59113567044429638</v>
+        <v>0.58922627268429928</v>
       </c>
       <c r="J14">
-        <v>0.40886432955570357</v>
+        <v>0.41077372731570078</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84250158127707009</v>
+        <v>0.84112763985746486</v>
       </c>
       <c r="O14">
-        <v>0.15749841872292997</v>
+        <v>0.1588723601425352</v>
       </c>
     </row>
     <row r="15">
@@ -8923,31 +8923,31 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.1125298359446819</v>
+        <v>0.11255559501320375</v>
       </c>
       <c r="C15">
-        <v>0.16696985718007989</v>
+        <v>0.16637670865819859</v>
       </c>
       <c r="D15">
-        <v>0.72050030687523814</v>
+        <v>0.72106769632859757</v>
       </c>
       <c r="H15">
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.58720783337665294</v>
+        <v>0.58933018134665227</v>
       </c>
       <c r="J15">
-        <v>0.412792166623347</v>
+        <v>0.41066981865334773</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.82766877399122885</v>
+        <v>0.83283869464568638</v>
       </c>
       <c r="O15">
-        <v>0.17233122600877104</v>
+        <v>0.16716130535431373</v>
       </c>
     </row>
     <row r="16">
@@ -8955,31 +8955,31 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.11429071483428979</v>
+        <v>0.11340084545588516</v>
       </c>
       <c r="C16">
-        <v>0.17933812374696878</v>
+        <v>0.17605320584989934</v>
       </c>
       <c r="D16">
-        <v>0.70637116141874134</v>
+        <v>0.71054594869421539</v>
       </c>
       <c r="H16">
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.59393597508725382</v>
+        <v>0.58846414633882382</v>
       </c>
       <c r="J16">
-        <v>0.40606402491274618</v>
+        <v>0.41153585366117607</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.85152298370197832</v>
+        <v>0.8532563302378936</v>
       </c>
       <c r="O16">
-        <v>0.14847701629802176</v>
+        <v>0.14674366976210634</v>
       </c>
     </row>
     <row r="17">
@@ -8987,31 +8987,31 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.11299789138723088</v>
+        <v>0.11266403338809093</v>
       </c>
       <c r="C17">
-        <v>0.17202350212038239</v>
+        <v>0.16685164202425934</v>
       </c>
       <c r="D17">
-        <v>0.71497860649238665</v>
+        <v>0.72048432458764966</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.60318904843070742</v>
+        <v>0.60796195816085929</v>
       </c>
       <c r="J17">
-        <v>0.39681095156929252</v>
+        <v>0.39203804183914071</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.83403121825840476</v>
+        <v>0.834074058270448</v>
       </c>
       <c r="O17">
-        <v>0.16596878174159527</v>
+        <v>0.16592594172955186</v>
       </c>
     </row>
     <row r="18">
@@ -9019,31 +9019,31 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.11662710488471414</v>
+        <v>0.11613031629276922</v>
       </c>
       <c r="C18">
-        <v>0.17566934464984665</v>
+        <v>0.17356033257842693</v>
       </c>
       <c r="D18">
-        <v>0.70770355046543931</v>
+        <v>0.71030935112880389</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.67080937222128256</v>
+        <v>0.67037040337736675</v>
       </c>
       <c r="J18">
-        <v>0.32919062777871749</v>
+        <v>0.32962959662263325</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.82562323512052649</v>
+        <v>0.82988123586386919</v>
       </c>
       <c r="O18">
-        <v>0.17437676487947351</v>
+        <v>0.17011876413613083</v>
       </c>
     </row>
     <row r="19">
@@ -9051,31 +9051,31 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.13558141638123239</v>
+        <v>0.1360477272710105</v>
       </c>
       <c r="C19">
-        <v>0.17651028831679882</v>
+        <v>0.17340169104923173</v>
       </c>
       <c r="D19">
-        <v>0.68790829530196873</v>
+        <v>0.69055058167975769</v>
       </c>
       <c r="H19">
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.64698034317141218</v>
+        <v>0.64329586099975489</v>
       </c>
       <c r="J19">
-        <v>0.35301965682858782</v>
+        <v>0.35670413900024517</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.84456393334401791</v>
+        <v>0.84694926444426488</v>
       </c>
       <c r="O19">
-        <v>0.15543606665598214</v>
+        <v>0.15305073555573517</v>
       </c>
     </row>
     <row r="20">
@@ -9083,31 +9083,31 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.12391111935953783</v>
+        <v>0.12401344600014517</v>
       </c>
       <c r="C20">
-        <v>0.17809249921141695</v>
+        <v>0.17442014688260452</v>
       </c>
       <c r="D20">
-        <v>0.69799638142904519</v>
+        <v>0.70156640711725038</v>
       </c>
       <c r="H20">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.64577677950359835</v>
+        <v>0.65050796167949365</v>
       </c>
       <c r="J20">
-        <v>0.3542232204964017</v>
+        <v>0.34949203832050629</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.83178007685625122</v>
+        <v>0.83439972174316956</v>
       </c>
       <c r="O20">
-        <v>0.16821992314374878</v>
+        <v>0.16560027825683049</v>
       </c>
     </row>
     <row r="21">
@@ -9115,31 +9115,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.13530732438081397</v>
+        <v>0.1361619364431072</v>
       </c>
       <c r="C21">
-        <v>0.18516591324247497</v>
+        <v>0.18365632072801166</v>
       </c>
       <c r="D21">
-        <v>0.67952676237671095</v>
+        <v>0.68018174282888111</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.6604906844116929</v>
+        <v>0.66326906265921681</v>
       </c>
       <c r="J21">
-        <v>0.33950931558830705</v>
+        <v>0.33673093734078319</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.8202933513428452</v>
+        <v>0.82370874034017305</v>
       </c>
       <c r="O21">
-        <v>0.1797066486571548</v>
+        <v>0.176291259659827</v>
       </c>
     </row>
     <row r="22">
@@ -9147,31 +9147,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.14975036720730547</v>
+        <v>0.1497093391196162</v>
       </c>
       <c r="C22">
-        <v>0.18693982662500119</v>
+        <v>0.18561079670149377</v>
       </c>
       <c r="D22">
-        <v>0.66330980616769331</v>
+        <v>0.66467986417889002</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.67821084922573227</v>
+        <v>0.67340984865715825</v>
       </c>
       <c r="J22">
-        <v>0.32178915077426778</v>
+        <v>0.32659015134284175</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.83621979919120115</v>
+        <v>0.83917021334002107</v>
       </c>
       <c r="O22">
-        <v>0.16378020080879882</v>
+        <v>0.16082978665997896</v>
       </c>
     </row>
     <row r="23">
@@ -9179,31 +9179,31 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.15170779040146823</v>
+        <v>0.15045601102046505</v>
       </c>
       <c r="C23">
-        <v>0.19017221014713107</v>
+        <v>0.18497729469499838</v>
       </c>
       <c r="D23">
-        <v>0.65811999945140076</v>
+        <v>0.66456669428453652</v>
       </c>
       <c r="H23">
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.64532701486341681</v>
+        <v>0.64826877297967345</v>
       </c>
       <c r="J23">
-        <v>0.35467298513658324</v>
+        <v>0.35173122702032655</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.82185503751375977</v>
+        <v>0.82167241062796159</v>
       </c>
       <c r="O23">
-        <v>0.17814496248624026</v>
+        <v>0.17832758937203838</v>
       </c>
     </row>
     <row r="24">
@@ -9211,31 +9211,31 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.15315208555736073</v>
+        <v>0.15330725542288237</v>
       </c>
       <c r="C24">
-        <v>0.18860963252896351</v>
+        <v>0.18671418352491265</v>
       </c>
       <c r="D24">
-        <v>0.65823828191367573</v>
+        <v>0.65997856105220498</v>
       </c>
       <c r="H24">
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.6761748711405916</v>
+        <v>0.67382068983015686</v>
       </c>
       <c r="J24">
-        <v>0.32382512885940845</v>
+        <v>0.32617931016984314</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.81667403441764586</v>
+        <v>0.81919263868748282</v>
       </c>
       <c r="O24">
-        <v>0.18332596558235409</v>
+        <v>0.18080736131251715</v>
       </c>
     </row>
     <row r="25">
@@ -9243,31 +9243,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.1637675452185991</v>
+        <v>0.16403334465973327</v>
       </c>
       <c r="C25">
-        <v>0.18577914518139191</v>
+        <v>0.1818566348795389</v>
       </c>
       <c r="D25">
-        <v>0.65045330960000902</v>
+        <v>0.65411002046072786</v>
       </c>
       <c r="H25">
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.7082851910826955</v>
+        <v>0.71205398684745824</v>
       </c>
       <c r="J25">
-        <v>0.29171480891730456</v>
+        <v>0.28794601315254181</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.80821262407086192</v>
+        <v>0.81328917490589525</v>
       </c>
       <c r="O25">
-        <v>0.19178737592913811</v>
+        <v>0.18671082509410467</v>
       </c>
     </row>
     <row r="26">
@@ -9275,31 +9275,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.17278894251761015</v>
+        <v>0.17229905496988548</v>
       </c>
       <c r="C26">
-        <v>0.19700876287542329</v>
+        <v>0.19572530390373</v>
       </c>
       <c r="D26">
-        <v>0.63020229460696653</v>
+        <v>0.63197564112638449</v>
       </c>
       <c r="H26">
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.6947086178886519</v>
+        <v>0.68926951058327279</v>
       </c>
       <c r="J26">
-        <v>0.30529138211134804</v>
+        <v>0.31073048941672721</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.80323964633238432</v>
+        <v>0.80653464524910157</v>
       </c>
       <c r="O26">
-        <v>0.19676035366761555</v>
+        <v>0.19346535475089843</v>
       </c>
     </row>
     <row r="27">
@@ -9307,31 +9307,31 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>0.18039889865039632</v>
+        <v>0.18141197926795774</v>
       </c>
       <c r="C27">
-        <v>0.2040452530662705</v>
+        <v>0.20091419902759444</v>
       </c>
       <c r="D27">
-        <v>0.61555584828333321</v>
+        <v>0.61767382170444785</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.69627702660600277</v>
+        <v>0.69377225055355973</v>
       </c>
       <c r="J27">
-        <v>0.30372297339399723</v>
+        <v>0.30622774944644032</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.79752910879825323</v>
+        <v>0.79871182831432042</v>
       </c>
       <c r="O27">
-        <v>0.20247089120174677</v>
+        <v>0.20128817168567956</v>
       </c>
     </row>
     <row r="28">
@@ -9339,31 +9339,31 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>0.17944071972648898</v>
+        <v>0.17837581554992782</v>
       </c>
       <c r="C28">
-        <v>0.21294359775679578</v>
+        <v>0.21087920323375994</v>
       </c>
       <c r="D28">
-        <v>0.60761568251671527</v>
+        <v>0.61074498121631215</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.71613095275610139</v>
+        <v>0.71748018080208664</v>
       </c>
       <c r="J28">
-        <v>0.28386904724389866</v>
+        <v>0.28251981919791347</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.78867817065842161</v>
+        <v>0.79202984773956797</v>
       </c>
       <c r="O28">
-        <v>0.21132182934157845</v>
+        <v>0.20797015226043208</v>
       </c>
     </row>
     <row r="29">
@@ -9371,31 +9371,31 @@
         <v>51</v>
       </c>
       <c r="B29">
-        <v>0.20076774926034555</v>
+        <v>0.19983677988656656</v>
       </c>
       <c r="C29">
-        <v>0.20187236304594167</v>
+        <v>0.20099490428592318</v>
       </c>
       <c r="D29">
-        <v>0.59735988769371273</v>
+        <v>0.59916831582751018</v>
       </c>
       <c r="H29">
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.73362975869488456</v>
+        <v>0.73247932220657075</v>
       </c>
       <c r="J29">
-        <v>0.2663702413051155</v>
+        <v>0.26752067779342936</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.79024590595795441</v>
+        <v>0.78940207662485651</v>
       </c>
       <c r="O29">
-        <v>0.20975409404204554</v>
+        <v>0.21059792337514344</v>
       </c>
     </row>
     <row r="30">
@@ -9403,31 +9403,31 @@
         <v>52</v>
       </c>
       <c r="B30">
-        <v>0.20706492801441145</v>
+        <v>0.20725470689483838</v>
       </c>
       <c r="C30">
-        <v>0.21531912139917331</v>
+        <v>0.21343576478833806</v>
       </c>
       <c r="D30">
-        <v>0.57761595058641524</v>
+        <v>0.57930952831682359</v>
       </c>
       <c r="H30">
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.7478682928605479</v>
+        <v>0.7465256650306803</v>
       </c>
       <c r="J30">
-        <v>0.25213170713945193</v>
+        <v>0.2534743349693197</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.79313638996989444</v>
+        <v>0.79569174116505059</v>
       </c>
       <c r="O30">
-        <v>0.20686361003010564</v>
+        <v>0.20430825883494955</v>
       </c>
     </row>
     <row r="31">
@@ -9435,31 +9435,31 @@
         <v>53</v>
       </c>
       <c r="B31">
-        <v>0.2267119447691105</v>
+        <v>0.22738820268797694</v>
       </c>
       <c r="C31">
-        <v>0.2109029913012212</v>
+        <v>0.20673520017056435</v>
       </c>
       <c r="D31">
-        <v>0.56238506392966825</v>
+        <v>0.56587659714145877</v>
       </c>
       <c r="H31">
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.76023070569670126</v>
+        <v>0.7623522121626054</v>
       </c>
       <c r="J31">
-        <v>0.2397692943032988</v>
+        <v>0.23764778783739449</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.8008680012977778</v>
+        <v>0.80512700468487786</v>
       </c>
       <c r="O31">
-        <v>0.19913199870222228</v>
+        <v>0.19487299531512212</v>
       </c>
     </row>
     <row r="32">
@@ -9467,31 +9467,31 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>0.22265184523561249</v>
+        <v>0.22236977479655606</v>
       </c>
       <c r="C32">
-        <v>0.21371073380401359</v>
+        <v>0.20991258211893773</v>
       </c>
       <c r="D32">
-        <v>0.56363742096037406</v>
+        <v>0.56771764308450623</v>
       </c>
       <c r="H32">
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.77880938917833265</v>
+        <v>0.78293262458719748</v>
       </c>
       <c r="J32">
-        <v>0.22119061082166738</v>
+        <v>0.21706737541280252</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.80993908032482342</v>
+        <v>0.81037764499886966</v>
       </c>
       <c r="O32">
-        <v>0.19006091967517647</v>
+        <v>0.18962235500113031</v>
       </c>
     </row>
     <row r="33">
@@ -9499,31 +9499,31 @@
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.24819945778660485</v>
+        <v>0.24729971061800063</v>
       </c>
       <c r="C33">
-        <v>0.20895777541909788</v>
+        <v>0.20933829475243071</v>
       </c>
       <c r="D33">
-        <v>0.54284276679429722</v>
+        <v>0.54336199462956869</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.76100809220527543</v>
+        <v>0.75882655991752801</v>
       </c>
       <c r="J33">
-        <v>0.23899190779472465</v>
+        <v>0.24117344008247193</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.78161435131356016</v>
+        <v>0.78385318396107229</v>
       </c>
       <c r="O33">
-        <v>0.21838564868643978</v>
+        <v>0.21614681603892766</v>
       </c>
     </row>
     <row r="34">
@@ -9531,31 +9531,31 @@
         <v>56</v>
       </c>
       <c r="B34">
-        <v>0.23758381087015562</v>
+        <v>0.23849896350458077</v>
       </c>
       <c r="C34">
-        <v>0.21535998220084637</v>
+        <v>0.21258024624762628</v>
       </c>
       <c r="D34">
-        <v>0.54705620692899815</v>
+        <v>0.54892079024779306</v>
       </c>
       <c r="H34">
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.78828133756517649</v>
+        <v>0.78954985114828713</v>
       </c>
       <c r="J34">
-        <v>0.21171866243482351</v>
+        <v>0.2104501488517129</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.76258847487033832</v>
+        <v>0.76532315563445008</v>
       </c>
       <c r="O34">
-        <v>0.23741152512966171</v>
+        <v>0.23467684436554997</v>
       </c>
     </row>
     <row r="35">
@@ -9563,31 +9563,31 @@
         <v>57</v>
       </c>
       <c r="B35">
-        <v>0.28118887364354089</v>
+        <v>0.28323283063138821</v>
       </c>
       <c r="C35">
-        <v>0.20741838592297288</v>
+        <v>0.20561738660536763</v>
       </c>
       <c r="D35">
-        <v>0.51139274043348626</v>
+        <v>0.5111497827632443</v>
       </c>
       <c r="H35">
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.7964726804669483</v>
+        <v>0.79388138722182744</v>
       </c>
       <c r="J35">
-        <v>0.20352731953305161</v>
+        <v>0.20611861277817264</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.76936149671287757</v>
+        <v>0.77575823212060657</v>
       </c>
       <c r="O35">
-        <v>0.23063850328712246</v>
+        <v>0.2242417678793934</v>
       </c>
     </row>
     <row r="36">
@@ -9595,31 +9595,31 @@
         <v>58</v>
       </c>
       <c r="B36">
-        <v>0.27921810416901655</v>
+        <v>0.27913277363626232</v>
       </c>
       <c r="C36">
-        <v>0.23075464157544601</v>
+        <v>0.22688891319686413</v>
       </c>
       <c r="D36">
-        <v>0.49002725425553745</v>
+        <v>0.49397831316687363</v>
       </c>
       <c r="H36">
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.7649389440278237</v>
+        <v>0.76615584503663459</v>
       </c>
       <c r="J36">
-        <v>0.23506105597217633</v>
+        <v>0.23384415496336536</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.76882697071051309</v>
+        <v>0.76590028763204543</v>
       </c>
       <c r="O36">
-        <v>0.23117302928948688</v>
+        <v>0.23409971236795463</v>
       </c>
     </row>
     <row r="37">
@@ -9627,31 +9627,31 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <v>0.28319192608236277</v>
+        <v>0.28391269269297859</v>
       </c>
       <c r="C37">
-        <v>0.22451987168412876</v>
+        <v>0.22496246231167061</v>
       </c>
       <c r="D37">
-        <v>0.49228820223350844</v>
+        <v>0.49112484499535097</v>
       </c>
       <c r="H37">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.81668354995901626</v>
+        <v>0.81283613011234213</v>
       </c>
       <c r="J37">
-        <v>0.18331645004098379</v>
+        <v>0.18716386988765793</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.76017878235104164</v>
+        <v>0.76181412644795377</v>
       </c>
       <c r="O37">
-        <v>0.23982121764895836</v>
+        <v>0.23818587355204626</v>
       </c>
     </row>
     <row r="38">
@@ -9659,31 +9659,31 @@
         <v>60</v>
       </c>
       <c r="B38">
-        <v>0.29966031187766173</v>
+        <v>0.30051747453110533</v>
       </c>
       <c r="C38">
-        <v>0.22774871619773981</v>
+        <v>0.22382375764039972</v>
       </c>
       <c r="D38">
-        <v>0.47259097192459831</v>
+        <v>0.47565876782849503</v>
       </c>
       <c r="H38">
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.79644190044742913</v>
+        <v>0.79600902778060756</v>
       </c>
       <c r="J38">
-        <v>0.20355809955257084</v>
+        <v>0.20399097221939255</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.76773463144068599</v>
+        <v>0.77037733022307031</v>
       </c>
       <c r="O38">
-        <v>0.23226536855931404</v>
+        <v>0.22962266977692966</v>
       </c>
     </row>
     <row r="39">
@@ -9691,31 +9691,31 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>0.3076788641108063</v>
+        <v>0.30701966588027957</v>
       </c>
       <c r="C39">
-        <v>0.22337605477918374</v>
+        <v>0.22237813774560045</v>
       </c>
       <c r="D39">
-        <v>0.46894508111000999</v>
+        <v>0.47060219637411999</v>
       </c>
       <c r="H39">
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.82214182833202865</v>
+        <v>0.81804759117125603</v>
       </c>
       <c r="J39">
-        <v>0.17785817166797124</v>
+        <v>0.18195240882874381</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.72713347211268398</v>
+        <v>0.72562266762978211</v>
       </c>
       <c r="O39">
-        <v>0.27286652788731602</v>
+        <v>0.27437733237021789</v>
       </c>
     </row>
     <row r="40">
@@ -9723,31 +9723,31 @@
         <v>62</v>
       </c>
       <c r="B40">
-        <v>0.30525964940191258</v>
+        <v>0.30530390035776617</v>
       </c>
       <c r="C40">
-        <v>0.24685658425764298</v>
+        <v>0.24459712610142142</v>
       </c>
       <c r="D40">
-        <v>0.44788376634044452</v>
+        <v>0.45009897354081241</v>
       </c>
       <c r="H40">
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.81387903077844581</v>
+        <v>0.81429453972678578</v>
       </c>
       <c r="J40">
-        <v>0.18612096922155422</v>
+        <v>0.18570546027321433</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.74469035511897586</v>
+        <v>0.7483555033495588</v>
       </c>
       <c r="O40">
-        <v>0.2553096448810242</v>
+        <v>0.25164449665044114</v>
       </c>
     </row>
     <row r="41">
@@ -9755,31 +9755,31 @@
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.31162112253633584</v>
+        <v>0.31239302443567846</v>
       </c>
       <c r="C41">
-        <v>0.24764898055610002</v>
+        <v>0.24485324439807402</v>
       </c>
       <c r="D41">
-        <v>0.44072989690756414</v>
+        <v>0.44275373116624761</v>
       </c>
       <c r="H41">
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.80971624801833875</v>
+        <v>0.80756879259007408</v>
       </c>
       <c r="J41">
-        <v>0.19028375198166114</v>
+        <v>0.19243120740992592</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.75567820426563281</v>
+        <v>0.75705786030813427</v>
       </c>
       <c r="O41">
-        <v>0.2443217957343671</v>
+        <v>0.24294213969186571</v>
       </c>
     </row>
     <row r="42">
@@ -9787,31 +9787,31 @@
         <v>64</v>
       </c>
       <c r="B42">
-        <v>0.33100573036312692</v>
+        <v>0.33209063389974686</v>
       </c>
       <c r="C42">
-        <v>0.22925857299874033</v>
+        <v>0.22399651918255922</v>
       </c>
       <c r="D42">
-        <v>0.43973569663813267</v>
+        <v>0.44391284691769384</v>
       </c>
       <c r="H42">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.8346849048485977</v>
+        <v>0.83351959784814345</v>
       </c>
       <c r="J42">
-        <v>0.16531509515140233</v>
+        <v>0.16648040215185664</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.75280698388960909</v>
+        <v>0.74926783372588113</v>
       </c>
       <c r="O42">
-        <v>0.24719301611039088</v>
+        <v>0.25073216627411887</v>
       </c>
     </row>
     <row r="43">
@@ -9819,31 +9819,31 @@
         <v>65</v>
       </c>
       <c r="B43">
-        <v>0.31821570299234941</v>
+        <v>0.31885117740214591</v>
       </c>
       <c r="C43">
-        <v>0.25179457338280564</v>
+        <v>0.24973433787253937</v>
       </c>
       <c r="D43">
-        <v>0.42998972362484505</v>
+        <v>0.43141448472531474</v>
       </c>
       <c r="H43">
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.80692680290299701</v>
+        <v>0.80659756517132775</v>
       </c>
       <c r="J43">
-        <v>0.19307319709700296</v>
+        <v>0.1934024348286722</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.76077710144925925</v>
+        <v>0.75801496867702478</v>
       </c>
       <c r="O43">
-        <v>0.23922289855074083</v>
+        <v>0.24198503132297516</v>
       </c>
     </row>
     <row r="44">
@@ -9851,31 +9851,31 @@
         <v>66</v>
       </c>
       <c r="B44">
-        <v>0.31947786237964998</v>
+        <v>0.31993130298849043</v>
       </c>
       <c r="C44">
-        <v>0.24353545760460493</v>
+        <v>0.24291977984250768</v>
       </c>
       <c r="D44">
-        <v>0.43698668001574509</v>
+        <v>0.43714891716900189</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.84821345738813481</v>
+        <v>0.84641401276990913</v>
       </c>
       <c r="J44">
-        <v>0.15178654261186519</v>
+        <v>0.15358598723009084</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.74806731031191487</v>
+        <v>0.75161333034965216</v>
       </c>
       <c r="O44">
-        <v>0.25193268968808508</v>
+        <v>0.24838666965034781</v>
       </c>
     </row>
     <row r="45">
@@ -9883,31 +9883,31 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <v>0.32194502174063117</v>
+        <v>0.32229343239256381</v>
       </c>
       <c r="C45">
-        <v>0.26309144228230791</v>
+        <v>0.26043812473180639</v>
       </c>
       <c r="D45">
-        <v>0.41496353597706087</v>
+        <v>0.41726844287562981</v>
       </c>
       <c r="H45">
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.81814916022744666</v>
+        <v>0.81232460763870762</v>
       </c>
       <c r="J45">
-        <v>0.18185083977255331</v>
+        <v>0.18767539236129233</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.7403272196112276</v>
+        <v>0.74328654573571351</v>
       </c>
       <c r="O45">
-        <v>0.25967278038877228</v>
+        <v>0.25671345426428643</v>
       </c>
     </row>
     <row r="46">
@@ -9915,31 +9915,31 @@
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.31783026890121985</v>
+        <v>0.31832102393676887</v>
       </c>
       <c r="C46">
-        <v>0.26118270955428502</v>
+        <v>0.25497716187846958</v>
       </c>
       <c r="D46">
-        <v>0.42098702154449513</v>
+        <v>0.4267018141847615</v>
       </c>
       <c r="H46">
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.79713749566292347</v>
+        <v>0.80345535331181084</v>
       </c>
       <c r="J46">
-        <v>0.20286250433707656</v>
+        <v>0.19654464668818911</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.72840684631272556</v>
+        <v>0.73042436621132889</v>
       </c>
       <c r="O46">
-        <v>0.27159315368727449</v>
+        <v>0.26957563378867105</v>
       </c>
     </row>
     <row r="47">
@@ -9947,31 +9947,31 @@
         <v>69</v>
       </c>
       <c r="B47">
-        <v>0.33622038929050224</v>
+        <v>0.335727798790036</v>
       </c>
       <c r="C47">
-        <v>0.24609249812722025</v>
+        <v>0.24487823843794457</v>
       </c>
       <c r="D47">
-        <v>0.41768711258227748</v>
+        <v>0.4193939627720194</v>
       </c>
       <c r="H47">
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.82196793094065712</v>
+        <v>0.82069060771762226</v>
       </c>
       <c r="J47">
-        <v>0.17803206905934291</v>
+        <v>0.1793093922823778</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.72167123432314428</v>
+        <v>0.72655721611717861</v>
       </c>
       <c r="O47">
-        <v>0.27832876567685566</v>
+        <v>0.27344278388282134</v>
       </c>
     </row>
     <row r="48">
@@ -9979,31 +9979,31 @@
         <v>70</v>
       </c>
       <c r="B48">
-        <v>0.33986120436164535</v>
+        <v>0.33936857846202856</v>
       </c>
       <c r="C48">
-        <v>0.26186466317378171</v>
+        <v>0.25853058976368881</v>
       </c>
       <c r="D48">
-        <v>0.39827413246457288</v>
+        <v>0.40210083177428252</v>
       </c>
       <c r="H48">
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.82715643201492339</v>
+        <v>0.82949983967823981</v>
       </c>
       <c r="J48">
-        <v>0.17284356798507655</v>
+        <v>0.1705001603217603</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.72350302920992093</v>
+        <v>0.72016037445694236</v>
       </c>
       <c r="O48">
-        <v>0.27649697079007918</v>
+        <v>0.27983962554305764</v>
       </c>
     </row>
     <row r="49">
@@ -10011,31 +10011,31 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>0.36091087399808958</v>
+        <v>0.36221470549681895</v>
       </c>
       <c r="C49">
-        <v>0.25676355188855993</v>
+        <v>0.25585103286749966</v>
       </c>
       <c r="D49">
-        <v>0.38232557411335055</v>
+        <v>0.38193426163568139</v>
       </c>
       <c r="H49">
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.82235989639878126</v>
+        <v>0.82024876498796895</v>
       </c>
       <c r="J49">
-        <v>0.17764010360121868</v>
+        <v>0.17975123501203108</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.71926607320464808</v>
+        <v>0.72264216569064554</v>
       </c>
       <c r="O49">
-        <v>0.28073392679535197</v>
+        <v>0.27735783430935446</v>
       </c>
     </row>
     <row r="50">
@@ -10043,31 +10043,31 @@
         <v>72</v>
       </c>
       <c r="B50">
-        <v>0.3742424732461706</v>
+        <v>0.37375110203742667</v>
       </c>
       <c r="C50">
-        <v>0.25254595006558983</v>
+        <v>0.25028632931340733</v>
       </c>
       <c r="D50">
-        <v>0.37321157668823968</v>
+        <v>0.37596256864916594</v>
       </c>
       <c r="H50">
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.84205351226453107</v>
+        <v>0.84127719714283244</v>
       </c>
       <c r="J50">
-        <v>0.15794648773546896</v>
+        <v>0.15872280285716767</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.70350522470571852</v>
+        <v>0.70540902456759236</v>
       </c>
       <c r="O50">
-        <v>0.29649477529428148</v>
+        <v>0.29459097543240764</v>
       </c>
     </row>
     <row r="51">
@@ -10075,31 +10075,31 @@
         <v>73</v>
       </c>
       <c r="B51">
-        <v>0.40326369384178345</v>
+        <v>0.40275658510333823</v>
       </c>
       <c r="C51">
-        <v>0.25033499279575316</v>
+        <v>0.24860176320599053</v>
       </c>
       <c r="D51">
-        <v>0.34640131336246338</v>
+        <v>0.34864165169067129</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.85746564176340456</v>
+        <v>0.85488514052861542</v>
       </c>
       <c r="J51">
-        <v>0.14253435823659538</v>
+        <v>0.14511485947138458</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.73372868262234059</v>
+        <v>0.73507646097923263</v>
       </c>
       <c r="O51">
-        <v>0.26627131737765952</v>
+        <v>0.26492353902076737</v>
       </c>
     </row>
     <row r="52">
@@ -10107,31 +10107,31 @@
         <v>74</v>
       </c>
       <c r="B52">
-        <v>0.40759487230903468</v>
+        <v>0.40856625073515157</v>
       </c>
       <c r="C52">
-        <v>0.25482457411415993</v>
+        <v>0.25128152324390596</v>
       </c>
       <c r="D52">
-        <v>0.33758055357680533</v>
+        <v>0.34015222602094247</v>
       </c>
       <c r="H52">
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.85327213625915443</v>
+        <v>0.85294831311134367</v>
       </c>
       <c r="J52">
-        <v>0.14672786374084559</v>
+        <v>0.14705168688865627</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.67212139082440137</v>
+        <v>0.67319363310356573</v>
       </c>
       <c r="O52">
-        <v>0.32787860917559863</v>
+        <v>0.32680636689643433</v>
       </c>
     </row>
     <row r="53">
@@ -10139,31 +10139,31 @@
         <v>75</v>
       </c>
       <c r="B53">
-        <v>0.43658779692743793</v>
+        <v>0.43678493512414013</v>
       </c>
       <c r="C53">
-        <v>0.25066260309968197</v>
+        <v>0.25085529586516869</v>
       </c>
       <c r="D53">
-        <v>0.31274959997288021</v>
+        <v>0.31235976901069124</v>
       </c>
       <c r="H53">
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.87541635514258653</v>
+        <v>0.87098182586572037</v>
       </c>
       <c r="J53">
-        <v>0.12458364485741347</v>
+        <v>0.12901817413427963</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.68105334237421766</v>
+        <v>0.68717521765635337</v>
       </c>
       <c r="O53">
-        <v>0.31894665762578234</v>
+        <v>0.31282478234364675</v>
       </c>
     </row>
     <row r="54">
@@ -10171,13 +10171,13 @@
         <v>76</v>
       </c>
       <c r="B54">
-        <v>0.44315097109139229</v>
+        <v>0.44179927429090271</v>
       </c>
       <c r="C54">
-        <v>0.2696366568140604</v>
+        <v>0.26792667772407297</v>
       </c>
       <c r="D54">
-        <v>0.28721237209454742</v>
+        <v>0.29027404798502437</v>
       </c>
       <c r="H54">
         <v>76</v>
@@ -11028,19 +11028,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.55206122938022584</v>
+        <v>0.54602513636012284</v>
       </c>
       <c r="J3">
-        <v>0.44793877061977411</v>
+        <v>0.45397486363987721</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.83496798109637538</v>
+        <v>0.83442984321014024</v>
       </c>
       <c r="O3">
-        <v>0.16503201890362462</v>
+        <v>0.16557015678985978</v>
       </c>
     </row>
     <row r="4">
@@ -11048,19 +11048,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.56485626392108368</v>
+        <v>0.56544846590585229</v>
       </c>
       <c r="J4">
-        <v>0.43514373607891643</v>
+        <v>0.43455153409414782</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.80141933586977032</v>
+        <v>0.80573183332094966</v>
       </c>
       <c r="O4">
-        <v>0.19858066413022965</v>
+        <v>0.19426816667905039</v>
       </c>
     </row>
     <row r="5">
@@ -11068,19 +11068,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.58341015305402211</v>
+        <v>0.59719057218146887</v>
       </c>
       <c r="J5">
-        <v>0.41658984694597795</v>
+        <v>0.40280942781853113</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.80769825480753954</v>
+        <v>0.82037121187947548</v>
       </c>
       <c r="O5">
-        <v>0.19230174519246052</v>
+        <v>0.17962878812052455</v>
       </c>
     </row>
     <row r="6">
@@ -11088,19 +11088,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.56936538416358673</v>
+        <v>0.56598415965704763</v>
       </c>
       <c r="J6">
-        <v>0.43063461583641316</v>
+        <v>0.43401584034295243</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.8546786898631068</v>
+        <v>0.85247746844600636</v>
       </c>
       <c r="O6">
-        <v>0.1453213101368932</v>
+        <v>0.14752253155399359</v>
       </c>
     </row>
     <row r="7">
@@ -11108,19 +11108,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.65121614451575516</v>
+        <v>0.67032200876196801</v>
       </c>
       <c r="J7">
-        <v>0.34878385548424484</v>
+        <v>0.32967799123803199</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.81778281813345255</v>
+        <v>0.81757039796625208</v>
       </c>
       <c r="O7">
-        <v>0.1822171818665474</v>
+        <v>0.18242960203374797</v>
       </c>
     </row>
     <row r="8">
@@ -11128,19 +11128,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.66654548238706046</v>
+        <v>0.66686229329387336</v>
       </c>
       <c r="J8">
-        <v>0.33345451761293954</v>
+        <v>0.33313770670612669</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.84207191112460844</v>
+        <v>0.84095184428211689</v>
       </c>
       <c r="O8">
-        <v>0.15792808887539161</v>
+        <v>0.15904815571788308</v>
       </c>
     </row>
     <row r="9">
@@ -11148,19 +11148,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.60459759990851925</v>
+        <v>0.60252958033565951</v>
       </c>
       <c r="J9">
-        <v>0.39540240009148064</v>
+        <v>0.39747041966434055</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.80547652080509868</v>
+        <v>0.80688482155883945</v>
       </c>
       <c r="O9">
-        <v>0.19452347919490123</v>
+        <v>0.19311517844116055</v>
       </c>
     </row>
     <row r="10">
@@ -11168,19 +11168,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.69579332832550733</v>
+        <v>0.70377034060949561</v>
       </c>
       <c r="J10">
-        <v>0.30420667167449261</v>
+        <v>0.2962296593905045</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.78815055857644134</v>
+        <v>0.79227950271104819</v>
       </c>
       <c r="O10">
-        <v>0.2118494414235588</v>
+        <v>0.2077204972889517</v>
       </c>
     </row>
     <row r="11">
@@ -11188,19 +11188,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.64089180382240207</v>
+        <v>0.64643095314139831</v>
       </c>
       <c r="J11">
-        <v>0.35910819617759782</v>
+        <v>0.35356904685860169</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.79907269935794634</v>
+        <v>0.79865029643339147</v>
       </c>
       <c r="O11">
-        <v>0.20092730064205377</v>
+        <v>0.2013497035666085</v>
       </c>
     </row>
     <row r="12">
@@ -11208,19 +11208,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.62697154718634029</v>
+        <v>0.61411252472161093</v>
       </c>
       <c r="J12">
-        <v>0.37302845281365976</v>
+        <v>0.38588747527838918</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.80792362686253993</v>
+        <v>0.8088345285610975</v>
       </c>
       <c r="O12">
-        <v>0.19207637313746004</v>
+        <v>0.19116547143890253</v>
       </c>
     </row>
     <row r="13">
@@ -11228,19 +11228,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.6961086891141044</v>
+        <v>0.69595741427921332</v>
       </c>
       <c r="J13">
-        <v>0.30389131088589555</v>
+        <v>0.3040425857207868</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.78272903471452182</v>
+        <v>0.78828061037635955</v>
       </c>
       <c r="O13">
-        <v>0.21727096528547821</v>
+        <v>0.21171938962364048</v>
       </c>
     </row>
     <row r="14">
@@ -11248,19 +11248,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.65540664286276917</v>
+        <v>0.64986190228452556</v>
       </c>
       <c r="J14">
-        <v>0.34459335713723083</v>
+        <v>0.35013809771547444</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.83235027048323385</v>
+        <v>0.82879896300114819</v>
       </c>
       <c r="O14">
-        <v>0.16764972951676615</v>
+        <v>0.17120103699885184</v>
       </c>
     </row>
     <row r="15">
@@ -11268,19 +11268,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.66592998878851928</v>
+        <v>0.66678150983371731</v>
       </c>
       <c r="J15">
-        <v>0.33407001121148067</v>
+        <v>0.3332184901662828</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.80320054136453833</v>
+        <v>0.80734271148344317</v>
       </c>
       <c r="O15">
-        <v>0.19679945863546164</v>
+        <v>0.19265728851655686</v>
       </c>
     </row>
     <row r="16">
@@ -11288,19 +11288,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.68473953481036043</v>
+        <v>0.68584886490978636</v>
       </c>
       <c r="J16">
-        <v>0.31526046518963952</v>
+        <v>0.3141511350902137</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.81034186149864096</v>
+        <v>0.80911901478804094</v>
       </c>
       <c r="O16">
-        <v>0.1896581385013591</v>
+        <v>0.19088098521195898</v>
       </c>
     </row>
     <row r="17">
@@ -11308,19 +11308,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.72761360203313119</v>
+        <v>0.73016439963296975</v>
       </c>
       <c r="J17">
-        <v>0.27238639796686881</v>
+        <v>0.26983560036703025</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.78308194315153079</v>
+        <v>0.78625608858615548</v>
       </c>
       <c r="O17">
-        <v>0.21691805684846918</v>
+        <v>0.21374391141384452</v>
       </c>
     </row>
     <row r="18">
@@ -11328,19 +11328,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.76327008904331572</v>
+        <v>0.75237493797841537</v>
       </c>
       <c r="J18">
-        <v>0.23672991095668436</v>
+        <v>0.24762506202158474</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.78385561832199513</v>
+        <v>0.78277145664473147</v>
       </c>
       <c r="O18">
-        <v>0.2161443816780049</v>
+        <v>0.21722854335526859</v>
       </c>
     </row>
     <row r="19">
@@ -11348,19 +11348,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.72691374243682705</v>
+        <v>0.71635358882372413</v>
       </c>
       <c r="J19">
-        <v>0.27308625756317301</v>
+        <v>0.28364641117627593</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.8135574038631268</v>
+        <v>0.81990073501306626</v>
       </c>
       <c r="O19">
-        <v>0.18644259613687325</v>
+        <v>0.1800992649869336</v>
       </c>
     </row>
     <row r="20">
@@ -11368,19 +11368,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.74175409408398141</v>
+        <v>0.74339626568526429</v>
       </c>
       <c r="J20">
-        <v>0.25824590591601854</v>
+        <v>0.25660373431473571</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.78764144984808238</v>
+        <v>0.78798990752512854</v>
       </c>
       <c r="O20">
-        <v>0.21235855015191765</v>
+        <v>0.21201009247487138</v>
       </c>
     </row>
     <row r="21">
@@ -11388,19 +11388,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.73503563326172539</v>
+        <v>0.73234651254364891</v>
       </c>
       <c r="J21">
-        <v>0.26496436673827461</v>
+        <v>0.26765348745635115</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.7822537949914089</v>
+        <v>0.78219318033996377</v>
       </c>
       <c r="O21">
-        <v>0.21774620500859118</v>
+        <v>0.21780681966003632</v>
       </c>
     </row>
     <row r="22">
@@ -11408,19 +11408,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.78018885825146145</v>
+        <v>0.77187286155868462</v>
       </c>
       <c r="J22">
-        <v>0.21981114174853864</v>
+        <v>0.22812713844131541</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.80420731714286753</v>
+        <v>0.80327050071102801</v>
       </c>
       <c r="O22">
-        <v>0.1957926828571325</v>
+        <v>0.19672949928897199</v>
       </c>
     </row>
     <row r="23">
@@ -11428,19 +11428,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.74820010012626914</v>
+        <v>0.75201939959124242</v>
       </c>
       <c r="J23">
-        <v>0.25179989987373086</v>
+        <v>0.24798060040875763</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.77695510183230265</v>
+        <v>0.77766790072970071</v>
       </c>
       <c r="O23">
-        <v>0.22304489816769729</v>
+        <v>0.22233209927029926</v>
       </c>
     </row>
     <row r="24">
@@ -11448,19 +11448,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.7730507422461772</v>
+        <v>0.76996164583067805</v>
       </c>
       <c r="J24">
-        <v>0.2269492577538228</v>
+        <v>0.230038354169322</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.78879160374925317</v>
+        <v>0.79357790109511195</v>
       </c>
       <c r="O24">
-        <v>0.21120839625074689</v>
+        <v>0.20642209890488808</v>
       </c>
     </row>
     <row r="25">
@@ -11468,19 +11468,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.80162821135894891</v>
+        <v>0.80750868343596949</v>
       </c>
       <c r="J25">
-        <v>0.19837178864105109</v>
+        <v>0.19249131656403051</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.76171408724601064</v>
+        <v>0.76997906029114738</v>
       </c>
       <c r="O25">
-        <v>0.2382859127539895</v>
+        <v>0.2300209397088526</v>
       </c>
     </row>
     <row r="26">
@@ -11488,19 +11488,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.79309804462321054</v>
+        <v>0.78770424908586145</v>
       </c>
       <c r="J26">
-        <v>0.2069019553767894</v>
+        <v>0.21229575091413849</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.74010151802906732</v>
+        <v>0.73999752920045181</v>
       </c>
       <c r="O26">
-        <v>0.25989848197093279</v>
+        <v>0.26000247079954808</v>
       </c>
     </row>
     <row r="27">
@@ -11508,19 +11508,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.76377397367576261</v>
+        <v>0.75828683169059041</v>
       </c>
       <c r="J27">
-        <v>0.23622602632423736</v>
+        <v>0.24171316830940964</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.75529917102995248</v>
+        <v>0.75648469881951008</v>
       </c>
       <c r="O27">
-        <v>0.24470082897004747</v>
+        <v>0.24351530118049</v>
       </c>
     </row>
     <row r="28">
@@ -11528,19 +11528,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.81225569192128377</v>
+        <v>0.81607447491988638</v>
       </c>
       <c r="J28">
-        <v>0.18774430807871625</v>
+        <v>0.1839255250801137</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.7392536248941014</v>
+        <v>0.74016037214907449</v>
       </c>
       <c r="O28">
-        <v>0.2607463751058986</v>
+        <v>0.25983962785092551</v>
       </c>
     </row>
     <row r="29">
@@ -11548,19 +11548,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.83084968141716009</v>
+        <v>0.83298015476406306</v>
       </c>
       <c r="J29">
-        <v>0.16915031858283996</v>
+        <v>0.16701984523593699</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.71964693221479148</v>
+        <v>0.71785102394484934</v>
       </c>
       <c r="O29">
-        <v>0.28035306778520847</v>
+        <v>0.28214897605515055</v>
       </c>
     </row>
     <row r="30">
@@ -11568,19 +11568,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.84816907612554648</v>
+        <v>0.84808228579923495</v>
       </c>
       <c r="J30">
-        <v>0.15183092387445354</v>
+        <v>0.15191771420076494</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.70016375785828922</v>
+        <v>0.70734439196856025</v>
       </c>
       <c r="O30">
-        <v>0.29983624214171073</v>
+        <v>0.29265560803143975</v>
       </c>
     </row>
     <row r="31">
@@ -11588,19 +11588,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.84594789121046876</v>
+        <v>0.84476197108900608</v>
       </c>
       <c r="J31">
-        <v>0.15405210878953118</v>
+        <v>0.15523802891099389</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.74760187849382997</v>
+        <v>0.75102382167437487</v>
       </c>
       <c r="O31">
-        <v>0.25239812150617003</v>
+        <v>0.2489761783256251</v>
       </c>
     </row>
     <row r="32">
@@ -11608,19 +11608,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.85829360928372467</v>
+        <v>0.86054159087662807</v>
       </c>
       <c r="J32">
-        <v>0.14170639071627528</v>
+        <v>0.13945840912337196</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.75842627014533193</v>
+        <v>0.76150597113284779</v>
       </c>
       <c r="O32">
-        <v>0.24157372985466805</v>
+        <v>0.23849402886715215</v>
       </c>
     </row>
     <row r="33">
@@ -11628,19 +11628,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.87018949470749241</v>
+        <v>0.87028824947179517</v>
       </c>
       <c r="J33">
-        <v>0.12981050529250759</v>
+        <v>0.12971175052820488</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.72013720930285374</v>
+        <v>0.72488828891802704</v>
       </c>
       <c r="O33">
-        <v>0.27986279069714615</v>
+        <v>0.27511171108197296</v>
       </c>
     </row>
     <row r="34">
@@ -11648,19 +11648,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.86653931533228168</v>
+        <v>0.86930919736978363</v>
       </c>
       <c r="J34">
-        <v>0.13346068466771835</v>
+        <v>0.13069080263021637</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.71695421852190921</v>
+        <v>0.71614373273396414</v>
       </c>
       <c r="O34">
-        <v>0.28304578147809079</v>
+        <v>0.28385626726603591</v>
       </c>
     </row>
     <row r="35">
@@ -11668,19 +11668,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.89404462461426215</v>
+        <v>0.88840401226156529</v>
       </c>
       <c r="J35">
-        <v>0.10595537538573795</v>
+        <v>0.11159598773843471</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.70153195589239481</v>
+        <v>0.70725677786736552</v>
       </c>
       <c r="O35">
-        <v>0.29846804410760513</v>
+        <v>0.2927432221326346</v>
       </c>
     </row>
     <row r="36">
@@ -11688,19 +11688,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.85779830808917512</v>
+        <v>0.8592412366383535</v>
       </c>
       <c r="J36">
-        <v>0.14220169191082493</v>
+        <v>0.14075876336164656</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.73245564052954726</v>
+        <v>0.73311508599033381</v>
       </c>
       <c r="O36">
-        <v>0.26754435947045269</v>
+        <v>0.26688491400966602</v>
       </c>
     </row>
     <row r="37">
@@ -11708,19 +11708,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.89503300888664539</v>
+        <v>0.89374772024002969</v>
       </c>
       <c r="J37">
-        <v>0.10496699111335464</v>
+        <v>0.10625227975997034</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.71478036231808606</v>
+        <v>0.71899535542956183</v>
       </c>
       <c r="O37">
-        <v>0.28521963768191411</v>
+        <v>0.28100464457043817</v>
       </c>
     </row>
     <row r="38">
@@ -11728,19 +11728,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.89476679726194486</v>
+        <v>0.89484961866845036</v>
       </c>
       <c r="J38">
-        <v>0.10523320273805514</v>
+        <v>0.10515038133154962</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.73822640849461985</v>
+        <v>0.74029016146962034</v>
       </c>
       <c r="O38">
-        <v>0.26177359150538015</v>
+        <v>0.25970983853037971</v>
       </c>
     </row>
     <row r="39">
@@ -11748,19 +11748,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.9182513384640113</v>
+        <v>0.91751684043757309</v>
       </c>
       <c r="J39">
-        <v>0.08174866153598874</v>
+        <v>0.082483159562426939</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.67692121819938156</v>
+        <v>0.67554430754581341</v>
       </c>
       <c r="O39">
-        <v>0.32307878180061833</v>
+        <v>0.32445569245418659</v>
       </c>
     </row>
     <row r="40">
@@ -11768,19 +11768,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.8878127042955043</v>
+        <v>0.88660569896595576</v>
       </c>
       <c r="J40">
-        <v>0.11218729570449576</v>
+        <v>0.1133943010340443</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.66324488961147621</v>
+        <v>0.66547552101655139</v>
       </c>
       <c r="O40">
-        <v>0.33675511038852368</v>
+        <v>0.33452447898344861</v>
       </c>
     </row>
     <row r="41">
@@ -11788,19 +11788,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.9168241393593064</v>
+        <v>0.91477603683456521</v>
       </c>
       <c r="J41">
-        <v>0.08317586064069353</v>
+        <v>0.085223963165434832</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.66358642665984247</v>
+        <v>0.66443823243673461</v>
       </c>
       <c r="O41">
-        <v>0.33641357334015753</v>
+        <v>0.33556176756326545</v>
       </c>
     </row>
     <row r="42">
@@ -11808,19 +11808,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.90586878571048512</v>
+        <v>0.90519153410026743</v>
       </c>
       <c r="J42">
-        <v>0.094131214289514861</v>
+        <v>0.094808465899732616</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.66632016834360475</v>
+        <v>0.66001824864047198</v>
       </c>
       <c r="O42">
-        <v>0.33367983165639531</v>
+        <v>0.33998175135952807</v>
       </c>
     </row>
     <row r="43">
@@ -11828,19 +11828,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.91214406744768761</v>
+        <v>0.91201019058907284</v>
       </c>
       <c r="J43">
-        <v>0.087855932552312471</v>
+        <v>0.0879898094109271</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.66506999456575844</v>
+        <v>0.66461751186143381</v>
       </c>
       <c r="O43">
-        <v>0.33493000543424151</v>
+        <v>0.33538248813856614</v>
       </c>
     </row>
     <row r="44">
@@ -11848,19 +11848,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.92863129817641332</v>
+        <v>0.92883961945093996</v>
       </c>
       <c r="J44">
-        <v>0.071368701823586775</v>
+        <v>0.071160380549059973</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.65734463854054359</v>
+        <v>0.66099912506604697</v>
       </c>
       <c r="O44">
-        <v>0.34265536145945646</v>
+        <v>0.33900087493395314</v>
       </c>
     </row>
     <row r="45">
@@ -11868,19 +11868,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.92756820652245198</v>
+        <v>0.91529835048836594</v>
       </c>
       <c r="J45">
-        <v>0.072431793477547982</v>
+        <v>0.084701649511634058</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.64741454007387611</v>
+        <v>0.64433279849117464</v>
       </c>
       <c r="O45">
-        <v>0.352585459926124</v>
+        <v>0.35566720150882536</v>
       </c>
     </row>
     <row r="46">
@@ -11888,19 +11888,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.89195262956940102</v>
+        <v>0.8904984869517002</v>
       </c>
       <c r="J46">
-        <v>0.10804737043059905</v>
+        <v>0.10950151304829987</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.57683184441164692</v>
+        <v>0.58334014079663943</v>
       </c>
       <c r="O46">
-        <v>0.42316815558835302</v>
+        <v>0.41665985920336052</v>
       </c>
     </row>
     <row r="47">
@@ -11908,19 +11908,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.89292916054521609</v>
+        <v>0.89076994070675042</v>
       </c>
       <c r="J47">
-        <v>0.10707083945478398</v>
+        <v>0.10923005929324958</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.5704092829356523</v>
+        <v>0.56558990236441453</v>
       </c>
       <c r="O47">
-        <v>0.42959071706434765</v>
+        <v>0.43441009763558541</v>
       </c>
     </row>
     <row r="48">
@@ -11928,19 +11928,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.91690883058960015</v>
+        <v>0.91534318812108506</v>
       </c>
       <c r="J48">
-        <v>0.083091169410399873</v>
+        <v>0.084656811878914981</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.596788029251753</v>
+        <v>0.61179348838008774</v>
       </c>
       <c r="O48">
-        <v>0.40321197074824688</v>
+        <v>0.38820651161991238</v>
       </c>
     </row>
     <row r="49">
@@ -11948,19 +11948,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.89132927036483633</v>
+        <v>0.8860163582863867</v>
       </c>
       <c r="J49">
-        <v>0.10867072963516376</v>
+        <v>0.11398364171361333</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.64477884679431186</v>
+        <v>0.64686834817495786</v>
       </c>
       <c r="O49">
-        <v>0.3552211532056882</v>
+        <v>0.35313165182504219</v>
       </c>
     </row>
     <row r="50">
@@ -11968,19 +11968,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.8856228214875882</v>
+        <v>0.88215183434032185</v>
       </c>
       <c r="J50">
-        <v>0.1143771785124118</v>
+        <v>0.11784816565967818</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.59644688934498635</v>
+        <v>0.59415785748107153</v>
       </c>
       <c r="O50">
-        <v>0.40355311065501365</v>
+        <v>0.40584214251892842</v>
       </c>
     </row>
     <row r="51">
@@ -11988,19 +11988,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.91176116922576445</v>
+        <v>0.90723222418424176</v>
       </c>
       <c r="J51">
-        <v>0.088238830774235472</v>
+        <v>0.092767775815758277</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.6234330649304739</v>
+        <v>0.62234290926847602</v>
       </c>
       <c r="O51">
-        <v>0.37656693506952615</v>
+        <v>0.37765709073152398</v>
       </c>
     </row>
     <row r="52">
@@ -12008,19 +12008,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.90073074545399834</v>
+        <v>0.9004736722464759</v>
       </c>
       <c r="J52">
-        <v>0.099269254546001662</v>
+        <v>0.099526327753523963</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.60282308873551305</v>
+        <v>0.61040258511925649</v>
       </c>
       <c r="O52">
-        <v>0.3971769112644869</v>
+        <v>0.38959741488074351</v>
       </c>
     </row>
     <row r="53">
@@ -12028,19 +12028,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.93045871086251863</v>
+        <v>0.9307746746951655</v>
       </c>
       <c r="J53">
-        <v>0.069541289137481435</v>
+        <v>0.069225325304834467</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.57876841113540833</v>
+        <v>0.588892683302084</v>
       </c>
       <c r="O53">
-        <v>0.42123158886459167</v>
+        <v>0.411107316697916</v>
       </c>
     </row>
     <row r="54">
@@ -12545,19 +12545,19 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.46332536741929564</v>
+        <v>0.47457408708676402</v>
       </c>
       <c r="J3">
-        <v>0.53667463258070436</v>
+        <v>0.52542591291323593</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
-        <v>0.88091520883333452</v>
+        <v>0.88572180040524962</v>
       </c>
       <c r="O3">
-        <v>0.11908479116666547</v>
+        <v>0.11427819959475037</v>
       </c>
     </row>
     <row r="4">
@@ -12565,19 +12565,19 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.46310901958179485</v>
+        <v>0.44555057326297443</v>
       </c>
       <c r="J4">
-        <v>0.53689098041820515</v>
+        <v>0.55444942673702557</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
       <c r="N4">
-        <v>0.88731489533044905</v>
+        <v>0.8898476789554125</v>
       </c>
       <c r="O4">
-        <v>0.11268510466955098</v>
+        <v>0.11015232104458748</v>
       </c>
     </row>
     <row r="5">
@@ -12585,19 +12585,19 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>0.44733238388765967</v>
+        <v>0.43278521547248583</v>
       </c>
       <c r="J5">
-        <v>0.55266761611234039</v>
+        <v>0.56721478452751406</v>
       </c>
       <c r="M5">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>0.89640131708866666</v>
+        <v>0.89857532992684808</v>
       </c>
       <c r="O5">
-        <v>0.1035986829113334</v>
+        <v>0.10142467007315198</v>
       </c>
     </row>
     <row r="6">
@@ -12605,19 +12605,19 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <v>0.50560216541876846</v>
+        <v>0.51088807707227113</v>
       </c>
       <c r="J6">
-        <v>0.49439783458123149</v>
+        <v>0.48911192292772881</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6">
-        <v>0.87117617472058206</v>
+        <v>0.87407017377083651</v>
       </c>
       <c r="O6">
-        <v>0.12882382527941796</v>
+        <v>0.12592982622916346</v>
       </c>
     </row>
     <row r="7">
@@ -12625,19 +12625,19 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>0.47293731207052986</v>
+        <v>0.45808973636466088</v>
       </c>
       <c r="J7">
-        <v>0.52706268792947009</v>
+        <v>0.54191026363533901</v>
       </c>
       <c r="M7">
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.8856742715640018</v>
+        <v>0.88593678845996238</v>
       </c>
       <c r="O7">
-        <v>0.11432572843599821</v>
+        <v>0.11406321154003768</v>
       </c>
     </row>
     <row r="8">
@@ -12645,19 +12645,19 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>0.46228079078951895</v>
+        <v>0.45912988563706997</v>
       </c>
       <c r="J8">
-        <v>0.537719209210481</v>
+        <v>0.54087011436292987</v>
       </c>
       <c r="M8">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>0.83298350467809201</v>
+        <v>0.83469714113293847</v>
       </c>
       <c r="O8">
-        <v>0.16701649532190796</v>
+        <v>0.1653028588670615</v>
       </c>
     </row>
     <row r="9">
@@ -12665,19 +12665,19 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <v>0.36304815215040143</v>
+        <v>0.36965402082244986</v>
       </c>
       <c r="J9">
-        <v>0.63695184784959857</v>
+        <v>0.63034597917755009</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
       <c r="N9">
-        <v>0.90483708092561421</v>
+        <v>0.9065534527640422</v>
       </c>
       <c r="O9">
-        <v>0.095162919074385677</v>
+        <v>0.093446547235957786</v>
       </c>
     </row>
     <row r="10">
@@ -12685,19 +12685,19 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>0.45784621842584955</v>
+        <v>0.45933490937644861</v>
       </c>
       <c r="J10">
-        <v>0.5421537815741504</v>
+        <v>0.54066509062355139</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>0.89770671904969634</v>
+        <v>0.89953320750863508</v>
       </c>
       <c r="O10">
-        <v>0.10229328095030366</v>
+        <v>0.10046679249136489</v>
       </c>
     </row>
     <row r="11">
@@ -12705,19 +12705,19 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>0.49749545937043393</v>
+        <v>0.49010982623271937</v>
       </c>
       <c r="J11">
-        <v>0.50250454062956607</v>
+        <v>0.50989017376728063</v>
       </c>
       <c r="M11">
         <v>33</v>
       </c>
       <c r="N11">
-        <v>0.90430564852042439</v>
+        <v>0.90990578716588377</v>
       </c>
       <c r="O11">
-        <v>0.095694351479575585</v>
+        <v>0.090094212834116269</v>
       </c>
     </row>
     <row r="12">
@@ -12725,19 +12725,19 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>0.51194829469803371</v>
+        <v>0.53383042093801214</v>
       </c>
       <c r="J12">
-        <v>0.48805170530196634</v>
+        <v>0.4661695790619878</v>
       </c>
       <c r="M12">
         <v>34</v>
       </c>
       <c r="N12">
-        <v>0.89283263823426418</v>
+        <v>0.89200335947241116</v>
       </c>
       <c r="O12">
-        <v>0.10716736176573587</v>
+        <v>0.1079966405275888</v>
       </c>
     </row>
     <row r="13">
@@ -12745,19 +12745,19 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>0.53930881766940175</v>
+        <v>0.53745443909498791</v>
       </c>
       <c r="J13">
-        <v>0.46069118233059825</v>
+        <v>0.4625455609050122</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.85455892140801504</v>
+        <v>0.85919348940054352</v>
       </c>
       <c r="O13">
-        <v>0.14544107859198502</v>
+        <v>0.14080651059945645</v>
       </c>
     </row>
     <row r="14">
@@ -12765,19 +12765,19 @@
         <v>36</v>
       </c>
       <c r="I14">
-        <v>0.53310166006060311</v>
+        <v>0.53235508364468664</v>
       </c>
       <c r="J14">
-        <v>0.46689833993939694</v>
+        <v>0.4676449163553133</v>
       </c>
       <c r="M14">
         <v>36</v>
       </c>
       <c r="N14">
-        <v>0.84966848098169745</v>
+        <v>0.84975179922471478</v>
       </c>
       <c r="O14">
-        <v>0.15033151901830252</v>
+        <v>0.15024820077528531</v>
       </c>
     </row>
     <row r="15">
@@ -12785,19 +12785,19 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>0.50742799516632586</v>
+        <v>0.50976418850073646</v>
       </c>
       <c r="J15">
-        <v>0.49257200483367408</v>
+        <v>0.49023581149926354</v>
       </c>
       <c r="M15">
         <v>37</v>
       </c>
       <c r="N15">
-        <v>0.84593630971396572</v>
+        <v>0.85186489619048356</v>
       </c>
       <c r="O15">
-        <v>0.15406369028603423</v>
+        <v>0.14813510380951653</v>
       </c>
     </row>
     <row r="16">
@@ -12805,19 +12805,19 @@
         <v>38</v>
       </c>
       <c r="I16">
-        <v>0.50818987398251469</v>
+        <v>0.49470452773587409</v>
       </c>
       <c r="J16">
-        <v>0.49181012601748525</v>
+        <v>0.50529547226412586</v>
       </c>
       <c r="M16">
         <v>38</v>
       </c>
       <c r="N16">
-        <v>0.88200009956382819</v>
+        <v>0.88531554479534358</v>
       </c>
       <c r="O16">
-        <v>0.1179999004361718</v>
+        <v>0.11468445520465649</v>
       </c>
     </row>
     <row r="17">
@@ -12825,19 +12825,19 @@
         <v>39</v>
       </c>
       <c r="I17">
-        <v>0.46963740908598084</v>
+        <v>0.47237785390582704</v>
       </c>
       <c r="J17">
-        <v>0.53036259091401916</v>
+        <v>0.52762214609417291</v>
       </c>
       <c r="M17">
         <v>39</v>
       </c>
       <c r="N17">
-        <v>0.87156305267911915</v>
+        <v>0.86883651362647063</v>
       </c>
       <c r="O17">
-        <v>0.12843694732088079</v>
+        <v>0.13116348637352934</v>
       </c>
     </row>
     <row r="18">
@@ -12845,19 +12845,19 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>0.57238714316078931</v>
+        <v>0.58027065394379851</v>
       </c>
       <c r="J18">
-        <v>0.42761285683921069</v>
+        <v>0.41972934605620138</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>0.8520741904004695</v>
+        <v>0.85947801140085056</v>
       </c>
       <c r="O18">
-        <v>0.14792580959953053</v>
+        <v>0.14052198859914941</v>
       </c>
     </row>
     <row r="19">
@@ -12865,19 +12865,19 @@
         <v>41</v>
       </c>
       <c r="I19">
-        <v>0.56898380696505746</v>
+        <v>0.57085332209076167</v>
       </c>
       <c r="J19">
-        <v>0.43101619303494249</v>
+        <v>0.42914667790923827</v>
       </c>
       <c r="M19">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>0.86393310702137005</v>
+        <v>0.86385064294917391</v>
       </c>
       <c r="O19">
-        <v>0.13606689297862995</v>
+        <v>0.13614935705082604</v>
       </c>
     </row>
     <row r="20">
@@ -12885,19 +12885,19 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <v>0.56924237239237407</v>
+        <v>0.5755034876887396</v>
       </c>
       <c r="J20">
-        <v>0.43075762760762581</v>
+        <v>0.42449651231126034</v>
       </c>
       <c r="M20">
         <v>42</v>
       </c>
       <c r="N20">
-        <v>0.85917013033303902</v>
+        <v>0.86317514475747226</v>
       </c>
       <c r="O20">
-        <v>0.14082986966696096</v>
+        <v>0.13682485524252783</v>
       </c>
     </row>
     <row r="21">
@@ -12905,19 +12905,19 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.58904735751520021</v>
+        <v>0.59526944895783285</v>
       </c>
       <c r="J21">
-        <v>0.4109526424847999</v>
+        <v>0.4047305510421671</v>
       </c>
       <c r="M21">
         <v>43</v>
       </c>
       <c r="N21">
-        <v>0.8434944933873979</v>
+        <v>0.84905982530456114</v>
       </c>
       <c r="O21">
-        <v>0.15650550661260212</v>
+        <v>0.15094017469543877</v>
       </c>
     </row>
     <row r="22">
@@ -12925,19 +12925,19 @@
         <v>44</v>
       </c>
       <c r="I22">
-        <v>0.58113992127004233</v>
+        <v>0.57715293000230117</v>
       </c>
       <c r="J22">
-        <v>0.41886007872995767</v>
+        <v>0.42284706999769883</v>
       </c>
       <c r="M22">
         <v>44</v>
       </c>
       <c r="N22">
-        <v>0.85434885416939599</v>
+        <v>0.85927129739808694</v>
       </c>
       <c r="O22">
-        <v>0.14565114583060407</v>
+        <v>0.14072870260191309</v>
       </c>
     </row>
     <row r="23">
@@ -12945,19 +12945,19 @@
         <v>45</v>
       </c>
       <c r="I23">
-        <v>0.54616867869289165</v>
+        <v>0.54711047541745794</v>
       </c>
       <c r="J23">
-        <v>0.45383132130710835</v>
+        <v>0.45288952458254206</v>
       </c>
       <c r="M23">
         <v>45</v>
       </c>
       <c r="N23">
-        <v>0.84957986961240628</v>
+        <v>0.84893448728326115</v>
       </c>
       <c r="O23">
-        <v>0.15042013038759372</v>
+        <v>0.15106551271673882</v>
       </c>
     </row>
     <row r="24">
@@ -12965,19 +12965,19 @@
         <v>46</v>
       </c>
       <c r="I24">
-        <v>0.57783430958972082</v>
+        <v>0.57427678143562455</v>
       </c>
       <c r="J24">
-        <v>0.42216569041027913</v>
+        <v>0.42572321856437539</v>
       </c>
       <c r="M24">
         <v>46</v>
       </c>
       <c r="N24">
-        <v>0.83314017458730771</v>
+        <v>0.83419084508400976</v>
       </c>
       <c r="O24">
-        <v>0.1668598254126922</v>
+        <v>0.16580915491599027</v>
       </c>
     </row>
     <row r="25">
@@ -12985,19 +12985,19 @@
         <v>47</v>
       </c>
       <c r="I25">
-        <v>0.62470059280936108</v>
+        <v>0.62529111248362668</v>
       </c>
       <c r="J25">
-        <v>0.37529940719063898</v>
+        <v>0.37470888751637332</v>
       </c>
       <c r="M25">
         <v>47</v>
       </c>
       <c r="N25">
-        <v>0.83633523797009313</v>
+        <v>0.83937558348227359</v>
       </c>
       <c r="O25">
-        <v>0.16366476202990687</v>
+        <v>0.16062441651772641</v>
       </c>
     </row>
     <row r="26">
@@ -13005,19 +13005,19 @@
         <v>48</v>
       </c>
       <c r="I26">
-        <v>0.60232642634182954</v>
+        <v>0.5955089840604727</v>
       </c>
       <c r="J26">
-        <v>0.39767357365817041</v>
+        <v>0.4044910159395273</v>
       </c>
       <c r="M26">
         <v>48</v>
       </c>
       <c r="N26">
-        <v>0.84075361494447221</v>
+        <v>0.84569122101418859</v>
       </c>
       <c r="O26">
-        <v>0.15924638505552782</v>
+        <v>0.15430877898581141</v>
       </c>
     </row>
     <row r="27">
@@ -13025,19 +13025,19 @@
         <v>49</v>
       </c>
       <c r="I27">
-        <v>0.62538628282106989</v>
+        <v>0.62463354090675283</v>
       </c>
       <c r="J27">
-        <v>0.37461371717893005</v>
+        <v>0.37536645909324717</v>
       </c>
       <c r="M27">
         <v>49</v>
       </c>
       <c r="N27">
-        <v>0.82160207249515227</v>
+        <v>0.82241549196467867</v>
       </c>
       <c r="O27">
-        <v>0.17839792750484773</v>
+        <v>0.17758450803532139</v>
       </c>
     </row>
     <row r="28">
@@ -13045,19 +13045,19 @@
         <v>50</v>
       </c>
       <c r="I28">
-        <v>0.63575169230150919</v>
+        <v>0.63394874293561387</v>
       </c>
       <c r="J28">
-        <v>0.36424830769849076</v>
+        <v>0.36605125706438607</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28">
-        <v>0.81817623020115793</v>
+        <v>0.82268923813897576</v>
       </c>
       <c r="O28">
-        <v>0.18182376979884204</v>
+        <v>0.17731076186102424</v>
       </c>
     </row>
     <row r="29">
@@ -13065,19 +13065,19 @@
         <v>51</v>
       </c>
       <c r="I29">
-        <v>0.64066751852694925</v>
+        <v>0.63464702483334201</v>
       </c>
       <c r="J29">
-        <v>0.35933248147305069</v>
+        <v>0.36535297516665804</v>
       </c>
       <c r="M29">
         <v>51</v>
       </c>
       <c r="N29">
-        <v>0.83025834926935282</v>
+        <v>0.82971110618143884</v>
       </c>
       <c r="O29">
-        <v>0.16974165073064729</v>
+        <v>0.1702888938185611</v>
       </c>
     </row>
     <row r="30">
@@ -13085,19 +13085,19 @@
         <v>52</v>
       </c>
       <c r="I30">
-        <v>0.64568273260409004</v>
+        <v>0.64181290991189111</v>
       </c>
       <c r="J30">
-        <v>0.35431726739590996</v>
+        <v>0.35818709008810895</v>
       </c>
       <c r="M30">
         <v>52</v>
       </c>
       <c r="N30">
-        <v>0.84370848161344891</v>
+        <v>0.84322470775073621</v>
       </c>
       <c r="O30">
-        <v>0.156291518386551</v>
+        <v>0.15677529224926379</v>
       </c>
     </row>
     <row r="31">
@@ -13105,19 +13105,19 @@
         <v>53</v>
       </c>
       <c r="I31">
-        <v>0.68317504406801943</v>
+        <v>0.68700019969379211</v>
       </c>
       <c r="J31">
-        <v>0.31682495593198051</v>
+        <v>0.31299980030620794</v>
       </c>
       <c r="M31">
         <v>53</v>
       </c>
       <c r="N31">
-        <v>0.83184776497740898</v>
+        <v>0.83619730787084301</v>
       </c>
       <c r="O31">
-        <v>0.16815223502259108</v>
+        <v>0.16380269212915705</v>
       </c>
     </row>
     <row r="32">
@@ -13125,19 +13125,19 @@
         <v>54</v>
       </c>
       <c r="I32">
-        <v>0.69851638037716557</v>
+        <v>0.70257850369894503</v>
       </c>
       <c r="J32">
-        <v>0.30148361962283449</v>
+        <v>0.29742149630105491</v>
       </c>
       <c r="M32">
         <v>54</v>
       </c>
       <c r="N32">
-        <v>0.83823696662861613</v>
+        <v>0.83689290531217253</v>
       </c>
       <c r="O32">
-        <v>0.16176303337138381</v>
+        <v>0.16310709468782747</v>
       </c>
     </row>
     <row r="33">
@@ -13145,19 +13145,19 @@
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.65416185962226359</v>
+        <v>0.65087040439954258</v>
       </c>
       <c r="J33">
-        <v>0.34583814037773636</v>
+        <v>0.34912959560045753</v>
       </c>
       <c r="M33">
         <v>55</v>
       </c>
       <c r="N33">
-        <v>0.81370925935896365</v>
+        <v>0.81489621554693725</v>
       </c>
       <c r="O33">
-        <v>0.18629074064103646</v>
+        <v>0.18510378445306266</v>
       </c>
     </row>
     <row r="34">
@@ -13165,19 +13165,19 @@
         <v>56</v>
       </c>
       <c r="I34">
-        <v>0.70273892007283056</v>
+        <v>0.70197018675400502</v>
       </c>
       <c r="J34">
-        <v>0.29726107992716944</v>
+        <v>0.29802981324599498</v>
       </c>
       <c r="M34">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>0.78459174841382406</v>
+        <v>0.78882864624153759</v>
       </c>
       <c r="O34">
-        <v>0.21540825158617591</v>
+        <v>0.21117135375846247</v>
       </c>
     </row>
     <row r="35">
@@ -13185,19 +13185,19 @@
         <v>57</v>
       </c>
       <c r="I35">
-        <v>0.7047537009922098</v>
+        <v>0.70415235039339452</v>
       </c>
       <c r="J35">
-        <v>0.2952462990077902</v>
+        <v>0.29584764960660548</v>
       </c>
       <c r="M35">
         <v>57</v>
       </c>
       <c r="N35">
-        <v>0.80396341586111597</v>
+        <v>0.81057282008432285</v>
       </c>
       <c r="O35">
-        <v>0.19603658413888392</v>
+        <v>0.18942717991567706</v>
       </c>
     </row>
     <row r="36">
@@ -13205,19 +13205,19 @@
         <v>58</v>
       </c>
       <c r="I36">
-        <v>0.67922033850151964</v>
+        <v>0.67871770710685264</v>
       </c>
       <c r="J36">
-        <v>0.32077966149848042</v>
+        <v>0.32128229289314736</v>
       </c>
       <c r="M36">
         <v>58</v>
       </c>
       <c r="N36">
-        <v>0.78511937690263056</v>
+        <v>0.78042795038245272</v>
       </c>
       <c r="O36">
-        <v>0.21488062309736938</v>
+        <v>0.21957204961754728</v>
       </c>
     </row>
     <row r="37">
@@ -13225,19 +13225,19 @@
         <v>59</v>
       </c>
       <c r="I37">
-        <v>0.7504063713489304</v>
+        <v>0.74439007170079508</v>
       </c>
       <c r="J37">
-        <v>0.24959362865106965</v>
+        <v>0.25560992829920492</v>
       </c>
       <c r="M37">
         <v>59</v>
       </c>
       <c r="N37">
-        <v>0.77921853668642227</v>
+        <v>0.77967274172242829</v>
       </c>
       <c r="O37">
-        <v>0.22078146331357765</v>
+        <v>0.22032725827757171</v>
       </c>
     </row>
     <row r="38">
@@ -13245,19 +13245,19 @@
         <v>60</v>
       </c>
       <c r="I38">
-        <v>0.71728171546069464</v>
+        <v>0.71555946535555948</v>
       </c>
       <c r="J38">
-        <v>0.28271828453930536</v>
+        <v>0.28444053464444052</v>
       </c>
       <c r="M38">
         <v>60</v>
       </c>
       <c r="N38">
-        <v>0.77854450198229752</v>
+        <v>0.78144907629439486</v>
       </c>
       <c r="O38">
-        <v>0.2214554980177024</v>
+        <v>0.21855092370560519</v>
       </c>
     </row>
     <row r="39">
@@ -13265,19 +13265,19 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>0.75241029958528227</v>
+        <v>0.74505978177994669</v>
       </c>
       <c r="J39">
-        <v>0.2475897004147177</v>
+        <v>0.25494021822005325</v>
       </c>
       <c r="M39">
         <v>61</v>
       </c>
       <c r="N39">
-        <v>0.74697387056519415</v>
+        <v>0.74519286538101781</v>
       </c>
       <c r="O39">
-        <v>0.25302612943480585</v>
+        <v>0.25480713461898225</v>
       </c>
     </row>
     <row r="40">
@@ -13285,19 +13285,19 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>0.76483324875715653</v>
+        <v>0.76604015125012415</v>
       </c>
       <c r="J40">
-        <v>0.23516675124284347</v>
+        <v>0.23395984874987585</v>
       </c>
       <c r="M40">
         <v>62</v>
       </c>
       <c r="N40">
-        <v>0.7697831446528991</v>
+        <v>0.77365524397330487</v>
       </c>
       <c r="O40">
-        <v>0.23021685534710085</v>
+        <v>0.22634475602669515</v>
       </c>
     </row>
     <row r="41">
@@ -13305,19 +13305,19 @@
         <v>63</v>
       </c>
       <c r="I41">
-        <v>0.74203269396408067</v>
+        <v>0.73850632377756265</v>
       </c>
       <c r="J41">
-        <v>0.25796730603591927</v>
+        <v>0.26149367622243747</v>
       </c>
       <c r="M41">
         <v>63</v>
       </c>
       <c r="N41">
-        <v>0.78354393433704839</v>
+        <v>0.78481114328666157</v>
       </c>
       <c r="O41">
-        <v>0.21645606566295156</v>
+        <v>0.21518885671333843</v>
       </c>
     </row>
     <row r="42">
@@ -13325,19 +13325,19 @@
         <v>64</v>
       </c>
       <c r="I42">
-        <v>0.79334545684776658</v>
+        <v>0.79164777509949913</v>
       </c>
       <c r="J42">
-        <v>0.20665454315223342</v>
+        <v>0.2083522249005009</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>0.77485731188833473</v>
+        <v>0.77151786487980367</v>
       </c>
       <c r="O42">
-        <v>0.2251426881116653</v>
+        <v>0.22848213512019633</v>
       </c>
     </row>
     <row r="43">
@@ -13345,19 +13345,19 @@
         <v>65</v>
       </c>
       <c r="I43">
-        <v>0.75534494749274272</v>
+        <v>0.754901403997154</v>
       </c>
       <c r="J43">
-        <v>0.24465505250725725</v>
+        <v>0.24509859600284595</v>
       </c>
       <c r="M43">
         <v>65</v>
       </c>
       <c r="N43">
-        <v>0.78794085498885591</v>
+        <v>0.78445412617919053</v>
       </c>
       <c r="O43">
-        <v>0.21205914501114403</v>
+        <v>0.21554587382080947</v>
       </c>
     </row>
     <row r="44">
@@ -13365,19 +13365,19 @@
         <v>66</v>
       </c>
       <c r="I44">
-        <v>0.81017132738546793</v>
+        <v>0.80727070510820831</v>
       </c>
       <c r="J44">
-        <v>0.18982867261453204</v>
+        <v>0.19272929489179169</v>
       </c>
       <c r="M44">
         <v>66</v>
       </c>
       <c r="N44">
-        <v>0.76841776916931492</v>
+        <v>0.77167596395515037</v>
       </c>
       <c r="O44">
-        <v>0.23158223083068508</v>
+        <v>0.22832403604484972</v>
       </c>
     </row>
     <row r="45">
@@ -13385,19 +13385,19 @@
         <v>67</v>
       </c>
       <c r="I45">
-        <v>0.76408608070076467</v>
+        <v>0.76074942031461557</v>
       </c>
       <c r="J45">
-        <v>0.23591391929923544</v>
+        <v>0.23925057968538438</v>
       </c>
       <c r="M45">
         <v>67</v>
       </c>
       <c r="N45">
-        <v>0.76159067314622053</v>
+        <v>0.76583133405625836</v>
       </c>
       <c r="O45">
-        <v>0.23840932685377941</v>
+        <v>0.23416866594374167</v>
       </c>
     </row>
     <row r="46">
@@ -13405,19 +13405,19 @@
         <v>68</v>
       </c>
       <c r="I46">
-        <v>0.75236123607389938</v>
+        <v>0.76164766009681695</v>
       </c>
       <c r="J46">
-        <v>0.24763876392610071</v>
+        <v>0.23835233990318305</v>
       </c>
       <c r="M46">
         <v>68</v>
       </c>
       <c r="N46">
-        <v>0.76442387546625035</v>
+        <v>0.76423037766193491</v>
       </c>
       <c r="O46">
-        <v>0.23557612453374957</v>
+        <v>0.23576962233806517</v>
       </c>
     </row>
     <row r="47">
@@ -13425,19 +13425,19 @@
         <v>69</v>
       </c>
       <c r="I47">
-        <v>0.79209091299556145</v>
+        <v>0.79089135499835805</v>
       </c>
       <c r="J47">
-        <v>0.20790908700443861</v>
+        <v>0.20910864500164186</v>
       </c>
       <c r="M47">
         <v>69</v>
       </c>
       <c r="N47">
-        <v>0.75402478108334214</v>
+        <v>0.76094747396701456</v>
       </c>
       <c r="O47">
-        <v>0.24597521891665783</v>
+        <v>0.23905252603298546</v>
       </c>
     </row>
     <row r="48">
@@ -13445,19 +13445,19 @@
         <v>70</v>
       </c>
       <c r="I48">
-        <v>0.78449771204922492</v>
+        <v>0.78832536919621665</v>
       </c>
       <c r="J48">
-        <v>0.21550228795077503</v>
+        <v>0.21167463080378335</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <v>0.75302421565875011</v>
+        <v>0.74514995165443343</v>
       </c>
       <c r="O48">
-        <v>0.24697578434124989</v>
+        <v>0.25485004834556663</v>
       </c>
     </row>
     <row r="49">
@@ -13465,19 +13465,19 @@
         <v>71</v>
       </c>
       <c r="I49">
-        <v>0.78978764662632706</v>
+        <v>0.78950399772154201</v>
       </c>
       <c r="J49">
-        <v>0.21021235337367289</v>
+        <v>0.21049600227845805</v>
       </c>
       <c r="M49">
         <v>71</v>
       </c>
       <c r="N49">
-        <v>0.73554706971813599</v>
+        <v>0.73923726303216275</v>
       </c>
       <c r="O49">
-        <v>0.26445293028186401</v>
+        <v>0.26076273696783731</v>
       </c>
     </row>
     <row r="50">
@@ -13485,19 +13485,19 @@
         <v>72</v>
       </c>
       <c r="I50">
-        <v>0.82280391477955506</v>
+        <v>0.82308212182358498</v>
       </c>
       <c r="J50">
-        <v>0.177196085220445</v>
+        <v>0.17691787817641497</v>
       </c>
       <c r="M50">
         <v>72</v>
       </c>
       <c r="N50">
-        <v>0.72902722727585856</v>
+        <v>0.73176264095520827</v>
       </c>
       <c r="O50">
-        <v>0.27097277272414139</v>
+        <v>0.26823735904479173</v>
       </c>
     </row>
     <row r="51">
@@ -13505,19 +13505,19 @@
         <v>73</v>
       </c>
       <c r="I51">
-        <v>0.8319038399176204</v>
+        <v>0.83012210273302989</v>
       </c>
       <c r="J51">
-        <v>0.16809616008237971</v>
+        <v>0.16987789726697008</v>
       </c>
       <c r="M51">
         <v>73</v>
       </c>
       <c r="N51">
-        <v>0.75932495760913188</v>
+        <v>0.76116012860587845</v>
       </c>
       <c r="O51">
-        <v>0.24067504239086818</v>
+        <v>0.23883987139412158</v>
       </c>
     </row>
     <row r="52">
@@ -13525,19 +13525,19 @@
         <v>74</v>
       </c>
       <c r="I52">
-        <v>0.83324230643530539</v>
+        <v>0.83257511576300591</v>
       </c>
       <c r="J52">
-        <v>0.16675769356469461</v>
+        <v>0.16742488423699417</v>
       </c>
       <c r="M52">
         <v>74</v>
       </c>
       <c r="N52">
-        <v>0.69030055971540516</v>
+        <v>0.68941473503610451</v>
       </c>
       <c r="O52">
-        <v>0.30969944028459484</v>
+        <v>0.31058526496389555</v>
       </c>
     </row>
     <row r="53">
@@ -13545,19 +13545,19 @@
         <v>75</v>
       </c>
       <c r="I53">
-        <v>0.85212271546987628</v>
+        <v>0.84556184697307901</v>
       </c>
       <c r="J53">
-        <v>0.14787728453012375</v>
+        <v>0.15443815302692096</v>
       </c>
       <c r="M53">
         <v>75</v>
       </c>
       <c r="N53">
-        <v>0.7029127123013772</v>
+        <v>0.70825446734973019</v>
       </c>
       <c r="O53">
-        <v>0.2970872876986228</v>
+        <v>0.29174553265026981</v>
       </c>
     </row>
     <row r="54">
